--- a/时间表.xlsx
+++ b/时间表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\360\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229785CE-3EE3-4330-ADF5-8DBD94B7C65E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337103B8-00B4-41E3-8CDA-906CF46726CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12444" yWindow="432" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12480" yWindow="1032" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="215">
   <si>
     <t>第一次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -852,6 +852,38 @@
   </si>
   <si>
     <t>2.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回溯算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46全排列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51N皇后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>77组合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>78子集</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -897,10 +929,10 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1184,31 +1216,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F133"/>
+  <dimension ref="A1:F137"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="C131" sqref="C131"/>
+      <selection activeCell="D137" sqref="D137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" style="2" customWidth="1"/>
     <col min="3" max="3" width="45.21875" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
@@ -1219,1377 +1251,1396 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>153</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="3"/>
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>1.2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
         <v>141</v>
       </c>
       <c r="C5" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>1.2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
       <c r="C6" t="s">
         <v>138</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>1.2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
       <c r="C7" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>1.2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
       <c r="C8" t="s">
         <v>140</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>1.2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
         <v>152</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>1.3</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
       <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>1.3</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
       <c r="C11" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>1.3</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="A12" s="3"/>
       <c r="C12" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>1.6</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
       <c r="C14" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>1.6</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
       <c r="C15" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>1.7</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
       <c r="C16" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>1.7</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
       <c r="C17" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>1.8</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
       <c r="C18" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>1.8</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
       <c r="C19" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>1.8</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
       <c r="C20" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>1.8</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
       <c r="C21" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>1.8</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
       <c r="C22" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>1.9</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
       <c r="C23" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <v>1.9</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
       <c r="C24" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <v>1.9</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
       <c r="C25" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <v>1.9</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
       <c r="C26" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="1">
         <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
       <c r="C27" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="1">
         <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
       <c r="C28" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="1">
         <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
       <c r="C29" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="1">
         <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
       <c r="C30" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="1">
         <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
       <c r="C31" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="1">
         <v>1.22</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1" t="s">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C32" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
       <c r="C33" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
       <c r="C34" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
       <c r="C35" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
       <c r="C36" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
       <c r="C37" t="s">
         <v>41</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
       <c r="C38" t="s">
         <v>42</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
       <c r="C39" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
       <c r="C40" t="s">
         <v>45</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="3" t="s">
+      <c r="A41" s="3"/>
+      <c r="B41" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C42" t="s">
         <v>51</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="3" t="s">
+      <c r="A43" s="3"/>
+      <c r="B43" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C43" t="s">
         <v>54</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="3" t="s">
+      <c r="A44" s="3"/>
+      <c r="B44" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C44" t="s">
         <v>53</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1" t="s">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C45" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
       <c r="C46" t="s">
         <v>57</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1" t="s">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C47" t="s">
         <v>59</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
       <c r="C48" t="s">
         <v>61</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
       <c r="C49" t="s">
         <v>62</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1" t="s">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C50" t="s">
         <v>63</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
       <c r="C51" t="s">
         <v>65</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
       <c r="C52" t="s">
         <v>66</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="3" t="s">
+      <c r="A53" s="3"/>
+      <c r="B53" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C53" t="s">
         <v>67</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1" t="s">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C54" t="s">
         <v>69</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
       <c r="C55" t="s">
         <v>70</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D55" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
       <c r="C56" t="s">
         <v>71</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="3" t="s">
         <v>81</v>
       </c>
       <c r="C57" t="s">
         <v>82</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
+      <c r="A58" s="3"/>
       <c r="C58" t="s">
         <v>83</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
+      <c r="A59" s="3"/>
       <c r="C59" t="s">
         <v>84</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
+      <c r="A60" s="3"/>
       <c r="C60" t="s">
         <v>86</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
+      <c r="A61" s="3"/>
       <c r="C61" t="s">
         <v>87</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
+      <c r="A62" s="3"/>
       <c r="C62" t="s">
         <v>89</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
+      <c r="A63" s="3"/>
       <c r="C63" t="s">
         <v>90</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
+      <c r="A64" s="3"/>
       <c r="C64" t="s">
         <v>91</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
+      <c r="A65" s="3"/>
       <c r="C65" t="s">
         <v>92</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D65" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
+      <c r="A66" s="3"/>
       <c r="C66" t="s">
         <v>94</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D66" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
+      <c r="A67" s="3"/>
       <c r="C67" t="s">
         <v>95</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D67" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="3" t="s">
         <v>105</v>
       </c>
       <c r="C68" t="s">
         <v>100</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D68" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
       <c r="C69" t="s">
         <v>101</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D69" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
       <c r="C70" t="s">
         <v>102</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D70" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1" t="s">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3" t="s">
         <v>104</v>
       </c>
       <c r="C71" t="s">
         <v>106</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
       <c r="C72" t="s">
         <v>107</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D72" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
       <c r="C73" t="s">
         <v>108</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D73" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1" t="s">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3" t="s">
         <v>113</v>
       </c>
       <c r="C74" t="s">
         <v>110</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D74" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
       <c r="C75" t="s">
         <v>111</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D75" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
       <c r="C76" t="s">
         <v>112</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D76" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1" t="s">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C77" t="s">
         <v>124</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D77" s="1" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
       <c r="C78" t="s">
         <v>125</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D78" s="1" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
       <c r="C79" t="s">
         <v>127</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D79" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
+      <c r="A80" s="3"/>
       <c r="C80" t="s">
         <v>114</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D80" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1" t="s">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3" t="s">
         <v>121</v>
       </c>
       <c r="C81" t="s">
         <v>116</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D81" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
       <c r="C82" t="s">
         <v>117</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D82" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
       <c r="C83" t="s">
         <v>118</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D83" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
       <c r="C84" t="s">
         <v>119</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D84" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="1"/>
+      <c r="A85" s="3"/>
       <c r="C85" t="s">
         <v>122</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D85" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
+      <c r="A86" s="3"/>
       <c r="C86" t="s">
         <v>123</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D86" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="3" t="s">
         <v>129</v>
       </c>
       <c r="C87" t="s">
         <v>130</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D87" s="1" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
+      <c r="A88" s="3"/>
       <c r="C88" t="s">
         <v>131</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D88" s="1" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
+      <c r="A89" s="3"/>
       <c r="C89" t="s">
         <v>133</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D89" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
+      <c r="A90" s="3"/>
       <c r="C90" t="s">
         <v>134</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="D90" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
+      <c r="A91" s="3"/>
       <c r="C91" t="s">
         <v>135</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D91" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="3" t="s">
         <v>142</v>
       </c>
       <c r="C92" t="s">
         <v>149</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D92" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
       <c r="C93" t="s">
         <v>150</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D93" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
       <c r="C94" t="s">
         <v>151</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D94" s="1" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1" t="s">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3" t="s">
         <v>143</v>
       </c>
       <c r="C95" t="s">
         <v>144</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="D95" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
       <c r="C96" t="s">
         <v>145</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D96" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
       <c r="C97" t="s">
         <v>146</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="D97" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
       <c r="C98" t="s">
         <v>147</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="D98" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="3" t="s">
         <v>154</v>
       </c>
       <c r="C99" t="s">
         <v>155</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="D99" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
+      <c r="A100" s="3"/>
       <c r="C100" t="s">
         <v>156</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D100" s="1" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="1"/>
+      <c r="A101" s="3"/>
       <c r="C101" t="s">
         <v>158</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D101" s="1" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="1"/>
+      <c r="A102" s="3"/>
       <c r="C102" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1" t="s">
+      <c r="A103" s="3"/>
+      <c r="B103" s="3" t="s">
         <v>162</v>
       </c>
       <c r="C103" t="s">
         <v>163</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="D103" s="1" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
+      <c r="A104" s="3"/>
+      <c r="B104" s="3"/>
       <c r="C104" t="s">
         <v>164</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="D104" s="1" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
+      <c r="A105" s="3"/>
+      <c r="B105" s="3"/>
       <c r="C105" t="s">
         <v>166</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="D105" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
+      <c r="A106" s="3"/>
+      <c r="B106" s="3"/>
       <c r="C106" t="s">
         <v>167</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D106" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
+      <c r="A107" s="3"/>
+      <c r="B107" s="3"/>
       <c r="C107" t="s">
         <v>168</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="D107" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
+      <c r="A108" s="3"/>
+      <c r="B108" s="3"/>
       <c r="C108" t="s">
         <v>169</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="D108" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
+      <c r="A109" s="3"/>
+      <c r="B109" s="3"/>
       <c r="C109" t="s">
         <v>171</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="D109" s="1" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
+      <c r="A110" s="3"/>
+      <c r="B110" s="3"/>
       <c r="C110" t="s">
         <v>193</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="D110" s="1" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="1"/>
-      <c r="B111" s="3" t="s">
+      <c r="A111" s="3"/>
+      <c r="B111" s="2" t="s">
         <v>196</v>
       </c>
       <c r="C111" t="s">
         <v>170</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="D111" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1" t="s">
+      <c r="A112" s="3"/>
+      <c r="B112" s="3" t="s">
         <v>173</v>
       </c>
       <c r="C112" t="s">
         <v>174</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="D112" s="1" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
+      <c r="A113" s="3"/>
+      <c r="B113" s="3"/>
       <c r="C113" t="s">
         <v>175</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="D113" s="1" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="1"/>
+      <c r="A114" s="3"/>
       <c r="C114" t="s">
         <v>177</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="D114" s="1" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="1"/>
+      <c r="A115" s="3"/>
       <c r="C115" t="s">
         <v>178</v>
       </c>
-      <c r="D115" s="2" t="s">
+      <c r="D115" s="1" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="1"/>
+      <c r="A116" s="3"/>
       <c r="C116" t="s">
         <v>182</v>
       </c>
-      <c r="D116" s="2" t="s">
+      <c r="D116" s="1" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="1"/>
+      <c r="A117" s="3"/>
       <c r="C117" t="s">
         <v>179</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="D117" s="1" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="1"/>
+      <c r="A118" s="3"/>
       <c r="C118" t="s">
         <v>180</v>
       </c>
-      <c r="D118" s="2" t="s">
+      <c r="D118" s="1" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="1"/>
+      <c r="A119" s="3"/>
       <c r="C119" t="s">
         <v>181</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="D119" s="1" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="1"/>
+      <c r="A120" s="3"/>
       <c r="C120" t="s">
         <v>184</v>
       </c>
-      <c r="D120" s="2" t="s">
+      <c r="D120" s="1" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="1"/>
-      <c r="B121" s="3" t="s">
+      <c r="A121" s="3"/>
+      <c r="B121" s="2" t="s">
         <v>195</v>
       </c>
       <c r="C121" t="s">
         <v>186</v>
       </c>
-      <c r="D121" s="2" t="s">
+      <c r="D121" s="1" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="1"/>
+      <c r="A122" s="3"/>
       <c r="C122" t="s">
         <v>187</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="D122" s="1" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="1"/>
+      <c r="A123" s="3"/>
       <c r="C123" t="s">
         <v>188</v>
       </c>
-      <c r="D123" s="2" t="s">
+      <c r="D123" s="1" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="1"/>
+      <c r="A124" s="3"/>
       <c r="C124" t="s">
         <v>189</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="D124" s="1" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="1"/>
+      <c r="A125" s="3"/>
       <c r="C125" t="s">
         <v>190</v>
       </c>
-      <c r="D125" s="2" t="s">
+      <c r="D125" s="1" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="1"/>
-      <c r="B126" s="3" t="s">
+      <c r="A126" s="3"/>
+      <c r="B126" s="2" t="s">
         <v>197</v>
       </c>
       <c r="C126" t="s">
         <v>192</v>
       </c>
-      <c r="D126" s="2" t="s">
+      <c r="D126" s="1" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="1"/>
-      <c r="B127" s="1" t="s">
+      <c r="A127" s="3"/>
+      <c r="B127" s="3" t="s">
         <v>200</v>
       </c>
       <c r="C127" t="s">
         <v>198</v>
       </c>
-      <c r="D127" s="2" t="s">
+      <c r="D127" s="1" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
+      <c r="A128" s="3"/>
+      <c r="B128" s="3"/>
       <c r="C128" t="s">
         <v>199</v>
       </c>
-      <c r="D128" s="2" t="s">
+      <c r="D128" s="1" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
+      <c r="A129" s="3"/>
+      <c r="B129" s="3"/>
       <c r="C129" t="s">
         <v>201</v>
       </c>
-      <c r="D129" s="2" t="s">
+      <c r="D129" s="1" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
+      <c r="A130" s="3"/>
+      <c r="B130" s="3"/>
       <c r="C130" t="s">
         <v>202</v>
       </c>
-      <c r="D130" s="2" t="s">
+      <c r="D130" s="1" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
+      <c r="A131" s="3"/>
+      <c r="B131" s="3"/>
       <c r="C131" t="s">
         <v>203</v>
       </c>
-      <c r="D131" s="2" t="s">
+      <c r="D131" s="1" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
+      <c r="A132" s="3"/>
+      <c r="B132" s="3"/>
       <c r="C132" t="s">
         <v>204</v>
       </c>
-      <c r="D132" s="2" t="s">
+      <c r="D132" s="1" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
+      <c r="A133" s="3"/>
+      <c r="B133" s="3"/>
       <c r="C133" t="s">
         <v>205</v>
       </c>
-      <c r="D133" s="2" t="s">
+      <c r="D133" s="1" t="s">
         <v>206</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>207</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C134" t="s">
+        <v>209</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C135" t="s">
+        <v>211</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C136" t="s">
+        <v>213</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C137" t="s">
+        <v>214</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B103:B110"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="B127:B133"/>
-    <mergeCell ref="A99:A133"/>
-    <mergeCell ref="B95:B98"/>
-    <mergeCell ref="A92:A98"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="A68:A86"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="A42:A56"/>
-    <mergeCell ref="A57:A67"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="B68:B70"/>
     <mergeCell ref="B5:B8"/>
@@ -2598,6 +2649,25 @@
     <mergeCell ref="A13:A41"/>
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="B47:B49"/>
+    <mergeCell ref="A68:A86"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="A42:A56"/>
+    <mergeCell ref="A57:A67"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B103:B110"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="B127:B133"/>
+    <mergeCell ref="A99:A133"/>
+    <mergeCell ref="B95:B98"/>
+    <mergeCell ref="A92:A98"/>
+    <mergeCell ref="B92:B94"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/时间表.xlsx
+++ b/时间表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\360\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337103B8-00B4-41E3-8CDA-906CF46726CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B17BEC-E677-4D4D-B9DC-893DAC365BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12480" yWindow="1032" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7404" yWindow="432" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="220">
   <si>
     <t>第一次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -884,6 +884,26 @@
   </si>
   <si>
     <t>78子集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>698划分为k个相等的子集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22括号生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20有效的括号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -927,9 +947,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1216,10 +1239,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F137"/>
+  <dimension ref="A1:F141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="D137" sqref="D137"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="C140" sqref="C140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1251,10 +1274,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>153</v>
       </c>
       <c r="C2" t="s">
@@ -1265,8 +1288,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -1275,7 +1298,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+      <c r="A4" s="4"/>
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -1284,8 +1307,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
         <v>141</v>
       </c>
       <c r="C5" t="s">
@@ -1296,8 +1319,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
       <c r="C6" t="s">
         <v>138</v>
       </c>
@@ -1306,8 +1329,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
       <c r="C7" t="s">
         <v>139</v>
       </c>
@@ -1316,8 +1339,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
       <c r="C8" t="s">
         <v>140</v>
       </c>
@@ -1326,8 +1349,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
         <v>152</v>
       </c>
       <c r="C9" t="s">
@@ -1338,8 +1361,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
       <c r="C10" t="s">
         <v>9</v>
       </c>
@@ -1348,8 +1371,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
       <c r="C11" t="s">
         <v>10</v>
       </c>
@@ -1358,7 +1381,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="C12" t="s">
         <v>97</v>
       </c>
@@ -1367,10 +1390,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C13" t="s">
@@ -1381,8 +1404,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -1391,8 +1414,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
       <c r="C15" t="s">
         <v>17</v>
       </c>
@@ -1401,8 +1424,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
       <c r="C16" t="s">
         <v>18</v>
       </c>
@@ -1411,8 +1434,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
       <c r="C17" t="s">
         <v>19</v>
       </c>
@@ -1421,8 +1444,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
       <c r="C18" t="s">
         <v>20</v>
       </c>
@@ -1431,8 +1454,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
       <c r="C19" t="s">
         <v>21</v>
       </c>
@@ -1441,8 +1464,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
       <c r="C20" t="s">
         <v>22</v>
       </c>
@@ -1451,8 +1474,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
       <c r="C21" t="s">
         <v>23</v>
       </c>
@@ -1461,8 +1484,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
       <c r="C22" t="s">
         <v>24</v>
       </c>
@@ -1471,8 +1494,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -1481,8 +1504,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
       <c r="C24" t="s">
         <v>26</v>
       </c>
@@ -1491,8 +1514,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
       <c r="C25" t="s">
         <v>27</v>
       </c>
@@ -1501,8 +1524,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
       <c r="C26" t="s">
         <v>28</v>
       </c>
@@ -1511,8 +1534,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
       <c r="C27" t="s">
         <v>29</v>
       </c>
@@ -1521,8 +1544,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
       <c r="C28" t="s">
         <v>30</v>
       </c>
@@ -1531,8 +1554,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
       <c r="C29" t="s">
         <v>31</v>
       </c>
@@ -1541,8 +1564,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
       <c r="C30" t="s">
         <v>32</v>
       </c>
@@ -1551,8 +1574,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
       <c r="C31" t="s">
         <v>33</v>
       </c>
@@ -1561,8 +1584,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3" t="s">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C32" t="s">
@@ -1573,8 +1596,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
       <c r="C33" t="s">
         <v>36</v>
       </c>
@@ -1583,8 +1606,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
       <c r="C34" t="s">
         <v>37</v>
       </c>
@@ -1593,8 +1616,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
       <c r="C35" t="s">
         <v>39</v>
       </c>
@@ -1603,8 +1626,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
       <c r="C36" t="s">
         <v>40</v>
       </c>
@@ -1613,8 +1636,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
       <c r="C37" t="s">
         <v>41</v>
       </c>
@@ -1623,8 +1646,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
       <c r="C38" t="s">
         <v>42</v>
       </c>
@@ -1633,8 +1656,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
       <c r="C39" t="s">
         <v>44</v>
       </c>
@@ -1643,8 +1666,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
       <c r="C40" t="s">
         <v>45</v>
       </c>
@@ -1653,7 +1676,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
+      <c r="A41" s="4"/>
       <c r="B41" s="2" t="s">
         <v>47</v>
       </c>
@@ -1665,7 +1688,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -1679,7 +1702,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
+      <c r="A43" s="4"/>
       <c r="B43" s="2" t="s">
         <v>74</v>
       </c>
@@ -1691,7 +1714,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
+      <c r="A44" s="4"/>
       <c r="B44" s="2" t="s">
         <v>75</v>
       </c>
@@ -1703,8 +1726,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3" t="s">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4" t="s">
         <v>76</v>
       </c>
       <c r="C45" t="s">
@@ -1715,8 +1738,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
       <c r="C46" t="s">
         <v>57</v>
       </c>
@@ -1725,8 +1748,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3" t="s">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4" t="s">
         <v>77</v>
       </c>
       <c r="C47" t="s">
@@ -1737,8 +1760,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
       <c r="C48" t="s">
         <v>61</v>
       </c>
@@ -1747,8 +1770,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
       <c r="C49" t="s">
         <v>62</v>
       </c>
@@ -1757,8 +1780,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3" t="s">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4" t="s">
         <v>78</v>
       </c>
       <c r="C50" t="s">
@@ -1769,8 +1792,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
       <c r="C51" t="s">
         <v>65</v>
       </c>
@@ -1779,8 +1802,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
       <c r="C52" t="s">
         <v>66</v>
       </c>
@@ -1789,7 +1812,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
+      <c r="A53" s="4"/>
       <c r="B53" s="2" t="s">
         <v>79</v>
       </c>
@@ -1801,8 +1824,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3" t="s">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4" t="s">
         <v>80</v>
       </c>
       <c r="C54" t="s">
@@ -1813,8 +1836,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
       <c r="C55" t="s">
         <v>70</v>
       </c>
@@ -1823,8 +1846,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
       <c r="C56" t="s">
         <v>71</v>
       </c>
@@ -1833,7 +1856,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="4" t="s">
         <v>81</v>
       </c>
       <c r="C57" t="s">
@@ -1844,7 +1867,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
+      <c r="A58" s="4"/>
       <c r="C58" t="s">
         <v>83</v>
       </c>
@@ -1853,7 +1876,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
+      <c r="A59" s="4"/>
       <c r="C59" t="s">
         <v>84</v>
       </c>
@@ -1862,7 +1885,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
+      <c r="A60" s="4"/>
       <c r="C60" t="s">
         <v>86</v>
       </c>
@@ -1871,7 +1894,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
+      <c r="A61" s="4"/>
       <c r="C61" t="s">
         <v>87</v>
       </c>
@@ -1880,7 +1903,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
+      <c r="A62" s="4"/>
       <c r="C62" t="s">
         <v>89</v>
       </c>
@@ -1889,7 +1912,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
+      <c r="A63" s="4"/>
       <c r="C63" t="s">
         <v>90</v>
       </c>
@@ -1898,7 +1921,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
+      <c r="A64" s="4"/>
       <c r="C64" t="s">
         <v>91</v>
       </c>
@@ -1907,7 +1930,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
+      <c r="A65" s="4"/>
       <c r="C65" t="s">
         <v>92</v>
       </c>
@@ -1916,7 +1939,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
+      <c r="A66" s="4"/>
       <c r="C66" t="s">
         <v>94</v>
       </c>
@@ -1925,7 +1948,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
+      <c r="A67" s="4"/>
       <c r="C67" t="s">
         <v>95</v>
       </c>
@@ -1934,10 +1957,10 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C68" t="s">
@@ -1948,8 +1971,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
       <c r="C69" t="s">
         <v>101</v>
       </c>
@@ -1958,8 +1981,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
       <c r="C70" t="s">
         <v>102</v>
       </c>
@@ -1968,8 +1991,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3" t="s">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4" t="s">
         <v>104</v>
       </c>
       <c r="C71" t="s">
@@ -1980,8 +2003,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
       <c r="C72" t="s">
         <v>107</v>
       </c>
@@ -1990,8 +2013,8 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
       <c r="C73" t="s">
         <v>108</v>
       </c>
@@ -2000,8 +2023,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3" t="s">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4" t="s">
         <v>113</v>
       </c>
       <c r="C74" t="s">
@@ -2012,8 +2035,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
       <c r="C75" t="s">
         <v>111</v>
       </c>
@@ -2022,8 +2045,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
       <c r="C76" t="s">
         <v>112</v>
       </c>
@@ -2032,8 +2055,8 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3" t="s">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C77" t="s">
@@ -2044,8 +2067,8 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
       <c r="C78" t="s">
         <v>125</v>
       </c>
@@ -2054,8 +2077,8 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
       <c r="C79" t="s">
         <v>127</v>
       </c>
@@ -2064,7 +2087,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="3"/>
+      <c r="A80" s="4"/>
       <c r="C80" t="s">
         <v>114</v>
       </c>
@@ -2073,8 +2096,8 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3" t="s">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C81" t="s">
@@ -2085,8 +2108,8 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
       <c r="C82" t="s">
         <v>117</v>
       </c>
@@ -2095,8 +2118,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
       <c r="C83" t="s">
         <v>118</v>
       </c>
@@ -2105,8 +2128,8 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
       <c r="C84" t="s">
         <v>119</v>
       </c>
@@ -2115,7 +2138,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="3"/>
+      <c r="A85" s="4"/>
       <c r="C85" t="s">
         <v>122</v>
       </c>
@@ -2124,7 +2147,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="3"/>
+      <c r="A86" s="4"/>
       <c r="C86" t="s">
         <v>123</v>
       </c>
@@ -2133,7 +2156,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="4" t="s">
         <v>129</v>
       </c>
       <c r="C87" t="s">
@@ -2144,7 +2167,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="3"/>
+      <c r="A88" s="4"/>
       <c r="C88" t="s">
         <v>131</v>
       </c>
@@ -2153,7 +2176,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="3"/>
+      <c r="A89" s="4"/>
       <c r="C89" t="s">
         <v>133</v>
       </c>
@@ -2162,7 +2185,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="3"/>
+      <c r="A90" s="4"/>
       <c r="C90" t="s">
         <v>134</v>
       </c>
@@ -2171,7 +2194,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
+      <c r="A91" s="4"/>
       <c r="C91" t="s">
         <v>135</v>
       </c>
@@ -2180,10 +2203,10 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="4" t="s">
         <v>142</v>
       </c>
       <c r="C92" t="s">
@@ -2194,8 +2217,8 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
       <c r="C93" t="s">
         <v>150</v>
       </c>
@@ -2204,8 +2227,8 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
       <c r="C94" t="s">
         <v>151</v>
       </c>
@@ -2214,8 +2237,8 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3" t="s">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4" t="s">
         <v>143</v>
       </c>
       <c r="C95" t="s">
@@ -2226,8 +2249,8 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
       <c r="C96" t="s">
         <v>145</v>
       </c>
@@ -2236,8 +2259,8 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
       <c r="C97" t="s">
         <v>146</v>
       </c>
@@ -2246,8 +2269,8 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
       <c r="C98" t="s">
         <v>147</v>
       </c>
@@ -2256,7 +2279,7 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="4" t="s">
         <v>154</v>
       </c>
       <c r="C99" t="s">
@@ -2267,7 +2290,7 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="3"/>
+      <c r="A100" s="4"/>
       <c r="C100" t="s">
         <v>156</v>
       </c>
@@ -2276,7 +2299,7 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="3"/>
+      <c r="A101" s="4"/>
       <c r="C101" t="s">
         <v>158</v>
       </c>
@@ -2285,14 +2308,14 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="3"/>
+      <c r="A102" s="4"/>
       <c r="C102" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3" t="s">
+      <c r="A103" s="4"/>
+      <c r="B103" s="4" t="s">
         <v>162</v>
       </c>
       <c r="C103" t="s">
@@ -2303,8 +2326,8 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
+      <c r="A104" s="4"/>
+      <c r="B104" s="4"/>
       <c r="C104" t="s">
         <v>164</v>
       </c>
@@ -2313,8 +2336,8 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
       <c r="C105" t="s">
         <v>166</v>
       </c>
@@ -2323,8 +2346,8 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
       <c r="C106" t="s">
         <v>167</v>
       </c>
@@ -2333,8 +2356,8 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
       <c r="C107" t="s">
         <v>168</v>
       </c>
@@ -2343,8 +2366,8 @@
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
       <c r="C108" t="s">
         <v>169</v>
       </c>
@@ -2353,8 +2376,8 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="3"/>
-      <c r="B109" s="3"/>
+      <c r="A109" s="4"/>
+      <c r="B109" s="4"/>
       <c r="C109" t="s">
         <v>171</v>
       </c>
@@ -2363,8 +2386,8 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="3"/>
-      <c r="B110" s="3"/>
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
       <c r="C110" t="s">
         <v>193</v>
       </c>
@@ -2373,7 +2396,7 @@
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="3"/>
+      <c r="A111" s="4"/>
       <c r="B111" s="2" t="s">
         <v>196</v>
       </c>
@@ -2385,8 +2408,8 @@
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="3"/>
-      <c r="B112" s="3" t="s">
+      <c r="A112" s="4"/>
+      <c r="B112" s="4" t="s">
         <v>173</v>
       </c>
       <c r="C112" t="s">
@@ -2397,8 +2420,8 @@
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
       <c r="C113" t="s">
         <v>175</v>
       </c>
@@ -2407,7 +2430,7 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="3"/>
+      <c r="A114" s="4"/>
       <c r="C114" t="s">
         <v>177</v>
       </c>
@@ -2416,7 +2439,7 @@
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="3"/>
+      <c r="A115" s="4"/>
       <c r="C115" t="s">
         <v>178</v>
       </c>
@@ -2425,7 +2448,7 @@
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="3"/>
+      <c r="A116" s="4"/>
       <c r="C116" t="s">
         <v>182</v>
       </c>
@@ -2434,7 +2457,7 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="3"/>
+      <c r="A117" s="4"/>
       <c r="C117" t="s">
         <v>179</v>
       </c>
@@ -2443,7 +2466,7 @@
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="3"/>
+      <c r="A118" s="4"/>
       <c r="C118" t="s">
         <v>180</v>
       </c>
@@ -2452,7 +2475,7 @@
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="3"/>
+      <c r="A119" s="4"/>
       <c r="C119" t="s">
         <v>181</v>
       </c>
@@ -2461,7 +2484,7 @@
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="3"/>
+      <c r="A120" s="4"/>
       <c r="C120" t="s">
         <v>184</v>
       </c>
@@ -2470,7 +2493,7 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="3"/>
+      <c r="A121" s="4"/>
       <c r="B121" s="2" t="s">
         <v>195</v>
       </c>
@@ -2482,7 +2505,7 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="3"/>
+      <c r="A122" s="4"/>
       <c r="C122" t="s">
         <v>187</v>
       </c>
@@ -2491,7 +2514,7 @@
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="3"/>
+      <c r="A123" s="4"/>
       <c r="C123" t="s">
         <v>188</v>
       </c>
@@ -2500,7 +2523,7 @@
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="3"/>
+      <c r="A124" s="4"/>
       <c r="C124" t="s">
         <v>189</v>
       </c>
@@ -2509,7 +2532,7 @@
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="3"/>
+      <c r="A125" s="4"/>
       <c r="C125" t="s">
         <v>190</v>
       </c>
@@ -2518,7 +2541,7 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="3"/>
+      <c r="A126" s="4"/>
       <c r="B126" s="2" t="s">
         <v>197</v>
       </c>
@@ -2530,8 +2553,8 @@
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="3"/>
-      <c r="B127" s="3" t="s">
+      <c r="A127" s="4"/>
+      <c r="B127" s="4" t="s">
         <v>200</v>
       </c>
       <c r="C127" t="s">
@@ -2542,8 +2565,8 @@
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="3"/>
-      <c r="B128" s="3"/>
+      <c r="A128" s="4"/>
+      <c r="B128" s="4"/>
       <c r="C128" t="s">
         <v>199</v>
       </c>
@@ -2552,8 +2575,8 @@
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="3"/>
-      <c r="B129" s="3"/>
+      <c r="A129" s="4"/>
+      <c r="B129" s="4"/>
       <c r="C129" t="s">
         <v>201</v>
       </c>
@@ -2562,8 +2585,8 @@
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="3"/>
-      <c r="B130" s="3"/>
+      <c r="A130" s="4"/>
+      <c r="B130" s="4"/>
       <c r="C130" t="s">
         <v>202</v>
       </c>
@@ -2572,8 +2595,8 @@
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="3"/>
-      <c r="B131" s="3"/>
+      <c r="A131" s="4"/>
+      <c r="B131" s="4"/>
       <c r="C131" t="s">
         <v>203</v>
       </c>
@@ -2582,8 +2605,8 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="3"/>
-      <c r="B132" s="3"/>
+      <c r="A132" s="4"/>
+      <c r="B132" s="4"/>
       <c r="C132" t="s">
         <v>204</v>
       </c>
@@ -2592,8 +2615,8 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="3"/>
-      <c r="B133" s="3"/>
+      <c r="A133" s="4"/>
+      <c r="B133" s="4"/>
       <c r="C133" t="s">
         <v>205</v>
       </c>
@@ -2639,8 +2662,54 @@
         <v>212</v>
       </c>
     </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C138" t="s">
+        <v>215</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C139" t="s">
+        <v>217</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B140" s="3"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>218</v>
+      </c>
+      <c r="C141" t="s">
+        <v>219</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B103:B110"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="B127:B133"/>
+    <mergeCell ref="A99:A133"/>
+    <mergeCell ref="B95:B98"/>
+    <mergeCell ref="A92:A98"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="A42:A56"/>
+    <mergeCell ref="A57:A67"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="B77:B79"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="B68:B70"/>
     <mergeCell ref="B5:B8"/>
@@ -2650,24 +2719,8 @@
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="B47:B49"/>
     <mergeCell ref="A68:A86"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="A42:A56"/>
-    <mergeCell ref="A57:A67"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="B103:B110"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="B127:B133"/>
-    <mergeCell ref="A99:A133"/>
-    <mergeCell ref="B95:B98"/>
-    <mergeCell ref="A92:A98"/>
-    <mergeCell ref="B92:B94"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/时间表.xlsx
+++ b/时间表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\360\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B17BEC-E677-4D4D-B9DC-893DAC365BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3922EF49-0E8B-456C-9AEC-0A6540B3A731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7404" yWindow="432" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="0" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="225">
   <si>
     <t>第一次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -904,6 +904,26 @@
   </si>
   <si>
     <t>20有效的括号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37数独</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111二叉树的最小深度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>752打开转盘锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BFS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -947,9 +967,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1239,10 +1262,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F141"/>
+  <dimension ref="A1:F144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="C140" sqref="C140"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="C146" sqref="C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1274,10 +1297,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>153</v>
       </c>
       <c r="C2" t="s">
@@ -1288,8 +1311,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -1298,7 +1321,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+      <c r="A4" s="5"/>
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -1307,8 +1330,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
         <v>141</v>
       </c>
       <c r="C5" t="s">
@@ -1319,8 +1342,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
       <c r="C6" t="s">
         <v>138</v>
       </c>
@@ -1329,8 +1352,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
       <c r="C7" t="s">
         <v>139</v>
       </c>
@@ -1339,8 +1362,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
       <c r="C8" t="s">
         <v>140</v>
       </c>
@@ -1349,8 +1372,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5" t="s">
         <v>152</v>
       </c>
       <c r="C9" t="s">
@@ -1361,8 +1384,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
       <c r="C10" t="s">
         <v>9</v>
       </c>
@@ -1371,8 +1394,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
       <c r="C11" t="s">
         <v>10</v>
       </c>
@@ -1381,7 +1404,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+      <c r="A12" s="5"/>
       <c r="C12" t="s">
         <v>97</v>
       </c>
@@ -1390,10 +1413,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C13" t="s">
@@ -1404,8 +1427,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -1414,8 +1437,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
       <c r="C15" t="s">
         <v>17</v>
       </c>
@@ -1424,8 +1447,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
       <c r="C16" t="s">
         <v>18</v>
       </c>
@@ -1434,8 +1457,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
       <c r="C17" t="s">
         <v>19</v>
       </c>
@@ -1444,8 +1467,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
       <c r="C18" t="s">
         <v>20</v>
       </c>
@@ -1454,8 +1477,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
       <c r="C19" t="s">
         <v>21</v>
       </c>
@@ -1464,8 +1487,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
       <c r="C20" t="s">
         <v>22</v>
       </c>
@@ -1474,8 +1497,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
       <c r="C21" t="s">
         <v>23</v>
       </c>
@@ -1484,8 +1507,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
       <c r="C22" t="s">
         <v>24</v>
       </c>
@@ -1494,8 +1517,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -1504,8 +1527,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
       <c r="C24" t="s">
         <v>26</v>
       </c>
@@ -1514,8 +1537,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
       <c r="C25" t="s">
         <v>27</v>
       </c>
@@ -1524,8 +1547,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
       <c r="C26" t="s">
         <v>28</v>
       </c>
@@ -1534,8 +1557,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
       <c r="C27" t="s">
         <v>29</v>
       </c>
@@ -1544,8 +1567,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
       <c r="C28" t="s">
         <v>30</v>
       </c>
@@ -1554,8 +1577,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
       <c r="C29" t="s">
         <v>31</v>
       </c>
@@ -1564,8 +1587,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
       <c r="C30" t="s">
         <v>32</v>
       </c>
@@ -1574,8 +1597,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
       <c r="C31" t="s">
         <v>33</v>
       </c>
@@ -1584,8 +1607,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4" t="s">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C32" t="s">
@@ -1596,8 +1619,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
       <c r="C33" t="s">
         <v>36</v>
       </c>
@@ -1606,8 +1629,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
       <c r="C34" t="s">
         <v>37</v>
       </c>
@@ -1616,8 +1639,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
       <c r="C35" t="s">
         <v>39</v>
       </c>
@@ -1626,8 +1649,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
       <c r="C36" t="s">
         <v>40</v>
       </c>
@@ -1636,8 +1659,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
       <c r="C37" t="s">
         <v>41</v>
       </c>
@@ -1646,8 +1669,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
       <c r="C38" t="s">
         <v>42</v>
       </c>
@@ -1656,8 +1679,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
       <c r="C39" t="s">
         <v>44</v>
       </c>
@@ -1666,8 +1689,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
       <c r="C40" t="s">
         <v>45</v>
       </c>
@@ -1676,7 +1699,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
+      <c r="A41" s="5"/>
       <c r="B41" s="2" t="s">
         <v>47</v>
       </c>
@@ -1688,7 +1711,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -1702,7 +1725,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
+      <c r="A43" s="5"/>
       <c r="B43" s="2" t="s">
         <v>74</v>
       </c>
@@ -1714,7 +1737,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
+      <c r="A44" s="5"/>
       <c r="B44" s="2" t="s">
         <v>75</v>
       </c>
@@ -1726,8 +1749,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4" t="s">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5" t="s">
         <v>76</v>
       </c>
       <c r="C45" t="s">
@@ -1738,8 +1761,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
       <c r="C46" t="s">
         <v>57</v>
       </c>
@@ -1748,8 +1771,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4" t="s">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5" t="s">
         <v>77</v>
       </c>
       <c r="C47" t="s">
@@ -1760,8 +1783,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
       <c r="C48" t="s">
         <v>61</v>
       </c>
@@ -1770,8 +1793,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
       <c r="C49" t="s">
         <v>62</v>
       </c>
@@ -1780,8 +1803,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4" t="s">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5" t="s">
         <v>78</v>
       </c>
       <c r="C50" t="s">
@@ -1792,8 +1815,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
       <c r="C51" t="s">
         <v>65</v>
       </c>
@@ -1802,8 +1825,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
       <c r="C52" t="s">
         <v>66</v>
       </c>
@@ -1812,7 +1835,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
+      <c r="A53" s="5"/>
       <c r="B53" s="2" t="s">
         <v>79</v>
       </c>
@@ -1824,8 +1847,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4" t="s">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5" t="s">
         <v>80</v>
       </c>
       <c r="C54" t="s">
@@ -1836,8 +1859,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
       <c r="C55" t="s">
         <v>70</v>
       </c>
@@ -1846,8 +1869,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
       <c r="C56" t="s">
         <v>71</v>
       </c>
@@ -1856,7 +1879,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="5" t="s">
         <v>81</v>
       </c>
       <c r="C57" t="s">
@@ -1867,7 +1890,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
+      <c r="A58" s="5"/>
       <c r="C58" t="s">
         <v>83</v>
       </c>
@@ -1876,7 +1899,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
+      <c r="A59" s="5"/>
       <c r="C59" t="s">
         <v>84</v>
       </c>
@@ -1885,7 +1908,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
+      <c r="A60" s="5"/>
       <c r="C60" t="s">
         <v>86</v>
       </c>
@@ -1894,7 +1917,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
+      <c r="A61" s="5"/>
       <c r="C61" t="s">
         <v>87</v>
       </c>
@@ -1903,7 +1926,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
+      <c r="A62" s="5"/>
       <c r="C62" t="s">
         <v>89</v>
       </c>
@@ -1912,7 +1935,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
+      <c r="A63" s="5"/>
       <c r="C63" t="s">
         <v>90</v>
       </c>
@@ -1921,7 +1944,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
+      <c r="A64" s="5"/>
       <c r="C64" t="s">
         <v>91</v>
       </c>
@@ -1930,7 +1953,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
+      <c r="A65" s="5"/>
       <c r="C65" t="s">
         <v>92</v>
       </c>
@@ -1939,7 +1962,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
+      <c r="A66" s="5"/>
       <c r="C66" t="s">
         <v>94</v>
       </c>
@@ -1948,7 +1971,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
+      <c r="A67" s="5"/>
       <c r="C67" t="s">
         <v>95</v>
       </c>
@@ -1957,10 +1980,10 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="5" t="s">
         <v>105</v>
       </c>
       <c r="C68" t="s">
@@ -1971,8 +1994,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
       <c r="C69" t="s">
         <v>101</v>
       </c>
@@ -1981,8 +2004,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
       <c r="C70" t="s">
         <v>102</v>
       </c>
@@ -1991,8 +2014,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
-      <c r="B71" s="4" t="s">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5" t="s">
         <v>104</v>
       </c>
       <c r="C71" t="s">
@@ -2003,8 +2026,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
-      <c r="B72" s="4"/>
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
       <c r="C72" t="s">
         <v>107</v>
       </c>
@@ -2013,8 +2036,8 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
       <c r="C73" t="s">
         <v>108</v>
       </c>
@@ -2023,8 +2046,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="4"/>
-      <c r="B74" s="4" t="s">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5" t="s">
         <v>113</v>
       </c>
       <c r="C74" t="s">
@@ -2035,8 +2058,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
       <c r="C75" t="s">
         <v>111</v>
       </c>
@@ -2045,8 +2068,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="4"/>
-      <c r="B76" s="4"/>
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
       <c r="C76" t="s">
         <v>112</v>
       </c>
@@ -2055,8 +2078,8 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="4"/>
-      <c r="B77" s="4" t="s">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5" t="s">
         <v>128</v>
       </c>
       <c r="C77" t="s">
@@ -2067,8 +2090,8 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="4"/>
-      <c r="B78" s="4"/>
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
       <c r="C78" t="s">
         <v>125</v>
       </c>
@@ -2077,8 +2100,8 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="4"/>
-      <c r="B79" s="4"/>
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
       <c r="C79" t="s">
         <v>127</v>
       </c>
@@ -2087,7 +2110,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="4"/>
+      <c r="A80" s="5"/>
       <c r="C80" t="s">
         <v>114</v>
       </c>
@@ -2096,8 +2119,8 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="4"/>
-      <c r="B81" s="4" t="s">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5" t="s">
         <v>121</v>
       </c>
       <c r="C81" t="s">
@@ -2108,8 +2131,8 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
       <c r="C82" t="s">
         <v>117</v>
       </c>
@@ -2118,8 +2141,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
       <c r="C83" t="s">
         <v>118</v>
       </c>
@@ -2128,8 +2151,8 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
       <c r="C84" t="s">
         <v>119</v>
       </c>
@@ -2138,7 +2161,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="4"/>
+      <c r="A85" s="5"/>
       <c r="C85" t="s">
         <v>122</v>
       </c>
@@ -2147,7 +2170,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="4"/>
+      <c r="A86" s="5"/>
       <c r="C86" t="s">
         <v>123</v>
       </c>
@@ -2156,7 +2179,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="5" t="s">
         <v>129</v>
       </c>
       <c r="C87" t="s">
@@ -2167,7 +2190,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="4"/>
+      <c r="A88" s="5"/>
       <c r="C88" t="s">
         <v>131</v>
       </c>
@@ -2176,7 +2199,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="4"/>
+      <c r="A89" s="5"/>
       <c r="C89" t="s">
         <v>133</v>
       </c>
@@ -2185,7 +2208,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="4"/>
+      <c r="A90" s="5"/>
       <c r="C90" t="s">
         <v>134</v>
       </c>
@@ -2194,7 +2217,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="4"/>
+      <c r="A91" s="5"/>
       <c r="C91" t="s">
         <v>135</v>
       </c>
@@ -2203,10 +2226,10 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
+      <c r="A92" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B92" s="5" t="s">
         <v>142</v>
       </c>
       <c r="C92" t="s">
@@ -2217,8 +2240,8 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="4"/>
-      <c r="B93" s="4"/>
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
       <c r="C93" t="s">
         <v>150</v>
       </c>
@@ -2227,8 +2250,8 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="4"/>
-      <c r="B94" s="4"/>
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
       <c r="C94" t="s">
         <v>151</v>
       </c>
@@ -2237,8 +2260,8 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="4"/>
-      <c r="B95" s="4" t="s">
+      <c r="A95" s="5"/>
+      <c r="B95" s="5" t="s">
         <v>143</v>
       </c>
       <c r="C95" t="s">
@@ -2249,8 +2272,8 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="4"/>
-      <c r="B96" s="4"/>
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
       <c r="C96" t="s">
         <v>145</v>
       </c>
@@ -2259,8 +2282,8 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="4"/>
-      <c r="B97" s="4"/>
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
       <c r="C97" t="s">
         <v>146</v>
       </c>
@@ -2269,8 +2292,8 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="4"/>
-      <c r="B98" s="4"/>
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
       <c r="C98" t="s">
         <v>147</v>
       </c>
@@ -2279,7 +2302,7 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="s">
+      <c r="A99" s="5" t="s">
         <v>154</v>
       </c>
       <c r="C99" t="s">
@@ -2290,7 +2313,7 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="4"/>
+      <c r="A100" s="5"/>
       <c r="C100" t="s">
         <v>156</v>
       </c>
@@ -2299,7 +2322,7 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="4"/>
+      <c r="A101" s="5"/>
       <c r="C101" t="s">
         <v>158</v>
       </c>
@@ -2308,14 +2331,14 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="4"/>
+      <c r="A102" s="5"/>
       <c r="C102" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="4"/>
-      <c r="B103" s="4" t="s">
+      <c r="A103" s="5"/>
+      <c r="B103" s="5" t="s">
         <v>162</v>
       </c>
       <c r="C103" t="s">
@@ -2326,8 +2349,8 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="4"/>
-      <c r="B104" s="4"/>
+      <c r="A104" s="5"/>
+      <c r="B104" s="5"/>
       <c r="C104" t="s">
         <v>164</v>
       </c>
@@ -2336,8 +2359,8 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="4"/>
-      <c r="B105" s="4"/>
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
       <c r="C105" t="s">
         <v>166</v>
       </c>
@@ -2346,8 +2369,8 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="4"/>
-      <c r="B106" s="4"/>
+      <c r="A106" s="5"/>
+      <c r="B106" s="5"/>
       <c r="C106" t="s">
         <v>167</v>
       </c>
@@ -2356,8 +2379,8 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="4"/>
-      <c r="B107" s="4"/>
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
       <c r="C107" t="s">
         <v>168</v>
       </c>
@@ -2366,8 +2389,8 @@
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="4"/>
-      <c r="B108" s="4"/>
+      <c r="A108" s="5"/>
+      <c r="B108" s="5"/>
       <c r="C108" t="s">
         <v>169</v>
       </c>
@@ -2376,8 +2399,8 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="4"/>
-      <c r="B109" s="4"/>
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
       <c r="C109" t="s">
         <v>171</v>
       </c>
@@ -2386,8 +2409,8 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="4"/>
-      <c r="B110" s="4"/>
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
       <c r="C110" t="s">
         <v>193</v>
       </c>
@@ -2396,7 +2419,7 @@
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="4"/>
+      <c r="A111" s="5"/>
       <c r="B111" s="2" t="s">
         <v>196</v>
       </c>
@@ -2408,8 +2431,8 @@
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="4"/>
-      <c r="B112" s="4" t="s">
+      <c r="A112" s="5"/>
+      <c r="B112" s="5" t="s">
         <v>173</v>
       </c>
       <c r="C112" t="s">
@@ -2420,8 +2443,8 @@
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="4"/>
-      <c r="B113" s="4"/>
+      <c r="A113" s="5"/>
+      <c r="B113" s="5"/>
       <c r="C113" t="s">
         <v>175</v>
       </c>
@@ -2430,7 +2453,7 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="4"/>
+      <c r="A114" s="5"/>
       <c r="C114" t="s">
         <v>177</v>
       </c>
@@ -2439,7 +2462,7 @@
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="4"/>
+      <c r="A115" s="5"/>
       <c r="C115" t="s">
         <v>178</v>
       </c>
@@ -2448,7 +2471,7 @@
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="4"/>
+      <c r="A116" s="5"/>
       <c r="C116" t="s">
         <v>182</v>
       </c>
@@ -2457,7 +2480,7 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="4"/>
+      <c r="A117" s="5"/>
       <c r="C117" t="s">
         <v>179</v>
       </c>
@@ -2466,7 +2489,7 @@
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="4"/>
+      <c r="A118" s="5"/>
       <c r="C118" t="s">
         <v>180</v>
       </c>
@@ -2475,7 +2498,7 @@
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="4"/>
+      <c r="A119" s="5"/>
       <c r="C119" t="s">
         <v>181</v>
       </c>
@@ -2484,7 +2507,7 @@
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="4"/>
+      <c r="A120" s="5"/>
       <c r="C120" t="s">
         <v>184</v>
       </c>
@@ -2493,7 +2516,7 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="4"/>
+      <c r="A121" s="5"/>
       <c r="B121" s="2" t="s">
         <v>195</v>
       </c>
@@ -2505,7 +2528,7 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="4"/>
+      <c r="A122" s="5"/>
       <c r="C122" t="s">
         <v>187</v>
       </c>
@@ -2514,7 +2537,7 @@
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="4"/>
+      <c r="A123" s="5"/>
       <c r="C123" t="s">
         <v>188</v>
       </c>
@@ -2523,7 +2546,7 @@
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="4"/>
+      <c r="A124" s="5"/>
       <c r="C124" t="s">
         <v>189</v>
       </c>
@@ -2532,7 +2555,7 @@
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="4"/>
+      <c r="A125" s="5"/>
       <c r="C125" t="s">
         <v>190</v>
       </c>
@@ -2541,7 +2564,7 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="4"/>
+      <c r="A126" s="5"/>
       <c r="B126" s="2" t="s">
         <v>197</v>
       </c>
@@ -2553,8 +2576,8 @@
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="4"/>
-      <c r="B127" s="4" t="s">
+      <c r="A127" s="5"/>
+      <c r="B127" s="5" t="s">
         <v>200</v>
       </c>
       <c r="C127" t="s">
@@ -2565,8 +2588,8 @@
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="4"/>
-      <c r="B128" s="4"/>
+      <c r="A128" s="5"/>
+      <c r="B128" s="5"/>
       <c r="C128" t="s">
         <v>199</v>
       </c>
@@ -2575,8 +2598,8 @@
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="4"/>
-      <c r="B129" s="4"/>
+      <c r="A129" s="5"/>
+      <c r="B129" s="5"/>
       <c r="C129" t="s">
         <v>201</v>
       </c>
@@ -2585,8 +2608,8 @@
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="4"/>
-      <c r="B130" s="4"/>
+      <c r="A130" s="5"/>
+      <c r="B130" s="5"/>
       <c r="C130" t="s">
         <v>202</v>
       </c>
@@ -2595,8 +2618,8 @@
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="4"/>
-      <c r="B131" s="4"/>
+      <c r="A131" s="5"/>
+      <c r="B131" s="5"/>
       <c r="C131" t="s">
         <v>203</v>
       </c>
@@ -2605,8 +2628,8 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="4"/>
-      <c r="B132" s="4"/>
+      <c r="A132" s="5"/>
+      <c r="B132" s="5"/>
       <c r="C132" t="s">
         <v>204</v>
       </c>
@@ -2615,8 +2638,8 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="4"/>
-      <c r="B133" s="4"/>
+      <c r="A133" s="5"/>
+      <c r="B133" s="5"/>
       <c r="C133" t="s">
         <v>205</v>
       </c>
@@ -2628,7 +2651,7 @@
       <c r="A134" t="s">
         <v>207</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B134" s="5" t="s">
         <v>208</v>
       </c>
       <c r="C134" t="s">
@@ -2639,6 +2662,7 @@
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B135" s="5"/>
       <c r="C135" t="s">
         <v>211</v>
       </c>
@@ -2647,6 +2671,7 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B136" s="5"/>
       <c r="C136" t="s">
         <v>213</v>
       </c>
@@ -2655,6 +2680,7 @@
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B137" s="5"/>
       <c r="C137" t="s">
         <v>214</v>
       </c>
@@ -2663,6 +2689,7 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B138" s="5"/>
       <c r="C138" t="s">
         <v>215</v>
       </c>
@@ -2671,6 +2698,7 @@
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B139" s="5"/>
       <c r="C139" t="s">
         <v>217</v>
       </c>
@@ -2680,36 +2708,50 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B140" s="3"/>
+      <c r="C140" t="s">
+        <v>220</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+      <c r="B141" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C141" t="s">
+        <v>222</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B142" s="4"/>
+      <c r="C142" t="s">
+        <v>223</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B143" s="4"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
         <v>218</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C144" t="s">
         <v>219</v>
       </c>
-      <c r="D141" s="1" t="s">
+      <c r="D144" s="1" t="s">
         <v>216</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="B103:B110"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="B127:B133"/>
-    <mergeCell ref="A99:A133"/>
-    <mergeCell ref="B95:B98"/>
-    <mergeCell ref="A92:A98"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="A42:A56"/>
-    <mergeCell ref="A57:A67"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="B77:B79"/>
+  <mergeCells count="28">
+    <mergeCell ref="B134:B139"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="B68:B70"/>
     <mergeCell ref="B5:B8"/>
@@ -2721,6 +2763,22 @@
     <mergeCell ref="A68:A86"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="A42:A56"/>
+    <mergeCell ref="A57:A67"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B103:B110"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="B127:B133"/>
+    <mergeCell ref="A99:A133"/>
+    <mergeCell ref="B95:B98"/>
+    <mergeCell ref="A92:A98"/>
+    <mergeCell ref="B92:B94"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/时间表.xlsx
+++ b/时间表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\360\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3922EF49-0E8B-456C-9AEC-0A6540B3A731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1F257C-696E-4B46-84E5-6189384C6A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="0" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10140" yWindow="1020" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="227">
   <si>
     <t>第一次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -924,6 +924,14 @@
   </si>
   <si>
     <t>BFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>773滑动谜题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.24</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -967,15 +975,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1265,7 +1267,7 @@
   <dimension ref="A1:F144"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="C146" sqref="C146"/>
+      <selection activeCell="A134" sqref="A134:A143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1297,10 +1299,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>153</v>
       </c>
       <c r="C2" t="s">
@@ -1311,8 +1313,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -1321,7 +1323,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+      <c r="A4" s="3"/>
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -1330,8 +1332,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
         <v>141</v>
       </c>
       <c r="C5" t="s">
@@ -1342,8 +1344,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
       <c r="C6" t="s">
         <v>138</v>
       </c>
@@ -1352,8 +1354,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
       <c r="C7" t="s">
         <v>139</v>
       </c>
@@ -1362,8 +1364,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
       <c r="C8" t="s">
         <v>140</v>
       </c>
@@ -1372,8 +1374,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
         <v>152</v>
       </c>
       <c r="C9" t="s">
@@ -1384,8 +1386,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
       <c r="C10" t="s">
         <v>9</v>
       </c>
@@ -1394,8 +1396,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
       <c r="C11" t="s">
         <v>10</v>
       </c>
@@ -1404,7 +1406,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
+      <c r="A12" s="3"/>
       <c r="C12" t="s">
         <v>97</v>
       </c>
@@ -1413,10 +1415,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C13" t="s">
@@ -1427,8 +1429,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -1437,8 +1439,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
       <c r="C15" t="s">
         <v>17</v>
       </c>
@@ -1447,8 +1449,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
       <c r="C16" t="s">
         <v>18</v>
       </c>
@@ -1457,8 +1459,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
       <c r="C17" t="s">
         <v>19</v>
       </c>
@@ -1467,8 +1469,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
       <c r="C18" t="s">
         <v>20</v>
       </c>
@@ -1477,8 +1479,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
       <c r="C19" t="s">
         <v>21</v>
       </c>
@@ -1487,8 +1489,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
       <c r="C20" t="s">
         <v>22</v>
       </c>
@@ -1497,8 +1499,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
       <c r="C21" t="s">
         <v>23</v>
       </c>
@@ -1507,8 +1509,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
       <c r="C22" t="s">
         <v>24</v>
       </c>
@@ -1517,8 +1519,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -1527,8 +1529,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
       <c r="C24" t="s">
         <v>26</v>
       </c>
@@ -1537,8 +1539,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
       <c r="C25" t="s">
         <v>27</v>
       </c>
@@ -1547,8 +1549,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
       <c r="C26" t="s">
         <v>28</v>
       </c>
@@ -1557,8 +1559,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
       <c r="C27" t="s">
         <v>29</v>
       </c>
@@ -1567,8 +1569,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
       <c r="C28" t="s">
         <v>30</v>
       </c>
@@ -1577,8 +1579,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
       <c r="C29" t="s">
         <v>31</v>
       </c>
@@ -1587,8 +1589,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
       <c r="C30" t="s">
         <v>32</v>
       </c>
@@ -1597,8 +1599,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
       <c r="C31" t="s">
         <v>33</v>
       </c>
@@ -1607,8 +1609,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5" t="s">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C32" t="s">
@@ -1619,8 +1621,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
       <c r="C33" t="s">
         <v>36</v>
       </c>
@@ -1629,8 +1631,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
       <c r="C34" t="s">
         <v>37</v>
       </c>
@@ -1639,8 +1641,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
       <c r="C35" t="s">
         <v>39</v>
       </c>
@@ -1649,8 +1651,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
       <c r="C36" t="s">
         <v>40</v>
       </c>
@@ -1659,8 +1661,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
       <c r="C37" t="s">
         <v>41</v>
       </c>
@@ -1669,8 +1671,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
       <c r="C38" t="s">
         <v>42</v>
       </c>
@@ -1679,8 +1681,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
       <c r="C39" t="s">
         <v>44</v>
       </c>
@@ -1689,8 +1691,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
       <c r="C40" t="s">
         <v>45</v>
       </c>
@@ -1699,7 +1701,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
+      <c r="A41" s="3"/>
       <c r="B41" s="2" t="s">
         <v>47</v>
       </c>
@@ -1711,7 +1713,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -1725,7 +1727,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
+      <c r="A43" s="3"/>
       <c r="B43" s="2" t="s">
         <v>74</v>
       </c>
@@ -1737,7 +1739,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
+      <c r="A44" s="3"/>
       <c r="B44" s="2" t="s">
         <v>75</v>
       </c>
@@ -1749,8 +1751,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5" t="s">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C45" t="s">
@@ -1761,8 +1763,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
       <c r="C46" t="s">
         <v>57</v>
       </c>
@@ -1771,8 +1773,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5" t="s">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C47" t="s">
@@ -1783,8 +1785,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
       <c r="C48" t="s">
         <v>61</v>
       </c>
@@ -1793,8 +1795,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
       <c r="C49" t="s">
         <v>62</v>
       </c>
@@ -1803,8 +1805,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5" t="s">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C50" t="s">
@@ -1815,8 +1817,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
       <c r="C51" t="s">
         <v>65</v>
       </c>
@@ -1825,8 +1827,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
       <c r="C52" t="s">
         <v>66</v>
       </c>
@@ -1835,7 +1837,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="5"/>
+      <c r="A53" s="3"/>
       <c r="B53" s="2" t="s">
         <v>79</v>
       </c>
@@ -1847,8 +1849,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5" t="s">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C54" t="s">
@@ -1859,8 +1861,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
       <c r="C55" t="s">
         <v>70</v>
       </c>
@@ -1869,8 +1871,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
       <c r="C56" t="s">
         <v>71</v>
       </c>
@@ -1879,7 +1881,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="3" t="s">
         <v>81</v>
       </c>
       <c r="C57" t="s">
@@ -1890,7 +1892,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
+      <c r="A58" s="3"/>
       <c r="C58" t="s">
         <v>83</v>
       </c>
@@ -1899,7 +1901,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="5"/>
+      <c r="A59" s="3"/>
       <c r="C59" t="s">
         <v>84</v>
       </c>
@@ -1908,7 +1910,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
+      <c r="A60" s="3"/>
       <c r="C60" t="s">
         <v>86</v>
       </c>
@@ -1917,7 +1919,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="5"/>
+      <c r="A61" s="3"/>
       <c r="C61" t="s">
         <v>87</v>
       </c>
@@ -1926,7 +1928,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="5"/>
+      <c r="A62" s="3"/>
       <c r="C62" t="s">
         <v>89</v>
       </c>
@@ -1935,7 +1937,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="5"/>
+      <c r="A63" s="3"/>
       <c r="C63" t="s">
         <v>90</v>
       </c>
@@ -1944,7 +1946,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="5"/>
+      <c r="A64" s="3"/>
       <c r="C64" t="s">
         <v>91</v>
       </c>
@@ -1953,7 +1955,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="5"/>
+      <c r="A65" s="3"/>
       <c r="C65" t="s">
         <v>92</v>
       </c>
@@ -1962,7 +1964,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="5"/>
+      <c r="A66" s="3"/>
       <c r="C66" t="s">
         <v>94</v>
       </c>
@@ -1971,7 +1973,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="5"/>
+      <c r="A67" s="3"/>
       <c r="C67" t="s">
         <v>95</v>
       </c>
@@ -1980,10 +1982,10 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="3" t="s">
         <v>105</v>
       </c>
       <c r="C68" t="s">
@@ -1994,8 +1996,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
       <c r="C69" t="s">
         <v>101</v>
       </c>
@@ -2004,8 +2006,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
       <c r="C70" t="s">
         <v>102</v>
       </c>
@@ -2014,8 +2016,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5" t="s">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3" t="s">
         <v>104</v>
       </c>
       <c r="C71" t="s">
@@ -2026,8 +2028,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
       <c r="C72" t="s">
         <v>107</v>
       </c>
@@ -2036,8 +2038,8 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
       <c r="C73" t="s">
         <v>108</v>
       </c>
@@ -2046,8 +2048,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="5"/>
-      <c r="B74" s="5" t="s">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3" t="s">
         <v>113</v>
       </c>
       <c r="C74" t="s">
@@ -2058,8 +2060,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
       <c r="C75" t="s">
         <v>111</v>
       </c>
@@ -2068,8 +2070,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
       <c r="C76" t="s">
         <v>112</v>
       </c>
@@ -2078,8 +2080,8 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="5"/>
-      <c r="B77" s="5" t="s">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C77" t="s">
@@ -2090,8 +2092,8 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="5"/>
-      <c r="B78" s="5"/>
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
       <c r="C78" t="s">
         <v>125</v>
       </c>
@@ -2100,8 +2102,8 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="5"/>
-      <c r="B79" s="5"/>
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
       <c r="C79" t="s">
         <v>127</v>
       </c>
@@ -2110,7 +2112,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="5"/>
+      <c r="A80" s="3"/>
       <c r="C80" t="s">
         <v>114</v>
       </c>
@@ -2119,8 +2121,8 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="5"/>
-      <c r="B81" s="5" t="s">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3" t="s">
         <v>121</v>
       </c>
       <c r="C81" t="s">
@@ -2131,8 +2133,8 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="5"/>
-      <c r="B82" s="5"/>
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
       <c r="C82" t="s">
         <v>117</v>
       </c>
@@ -2141,8 +2143,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="5"/>
-      <c r="B83" s="5"/>
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
       <c r="C83" t="s">
         <v>118</v>
       </c>
@@ -2151,8 +2153,8 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="5"/>
-      <c r="B84" s="5"/>
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
       <c r="C84" t="s">
         <v>119</v>
       </c>
@@ -2161,7 +2163,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="5"/>
+      <c r="A85" s="3"/>
       <c r="C85" t="s">
         <v>122</v>
       </c>
@@ -2170,7 +2172,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="5"/>
+      <c r="A86" s="3"/>
       <c r="C86" t="s">
         <v>123</v>
       </c>
@@ -2179,7 +2181,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="3" t="s">
         <v>129</v>
       </c>
       <c r="C87" t="s">
@@ -2190,7 +2192,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="5"/>
+      <c r="A88" s="3"/>
       <c r="C88" t="s">
         <v>131</v>
       </c>
@@ -2199,7 +2201,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="5"/>
+      <c r="A89" s="3"/>
       <c r="C89" t="s">
         <v>133</v>
       </c>
@@ -2208,7 +2210,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="5"/>
+      <c r="A90" s="3"/>
       <c r="C90" t="s">
         <v>134</v>
       </c>
@@ -2217,7 +2219,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="5"/>
+      <c r="A91" s="3"/>
       <c r="C91" t="s">
         <v>135</v>
       </c>
@@ -2226,10 +2228,10 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
+      <c r="A92" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="3" t="s">
         <v>142</v>
       </c>
       <c r="C92" t="s">
@@ -2240,8 +2242,8 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="5"/>
-      <c r="B93" s="5"/>
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
       <c r="C93" t="s">
         <v>150</v>
       </c>
@@ -2250,8 +2252,8 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="5"/>
-      <c r="B94" s="5"/>
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
       <c r="C94" t="s">
         <v>151</v>
       </c>
@@ -2260,8 +2262,8 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="5"/>
-      <c r="B95" s="5" t="s">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3" t="s">
         <v>143</v>
       </c>
       <c r="C95" t="s">
@@ -2272,8 +2274,8 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="5"/>
-      <c r="B96" s="5"/>
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
       <c r="C96" t="s">
         <v>145</v>
       </c>
@@ -2282,8 +2284,8 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="5"/>
-      <c r="B97" s="5"/>
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
       <c r="C97" t="s">
         <v>146</v>
       </c>
@@ -2292,8 +2294,8 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="5"/>
-      <c r="B98" s="5"/>
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
       <c r="C98" t="s">
         <v>147</v>
       </c>
@@ -2302,7 +2304,7 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
+      <c r="A99" s="3" t="s">
         <v>154</v>
       </c>
       <c r="C99" t="s">
@@ -2313,7 +2315,7 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="5"/>
+      <c r="A100" s="3"/>
       <c r="C100" t="s">
         <v>156</v>
       </c>
@@ -2322,7 +2324,7 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="5"/>
+      <c r="A101" s="3"/>
       <c r="C101" t="s">
         <v>158</v>
       </c>
@@ -2331,14 +2333,14 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="5"/>
+      <c r="A102" s="3"/>
       <c r="C102" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="5"/>
-      <c r="B103" s="5" t="s">
+      <c r="A103" s="3"/>
+      <c r="B103" s="3" t="s">
         <v>162</v>
       </c>
       <c r="C103" t="s">
@@ -2349,8 +2351,8 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="5"/>
-      <c r="B104" s="5"/>
+      <c r="A104" s="3"/>
+      <c r="B104" s="3"/>
       <c r="C104" t="s">
         <v>164</v>
       </c>
@@ -2359,8 +2361,8 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="5"/>
-      <c r="B105" s="5"/>
+      <c r="A105" s="3"/>
+      <c r="B105" s="3"/>
       <c r="C105" t="s">
         <v>166</v>
       </c>
@@ -2369,8 +2371,8 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="5"/>
-      <c r="B106" s="5"/>
+      <c r="A106" s="3"/>
+      <c r="B106" s="3"/>
       <c r="C106" t="s">
         <v>167</v>
       </c>
@@ -2379,8 +2381,8 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="5"/>
+      <c r="A107" s="3"/>
+      <c r="B107" s="3"/>
       <c r="C107" t="s">
         <v>168</v>
       </c>
@@ -2389,8 +2391,8 @@
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="5"/>
-      <c r="B108" s="5"/>
+      <c r="A108" s="3"/>
+      <c r="B108" s="3"/>
       <c r="C108" t="s">
         <v>169</v>
       </c>
@@ -2399,8 +2401,8 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="5"/>
-      <c r="B109" s="5"/>
+      <c r="A109" s="3"/>
+      <c r="B109" s="3"/>
       <c r="C109" t="s">
         <v>171</v>
       </c>
@@ -2409,8 +2411,8 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="5"/>
-      <c r="B110" s="5"/>
+      <c r="A110" s="3"/>
+      <c r="B110" s="3"/>
       <c r="C110" t="s">
         <v>193</v>
       </c>
@@ -2419,7 +2421,7 @@
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="5"/>
+      <c r="A111" s="3"/>
       <c r="B111" s="2" t="s">
         <v>196</v>
       </c>
@@ -2431,8 +2433,8 @@
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="5"/>
-      <c r="B112" s="5" t="s">
+      <c r="A112" s="3"/>
+      <c r="B112" s="3" t="s">
         <v>173</v>
       </c>
       <c r="C112" t="s">
@@ -2443,8 +2445,8 @@
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="5"/>
-      <c r="B113" s="5"/>
+      <c r="A113" s="3"/>
+      <c r="B113" s="3"/>
       <c r="C113" t="s">
         <v>175</v>
       </c>
@@ -2453,7 +2455,7 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="5"/>
+      <c r="A114" s="3"/>
       <c r="C114" t="s">
         <v>177</v>
       </c>
@@ -2462,7 +2464,7 @@
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="5"/>
+      <c r="A115" s="3"/>
       <c r="C115" t="s">
         <v>178</v>
       </c>
@@ -2471,7 +2473,7 @@
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="5"/>
+      <c r="A116" s="3"/>
       <c r="C116" t="s">
         <v>182</v>
       </c>
@@ -2480,7 +2482,7 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="5"/>
+      <c r="A117" s="3"/>
       <c r="C117" t="s">
         <v>179</v>
       </c>
@@ -2489,7 +2491,7 @@
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="5"/>
+      <c r="A118" s="3"/>
       <c r="C118" t="s">
         <v>180</v>
       </c>
@@ -2498,7 +2500,7 @@
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="5"/>
+      <c r="A119" s="3"/>
       <c r="C119" t="s">
         <v>181</v>
       </c>
@@ -2507,7 +2509,7 @@
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="5"/>
+      <c r="A120" s="3"/>
       <c r="C120" t="s">
         <v>184</v>
       </c>
@@ -2516,7 +2518,7 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="5"/>
+      <c r="A121" s="3"/>
       <c r="B121" s="2" t="s">
         <v>195</v>
       </c>
@@ -2528,7 +2530,7 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="5"/>
+      <c r="A122" s="3"/>
       <c r="C122" t="s">
         <v>187</v>
       </c>
@@ -2537,7 +2539,7 @@
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="5"/>
+      <c r="A123" s="3"/>
       <c r="C123" t="s">
         <v>188</v>
       </c>
@@ -2546,7 +2548,7 @@
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="5"/>
+      <c r="A124" s="3"/>
       <c r="C124" t="s">
         <v>189</v>
       </c>
@@ -2555,7 +2557,7 @@
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="5"/>
+      <c r="A125" s="3"/>
       <c r="C125" t="s">
         <v>190</v>
       </c>
@@ -2564,7 +2566,7 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="5"/>
+      <c r="A126" s="3"/>
       <c r="B126" s="2" t="s">
         <v>197</v>
       </c>
@@ -2576,8 +2578,8 @@
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="5"/>
-      <c r="B127" s="5" t="s">
+      <c r="A127" s="3"/>
+      <c r="B127" s="3" t="s">
         <v>200</v>
       </c>
       <c r="C127" t="s">
@@ -2588,8 +2590,8 @@
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="5"/>
-      <c r="B128" s="5"/>
+      <c r="A128" s="3"/>
+      <c r="B128" s="3"/>
       <c r="C128" t="s">
         <v>199</v>
       </c>
@@ -2598,8 +2600,8 @@
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="5"/>
-      <c r="B129" s="5"/>
+      <c r="A129" s="3"/>
+      <c r="B129" s="3"/>
       <c r="C129" t="s">
         <v>201</v>
       </c>
@@ -2608,8 +2610,8 @@
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="5"/>
-      <c r="B130" s="5"/>
+      <c r="A130" s="3"/>
+      <c r="B130" s="3"/>
       <c r="C130" t="s">
         <v>202</v>
       </c>
@@ -2618,8 +2620,8 @@
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="5"/>
-      <c r="B131" s="5"/>
+      <c r="A131" s="3"/>
+      <c r="B131" s="3"/>
       <c r="C131" t="s">
         <v>203</v>
       </c>
@@ -2628,8 +2630,8 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="5"/>
-      <c r="B132" s="5"/>
+      <c r="A132" s="3"/>
+      <c r="B132" s="3"/>
       <c r="C132" t="s">
         <v>204</v>
       </c>
@@ -2638,8 +2640,8 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="5"/>
-      <c r="B133" s="5"/>
+      <c r="A133" s="3"/>
+      <c r="B133" s="3"/>
       <c r="C133" t="s">
         <v>205</v>
       </c>
@@ -2648,10 +2650,10 @@
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="A134" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B134" s="5" t="s">
+      <c r="B134" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C134" t="s">
@@ -2662,7 +2664,8 @@
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B135" s="5"/>
+      <c r="A135" s="3"/>
+      <c r="B135" s="3"/>
       <c r="C135" t="s">
         <v>211</v>
       </c>
@@ -2671,7 +2674,8 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B136" s="5"/>
+      <c r="A136" s="3"/>
+      <c r="B136" s="3"/>
       <c r="C136" t="s">
         <v>213</v>
       </c>
@@ -2680,7 +2684,8 @@
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B137" s="5"/>
+      <c r="A137" s="3"/>
+      <c r="B137" s="3"/>
       <c r="C137" t="s">
         <v>214</v>
       </c>
@@ -2689,7 +2694,8 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B138" s="5"/>
+      <c r="A138" s="3"/>
+      <c r="B138" s="3"/>
       <c r="C138" t="s">
         <v>215</v>
       </c>
@@ -2698,7 +2704,8 @@
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B139" s="5"/>
+      <c r="A139" s="3"/>
+      <c r="B139" s="3"/>
       <c r="C139" t="s">
         <v>217</v>
       </c>
@@ -2707,6 +2714,7 @@
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" t="s">
         <v>220</v>
@@ -2716,7 +2724,8 @@
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B141" s="4" t="s">
+      <c r="A141" s="3"/>
+      <c r="B141" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C141" t="s">
@@ -2727,7 +2736,8 @@
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B142" s="4"/>
+      <c r="A142" s="3"/>
+      <c r="B142" s="3"/>
       <c r="C142" t="s">
         <v>223</v>
       </c>
@@ -2736,7 +2746,14 @@
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B143" s="4"/>
+      <c r="A143" s="3"/>
+      <c r="B143" s="3"/>
+      <c r="C143" t="s">
+        <v>225</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
@@ -2750,8 +2767,22 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="B134:B139"/>
+  <mergeCells count="30">
+    <mergeCell ref="B134:B140"/>
+    <mergeCell ref="B141:B143"/>
+    <mergeCell ref="A134:A143"/>
+    <mergeCell ref="B103:B110"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="B127:B133"/>
+    <mergeCell ref="A99:A133"/>
+    <mergeCell ref="B95:B98"/>
+    <mergeCell ref="A92:A98"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="A57:A67"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="B77:B79"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="B68:B70"/>
     <mergeCell ref="B5:B8"/>
@@ -2767,18 +2798,6 @@
     <mergeCell ref="B50:B52"/>
     <mergeCell ref="B54:B56"/>
     <mergeCell ref="A42:A56"/>
-    <mergeCell ref="A57:A67"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="B103:B110"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="B127:B133"/>
-    <mergeCell ref="A99:A133"/>
-    <mergeCell ref="B95:B98"/>
-    <mergeCell ref="A92:A98"/>
-    <mergeCell ref="B92:B94"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/时间表.xlsx
+++ b/时间表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\360\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1F257C-696E-4B46-84E5-6189384C6A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6492A2-99B9-4DFC-8AAD-3E845FC9167D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="1020" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10488" yWindow="312" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="238">
   <si>
     <t>第一次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -932,6 +932,50 @@
   </si>
   <si>
     <t>2.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>136只出现一次的数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2312的幂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>191位1的个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172阶乘后的零</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>793阶乘函数后K个零</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>204计数质数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>质数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -975,9 +1019,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1264,10 +1311,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F144"/>
+  <dimension ref="A1:F150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="A134" sqref="A134:A143"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="D154" sqref="D154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1299,10 +1346,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>153</v>
       </c>
       <c r="C2" t="s">
@@ -1313,8 +1360,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -1323,7 +1370,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+      <c r="A4" s="4"/>
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -1332,8 +1379,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
         <v>141</v>
       </c>
       <c r="C5" t="s">
@@ -1344,8 +1391,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
       <c r="C6" t="s">
         <v>138</v>
       </c>
@@ -1354,8 +1401,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
       <c r="C7" t="s">
         <v>139</v>
       </c>
@@ -1364,8 +1411,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
       <c r="C8" t="s">
         <v>140</v>
       </c>
@@ -1374,8 +1421,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
         <v>152</v>
       </c>
       <c r="C9" t="s">
@@ -1386,8 +1433,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
       <c r="C10" t="s">
         <v>9</v>
       </c>
@@ -1396,8 +1443,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
       <c r="C11" t="s">
         <v>10</v>
       </c>
@@ -1406,7 +1453,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="C12" t="s">
         <v>97</v>
       </c>
@@ -1415,10 +1462,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C13" t="s">
@@ -1429,8 +1476,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -1439,8 +1486,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
       <c r="C15" t="s">
         <v>17</v>
       </c>
@@ -1449,8 +1496,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
       <c r="C16" t="s">
         <v>18</v>
       </c>
@@ -1459,8 +1506,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
       <c r="C17" t="s">
         <v>19</v>
       </c>
@@ -1469,8 +1516,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
       <c r="C18" t="s">
         <v>20</v>
       </c>
@@ -1479,8 +1526,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
       <c r="C19" t="s">
         <v>21</v>
       </c>
@@ -1489,8 +1536,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
       <c r="C20" t="s">
         <v>22</v>
       </c>
@@ -1499,8 +1546,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
       <c r="C21" t="s">
         <v>23</v>
       </c>
@@ -1509,8 +1556,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
       <c r="C22" t="s">
         <v>24</v>
       </c>
@@ -1519,8 +1566,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1576,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
       <c r="C24" t="s">
         <v>26</v>
       </c>
@@ -1539,8 +1586,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
       <c r="C25" t="s">
         <v>27</v>
       </c>
@@ -1549,8 +1596,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
       <c r="C26" t="s">
         <v>28</v>
       </c>
@@ -1559,8 +1606,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
       <c r="C27" t="s">
         <v>29</v>
       </c>
@@ -1569,8 +1616,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
       <c r="C28" t="s">
         <v>30</v>
       </c>
@@ -1579,8 +1626,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
       <c r="C29" t="s">
         <v>31</v>
       </c>
@@ -1589,8 +1636,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
       <c r="C30" t="s">
         <v>32</v>
       </c>
@@ -1599,8 +1646,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
       <c r="C31" t="s">
         <v>33</v>
       </c>
@@ -1609,8 +1656,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3" t="s">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C32" t="s">
@@ -1621,8 +1668,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
       <c r="C33" t="s">
         <v>36</v>
       </c>
@@ -1631,8 +1678,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
       <c r="C34" t="s">
         <v>37</v>
       </c>
@@ -1641,8 +1688,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
       <c r="C35" t="s">
         <v>39</v>
       </c>
@@ -1651,8 +1698,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
       <c r="C36" t="s">
         <v>40</v>
       </c>
@@ -1661,8 +1708,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
       <c r="C37" t="s">
         <v>41</v>
       </c>
@@ -1671,8 +1718,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
       <c r="C38" t="s">
         <v>42</v>
       </c>
@@ -1681,8 +1728,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
       <c r="C39" t="s">
         <v>44</v>
       </c>
@@ -1691,8 +1738,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
       <c r="C40" t="s">
         <v>45</v>
       </c>
@@ -1701,7 +1748,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
+      <c r="A41" s="4"/>
       <c r="B41" s="2" t="s">
         <v>47</v>
       </c>
@@ -1713,7 +1760,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -1727,7 +1774,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
+      <c r="A43" s="4"/>
       <c r="B43" s="2" t="s">
         <v>74</v>
       </c>
@@ -1739,7 +1786,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
+      <c r="A44" s="4"/>
       <c r="B44" s="2" t="s">
         <v>75</v>
       </c>
@@ -1751,8 +1798,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3" t="s">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4" t="s">
         <v>76</v>
       </c>
       <c r="C45" t="s">
@@ -1763,8 +1810,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
       <c r="C46" t="s">
         <v>57</v>
       </c>
@@ -1773,8 +1820,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3" t="s">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4" t="s">
         <v>77</v>
       </c>
       <c r="C47" t="s">
@@ -1785,8 +1832,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
       <c r="C48" t="s">
         <v>61</v>
       </c>
@@ -1795,8 +1842,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
       <c r="C49" t="s">
         <v>62</v>
       </c>
@@ -1805,8 +1852,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3" t="s">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4" t="s">
         <v>78</v>
       </c>
       <c r="C50" t="s">
@@ -1817,8 +1864,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
       <c r="C51" t="s">
         <v>65</v>
       </c>
@@ -1827,8 +1874,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
       <c r="C52" t="s">
         <v>66</v>
       </c>
@@ -1837,7 +1884,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
+      <c r="A53" s="4"/>
       <c r="B53" s="2" t="s">
         <v>79</v>
       </c>
@@ -1849,8 +1896,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3" t="s">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4" t="s">
         <v>80</v>
       </c>
       <c r="C54" t="s">
@@ -1861,8 +1908,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
       <c r="C55" t="s">
         <v>70</v>
       </c>
@@ -1871,8 +1918,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
       <c r="C56" t="s">
         <v>71</v>
       </c>
@@ -1881,7 +1928,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="4" t="s">
         <v>81</v>
       </c>
       <c r="C57" t="s">
@@ -1892,7 +1939,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
+      <c r="A58" s="4"/>
       <c r="C58" t="s">
         <v>83</v>
       </c>
@@ -1901,7 +1948,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
+      <c r="A59" s="4"/>
       <c r="C59" t="s">
         <v>84</v>
       </c>
@@ -1910,7 +1957,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
+      <c r="A60" s="4"/>
       <c r="C60" t="s">
         <v>86</v>
       </c>
@@ -1919,7 +1966,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
+      <c r="A61" s="4"/>
       <c r="C61" t="s">
         <v>87</v>
       </c>
@@ -1928,7 +1975,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
+      <c r="A62" s="4"/>
       <c r="C62" t="s">
         <v>89</v>
       </c>
@@ -1937,7 +1984,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
+      <c r="A63" s="4"/>
       <c r="C63" t="s">
         <v>90</v>
       </c>
@@ -1946,7 +1993,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
+      <c r="A64" s="4"/>
       <c r="C64" t="s">
         <v>91</v>
       </c>
@@ -1955,7 +2002,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
+      <c r="A65" s="4"/>
       <c r="C65" t="s">
         <v>92</v>
       </c>
@@ -1964,7 +2011,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
+      <c r="A66" s="4"/>
       <c r="C66" t="s">
         <v>94</v>
       </c>
@@ -1973,7 +2020,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
+      <c r="A67" s="4"/>
       <c r="C67" t="s">
         <v>95</v>
       </c>
@@ -1982,10 +2029,10 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C68" t="s">
@@ -1996,8 +2043,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
       <c r="C69" t="s">
         <v>101</v>
       </c>
@@ -2006,8 +2053,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
       <c r="C70" t="s">
         <v>102</v>
       </c>
@@ -2016,8 +2063,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3" t="s">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4" t="s">
         <v>104</v>
       </c>
       <c r="C71" t="s">
@@ -2028,8 +2075,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
       <c r="C72" t="s">
         <v>107</v>
       </c>
@@ -2038,8 +2085,8 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
       <c r="C73" t="s">
         <v>108</v>
       </c>
@@ -2048,8 +2095,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3" t="s">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4" t="s">
         <v>113</v>
       </c>
       <c r="C74" t="s">
@@ -2060,8 +2107,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
       <c r="C75" t="s">
         <v>111</v>
       </c>
@@ -2070,8 +2117,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
       <c r="C76" t="s">
         <v>112</v>
       </c>
@@ -2080,8 +2127,8 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3" t="s">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C77" t="s">
@@ -2092,8 +2139,8 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
       <c r="C78" t="s">
         <v>125</v>
       </c>
@@ -2102,8 +2149,8 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
       <c r="C79" t="s">
         <v>127</v>
       </c>
@@ -2112,7 +2159,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="3"/>
+      <c r="A80" s="4"/>
       <c r="C80" t="s">
         <v>114</v>
       </c>
@@ -2121,8 +2168,8 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3" t="s">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C81" t="s">
@@ -2133,8 +2180,8 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
       <c r="C82" t="s">
         <v>117</v>
       </c>
@@ -2143,8 +2190,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
       <c r="C83" t="s">
         <v>118</v>
       </c>
@@ -2153,8 +2200,8 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
       <c r="C84" t="s">
         <v>119</v>
       </c>
@@ -2163,7 +2210,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="3"/>
+      <c r="A85" s="4"/>
       <c r="C85" t="s">
         <v>122</v>
       </c>
@@ -2172,7 +2219,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="3"/>
+      <c r="A86" s="4"/>
       <c r="C86" t="s">
         <v>123</v>
       </c>
@@ -2181,7 +2228,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="4" t="s">
         <v>129</v>
       </c>
       <c r="C87" t="s">
@@ -2192,7 +2239,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="3"/>
+      <c r="A88" s="4"/>
       <c r="C88" t="s">
         <v>131</v>
       </c>
@@ -2201,7 +2248,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="3"/>
+      <c r="A89" s="4"/>
       <c r="C89" t="s">
         <v>133</v>
       </c>
@@ -2210,7 +2257,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="3"/>
+      <c r="A90" s="4"/>
       <c r="C90" t="s">
         <v>134</v>
       </c>
@@ -2219,7 +2266,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
+      <c r="A91" s="4"/>
       <c r="C91" t="s">
         <v>135</v>
       </c>
@@ -2228,10 +2275,10 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="4" t="s">
         <v>142</v>
       </c>
       <c r="C92" t="s">
@@ -2242,8 +2289,8 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
       <c r="C93" t="s">
         <v>150</v>
       </c>
@@ -2252,8 +2299,8 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
       <c r="C94" t="s">
         <v>151</v>
       </c>
@@ -2262,8 +2309,8 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3" t="s">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4" t="s">
         <v>143</v>
       </c>
       <c r="C95" t="s">
@@ -2274,8 +2321,8 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
       <c r="C96" t="s">
         <v>145</v>
       </c>
@@ -2284,8 +2331,8 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
       <c r="C97" t="s">
         <v>146</v>
       </c>
@@ -2294,8 +2341,8 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
       <c r="C98" t="s">
         <v>147</v>
       </c>
@@ -2304,7 +2351,7 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="4" t="s">
         <v>154</v>
       </c>
       <c r="C99" t="s">
@@ -2315,7 +2362,7 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="3"/>
+      <c r="A100" s="4"/>
       <c r="C100" t="s">
         <v>156</v>
       </c>
@@ -2324,7 +2371,7 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="3"/>
+      <c r="A101" s="4"/>
       <c r="C101" t="s">
         <v>158</v>
       </c>
@@ -2333,14 +2380,14 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="3"/>
+      <c r="A102" s="4"/>
       <c r="C102" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3" t="s">
+      <c r="A103" s="4"/>
+      <c r="B103" s="4" t="s">
         <v>162</v>
       </c>
       <c r="C103" t="s">
@@ -2351,8 +2398,8 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
+      <c r="A104" s="4"/>
+      <c r="B104" s="4"/>
       <c r="C104" t="s">
         <v>164</v>
       </c>
@@ -2361,8 +2408,8 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
       <c r="C105" t="s">
         <v>166</v>
       </c>
@@ -2371,8 +2418,8 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
       <c r="C106" t="s">
         <v>167</v>
       </c>
@@ -2381,8 +2428,8 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
       <c r="C107" t="s">
         <v>168</v>
       </c>
@@ -2391,8 +2438,8 @@
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
       <c r="C108" t="s">
         <v>169</v>
       </c>
@@ -2401,8 +2448,8 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="3"/>
-      <c r="B109" s="3"/>
+      <c r="A109" s="4"/>
+      <c r="B109" s="4"/>
       <c r="C109" t="s">
         <v>171</v>
       </c>
@@ -2411,8 +2458,8 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="3"/>
-      <c r="B110" s="3"/>
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
       <c r="C110" t="s">
         <v>193</v>
       </c>
@@ -2421,7 +2468,7 @@
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="3"/>
+      <c r="A111" s="4"/>
       <c r="B111" s="2" t="s">
         <v>196</v>
       </c>
@@ -2433,8 +2480,8 @@
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="3"/>
-      <c r="B112" s="3" t="s">
+      <c r="A112" s="4"/>
+      <c r="B112" s="4" t="s">
         <v>173</v>
       </c>
       <c r="C112" t="s">
@@ -2445,8 +2492,8 @@
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
       <c r="C113" t="s">
         <v>175</v>
       </c>
@@ -2455,7 +2502,7 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="3"/>
+      <c r="A114" s="4"/>
       <c r="C114" t="s">
         <v>177</v>
       </c>
@@ -2464,7 +2511,7 @@
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="3"/>
+      <c r="A115" s="4"/>
       <c r="C115" t="s">
         <v>178</v>
       </c>
@@ -2473,7 +2520,7 @@
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="3"/>
+      <c r="A116" s="4"/>
       <c r="C116" t="s">
         <v>182</v>
       </c>
@@ -2482,7 +2529,7 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="3"/>
+      <c r="A117" s="4"/>
       <c r="C117" t="s">
         <v>179</v>
       </c>
@@ -2491,7 +2538,7 @@
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="3"/>
+      <c r="A118" s="4"/>
       <c r="C118" t="s">
         <v>180</v>
       </c>
@@ -2500,7 +2547,7 @@
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="3"/>
+      <c r="A119" s="4"/>
       <c r="C119" t="s">
         <v>181</v>
       </c>
@@ -2509,7 +2556,7 @@
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="3"/>
+      <c r="A120" s="4"/>
       <c r="C120" t="s">
         <v>184</v>
       </c>
@@ -2518,7 +2565,7 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="3"/>
+      <c r="A121" s="4"/>
       <c r="B121" s="2" t="s">
         <v>195</v>
       </c>
@@ -2530,7 +2577,7 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="3"/>
+      <c r="A122" s="4"/>
       <c r="C122" t="s">
         <v>187</v>
       </c>
@@ -2539,7 +2586,7 @@
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="3"/>
+      <c r="A123" s="4"/>
       <c r="C123" t="s">
         <v>188</v>
       </c>
@@ -2548,7 +2595,7 @@
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="3"/>
+      <c r="A124" s="4"/>
       <c r="C124" t="s">
         <v>189</v>
       </c>
@@ -2557,7 +2604,7 @@
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="3"/>
+      <c r="A125" s="4"/>
       <c r="C125" t="s">
         <v>190</v>
       </c>
@@ -2566,7 +2613,7 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="3"/>
+      <c r="A126" s="4"/>
       <c r="B126" s="2" t="s">
         <v>197</v>
       </c>
@@ -2578,8 +2625,8 @@
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="3"/>
-      <c r="B127" s="3" t="s">
+      <c r="A127" s="4"/>
+      <c r="B127" s="4" t="s">
         <v>200</v>
       </c>
       <c r="C127" t="s">
@@ -2590,8 +2637,8 @@
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="3"/>
-      <c r="B128" s="3"/>
+      <c r="A128" s="4"/>
+      <c r="B128" s="4"/>
       <c r="C128" t="s">
         <v>199</v>
       </c>
@@ -2600,8 +2647,8 @@
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="3"/>
-      <c r="B129" s="3"/>
+      <c r="A129" s="4"/>
+      <c r="B129" s="4"/>
       <c r="C129" t="s">
         <v>201</v>
       </c>
@@ -2610,8 +2657,8 @@
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="3"/>
-      <c r="B130" s="3"/>
+      <c r="A130" s="4"/>
+      <c r="B130" s="4"/>
       <c r="C130" t="s">
         <v>202</v>
       </c>
@@ -2620,8 +2667,8 @@
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="3"/>
-      <c r="B131" s="3"/>
+      <c r="A131" s="4"/>
+      <c r="B131" s="4"/>
       <c r="C131" t="s">
         <v>203</v>
       </c>
@@ -2630,8 +2677,8 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="3"/>
-      <c r="B132" s="3"/>
+      <c r="A132" s="4"/>
+      <c r="B132" s="4"/>
       <c r="C132" t="s">
         <v>204</v>
       </c>
@@ -2640,8 +2687,8 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="3"/>
-      <c r="B133" s="3"/>
+      <c r="A133" s="4"/>
+      <c r="B133" s="4"/>
       <c r="C133" t="s">
         <v>205</v>
       </c>
@@ -2650,10 +2697,10 @@
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="3" t="s">
+      <c r="A134" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" s="4" t="s">
         <v>208</v>
       </c>
       <c r="C134" t="s">
@@ -2664,8 +2711,8 @@
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="3"/>
-      <c r="B135" s="3"/>
+      <c r="A135" s="4"/>
+      <c r="B135" s="4"/>
       <c r="C135" t="s">
         <v>211</v>
       </c>
@@ -2674,8 +2721,8 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="3"/>
-      <c r="B136" s="3"/>
+      <c r="A136" s="4"/>
+      <c r="B136" s="4"/>
       <c r="C136" t="s">
         <v>213</v>
       </c>
@@ -2684,8 +2731,8 @@
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="3"/>
-      <c r="B137" s="3"/>
+      <c r="A137" s="4"/>
+      <c r="B137" s="4"/>
       <c r="C137" t="s">
         <v>214</v>
       </c>
@@ -2694,8 +2741,8 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="3"/>
-      <c r="B138" s="3"/>
+      <c r="A138" s="4"/>
+      <c r="B138" s="4"/>
       <c r="C138" t="s">
         <v>215</v>
       </c>
@@ -2704,8 +2751,8 @@
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="3"/>
-      <c r="B139" s="3"/>
+      <c r="A139" s="4"/>
+      <c r="B139" s="4"/>
       <c r="C139" t="s">
         <v>217</v>
       </c>
@@ -2714,8 +2761,8 @@
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="3"/>
-      <c r="B140" s="3"/>
+      <c r="A140" s="4"/>
+      <c r="B140" s="4"/>
       <c r="C140" t="s">
         <v>220</v>
       </c>
@@ -2724,8 +2771,8 @@
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="3"/>
-      <c r="B141" s="3" t="s">
+      <c r="A141" s="4"/>
+      <c r="B141" s="4" t="s">
         <v>224</v>
       </c>
       <c r="C141" t="s">
@@ -2736,8 +2783,8 @@
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="3"/>
-      <c r="B142" s="3"/>
+      <c r="A142" s="4"/>
+      <c r="B142" s="4"/>
       <c r="C142" t="s">
         <v>223</v>
       </c>
@@ -2746,8 +2793,8 @@
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="3"/>
-      <c r="B143" s="3"/>
+      <c r="A143" s="4"/>
+      <c r="B143" s="4"/>
       <c r="C143" t="s">
         <v>225</v>
       </c>
@@ -2756,7 +2803,7 @@
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+      <c r="A144" s="3" t="s">
         <v>218</v>
       </c>
       <c r="C144" t="s">
@@ -2766,23 +2813,73 @@
         <v>216</v>
       </c>
     </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C145" t="s">
+        <v>228</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B146" s="4"/>
+      <c r="C146" t="s">
+        <v>230</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B147" s="4"/>
+      <c r="C147" t="s">
+        <v>231</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B148" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C148" t="s">
+        <v>233</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B149" s="4"/>
+      <c r="C149" t="s">
+        <v>234</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B150" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C150" t="s">
+        <v>236</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="B134:B140"/>
-    <mergeCell ref="B141:B143"/>
-    <mergeCell ref="A134:A143"/>
-    <mergeCell ref="B103:B110"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="B127:B133"/>
-    <mergeCell ref="A99:A133"/>
-    <mergeCell ref="B95:B98"/>
-    <mergeCell ref="A92:A98"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="A57:A67"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="B77:B79"/>
+  <mergeCells count="32">
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="B148:B149"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="B68:B70"/>
     <mergeCell ref="B5:B8"/>
@@ -2794,10 +2891,25 @@
     <mergeCell ref="A68:A86"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A87:A91"/>
     <mergeCell ref="B50:B52"/>
     <mergeCell ref="B54:B56"/>
     <mergeCell ref="A42:A56"/>
+    <mergeCell ref="B95:B98"/>
+    <mergeCell ref="A92:A98"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="A57:A67"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B134:B140"/>
+    <mergeCell ref="B141:B143"/>
+    <mergeCell ref="A134:A143"/>
+    <mergeCell ref="B103:B110"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="B127:B133"/>
+    <mergeCell ref="A99:A133"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/时间表.xlsx
+++ b/时间表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\360\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6492A2-99B9-4DFC-8AAD-3E845FC9167D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEA45BC-3D2A-4634-995B-9897DF7B3943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10488" yWindow="312" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12480" yWindow="1488" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="242">
   <si>
     <t>第一次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -976,6 +976,22 @@
   </si>
   <si>
     <t>质数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>268丢失的数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>645错误的集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>372超级次方</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1311,10 +1327,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F150"/>
+  <dimension ref="A1:F154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="D154" sqref="D154"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="B152" sqref="B152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2503,17 +2519,18 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
+      <c r="B114" s="4"/>
       <c r="C114" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>176</v>
+        <v>238</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="C115" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>176</v>
@@ -2522,16 +2539,16 @@
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="C116" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
       <c r="C117" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>183</v>
@@ -2540,7 +2557,7 @@
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
       <c r="C118" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>183</v>
@@ -2549,16 +2566,16 @@
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="C119" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
       <c r="C120" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>185</v>
@@ -2566,20 +2583,20 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
-      <c r="B121" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="C121" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
+      <c r="B122" s="2" t="s">
+        <v>195</v>
+      </c>
       <c r="C122" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>191</v>
@@ -2588,7 +2605,7 @@
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
       <c r="C123" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>191</v>
@@ -2597,7 +2614,7 @@
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
       <c r="C124" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>191</v>
@@ -2606,7 +2623,7 @@
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
       <c r="C125" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>191</v>
@@ -2614,23 +2631,20 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
-      <c r="B126" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="C126" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
-      <c r="B127" s="4" t="s">
-        <v>200</v>
+      <c r="B127" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="C127" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>194</v>
@@ -2638,9 +2652,11 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
-      <c r="B128" s="4"/>
+      <c r="B128" s="4" t="s">
+        <v>200</v>
+      </c>
       <c r="C128" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>194</v>
@@ -2650,17 +2666,17 @@
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>206</v>
@@ -2670,7 +2686,7 @@
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>206</v>
@@ -2680,7 +2696,7 @@
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>206</v>
@@ -2690,41 +2706,41 @@
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="4" t="s">
+      <c r="A134" s="4"/>
+      <c r="B134" s="4"/>
+      <c r="C134" t="s">
+        <v>205</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="B134" s="4" t="s">
+      <c r="B135" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C135" t="s">
         <v>209</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="D135" s="1" t="s">
         <v>210</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="4"/>
-      <c r="B135" s="4"/>
-      <c r="C135" t="s">
-        <v>211</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>212</v>
@@ -2734,7 +2750,7 @@
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>212</v>
@@ -2744,17 +2760,17 @@
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>216</v>
@@ -2764,19 +2780,17 @@
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
-      <c r="B141" s="4" t="s">
-        <v>224</v>
-      </c>
+      <c r="B141" s="4"/>
       <c r="C141" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>221</v>
@@ -2784,9 +2798,11 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
-      <c r="B142" s="4"/>
+      <c r="B142" s="4" t="s">
+        <v>224</v>
+      </c>
       <c r="C142" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>221</v>
@@ -2796,41 +2812,42 @@
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" t="s">
+        <v>223</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="4"/>
+      <c r="B144" s="4"/>
+      <c r="C144" t="s">
         <v>225</v>
       </c>
-      <c r="D143" s="1" t="s">
+      <c r="D144" s="1" t="s">
         <v>226</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C144" t="s">
-        <v>219</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C145" t="s">
+        <v>219</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B145" s="4" t="s">
+      <c r="B146" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C146" t="s">
         <v>228</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B146" s="4"/>
-      <c r="C146" t="s">
-        <v>230</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>229</v>
@@ -2839,47 +2856,96 @@
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B147" s="4"/>
       <c r="C147" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B148" s="4" t="s">
-        <v>235</v>
-      </c>
+      <c r="B148" s="4"/>
       <c r="C148" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B149" s="4"/>
+      <c r="B149" s="4" t="s">
+        <v>235</v>
+      </c>
       <c r="C149" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B150" s="2" t="s">
-        <v>237</v>
-      </c>
+      <c r="B150" s="4"/>
       <c r="C150" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>229</v>
       </c>
     </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B151" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C151" t="s">
+        <v>236</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C152" t="s">
+        <v>241</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C153" t="s">
+        <v>239</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C154" t="s">
+        <v>240</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B145:B147"/>
-    <mergeCell ref="B148:B149"/>
+    <mergeCell ref="B135:B141"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="A135:A144"/>
+    <mergeCell ref="B103:B110"/>
+    <mergeCell ref="B128:B134"/>
+    <mergeCell ref="B112:B114"/>
+    <mergeCell ref="A99:A134"/>
+    <mergeCell ref="B95:B98"/>
+    <mergeCell ref="A92:A98"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="A57:A67"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B146:B148"/>
+    <mergeCell ref="B149:B150"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="B68:B70"/>
     <mergeCell ref="B5:B8"/>
@@ -2894,22 +2960,6 @@
     <mergeCell ref="B50:B52"/>
     <mergeCell ref="B54:B56"/>
     <mergeCell ref="A42:A56"/>
-    <mergeCell ref="B95:B98"/>
-    <mergeCell ref="A92:A98"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="A57:A67"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B134:B140"/>
-    <mergeCell ref="B141:B143"/>
-    <mergeCell ref="A134:A143"/>
-    <mergeCell ref="B103:B110"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="B127:B133"/>
-    <mergeCell ref="A99:A133"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/时间表.xlsx
+++ b/时间表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\360\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEA45BC-3D2A-4634-995B-9897DF7B3943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F41928-20AA-4885-8178-E8BA903B8B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12480" yWindow="1488" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3972" yWindow="432" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="248">
   <si>
     <t>第一次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -807,10 +807,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>博弈类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>子数组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -992,6 +988,34 @@
   </si>
   <si>
     <t>372超级次方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>382链表随机节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>398随机数索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>319灯泡开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>292Nim游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博弈类or智力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1327,10 +1351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F154"/>
+  <dimension ref="A1:F158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="B152" sqref="B152"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="E154" sqref="E154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2486,7 +2510,7 @@
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C111" t="s">
         <v>170</v>
@@ -2524,7 +2548,7 @@
         <v>160</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -2593,7 +2617,7 @@
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
       <c r="B122" s="2" t="s">
-        <v>195</v>
+        <v>247</v>
       </c>
       <c r="C122" t="s">
         <v>186</v>
@@ -2641,7 +2665,7 @@
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
       <c r="B127" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C127" t="s">
         <v>192</v>
@@ -2653,10 +2677,10 @@
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
       <c r="B128" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C128" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>194</v>
@@ -2666,7 +2690,7 @@
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>194</v>
@@ -2676,274 +2700,313 @@
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" t="s">
+        <v>204</v>
+      </c>
+      <c r="D134" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B135" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="B135" s="4" t="s">
+      <c r="C135" t="s">
         <v>208</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" t="s">
+        <v>210</v>
+      </c>
+      <c r="D136" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" t="s">
+        <v>214</v>
+      </c>
+      <c r="D139" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" t="s">
+        <v>219</v>
+      </c>
+      <c r="D141" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
       <c r="B142" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C142" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" t="s">
+        <v>224</v>
+      </c>
+      <c r="D144" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C145" t="s">
         <v>218</v>
       </c>
-      <c r="C145" t="s">
-        <v>219</v>
-      </c>
       <c r="D145" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="3" t="s">
+      <c r="A146" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C146" t="s">
         <v>227</v>
       </c>
-      <c r="B146" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C146" t="s">
+      <c r="D146" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D146" s="1" t="s">
-        <v>229</v>
-      </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="4"/>
       <c r="B149" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C149" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="4"/>
       <c r="B151" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C151" t="s">
+        <v>235</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="4"/>
+      <c r="C152" t="s">
+        <v>240</v>
+      </c>
+      <c r="D152" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C151" t="s">
-        <v>236</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C152" t="s">
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="4"/>
+      <c r="C153" t="s">
+        <v>238</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="4"/>
+      <c r="C154" t="s">
+        <v>239</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="4"/>
+      <c r="B155" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C155" t="s">
         <v>241</v>
       </c>
-      <c r="D152" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C153" t="s">
-        <v>239</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C154" t="s">
-        <v>240</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>238</v>
+      <c r="D155" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="4"/>
+      <c r="B156" s="4"/>
+      <c r="C156" t="s">
+        <v>243</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="4"/>
+      <c r="B157" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C157" t="s">
+        <v>245</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="4"/>
+      <c r="B158" s="4"/>
+      <c r="C158" t="s">
+        <v>244</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="B135:B141"/>
-    <mergeCell ref="B142:B144"/>
-    <mergeCell ref="A135:A144"/>
-    <mergeCell ref="B103:B110"/>
-    <mergeCell ref="B128:B134"/>
-    <mergeCell ref="B112:B114"/>
-    <mergeCell ref="A99:A134"/>
-    <mergeCell ref="B95:B98"/>
-    <mergeCell ref="A92:A98"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="A57:A67"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="A87:A91"/>
+  <mergeCells count="35">
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="A146:A158"/>
     <mergeCell ref="B146:B148"/>
     <mergeCell ref="B149:B150"/>
     <mergeCell ref="A2:A12"/>
@@ -2960,6 +3023,22 @@
     <mergeCell ref="B50:B52"/>
     <mergeCell ref="B54:B56"/>
     <mergeCell ref="A42:A56"/>
+    <mergeCell ref="B95:B98"/>
+    <mergeCell ref="A92:A98"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="A57:A67"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B135:B141"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="A135:A144"/>
+    <mergeCell ref="B103:B110"/>
+    <mergeCell ref="B128:B134"/>
+    <mergeCell ref="B112:B114"/>
+    <mergeCell ref="A99:A134"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/时间表.xlsx
+++ b/时间表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\360\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F41928-20AA-4885-8178-E8BA903B8B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5464CC-199E-4C05-A439-6874DAC73E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3972" yWindow="432" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10188" yWindow="288" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="252">
   <si>
     <t>第一次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1016,6 +1016,22 @@
   </si>
   <si>
     <t>博弈类or智力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>215数组中第K个最大元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>912排序数组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1351,10 +1367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F158"/>
+  <dimension ref="A1:F160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="E154" sqref="E154"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="E160" sqref="E160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3002,13 +3018,43 @@
         <v>242</v>
       </c>
     </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>248</v>
+      </c>
+      <c r="C159" t="s">
+        <v>249</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C160" t="s">
+        <v>251</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="A146:A158"/>
-    <mergeCell ref="B146:B148"/>
-    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="B135:B141"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="A135:A144"/>
+    <mergeCell ref="B103:B110"/>
+    <mergeCell ref="B128:B134"/>
+    <mergeCell ref="B112:B114"/>
+    <mergeCell ref="A99:A134"/>
+    <mergeCell ref="B95:B98"/>
+    <mergeCell ref="A92:A98"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="A57:A67"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="A87:A91"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="B68:B70"/>
     <mergeCell ref="B5:B8"/>
@@ -3023,22 +3069,11 @@
     <mergeCell ref="B50:B52"/>
     <mergeCell ref="B54:B56"/>
     <mergeCell ref="A42:A56"/>
-    <mergeCell ref="B95:B98"/>
-    <mergeCell ref="A92:A98"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="A57:A67"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B135:B141"/>
-    <mergeCell ref="B142:B144"/>
-    <mergeCell ref="A135:A144"/>
-    <mergeCell ref="B103:B110"/>
-    <mergeCell ref="B128:B134"/>
-    <mergeCell ref="B112:B114"/>
-    <mergeCell ref="A99:A134"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="A146:A158"/>
+    <mergeCell ref="B146:B148"/>
+    <mergeCell ref="B149:B150"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/时间表.xlsx
+++ b/时间表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\360\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5464CC-199E-4C05-A439-6874DAC73E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F43F09-E216-410F-BFB0-E12221EB73D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10188" yWindow="288" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10740" yWindow="1020" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="259">
   <si>
     <t>第一次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1032,6 +1032,34 @@
   </si>
   <si>
     <t>912排序数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分治</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>241为运算表达式设计优先级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1288删除被覆盖区间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56合并区间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>986区间列表的交集</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1075,7 +1103,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1086,6 +1114,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1367,10 +1398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F160"/>
+  <dimension ref="A1:F164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="E160" sqref="E160"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="C168" sqref="C168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3019,7 +3050,7 @@
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+      <c r="A159" s="4" t="s">
         <v>248</v>
       </c>
       <c r="C159" t="s">
@@ -3030,6 +3061,7 @@
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="4"/>
       <c r="C160" t="s">
         <v>251</v>
       </c>
@@ -3037,24 +3069,55 @@
         <v>250</v>
       </c>
     </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C161" t="s">
+        <v>253</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C162" t="s">
+        <v>256</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="4"/>
+      <c r="C163" t="s">
+        <v>257</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="4"/>
+      <c r="C164" t="s">
+        <v>258</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="B135:B141"/>
-    <mergeCell ref="B142:B144"/>
-    <mergeCell ref="A135:A144"/>
-    <mergeCell ref="B103:B110"/>
-    <mergeCell ref="B128:B134"/>
-    <mergeCell ref="B112:B114"/>
-    <mergeCell ref="A99:A134"/>
-    <mergeCell ref="B95:B98"/>
-    <mergeCell ref="A92:A98"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="A57:A67"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="A87:A91"/>
+  <mergeCells count="37">
+    <mergeCell ref="A159:A160"/>
+    <mergeCell ref="A162:A164"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="A146:A158"/>
+    <mergeCell ref="B146:B148"/>
+    <mergeCell ref="B149:B150"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="B68:B70"/>
     <mergeCell ref="B5:B8"/>
@@ -3069,11 +3132,22 @@
     <mergeCell ref="B50:B52"/>
     <mergeCell ref="B54:B56"/>
     <mergeCell ref="A42:A56"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="A146:A158"/>
-    <mergeCell ref="B146:B148"/>
-    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="B95:B98"/>
+    <mergeCell ref="A92:A98"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="A57:A67"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B135:B141"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="A135:A144"/>
+    <mergeCell ref="B103:B110"/>
+    <mergeCell ref="B128:B134"/>
+    <mergeCell ref="B112:B114"/>
+    <mergeCell ref="A99:A134"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/时间表.xlsx
+++ b/时间表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\360\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F43F09-E216-410F-BFB0-E12221EB73D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBB7633-1BDD-4183-BCA2-F5EEAE057C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10740" yWindow="1020" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10596" yWindow="456" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="262">
   <si>
     <t>第一次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1060,6 +1060,18 @@
   </si>
   <si>
     <t>986区间列表的交集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经典面试题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>659分割数组为连续子序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1113,10 +1125,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1398,10 +1410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F164"/>
+  <dimension ref="A1:F165"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="C168" sqref="C168"/>
+      <selection activeCell="D170" sqref="D170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1433,10 +1445,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>153</v>
       </c>
       <c r="C2" t="s">
@@ -1447,8 +1459,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -1457,7 +1469,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+      <c r="A4" s="5"/>
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -1466,8 +1478,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
         <v>141</v>
       </c>
       <c r="C5" t="s">
@@ -1478,8 +1490,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
       <c r="C6" t="s">
         <v>138</v>
       </c>
@@ -1488,8 +1500,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
       <c r="C7" t="s">
         <v>139</v>
       </c>
@@ -1498,8 +1510,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
       <c r="C8" t="s">
         <v>140</v>
       </c>
@@ -1508,8 +1520,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5" t="s">
         <v>152</v>
       </c>
       <c r="C9" t="s">
@@ -1520,8 +1532,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
       <c r="C10" t="s">
         <v>9</v>
       </c>
@@ -1530,8 +1542,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
       <c r="C11" t="s">
         <v>10</v>
       </c>
@@ -1540,7 +1552,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+      <c r="A12" s="5"/>
       <c r="C12" t="s">
         <v>97</v>
       </c>
@@ -1549,10 +1561,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C13" t="s">
@@ -1563,8 +1575,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -1573,8 +1585,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
       <c r="C15" t="s">
         <v>17</v>
       </c>
@@ -1583,8 +1595,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
       <c r="C16" t="s">
         <v>18</v>
       </c>
@@ -1593,8 +1605,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
       <c r="C17" t="s">
         <v>19</v>
       </c>
@@ -1603,8 +1615,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
       <c r="C18" t="s">
         <v>20</v>
       </c>
@@ -1613,8 +1625,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
       <c r="C19" t="s">
         <v>21</v>
       </c>
@@ -1623,8 +1635,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
       <c r="C20" t="s">
         <v>22</v>
       </c>
@@ -1633,8 +1645,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
       <c r="C21" t="s">
         <v>23</v>
       </c>
@@ -1643,8 +1655,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
       <c r="C22" t="s">
         <v>24</v>
       </c>
@@ -1653,8 +1665,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -1663,8 +1675,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
       <c r="C24" t="s">
         <v>26</v>
       </c>
@@ -1673,8 +1685,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
       <c r="C25" t="s">
         <v>27</v>
       </c>
@@ -1683,8 +1695,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
       <c r="C26" t="s">
         <v>28</v>
       </c>
@@ -1693,8 +1705,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
       <c r="C27" t="s">
         <v>29</v>
       </c>
@@ -1703,8 +1715,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
       <c r="C28" t="s">
         <v>30</v>
       </c>
@@ -1713,8 +1725,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
       <c r="C29" t="s">
         <v>31</v>
       </c>
@@ -1723,8 +1735,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
       <c r="C30" t="s">
         <v>32</v>
       </c>
@@ -1733,8 +1745,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
       <c r="C31" t="s">
         <v>33</v>
       </c>
@@ -1743,8 +1755,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4" t="s">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C32" t="s">
@@ -1755,8 +1767,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
       <c r="C33" t="s">
         <v>36</v>
       </c>
@@ -1765,8 +1777,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
       <c r="C34" t="s">
         <v>37</v>
       </c>
@@ -1775,8 +1787,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
       <c r="C35" t="s">
         <v>39</v>
       </c>
@@ -1785,8 +1797,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
       <c r="C36" t="s">
         <v>40</v>
       </c>
@@ -1795,8 +1807,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
       <c r="C37" t="s">
         <v>41</v>
       </c>
@@ -1805,8 +1817,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
       <c r="C38" t="s">
         <v>42</v>
       </c>
@@ -1815,8 +1827,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
       <c r="C39" t="s">
         <v>44</v>
       </c>
@@ -1825,8 +1837,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
       <c r="C40" t="s">
         <v>45</v>
       </c>
@@ -1835,7 +1847,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
+      <c r="A41" s="5"/>
       <c r="B41" s="2" t="s">
         <v>47</v>
       </c>
@@ -1847,7 +1859,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -1861,7 +1873,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
+      <c r="A43" s="5"/>
       <c r="B43" s="2" t="s">
         <v>74</v>
       </c>
@@ -1873,7 +1885,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
+      <c r="A44" s="5"/>
       <c r="B44" s="2" t="s">
         <v>75</v>
       </c>
@@ -1885,8 +1897,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4" t="s">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5" t="s">
         <v>76</v>
       </c>
       <c r="C45" t="s">
@@ -1897,8 +1909,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
       <c r="C46" t="s">
         <v>57</v>
       </c>
@@ -1907,8 +1919,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4" t="s">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5" t="s">
         <v>77</v>
       </c>
       <c r="C47" t="s">
@@ -1919,8 +1931,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
       <c r="C48" t="s">
         <v>61</v>
       </c>
@@ -1929,8 +1941,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
       <c r="C49" t="s">
         <v>62</v>
       </c>
@@ -1939,8 +1951,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4" t="s">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5" t="s">
         <v>78</v>
       </c>
       <c r="C50" t="s">
@@ -1951,8 +1963,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
       <c r="C51" t="s">
         <v>65</v>
       </c>
@@ -1961,8 +1973,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
       <c r="C52" t="s">
         <v>66</v>
       </c>
@@ -1971,7 +1983,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
+      <c r="A53" s="5"/>
       <c r="B53" s="2" t="s">
         <v>79</v>
       </c>
@@ -1983,8 +1995,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4" t="s">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5" t="s">
         <v>80</v>
       </c>
       <c r="C54" t="s">
@@ -1995,8 +2007,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
       <c r="C55" t="s">
         <v>70</v>
       </c>
@@ -2005,8 +2017,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
       <c r="C56" t="s">
         <v>71</v>
       </c>
@@ -2015,7 +2027,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="5" t="s">
         <v>81</v>
       </c>
       <c r="C57" t="s">
@@ -2026,7 +2038,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
+      <c r="A58" s="5"/>
       <c r="C58" t="s">
         <v>83</v>
       </c>
@@ -2035,7 +2047,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
+      <c r="A59" s="5"/>
       <c r="C59" t="s">
         <v>84</v>
       </c>
@@ -2044,7 +2056,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
+      <c r="A60" s="5"/>
       <c r="C60" t="s">
         <v>86</v>
       </c>
@@ -2053,7 +2065,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
+      <c r="A61" s="5"/>
       <c r="C61" t="s">
         <v>87</v>
       </c>
@@ -2062,7 +2074,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
+      <c r="A62" s="5"/>
       <c r="C62" t="s">
         <v>89</v>
       </c>
@@ -2071,7 +2083,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
+      <c r="A63" s="5"/>
       <c r="C63" t="s">
         <v>90</v>
       </c>
@@ -2080,7 +2092,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
+      <c r="A64" s="5"/>
       <c r="C64" t="s">
         <v>91</v>
       </c>
@@ -2089,7 +2101,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
+      <c r="A65" s="5"/>
       <c r="C65" t="s">
         <v>92</v>
       </c>
@@ -2098,7 +2110,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
+      <c r="A66" s="5"/>
       <c r="C66" t="s">
         <v>94</v>
       </c>
@@ -2107,7 +2119,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
+      <c r="A67" s="5"/>
       <c r="C67" t="s">
         <v>95</v>
       </c>
@@ -2116,10 +2128,10 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="5" t="s">
         <v>105</v>
       </c>
       <c r="C68" t="s">
@@ -2130,8 +2142,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
       <c r="C69" t="s">
         <v>101</v>
       </c>
@@ -2140,8 +2152,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
       <c r="C70" t="s">
         <v>102</v>
       </c>
@@ -2150,8 +2162,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
-      <c r="B71" s="4" t="s">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5" t="s">
         <v>104</v>
       </c>
       <c r="C71" t="s">
@@ -2162,8 +2174,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
-      <c r="B72" s="4"/>
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
       <c r="C72" t="s">
         <v>107</v>
       </c>
@@ -2172,8 +2184,8 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
       <c r="C73" t="s">
         <v>108</v>
       </c>
@@ -2182,8 +2194,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="4"/>
-      <c r="B74" s="4" t="s">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5" t="s">
         <v>113</v>
       </c>
       <c r="C74" t="s">
@@ -2194,8 +2206,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
       <c r="C75" t="s">
         <v>111</v>
       </c>
@@ -2204,8 +2216,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="4"/>
-      <c r="B76" s="4"/>
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
       <c r="C76" t="s">
         <v>112</v>
       </c>
@@ -2214,8 +2226,8 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="4"/>
-      <c r="B77" s="4" t="s">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5" t="s">
         <v>128</v>
       </c>
       <c r="C77" t="s">
@@ -2226,8 +2238,8 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="4"/>
-      <c r="B78" s="4"/>
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
       <c r="C78" t="s">
         <v>125</v>
       </c>
@@ -2236,8 +2248,8 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="4"/>
-      <c r="B79" s="4"/>
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
       <c r="C79" t="s">
         <v>127</v>
       </c>
@@ -2246,7 +2258,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="4"/>
+      <c r="A80" s="5"/>
       <c r="C80" t="s">
         <v>114</v>
       </c>
@@ -2255,8 +2267,8 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="4"/>
-      <c r="B81" s="4" t="s">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5" t="s">
         <v>121</v>
       </c>
       <c r="C81" t="s">
@@ -2267,8 +2279,8 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
       <c r="C82" t="s">
         <v>117</v>
       </c>
@@ -2277,8 +2289,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
       <c r="C83" t="s">
         <v>118</v>
       </c>
@@ -2287,8 +2299,8 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
       <c r="C84" t="s">
         <v>119</v>
       </c>
@@ -2297,7 +2309,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="4"/>
+      <c r="A85" s="5"/>
       <c r="C85" t="s">
         <v>122</v>
       </c>
@@ -2306,7 +2318,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="4"/>
+      <c r="A86" s="5"/>
       <c r="C86" t="s">
         <v>123</v>
       </c>
@@ -2315,7 +2327,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="5" t="s">
         <v>129</v>
       </c>
       <c r="C87" t="s">
@@ -2326,7 +2338,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="4"/>
+      <c r="A88" s="5"/>
       <c r="C88" t="s">
         <v>131</v>
       </c>
@@ -2335,7 +2347,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="4"/>
+      <c r="A89" s="5"/>
       <c r="C89" t="s">
         <v>133</v>
       </c>
@@ -2344,7 +2356,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="4"/>
+      <c r="A90" s="5"/>
       <c r="C90" t="s">
         <v>134</v>
       </c>
@@ -2353,7 +2365,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="4"/>
+      <c r="A91" s="5"/>
       <c r="C91" t="s">
         <v>135</v>
       </c>
@@ -2362,10 +2374,10 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
+      <c r="A92" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B92" s="5" t="s">
         <v>142</v>
       </c>
       <c r="C92" t="s">
@@ -2376,8 +2388,8 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="4"/>
-      <c r="B93" s="4"/>
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
       <c r="C93" t="s">
         <v>150</v>
       </c>
@@ -2386,8 +2398,8 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="4"/>
-      <c r="B94" s="4"/>
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
       <c r="C94" t="s">
         <v>151</v>
       </c>
@@ -2396,8 +2408,8 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="4"/>
-      <c r="B95" s="4" t="s">
+      <c r="A95" s="5"/>
+      <c r="B95" s="5" t="s">
         <v>143</v>
       </c>
       <c r="C95" t="s">
@@ -2408,8 +2420,8 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="4"/>
-      <c r="B96" s="4"/>
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
       <c r="C96" t="s">
         <v>145</v>
       </c>
@@ -2418,8 +2430,8 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="4"/>
-      <c r="B97" s="4"/>
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
       <c r="C97" t="s">
         <v>146</v>
       </c>
@@ -2428,8 +2440,8 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="4"/>
-      <c r="B98" s="4"/>
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
       <c r="C98" t="s">
         <v>147</v>
       </c>
@@ -2438,7 +2450,7 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="s">
+      <c r="A99" s="5" t="s">
         <v>154</v>
       </c>
       <c r="C99" t="s">
@@ -2449,7 +2461,7 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="4"/>
+      <c r="A100" s="5"/>
       <c r="C100" t="s">
         <v>156</v>
       </c>
@@ -2458,7 +2470,7 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="4"/>
+      <c r="A101" s="5"/>
       <c r="C101" t="s">
         <v>158</v>
       </c>
@@ -2467,14 +2479,14 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="4"/>
+      <c r="A102" s="5"/>
       <c r="C102" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="4"/>
-      <c r="B103" s="4" t="s">
+      <c r="A103" s="5"/>
+      <c r="B103" s="5" t="s">
         <v>162</v>
       </c>
       <c r="C103" t="s">
@@ -2485,8 +2497,8 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="4"/>
-      <c r="B104" s="4"/>
+      <c r="A104" s="5"/>
+      <c r="B104" s="5"/>
       <c r="C104" t="s">
         <v>164</v>
       </c>
@@ -2495,8 +2507,8 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="4"/>
-      <c r="B105" s="4"/>
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
       <c r="C105" t="s">
         <v>166</v>
       </c>
@@ -2505,8 +2517,8 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="4"/>
-      <c r="B106" s="4"/>
+      <c r="A106" s="5"/>
+      <c r="B106" s="5"/>
       <c r="C106" t="s">
         <v>167</v>
       </c>
@@ -2515,8 +2527,8 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="4"/>
-      <c r="B107" s="4"/>
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
       <c r="C107" t="s">
         <v>168</v>
       </c>
@@ -2525,8 +2537,8 @@
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="4"/>
-      <c r="B108" s="4"/>
+      <c r="A108" s="5"/>
+      <c r="B108" s="5"/>
       <c r="C108" t="s">
         <v>169</v>
       </c>
@@ -2535,8 +2547,8 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="4"/>
-      <c r="B109" s="4"/>
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
       <c r="C109" t="s">
         <v>171</v>
       </c>
@@ -2545,8 +2557,8 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="4"/>
-      <c r="B110" s="4"/>
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
       <c r="C110" t="s">
         <v>193</v>
       </c>
@@ -2555,7 +2567,7 @@
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="4"/>
+      <c r="A111" s="5"/>
       <c r="B111" s="2" t="s">
         <v>195</v>
       </c>
@@ -2567,8 +2579,8 @@
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="4"/>
-      <c r="B112" s="4" t="s">
+      <c r="A112" s="5"/>
+      <c r="B112" s="5" t="s">
         <v>173</v>
       </c>
       <c r="C112" t="s">
@@ -2579,8 +2591,8 @@
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="4"/>
-      <c r="B113" s="4"/>
+      <c r="A113" s="5"/>
+      <c r="B113" s="5"/>
       <c r="C113" t="s">
         <v>175</v>
       </c>
@@ -2589,8 +2601,8 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="4"/>
-      <c r="B114" s="4"/>
+      <c r="A114" s="5"/>
+      <c r="B114" s="5"/>
       <c r="C114" t="s">
         <v>160</v>
       </c>
@@ -2599,7 +2611,7 @@
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="4"/>
+      <c r="A115" s="5"/>
       <c r="C115" t="s">
         <v>177</v>
       </c>
@@ -2608,7 +2620,7 @@
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="4"/>
+      <c r="A116" s="5"/>
       <c r="C116" t="s">
         <v>178</v>
       </c>
@@ -2617,7 +2629,7 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="4"/>
+      <c r="A117" s="5"/>
       <c r="C117" t="s">
         <v>182</v>
       </c>
@@ -2626,7 +2638,7 @@
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="4"/>
+      <c r="A118" s="5"/>
       <c r="C118" t="s">
         <v>179</v>
       </c>
@@ -2635,7 +2647,7 @@
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="4"/>
+      <c r="A119" s="5"/>
       <c r="C119" t="s">
         <v>180</v>
       </c>
@@ -2644,7 +2656,7 @@
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="4"/>
+      <c r="A120" s="5"/>
       <c r="C120" t="s">
         <v>181</v>
       </c>
@@ -2653,7 +2665,7 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="4"/>
+      <c r="A121" s="5"/>
       <c r="C121" t="s">
         <v>184</v>
       </c>
@@ -2662,7 +2674,7 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="4"/>
+      <c r="A122" s="5"/>
       <c r="B122" s="2" t="s">
         <v>247</v>
       </c>
@@ -2674,7 +2686,7 @@
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="4"/>
+      <c r="A123" s="5"/>
       <c r="C123" t="s">
         <v>187</v>
       </c>
@@ -2683,7 +2695,7 @@
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="4"/>
+      <c r="A124" s="5"/>
       <c r="C124" t="s">
         <v>188</v>
       </c>
@@ -2692,7 +2704,7 @@
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="4"/>
+      <c r="A125" s="5"/>
       <c r="C125" t="s">
         <v>189</v>
       </c>
@@ -2701,7 +2713,7 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="4"/>
+      <c r="A126" s="5"/>
       <c r="C126" t="s">
         <v>190</v>
       </c>
@@ -2710,7 +2722,7 @@
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="4"/>
+      <c r="A127" s="5"/>
       <c r="B127" s="2" t="s">
         <v>196</v>
       </c>
@@ -2722,8 +2734,8 @@
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="4"/>
-      <c r="B128" s="4" t="s">
+      <c r="A128" s="5"/>
+      <c r="B128" s="5" t="s">
         <v>199</v>
       </c>
       <c r="C128" t="s">
@@ -2734,8 +2746,8 @@
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="4"/>
-      <c r="B129" s="4"/>
+      <c r="A129" s="5"/>
+      <c r="B129" s="5"/>
       <c r="C129" t="s">
         <v>198</v>
       </c>
@@ -2744,8 +2756,8 @@
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="4"/>
-      <c r="B130" s="4"/>
+      <c r="A130" s="5"/>
+      <c r="B130" s="5"/>
       <c r="C130" t="s">
         <v>200</v>
       </c>
@@ -2754,8 +2766,8 @@
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="4"/>
-      <c r="B131" s="4"/>
+      <c r="A131" s="5"/>
+      <c r="B131" s="5"/>
       <c r="C131" t="s">
         <v>201</v>
       </c>
@@ -2764,8 +2776,8 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="4"/>
-      <c r="B132" s="4"/>
+      <c r="A132" s="5"/>
+      <c r="B132" s="5"/>
       <c r="C132" t="s">
         <v>202</v>
       </c>
@@ -2774,8 +2786,8 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="4"/>
-      <c r="B133" s="4"/>
+      <c r="A133" s="5"/>
+      <c r="B133" s="5"/>
       <c r="C133" t="s">
         <v>203</v>
       </c>
@@ -2784,8 +2796,8 @@
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="4"/>
-      <c r="B134" s="4"/>
+      <c r="A134" s="5"/>
+      <c r="B134" s="5"/>
       <c r="C134" t="s">
         <v>204</v>
       </c>
@@ -2794,10 +2806,10 @@
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="4" t="s">
+      <c r="A135" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B135" s="4" t="s">
+      <c r="B135" s="5" t="s">
         <v>207</v>
       </c>
       <c r="C135" t="s">
@@ -2808,8 +2820,8 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="4"/>
-      <c r="B136" s="4"/>
+      <c r="A136" s="5"/>
+      <c r="B136" s="5"/>
       <c r="C136" t="s">
         <v>210</v>
       </c>
@@ -2818,8 +2830,8 @@
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="4"/>
-      <c r="B137" s="4"/>
+      <c r="A137" s="5"/>
+      <c r="B137" s="5"/>
       <c r="C137" t="s">
         <v>212</v>
       </c>
@@ -2828,8 +2840,8 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="4"/>
-      <c r="B138" s="4"/>
+      <c r="A138" s="5"/>
+      <c r="B138" s="5"/>
       <c r="C138" t="s">
         <v>213</v>
       </c>
@@ -2838,8 +2850,8 @@
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="4"/>
-      <c r="B139" s="4"/>
+      <c r="A139" s="5"/>
+      <c r="B139" s="5"/>
       <c r="C139" t="s">
         <v>214</v>
       </c>
@@ -2848,8 +2860,8 @@
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="4"/>
-      <c r="B140" s="4"/>
+      <c r="A140" s="5"/>
+      <c r="B140" s="5"/>
       <c r="C140" t="s">
         <v>216</v>
       </c>
@@ -2858,8 +2870,8 @@
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="4"/>
-      <c r="B141" s="4"/>
+      <c r="A141" s="5"/>
+      <c r="B141" s="5"/>
       <c r="C141" t="s">
         <v>219</v>
       </c>
@@ -2868,8 +2880,8 @@
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="4"/>
-      <c r="B142" s="4" t="s">
+      <c r="A142" s="5"/>
+      <c r="B142" s="5" t="s">
         <v>223</v>
       </c>
       <c r="C142" t="s">
@@ -2880,8 +2892,8 @@
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="4"/>
-      <c r="B143" s="4"/>
+      <c r="A143" s="5"/>
+      <c r="B143" s="5"/>
       <c r="C143" t="s">
         <v>222</v>
       </c>
@@ -2890,8 +2902,8 @@
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="4"/>
-      <c r="B144" s="4"/>
+      <c r="A144" s="5"/>
+      <c r="B144" s="5"/>
       <c r="C144" t="s">
         <v>224</v>
       </c>
@@ -2911,10 +2923,10 @@
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="4" t="s">
+      <c r="A146" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="B146" s="4" t="s">
+      <c r="B146" s="5" t="s">
         <v>231</v>
       </c>
       <c r="C146" t="s">
@@ -2925,8 +2937,8 @@
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="4"/>
-      <c r="B147" s="4"/>
+      <c r="A147" s="5"/>
+      <c r="B147" s="5"/>
       <c r="C147" t="s">
         <v>229</v>
       </c>
@@ -2935,8 +2947,8 @@
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="4"/>
-      <c r="B148" s="4"/>
+      <c r="A148" s="5"/>
+      <c r="B148" s="5"/>
       <c r="C148" t="s">
         <v>230</v>
       </c>
@@ -2945,8 +2957,8 @@
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="4"/>
-      <c r="B149" s="4" t="s">
+      <c r="A149" s="5"/>
+      <c r="B149" s="5" t="s">
         <v>234</v>
       </c>
       <c r="C149" t="s">
@@ -2957,8 +2969,8 @@
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="4"/>
-      <c r="B150" s="4"/>
+      <c r="A150" s="5"/>
+      <c r="B150" s="5"/>
       <c r="C150" t="s">
         <v>233</v>
       </c>
@@ -2967,7 +2979,7 @@
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="4"/>
+      <c r="A151" s="5"/>
       <c r="B151" s="2" t="s">
         <v>236</v>
       </c>
@@ -2979,7 +2991,7 @@
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="4"/>
+      <c r="A152" s="5"/>
       <c r="C152" t="s">
         <v>240</v>
       </c>
@@ -2988,7 +3000,7 @@
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="4"/>
+      <c r="A153" s="5"/>
       <c r="C153" t="s">
         <v>238</v>
       </c>
@@ -2997,7 +3009,7 @@
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="4"/>
+      <c r="A154" s="5"/>
       <c r="C154" t="s">
         <v>239</v>
       </c>
@@ -3006,8 +3018,8 @@
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="4"/>
-      <c r="B155" s="4" t="s">
+      <c r="A155" s="5"/>
+      <c r="B155" s="5" t="s">
         <v>128</v>
       </c>
       <c r="C155" t="s">
@@ -3018,8 +3030,8 @@
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="4"/>
-      <c r="B156" s="4"/>
+      <c r="A156" s="5"/>
+      <c r="B156" s="5"/>
       <c r="C156" t="s">
         <v>243</v>
       </c>
@@ -3028,8 +3040,8 @@
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="4"/>
-      <c r="B157" s="4" t="s">
+      <c r="A157" s="5"/>
+      <c r="B157" s="5" t="s">
         <v>246</v>
       </c>
       <c r="C157" t="s">
@@ -3040,8 +3052,8 @@
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="4"/>
-      <c r="B158" s="4"/>
+      <c r="A158" s="5"/>
+      <c r="B158" s="5"/>
       <c r="C158" t="s">
         <v>244</v>
       </c>
@@ -3050,7 +3062,7 @@
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="4" t="s">
+      <c r="A159" s="5" t="s">
         <v>248</v>
       </c>
       <c r="C159" t="s">
@@ -3061,7 +3073,7 @@
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="4"/>
+      <c r="A160" s="5"/>
       <c r="C160" t="s">
         <v>251</v>
       </c>
@@ -3070,7 +3082,7 @@
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="5" t="s">
+      <c r="A161" s="4" t="s">
         <v>252</v>
       </c>
       <c r="C161" t="s">
@@ -3081,7 +3093,7 @@
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="4" t="s">
+      <c r="A162" s="5" t="s">
         <v>255</v>
       </c>
       <c r="C162" t="s">
@@ -3092,7 +3104,7 @@
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="4"/>
+      <c r="A163" s="5"/>
       <c r="C163" t="s">
         <v>257</v>
       </c>
@@ -3101,7 +3113,7 @@
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="4"/>
+      <c r="A164" s="5"/>
       <c r="C164" t="s">
         <v>258</v>
       </c>
@@ -3109,15 +3121,35 @@
         <v>254</v>
       </c>
     </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>259</v>
+      </c>
+      <c r="C165" t="s">
+        <v>260</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A159:A160"/>
-    <mergeCell ref="A162:A164"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="A146:A158"/>
-    <mergeCell ref="B146:B148"/>
-    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="B135:B141"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="A135:A144"/>
+    <mergeCell ref="B103:B110"/>
+    <mergeCell ref="B128:B134"/>
+    <mergeCell ref="B112:B114"/>
+    <mergeCell ref="A99:A134"/>
+    <mergeCell ref="B95:B98"/>
+    <mergeCell ref="A92:A98"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="A57:A67"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="A87:A91"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="B68:B70"/>
     <mergeCell ref="B5:B8"/>
@@ -3132,22 +3164,13 @@
     <mergeCell ref="B50:B52"/>
     <mergeCell ref="B54:B56"/>
     <mergeCell ref="A42:A56"/>
-    <mergeCell ref="B95:B98"/>
-    <mergeCell ref="A92:A98"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="A57:A67"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B135:B141"/>
-    <mergeCell ref="B142:B144"/>
-    <mergeCell ref="A135:A144"/>
-    <mergeCell ref="B103:B110"/>
-    <mergeCell ref="B128:B134"/>
-    <mergeCell ref="B112:B114"/>
-    <mergeCell ref="A99:A134"/>
+    <mergeCell ref="A159:A160"/>
+    <mergeCell ref="A162:A164"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="A146:A158"/>
+    <mergeCell ref="B146:B148"/>
+    <mergeCell ref="B149:B150"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/时间表.xlsx
+++ b/时间表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\360\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBB7633-1BDD-4183-BCA2-F5EEAE057C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6589811F-0F05-4812-B233-E0052BC9578D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10596" yWindow="456" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11952" yWindow="384" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="269">
   <si>
     <t>第一次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1072,6 +1072,34 @@
   </si>
   <si>
     <t>3.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃葡萄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>969煎饼排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43字符串相乘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回文串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5最长回文子串</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1115,7 +1143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1129,6 +1157,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1410,10 +1444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F165"/>
+  <dimension ref="A1:F169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="D170" sqref="D170"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="F166" sqref="F166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1445,10 +1479,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>153</v>
       </c>
       <c r="C2" t="s">
@@ -1459,8 +1493,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -1469,7 +1503,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+      <c r="A4" s="6"/>
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -1478,8 +1512,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6" t="s">
         <v>141</v>
       </c>
       <c r="C5" t="s">
@@ -1490,8 +1524,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
       <c r="C6" t="s">
         <v>138</v>
       </c>
@@ -1500,8 +1534,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
       <c r="C7" t="s">
         <v>139</v>
       </c>
@@ -1510,8 +1544,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
       <c r="C8" t="s">
         <v>140</v>
       </c>
@@ -1520,8 +1554,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6" t="s">
         <v>152</v>
       </c>
       <c r="C9" t="s">
@@ -1532,8 +1566,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
       <c r="C10" t="s">
         <v>9</v>
       </c>
@@ -1542,8 +1576,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
       <c r="C11" t="s">
         <v>10</v>
       </c>
@@ -1552,7 +1586,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
+      <c r="A12" s="6"/>
       <c r="C12" t="s">
         <v>97</v>
       </c>
@@ -1561,10 +1595,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C13" t="s">
@@ -1575,8 +1609,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -1585,8 +1619,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
       <c r="C15" t="s">
         <v>17</v>
       </c>
@@ -1595,8 +1629,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
       <c r="C16" t="s">
         <v>18</v>
       </c>
@@ -1605,8 +1639,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
       <c r="C17" t="s">
         <v>19</v>
       </c>
@@ -1615,8 +1649,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
       <c r="C18" t="s">
         <v>20</v>
       </c>
@@ -1625,8 +1659,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
       <c r="C19" t="s">
         <v>21</v>
       </c>
@@ -1635,8 +1669,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
       <c r="C20" t="s">
         <v>22</v>
       </c>
@@ -1645,8 +1679,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
       <c r="C21" t="s">
         <v>23</v>
       </c>
@@ -1655,8 +1689,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
       <c r="C22" t="s">
         <v>24</v>
       </c>
@@ -1665,8 +1699,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -1675,8 +1709,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
       <c r="C24" t="s">
         <v>26</v>
       </c>
@@ -1685,8 +1719,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
       <c r="C25" t="s">
         <v>27</v>
       </c>
@@ -1695,8 +1729,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
       <c r="C26" t="s">
         <v>28</v>
       </c>
@@ -1705,8 +1739,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
       <c r="C27" t="s">
         <v>29</v>
       </c>
@@ -1715,8 +1749,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
       <c r="C28" t="s">
         <v>30</v>
       </c>
@@ -1725,8 +1759,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
       <c r="C29" t="s">
         <v>31</v>
       </c>
@@ -1735,8 +1769,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
       <c r="C30" t="s">
         <v>32</v>
       </c>
@@ -1745,8 +1779,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
       <c r="C31" t="s">
         <v>33</v>
       </c>
@@ -1755,8 +1789,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5" t="s">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C32" t="s">
@@ -1767,8 +1801,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
       <c r="C33" t="s">
         <v>36</v>
       </c>
@@ -1777,8 +1811,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
       <c r="C34" t="s">
         <v>37</v>
       </c>
@@ -1787,8 +1821,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
       <c r="C35" t="s">
         <v>39</v>
       </c>
@@ -1797,8 +1831,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
       <c r="C36" t="s">
         <v>40</v>
       </c>
@@ -1807,8 +1841,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
       <c r="C37" t="s">
         <v>41</v>
       </c>
@@ -1817,8 +1851,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
       <c r="C38" t="s">
         <v>42</v>
       </c>
@@ -1827,8 +1861,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
       <c r="C39" t="s">
         <v>44</v>
       </c>
@@ -1837,8 +1871,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
       <c r="C40" t="s">
         <v>45</v>
       </c>
@@ -1847,7 +1881,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
+      <c r="A41" s="6"/>
       <c r="B41" s="2" t="s">
         <v>47</v>
       </c>
@@ -1859,7 +1893,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -1873,7 +1907,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
+      <c r="A43" s="6"/>
       <c r="B43" s="2" t="s">
         <v>74</v>
       </c>
@@ -1885,7 +1919,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
+      <c r="A44" s="6"/>
       <c r="B44" s="2" t="s">
         <v>75</v>
       </c>
@@ -1897,8 +1931,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5" t="s">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6" t="s">
         <v>76</v>
       </c>
       <c r="C45" t="s">
@@ -1909,8 +1943,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
       <c r="C46" t="s">
         <v>57</v>
       </c>
@@ -1919,8 +1953,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5" t="s">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6" t="s">
         <v>77</v>
       </c>
       <c r="C47" t="s">
@@ -1931,8 +1965,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
       <c r="C48" t="s">
         <v>61</v>
       </c>
@@ -1941,8 +1975,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
       <c r="C49" t="s">
         <v>62</v>
       </c>
@@ -1951,8 +1985,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5" t="s">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6" t="s">
         <v>78</v>
       </c>
       <c r="C50" t="s">
@@ -1963,8 +1997,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
       <c r="C51" t="s">
         <v>65</v>
       </c>
@@ -1973,8 +2007,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
       <c r="C52" t="s">
         <v>66</v>
       </c>
@@ -1983,7 +2017,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="5"/>
+      <c r="A53" s="6"/>
       <c r="B53" s="2" t="s">
         <v>79</v>
       </c>
@@ -1995,8 +2029,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5" t="s">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6" t="s">
         <v>80</v>
       </c>
       <c r="C54" t="s">
@@ -2007,8 +2041,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
       <c r="C55" t="s">
         <v>70</v>
       </c>
@@ -2017,8 +2051,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
       <c r="C56" t="s">
         <v>71</v>
       </c>
@@ -2027,7 +2061,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="6" t="s">
         <v>81</v>
       </c>
       <c r="C57" t="s">
@@ -2038,7 +2072,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
+      <c r="A58" s="6"/>
       <c r="C58" t="s">
         <v>83</v>
       </c>
@@ -2047,7 +2081,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="5"/>
+      <c r="A59" s="6"/>
       <c r="C59" t="s">
         <v>84</v>
       </c>
@@ -2056,7 +2090,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
+      <c r="A60" s="6"/>
       <c r="C60" t="s">
         <v>86</v>
       </c>
@@ -2065,7 +2099,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="5"/>
+      <c r="A61" s="6"/>
       <c r="C61" t="s">
         <v>87</v>
       </c>
@@ -2074,7 +2108,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="5"/>
+      <c r="A62" s="6"/>
       <c r="C62" t="s">
         <v>89</v>
       </c>
@@ -2083,7 +2117,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="5"/>
+      <c r="A63" s="6"/>
       <c r="C63" t="s">
         <v>90</v>
       </c>
@@ -2092,7 +2126,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="5"/>
+      <c r="A64" s="6"/>
       <c r="C64" t="s">
         <v>91</v>
       </c>
@@ -2101,7 +2135,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="5"/>
+      <c r="A65" s="6"/>
       <c r="C65" t="s">
         <v>92</v>
       </c>
@@ -2110,7 +2144,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="5"/>
+      <c r="A66" s="6"/>
       <c r="C66" t="s">
         <v>94</v>
       </c>
@@ -2119,7 +2153,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="5"/>
+      <c r="A67" s="6"/>
       <c r="C67" t="s">
         <v>95</v>
       </c>
@@ -2128,10 +2162,10 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="6" t="s">
         <v>105</v>
       </c>
       <c r="C68" t="s">
@@ -2142,8 +2176,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
+      <c r="A69" s="6"/>
+      <c r="B69" s="6"/>
       <c r="C69" t="s">
         <v>101</v>
       </c>
@@ -2152,8 +2186,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
+      <c r="A70" s="6"/>
+      <c r="B70" s="6"/>
       <c r="C70" t="s">
         <v>102</v>
       </c>
@@ -2162,8 +2196,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5" t="s">
+      <c r="A71" s="6"/>
+      <c r="B71" s="6" t="s">
         <v>104</v>
       </c>
       <c r="C71" t="s">
@@ -2174,8 +2208,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
+      <c r="A72" s="6"/>
+      <c r="B72" s="6"/>
       <c r="C72" t="s">
         <v>107</v>
       </c>
@@ -2184,8 +2218,8 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
       <c r="C73" t="s">
         <v>108</v>
       </c>
@@ -2194,8 +2228,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="5"/>
-      <c r="B74" s="5" t="s">
+      <c r="A74" s="6"/>
+      <c r="B74" s="6" t="s">
         <v>113</v>
       </c>
       <c r="C74" t="s">
@@ -2206,8 +2240,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
+      <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
       <c r="C75" t="s">
         <v>111</v>
       </c>
@@ -2216,8 +2250,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
+      <c r="A76" s="6"/>
+      <c r="B76" s="6"/>
       <c r="C76" t="s">
         <v>112</v>
       </c>
@@ -2226,8 +2260,8 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="5"/>
-      <c r="B77" s="5" t="s">
+      <c r="A77" s="6"/>
+      <c r="B77" s="6" t="s">
         <v>128</v>
       </c>
       <c r="C77" t="s">
@@ -2238,8 +2272,8 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="5"/>
-      <c r="B78" s="5"/>
+      <c r="A78" s="6"/>
+      <c r="B78" s="6"/>
       <c r="C78" t="s">
         <v>125</v>
       </c>
@@ -2248,8 +2282,8 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="5"/>
-      <c r="B79" s="5"/>
+      <c r="A79" s="6"/>
+      <c r="B79" s="6"/>
       <c r="C79" t="s">
         <v>127</v>
       </c>
@@ -2258,7 +2292,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="5"/>
+      <c r="A80" s="6"/>
       <c r="C80" t="s">
         <v>114</v>
       </c>
@@ -2267,8 +2301,8 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="5"/>
-      <c r="B81" s="5" t="s">
+      <c r="A81" s="6"/>
+      <c r="B81" s="6" t="s">
         <v>121</v>
       </c>
       <c r="C81" t="s">
@@ -2279,8 +2313,8 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="5"/>
-      <c r="B82" s="5"/>
+      <c r="A82" s="6"/>
+      <c r="B82" s="6"/>
       <c r="C82" t="s">
         <v>117</v>
       </c>
@@ -2289,8 +2323,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="5"/>
-      <c r="B83" s="5"/>
+      <c r="A83" s="6"/>
+      <c r="B83" s="6"/>
       <c r="C83" t="s">
         <v>118</v>
       </c>
@@ -2299,8 +2333,8 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="5"/>
-      <c r="B84" s="5"/>
+      <c r="A84" s="6"/>
+      <c r="B84" s="6"/>
       <c r="C84" t="s">
         <v>119</v>
       </c>
@@ -2309,7 +2343,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="5"/>
+      <c r="A85" s="6"/>
       <c r="C85" t="s">
         <v>122</v>
       </c>
@@ -2318,7 +2352,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="5"/>
+      <c r="A86" s="6"/>
       <c r="C86" t="s">
         <v>123</v>
       </c>
@@ -2327,7 +2361,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="6" t="s">
         <v>129</v>
       </c>
       <c r="C87" t="s">
@@ -2338,7 +2372,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="5"/>
+      <c r="A88" s="6"/>
       <c r="C88" t="s">
         <v>131</v>
       </c>
@@ -2347,7 +2381,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="5"/>
+      <c r="A89" s="6"/>
       <c r="C89" t="s">
         <v>133</v>
       </c>
@@ -2356,7 +2390,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="5"/>
+      <c r="A90" s="6"/>
       <c r="C90" t="s">
         <v>134</v>
       </c>
@@ -2365,7 +2399,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="5"/>
+      <c r="A91" s="6"/>
       <c r="C91" t="s">
         <v>135</v>
       </c>
@@ -2374,10 +2408,10 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
+      <c r="A92" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="6" t="s">
         <v>142</v>
       </c>
       <c r="C92" t="s">
@@ -2388,8 +2422,8 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="5"/>
-      <c r="B93" s="5"/>
+      <c r="A93" s="6"/>
+      <c r="B93" s="6"/>
       <c r="C93" t="s">
         <v>150</v>
       </c>
@@ -2398,8 +2432,8 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="5"/>
-      <c r="B94" s="5"/>
+      <c r="A94" s="6"/>
+      <c r="B94" s="6"/>
       <c r="C94" t="s">
         <v>151</v>
       </c>
@@ -2408,8 +2442,8 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="5"/>
-      <c r="B95" s="5" t="s">
+      <c r="A95" s="6"/>
+      <c r="B95" s="6" t="s">
         <v>143</v>
       </c>
       <c r="C95" t="s">
@@ -2420,8 +2454,8 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="5"/>
-      <c r="B96" s="5"/>
+      <c r="A96" s="6"/>
+      <c r="B96" s="6"/>
       <c r="C96" t="s">
         <v>145</v>
       </c>
@@ -2430,8 +2464,8 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="5"/>
-      <c r="B97" s="5"/>
+      <c r="A97" s="6"/>
+      <c r="B97" s="6"/>
       <c r="C97" t="s">
         <v>146</v>
       </c>
@@ -2440,8 +2474,8 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="5"/>
-      <c r="B98" s="5"/>
+      <c r="A98" s="6"/>
+      <c r="B98" s="6"/>
       <c r="C98" t="s">
         <v>147</v>
       </c>
@@ -2450,7 +2484,7 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
+      <c r="A99" s="6" t="s">
         <v>154</v>
       </c>
       <c r="C99" t="s">
@@ -2461,7 +2495,7 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="5"/>
+      <c r="A100" s="6"/>
       <c r="C100" t="s">
         <v>156</v>
       </c>
@@ -2470,7 +2504,7 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="5"/>
+      <c r="A101" s="6"/>
       <c r="C101" t="s">
         <v>158</v>
       </c>
@@ -2479,14 +2513,17 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="5"/>
+      <c r="A102" s="6"/>
       <c r="C102" t="s">
         <v>160</v>
       </c>
+      <c r="D102" s="1" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="5"/>
-      <c r="B103" s="5" t="s">
+      <c r="A103" s="6"/>
+      <c r="B103" s="6" t="s">
         <v>162</v>
       </c>
       <c r="C103" t="s">
@@ -2497,8 +2534,8 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="5"/>
-      <c r="B104" s="5"/>
+      <c r="A104" s="6"/>
+      <c r="B104" s="6"/>
       <c r="C104" t="s">
         <v>164</v>
       </c>
@@ -2507,8 +2544,8 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="5"/>
-      <c r="B105" s="5"/>
+      <c r="A105" s="6"/>
+      <c r="B105" s="6"/>
       <c r="C105" t="s">
         <v>166</v>
       </c>
@@ -2517,8 +2554,8 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="5"/>
-      <c r="B106" s="5"/>
+      <c r="A106" s="6"/>
+      <c r="B106" s="6"/>
       <c r="C106" t="s">
         <v>167</v>
       </c>
@@ -2527,8 +2564,8 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="5"/>
+      <c r="A107" s="6"/>
+      <c r="B107" s="6"/>
       <c r="C107" t="s">
         <v>168</v>
       </c>
@@ -2537,8 +2574,8 @@
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="5"/>
-      <c r="B108" s="5"/>
+      <c r="A108" s="6"/>
+      <c r="B108" s="6"/>
       <c r="C108" t="s">
         <v>169</v>
       </c>
@@ -2547,8 +2584,8 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="5"/>
-      <c r="B109" s="5"/>
+      <c r="A109" s="6"/>
+      <c r="B109" s="6"/>
       <c r="C109" t="s">
         <v>171</v>
       </c>
@@ -2557,8 +2594,8 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="5"/>
-      <c r="B110" s="5"/>
+      <c r="A110" s="6"/>
+      <c r="B110" s="6"/>
       <c r="C110" t="s">
         <v>193</v>
       </c>
@@ -2567,7 +2604,7 @@
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="5"/>
+      <c r="A111" s="6"/>
       <c r="B111" s="2" t="s">
         <v>195</v>
       </c>
@@ -2579,8 +2616,8 @@
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="5"/>
-      <c r="B112" s="5" t="s">
+      <c r="A112" s="6"/>
+      <c r="B112" s="6" t="s">
         <v>173</v>
       </c>
       <c r="C112" t="s">
@@ -2591,8 +2628,8 @@
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="5"/>
-      <c r="B113" s="5"/>
+      <c r="A113" s="6"/>
+      <c r="B113" s="6"/>
       <c r="C113" t="s">
         <v>175</v>
       </c>
@@ -2601,8 +2638,8 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="5"/>
-      <c r="B114" s="5"/>
+      <c r="A114" s="6"/>
+      <c r="B114" s="6"/>
       <c r="C114" t="s">
         <v>160</v>
       </c>
@@ -2611,7 +2648,7 @@
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="5"/>
+      <c r="A115" s="6"/>
       <c r="C115" t="s">
         <v>177</v>
       </c>
@@ -2620,7 +2657,7 @@
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="5"/>
+      <c r="A116" s="6"/>
       <c r="C116" t="s">
         <v>178</v>
       </c>
@@ -2629,7 +2666,7 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="5"/>
+      <c r="A117" s="6"/>
       <c r="C117" t="s">
         <v>182</v>
       </c>
@@ -2638,7 +2675,7 @@
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="5"/>
+      <c r="A118" s="6"/>
       <c r="C118" t="s">
         <v>179</v>
       </c>
@@ -2647,7 +2684,7 @@
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="5"/>
+      <c r="A119" s="6"/>
       <c r="C119" t="s">
         <v>180</v>
       </c>
@@ -2656,7 +2693,7 @@
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="5"/>
+      <c r="A120" s="6"/>
       <c r="C120" t="s">
         <v>181</v>
       </c>
@@ -2665,7 +2702,7 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="5"/>
+      <c r="A121" s="6"/>
       <c r="C121" t="s">
         <v>184</v>
       </c>
@@ -2674,7 +2711,7 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="5"/>
+      <c r="A122" s="6"/>
       <c r="B122" s="2" t="s">
         <v>247</v>
       </c>
@@ -2686,7 +2723,7 @@
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="5"/>
+      <c r="A123" s="6"/>
       <c r="C123" t="s">
         <v>187</v>
       </c>
@@ -2695,7 +2732,7 @@
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="5"/>
+      <c r="A124" s="6"/>
       <c r="C124" t="s">
         <v>188</v>
       </c>
@@ -2704,7 +2741,7 @@
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="5"/>
+      <c r="A125" s="6"/>
       <c r="C125" t="s">
         <v>189</v>
       </c>
@@ -2713,7 +2750,7 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="5"/>
+      <c r="A126" s="6"/>
       <c r="C126" t="s">
         <v>190</v>
       </c>
@@ -2722,7 +2759,7 @@
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="5"/>
+      <c r="A127" s="6"/>
       <c r="B127" s="2" t="s">
         <v>196</v>
       </c>
@@ -2734,8 +2771,8 @@
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="5"/>
-      <c r="B128" s="5" t="s">
+      <c r="A128" s="6"/>
+      <c r="B128" s="6" t="s">
         <v>199</v>
       </c>
       <c r="C128" t="s">
@@ -2746,8 +2783,8 @@
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="5"/>
-      <c r="B129" s="5"/>
+      <c r="A129" s="6"/>
+      <c r="B129" s="6"/>
       <c r="C129" t="s">
         <v>198</v>
       </c>
@@ -2756,8 +2793,8 @@
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="5"/>
-      <c r="B130" s="5"/>
+      <c r="A130" s="6"/>
+      <c r="B130" s="6"/>
       <c r="C130" t="s">
         <v>200</v>
       </c>
@@ -2766,8 +2803,8 @@
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="5"/>
-      <c r="B131" s="5"/>
+      <c r="A131" s="6"/>
+      <c r="B131" s="6"/>
       <c r="C131" t="s">
         <v>201</v>
       </c>
@@ -2776,8 +2813,8 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="5"/>
-      <c r="B132" s="5"/>
+      <c r="A132" s="6"/>
+      <c r="B132" s="6"/>
       <c r="C132" t="s">
         <v>202</v>
       </c>
@@ -2786,8 +2823,8 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="5"/>
-      <c r="B133" s="5"/>
+      <c r="A133" s="6"/>
+      <c r="B133" s="6"/>
       <c r="C133" t="s">
         <v>203</v>
       </c>
@@ -2796,8 +2833,8 @@
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="5"/>
-      <c r="B134" s="5"/>
+      <c r="A134" s="6"/>
+      <c r="B134" s="6"/>
       <c r="C134" t="s">
         <v>204</v>
       </c>
@@ -2806,10 +2843,10 @@
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="5" t="s">
+      <c r="A135" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="B135" s="5" t="s">
+      <c r="B135" s="6" t="s">
         <v>207</v>
       </c>
       <c r="C135" t="s">
@@ -2820,8 +2857,8 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="5"/>
-      <c r="B136" s="5"/>
+      <c r="A136" s="6"/>
+      <c r="B136" s="6"/>
       <c r="C136" t="s">
         <v>210</v>
       </c>
@@ -2830,8 +2867,8 @@
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="5"/>
-      <c r="B137" s="5"/>
+      <c r="A137" s="6"/>
+      <c r="B137" s="6"/>
       <c r="C137" t="s">
         <v>212</v>
       </c>
@@ -2840,8 +2877,8 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="5"/>
-      <c r="B138" s="5"/>
+      <c r="A138" s="6"/>
+      <c r="B138" s="6"/>
       <c r="C138" t="s">
         <v>213</v>
       </c>
@@ -2850,8 +2887,8 @@
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="5"/>
-      <c r="B139" s="5"/>
+      <c r="A139" s="6"/>
+      <c r="B139" s="6"/>
       <c r="C139" t="s">
         <v>214</v>
       </c>
@@ -2860,8 +2897,8 @@
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="5"/>
-      <c r="B140" s="5"/>
+      <c r="A140" s="6"/>
+      <c r="B140" s="6"/>
       <c r="C140" t="s">
         <v>216</v>
       </c>
@@ -2870,8 +2907,8 @@
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="5"/>
-      <c r="B141" s="5"/>
+      <c r="A141" s="6"/>
+      <c r="B141" s="6"/>
       <c r="C141" t="s">
         <v>219</v>
       </c>
@@ -2880,8 +2917,8 @@
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="5"/>
-      <c r="B142" s="5" t="s">
+      <c r="A142" s="6"/>
+      <c r="B142" s="6" t="s">
         <v>223</v>
       </c>
       <c r="C142" t="s">
@@ -2892,8 +2929,8 @@
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="5"/>
-      <c r="B143" s="5"/>
+      <c r="A143" s="6"/>
+      <c r="B143" s="6"/>
       <c r="C143" t="s">
         <v>222</v>
       </c>
@@ -2902,8 +2939,8 @@
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="5"/>
-      <c r="B144" s="5"/>
+      <c r="A144" s="6"/>
+      <c r="B144" s="6"/>
       <c r="C144" t="s">
         <v>224</v>
       </c>
@@ -2923,10 +2960,10 @@
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="5" t="s">
+      <c r="A146" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="B146" s="5" t="s">
+      <c r="B146" s="6" t="s">
         <v>231</v>
       </c>
       <c r="C146" t="s">
@@ -2937,8 +2974,8 @@
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="5"/>
-      <c r="B147" s="5"/>
+      <c r="A147" s="6"/>
+      <c r="B147" s="6"/>
       <c r="C147" t="s">
         <v>229</v>
       </c>
@@ -2947,8 +2984,8 @@
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="5"/>
-      <c r="B148" s="5"/>
+      <c r="A148" s="6"/>
+      <c r="B148" s="6"/>
       <c r="C148" t="s">
         <v>230</v>
       </c>
@@ -2957,8 +2994,8 @@
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="5"/>
-      <c r="B149" s="5" t="s">
+      <c r="A149" s="6"/>
+      <c r="B149" s="6" t="s">
         <v>234</v>
       </c>
       <c r="C149" t="s">
@@ -2969,8 +3006,8 @@
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="5"/>
-      <c r="B150" s="5"/>
+      <c r="A150" s="6"/>
+      <c r="B150" s="6"/>
       <c r="C150" t="s">
         <v>233</v>
       </c>
@@ -2979,7 +3016,7 @@
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="5"/>
+      <c r="A151" s="6"/>
       <c r="B151" s="2" t="s">
         <v>236</v>
       </c>
@@ -2991,7 +3028,7 @@
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="5"/>
+      <c r="A152" s="6"/>
       <c r="C152" t="s">
         <v>240</v>
       </c>
@@ -3000,7 +3037,7 @@
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="5"/>
+      <c r="A153" s="6"/>
       <c r="C153" t="s">
         <v>238</v>
       </c>
@@ -3009,7 +3046,7 @@
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="5"/>
+      <c r="A154" s="6"/>
       <c r="C154" t="s">
         <v>239</v>
       </c>
@@ -3018,8 +3055,8 @@
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="5"/>
-      <c r="B155" s="5" t="s">
+      <c r="A155" s="6"/>
+      <c r="B155" s="6" t="s">
         <v>128</v>
       </c>
       <c r="C155" t="s">
@@ -3030,8 +3067,8 @@
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="5"/>
-      <c r="B156" s="5"/>
+      <c r="A156" s="6"/>
+      <c r="B156" s="6"/>
       <c r="C156" t="s">
         <v>243</v>
       </c>
@@ -3040,8 +3077,8 @@
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="5"/>
-      <c r="B157" s="5" t="s">
+      <c r="A157" s="6"/>
+      <c r="B157" s="6" t="s">
         <v>246</v>
       </c>
       <c r="C157" t="s">
@@ -3052,8 +3089,8 @@
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="5"/>
-      <c r="B158" s="5"/>
+      <c r="A158" s="6"/>
+      <c r="B158" s="6"/>
       <c r="C158" t="s">
         <v>244</v>
       </c>
@@ -3062,94 +3099,126 @@
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="5" t="s">
+      <c r="A159" s="6"/>
+      <c r="B159" s="5"/>
+      <c r="C159" t="s">
+        <v>266</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C160" t="s">
         <v>249</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="5"/>
-      <c r="C160" t="s">
-        <v>251</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="4" t="s">
+      <c r="A161" s="7"/>
+      <c r="C161" t="s">
+        <v>251</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="7"/>
+      <c r="B162" s="5"/>
+      <c r="C162" t="s">
+        <v>265</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C163" t="s">
         <v>253</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="C162" t="s">
-        <v>256</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="5"/>
-      <c r="C163" t="s">
-        <v>257</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="5"/>
+      <c r="A164" s="6" t="s">
+        <v>255</v>
+      </c>
       <c r="C164" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+      <c r="A165" s="6"/>
+      <c r="C165" t="s">
+        <v>257</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="6"/>
+      <c r="C166" t="s">
+        <v>258</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
         <v>259</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C167" t="s">
         <v>260</v>
       </c>
-      <c r="D165" s="1" t="s">
+      <c r="D167" s="1" t="s">
         <v>261</v>
       </c>
     </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>262</v>
+      </c>
+      <c r="C168" t="s">
+        <v>263</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>267</v>
+      </c>
+      <c r="C169" t="s">
+        <v>268</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="B135:B141"/>
-    <mergeCell ref="B142:B144"/>
-    <mergeCell ref="A135:A144"/>
-    <mergeCell ref="B103:B110"/>
-    <mergeCell ref="B128:B134"/>
-    <mergeCell ref="B112:B114"/>
-    <mergeCell ref="A99:A134"/>
-    <mergeCell ref="B95:B98"/>
-    <mergeCell ref="A92:A98"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="A57:A67"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="A87:A91"/>
+  <mergeCells count="36">
+    <mergeCell ref="A164:A166"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="B146:B148"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="A146:A159"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="B68:B70"/>
     <mergeCell ref="B5:B8"/>
@@ -3164,13 +3233,22 @@
     <mergeCell ref="B50:B52"/>
     <mergeCell ref="B54:B56"/>
     <mergeCell ref="A42:A56"/>
-    <mergeCell ref="A159:A160"/>
-    <mergeCell ref="A162:A164"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="A146:A158"/>
-    <mergeCell ref="B146:B148"/>
-    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="B95:B98"/>
+    <mergeCell ref="A92:A98"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="A57:A67"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B135:B141"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="A135:A144"/>
+    <mergeCell ref="B103:B110"/>
+    <mergeCell ref="B128:B134"/>
+    <mergeCell ref="B112:B114"/>
+    <mergeCell ref="A99:A134"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/时间表.xlsx
+++ b/时间表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\360\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6589811F-0F05-4812-B233-E0052BC9578D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD012D2-BFBA-4A0B-B2FB-D74EB12DA5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11952" yWindow="384" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11184" yWindow="336" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="276">
   <si>
     <t>第一次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1100,6 +1100,34 @@
   </si>
   <si>
     <t>5最长回文子串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>224基本计算器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>227基本计算器2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>772基本计算器3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>392判断子序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11盛最多水的容器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42接雨水</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1143,7 +1171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1163,6 +1191,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1444,10 +1475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F169"/>
+  <dimension ref="A1:F175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="F166" sqref="F166"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93:B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1479,10 +1510,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>153</v>
       </c>
       <c r="C2" t="s">
@@ -1493,8 +1524,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -1503,7 +1534,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
+      <c r="A4" s="8"/>
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -1512,8 +1543,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8" t="s">
         <v>141</v>
       </c>
       <c r="C5" t="s">
@@ -1524,8 +1555,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
       <c r="C6" t="s">
         <v>138</v>
       </c>
@@ -1534,8 +1565,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
       <c r="C7" t="s">
         <v>139</v>
       </c>
@@ -1544,8 +1575,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
       <c r="C8" t="s">
         <v>140</v>
       </c>
@@ -1554,8 +1585,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8" t="s">
         <v>152</v>
       </c>
       <c r="C9" t="s">
@@ -1566,8 +1597,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
       <c r="C10" t="s">
         <v>9</v>
       </c>
@@ -1576,8 +1607,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
       <c r="C11" t="s">
         <v>10</v>
       </c>
@@ -1586,7 +1617,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
+      <c r="A12" s="8"/>
       <c r="C12" t="s">
         <v>97</v>
       </c>
@@ -1595,10 +1626,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C13" t="s">
@@ -1609,8 +1640,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -1619,8 +1650,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
       <c r="C15" t="s">
         <v>17</v>
       </c>
@@ -1629,8 +1660,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
       <c r="C16" t="s">
         <v>18</v>
       </c>
@@ -1639,8 +1670,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
       <c r="C17" t="s">
         <v>19</v>
       </c>
@@ -1649,8 +1680,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
       <c r="C18" t="s">
         <v>20</v>
       </c>
@@ -1659,8 +1690,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
       <c r="C19" t="s">
         <v>21</v>
       </c>
@@ -1669,8 +1700,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
       <c r="C20" t="s">
         <v>22</v>
       </c>
@@ -1679,8 +1710,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
       <c r="C21" t="s">
         <v>23</v>
       </c>
@@ -1689,8 +1720,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
       <c r="C22" t="s">
         <v>24</v>
       </c>
@@ -1699,8 +1730,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -1709,8 +1740,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
       <c r="C24" t="s">
         <v>26</v>
       </c>
@@ -1719,8 +1750,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
       <c r="C25" t="s">
         <v>27</v>
       </c>
@@ -1729,8 +1760,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
       <c r="C26" t="s">
         <v>28</v>
       </c>
@@ -1739,8 +1770,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
       <c r="C27" t="s">
         <v>29</v>
       </c>
@@ -1749,8 +1780,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
       <c r="C28" t="s">
         <v>30</v>
       </c>
@@ -1759,8 +1790,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
       <c r="C29" t="s">
         <v>31</v>
       </c>
@@ -1769,8 +1800,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
       <c r="C30" t="s">
         <v>32</v>
       </c>
@@ -1779,8 +1810,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
       <c r="C31" t="s">
         <v>33</v>
       </c>
@@ -1789,8 +1820,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6" t="s">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C32" t="s">
@@ -1801,8 +1832,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
       <c r="C33" t="s">
         <v>36</v>
       </c>
@@ -1811,8 +1842,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
       <c r="C34" t="s">
         <v>37</v>
       </c>
@@ -1821,8 +1852,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
       <c r="C35" t="s">
         <v>39</v>
       </c>
@@ -1831,8 +1862,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
       <c r="C36" t="s">
         <v>40</v>
       </c>
@@ -1841,8 +1872,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
       <c r="C37" t="s">
         <v>41</v>
       </c>
@@ -1851,8 +1882,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
       <c r="C38" t="s">
         <v>42</v>
       </c>
@@ -1861,8 +1892,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
       <c r="C39" t="s">
         <v>44</v>
       </c>
@@ -1871,8 +1902,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
       <c r="C40" t="s">
         <v>45</v>
       </c>
@@ -1881,7 +1912,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
+      <c r="A41" s="8"/>
       <c r="B41" s="2" t="s">
         <v>47</v>
       </c>
@@ -1893,7 +1924,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="8" t="s">
         <v>50</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -1907,7 +1938,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
+      <c r="A43" s="8"/>
       <c r="B43" s="2" t="s">
         <v>74</v>
       </c>
@@ -1919,7 +1950,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
+      <c r="A44" s="8"/>
       <c r="B44" s="2" t="s">
         <v>75</v>
       </c>
@@ -1931,8 +1962,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6" t="s">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C45" t="s">
@@ -1943,8 +1974,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
       <c r="C46" t="s">
         <v>57</v>
       </c>
@@ -1953,8 +1984,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6" t="s">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8" t="s">
         <v>77</v>
       </c>
       <c r="C47" t="s">
@@ -1965,8 +1996,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
       <c r="C48" t="s">
         <v>61</v>
       </c>
@@ -1975,8 +2006,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
       <c r="C49" t="s">
         <v>62</v>
       </c>
@@ -1985,8 +2016,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6" t="s">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8" t="s">
         <v>78</v>
       </c>
       <c r="C50" t="s">
@@ -1997,8 +2028,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
       <c r="C51" t="s">
         <v>65</v>
       </c>
@@ -2007,8 +2038,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
       <c r="C52" t="s">
         <v>66</v>
       </c>
@@ -2017,7 +2048,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
+      <c r="A53" s="8"/>
       <c r="B53" s="2" t="s">
         <v>79</v>
       </c>
@@ -2029,8 +2060,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6" t="s">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8" t="s">
         <v>80</v>
       </c>
       <c r="C54" t="s">
@@ -2041,8 +2072,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
       <c r="C55" t="s">
         <v>70</v>
       </c>
@@ -2051,8 +2082,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
       <c r="C56" t="s">
         <v>71</v>
       </c>
@@ -2061,7 +2092,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="8" t="s">
         <v>81</v>
       </c>
       <c r="C57" t="s">
@@ -2072,7 +2103,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="6"/>
+      <c r="A58" s="8"/>
       <c r="C58" t="s">
         <v>83</v>
       </c>
@@ -2081,7 +2112,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="6"/>
+      <c r="A59" s="8"/>
       <c r="C59" t="s">
         <v>84</v>
       </c>
@@ -2090,7 +2121,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="6"/>
+      <c r="A60" s="8"/>
       <c r="C60" t="s">
         <v>86</v>
       </c>
@@ -2099,7 +2130,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="6"/>
+      <c r="A61" s="8"/>
       <c r="C61" t="s">
         <v>87</v>
       </c>
@@ -2108,7 +2139,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="6"/>
+      <c r="A62" s="8"/>
       <c r="C62" t="s">
         <v>89</v>
       </c>
@@ -2117,7 +2148,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="6"/>
+      <c r="A63" s="8"/>
       <c r="C63" t="s">
         <v>90</v>
       </c>
@@ -2126,7 +2157,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="6"/>
+      <c r="A64" s="8"/>
       <c r="C64" t="s">
         <v>91</v>
       </c>
@@ -2135,7 +2166,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="6"/>
+      <c r="A65" s="8"/>
       <c r="C65" t="s">
         <v>92</v>
       </c>
@@ -2144,7 +2175,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="6"/>
+      <c r="A66" s="8"/>
       <c r="C66" t="s">
         <v>94</v>
       </c>
@@ -2153,7 +2184,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="6"/>
+      <c r="A67" s="8"/>
       <c r="C67" t="s">
         <v>95</v>
       </c>
@@ -2162,10 +2193,10 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="6" t="s">
+      <c r="A68" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="8" t="s">
         <v>105</v>
       </c>
       <c r="C68" t="s">
@@ -2176,8 +2207,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="6"/>
-      <c r="B69" s="6"/>
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
       <c r="C69" t="s">
         <v>101</v>
       </c>
@@ -2186,8 +2217,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="6"/>
-      <c r="B70" s="6"/>
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
       <c r="C70" t="s">
         <v>102</v>
       </c>
@@ -2196,8 +2227,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="6"/>
-      <c r="B71" s="6" t="s">
+      <c r="A71" s="8"/>
+      <c r="B71" s="8" t="s">
         <v>104</v>
       </c>
       <c r="C71" t="s">
@@ -2208,8 +2239,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="6"/>
-      <c r="B72" s="6"/>
+      <c r="A72" s="8"/>
+      <c r="B72" s="8"/>
       <c r="C72" t="s">
         <v>107</v>
       </c>
@@ -2218,8 +2249,8 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="6"/>
-      <c r="B73" s="6"/>
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
       <c r="C73" t="s">
         <v>108</v>
       </c>
@@ -2228,8 +2259,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="6"/>
-      <c r="B74" s="6" t="s">
+      <c r="A74" s="8"/>
+      <c r="B74" s="8" t="s">
         <v>113</v>
       </c>
       <c r="C74" t="s">
@@ -2240,8 +2271,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="6"/>
-      <c r="B75" s="6"/>
+      <c r="A75" s="8"/>
+      <c r="B75" s="8"/>
       <c r="C75" t="s">
         <v>111</v>
       </c>
@@ -2250,8 +2281,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="6"/>
-      <c r="B76" s="6"/>
+      <c r="A76" s="8"/>
+      <c r="B76" s="8"/>
       <c r="C76" t="s">
         <v>112</v>
       </c>
@@ -2260,8 +2291,8 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="6"/>
-      <c r="B77" s="6" t="s">
+      <c r="A77" s="8"/>
+      <c r="B77" s="8" t="s">
         <v>128</v>
       </c>
       <c r="C77" t="s">
@@ -2272,8 +2303,8 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="6"/>
-      <c r="B78" s="6"/>
+      <c r="A78" s="8"/>
+      <c r="B78" s="8"/>
       <c r="C78" t="s">
         <v>125</v>
       </c>
@@ -2282,8 +2313,8 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="6"/>
-      <c r="B79" s="6"/>
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
       <c r="C79" t="s">
         <v>127</v>
       </c>
@@ -2292,7 +2323,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="6"/>
+      <c r="A80" s="8"/>
       <c r="C80" t="s">
         <v>114</v>
       </c>
@@ -2301,8 +2332,8 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="6"/>
-      <c r="B81" s="6" t="s">
+      <c r="A81" s="8"/>
+      <c r="B81" s="8" t="s">
         <v>121</v>
       </c>
       <c r="C81" t="s">
@@ -2313,8 +2344,8 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="6"/>
-      <c r="B82" s="6"/>
+      <c r="A82" s="8"/>
+      <c r="B82" s="8"/>
       <c r="C82" t="s">
         <v>117</v>
       </c>
@@ -2323,8 +2354,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="6"/>
-      <c r="B83" s="6"/>
+      <c r="A83" s="8"/>
+      <c r="B83" s="8"/>
       <c r="C83" t="s">
         <v>118</v>
       </c>
@@ -2333,8 +2364,8 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="6"/>
-      <c r="B84" s="6"/>
+      <c r="A84" s="8"/>
+      <c r="B84" s="8"/>
       <c r="C84" t="s">
         <v>119</v>
       </c>
@@ -2343,7 +2374,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="6"/>
+      <c r="A85" s="8"/>
       <c r="C85" t="s">
         <v>122</v>
       </c>
@@ -2352,7 +2383,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="6"/>
+      <c r="A86" s="8"/>
       <c r="C86" t="s">
         <v>123</v>
       </c>
@@ -2361,7 +2392,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="6" t="s">
+      <c r="A87" s="8" t="s">
         <v>129</v>
       </c>
       <c r="C87" t="s">
@@ -2372,7 +2403,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="6"/>
+      <c r="A88" s="8"/>
       <c r="C88" t="s">
         <v>131</v>
       </c>
@@ -2381,7 +2412,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="6"/>
+      <c r="A89" s="8"/>
       <c r="C89" t="s">
         <v>133</v>
       </c>
@@ -2390,7 +2421,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="6"/>
+      <c r="A90" s="8"/>
       <c r="C90" t="s">
         <v>134</v>
       </c>
@@ -2399,7 +2430,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="6"/>
+      <c r="A91" s="8"/>
       <c r="C91" t="s">
         <v>135</v>
       </c>
@@ -2408,817 +2439,887 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="6" t="s">
+      <c r="A92" s="8"/>
+      <c r="B92" s="6"/>
+      <c r="C92" t="s">
+        <v>273</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B93" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C93" t="s">
         <v>149</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="6"/>
-      <c r="B93" s="6"/>
-      <c r="C93" t="s">
-        <v>150</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="6"/>
-      <c r="B94" s="6"/>
+      <c r="A94" s="8"/>
+      <c r="B94" s="8"/>
       <c r="C94" t="s">
+        <v>150</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="8"/>
+      <c r="B95" s="8"/>
+      <c r="C95" t="s">
         <v>151</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D95" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="6"/>
-      <c r="B95" s="6" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="8"/>
+      <c r="B96" s="8"/>
+      <c r="C96" t="s">
+        <v>274</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="8"/>
+      <c r="B97" s="8"/>
+      <c r="C97" t="s">
+        <v>275</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="8"/>
+      <c r="B98" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C98" t="s">
         <v>144</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="6"/>
-      <c r="B96" s="6"/>
-      <c r="C96" t="s">
-        <v>145</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="6"/>
-      <c r="B97" s="6"/>
-      <c r="C97" t="s">
-        <v>146</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="6"/>
-      <c r="B98" s="6"/>
-      <c r="C98" t="s">
-        <v>147</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="6" t="s">
+      <c r="A99" s="8"/>
+      <c r="B99" s="8"/>
+      <c r="C99" t="s">
+        <v>145</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="8"/>
+      <c r="B100" s="8"/>
+      <c r="C100" t="s">
+        <v>146</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="8"/>
+      <c r="B101" s="8"/>
+      <c r="C101" t="s">
+        <v>147</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C102" t="s">
         <v>155</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D102" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="6"/>
-      <c r="C100" t="s">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="8"/>
+      <c r="C103" t="s">
         <v>156</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D103" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="6"/>
-      <c r="C101" t="s">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="8"/>
+      <c r="C104" t="s">
         <v>158</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D104" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="6"/>
-      <c r="C102" t="s">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="8"/>
+      <c r="C105" t="s">
         <v>160</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D105" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="6"/>
-      <c r="B103" s="6" t="s">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="8"/>
+      <c r="B106" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C106" t="s">
         <v>163</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D106" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="6"/>
-      <c r="B104" s="6"/>
-      <c r="C104" t="s">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="8"/>
+      <c r="B107" s="8"/>
+      <c r="C107" t="s">
         <v>164</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D107" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="6"/>
-      <c r="B105" s="6"/>
-      <c r="C105" t="s">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="8"/>
+      <c r="B108" s="8"/>
+      <c r="C108" t="s">
         <v>166</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="6"/>
-      <c r="B106" s="6"/>
-      <c r="C106" t="s">
-        <v>167</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="6"/>
-      <c r="B107" s="6"/>
-      <c r="C107" t="s">
-        <v>168</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="6"/>
-      <c r="B108" s="6"/>
-      <c r="C108" t="s">
-        <v>169</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="6"/>
-      <c r="B109" s="6"/>
+      <c r="A109" s="8"/>
+      <c r="B109" s="8"/>
       <c r="C109" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="6"/>
-      <c r="B110" s="6"/>
+      <c r="A110" s="8"/>
+      <c r="B110" s="8"/>
       <c r="C110" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="6"/>
-      <c r="B111" s="2" t="s">
-        <v>195</v>
-      </c>
+      <c r="A111" s="8"/>
+      <c r="B111" s="8"/>
       <c r="C111" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="6"/>
-      <c r="B112" s="6" t="s">
-        <v>173</v>
-      </c>
+      <c r="A112" s="8"/>
+      <c r="B112" s="8"/>
       <c r="C112" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="6"/>
-      <c r="B113" s="6"/>
+      <c r="A113" s="8"/>
+      <c r="B113" s="8"/>
       <c r="C113" t="s">
+        <v>193</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="8"/>
+      <c r="B114" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C114" t="s">
+        <v>170</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="8"/>
+      <c r="B115" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C115" t="s">
+        <v>174</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="8"/>
+      <c r="B116" s="8"/>
+      <c r="C116" t="s">
         <v>175</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="6"/>
-      <c r="B114" s="6"/>
-      <c r="C114" t="s">
-        <v>160</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="6"/>
-      <c r="C115" t="s">
-        <v>177</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="6"/>
-      <c r="C116" t="s">
-        <v>178</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="6"/>
+      <c r="A117" s="8"/>
+      <c r="B117" s="8"/>
       <c r="C117" t="s">
+        <v>160</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="8"/>
+      <c r="C118" t="s">
+        <v>177</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="8"/>
+      <c r="C119" t="s">
+        <v>178</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="8"/>
+      <c r="C120" t="s">
         <v>182</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="D120" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="6"/>
-      <c r="C118" t="s">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="8"/>
+      <c r="C121" t="s">
         <v>179</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="D121" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="6"/>
-      <c r="C119" t="s">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="8"/>
+      <c r="C122" t="s">
         <v>180</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="D122" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="6"/>
-      <c r="C120" t="s">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="8"/>
+      <c r="C123" t="s">
         <v>181</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="D123" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="6"/>
-      <c r="C121" t="s">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="8"/>
+      <c r="C124" t="s">
         <v>184</v>
       </c>
-      <c r="D121" s="1" t="s">
+      <c r="D124" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="6"/>
-      <c r="B122" s="2" t="s">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="8"/>
+      <c r="B125" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C125" t="s">
         <v>186</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="6"/>
-      <c r="C123" t="s">
-        <v>187</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="6"/>
-      <c r="C124" t="s">
-        <v>188</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="6"/>
-      <c r="C125" t="s">
-        <v>189</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="6"/>
+      <c r="A126" s="8"/>
       <c r="C126" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="6"/>
-      <c r="B127" s="2" t="s">
+      <c r="A127" s="8"/>
+      <c r="C127" t="s">
+        <v>188</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="8"/>
+      <c r="C128" t="s">
+        <v>189</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="8"/>
+      <c r="C129" t="s">
+        <v>190</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="8"/>
+      <c r="B130" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C130" t="s">
         <v>192</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="D130" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="6"/>
-      <c r="B128" s="6" t="s">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="8"/>
+      <c r="B131" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C131" t="s">
         <v>197</v>
       </c>
-      <c r="D128" s="1" t="s">
+      <c r="D131" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="6"/>
-      <c r="B129" s="6"/>
-      <c r="C129" t="s">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="8"/>
+      <c r="B132" s="8"/>
+      <c r="C132" t="s">
         <v>198</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="D132" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="6"/>
-      <c r="B130" s="6"/>
-      <c r="C130" t="s">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="8"/>
+      <c r="B133" s="8"/>
+      <c r="C133" t="s">
         <v>200</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="6"/>
-      <c r="B131" s="6"/>
-      <c r="C131" t="s">
-        <v>201</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="6"/>
-      <c r="B132" s="6"/>
-      <c r="C132" t="s">
-        <v>202</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="6"/>
-      <c r="B133" s="6"/>
-      <c r="C133" t="s">
-        <v>203</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="6"/>
-      <c r="B134" s="6"/>
+      <c r="A134" s="8"/>
+      <c r="B134" s="8"/>
       <c r="C134" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="6" t="s">
+      <c r="A135" s="8"/>
+      <c r="B135" s="8"/>
+      <c r="C135" t="s">
+        <v>202</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="8"/>
+      <c r="B136" s="8"/>
+      <c r="C136" t="s">
+        <v>203</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="8"/>
+      <c r="B137" s="8"/>
+      <c r="C137" t="s">
+        <v>204</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="B135" s="6" t="s">
+      <c r="B138" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C138" t="s">
         <v>208</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="D138" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="6"/>
-      <c r="B136" s="6"/>
-      <c r="C136" t="s">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="8"/>
+      <c r="B139" s="8"/>
+      <c r="C139" t="s">
         <v>210</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="D139" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="6"/>
-      <c r="B137" s="6"/>
-      <c r="C137" t="s">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="8"/>
+      <c r="B140" s="8"/>
+      <c r="C140" t="s">
         <v>212</v>
       </c>
-      <c r="D137" s="1" t="s">
+      <c r="D140" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="6"/>
-      <c r="B138" s="6"/>
-      <c r="C138" t="s">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="8"/>
+      <c r="B141" s="8"/>
+      <c r="C141" t="s">
         <v>213</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="D141" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="6"/>
-      <c r="B139" s="6"/>
-      <c r="C139" t="s">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="8"/>
+      <c r="B142" s="8"/>
+      <c r="C142" t="s">
         <v>214</v>
       </c>
-      <c r="D139" s="1" t="s">
+      <c r="D142" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="6"/>
-      <c r="B140" s="6"/>
-      <c r="C140" t="s">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="8"/>
+      <c r="B143" s="8"/>
+      <c r="C143" t="s">
         <v>216</v>
       </c>
-      <c r="D140" s="1" t="s">
+      <c r="D143" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="6"/>
-      <c r="B141" s="6"/>
-      <c r="C141" t="s">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="8"/>
+      <c r="B144" s="8"/>
+      <c r="C144" t="s">
         <v>219</v>
       </c>
-      <c r="D141" s="1" t="s">
+      <c r="D144" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="6"/>
-      <c r="B142" s="6" t="s">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="8"/>
+      <c r="B145" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C145" t="s">
         <v>221</v>
       </c>
-      <c r="D142" s="1" t="s">
+      <c r="D145" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="6"/>
-      <c r="B143" s="6"/>
-      <c r="C143" t="s">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="8"/>
+      <c r="B146" s="8"/>
+      <c r="C146" t="s">
         <v>222</v>
       </c>
-      <c r="D143" s="1" t="s">
+      <c r="D146" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="6"/>
-      <c r="B144" s="6"/>
-      <c r="C144" t="s">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="8"/>
+      <c r="B147" s="8"/>
+      <c r="C147" t="s">
         <v>224</v>
       </c>
-      <c r="D144" s="1" t="s">
+      <c r="D147" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="3" t="s">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C148" t="s">
         <v>218</v>
       </c>
-      <c r="D145" s="1" t="s">
+      <c r="D148" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="6" t="s">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="B146" s="6" t="s">
+      <c r="B149" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C149" t="s">
         <v>227</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="6"/>
-      <c r="B147" s="6"/>
-      <c r="C147" t="s">
-        <v>229</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="6"/>
-      <c r="B148" s="6"/>
-      <c r="C148" t="s">
-        <v>230</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="6"/>
-      <c r="B149" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="C149" t="s">
-        <v>232</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="6"/>
-      <c r="B150" s="6"/>
+      <c r="A150" s="7"/>
+      <c r="B150" s="8"/>
       <c r="C150" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="6"/>
-      <c r="B151" s="2" t="s">
-        <v>236</v>
-      </c>
+      <c r="A151" s="7"/>
+      <c r="B151" s="8"/>
       <c r="C151" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="6"/>
+      <c r="A152" s="7"/>
+      <c r="B152" s="8" t="s">
+        <v>234</v>
+      </c>
       <c r="C152" t="s">
+        <v>232</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="7"/>
+      <c r="B153" s="8"/>
+      <c r="C153" t="s">
+        <v>233</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="7"/>
+      <c r="B154" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C154" t="s">
+        <v>235</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="7"/>
+      <c r="C155" t="s">
         <v>240</v>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="D155" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="6"/>
-      <c r="C153" t="s">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="7"/>
+      <c r="C156" t="s">
         <v>238</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="D156" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="6"/>
-      <c r="C154" t="s">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="7"/>
+      <c r="C157" t="s">
         <v>239</v>
       </c>
-      <c r="D154" s="1" t="s">
+      <c r="D157" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="6"/>
-      <c r="B155" s="6" t="s">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="7"/>
+      <c r="B158" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C158" t="s">
         <v>241</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="6"/>
-      <c r="B156" s="6"/>
-      <c r="C156" t="s">
-        <v>243</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="6"/>
-      <c r="B157" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C157" t="s">
-        <v>245</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="6"/>
-      <c r="B158" s="6"/>
-      <c r="C158" t="s">
-        <v>244</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="6"/>
-      <c r="B159" s="5"/>
+      <c r="A159" s="7"/>
+      <c r="B159" s="8"/>
       <c r="C159" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="7" t="s">
-        <v>248</v>
+      <c r="A160" s="7"/>
+      <c r="B160" s="8" t="s">
+        <v>246</v>
       </c>
       <c r="C160" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="7"/>
+      <c r="B161" s="8"/>
       <c r="C161" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="7"/>
       <c r="B162" s="5"/>
       <c r="C162" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="4" t="s">
-        <v>252</v>
-      </c>
+      <c r="A163" s="7"/>
+      <c r="B163" s="6"/>
       <c r="C163" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="6" t="s">
-        <v>255</v>
-      </c>
+      <c r="A164" s="7"/>
+      <c r="B164" s="6"/>
       <c r="C164" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="6"/>
+      <c r="A165" s="7"/>
+      <c r="B165" s="6"/>
       <c r="C165" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="6"/>
+      <c r="A166" s="7" t="s">
+        <v>248</v>
+      </c>
       <c r="C166" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>259</v>
-      </c>
+      <c r="A167" s="7"/>
       <c r="C167" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>262</v>
-      </c>
+      <c r="A168" s="7"/>
+      <c r="B168" s="5"/>
       <c r="C168" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+      <c r="A169" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C169" t="s">
+        <v>253</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C170" t="s">
+        <v>256</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="8"/>
+      <c r="C171" t="s">
+        <v>257</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="8"/>
+      <c r="C172" t="s">
+        <v>258</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>259</v>
+      </c>
+      <c r="C173" t="s">
+        <v>260</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>262</v>
+      </c>
+      <c r="C174" t="s">
+        <v>263</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
         <v>267</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C175" t="s">
         <v>268</v>
       </c>
-      <c r="D169" s="1" t="s">
+      <c r="D175" s="1" t="s">
         <v>264</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="A164:A166"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="B146:B148"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="A146:A159"/>
+  <mergeCells count="35">
+    <mergeCell ref="B138:B144"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="A138:A147"/>
+    <mergeCell ref="B106:B113"/>
+    <mergeCell ref="B131:B137"/>
+    <mergeCell ref="B115:B117"/>
+    <mergeCell ref="A102:A137"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="A57:A67"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="A87:A92"/>
+    <mergeCell ref="A93:A101"/>
+    <mergeCell ref="B93:B97"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="B68:B70"/>
     <mergeCell ref="B5:B8"/>
@@ -3233,22 +3334,11 @@
     <mergeCell ref="B50:B52"/>
     <mergeCell ref="B54:B56"/>
     <mergeCell ref="A42:A56"/>
-    <mergeCell ref="B95:B98"/>
-    <mergeCell ref="A92:A98"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="A57:A67"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B135:B141"/>
-    <mergeCell ref="B142:B144"/>
-    <mergeCell ref="A135:A144"/>
-    <mergeCell ref="B103:B110"/>
-    <mergeCell ref="B128:B134"/>
-    <mergeCell ref="B112:B114"/>
-    <mergeCell ref="A99:A134"/>
+    <mergeCell ref="A170:A172"/>
+    <mergeCell ref="B158:B159"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="B149:B151"/>
+    <mergeCell ref="B152:B153"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/时间表.xlsx
+++ b/时间表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\360\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD012D2-BFBA-4A0B-B2FB-D74EB12DA5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68845CEB-E37C-4E09-8DFA-CD8EAF85ED02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11184" yWindow="336" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="280">
   <si>
     <t>第一次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1128,6 +1128,22 @@
   </si>
   <si>
     <t>42接雨水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>921使括号有效的最少添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1541平衡括号字符串的最少插入次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>391完美矩形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1475,10 +1491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F175"/>
+  <dimension ref="A1:F177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93:B97"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="H178" sqref="H178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2575,40 +2591,41 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="8"/>
+      <c r="B105" s="8" t="s">
+        <v>162</v>
+      </c>
       <c r="C105" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>237</v>
+        <v>159</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="8"/>
-      <c r="B106" s="8" t="s">
-        <v>162</v>
-      </c>
+      <c r="B106" s="8"/>
       <c r="C106" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>161</v>
@@ -2618,7 +2635,7 @@
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>161</v>
@@ -2628,7 +2645,7 @@
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>161</v>
@@ -2638,80 +2655,79 @@
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="8"/>
-      <c r="B113" s="8"/>
+      <c r="B113" s="2" t="s">
+        <v>195</v>
+      </c>
       <c r="C113" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="8"/>
-      <c r="B114" s="2" t="s">
-        <v>195</v>
+      <c r="B114" s="8" t="s">
+        <v>173</v>
       </c>
       <c r="C114" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="8"/>
-      <c r="B115" s="8" t="s">
-        <v>173</v>
-      </c>
+      <c r="B115" s="8"/>
       <c r="C115" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>176</v>
+        <v>237</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="8"/>
-      <c r="B117" s="8"/>
       <c r="C117" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>237</v>
+        <v>176</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="8"/>
       <c r="C118" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>176</v>
@@ -2720,16 +2736,16 @@
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="8"/>
       <c r="C119" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="8"/>
       <c r="C120" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>183</v>
@@ -2738,7 +2754,7 @@
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="8"/>
       <c r="C121" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>183</v>
@@ -2747,16 +2763,16 @@
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="8"/>
       <c r="C122" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="8"/>
       <c r="C123" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>185</v>
@@ -2764,20 +2780,20 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="8"/>
+      <c r="B124" s="2" t="s">
+        <v>247</v>
+      </c>
       <c r="C124" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="8"/>
-      <c r="B125" s="2" t="s">
-        <v>247</v>
-      </c>
       <c r="C125" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>191</v>
@@ -2786,7 +2802,7 @@
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="8"/>
       <c r="C126" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>191</v>
@@ -2795,7 +2811,7 @@
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="8"/>
       <c r="C127" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>191</v>
@@ -2804,7 +2820,7 @@
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="8"/>
       <c r="C128" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>191</v>
@@ -2812,20 +2828,23 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="8"/>
+      <c r="B129" s="2" t="s">
+        <v>196</v>
+      </c>
       <c r="C129" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="8"/>
-      <c r="B130" s="2" t="s">
-        <v>196</v>
+      <c r="B130" s="8" t="s">
+        <v>199</v>
       </c>
       <c r="C130" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>194</v>
@@ -2833,11 +2852,9 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="8"/>
-      <c r="B131" s="8" t="s">
-        <v>199</v>
-      </c>
+      <c r="B131" s="8"/>
       <c r="C131" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>194</v>
@@ -2847,17 +2864,17 @@
       <c r="A132" s="8"/>
       <c r="B132" s="8"/>
       <c r="C132" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="8"/>
       <c r="B133" s="8"/>
       <c r="C133" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>205</v>
@@ -2867,7 +2884,7 @@
       <c r="A134" s="8"/>
       <c r="B134" s="8"/>
       <c r="C134" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>205</v>
@@ -2877,7 +2894,7 @@
       <c r="A135" s="8"/>
       <c r="B135" s="8"/>
       <c r="C135" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>205</v>
@@ -2887,41 +2904,41 @@
       <c r="A136" s="8"/>
       <c r="B136" s="8"/>
       <c r="C136" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="8"/>
-      <c r="B137" s="8"/>
+      <c r="A137" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>207</v>
+      </c>
       <c r="C137" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="B138" s="8" t="s">
-        <v>207</v>
-      </c>
+      <c r="A138" s="8"/>
+      <c r="B138" s="8"/>
       <c r="C138" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="8"/>
       <c r="B139" s="8"/>
       <c r="C139" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>211</v>
@@ -2931,7 +2948,7 @@
       <c r="A140" s="8"/>
       <c r="B140" s="8"/>
       <c r="C140" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>211</v>
@@ -2941,17 +2958,17 @@
       <c r="A141" s="8"/>
       <c r="B141" s="8"/>
       <c r="C141" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="8"/>
       <c r="B142" s="8"/>
       <c r="C142" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>215</v>
@@ -2961,17 +2978,19 @@
       <c r="A143" s="8"/>
       <c r="B143" s="8"/>
       <c r="C143" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="8"/>
-      <c r="B144" s="8"/>
+      <c r="B144" s="8" t="s">
+        <v>223</v>
+      </c>
       <c r="C144" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>220</v>
@@ -2979,11 +2998,9 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="8"/>
-      <c r="B145" s="8" t="s">
-        <v>223</v>
-      </c>
+      <c r="B145" s="8"/>
       <c r="C145" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>220</v>
@@ -2993,42 +3010,42 @@
       <c r="A146" s="8"/>
       <c r="B146" s="8"/>
       <c r="C146" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="8"/>
-      <c r="B147" s="8"/>
+      <c r="A147" s="3" t="s">
+        <v>217</v>
+      </c>
       <c r="C147" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="3" t="s">
-        <v>217</v>
+      <c r="A148" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>231</v>
       </c>
       <c r="C148" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="B149" s="8" t="s">
-        <v>231</v>
-      </c>
+      <c r="A149" s="7"/>
+      <c r="B149" s="8"/>
       <c r="C149" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>228</v>
@@ -3038,7 +3055,7 @@
       <c r="A150" s="7"/>
       <c r="B150" s="8"/>
       <c r="C150" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>228</v>
@@ -3046,9 +3063,11 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="7"/>
-      <c r="B151" s="8"/>
+      <c r="B151" s="8" t="s">
+        <v>234</v>
+      </c>
       <c r="C151" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>228</v>
@@ -3056,11 +3075,9 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="7"/>
-      <c r="B152" s="8" t="s">
-        <v>234</v>
-      </c>
+      <c r="B152" s="8"/>
       <c r="C152" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>228</v>
@@ -3068,9 +3085,11 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="7"/>
-      <c r="B153" s="8"/>
+      <c r="B153" s="2" t="s">
+        <v>236</v>
+      </c>
       <c r="C153" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>228</v>
@@ -3078,20 +3097,17 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="7"/>
-      <c r="B154" s="2" t="s">
-        <v>236</v>
-      </c>
       <c r="C154" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="7"/>
       <c r="C155" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>237</v>
@@ -3100,7 +3116,7 @@
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="7"/>
       <c r="C156" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>237</v>
@@ -3108,20 +3124,21 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="7"/>
+      <c r="B157" s="8" t="s">
+        <v>128</v>
+      </c>
       <c r="C157" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="7"/>
-      <c r="B158" s="8" t="s">
-        <v>128</v>
-      </c>
+      <c r="B158" s="8"/>
       <c r="C158" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>242</v>
@@ -3129,9 +3146,11 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="7"/>
-      <c r="B159" s="8"/>
+      <c r="B159" s="8" t="s">
+        <v>246</v>
+      </c>
       <c r="C159" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>242</v>
@@ -3139,11 +3158,9 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="7"/>
-      <c r="B160" s="8" t="s">
-        <v>246</v>
-      </c>
+      <c r="B160" s="8"/>
       <c r="C160" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>242</v>
@@ -3151,29 +3168,29 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="7"/>
-      <c r="B161" s="8"/>
+      <c r="B161" s="5"/>
       <c r="C161" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="7"/>
-      <c r="B162" s="5"/>
+      <c r="B162" s="6"/>
       <c r="C162" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="7"/>
       <c r="B163" s="6"/>
       <c r="C163" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>272</v>
@@ -3183,28 +3200,27 @@
       <c r="A164" s="7"/>
       <c r="B164" s="6"/>
       <c r="C164" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="7"/>
-      <c r="B165" s="6"/>
+      <c r="A165" s="7" t="s">
+        <v>248</v>
+      </c>
       <c r="C165" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="7" t="s">
-        <v>248</v>
-      </c>
+      <c r="A166" s="7"/>
       <c r="C166" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>250</v>
@@ -3212,40 +3228,40 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="7"/>
+      <c r="B167" s="5"/>
       <c r="C167" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="7"/>
-      <c r="B168" s="5"/>
+      <c r="A168" s="4" t="s">
+        <v>252</v>
+      </c>
       <c r="C168" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="4" t="s">
-        <v>252</v>
+      <c r="A169" s="8" t="s">
+        <v>255</v>
       </c>
       <c r="C169" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="8" t="s">
-        <v>255</v>
-      </c>
+      <c r="A170" s="8"/>
       <c r="C170" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>254</v>
@@ -3254,72 +3270,76 @@
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="8"/>
       <c r="C171" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="8"/>
+      <c r="A172" t="s">
+        <v>259</v>
+      </c>
       <c r="C172" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C173" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C174" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>267</v>
-      </c>
       <c r="C175" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>264</v>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C176" t="s">
+        <v>277</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="177" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C177" t="s">
+        <v>278</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B138:B144"/>
-    <mergeCell ref="B145:B147"/>
-    <mergeCell ref="A138:A147"/>
-    <mergeCell ref="B106:B113"/>
-    <mergeCell ref="B131:B137"/>
-    <mergeCell ref="B115:B117"/>
-    <mergeCell ref="A102:A137"/>
-    <mergeCell ref="B98:B101"/>
-    <mergeCell ref="A57:A67"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="A87:A92"/>
-    <mergeCell ref="A93:A101"/>
-    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="A169:A171"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="B151:B152"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="B68:B70"/>
     <mergeCell ref="B5:B8"/>
@@ -3334,11 +3354,22 @@
     <mergeCell ref="B50:B52"/>
     <mergeCell ref="B54:B56"/>
     <mergeCell ref="A42:A56"/>
-    <mergeCell ref="A170:A172"/>
-    <mergeCell ref="B158:B159"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="B149:B151"/>
-    <mergeCell ref="B152:B153"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="A57:A67"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="A87:A92"/>
+    <mergeCell ref="A93:A101"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="B137:B143"/>
+    <mergeCell ref="B144:B146"/>
+    <mergeCell ref="A137:A146"/>
+    <mergeCell ref="B105:B112"/>
+    <mergeCell ref="B130:B136"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="A102:A136"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/时间表.xlsx
+++ b/时间表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\360\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68845CEB-E37C-4E09-8DFA-CD8EAF85ED02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67522F1-8616-48E4-A8F7-B297B93EDE57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="286">
   <si>
     <t>第一次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1144,6 +1144,30 @@
   </si>
   <si>
     <t>3.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>855考场就座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39组合总和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40组合总和2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47全排列2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90子集2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1187,7 +1211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1207,6 +1231,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1491,10 +1518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F177"/>
+  <dimension ref="A1:F182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="H178" sqref="H178"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A138" sqref="A138:A151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1526,10 +1553,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>153</v>
       </c>
       <c r="C2" t="s">
@@ -1540,8 +1567,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -1550,7 +1577,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
+      <c r="A4" s="9"/>
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -1559,8 +1586,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9" t="s">
         <v>141</v>
       </c>
       <c r="C5" t="s">
@@ -1571,8 +1598,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
       <c r="C6" t="s">
         <v>138</v>
       </c>
@@ -1581,8 +1608,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
       <c r="C7" t="s">
         <v>139</v>
       </c>
@@ -1591,8 +1618,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
       <c r="C8" t="s">
         <v>140</v>
       </c>
@@ -1601,8 +1628,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9" t="s">
         <v>152</v>
       </c>
       <c r="C9" t="s">
@@ -1613,8 +1640,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
       <c r="C10" t="s">
         <v>9</v>
       </c>
@@ -1623,8 +1650,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
       <c r="C11" t="s">
         <v>10</v>
       </c>
@@ -1633,7 +1660,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
+      <c r="A12" s="9"/>
       <c r="C12" t="s">
         <v>97</v>
       </c>
@@ -1642,10 +1669,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C13" t="s">
@@ -1656,8 +1683,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -1666,8 +1693,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
       <c r="C15" t="s">
         <v>17</v>
       </c>
@@ -1676,8 +1703,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
       <c r="C16" t="s">
         <v>18</v>
       </c>
@@ -1686,8 +1713,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
       <c r="C17" t="s">
         <v>19</v>
       </c>
@@ -1696,8 +1723,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
       <c r="C18" t="s">
         <v>20</v>
       </c>
@@ -1706,8 +1733,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
       <c r="C19" t="s">
         <v>21</v>
       </c>
@@ -1716,8 +1743,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
       <c r="C20" t="s">
         <v>22</v>
       </c>
@@ -1726,8 +1753,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
       <c r="C21" t="s">
         <v>23</v>
       </c>
@@ -1736,8 +1763,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
       <c r="C22" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1773,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -1756,8 +1783,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>26</v>
       </c>
@@ -1766,8 +1793,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
       <c r="C25" t="s">
         <v>27</v>
       </c>
@@ -1776,8 +1803,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
       <c r="C26" t="s">
         <v>28</v>
       </c>
@@ -1786,8 +1813,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
       <c r="C27" t="s">
         <v>29</v>
       </c>
@@ -1796,8 +1823,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
       <c r="C28" t="s">
         <v>30</v>
       </c>
@@ -1806,8 +1833,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
       <c r="C29" t="s">
         <v>31</v>
       </c>
@@ -1816,8 +1843,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
       <c r="C30" t="s">
         <v>32</v>
       </c>
@@ -1826,8 +1853,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
       <c r="C31" t="s">
         <v>33</v>
       </c>
@@ -1836,8 +1863,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8" t="s">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C32" t="s">
@@ -1848,8 +1875,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
       <c r="C33" t="s">
         <v>36</v>
       </c>
@@ -1858,8 +1885,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
       <c r="C34" t="s">
         <v>37</v>
       </c>
@@ -1868,8 +1895,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
       <c r="C35" t="s">
         <v>39</v>
       </c>
@@ -1878,8 +1905,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
       <c r="C36" t="s">
         <v>40</v>
       </c>
@@ -1888,8 +1915,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
       <c r="C37" t="s">
         <v>41</v>
       </c>
@@ -1898,8 +1925,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
       <c r="C38" t="s">
         <v>42</v>
       </c>
@@ -1908,8 +1935,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
       <c r="C39" t="s">
         <v>44</v>
       </c>
@@ -1918,8 +1945,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
       <c r="C40" t="s">
         <v>45</v>
       </c>
@@ -1928,7 +1955,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
+      <c r="A41" s="9"/>
       <c r="B41" s="2" t="s">
         <v>47</v>
       </c>
@@ -1940,7 +1967,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="9" t="s">
         <v>50</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -1954,7 +1981,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
+      <c r="A43" s="9"/>
       <c r="B43" s="2" t="s">
         <v>74</v>
       </c>
@@ -1966,7 +1993,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
+      <c r="A44" s="9"/>
       <c r="B44" s="2" t="s">
         <v>75</v>
       </c>
@@ -1978,8 +2005,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8" t="s">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9" t="s">
         <v>76</v>
       </c>
       <c r="C45" t="s">
@@ -1990,8 +2017,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
       <c r="C46" t="s">
         <v>57</v>
       </c>
@@ -2000,8 +2027,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8" t="s">
+      <c r="A47" s="9"/>
+      <c r="B47" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C47" t="s">
@@ -2012,8 +2039,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
       <c r="C48" t="s">
         <v>61</v>
       </c>
@@ -2022,8 +2049,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
       <c r="C49" t="s">
         <v>62</v>
       </c>
@@ -2032,8 +2059,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8" t="s">
+      <c r="A50" s="9"/>
+      <c r="B50" s="9" t="s">
         <v>78</v>
       </c>
       <c r="C50" t="s">
@@ -2044,8 +2071,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
       <c r="C51" t="s">
         <v>65</v>
       </c>
@@ -2054,8 +2081,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
       <c r="C52" t="s">
         <v>66</v>
       </c>
@@ -2064,7 +2091,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="8"/>
+      <c r="A53" s="9"/>
       <c r="B53" s="2" t="s">
         <v>79</v>
       </c>
@@ -2076,8 +2103,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8" t="s">
+      <c r="A54" s="9"/>
+      <c r="B54" s="9" t="s">
         <v>80</v>
       </c>
       <c r="C54" t="s">
@@ -2088,8 +2115,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
       <c r="C55" t="s">
         <v>70</v>
       </c>
@@ -2098,8 +2125,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
       <c r="C56" t="s">
         <v>71</v>
       </c>
@@ -2108,7 +2135,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="9" t="s">
         <v>81</v>
       </c>
       <c r="C57" t="s">
@@ -2119,7 +2146,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="8"/>
+      <c r="A58" s="9"/>
       <c r="C58" t="s">
         <v>83</v>
       </c>
@@ -2128,7 +2155,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="8"/>
+      <c r="A59" s="9"/>
       <c r="C59" t="s">
         <v>84</v>
       </c>
@@ -2137,7 +2164,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="8"/>
+      <c r="A60" s="9"/>
       <c r="C60" t="s">
         <v>86</v>
       </c>
@@ -2146,7 +2173,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="8"/>
+      <c r="A61" s="9"/>
       <c r="C61" t="s">
         <v>87</v>
       </c>
@@ -2155,7 +2182,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="8"/>
+      <c r="A62" s="9"/>
       <c r="C62" t="s">
         <v>89</v>
       </c>
@@ -2164,7 +2191,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="8"/>
+      <c r="A63" s="9"/>
       <c r="C63" t="s">
         <v>90</v>
       </c>
@@ -2173,7 +2200,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="8"/>
+      <c r="A64" s="9"/>
       <c r="C64" t="s">
         <v>91</v>
       </c>
@@ -2182,7 +2209,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="8"/>
+      <c r="A65" s="9"/>
       <c r="C65" t="s">
         <v>92</v>
       </c>
@@ -2191,7 +2218,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="8"/>
+      <c r="A66" s="9"/>
       <c r="C66" t="s">
         <v>94</v>
       </c>
@@ -2200,7 +2227,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="8"/>
+      <c r="A67" s="9"/>
       <c r="C67" t="s">
         <v>95</v>
       </c>
@@ -2209,887 +2236,883 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="8" t="s">
+      <c r="A68" s="9"/>
+      <c r="B68" s="8"/>
+      <c r="C68" t="s">
+        <v>280</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B69" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C69" t="s">
         <v>100</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="8"/>
-      <c r="B69" s="8"/>
-      <c r="C69" t="s">
-        <v>101</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="8"/>
-      <c r="B70" s="8"/>
+      <c r="A70" s="9"/>
+      <c r="B70" s="9"/>
       <c r="C70" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="8"/>
-      <c r="B71" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="A71" s="9"/>
+      <c r="B71" s="9"/>
       <c r="C71" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="8"/>
-      <c r="B72" s="8"/>
+      <c r="A72" s="9"/>
+      <c r="B72" s="9" t="s">
+        <v>104</v>
+      </c>
       <c r="C72" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="8"/>
-      <c r="B73" s="8"/>
+      <c r="A73" s="9"/>
+      <c r="B73" s="9"/>
       <c r="C73" t="s">
+        <v>107</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="9"/>
+      <c r="B74" s="9"/>
+      <c r="C74" t="s">
         <v>108</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="8"/>
-      <c r="B74" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C74" t="s">
-        <v>110</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="8"/>
-      <c r="B75" s="8"/>
+      <c r="A75" s="9"/>
+      <c r="B75" s="9" t="s">
+        <v>113</v>
+      </c>
       <c r="C75" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="8"/>
-      <c r="B76" s="8"/>
+      <c r="A76" s="9"/>
+      <c r="B76" s="9"/>
       <c r="C76" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="8"/>
-      <c r="B77" s="8" t="s">
+      <c r="A77" s="9"/>
+      <c r="B77" s="9"/>
+      <c r="C77" t="s">
+        <v>112</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="9"/>
+      <c r="B78" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C78" t="s">
         <v>124</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="8"/>
-      <c r="B78" s="8"/>
-      <c r="C78" t="s">
-        <v>125</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="8"/>
-      <c r="B79" s="8"/>
+      <c r="A79" s="9"/>
+      <c r="B79" s="9"/>
       <c r="C79" t="s">
+        <v>125</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="9"/>
+      <c r="B80" s="9"/>
+      <c r="C80" t="s">
         <v>127</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="8"/>
-      <c r="C80" t="s">
-        <v>114</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="8"/>
-      <c r="B81" s="8" t="s">
+      <c r="A81" s="9"/>
+      <c r="C81" t="s">
+        <v>114</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="9"/>
+      <c r="B82" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C82" t="s">
         <v>116</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="8"/>
-      <c r="B82" s="8"/>
-      <c r="C82" t="s">
-        <v>117</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="8"/>
-      <c r="B83" s="8"/>
+      <c r="A83" s="9"/>
+      <c r="B83" s="9"/>
       <c r="C83" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="8"/>
-      <c r="B84" s="8"/>
+      <c r="A84" s="9"/>
+      <c r="B84" s="9"/>
       <c r="C84" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="8"/>
+      <c r="A85" s="9"/>
+      <c r="B85" s="9"/>
       <c r="C85" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="8"/>
+      <c r="A86" s="9"/>
       <c r="C86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="8" t="s">
+      <c r="A87" s="9"/>
+      <c r="C87" t="s">
+        <v>123</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C88" t="s">
         <v>130</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="8"/>
-      <c r="C88" t="s">
-        <v>131</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="8"/>
+      <c r="A89" s="9"/>
       <c r="C89" t="s">
+        <v>131</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="9"/>
+      <c r="C90" t="s">
         <v>133</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="8"/>
-      <c r="C90" t="s">
-        <v>134</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="8"/>
+      <c r="A91" s="9"/>
       <c r="C91" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="8"/>
-      <c r="B92" s="6"/>
+      <c r="A92" s="9"/>
       <c r="C92" t="s">
+        <v>135</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="9"/>
+      <c r="B93" s="6"/>
+      <c r="C93" t="s">
         <v>273</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D93" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="8" t="s">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="B94" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C94" t="s">
         <v>149</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="8"/>
-      <c r="B94" s="8"/>
-      <c r="C94" t="s">
-        <v>150</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="8"/>
-      <c r="B95" s="8"/>
+      <c r="A95" s="9"/>
+      <c r="B95" s="9"/>
       <c r="C95" t="s">
+        <v>150</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="9"/>
+      <c r="B96" s="9"/>
+      <c r="C96" t="s">
         <v>151</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D96" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="8"/>
-      <c r="B96" s="8"/>
-      <c r="C96" t="s">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="9"/>
+      <c r="B97" s="9"/>
+      <c r="C97" t="s">
         <v>274</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="8"/>
-      <c r="B97" s="8"/>
-      <c r="C97" t="s">
-        <v>275</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="8"/>
-      <c r="B98" s="8" t="s">
+      <c r="A98" s="9"/>
+      <c r="B98" s="9"/>
+      <c r="C98" t="s">
+        <v>275</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="9"/>
+      <c r="B99" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C99" t="s">
         <v>144</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="8"/>
-      <c r="B99" s="8"/>
-      <c r="C99" t="s">
-        <v>145</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="8"/>
-      <c r="B100" s="8"/>
+      <c r="A100" s="9"/>
+      <c r="B100" s="9"/>
       <c r="C100" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="8"/>
-      <c r="B101" s="8"/>
+      <c r="A101" s="9"/>
+      <c r="B101" s="9"/>
       <c r="C101" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="8" t="s">
+      <c r="A102" s="9"/>
+      <c r="B102" s="9"/>
+      <c r="C102" t="s">
+        <v>147</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C103" t="s">
         <v>155</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D103" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="8"/>
-      <c r="C103" t="s">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="9"/>
+      <c r="C104" t="s">
         <v>156</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D104" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="8"/>
-      <c r="C104" t="s">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="9"/>
+      <c r="C105" t="s">
         <v>158</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="8"/>
-      <c r="B105" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C105" t="s">
-        <v>163</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="8"/>
-      <c r="B106" s="8"/>
+      <c r="A106" s="9"/>
+      <c r="B106" s="9" t="s">
+        <v>162</v>
+      </c>
       <c r="C106" t="s">
+        <v>163</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="9"/>
+      <c r="B107" s="9"/>
+      <c r="C107" t="s">
         <v>164</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="D107" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="8"/>
-      <c r="B107" s="8"/>
-      <c r="C107" t="s">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="9"/>
+      <c r="B108" s="9"/>
+      <c r="C108" t="s">
         <v>166</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="8"/>
-      <c r="B108" s="8"/>
-      <c r="C108" t="s">
-        <v>167</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="8"/>
-      <c r="B109" s="8"/>
+      <c r="A109" s="9"/>
+      <c r="B109" s="9"/>
       <c r="C109" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="8"/>
-      <c r="B110" s="8"/>
+      <c r="A110" s="9"/>
+      <c r="B110" s="9"/>
       <c r="C110" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="8"/>
-      <c r="B111" s="8"/>
+      <c r="A111" s="9"/>
+      <c r="B111" s="9"/>
       <c r="C111" t="s">
+        <v>169</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="9"/>
+      <c r="B112" s="9"/>
+      <c r="C112" t="s">
         <v>171</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="D112" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="8"/>
-      <c r="B112" s="8"/>
-      <c r="C112" t="s">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="9"/>
+      <c r="B113" s="9"/>
+      <c r="C113" t="s">
         <v>193</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="D113" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="8"/>
-      <c r="B113" s="2" t="s">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="9"/>
+      <c r="B114" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C114" t="s">
         <v>170</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="D114" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="8"/>
-      <c r="B114" s="8" t="s">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="9"/>
+      <c r="B115" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C115" t="s">
         <v>174</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="D115" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="8"/>
-      <c r="B115" s="8"/>
-      <c r="C115" t="s">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="9"/>
+      <c r="B116" s="9"/>
+      <c r="C116" t="s">
         <v>175</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="D116" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="8"/>
-      <c r="B116" s="8"/>
-      <c r="C116" t="s">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="9"/>
+      <c r="B117" s="9"/>
+      <c r="C117" t="s">
         <v>160</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="D117" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="8"/>
-      <c r="C117" t="s">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="9"/>
+      <c r="C118" t="s">
         <v>177</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="8"/>
-      <c r="C118" t="s">
-        <v>178</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="8"/>
+      <c r="A119" s="9"/>
       <c r="C119" t="s">
+        <v>178</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="9"/>
+      <c r="C120" t="s">
         <v>182</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="8"/>
-      <c r="C120" t="s">
-        <v>179</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="8"/>
+      <c r="A121" s="9"/>
       <c r="C121" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="8"/>
+      <c r="A122" s="9"/>
       <c r="C122" t="s">
+        <v>180</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="9"/>
+      <c r="C123" t="s">
         <v>181</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="8"/>
-      <c r="C123" t="s">
-        <v>184</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="8"/>
-      <c r="B124" s="2" t="s">
+      <c r="A124" s="9"/>
+      <c r="C124" t="s">
+        <v>184</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="9"/>
+      <c r="B125" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C125" t="s">
         <v>186</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="8"/>
-      <c r="C125" t="s">
-        <v>187</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="8"/>
+      <c r="A126" s="9"/>
       <c r="C126" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="8"/>
+      <c r="A127" s="9"/>
       <c r="C127" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="8"/>
+      <c r="A128" s="9"/>
       <c r="C128" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="8"/>
-      <c r="B129" s="2" t="s">
+      <c r="A129" s="9"/>
+      <c r="C129" t="s">
+        <v>190</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="9"/>
+      <c r="B130" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C130" t="s">
         <v>192</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="8"/>
-      <c r="B130" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="C130" t="s">
-        <v>197</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="8"/>
-      <c r="B131" s="8"/>
+      <c r="A131" s="9"/>
+      <c r="B131" s="9" t="s">
+        <v>199</v>
+      </c>
       <c r="C131" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="8"/>
-      <c r="B132" s="8"/>
+      <c r="A132" s="9"/>
+      <c r="B132" s="9"/>
       <c r="C132" t="s">
+        <v>198</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="9"/>
+      <c r="B133" s="9"/>
+      <c r="C133" t="s">
         <v>200</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="8"/>
-      <c r="B133" s="8"/>
-      <c r="C133" t="s">
-        <v>201</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="8"/>
-      <c r="B134" s="8"/>
+      <c r="A134" s="9"/>
+      <c r="B134" s="9"/>
       <c r="C134" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="8"/>
-      <c r="B135" s="8"/>
+      <c r="A135" s="9"/>
+      <c r="B135" s="9"/>
       <c r="C135" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="8"/>
-      <c r="B136" s="8"/>
+      <c r="A136" s="9"/>
+      <c r="B136" s="9"/>
       <c r="C136" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="8" t="s">
+      <c r="A137" s="9"/>
+      <c r="B137" s="9"/>
+      <c r="C137" t="s">
+        <v>204</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="B137" s="8" t="s">
+      <c r="B138" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C138" t="s">
         <v>208</v>
       </c>
-      <c r="D137" s="1" t="s">
+      <c r="D138" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="8"/>
-      <c r="B138" s="8"/>
-      <c r="C138" t="s">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="9"/>
+      <c r="B139" s="9"/>
+      <c r="C139" t="s">
         <v>210</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="8"/>
-      <c r="B139" s="8"/>
-      <c r="C139" t="s">
-        <v>212</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="8"/>
-      <c r="B140" s="8"/>
+      <c r="A140" s="9"/>
+      <c r="B140" s="9"/>
       <c r="C140" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="8"/>
-      <c r="B141" s="8"/>
+      <c r="A141" s="9"/>
+      <c r="B141" s="9"/>
       <c r="C141" t="s">
+        <v>213</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="9"/>
+      <c r="B142" s="9"/>
+      <c r="C142" t="s">
         <v>214</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="8"/>
-      <c r="B142" s="8"/>
-      <c r="C142" t="s">
-        <v>216</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="8"/>
-      <c r="B143" s="8"/>
+      <c r="A143" s="9"/>
+      <c r="B143" s="9"/>
       <c r="C143" t="s">
+        <v>216</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="9"/>
+      <c r="B144" s="9"/>
+      <c r="C144" t="s">
         <v>219</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="8"/>
-      <c r="B144" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="C144" t="s">
-        <v>221</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="8"/>
-      <c r="B145" s="8"/>
+      <c r="A145" s="9"/>
+      <c r="B145" s="9"/>
       <c r="C145" t="s">
+        <v>282</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="9"/>
+      <c r="B146" s="9"/>
+      <c r="C146" t="s">
+        <v>283</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="9"/>
+      <c r="B147" s="9"/>
+      <c r="C147" t="s">
+        <v>284</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="9"/>
+      <c r="B148" s="9"/>
+      <c r="C148" t="s">
+        <v>285</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="9"/>
+      <c r="B149" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C149" t="s">
+        <v>221</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="9"/>
+      <c r="B150" s="9"/>
+      <c r="C150" t="s">
         <v>222</v>
       </c>
-      <c r="D145" s="1" t="s">
+      <c r="D150" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="8"/>
-      <c r="B146" s="8"/>
-      <c r="C146" t="s">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="9"/>
+      <c r="B151" s="9"/>
+      <c r="C151" t="s">
         <v>224</v>
       </c>
-      <c r="D146" s="1" t="s">
+      <c r="D151" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="3" t="s">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C152" t="s">
         <v>218</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="D152" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="7" t="s">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="B148" s="8" t="s">
+      <c r="B153" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C153" t="s">
         <v>227</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="7"/>
-      <c r="B149" s="8"/>
-      <c r="C149" t="s">
-        <v>229</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="7"/>
-      <c r="B150" s="8"/>
-      <c r="C150" t="s">
-        <v>230</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="7"/>
-      <c r="B151" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="C151" t="s">
-        <v>232</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="7"/>
-      <c r="B152" s="8"/>
-      <c r="C152" t="s">
-        <v>233</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="7"/>
-      <c r="B153" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C153" t="s">
-        <v>235</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>228</v>
@@ -3097,279 +3120,333 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="7"/>
+      <c r="B154" s="9"/>
       <c r="C154" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="7"/>
+      <c r="B155" s="9"/>
       <c r="C155" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="7"/>
+      <c r="B156" s="9" t="s">
+        <v>234</v>
+      </c>
       <c r="C156" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="7"/>
-      <c r="B157" s="8" t="s">
-        <v>128</v>
-      </c>
+      <c r="B157" s="9"/>
       <c r="C157" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="7"/>
-      <c r="B158" s="8"/>
+      <c r="B158" s="2" t="s">
+        <v>236</v>
+      </c>
       <c r="C158" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="7"/>
-      <c r="B159" s="8" t="s">
-        <v>246</v>
-      </c>
       <c r="C159" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="7"/>
-      <c r="B160" s="8"/>
       <c r="C160" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="7"/>
-      <c r="B161" s="5"/>
       <c r="C161" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="7"/>
-      <c r="B162" s="6"/>
+      <c r="B162" s="9" t="s">
+        <v>128</v>
+      </c>
       <c r="C162" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="7"/>
-      <c r="B163" s="6"/>
+      <c r="B163" s="9"/>
       <c r="C163" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="7"/>
-      <c r="B164" s="6"/>
+      <c r="B164" s="9" t="s">
+        <v>246</v>
+      </c>
       <c r="C164" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="7" t="s">
-        <v>248</v>
-      </c>
+      <c r="A165" s="7"/>
+      <c r="B165" s="9"/>
       <c r="C165" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="7"/>
+      <c r="B166" s="5"/>
       <c r="C166" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="7"/>
-      <c r="B167" s="5"/>
+      <c r="B167" s="6"/>
       <c r="C167" t="s">
+        <v>269</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="7"/>
+      <c r="B168" s="6"/>
+      <c r="C168" t="s">
+        <v>270</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="7"/>
+      <c r="B169" s="6"/>
+      <c r="C169" t="s">
+        <v>271</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C170" t="s">
+        <v>249</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="7"/>
+      <c r="C171" t="s">
+        <v>251</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="7"/>
+      <c r="B172" s="5"/>
+      <c r="C172" t="s">
         <v>265</v>
       </c>
-      <c r="D167" s="1" t="s">
+      <c r="D172" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="4" t="s">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C173" t="s">
         <v>253</v>
       </c>
-      <c r="D168" s="1" t="s">
+      <c r="D173" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="8" t="s">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C174" t="s">
         <v>256</v>
       </c>
-      <c r="D169" s="1" t="s">
+      <c r="D174" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="8"/>
-      <c r="C170" t="s">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="9"/>
+      <c r="C175" t="s">
         <v>257</v>
       </c>
-      <c r="D170" s="1" t="s">
+      <c r="D175" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="8"/>
-      <c r="C171" t="s">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="9"/>
+      <c r="C176" t="s">
         <v>258</v>
       </c>
-      <c r="D171" s="1" t="s">
+      <c r="D176" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
         <v>259</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C177" t="s">
         <v>260</v>
       </c>
-      <c r="D172" s="1" t="s">
+      <c r="D177" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>262</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C178" t="s">
         <v>263</v>
       </c>
-      <c r="D173" s="1" t="s">
+      <c r="D178" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
         <v>267</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C179" t="s">
         <v>268</v>
       </c>
-      <c r="D174" s="1" t="s">
+      <c r="D179" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C175" t="s">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C180" t="s">
         <v>276</v>
       </c>
-      <c r="D175" s="1" t="s">
+      <c r="D180" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C176" t="s">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C181" t="s">
         <v>277</v>
       </c>
-      <c r="D176" s="1" t="s">
+      <c r="D181" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="177" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C177" t="s">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C182" t="s">
         <v>278</v>
       </c>
-      <c r="D177" s="1" t="s">
+      <c r="D182" s="1" t="s">
         <v>279</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A169:A171"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="B159:B160"/>
-    <mergeCell ref="B148:B150"/>
-    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="B149:B151"/>
+    <mergeCell ref="B106:B113"/>
+    <mergeCell ref="B131:B137"/>
+    <mergeCell ref="B115:B117"/>
+    <mergeCell ref="A103:A137"/>
+    <mergeCell ref="B138:B148"/>
+    <mergeCell ref="A138:A151"/>
+    <mergeCell ref="B99:B102"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="A88:A93"/>
+    <mergeCell ref="A94:A102"/>
+    <mergeCell ref="B94:B98"/>
     <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="B13:B31"/>
     <mergeCell ref="B32:B40"/>
     <mergeCell ref="A13:A41"/>
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="B47:B49"/>
-    <mergeCell ref="A68:A86"/>
+    <mergeCell ref="A69:A87"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B50:B52"/>
     <mergeCell ref="B54:B56"/>
     <mergeCell ref="A42:A56"/>
-    <mergeCell ref="B98:B101"/>
-    <mergeCell ref="A57:A67"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="A87:A92"/>
-    <mergeCell ref="A93:A101"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="B137:B143"/>
-    <mergeCell ref="B144:B146"/>
-    <mergeCell ref="A137:A146"/>
-    <mergeCell ref="B105:B112"/>
-    <mergeCell ref="B130:B136"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="A102:A136"/>
+    <mergeCell ref="A57:A68"/>
+    <mergeCell ref="A174:A176"/>
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="B164:B165"/>
+    <mergeCell ref="B153:B155"/>
+    <mergeCell ref="B156:B157"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/时间表.xlsx
+++ b/时间表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\360\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67522F1-8616-48E4-A8F7-B297B93EDE57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD2AB3A-F628-4216-8AA6-FCA710F4985D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2016" yWindow="84" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="293">
   <si>
     <t>第一次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1168,6 +1168,34 @@
   </si>
   <si>
     <t>90子集2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200岛屿数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>694不同的岛屿数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>695岛屿的最大面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1020飞地的数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1254统计封闭岛屿的数目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1905统计子岛屿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1211,7 +1239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1228,9 +1256,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1518,10 +1543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F182"/>
+  <dimension ref="A1:F188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="A138" sqref="A138:A151"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="A176" sqref="A176:A178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1553,10 +1578,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>153</v>
       </c>
       <c r="C2" t="s">
@@ -1567,8 +1592,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -1577,7 +1602,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
+      <c r="A4" s="8"/>
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -1586,8 +1611,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8" t="s">
         <v>141</v>
       </c>
       <c r="C5" t="s">
@@ -1598,8 +1623,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
       <c r="C6" t="s">
         <v>138</v>
       </c>
@@ -1608,8 +1633,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
       <c r="C7" t="s">
         <v>139</v>
       </c>
@@ -1618,8 +1643,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
       <c r="C8" t="s">
         <v>140</v>
       </c>
@@ -1628,8 +1653,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8" t="s">
         <v>152</v>
       </c>
       <c r="C9" t="s">
@@ -1640,8 +1665,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
       <c r="C10" t="s">
         <v>9</v>
       </c>
@@ -1650,8 +1675,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
       <c r="C11" t="s">
         <v>10</v>
       </c>
@@ -1660,7 +1685,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
+      <c r="A12" s="8"/>
       <c r="C12" t="s">
         <v>97</v>
       </c>
@@ -1669,10 +1694,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C13" t="s">
@@ -1683,8 +1708,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -1693,8 +1718,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
       <c r="C15" t="s">
         <v>17</v>
       </c>
@@ -1703,8 +1728,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
       <c r="C16" t="s">
         <v>18</v>
       </c>
@@ -1713,8 +1738,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
       <c r="C17" t="s">
         <v>19</v>
       </c>
@@ -1723,8 +1748,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
       <c r="C18" t="s">
         <v>20</v>
       </c>
@@ -1733,8 +1758,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
       <c r="C19" t="s">
         <v>21</v>
       </c>
@@ -1743,8 +1768,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
       <c r="C20" t="s">
         <v>22</v>
       </c>
@@ -1753,8 +1778,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
       <c r="C21" t="s">
         <v>23</v>
       </c>
@@ -1763,8 +1788,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
       <c r="C22" t="s">
         <v>24</v>
       </c>
@@ -1773,8 +1798,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -1783,8 +1808,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
       <c r="C24" t="s">
         <v>26</v>
       </c>
@@ -1793,8 +1818,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
       <c r="C25" t="s">
         <v>27</v>
       </c>
@@ -1803,8 +1828,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
       <c r="C26" t="s">
         <v>28</v>
       </c>
@@ -1813,8 +1838,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
       <c r="C27" t="s">
         <v>29</v>
       </c>
@@ -1823,8 +1848,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
       <c r="C28" t="s">
         <v>30</v>
       </c>
@@ -1833,8 +1858,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
       <c r="C29" t="s">
         <v>31</v>
       </c>
@@ -1843,8 +1868,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
       <c r="C30" t="s">
         <v>32</v>
       </c>
@@ -1853,8 +1878,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
       <c r="C31" t="s">
         <v>33</v>
       </c>
@@ -1863,8 +1888,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9" t="s">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C32" t="s">
@@ -1875,8 +1900,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
       <c r="C33" t="s">
         <v>36</v>
       </c>
@@ -1885,8 +1910,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
       <c r="C34" t="s">
         <v>37</v>
       </c>
@@ -1895,8 +1920,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
       <c r="C35" t="s">
         <v>39</v>
       </c>
@@ -1905,8 +1930,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
       <c r="C36" t="s">
         <v>40</v>
       </c>
@@ -1915,8 +1940,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
       <c r="C37" t="s">
         <v>41</v>
       </c>
@@ -1925,8 +1950,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
       <c r="C38" t="s">
         <v>42</v>
       </c>
@@ -1935,8 +1960,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
       <c r="C39" t="s">
         <v>44</v>
       </c>
@@ -1945,8 +1970,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
       <c r="C40" t="s">
         <v>45</v>
       </c>
@@ -1955,7 +1980,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="9"/>
+      <c r="A41" s="8"/>
       <c r="B41" s="2" t="s">
         <v>47</v>
       </c>
@@ -1967,7 +1992,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="8" t="s">
         <v>50</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -1981,7 +2006,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="9"/>
+      <c r="A43" s="8"/>
       <c r="B43" s="2" t="s">
         <v>74</v>
       </c>
@@ -1993,7 +2018,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="9"/>
+      <c r="A44" s="8"/>
       <c r="B44" s="2" t="s">
         <v>75</v>
       </c>
@@ -2005,8 +2030,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9" t="s">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C45" t="s">
@@ -2017,8 +2042,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
       <c r="C46" t="s">
         <v>57</v>
       </c>
@@ -2027,8 +2052,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9" t="s">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8" t="s">
         <v>77</v>
       </c>
       <c r="C47" t="s">
@@ -2039,8 +2064,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
       <c r="C48" t="s">
         <v>61</v>
       </c>
@@ -2049,8 +2074,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
       <c r="C49" t="s">
         <v>62</v>
       </c>
@@ -2059,8 +2084,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9" t="s">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8" t="s">
         <v>78</v>
       </c>
       <c r="C50" t="s">
@@ -2071,8 +2096,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9"/>
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
       <c r="C51" t="s">
         <v>65</v>
       </c>
@@ -2081,8 +2106,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="9"/>
-      <c r="B52" s="9"/>
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
       <c r="C52" t="s">
         <v>66</v>
       </c>
@@ -2091,7 +2116,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="9"/>
+      <c r="A53" s="8"/>
       <c r="B53" s="2" t="s">
         <v>79</v>
       </c>
@@ -2103,8 +2128,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9" t="s">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8" t="s">
         <v>80</v>
       </c>
       <c r="C54" t="s">
@@ -2115,8 +2140,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="9"/>
-      <c r="B55" s="9"/>
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
       <c r="C55" t="s">
         <v>70</v>
       </c>
@@ -2125,8 +2150,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="9"/>
-      <c r="B56" s="9"/>
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
       <c r="C56" t="s">
         <v>71</v>
       </c>
@@ -2135,7 +2160,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="8" t="s">
         <v>81</v>
       </c>
       <c r="C57" t="s">
@@ -2146,7 +2171,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="9"/>
+      <c r="A58" s="8"/>
       <c r="C58" t="s">
         <v>83</v>
       </c>
@@ -2155,7 +2180,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="9"/>
+      <c r="A59" s="8"/>
       <c r="C59" t="s">
         <v>84</v>
       </c>
@@ -2164,7 +2189,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="9"/>
+      <c r="A60" s="8"/>
       <c r="C60" t="s">
         <v>86</v>
       </c>
@@ -2173,7 +2198,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="9"/>
+      <c r="A61" s="8"/>
       <c r="C61" t="s">
         <v>87</v>
       </c>
@@ -2182,7 +2207,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="9"/>
+      <c r="A62" s="8"/>
       <c r="C62" t="s">
         <v>89</v>
       </c>
@@ -2191,7 +2216,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="9"/>
+      <c r="A63" s="8"/>
       <c r="C63" t="s">
         <v>90</v>
       </c>
@@ -2200,7 +2225,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="9"/>
+      <c r="A64" s="8"/>
       <c r="C64" t="s">
         <v>91</v>
       </c>
@@ -2209,7 +2234,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="9"/>
+      <c r="A65" s="8"/>
       <c r="C65" t="s">
         <v>92</v>
       </c>
@@ -2218,7 +2243,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="9"/>
+      <c r="A66" s="8"/>
       <c r="C66" t="s">
         <v>94</v>
       </c>
@@ -2227,7 +2252,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="9"/>
+      <c r="A67" s="8"/>
       <c r="C67" t="s">
         <v>95</v>
       </c>
@@ -2236,8 +2261,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="9"/>
-      <c r="B68" s="8"/>
+      <c r="A68" s="8"/>
+      <c r="B68" s="7"/>
       <c r="C68" t="s">
         <v>280</v>
       </c>
@@ -2246,10 +2271,10 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="9" t="s">
+      <c r="A69" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="8" t="s">
         <v>105</v>
       </c>
       <c r="C69" t="s">
@@ -2260,8 +2285,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="9"/>
-      <c r="B70" s="9"/>
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
       <c r="C70" t="s">
         <v>101</v>
       </c>
@@ -2270,8 +2295,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="9"/>
-      <c r="B71" s="9"/>
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
       <c r="C71" t="s">
         <v>102</v>
       </c>
@@ -2280,8 +2305,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="9"/>
-      <c r="B72" s="9" t="s">
+      <c r="A72" s="8"/>
+      <c r="B72" s="8" t="s">
         <v>104</v>
       </c>
       <c r="C72" t="s">
@@ -2292,8 +2317,8 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="9"/>
-      <c r="B73" s="9"/>
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
       <c r="C73" t="s">
         <v>107</v>
       </c>
@@ -2302,8 +2327,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="9"/>
-      <c r="B74" s="9"/>
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
       <c r="C74" t="s">
         <v>108</v>
       </c>
@@ -2312,8 +2337,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="9"/>
-      <c r="B75" s="9" t="s">
+      <c r="A75" s="8"/>
+      <c r="B75" s="8" t="s">
         <v>113</v>
       </c>
       <c r="C75" t="s">
@@ -2324,8 +2349,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="9"/>
-      <c r="B76" s="9"/>
+      <c r="A76" s="8"/>
+      <c r="B76" s="8"/>
       <c r="C76" t="s">
         <v>111</v>
       </c>
@@ -2334,8 +2359,8 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="9"/>
-      <c r="B77" s="9"/>
+      <c r="A77" s="8"/>
+      <c r="B77" s="8"/>
       <c r="C77" t="s">
         <v>112</v>
       </c>
@@ -2344,8 +2369,8 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="9"/>
-      <c r="B78" s="9" t="s">
+      <c r="A78" s="8"/>
+      <c r="B78" s="8" t="s">
         <v>128</v>
       </c>
       <c r="C78" t="s">
@@ -2356,8 +2381,8 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="9"/>
-      <c r="B79" s="9"/>
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
       <c r="C79" t="s">
         <v>125</v>
       </c>
@@ -2366,8 +2391,8 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="9"/>
-      <c r="B80" s="9"/>
+      <c r="A80" s="8"/>
+      <c r="B80" s="8"/>
       <c r="C80" t="s">
         <v>127</v>
       </c>
@@ -2376,7 +2401,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="9"/>
+      <c r="A81" s="8"/>
       <c r="C81" t="s">
         <v>114</v>
       </c>
@@ -2385,8 +2410,8 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="9"/>
-      <c r="B82" s="9" t="s">
+      <c r="A82" s="8"/>
+      <c r="B82" s="8" t="s">
         <v>121</v>
       </c>
       <c r="C82" t="s">
@@ -2397,8 +2422,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="9"/>
-      <c r="B83" s="9"/>
+      <c r="A83" s="8"/>
+      <c r="B83" s="8"/>
       <c r="C83" t="s">
         <v>117</v>
       </c>
@@ -2407,8 +2432,8 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="9"/>
-      <c r="B84" s="9"/>
+      <c r="A84" s="8"/>
+      <c r="B84" s="8"/>
       <c r="C84" t="s">
         <v>118</v>
       </c>
@@ -2417,8 +2442,8 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="9"/>
-      <c r="B85" s="9"/>
+      <c r="A85" s="8"/>
+      <c r="B85" s="8"/>
       <c r="C85" t="s">
         <v>119</v>
       </c>
@@ -2427,7 +2452,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="9"/>
+      <c r="A86" s="8"/>
       <c r="C86" t="s">
         <v>122</v>
       </c>
@@ -2436,7 +2461,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="9"/>
+      <c r="A87" s="8"/>
       <c r="C87" t="s">
         <v>123</v>
       </c>
@@ -2445,7 +2470,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="9" t="s">
+      <c r="A88" s="8" t="s">
         <v>129</v>
       </c>
       <c r="C88" t="s">
@@ -2456,7 +2481,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="9"/>
+      <c r="A89" s="8"/>
       <c r="C89" t="s">
         <v>131</v>
       </c>
@@ -2465,7 +2490,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="9"/>
+      <c r="A90" s="8"/>
       <c r="C90" t="s">
         <v>133</v>
       </c>
@@ -2474,7 +2499,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="9"/>
+      <c r="A91" s="8"/>
       <c r="C91" t="s">
         <v>134</v>
       </c>
@@ -2483,7 +2508,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="9"/>
+      <c r="A92" s="8"/>
       <c r="C92" t="s">
         <v>135</v>
       </c>
@@ -2492,7 +2517,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="9"/>
+      <c r="A93" s="8"/>
       <c r="B93" s="6"/>
       <c r="C93" t="s">
         <v>273</v>
@@ -2502,10 +2527,10 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="9" t="s">
+      <c r="A94" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B94" s="9" t="s">
+      <c r="B94" s="8" t="s">
         <v>142</v>
       </c>
       <c r="C94" t="s">
@@ -2516,8 +2541,8 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="9"/>
-      <c r="B95" s="9"/>
+      <c r="A95" s="8"/>
+      <c r="B95" s="8"/>
       <c r="C95" t="s">
         <v>150</v>
       </c>
@@ -2526,8 +2551,8 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="9"/>
-      <c r="B96" s="9"/>
+      <c r="A96" s="8"/>
+      <c r="B96" s="8"/>
       <c r="C96" t="s">
         <v>151</v>
       </c>
@@ -2536,8 +2561,8 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="9"/>
-      <c r="B97" s="9"/>
+      <c r="A97" s="8"/>
+      <c r="B97" s="8"/>
       <c r="C97" t="s">
         <v>274</v>
       </c>
@@ -2546,8 +2571,8 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="9"/>
-      <c r="B98" s="9"/>
+      <c r="A98" s="8"/>
+      <c r="B98" s="8"/>
       <c r="C98" t="s">
         <v>275</v>
       </c>
@@ -2556,8 +2581,8 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="9"/>
-      <c r="B99" s="9" t="s">
+      <c r="A99" s="8"/>
+      <c r="B99" s="8" t="s">
         <v>143</v>
       </c>
       <c r="C99" t="s">
@@ -2568,8 +2593,8 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="9"/>
-      <c r="B100" s="9"/>
+      <c r="A100" s="8"/>
+      <c r="B100" s="8"/>
       <c r="C100" t="s">
         <v>145</v>
       </c>
@@ -2578,8 +2603,8 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="9"/>
-      <c r="B101" s="9"/>
+      <c r="A101" s="8"/>
+      <c r="B101" s="8"/>
       <c r="C101" t="s">
         <v>146</v>
       </c>
@@ -2588,8 +2613,8 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="9"/>
-      <c r="B102" s="9"/>
+      <c r="A102" s="8"/>
+      <c r="B102" s="8"/>
       <c r="C102" t="s">
         <v>147</v>
       </c>
@@ -2598,7 +2623,7 @@
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="9" t="s">
+      <c r="A103" s="8" t="s">
         <v>154</v>
       </c>
       <c r="C103" t="s">
@@ -2609,7 +2634,7 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="9"/>
+      <c r="A104" s="8"/>
       <c r="C104" t="s">
         <v>156</v>
       </c>
@@ -2618,7 +2643,7 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="9"/>
+      <c r="A105" s="8"/>
       <c r="C105" t="s">
         <v>158</v>
       </c>
@@ -2627,8 +2652,8 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="9"/>
-      <c r="B106" s="9" t="s">
+      <c r="A106" s="8"/>
+      <c r="B106" s="8" t="s">
         <v>162</v>
       </c>
       <c r="C106" t="s">
@@ -2639,8 +2664,8 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="9"/>
-      <c r="B107" s="9"/>
+      <c r="A107" s="8"/>
+      <c r="B107" s="8"/>
       <c r="C107" t="s">
         <v>164</v>
       </c>
@@ -2649,8 +2674,8 @@
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="9"/>
-      <c r="B108" s="9"/>
+      <c r="A108" s="8"/>
+      <c r="B108" s="8"/>
       <c r="C108" t="s">
         <v>166</v>
       </c>
@@ -2659,8 +2684,8 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="9"/>
-      <c r="B109" s="9"/>
+      <c r="A109" s="8"/>
+      <c r="B109" s="8"/>
       <c r="C109" t="s">
         <v>167</v>
       </c>
@@ -2669,8 +2694,8 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="9"/>
-      <c r="B110" s="9"/>
+      <c r="A110" s="8"/>
+      <c r="B110" s="8"/>
       <c r="C110" t="s">
         <v>168</v>
       </c>
@@ -2679,8 +2704,8 @@
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="9"/>
-      <c r="B111" s="9"/>
+      <c r="A111" s="8"/>
+      <c r="B111" s="8"/>
       <c r="C111" t="s">
         <v>169</v>
       </c>
@@ -2689,8 +2714,8 @@
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="9"/>
-      <c r="B112" s="9"/>
+      <c r="A112" s="8"/>
+      <c r="B112" s="8"/>
       <c r="C112" t="s">
         <v>171</v>
       </c>
@@ -2699,8 +2724,8 @@
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="9"/>
-      <c r="B113" s="9"/>
+      <c r="A113" s="8"/>
+      <c r="B113" s="8"/>
       <c r="C113" t="s">
         <v>193</v>
       </c>
@@ -2709,7 +2734,7 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="9"/>
+      <c r="A114" s="8"/>
       <c r="B114" s="2" t="s">
         <v>195</v>
       </c>
@@ -2721,8 +2746,8 @@
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="9"/>
-      <c r="B115" s="9" t="s">
+      <c r="A115" s="8"/>
+      <c r="B115" s="8" t="s">
         <v>173</v>
       </c>
       <c r="C115" t="s">
@@ -2733,8 +2758,8 @@
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="9"/>
-      <c r="B116" s="9"/>
+      <c r="A116" s="8"/>
+      <c r="B116" s="8"/>
       <c r="C116" t="s">
         <v>175</v>
       </c>
@@ -2743,8 +2768,8 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="9"/>
-      <c r="B117" s="9"/>
+      <c r="A117" s="8"/>
+      <c r="B117" s="8"/>
       <c r="C117" t="s">
         <v>160</v>
       </c>
@@ -2753,7 +2778,7 @@
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="9"/>
+      <c r="A118" s="8"/>
       <c r="C118" t="s">
         <v>177</v>
       </c>
@@ -2762,7 +2787,7 @@
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="9"/>
+      <c r="A119" s="8"/>
       <c r="C119" t="s">
         <v>178</v>
       </c>
@@ -2771,7 +2796,7 @@
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="9"/>
+      <c r="A120" s="8"/>
       <c r="C120" t="s">
         <v>182</v>
       </c>
@@ -2780,7 +2805,7 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="9"/>
+      <c r="A121" s="8"/>
       <c r="C121" t="s">
         <v>179</v>
       </c>
@@ -2789,7 +2814,7 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="9"/>
+      <c r="A122" s="8"/>
       <c r="C122" t="s">
         <v>180</v>
       </c>
@@ -2798,7 +2823,7 @@
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="9"/>
+      <c r="A123" s="8"/>
       <c r="C123" t="s">
         <v>181</v>
       </c>
@@ -2807,7 +2832,7 @@
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="9"/>
+      <c r="A124" s="8"/>
       <c r="C124" t="s">
         <v>184</v>
       </c>
@@ -2816,7 +2841,7 @@
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="9"/>
+      <c r="A125" s="8"/>
       <c r="B125" s="2" t="s">
         <v>247</v>
       </c>
@@ -2828,7 +2853,7 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="9"/>
+      <c r="A126" s="8"/>
       <c r="C126" t="s">
         <v>187</v>
       </c>
@@ -2837,7 +2862,7 @@
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="9"/>
+      <c r="A127" s="8"/>
       <c r="C127" t="s">
         <v>188</v>
       </c>
@@ -2846,7 +2871,7 @@
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="9"/>
+      <c r="A128" s="8"/>
       <c r="C128" t="s">
         <v>189</v>
       </c>
@@ -2855,7 +2880,7 @@
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="9"/>
+      <c r="A129" s="8"/>
       <c r="C129" t="s">
         <v>190</v>
       </c>
@@ -2864,7 +2889,7 @@
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="9"/>
+      <c r="A130" s="8"/>
       <c r="B130" s="2" t="s">
         <v>196</v>
       </c>
@@ -2876,8 +2901,8 @@
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="9"/>
-      <c r="B131" s="9" t="s">
+      <c r="A131" s="8"/>
+      <c r="B131" s="8" t="s">
         <v>199</v>
       </c>
       <c r="C131" t="s">
@@ -2888,8 +2913,8 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="9"/>
-      <c r="B132" s="9"/>
+      <c r="A132" s="8"/>
+      <c r="B132" s="8"/>
       <c r="C132" t="s">
         <v>198</v>
       </c>
@@ -2898,8 +2923,8 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="9"/>
-      <c r="B133" s="9"/>
+      <c r="A133" s="8"/>
+      <c r="B133" s="8"/>
       <c r="C133" t="s">
         <v>200</v>
       </c>
@@ -2908,8 +2933,8 @@
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="9"/>
-      <c r="B134" s="9"/>
+      <c r="A134" s="8"/>
+      <c r="B134" s="8"/>
       <c r="C134" t="s">
         <v>201</v>
       </c>
@@ -2918,8 +2943,8 @@
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="9"/>
-      <c r="B135" s="9"/>
+      <c r="A135" s="8"/>
+      <c r="B135" s="8"/>
       <c r="C135" t="s">
         <v>202</v>
       </c>
@@ -2928,8 +2953,8 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="9"/>
-      <c r="B136" s="9"/>
+      <c r="A136" s="8"/>
+      <c r="B136" s="8"/>
       <c r="C136" t="s">
         <v>203</v>
       </c>
@@ -2938,8 +2963,8 @@
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="9"/>
-      <c r="B137" s="9"/>
+      <c r="A137" s="8"/>
+      <c r="B137" s="8"/>
       <c r="C137" t="s">
         <v>204</v>
       </c>
@@ -2948,10 +2973,10 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="9" t="s">
+      <c r="A138" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="B138" s="9" t="s">
+      <c r="B138" s="8" t="s">
         <v>207</v>
       </c>
       <c r="C138" t="s">
@@ -2962,8 +2987,8 @@
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="9"/>
-      <c r="B139" s="9"/>
+      <c r="A139" s="8"/>
+      <c r="B139" s="8"/>
       <c r="C139" t="s">
         <v>210</v>
       </c>
@@ -2972,8 +2997,8 @@
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="9"/>
-      <c r="B140" s="9"/>
+      <c r="A140" s="8"/>
+      <c r="B140" s="8"/>
       <c r="C140" t="s">
         <v>212</v>
       </c>
@@ -2982,8 +3007,8 @@
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="9"/>
-      <c r="B141" s="9"/>
+      <c r="A141" s="8"/>
+      <c r="B141" s="8"/>
       <c r="C141" t="s">
         <v>213</v>
       </c>
@@ -2992,8 +3017,8 @@
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="9"/>
-      <c r="B142" s="9"/>
+      <c r="A142" s="8"/>
+      <c r="B142" s="8"/>
       <c r="C142" t="s">
         <v>214</v>
       </c>
@@ -3002,8 +3027,8 @@
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="9"/>
-      <c r="B143" s="9"/>
+      <c r="A143" s="8"/>
+      <c r="B143" s="8"/>
       <c r="C143" t="s">
         <v>216</v>
       </c>
@@ -3012,8 +3037,8 @@
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="9"/>
-      <c r="B144" s="9"/>
+      <c r="A144" s="8"/>
+      <c r="B144" s="8"/>
       <c r="C144" t="s">
         <v>219</v>
       </c>
@@ -3022,8 +3047,8 @@
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="9"/>
-      <c r="B145" s="9"/>
+      <c r="A145" s="8"/>
+      <c r="B145" s="8"/>
       <c r="C145" t="s">
         <v>282</v>
       </c>
@@ -3032,8 +3057,8 @@
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="9"/>
-      <c r="B146" s="9"/>
+      <c r="A146" s="8"/>
+      <c r="B146" s="8"/>
       <c r="C146" t="s">
         <v>283</v>
       </c>
@@ -3042,8 +3067,8 @@
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="9"/>
-      <c r="B147" s="9"/>
+      <c r="A147" s="8"/>
+      <c r="B147" s="8"/>
       <c r="C147" t="s">
         <v>284</v>
       </c>
@@ -3052,8 +3077,8 @@
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="9"/>
-      <c r="B148" s="9"/>
+      <c r="A148" s="8"/>
+      <c r="B148" s="8"/>
       <c r="C148" t="s">
         <v>285</v>
       </c>
@@ -3062,368 +3087,427 @@
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="9"/>
-      <c r="B149" s="9" t="s">
+      <c r="A149" s="8"/>
+      <c r="B149" s="8"/>
+      <c r="C149" t="s">
+        <v>286</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="8"/>
+      <c r="B150" s="8"/>
+      <c r="C150" t="s">
+        <v>287</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="8"/>
+      <c r="B151" s="8"/>
+      <c r="C151" t="s">
+        <v>288</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="8"/>
+      <c r="B152" s="8"/>
+      <c r="C152" t="s">
+        <v>289</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="8"/>
+      <c r="B153" s="8"/>
+      <c r="C153" t="s">
+        <v>290</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="8"/>
+      <c r="B154" s="8"/>
+      <c r="C154" t="s">
+        <v>291</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="8"/>
+      <c r="B155" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C155" t="s">
         <v>221</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="D155" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="9"/>
-      <c r="B150" s="9"/>
-      <c r="C150" t="s">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="8"/>
+      <c r="B156" s="8"/>
+      <c r="C156" t="s">
         <v>222</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="D156" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="9"/>
-      <c r="B151" s="9"/>
-      <c r="C151" t="s">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="8"/>
+      <c r="B157" s="8"/>
+      <c r="C157" t="s">
         <v>224</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="D157" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="3" t="s">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C158" t="s">
         <v>218</v>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="D158" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="7" t="s">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="B153" s="9" t="s">
+      <c r="B159" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C159" t="s">
         <v>227</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="D159" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="7"/>
-      <c r="B154" s="9"/>
-      <c r="C154" t="s">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="8"/>
+      <c r="B160" s="8"/>
+      <c r="C160" t="s">
         <v>229</v>
       </c>
-      <c r="D154" s="1" t="s">
+      <c r="D160" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="7"/>
-      <c r="B155" s="9"/>
-      <c r="C155" t="s">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="8"/>
+      <c r="B161" s="8"/>
+      <c r="C161" t="s">
         <v>230</v>
       </c>
-      <c r="D155" s="1" t="s">
+      <c r="D161" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="7"/>
-      <c r="B156" s="9" t="s">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="8"/>
+      <c r="B162" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C162" t="s">
         <v>232</v>
       </c>
-      <c r="D156" s="1" t="s">
+      <c r="D162" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="7"/>
-      <c r="B157" s="9"/>
-      <c r="C157" t="s">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="8"/>
+      <c r="B163" s="8"/>
+      <c r="C163" t="s">
         <v>233</v>
       </c>
-      <c r="D157" s="1" t="s">
+      <c r="D163" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="7"/>
-      <c r="B158" s="2" t="s">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="8"/>
+      <c r="B164" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C164" t="s">
         <v>235</v>
       </c>
-      <c r="D158" s="1" t="s">
+      <c r="D164" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="7"/>
-      <c r="C159" t="s">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="8"/>
+      <c r="C165" t="s">
         <v>240</v>
       </c>
-      <c r="D159" s="1" t="s">
+      <c r="D165" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="7"/>
-      <c r="C160" t="s">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="8"/>
+      <c r="C166" t="s">
         <v>238</v>
       </c>
-      <c r="D160" s="1" t="s">
+      <c r="D166" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="7"/>
-      <c r="C161" t="s">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="8"/>
+      <c r="C167" t="s">
         <v>239</v>
       </c>
-      <c r="D161" s="1" t="s">
+      <c r="D167" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="7"/>
-      <c r="B162" s="9" t="s">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="8"/>
+      <c r="B168" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C168" t="s">
         <v>241</v>
       </c>
-      <c r="D162" s="1" t="s">
+      <c r="D168" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="7"/>
-      <c r="B163" s="9"/>
-      <c r="C163" t="s">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="8"/>
+      <c r="B169" s="8"/>
+      <c r="C169" t="s">
         <v>243</v>
       </c>
-      <c r="D163" s="1" t="s">
+      <c r="D169" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="7"/>
-      <c r="B164" s="9" t="s">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="8"/>
+      <c r="B170" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C170" t="s">
         <v>245</v>
       </c>
-      <c r="D164" s="1" t="s">
+      <c r="D170" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="7"/>
-      <c r="B165" s="9"/>
-      <c r="C165" t="s">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="8"/>
+      <c r="B171" s="8"/>
+      <c r="C171" t="s">
         <v>244</v>
       </c>
-      <c r="D165" s="1" t="s">
+      <c r="D171" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="7"/>
-      <c r="B166" s="5"/>
-      <c r="C166" t="s">
-        <v>266</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="7"/>
-      <c r="B167" s="6"/>
-      <c r="C167" t="s">
-        <v>269</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="7"/>
-      <c r="B168" s="6"/>
-      <c r="C168" t="s">
-        <v>270</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="7"/>
-      <c r="B169" s="6"/>
-      <c r="C169" t="s">
-        <v>271</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="C170" t="s">
-        <v>249</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="7"/>
-      <c r="C171" t="s">
-        <v>251</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="7"/>
+      <c r="A172" s="8"/>
       <c r="B172" s="5"/>
       <c r="C172" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="4" t="s">
-        <v>252</v>
-      </c>
+      <c r="A173" s="8"/>
+      <c r="B173" s="6"/>
       <c r="C173" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="9" t="s">
-        <v>255</v>
-      </c>
+      <c r="A174" s="8"/>
+      <c r="B174" s="6"/>
       <c r="C174" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="9"/>
+      <c r="A175" s="8"/>
+      <c r="B175" s="6"/>
       <c r="C175" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="9"/>
+      <c r="A176" s="8" t="s">
+        <v>248</v>
+      </c>
       <c r="C176" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>259</v>
-      </c>
+      <c r="A177" s="8"/>
       <c r="C177" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>262</v>
-      </c>
+      <c r="A178" s="8"/>
+      <c r="B178" s="5"/>
       <c r="C178" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+      <c r="A179" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C179" t="s">
+        <v>253</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C180" t="s">
+        <v>256</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="8"/>
+      <c r="C181" t="s">
+        <v>257</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="8"/>
+      <c r="C182" t="s">
+        <v>258</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>259</v>
+      </c>
+      <c r="C183" t="s">
+        <v>260</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>262</v>
+      </c>
+      <c r="C184" t="s">
+        <v>263</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
         <v>267</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C185" t="s">
         <v>268</v>
       </c>
-      <c r="D179" s="1" t="s">
+      <c r="D185" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C180" t="s">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C186" t="s">
         <v>276</v>
       </c>
-      <c r="D180" s="1" t="s">
+      <c r="D186" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C181" t="s">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C187" t="s">
         <v>277</v>
       </c>
-      <c r="D181" s="1" t="s">
+      <c r="D187" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C182" t="s">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C188" t="s">
         <v>278</v>
       </c>
-      <c r="D182" s="1" t="s">
+      <c r="D188" s="1" t="s">
         <v>279</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="B149:B151"/>
-    <mergeCell ref="B106:B113"/>
-    <mergeCell ref="B131:B137"/>
-    <mergeCell ref="B115:B117"/>
-    <mergeCell ref="A103:A137"/>
-    <mergeCell ref="B138:B148"/>
-    <mergeCell ref="A138:A151"/>
-    <mergeCell ref="B99:B102"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="B78:B80"/>
+  <mergeCells count="37">
+    <mergeCell ref="A42:A56"/>
+    <mergeCell ref="A57:A68"/>
+    <mergeCell ref="A180:A182"/>
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="B170:B171"/>
+    <mergeCell ref="B159:B161"/>
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="B138:B154"/>
+    <mergeCell ref="A138:A157"/>
+    <mergeCell ref="A159:A175"/>
+    <mergeCell ref="A176:A178"/>
     <mergeCell ref="A88:A93"/>
     <mergeCell ref="A94:A102"/>
     <mergeCell ref="B94:B98"/>
@@ -3440,13 +3524,16 @@
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B50:B52"/>
     <mergeCell ref="B54:B56"/>
-    <mergeCell ref="A42:A56"/>
-    <mergeCell ref="A57:A68"/>
-    <mergeCell ref="A174:A176"/>
-    <mergeCell ref="B162:B163"/>
-    <mergeCell ref="B164:B165"/>
-    <mergeCell ref="B153:B155"/>
-    <mergeCell ref="B156:B157"/>
+    <mergeCell ref="B99:B102"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B155:B157"/>
+    <mergeCell ref="B106:B113"/>
+    <mergeCell ref="B131:B137"/>
+    <mergeCell ref="B115:B117"/>
+    <mergeCell ref="A103:A137"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/时间表.xlsx
+++ b/时间表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\360\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD2AB3A-F628-4216-8AA6-FCA710F4985D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCD3288-516F-4FF4-B037-7277B475453F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2016" yWindow="84" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9876" yWindow="144" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="300">
   <si>
     <t>第一次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1196,6 +1196,34 @@
   </si>
   <si>
     <t>3.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15三数之和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18四数之和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nSum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>121买卖股票的最佳时机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>122买卖股票的最佳时机2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股票</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1239,7 +1267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1262,6 +1290,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1543,10 +1577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F188"/>
+  <dimension ref="A1:F192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="A176" sqref="A176:A178"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="B132" sqref="B132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1578,10 +1612,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>153</v>
       </c>
       <c r="C2" t="s">
@@ -1592,8 +1626,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -1602,7 +1636,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
+      <c r="A4" s="9"/>
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -1611,8 +1645,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9" t="s">
         <v>141</v>
       </c>
       <c r="C5" t="s">
@@ -1623,8 +1657,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
       <c r="C6" t="s">
         <v>138</v>
       </c>
@@ -1633,8 +1667,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
       <c r="C7" t="s">
         <v>139</v>
       </c>
@@ -1643,8 +1677,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
       <c r="C8" t="s">
         <v>140</v>
       </c>
@@ -1653,8 +1687,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9" t="s">
         <v>152</v>
       </c>
       <c r="C9" t="s">
@@ -1665,8 +1699,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
       <c r="C10" t="s">
         <v>9</v>
       </c>
@@ -1675,8 +1709,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
       <c r="C11" t="s">
         <v>10</v>
       </c>
@@ -1685,7 +1719,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
+      <c r="A12" s="9"/>
       <c r="C12" t="s">
         <v>97</v>
       </c>
@@ -1694,10 +1728,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C13" t="s">
@@ -1708,8 +1742,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -1718,8 +1752,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
       <c r="C15" t="s">
         <v>17</v>
       </c>
@@ -1728,8 +1762,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
       <c r="C16" t="s">
         <v>18</v>
       </c>
@@ -1738,8 +1772,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
       <c r="C17" t="s">
         <v>19</v>
       </c>
@@ -1748,8 +1782,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
       <c r="C18" t="s">
         <v>20</v>
       </c>
@@ -1758,8 +1792,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
       <c r="C19" t="s">
         <v>21</v>
       </c>
@@ -1768,8 +1802,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
       <c r="C20" t="s">
         <v>22</v>
       </c>
@@ -1778,8 +1812,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
       <c r="C21" t="s">
         <v>23</v>
       </c>
@@ -1788,8 +1822,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
       <c r="C22" t="s">
         <v>24</v>
       </c>
@@ -1798,8 +1832,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -1808,8 +1842,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>26</v>
       </c>
@@ -1818,8 +1852,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
       <c r="C25" t="s">
         <v>27</v>
       </c>
@@ -1828,8 +1862,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
       <c r="C26" t="s">
         <v>28</v>
       </c>
@@ -1838,8 +1872,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
       <c r="C27" t="s">
         <v>29</v>
       </c>
@@ -1848,8 +1882,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
       <c r="C28" t="s">
         <v>30</v>
       </c>
@@ -1858,8 +1892,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
       <c r="C29" t="s">
         <v>31</v>
       </c>
@@ -1868,8 +1902,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
       <c r="C30" t="s">
         <v>32</v>
       </c>
@@ -1878,8 +1912,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
       <c r="C31" t="s">
         <v>33</v>
       </c>
@@ -1888,8 +1922,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8" t="s">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C32" t="s">
@@ -1900,8 +1934,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
       <c r="C33" t="s">
         <v>36</v>
       </c>
@@ -1910,8 +1944,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
       <c r="C34" t="s">
         <v>37</v>
       </c>
@@ -1920,8 +1954,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
       <c r="C35" t="s">
         <v>39</v>
       </c>
@@ -1930,8 +1964,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
       <c r="C36" t="s">
         <v>40</v>
       </c>
@@ -1940,8 +1974,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
       <c r="C37" t="s">
         <v>41</v>
       </c>
@@ -1950,8 +1984,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
       <c r="C38" t="s">
         <v>42</v>
       </c>
@@ -1960,8 +1994,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
       <c r="C39" t="s">
         <v>44</v>
       </c>
@@ -1970,8 +2004,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
       <c r="C40" t="s">
         <v>45</v>
       </c>
@@ -1980,7 +2014,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
+      <c r="A41" s="9"/>
       <c r="B41" s="2" t="s">
         <v>47</v>
       </c>
@@ -1992,7 +2026,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="9" t="s">
         <v>50</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -2006,7 +2040,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
+      <c r="A43" s="9"/>
       <c r="B43" s="2" t="s">
         <v>74</v>
       </c>
@@ -2018,7 +2052,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
+      <c r="A44" s="9"/>
       <c r="B44" s="2" t="s">
         <v>75</v>
       </c>
@@ -2030,8 +2064,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8" t="s">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9" t="s">
         <v>76</v>
       </c>
       <c r="C45" t="s">
@@ -2042,8 +2076,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
       <c r="C46" t="s">
         <v>57</v>
       </c>
@@ -2052,8 +2086,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8" t="s">
+      <c r="A47" s="9"/>
+      <c r="B47" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C47" t="s">
@@ -2064,8 +2098,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
       <c r="C48" t="s">
         <v>61</v>
       </c>
@@ -2074,8 +2108,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
       <c r="C49" t="s">
         <v>62</v>
       </c>
@@ -2084,8 +2118,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8" t="s">
+      <c r="A50" s="9"/>
+      <c r="B50" s="9" t="s">
         <v>78</v>
       </c>
       <c r="C50" t="s">
@@ -2096,8 +2130,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
       <c r="C51" t="s">
         <v>65</v>
       </c>
@@ -2106,8 +2140,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
       <c r="C52" t="s">
         <v>66</v>
       </c>
@@ -2116,7 +2150,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="8"/>
+      <c r="A53" s="9"/>
       <c r="B53" s="2" t="s">
         <v>79</v>
       </c>
@@ -2128,8 +2162,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8" t="s">
+      <c r="A54" s="9"/>
+      <c r="B54" s="9" t="s">
         <v>80</v>
       </c>
       <c r="C54" t="s">
@@ -2140,8 +2174,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
       <c r="C55" t="s">
         <v>70</v>
       </c>
@@ -2150,8 +2184,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
       <c r="C56" t="s">
         <v>71</v>
       </c>
@@ -2160,7 +2194,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="9" t="s">
         <v>81</v>
       </c>
       <c r="C57" t="s">
@@ -2171,7 +2205,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="8"/>
+      <c r="A58" s="9"/>
       <c r="C58" t="s">
         <v>83</v>
       </c>
@@ -2180,7 +2214,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="8"/>
+      <c r="A59" s="9"/>
       <c r="C59" t="s">
         <v>84</v>
       </c>
@@ -2189,7 +2223,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="8"/>
+      <c r="A60" s="9"/>
       <c r="C60" t="s">
         <v>86</v>
       </c>
@@ -2198,7 +2232,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="8"/>
+      <c r="A61" s="9"/>
       <c r="C61" t="s">
         <v>87</v>
       </c>
@@ -2207,7 +2241,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="8"/>
+      <c r="A62" s="9"/>
       <c r="C62" t="s">
         <v>89</v>
       </c>
@@ -2216,7 +2250,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="8"/>
+      <c r="A63" s="9"/>
       <c r="C63" t="s">
         <v>90</v>
       </c>
@@ -2225,7 +2259,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="8"/>
+      <c r="A64" s="9"/>
       <c r="C64" t="s">
         <v>91</v>
       </c>
@@ -2234,7 +2268,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="8"/>
+      <c r="A65" s="9"/>
       <c r="C65" t="s">
         <v>92</v>
       </c>
@@ -2243,7 +2277,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="8"/>
+      <c r="A66" s="9"/>
       <c r="C66" t="s">
         <v>94</v>
       </c>
@@ -2252,7 +2286,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="8"/>
+      <c r="A67" s="9"/>
       <c r="C67" t="s">
         <v>95</v>
       </c>
@@ -2261,7 +2295,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="8"/>
+      <c r="A68" s="9"/>
       <c r="B68" s="7"/>
       <c r="C68" t="s">
         <v>280</v>
@@ -2271,10 +2305,10 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="8" t="s">
+      <c r="A69" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="9" t="s">
         <v>105</v>
       </c>
       <c r="C69" t="s">
@@ -2285,8 +2319,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="8"/>
-      <c r="B70" s="8"/>
+      <c r="A70" s="9"/>
+      <c r="B70" s="9"/>
       <c r="C70" t="s">
         <v>101</v>
       </c>
@@ -2295,8 +2329,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="8"/>
-      <c r="B71" s="8"/>
+      <c r="A71" s="9"/>
+      <c r="B71" s="9"/>
       <c r="C71" t="s">
         <v>102</v>
       </c>
@@ -2305,8 +2339,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="8"/>
-      <c r="B72" s="8" t="s">
+      <c r="A72" s="9"/>
+      <c r="B72" s="9" t="s">
         <v>104</v>
       </c>
       <c r="C72" t="s">
@@ -2317,8 +2351,8 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="8"/>
-      <c r="B73" s="8"/>
+      <c r="A73" s="9"/>
+      <c r="B73" s="9"/>
       <c r="C73" t="s">
         <v>107</v>
       </c>
@@ -2327,8 +2361,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="8"/>
-      <c r="B74" s="8"/>
+      <c r="A74" s="9"/>
+      <c r="B74" s="9"/>
       <c r="C74" t="s">
         <v>108</v>
       </c>
@@ -2337,8 +2371,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="8"/>
-      <c r="B75" s="8" t="s">
+      <c r="A75" s="9"/>
+      <c r="B75" s="9" t="s">
         <v>113</v>
       </c>
       <c r="C75" t="s">
@@ -2349,8 +2383,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="8"/>
-      <c r="B76" s="8"/>
+      <c r="A76" s="9"/>
+      <c r="B76" s="9"/>
       <c r="C76" t="s">
         <v>111</v>
       </c>
@@ -2359,8 +2393,8 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="8"/>
-      <c r="B77" s="8"/>
+      <c r="A77" s="9"/>
+      <c r="B77" s="9"/>
       <c r="C77" t="s">
         <v>112</v>
       </c>
@@ -2369,8 +2403,8 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="8"/>
-      <c r="B78" s="8" t="s">
+      <c r="A78" s="9"/>
+      <c r="B78" s="9" t="s">
         <v>128</v>
       </c>
       <c r="C78" t="s">
@@ -2381,8 +2415,8 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="8"/>
-      <c r="B79" s="8"/>
+      <c r="A79" s="9"/>
+      <c r="B79" s="9"/>
       <c r="C79" t="s">
         <v>125</v>
       </c>
@@ -2391,8 +2425,8 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="8"/>
-      <c r="B80" s="8"/>
+      <c r="A80" s="9"/>
+      <c r="B80" s="9"/>
       <c r="C80" t="s">
         <v>127</v>
       </c>
@@ -2401,7 +2435,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="8"/>
+      <c r="A81" s="9"/>
       <c r="C81" t="s">
         <v>114</v>
       </c>
@@ -2410,8 +2444,8 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="8"/>
-      <c r="B82" s="8" t="s">
+      <c r="A82" s="9"/>
+      <c r="B82" s="9" t="s">
         <v>121</v>
       </c>
       <c r="C82" t="s">
@@ -2422,8 +2456,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="8"/>
-      <c r="B83" s="8"/>
+      <c r="A83" s="9"/>
+      <c r="B83" s="9"/>
       <c r="C83" t="s">
         <v>117</v>
       </c>
@@ -2432,8 +2466,8 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="8"/>
-      <c r="B84" s="8"/>
+      <c r="A84" s="9"/>
+      <c r="B84" s="9"/>
       <c r="C84" t="s">
         <v>118</v>
       </c>
@@ -2442,8 +2476,8 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="8"/>
-      <c r="B85" s="8"/>
+      <c r="A85" s="9"/>
+      <c r="B85" s="9"/>
       <c r="C85" t="s">
         <v>119</v>
       </c>
@@ -2452,7 +2486,10 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="8"/>
+      <c r="A86" s="9"/>
+      <c r="B86" s="9" t="s">
+        <v>296</v>
+      </c>
       <c r="C86" t="s">
         <v>122</v>
       </c>
@@ -2461,7 +2498,8 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="8"/>
+      <c r="A87" s="9"/>
+      <c r="B87" s="9"/>
       <c r="C87" t="s">
         <v>123</v>
       </c>
@@ -2470,1047 +2508,1081 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="8" t="s">
+      <c r="A88" s="9"/>
+      <c r="B88" s="9"/>
+      <c r="C88" t="s">
+        <v>293</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="9"/>
+      <c r="B89" s="9"/>
+      <c r="C89" t="s">
+        <v>294</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C90" t="s">
         <v>130</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D90" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="8"/>
-      <c r="C89" t="s">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="9"/>
+      <c r="C91" t="s">
         <v>131</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D91" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="8"/>
-      <c r="C90" t="s">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="9"/>
+      <c r="C92" t="s">
         <v>133</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="8"/>
-      <c r="C91" t="s">
-        <v>134</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="8"/>
-      <c r="C92" t="s">
-        <v>135</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="8"/>
-      <c r="B93" s="6"/>
+      <c r="A93" s="9"/>
       <c r="C93" t="s">
+        <v>134</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="9"/>
+      <c r="C94" t="s">
+        <v>135</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="9"/>
+      <c r="B95" s="6"/>
+      <c r="C95" t="s">
         <v>273</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D95" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="8" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="B94" s="8" t="s">
+      <c r="B96" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C96" t="s">
         <v>149</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D96" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="8"/>
-      <c r="B95" s="8"/>
-      <c r="C95" t="s">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="9"/>
+      <c r="B97" s="9"/>
+      <c r="C97" t="s">
         <v>150</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D97" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="8"/>
-      <c r="B96" s="8"/>
-      <c r="C96" t="s">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="9"/>
+      <c r="B98" s="9"/>
+      <c r="C98" t="s">
         <v>151</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D98" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="8"/>
-      <c r="B97" s="8"/>
-      <c r="C97" t="s">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="9"/>
+      <c r="B99" s="9"/>
+      <c r="C99" t="s">
         <v>274</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D99" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="8"/>
-      <c r="B98" s="8"/>
-      <c r="C98" t="s">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="9"/>
+      <c r="B100" s="9"/>
+      <c r="C100" t="s">
         <v>275</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D100" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="8"/>
-      <c r="B99" s="8" t="s">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="9"/>
+      <c r="B101" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C101" t="s">
         <v>144</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="8"/>
-      <c r="B100" s="8"/>
-      <c r="C100" t="s">
-        <v>145</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="8"/>
-      <c r="B101" s="8"/>
-      <c r="C101" t="s">
-        <v>146</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="8"/>
-      <c r="B102" s="8"/>
+      <c r="A102" s="9"/>
+      <c r="B102" s="9"/>
       <c r="C102" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="8" t="s">
+      <c r="A103" s="9"/>
+      <c r="B103" s="9"/>
+      <c r="C103" t="s">
+        <v>146</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="9"/>
+      <c r="B104" s="9"/>
+      <c r="C104" t="s">
+        <v>147</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C105" t="s">
         <v>155</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D105" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="8"/>
-      <c r="C104" t="s">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="10"/>
+      <c r="C106" t="s">
         <v>156</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D106" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="8"/>
-      <c r="C105" t="s">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="10"/>
+      <c r="C107" t="s">
         <v>158</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D107" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="8"/>
-      <c r="B106" s="8" t="s">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="10"/>
+      <c r="B108" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C108" t="s">
         <v>163</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="D108" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="8"/>
-      <c r="B107" s="8"/>
-      <c r="C107" t="s">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="10"/>
+      <c r="B109" s="9"/>
+      <c r="C109" t="s">
         <v>164</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D109" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="8"/>
-      <c r="B108" s="8"/>
-      <c r="C108" t="s">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="10"/>
+      <c r="B110" s="9"/>
+      <c r="C110" t="s">
         <v>166</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="8"/>
-      <c r="B109" s="8"/>
-      <c r="C109" t="s">
-        <v>167</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="8"/>
-      <c r="B110" s="8"/>
-      <c r="C110" t="s">
-        <v>168</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="8"/>
-      <c r="B111" s="8"/>
+      <c r="A111" s="10"/>
+      <c r="B111" s="9"/>
       <c r="C111" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="8"/>
-      <c r="B112" s="8"/>
+      <c r="A112" s="10"/>
+      <c r="B112" s="9"/>
       <c r="C112" t="s">
+        <v>168</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="10"/>
+      <c r="B113" s="9"/>
+      <c r="C113" t="s">
+        <v>169</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="10"/>
+      <c r="B114" s="9"/>
+      <c r="C114" t="s">
         <v>171</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="D114" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="8"/>
-      <c r="B113" s="8"/>
-      <c r="C113" t="s">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="10"/>
+      <c r="B115" s="9"/>
+      <c r="C115" t="s">
         <v>193</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="D115" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="8"/>
-      <c r="B114" s="2" t="s">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="10"/>
+      <c r="B116" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C116" t="s">
         <v>170</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="D116" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="8"/>
-      <c r="B115" s="8" t="s">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="10"/>
+      <c r="B117" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C117" t="s">
         <v>174</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="D117" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="8"/>
-      <c r="B116" s="8"/>
-      <c r="C116" t="s">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="10"/>
+      <c r="B118" s="9"/>
+      <c r="C118" t="s">
         <v>175</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="8"/>
-      <c r="B117" s="8"/>
-      <c r="C117" t="s">
-        <v>160</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="8"/>
-      <c r="C118" t="s">
-        <v>177</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="8"/>
+      <c r="A119" s="10"/>
+      <c r="B119" s="9"/>
       <c r="C119" t="s">
+        <v>160</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="10"/>
+      <c r="C120" t="s">
+        <v>177</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="10"/>
+      <c r="C121" t="s">
         <v>178</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="D121" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="8"/>
-      <c r="C120" t="s">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="10"/>
+      <c r="C122" t="s">
         <v>182</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="8"/>
-      <c r="C121" t="s">
-        <v>179</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="8"/>
-      <c r="C122" t="s">
-        <v>180</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="8"/>
+      <c r="A123" s="10"/>
       <c r="C123" t="s">
+        <v>179</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="10"/>
+      <c r="C124" t="s">
+        <v>180</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="10"/>
+      <c r="C125" t="s">
         <v>181</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="D125" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="8"/>
-      <c r="C124" t="s">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="10"/>
+      <c r="C126" t="s">
         <v>184</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="D126" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="8"/>
-      <c r="B125" s="2" t="s">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="10"/>
+      <c r="B127" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C127" t="s">
         <v>186</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="8"/>
-      <c r="C126" t="s">
-        <v>187</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="8"/>
-      <c r="C127" t="s">
-        <v>188</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="8"/>
+      <c r="A128" s="10"/>
       <c r="C128" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="8"/>
+      <c r="A129" s="10"/>
       <c r="C129" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="8"/>
-      <c r="B130" s="2" t="s">
-        <v>196</v>
-      </c>
+      <c r="A130" s="10"/>
       <c r="C130" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="8"/>
-      <c r="B131" s="8" t="s">
-        <v>199</v>
-      </c>
+      <c r="A131" s="10"/>
       <c r="C131" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="8"/>
-      <c r="B132" s="8"/>
+      <c r="A132" s="10"/>
+      <c r="B132" s="8" t="s">
+        <v>299</v>
+      </c>
       <c r="C132" t="s">
-        <v>198</v>
+        <v>297</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>194</v>
+        <v>295</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="8"/>
+      <c r="A133" s="10"/>
       <c r="B133" s="8"/>
       <c r="C133" t="s">
+        <v>298</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="10"/>
+      <c r="B134" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C134" t="s">
+        <v>192</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="10"/>
+      <c r="B135" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C135" t="s">
+        <v>197</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="10"/>
+      <c r="B136" s="9"/>
+      <c r="C136" t="s">
+        <v>198</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="10"/>
+      <c r="B137" s="9"/>
+      <c r="C137" t="s">
         <v>200</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="8"/>
-      <c r="B134" s="8"/>
-      <c r="C134" t="s">
-        <v>201</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="8"/>
-      <c r="B135" s="8"/>
-      <c r="C135" t="s">
-        <v>202</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="8"/>
-      <c r="B136" s="8"/>
-      <c r="C136" t="s">
-        <v>203</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="8"/>
-      <c r="B137" s="8"/>
-      <c r="C137" t="s">
-        <v>204</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="8" t="s">
+      <c r="A138" s="10"/>
+      <c r="B138" s="9"/>
+      <c r="C138" t="s">
+        <v>201</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="10"/>
+      <c r="B139" s="9"/>
+      <c r="C139" t="s">
+        <v>202</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="10"/>
+      <c r="B140" s="9"/>
+      <c r="C140" t="s">
+        <v>203</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="10"/>
+      <c r="B141" s="9"/>
+      <c r="C141" t="s">
+        <v>204</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="B138" s="8" t="s">
+      <c r="B142" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C142" t="s">
         <v>208</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="D142" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="8"/>
-      <c r="B139" s="8"/>
-      <c r="C139" t="s">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="9"/>
+      <c r="B143" s="9"/>
+      <c r="C143" t="s">
         <v>210</v>
       </c>
-      <c r="D139" s="1" t="s">
+      <c r="D143" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="8"/>
-      <c r="B140" s="8"/>
-      <c r="C140" t="s">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="9"/>
+      <c r="B144" s="9"/>
+      <c r="C144" t="s">
         <v>212</v>
       </c>
-      <c r="D140" s="1" t="s">
+      <c r="D144" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="8"/>
-      <c r="B141" s="8"/>
-      <c r="C141" t="s">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="9"/>
+      <c r="B145" s="9"/>
+      <c r="C145" t="s">
         <v>213</v>
       </c>
-      <c r="D141" s="1" t="s">
+      <c r="D145" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="8"/>
-      <c r="B142" s="8"/>
-      <c r="C142" t="s">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="9"/>
+      <c r="B146" s="9"/>
+      <c r="C146" t="s">
         <v>214</v>
       </c>
-      <c r="D142" s="1" t="s">
+      <c r="D146" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="8"/>
-      <c r="B143" s="8"/>
-      <c r="C143" t="s">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="9"/>
+      <c r="B147" s="9"/>
+      <c r="C147" t="s">
         <v>216</v>
       </c>
-      <c r="D143" s="1" t="s">
+      <c r="D147" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="8"/>
-      <c r="B144" s="8"/>
-      <c r="C144" t="s">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="9"/>
+      <c r="B148" s="9"/>
+      <c r="C148" t="s">
         <v>219</v>
       </c>
-      <c r="D144" s="1" t="s">
+      <c r="D148" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="8"/>
-      <c r="B145" s="8"/>
-      <c r="C145" t="s">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="9"/>
+      <c r="B149" s="9"/>
+      <c r="C149" t="s">
         <v>282</v>
       </c>
-      <c r="D145" s="1" t="s">
+      <c r="D149" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="8"/>
-      <c r="B146" s="8"/>
-      <c r="C146" t="s">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="9"/>
+      <c r="B150" s="9"/>
+      <c r="C150" t="s">
         <v>283</v>
       </c>
-      <c r="D146" s="1" t="s">
+      <c r="D150" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="8"/>
-      <c r="B147" s="8"/>
-      <c r="C147" t="s">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="9"/>
+      <c r="B151" s="9"/>
+      <c r="C151" t="s">
         <v>284</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="D151" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="8"/>
-      <c r="B148" s="8"/>
-      <c r="C148" t="s">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="9"/>
+      <c r="B152" s="9"/>
+      <c r="C152" t="s">
         <v>285</v>
       </c>
-      <c r="D148" s="1" t="s">
+      <c r="D152" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="8"/>
-      <c r="B149" s="8"/>
-      <c r="C149" t="s">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="9"/>
+      <c r="B153" s="9"/>
+      <c r="C153" t="s">
         <v>286</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="8"/>
-      <c r="B150" s="8"/>
-      <c r="C150" t="s">
-        <v>287</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="8"/>
-      <c r="B151" s="8"/>
-      <c r="C151" t="s">
-        <v>288</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="8"/>
-      <c r="B152" s="8"/>
-      <c r="C152" t="s">
-        <v>289</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="8"/>
-      <c r="B153" s="8"/>
-      <c r="C153" t="s">
-        <v>290</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="8"/>
-      <c r="B154" s="8"/>
+      <c r="A154" s="9"/>
+      <c r="B154" s="9"/>
       <c r="C154" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="8"/>
-      <c r="B155" s="8" t="s">
+      <c r="A155" s="9"/>
+      <c r="B155" s="9"/>
+      <c r="C155" t="s">
+        <v>288</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="9"/>
+      <c r="B156" s="9"/>
+      <c r="C156" t="s">
+        <v>289</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="9"/>
+      <c r="B157" s="9"/>
+      <c r="C157" t="s">
+        <v>290</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="9"/>
+      <c r="B158" s="9"/>
+      <c r="C158" t="s">
+        <v>291</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="9"/>
+      <c r="B159" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C159" t="s">
         <v>221</v>
       </c>
-      <c r="D155" s="1" t="s">
+      <c r="D159" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="8"/>
-      <c r="B156" s="8"/>
-      <c r="C156" t="s">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="9"/>
+      <c r="B160" s="9"/>
+      <c r="C160" t="s">
         <v>222</v>
       </c>
-      <c r="D156" s="1" t="s">
+      <c r="D160" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="8"/>
-      <c r="B157" s="8"/>
-      <c r="C157" t="s">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="9"/>
+      <c r="B161" s="9"/>
+      <c r="C161" t="s">
         <v>224</v>
       </c>
-      <c r="D157" s="1" t="s">
+      <c r="D161" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="3" t="s">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C162" t="s">
         <v>218</v>
       </c>
-      <c r="D158" s="1" t="s">
+      <c r="D162" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="8" t="s">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="B159" s="8" t="s">
+      <c r="B163" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C163" t="s">
         <v>227</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="8"/>
-      <c r="B160" s="8"/>
-      <c r="C160" t="s">
-        <v>229</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="8"/>
-      <c r="B161" s="8"/>
-      <c r="C161" t="s">
-        <v>230</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="8"/>
-      <c r="B162" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="C162" t="s">
-        <v>232</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="8"/>
-      <c r="B163" s="8"/>
-      <c r="C163" t="s">
-        <v>233</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="8"/>
-      <c r="B164" s="2" t="s">
-        <v>236</v>
-      </c>
+      <c r="A164" s="9"/>
+      <c r="B164" s="9"/>
       <c r="C164" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="8"/>
+      <c r="A165" s="9"/>
+      <c r="B165" s="9"/>
       <c r="C165" t="s">
+        <v>230</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="9"/>
+      <c r="B166" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C166" t="s">
+        <v>232</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="9"/>
+      <c r="B167" s="9"/>
+      <c r="C167" t="s">
+        <v>233</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="9"/>
+      <c r="B168" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C168" t="s">
+        <v>235</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="9"/>
+      <c r="C169" t="s">
         <v>240</v>
       </c>
-      <c r="D165" s="1" t="s">
+      <c r="D169" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="8"/>
-      <c r="C166" t="s">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="9"/>
+      <c r="C170" t="s">
         <v>238</v>
       </c>
-      <c r="D166" s="1" t="s">
+      <c r="D170" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="8"/>
-      <c r="C167" t="s">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="9"/>
+      <c r="C171" t="s">
         <v>239</v>
       </c>
-      <c r="D167" s="1" t="s">
+      <c r="D171" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="8"/>
-      <c r="B168" s="8" t="s">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="9"/>
+      <c r="B172" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C172" t="s">
         <v>241</v>
       </c>
-      <c r="D168" s="1" t="s">
+      <c r="D172" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="8"/>
-      <c r="B169" s="8"/>
-      <c r="C169" t="s">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="9"/>
+      <c r="B173" s="9"/>
+      <c r="C173" t="s">
         <v>243</v>
       </c>
-      <c r="D169" s="1" t="s">
+      <c r="D173" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="8"/>
-      <c r="B170" s="8" t="s">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="9"/>
+      <c r="B174" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C174" t="s">
         <v>245</v>
       </c>
-      <c r="D170" s="1" t="s">
+      <c r="D174" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="8"/>
-      <c r="B171" s="8"/>
-      <c r="C171" t="s">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="9"/>
+      <c r="B175" s="9"/>
+      <c r="C175" t="s">
         <v>244</v>
       </c>
-      <c r="D171" s="1" t="s">
+      <c r="D175" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="8"/>
-      <c r="B172" s="5"/>
-      <c r="C172" t="s">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="9"/>
+      <c r="B176" s="5"/>
+      <c r="C176" t="s">
         <v>266</v>
       </c>
-      <c r="D172" s="1" t="s">
+      <c r="D176" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="8"/>
-      <c r="B173" s="6"/>
-      <c r="C173" t="s">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="9"/>
+      <c r="B177" s="6"/>
+      <c r="C177" t="s">
         <v>269</v>
       </c>
-      <c r="D173" s="1" t="s">
+      <c r="D177" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="8"/>
-      <c r="B174" s="6"/>
-      <c r="C174" t="s">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="9"/>
+      <c r="B178" s="6"/>
+      <c r="C178" t="s">
         <v>270</v>
       </c>
-      <c r="D174" s="1" t="s">
+      <c r="D178" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="8"/>
-      <c r="B175" s="6"/>
-      <c r="C175" t="s">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="9"/>
+      <c r="B179" s="6"/>
+      <c r="C179" t="s">
         <v>271</v>
       </c>
-      <c r="D175" s="1" t="s">
+      <c r="D179" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="8" t="s">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C180" t="s">
         <v>249</v>
       </c>
-      <c r="D176" s="1" t="s">
+      <c r="D180" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="8"/>
-      <c r="C177" t="s">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="9"/>
+      <c r="C181" t="s">
         <v>251</v>
       </c>
-      <c r="D177" s="1" t="s">
+      <c r="D181" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="8"/>
-      <c r="B178" s="5"/>
-      <c r="C178" t="s">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="9"/>
+      <c r="B182" s="5"/>
+      <c r="C182" t="s">
         <v>265</v>
       </c>
-      <c r="D178" s="1" t="s">
+      <c r="D182" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="4" t="s">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C183" t="s">
         <v>253</v>
       </c>
-      <c r="D179" s="1" t="s">
+      <c r="D183" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="8" t="s">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C184" t="s">
         <v>256</v>
       </c>
-      <c r="D180" s="1" t="s">
+      <c r="D184" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="8"/>
-      <c r="C181" t="s">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="9"/>
+      <c r="C185" t="s">
         <v>257</v>
       </c>
-      <c r="D181" s="1" t="s">
+      <c r="D185" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="8"/>
-      <c r="C182" t="s">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="9"/>
+      <c r="C186" t="s">
         <v>258</v>
       </c>
-      <c r="D182" s="1" t="s">
+      <c r="D186" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
         <v>259</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C187" t="s">
         <v>260</v>
       </c>
-      <c r="D183" s="1" t="s">
+      <c r="D187" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
         <v>262</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C188" t="s">
         <v>263</v>
       </c>
-      <c r="D184" s="1" t="s">
+      <c r="D188" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
         <v>267</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C189" t="s">
         <v>268</v>
       </c>
-      <c r="D185" s="1" t="s">
+      <c r="D189" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C186" t="s">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C190" t="s">
         <v>276</v>
       </c>
-      <c r="D186" s="1" t="s">
+      <c r="D190" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C187" t="s">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C191" t="s">
         <v>277</v>
       </c>
-      <c r="D187" s="1" t="s">
+      <c r="D191" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C188" t="s">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C192" t="s">
         <v>278</v>
       </c>
-      <c r="D188" s="1" t="s">
+      <c r="D192" s="1" t="s">
         <v>279</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A42:A56"/>
-    <mergeCell ref="A57:A68"/>
-    <mergeCell ref="A180:A182"/>
-    <mergeCell ref="B168:B169"/>
-    <mergeCell ref="B170:B171"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="A69:A89"/>
     <mergeCell ref="B159:B161"/>
-    <mergeCell ref="B162:B163"/>
-    <mergeCell ref="B138:B154"/>
-    <mergeCell ref="A138:A157"/>
-    <mergeCell ref="A159:A175"/>
-    <mergeCell ref="A176:A178"/>
-    <mergeCell ref="A88:A93"/>
-    <mergeCell ref="A94:A102"/>
-    <mergeCell ref="B94:B98"/>
+    <mergeCell ref="B108:B115"/>
+    <mergeCell ref="B135:B141"/>
+    <mergeCell ref="B117:B119"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="B69:B71"/>
     <mergeCell ref="B5:B8"/>
@@ -3519,21 +3591,29 @@
     <mergeCell ref="A13:A41"/>
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="B47:B49"/>
-    <mergeCell ref="A69:A87"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B50:B52"/>
     <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B99:B102"/>
     <mergeCell ref="B72:B74"/>
     <mergeCell ref="B75:B77"/>
     <mergeCell ref="B82:B85"/>
+    <mergeCell ref="A42:A56"/>
+    <mergeCell ref="A57:A68"/>
+    <mergeCell ref="A184:A186"/>
+    <mergeCell ref="B172:B173"/>
+    <mergeCell ref="B174:B175"/>
+    <mergeCell ref="B163:B165"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="B142:B158"/>
+    <mergeCell ref="A142:A161"/>
+    <mergeCell ref="A163:A179"/>
+    <mergeCell ref="A180:A182"/>
+    <mergeCell ref="A90:A95"/>
+    <mergeCell ref="A96:A104"/>
+    <mergeCell ref="B96:B100"/>
+    <mergeCell ref="B101:B104"/>
     <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B155:B157"/>
-    <mergeCell ref="B106:B113"/>
-    <mergeCell ref="B131:B137"/>
-    <mergeCell ref="B115:B117"/>
-    <mergeCell ref="A103:A137"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/时间表.xlsx
+++ b/时间表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\360\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCD3288-516F-4FF4-B037-7277B475453F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAC4EFF-B7D3-47E6-A1FE-B1387D3806E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9876" yWindow="144" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12252" yWindow="252" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="306">
   <si>
     <t>第一次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1224,6 +1224,30 @@
   </si>
   <si>
     <t>股票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123买卖股票的最佳时机3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>188买卖股票的最佳时机4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>309最佳买卖股票时机含冷冻期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>714买卖股票的最佳时机含手续费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打家劫舍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1267,7 +1291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1290,12 +1314,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1577,10 +1595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F192"/>
+  <dimension ref="A1:F196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="B132" sqref="B132"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F128" sqref="F128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1612,10 +1630,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>153</v>
       </c>
       <c r="C2" t="s">
@@ -1626,8 +1644,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -1636,7 +1654,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
+      <c r="A4" s="8"/>
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -1645,8 +1663,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8" t="s">
         <v>141</v>
       </c>
       <c r="C5" t="s">
@@ -1657,8 +1675,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
       <c r="C6" t="s">
         <v>138</v>
       </c>
@@ -1667,8 +1685,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
       <c r="C7" t="s">
         <v>139</v>
       </c>
@@ -1677,8 +1695,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
       <c r="C8" t="s">
         <v>140</v>
       </c>
@@ -1687,8 +1705,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8" t="s">
         <v>152</v>
       </c>
       <c r="C9" t="s">
@@ -1699,8 +1717,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
       <c r="C10" t="s">
         <v>9</v>
       </c>
@@ -1709,8 +1727,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
       <c r="C11" t="s">
         <v>10</v>
       </c>
@@ -1719,7 +1737,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
+      <c r="A12" s="8"/>
       <c r="C12" t="s">
         <v>97</v>
       </c>
@@ -1728,10 +1746,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C13" t="s">
@@ -1742,8 +1760,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -1752,8 +1770,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
       <c r="C15" t="s">
         <v>17</v>
       </c>
@@ -1762,8 +1780,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
       <c r="C16" t="s">
         <v>18</v>
       </c>
@@ -1772,8 +1790,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
       <c r="C17" t="s">
         <v>19</v>
       </c>
@@ -1782,8 +1800,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
       <c r="C18" t="s">
         <v>20</v>
       </c>
@@ -1792,8 +1810,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
       <c r="C19" t="s">
         <v>21</v>
       </c>
@@ -1802,8 +1820,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
       <c r="C20" t="s">
         <v>22</v>
       </c>
@@ -1812,8 +1830,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
       <c r="C21" t="s">
         <v>23</v>
       </c>
@@ -1822,8 +1840,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
       <c r="C22" t="s">
         <v>24</v>
       </c>
@@ -1832,8 +1850,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -1842,8 +1860,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
       <c r="C24" t="s">
         <v>26</v>
       </c>
@@ -1852,8 +1870,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
       <c r="C25" t="s">
         <v>27</v>
       </c>
@@ -1862,8 +1880,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
       <c r="C26" t="s">
         <v>28</v>
       </c>
@@ -1872,8 +1890,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
       <c r="C27" t="s">
         <v>29</v>
       </c>
@@ -1882,8 +1900,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
       <c r="C28" t="s">
         <v>30</v>
       </c>
@@ -1892,8 +1910,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
       <c r="C29" t="s">
         <v>31</v>
       </c>
@@ -1902,8 +1920,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
       <c r="C30" t="s">
         <v>32</v>
       </c>
@@ -1912,8 +1930,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
       <c r="C31" t="s">
         <v>33</v>
       </c>
@@ -1922,8 +1940,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9" t="s">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C32" t="s">
@@ -1934,8 +1952,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
       <c r="C33" t="s">
         <v>36</v>
       </c>
@@ -1944,8 +1962,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
       <c r="C34" t="s">
         <v>37</v>
       </c>
@@ -1954,8 +1972,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
       <c r="C35" t="s">
         <v>39</v>
       </c>
@@ -1964,8 +1982,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
       <c r="C36" t="s">
         <v>40</v>
       </c>
@@ -1974,8 +1992,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
       <c r="C37" t="s">
         <v>41</v>
       </c>
@@ -1984,8 +2002,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
       <c r="C38" t="s">
         <v>42</v>
       </c>
@@ -1994,8 +2012,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
       <c r="C39" t="s">
         <v>44</v>
       </c>
@@ -2004,8 +2022,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
       <c r="C40" t="s">
         <v>45</v>
       </c>
@@ -2014,7 +2032,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="9"/>
+      <c r="A41" s="8"/>
       <c r="B41" s="2" t="s">
         <v>47</v>
       </c>
@@ -2026,7 +2044,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="8" t="s">
         <v>50</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -2040,7 +2058,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="9"/>
+      <c r="A43" s="8"/>
       <c r="B43" s="2" t="s">
         <v>74</v>
       </c>
@@ -2052,7 +2070,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="9"/>
+      <c r="A44" s="8"/>
       <c r="B44" s="2" t="s">
         <v>75</v>
       </c>
@@ -2064,8 +2082,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9" t="s">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C45" t="s">
@@ -2076,8 +2094,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
       <c r="C46" t="s">
         <v>57</v>
       </c>
@@ -2086,8 +2104,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9" t="s">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8" t="s">
         <v>77</v>
       </c>
       <c r="C47" t="s">
@@ -2098,8 +2116,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
       <c r="C48" t="s">
         <v>61</v>
       </c>
@@ -2108,8 +2126,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
       <c r="C49" t="s">
         <v>62</v>
       </c>
@@ -2118,8 +2136,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9" t="s">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8" t="s">
         <v>78</v>
       </c>
       <c r="C50" t="s">
@@ -2130,8 +2148,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9"/>
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
       <c r="C51" t="s">
         <v>65</v>
       </c>
@@ -2140,8 +2158,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="9"/>
-      <c r="B52" s="9"/>
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
       <c r="C52" t="s">
         <v>66</v>
       </c>
@@ -2150,7 +2168,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="9"/>
+      <c r="A53" s="8"/>
       <c r="B53" s="2" t="s">
         <v>79</v>
       </c>
@@ -2162,8 +2180,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9" t="s">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8" t="s">
         <v>80</v>
       </c>
       <c r="C54" t="s">
@@ -2174,8 +2192,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="9"/>
-      <c r="B55" s="9"/>
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
       <c r="C55" t="s">
         <v>70</v>
       </c>
@@ -2184,8 +2202,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="9"/>
-      <c r="B56" s="9"/>
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
       <c r="C56" t="s">
         <v>71</v>
       </c>
@@ -2194,7 +2212,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="8" t="s">
         <v>81</v>
       </c>
       <c r="C57" t="s">
@@ -2205,7 +2223,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="9"/>
+      <c r="A58" s="8"/>
       <c r="C58" t="s">
         <v>83</v>
       </c>
@@ -2214,7 +2232,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="9"/>
+      <c r="A59" s="8"/>
       <c r="C59" t="s">
         <v>84</v>
       </c>
@@ -2223,7 +2241,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="9"/>
+      <c r="A60" s="8"/>
       <c r="C60" t="s">
         <v>86</v>
       </c>
@@ -2232,7 +2250,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="9"/>
+      <c r="A61" s="8"/>
       <c r="C61" t="s">
         <v>87</v>
       </c>
@@ -2241,7 +2259,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="9"/>
+      <c r="A62" s="8"/>
       <c r="C62" t="s">
         <v>89</v>
       </c>
@@ -2250,7 +2268,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="9"/>
+      <c r="A63" s="8"/>
       <c r="C63" t="s">
         <v>90</v>
       </c>
@@ -2259,7 +2277,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="9"/>
+      <c r="A64" s="8"/>
       <c r="C64" t="s">
         <v>91</v>
       </c>
@@ -2268,7 +2286,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="9"/>
+      <c r="A65" s="8"/>
       <c r="C65" t="s">
         <v>92</v>
       </c>
@@ -2277,7 +2295,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="9"/>
+      <c r="A66" s="8"/>
       <c r="C66" t="s">
         <v>94</v>
       </c>
@@ -2286,7 +2304,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="9"/>
+      <c r="A67" s="8"/>
       <c r="C67" t="s">
         <v>95</v>
       </c>
@@ -2295,7 +2313,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="9"/>
+      <c r="A68" s="8"/>
       <c r="B68" s="7"/>
       <c r="C68" t="s">
         <v>280</v>
@@ -2305,10 +2323,10 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="9" t="s">
+      <c r="A69" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="8" t="s">
         <v>105</v>
       </c>
       <c r="C69" t="s">
@@ -2319,8 +2337,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="9"/>
-      <c r="B70" s="9"/>
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
       <c r="C70" t="s">
         <v>101</v>
       </c>
@@ -2329,8 +2347,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="9"/>
-      <c r="B71" s="9"/>
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
       <c r="C71" t="s">
         <v>102</v>
       </c>
@@ -2339,8 +2357,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="9"/>
-      <c r="B72" s="9" t="s">
+      <c r="A72" s="8"/>
+      <c r="B72" s="8" t="s">
         <v>104</v>
       </c>
       <c r="C72" t="s">
@@ -2351,8 +2369,8 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="9"/>
-      <c r="B73" s="9"/>
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
       <c r="C73" t="s">
         <v>107</v>
       </c>
@@ -2361,8 +2379,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="9"/>
-      <c r="B74" s="9"/>
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
       <c r="C74" t="s">
         <v>108</v>
       </c>
@@ -2371,8 +2389,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="9"/>
-      <c r="B75" s="9" t="s">
+      <c r="A75" s="8"/>
+      <c r="B75" s="8" t="s">
         <v>113</v>
       </c>
       <c r="C75" t="s">
@@ -2383,8 +2401,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="9"/>
-      <c r="B76" s="9"/>
+      <c r="A76" s="8"/>
+      <c r="B76" s="8"/>
       <c r="C76" t="s">
         <v>111</v>
       </c>
@@ -2393,8 +2411,8 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="9"/>
-      <c r="B77" s="9"/>
+      <c r="A77" s="8"/>
+      <c r="B77" s="8"/>
       <c r="C77" t="s">
         <v>112</v>
       </c>
@@ -2403,8 +2421,8 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="9"/>
-      <c r="B78" s="9" t="s">
+      <c r="A78" s="8"/>
+      <c r="B78" s="8" t="s">
         <v>128</v>
       </c>
       <c r="C78" t="s">
@@ -2415,8 +2433,8 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="9"/>
-      <c r="B79" s="9"/>
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
       <c r="C79" t="s">
         <v>125</v>
       </c>
@@ -2425,8 +2443,8 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="9"/>
-      <c r="B80" s="9"/>
+      <c r="A80" s="8"/>
+      <c r="B80" s="8"/>
       <c r="C80" t="s">
         <v>127</v>
       </c>
@@ -2435,7 +2453,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="9"/>
+      <c r="A81" s="8"/>
       <c r="C81" t="s">
         <v>114</v>
       </c>
@@ -2444,8 +2462,8 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="9"/>
-      <c r="B82" s="9" t="s">
+      <c r="A82" s="8"/>
+      <c r="B82" s="8" t="s">
         <v>121</v>
       </c>
       <c r="C82" t="s">
@@ -2456,8 +2474,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="9"/>
-      <c r="B83" s="9"/>
+      <c r="A83" s="8"/>
+      <c r="B83" s="8"/>
       <c r="C83" t="s">
         <v>117</v>
       </c>
@@ -2466,8 +2484,8 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="9"/>
-      <c r="B84" s="9"/>
+      <c r="A84" s="8"/>
+      <c r="B84" s="8"/>
       <c r="C84" t="s">
         <v>118</v>
       </c>
@@ -2476,8 +2494,8 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="9"/>
-      <c r="B85" s="9"/>
+      <c r="A85" s="8"/>
+      <c r="B85" s="8"/>
       <c r="C85" t="s">
         <v>119</v>
       </c>
@@ -2486,8 +2504,8 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="9"/>
-      <c r="B86" s="9" t="s">
+      <c r="A86" s="8"/>
+      <c r="B86" s="8" t="s">
         <v>296</v>
       </c>
       <c r="C86" t="s">
@@ -2498,8 +2516,8 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="9"/>
-      <c r="B87" s="9"/>
+      <c r="A87" s="8"/>
+      <c r="B87" s="8"/>
       <c r="C87" t="s">
         <v>123</v>
       </c>
@@ -2508,8 +2526,8 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="9"/>
-      <c r="B88" s="9"/>
+      <c r="A88" s="8"/>
+      <c r="B88" s="8"/>
       <c r="C88" t="s">
         <v>293</v>
       </c>
@@ -2518,8 +2536,8 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="9"/>
-      <c r="B89" s="9"/>
+      <c r="A89" s="8"/>
+      <c r="B89" s="8"/>
       <c r="C89" t="s">
         <v>294</v>
       </c>
@@ -2528,7 +2546,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="9" t="s">
+      <c r="A90" s="8" t="s">
         <v>129</v>
       </c>
       <c r="C90" t="s">
@@ -2539,7 +2557,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="9"/>
+      <c r="A91" s="8"/>
       <c r="C91" t="s">
         <v>131</v>
       </c>
@@ -2548,7 +2566,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="9"/>
+      <c r="A92" s="8"/>
       <c r="C92" t="s">
         <v>133</v>
       </c>
@@ -2557,7 +2575,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="9"/>
+      <c r="A93" s="8"/>
       <c r="C93" t="s">
         <v>134</v>
       </c>
@@ -2566,7 +2584,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="9"/>
+      <c r="A94" s="8"/>
       <c r="C94" t="s">
         <v>135</v>
       </c>
@@ -2575,7 +2593,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="9"/>
+      <c r="A95" s="8"/>
       <c r="B95" s="6"/>
       <c r="C95" t="s">
         <v>273</v>
@@ -2585,10 +2603,10 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="9" t="s">
+      <c r="A96" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="B96" s="8" t="s">
         <v>142</v>
       </c>
       <c r="C96" t="s">
@@ -2599,8 +2617,8 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="9"/>
-      <c r="B97" s="9"/>
+      <c r="A97" s="8"/>
+      <c r="B97" s="8"/>
       <c r="C97" t="s">
         <v>150</v>
       </c>
@@ -2609,8 +2627,8 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="9"/>
-      <c r="B98" s="9"/>
+      <c r="A98" s="8"/>
+      <c r="B98" s="8"/>
       <c r="C98" t="s">
         <v>151</v>
       </c>
@@ -2619,8 +2637,8 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="9"/>
-      <c r="B99" s="9"/>
+      <c r="A99" s="8"/>
+      <c r="B99" s="8"/>
       <c r="C99" t="s">
         <v>274</v>
       </c>
@@ -2629,8 +2647,8 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="9"/>
-      <c r="B100" s="9"/>
+      <c r="A100" s="8"/>
+      <c r="B100" s="8"/>
       <c r="C100" t="s">
         <v>275</v>
       </c>
@@ -2639,8 +2657,8 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="9"/>
-      <c r="B101" s="9" t="s">
+      <c r="A101" s="8"/>
+      <c r="B101" s="8" t="s">
         <v>143</v>
       </c>
       <c r="C101" t="s">
@@ -2651,8 +2669,8 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="9"/>
-      <c r="B102" s="9"/>
+      <c r="A102" s="8"/>
+      <c r="B102" s="8"/>
       <c r="C102" t="s">
         <v>145</v>
       </c>
@@ -2661,8 +2679,8 @@
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="9"/>
-      <c r="B103" s="9"/>
+      <c r="A103" s="8"/>
+      <c r="B103" s="8"/>
       <c r="C103" t="s">
         <v>146</v>
       </c>
@@ -2671,8 +2689,8 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="9"/>
-      <c r="B104" s="9"/>
+      <c r="A104" s="8"/>
+      <c r="B104" s="8"/>
       <c r="C104" t="s">
         <v>147</v>
       </c>
@@ -2681,7 +2699,7 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="10" t="s">
+      <c r="A105" s="8" t="s">
         <v>154</v>
       </c>
       <c r="C105" t="s">
@@ -2692,7 +2710,7 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="10"/>
+      <c r="A106" s="8"/>
       <c r="C106" t="s">
         <v>156</v>
       </c>
@@ -2701,7 +2719,7 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="10"/>
+      <c r="A107" s="8"/>
       <c r="C107" t="s">
         <v>158</v>
       </c>
@@ -2710,8 +2728,8 @@
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="10"/>
-      <c r="B108" s="9" t="s">
+      <c r="A108" s="8"/>
+      <c r="B108" s="8" t="s">
         <v>162</v>
       </c>
       <c r="C108" t="s">
@@ -2722,8 +2740,8 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="10"/>
-      <c r="B109" s="9"/>
+      <c r="A109" s="8"/>
+      <c r="B109" s="8"/>
       <c r="C109" t="s">
         <v>164</v>
       </c>
@@ -2732,8 +2750,8 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="10"/>
-      <c r="B110" s="9"/>
+      <c r="A110" s="8"/>
+      <c r="B110" s="8"/>
       <c r="C110" t="s">
         <v>166</v>
       </c>
@@ -2742,8 +2760,8 @@
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="10"/>
-      <c r="B111" s="9"/>
+      <c r="A111" s="8"/>
+      <c r="B111" s="8"/>
       <c r="C111" t="s">
         <v>167</v>
       </c>
@@ -2752,8 +2770,8 @@
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="10"/>
-      <c r="B112" s="9"/>
+      <c r="A112" s="8"/>
+      <c r="B112" s="8"/>
       <c r="C112" t="s">
         <v>168</v>
       </c>
@@ -2762,8 +2780,8 @@
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="10"/>
-      <c r="B113" s="9"/>
+      <c r="A113" s="8"/>
+      <c r="B113" s="8"/>
       <c r="C113" t="s">
         <v>169</v>
       </c>
@@ -2772,8 +2790,8 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="10"/>
-      <c r="B114" s="9"/>
+      <c r="A114" s="8"/>
+      <c r="B114" s="8"/>
       <c r="C114" t="s">
         <v>171</v>
       </c>
@@ -2782,8 +2800,8 @@
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="10"/>
-      <c r="B115" s="9"/>
+      <c r="A115" s="8"/>
+      <c r="B115" s="8"/>
       <c r="C115" t="s">
         <v>193</v>
       </c>
@@ -2792,7 +2810,7 @@
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="10"/>
+      <c r="A116" s="8"/>
       <c r="B116" s="2" t="s">
         <v>195</v>
       </c>
@@ -2804,8 +2822,8 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="10"/>
-      <c r="B117" s="9" t="s">
+      <c r="A117" s="8"/>
+      <c r="B117" s="8" t="s">
         <v>173</v>
       </c>
       <c r="C117" t="s">
@@ -2816,8 +2834,8 @@
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="10"/>
-      <c r="B118" s="9"/>
+      <c r="A118" s="8"/>
+      <c r="B118" s="8"/>
       <c r="C118" t="s">
         <v>175</v>
       </c>
@@ -2826,8 +2844,8 @@
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="10"/>
-      <c r="B119" s="9"/>
+      <c r="A119" s="8"/>
+      <c r="B119" s="8"/>
       <c r="C119" t="s">
         <v>160</v>
       </c>
@@ -2836,7 +2854,7 @@
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="10"/>
+      <c r="A120" s="8"/>
       <c r="C120" t="s">
         <v>177</v>
       </c>
@@ -2845,7 +2863,7 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="10"/>
+      <c r="A121" s="8"/>
       <c r="C121" t="s">
         <v>178</v>
       </c>
@@ -2854,7 +2872,7 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="10"/>
+      <c r="A122" s="8"/>
       <c r="C122" t="s">
         <v>182</v>
       </c>
@@ -2863,7 +2881,7 @@
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="10"/>
+      <c r="A123" s="8"/>
       <c r="C123" t="s">
         <v>179</v>
       </c>
@@ -2872,7 +2890,7 @@
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="10"/>
+      <c r="A124" s="8"/>
       <c r="C124" t="s">
         <v>180</v>
       </c>
@@ -2881,7 +2899,7 @@
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="10"/>
+      <c r="A125" s="8"/>
       <c r="C125" t="s">
         <v>181</v>
       </c>
@@ -2890,7 +2908,7 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="10"/>
+      <c r="A126" s="8"/>
       <c r="C126" t="s">
         <v>184</v>
       </c>
@@ -2899,7 +2917,7 @@
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="10"/>
+      <c r="A127" s="8"/>
       <c r="B127" s="2" t="s">
         <v>247</v>
       </c>
@@ -2911,7 +2929,7 @@
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="10"/>
+      <c r="A128" s="8"/>
       <c r="C128" t="s">
         <v>187</v>
       </c>
@@ -2920,7 +2938,10 @@
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="10"/>
+      <c r="A129" s="8"/>
+      <c r="B129" s="8" t="s">
+        <v>305</v>
+      </c>
       <c r="C129" t="s">
         <v>188</v>
       </c>
@@ -2929,7 +2950,8 @@
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="10"/>
+      <c r="A130" s="8"/>
+      <c r="B130" s="8"/>
       <c r="C130" t="s">
         <v>189</v>
       </c>
@@ -2938,7 +2960,8 @@
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="10"/>
+      <c r="A131" s="8"/>
+      <c r="B131" s="8"/>
       <c r="C131" t="s">
         <v>190</v>
       </c>
@@ -2947,7 +2970,7 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="10"/>
+      <c r="A132" s="8"/>
       <c r="B132" s="8" t="s">
         <v>299</v>
       </c>
@@ -2959,7 +2982,7 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="10"/>
+      <c r="A133" s="8"/>
       <c r="B133" s="8"/>
       <c r="C133" t="s">
         <v>298</v>
@@ -2968,621 +2991,665 @@
         <v>295</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="10"/>
-      <c r="B134" s="2" t="s">
+    <row r="134" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="8"/>
+      <c r="B134" s="8"/>
+      <c r="C134" t="s">
+        <v>300</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="8"/>
+      <c r="B135" s="8"/>
+      <c r="C135" t="s">
+        <v>301</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="8"/>
+      <c r="B136" s="8"/>
+      <c r="C136" t="s">
+        <v>302</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="8"/>
+      <c r="B137" s="8"/>
+      <c r="C137" t="s">
+        <v>303</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="8"/>
+      <c r="B138" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C138" t="s">
         <v>192</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="D138" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="10"/>
-      <c r="B135" s="9" t="s">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="8"/>
+      <c r="B139" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C139" t="s">
         <v>197</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="D139" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="10"/>
-      <c r="B136" s="9"/>
-      <c r="C136" t="s">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="8"/>
+      <c r="B140" s="8"/>
+      <c r="C140" t="s">
         <v>198</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="D140" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="10"/>
-      <c r="B137" s="9"/>
-      <c r="C137" t="s">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="8"/>
+      <c r="B141" s="8"/>
+      <c r="C141" t="s">
         <v>200</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="10"/>
-      <c r="B138" s="9"/>
-      <c r="C138" t="s">
-        <v>201</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="10"/>
-      <c r="B139" s="9"/>
-      <c r="C139" t="s">
-        <v>202</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="10"/>
-      <c r="B140" s="9"/>
-      <c r="C140" t="s">
-        <v>203</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="10"/>
-      <c r="B141" s="9"/>
-      <c r="C141" t="s">
-        <v>204</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="9" t="s">
+      <c r="A142" s="8"/>
+      <c r="B142" s="8"/>
+      <c r="C142" t="s">
+        <v>201</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="8"/>
+      <c r="B143" s="8"/>
+      <c r="C143" t="s">
+        <v>202</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="8"/>
+      <c r="B144" s="8"/>
+      <c r="C144" t="s">
+        <v>203</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="8"/>
+      <c r="B145" s="8"/>
+      <c r="C145" t="s">
+        <v>204</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="B142" s="9" t="s">
+      <c r="B146" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C146" t="s">
         <v>208</v>
       </c>
-      <c r="D142" s="1" t="s">
+      <c r="D146" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="9"/>
-      <c r="B143" s="9"/>
-      <c r="C143" t="s">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="8"/>
+      <c r="B147" s="8"/>
+      <c r="C147" t="s">
         <v>210</v>
       </c>
-      <c r="D143" s="1" t="s">
+      <c r="D147" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="9"/>
-      <c r="B144" s="9"/>
-      <c r="C144" t="s">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="8"/>
+      <c r="B148" s="8"/>
+      <c r="C148" t="s">
         <v>212</v>
       </c>
-      <c r="D144" s="1" t="s">
+      <c r="D148" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="9"/>
-      <c r="B145" s="9"/>
-      <c r="C145" t="s">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="8"/>
+      <c r="B149" s="8"/>
+      <c r="C149" t="s">
         <v>213</v>
       </c>
-      <c r="D145" s="1" t="s">
+      <c r="D149" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="9"/>
-      <c r="B146" s="9"/>
-      <c r="C146" t="s">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="8"/>
+      <c r="B150" s="8"/>
+      <c r="C150" t="s">
         <v>214</v>
       </c>
-      <c r="D146" s="1" t="s">
+      <c r="D150" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="9"/>
-      <c r="B147" s="9"/>
-      <c r="C147" t="s">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="8"/>
+      <c r="B151" s="8"/>
+      <c r="C151" t="s">
         <v>216</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="D151" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="9"/>
-      <c r="B148" s="9"/>
-      <c r="C148" t="s">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="8"/>
+      <c r="B152" s="8"/>
+      <c r="C152" t="s">
         <v>219</v>
       </c>
-      <c r="D148" s="1" t="s">
+      <c r="D152" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="9"/>
-      <c r="B149" s="9"/>
-      <c r="C149" t="s">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="8"/>
+      <c r="B153" s="8"/>
+      <c r="C153" t="s">
         <v>282</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="D153" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="9"/>
-      <c r="B150" s="9"/>
-      <c r="C150" t="s">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="8"/>
+      <c r="B154" s="8"/>
+      <c r="C154" t="s">
         <v>283</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="D154" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="9"/>
-      <c r="B151" s="9"/>
-      <c r="C151" t="s">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="8"/>
+      <c r="B155" s="8"/>
+      <c r="C155" t="s">
         <v>284</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="D155" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="9"/>
-      <c r="B152" s="9"/>
-      <c r="C152" t="s">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="8"/>
+      <c r="B156" s="8"/>
+      <c r="C156" t="s">
         <v>285</v>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="D156" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="9"/>
-      <c r="B153" s="9"/>
-      <c r="C153" t="s">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="8"/>
+      <c r="B157" s="8"/>
+      <c r="C157" t="s">
         <v>286</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="9"/>
-      <c r="B154" s="9"/>
-      <c r="C154" t="s">
-        <v>287</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="9"/>
-      <c r="B155" s="9"/>
-      <c r="C155" t="s">
-        <v>288</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="9"/>
-      <c r="B156" s="9"/>
-      <c r="C156" t="s">
-        <v>289</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="9"/>
-      <c r="B157" s="9"/>
-      <c r="C157" t="s">
-        <v>290</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="9"/>
-      <c r="B158" s="9"/>
+      <c r="A158" s="8"/>
+      <c r="B158" s="8"/>
       <c r="C158" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="9"/>
-      <c r="B159" s="9" t="s">
+      <c r="A159" s="8"/>
+      <c r="B159" s="8"/>
+      <c r="C159" t="s">
+        <v>288</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="8"/>
+      <c r="B160" s="8"/>
+      <c r="C160" t="s">
+        <v>289</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="8"/>
+      <c r="B161" s="8"/>
+      <c r="C161" t="s">
+        <v>290</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="8"/>
+      <c r="B162" s="8"/>
+      <c r="C162" t="s">
+        <v>291</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="8"/>
+      <c r="B163" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C163" t="s">
         <v>221</v>
       </c>
-      <c r="D159" s="1" t="s">
+      <c r="D163" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="9"/>
-      <c r="B160" s="9"/>
-      <c r="C160" t="s">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="8"/>
+      <c r="B164" s="8"/>
+      <c r="C164" t="s">
         <v>222</v>
       </c>
-      <c r="D160" s="1" t="s">
+      <c r="D164" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="9"/>
-      <c r="B161" s="9"/>
-      <c r="C161" t="s">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="8"/>
+      <c r="B165" s="8"/>
+      <c r="C165" t="s">
         <v>224</v>
       </c>
-      <c r="D161" s="1" t="s">
+      <c r="D165" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="3" t="s">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C166" t="s">
         <v>218</v>
       </c>
-      <c r="D162" s="1" t="s">
+      <c r="D166" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="9" t="s">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="B163" s="9" t="s">
+      <c r="B167" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C167" t="s">
         <v>227</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="9"/>
-      <c r="B164" s="9"/>
-      <c r="C164" t="s">
-        <v>229</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="9"/>
-      <c r="B165" s="9"/>
-      <c r="C165" t="s">
-        <v>230</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="9"/>
-      <c r="B166" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C166" t="s">
-        <v>232</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="9"/>
-      <c r="B167" s="9"/>
-      <c r="C167" t="s">
-        <v>233</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="9"/>
-      <c r="B168" s="2" t="s">
-        <v>236</v>
-      </c>
+      <c r="A168" s="8"/>
+      <c r="B168" s="8"/>
       <c r="C168" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="9"/>
+      <c r="A169" s="8"/>
+      <c r="B169" s="8"/>
       <c r="C169" t="s">
+        <v>230</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="8"/>
+      <c r="B170" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C170" t="s">
+        <v>232</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="8"/>
+      <c r="B171" s="8"/>
+      <c r="C171" t="s">
+        <v>233</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="8"/>
+      <c r="B172" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C172" t="s">
+        <v>235</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="8"/>
+      <c r="C173" t="s">
         <v>240</v>
       </c>
-      <c r="D169" s="1" t="s">
+      <c r="D173" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="9"/>
-      <c r="C170" t="s">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="8"/>
+      <c r="C174" t="s">
         <v>238</v>
       </c>
-      <c r="D170" s="1" t="s">
+      <c r="D174" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="9"/>
-      <c r="C171" t="s">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="8"/>
+      <c r="C175" t="s">
         <v>239</v>
       </c>
-      <c r="D171" s="1" t="s">
+      <c r="D175" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="9"/>
-      <c r="B172" s="9" t="s">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="8"/>
+      <c r="B176" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C176" t="s">
         <v>241</v>
       </c>
-      <c r="D172" s="1" t="s">
+      <c r="D176" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="9"/>
-      <c r="B173" s="9"/>
-      <c r="C173" t="s">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="8"/>
+      <c r="B177" s="8"/>
+      <c r="C177" t="s">
         <v>243</v>
       </c>
-      <c r="D173" s="1" t="s">
+      <c r="D177" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="9"/>
-      <c r="B174" s="9" t="s">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="8"/>
+      <c r="B178" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C178" t="s">
         <v>245</v>
       </c>
-      <c r="D174" s="1" t="s">
+      <c r="D178" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="9"/>
-      <c r="B175" s="9"/>
-      <c r="C175" t="s">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="8"/>
+      <c r="B179" s="8"/>
+      <c r="C179" t="s">
         <v>244</v>
       </c>
-      <c r="D175" s="1" t="s">
+      <c r="D179" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="9"/>
-      <c r="B176" s="5"/>
-      <c r="C176" t="s">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="8"/>
+      <c r="B180" s="5"/>
+      <c r="C180" t="s">
         <v>266</v>
       </c>
-      <c r="D176" s="1" t="s">
+      <c r="D180" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="9"/>
-      <c r="B177" s="6"/>
-      <c r="C177" t="s">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="8"/>
+      <c r="B181" s="6"/>
+      <c r="C181" t="s">
         <v>269</v>
       </c>
-      <c r="D177" s="1" t="s">
+      <c r="D181" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="9"/>
-      <c r="B178" s="6"/>
-      <c r="C178" t="s">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="8"/>
+      <c r="B182" s="6"/>
+      <c r="C182" t="s">
         <v>270</v>
       </c>
-      <c r="D178" s="1" t="s">
+      <c r="D182" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="9"/>
-      <c r="B179" s="6"/>
-      <c r="C179" t="s">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="8"/>
+      <c r="B183" s="6"/>
+      <c r="C183" t="s">
         <v>271</v>
       </c>
-      <c r="D179" s="1" t="s">
+      <c r="D183" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="9" t="s">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C184" t="s">
         <v>249</v>
       </c>
-      <c r="D180" s="1" t="s">
+      <c r="D184" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="9"/>
-      <c r="C181" t="s">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="8"/>
+      <c r="C185" t="s">
         <v>251</v>
       </c>
-      <c r="D181" s="1" t="s">
+      <c r="D185" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="9"/>
-      <c r="B182" s="5"/>
-      <c r="C182" t="s">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="8"/>
+      <c r="B186" s="5"/>
+      <c r="C186" t="s">
         <v>265</v>
       </c>
-      <c r="D182" s="1" t="s">
+      <c r="D186" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="4" t="s">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C187" t="s">
         <v>253</v>
       </c>
-      <c r="D183" s="1" t="s">
+      <c r="D187" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="9" t="s">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C188" t="s">
         <v>256</v>
       </c>
-      <c r="D184" s="1" t="s">
+      <c r="D188" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="9"/>
-      <c r="C185" t="s">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="8"/>
+      <c r="C189" t="s">
         <v>257</v>
       </c>
-      <c r="D185" s="1" t="s">
+      <c r="D189" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="9"/>
-      <c r="C186" t="s">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="8"/>
+      <c r="C190" t="s">
         <v>258</v>
       </c>
-      <c r="D186" s="1" t="s">
+      <c r="D190" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
         <v>259</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C191" t="s">
         <v>260</v>
       </c>
-      <c r="D187" s="1" t="s">
+      <c r="D191" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
         <v>262</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C192" t="s">
         <v>263</v>
       </c>
-      <c r="D188" s="1" t="s">
+      <c r="D192" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
         <v>267</v>
       </c>
-      <c r="C189" t="s">
+      <c r="C193" t="s">
         <v>268</v>
       </c>
-      <c r="D189" s="1" t="s">
+      <c r="D193" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C190" t="s">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C194" t="s">
         <v>276</v>
       </c>
-      <c r="D190" s="1" t="s">
+      <c r="D194" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C191" t="s">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C195" t="s">
         <v>277</v>
       </c>
-      <c r="D191" s="1" t="s">
+      <c r="D195" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C192" t="s">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C196" t="s">
         <v>278</v>
       </c>
-      <c r="D192" s="1" t="s">
+      <c r="D196" s="1" t="s">
         <v>279</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="A69:A89"/>
-    <mergeCell ref="B159:B161"/>
-    <mergeCell ref="B108:B115"/>
-    <mergeCell ref="B135:B141"/>
-    <mergeCell ref="B117:B119"/>
+  <mergeCells count="40">
+    <mergeCell ref="B132:B137"/>
+    <mergeCell ref="A105:A145"/>
+    <mergeCell ref="B129:B131"/>
+    <mergeCell ref="A188:A190"/>
+    <mergeCell ref="B176:B177"/>
+    <mergeCell ref="B178:B179"/>
+    <mergeCell ref="B167:B169"/>
+    <mergeCell ref="B170:B171"/>
+    <mergeCell ref="A167:A183"/>
+    <mergeCell ref="A184:A186"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="B69:B71"/>
     <mergeCell ref="B5:B8"/>
@@ -3595,20 +3662,19 @@
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B50:B52"/>
     <mergeCell ref="B54:B56"/>
+    <mergeCell ref="A42:A56"/>
+    <mergeCell ref="A57:A68"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="A69:A89"/>
+    <mergeCell ref="B163:B165"/>
+    <mergeCell ref="B108:B115"/>
+    <mergeCell ref="B139:B145"/>
+    <mergeCell ref="B117:B119"/>
     <mergeCell ref="B72:B74"/>
     <mergeCell ref="B75:B77"/>
     <mergeCell ref="B82:B85"/>
-    <mergeCell ref="A42:A56"/>
-    <mergeCell ref="A57:A68"/>
-    <mergeCell ref="A184:A186"/>
-    <mergeCell ref="B172:B173"/>
-    <mergeCell ref="B174:B175"/>
-    <mergeCell ref="B163:B165"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="B142:B158"/>
-    <mergeCell ref="A142:A161"/>
-    <mergeCell ref="A163:A179"/>
-    <mergeCell ref="A180:A182"/>
+    <mergeCell ref="B146:B162"/>
+    <mergeCell ref="A146:A165"/>
     <mergeCell ref="A90:A95"/>
     <mergeCell ref="A96:A104"/>
     <mergeCell ref="B96:B100"/>

--- a/时间表.xlsx
+++ b/时间表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\360\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAC4EFF-B7D3-47E6-A1FE-B1387D3806E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093BC9C9-A8F6-42A0-AB27-C8F72C0D516B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12252" yWindow="252" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8076" yWindow="216" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="312">
   <si>
     <t>第一次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1248,6 +1248,30 @@
   </si>
   <si>
     <t>打家劫舍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>763划分字母区间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>135分发糖果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>455分发饼干</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>605种花问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分配问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1291,7 +1315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1314,6 +1338,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1595,10 +1622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F196"/>
+  <dimension ref="A1:F200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F128" sqref="F128"/>
+    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="F156" sqref="F156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2937,7 +2964,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="8"/>
       <c r="B129" s="8" t="s">
         <v>305</v>
@@ -2949,7 +2976,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="8"/>
       <c r="B130" s="8"/>
       <c r="C130" t="s">
@@ -2959,7 +2986,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="8"/>
       <c r="B131" s="8"/>
       <c r="C131" t="s">
@@ -2969,7 +2996,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="8"/>
       <c r="B132" s="8" t="s">
         <v>299</v>
@@ -2981,7 +3008,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="8"/>
       <c r="B133" s="8"/>
       <c r="C133" t="s">
@@ -2991,7 +3018,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="8"/>
       <c r="B134" s="8"/>
       <c r="C134" t="s">
@@ -3001,7 +3028,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="8"/>
       <c r="B135" s="8"/>
       <c r="C135" t="s">
@@ -3011,7 +3038,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="8"/>
       <c r="B136" s="8"/>
       <c r="C136" t="s">
@@ -3021,7 +3048,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="8"/>
       <c r="B137" s="8"/>
       <c r="C137" t="s">
@@ -3031,7 +3058,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="8"/>
       <c r="B138" s="2" t="s">
         <v>196</v>
@@ -3043,10 +3070,12 @@
         <v>194</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="8"/>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="8" t="s">
+        <v>199</v>
+      </c>
       <c r="B139" s="8" t="s">
-        <v>199</v>
+        <v>255</v>
       </c>
       <c r="C139" t="s">
         <v>197</v>
@@ -3054,8 +3083,11 @@
       <c r="D139" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E139">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="8"/>
       <c r="B140" s="8"/>
       <c r="C140" t="s">
@@ -3064,592 +3096,643 @@
       <c r="D140" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E140">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="8"/>
       <c r="B141" s="8"/>
       <c r="C141" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="8"/>
       <c r="B142" s="8"/>
       <c r="C142" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="8"/>
       <c r="B143" s="8"/>
       <c r="C143" t="s">
-        <v>202</v>
+        <v>256</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="8"/>
       <c r="B144" s="8"/>
       <c r="C144" t="s">
-        <v>203</v>
+        <v>257</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>205</v>
+        <v>254</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="8"/>
       <c r="B145" s="8"/>
       <c r="C145" t="s">
-        <v>204</v>
+        <v>258</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>205</v>
+        <v>254</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="B146" s="8" t="s">
-        <v>207</v>
-      </c>
+      <c r="A146" s="8"/>
+      <c r="B146" s="8"/>
       <c r="C146" t="s">
-        <v>208</v>
+        <v>306</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>209</v>
+        <v>307</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="8"/>
-      <c r="B147" s="8"/>
+      <c r="B147" s="9"/>
       <c r="C147" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="8"/>
-      <c r="B148" s="8"/>
+      <c r="B148" s="9"/>
       <c r="C148" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="8"/>
-      <c r="B149" s="8"/>
+      <c r="B149" s="9"/>
       <c r="C149" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="8"/>
-      <c r="B150" s="8"/>
+      <c r="B150" s="8" t="s">
+        <v>311</v>
+      </c>
       <c r="C150" t="s">
-        <v>214</v>
+        <v>308</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>215</v>
+        <v>307</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="8"/>
       <c r="B151" s="8"/>
       <c r="C151" t="s">
-        <v>216</v>
+        <v>309</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>215</v>
+        <v>307</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="8"/>
       <c r="B152" s="8"/>
       <c r="C152" t="s">
-        <v>219</v>
+        <v>310</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>220</v>
+        <v>307</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="8"/>
-      <c r="B153" s="8"/>
+      <c r="A153" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>207</v>
+      </c>
       <c r="C153" t="s">
-        <v>282</v>
+        <v>208</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>281</v>
+        <v>209</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="8"/>
       <c r="B154" s="8"/>
       <c r="C154" t="s">
-        <v>283</v>
+        <v>210</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>281</v>
+        <v>211</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="8"/>
       <c r="B155" s="8"/>
       <c r="C155" t="s">
-        <v>284</v>
+        <v>212</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>281</v>
+        <v>211</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="8"/>
       <c r="B156" s="8"/>
       <c r="C156" t="s">
-        <v>285</v>
+        <v>213</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>281</v>
+        <v>211</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="8"/>
       <c r="B157" s="8"/>
       <c r="C157" t="s">
-        <v>286</v>
+        <v>214</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>292</v>
+        <v>215</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="8"/>
       <c r="B158" s="8"/>
       <c r="C158" t="s">
-        <v>287</v>
+        <v>216</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>292</v>
+        <v>215</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="8"/>
       <c r="B159" s="8"/>
       <c r="C159" t="s">
-        <v>288</v>
+        <v>219</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>292</v>
+        <v>220</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="8"/>
       <c r="B160" s="8"/>
       <c r="C160" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="8"/>
       <c r="B161" s="8"/>
       <c r="C161" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="8"/>
       <c r="B162" s="8"/>
       <c r="C162" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="8"/>
-      <c r="B163" s="8" t="s">
-        <v>223</v>
-      </c>
+      <c r="B163" s="8"/>
       <c r="C163" t="s">
-        <v>221</v>
+        <v>285</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>220</v>
+        <v>281</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="8"/>
       <c r="B164" s="8"/>
       <c r="C164" t="s">
-        <v>222</v>
+        <v>286</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>220</v>
+        <v>292</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="8"/>
       <c r="B165" s="8"/>
       <c r="C165" t="s">
-        <v>224</v>
+        <v>287</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>225</v>
+        <v>292</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="3" t="s">
-        <v>217</v>
-      </c>
+      <c r="A166" s="8"/>
+      <c r="B166" s="8"/>
       <c r="C166" t="s">
-        <v>218</v>
+        <v>288</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>215</v>
+        <v>292</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="B167" s="8" t="s">
-        <v>231</v>
-      </c>
+      <c r="A167" s="8"/>
+      <c r="B167" s="8"/>
       <c r="C167" t="s">
-        <v>227</v>
+        <v>289</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>228</v>
+        <v>292</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="8"/>
       <c r="B168" s="8"/>
       <c r="C168" t="s">
-        <v>229</v>
+        <v>290</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>228</v>
+        <v>292</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="8"/>
       <c r="B169" s="8"/>
       <c r="C169" t="s">
-        <v>230</v>
+        <v>291</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>228</v>
+        <v>292</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="8"/>
       <c r="B170" s="8" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C170" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="8"/>
       <c r="B171" s="8"/>
       <c r="C171" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="8"/>
-      <c r="B172" s="2" t="s">
-        <v>236</v>
-      </c>
+      <c r="B172" s="8"/>
       <c r="C172" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="D172" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C173" t="s">
+        <v>218</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C174" t="s">
+        <v>227</v>
+      </c>
+      <c r="D174" s="1" t="s">
         <v>228</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="8"/>
-      <c r="C173" t="s">
-        <v>240</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="8"/>
-      <c r="C174" t="s">
-        <v>238</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="8"/>
+      <c r="B175" s="8"/>
       <c r="C175" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="8"/>
-      <c r="B176" s="8" t="s">
-        <v>128</v>
-      </c>
+      <c r="B176" s="8"/>
       <c r="C176" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="8"/>
-      <c r="B177" s="8"/>
+      <c r="B177" s="8" t="s">
+        <v>234</v>
+      </c>
       <c r="C177" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="8"/>
-      <c r="B178" s="8" t="s">
-        <v>246</v>
-      </c>
+      <c r="B178" s="8"/>
       <c r="C178" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="8"/>
-      <c r="B179" s="8"/>
+      <c r="B179" s="2" t="s">
+        <v>236</v>
+      </c>
       <c r="C179" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="8"/>
-      <c r="B180" s="5"/>
       <c r="C180" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="8"/>
-      <c r="B181" s="6"/>
       <c r="C181" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="8"/>
-      <c r="B182" s="6"/>
       <c r="C182" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="8"/>
-      <c r="B183" s="6"/>
+      <c r="B183" s="8" t="s">
+        <v>128</v>
+      </c>
       <c r="C183" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="8" t="s">
-        <v>248</v>
-      </c>
+      <c r="A184" s="8"/>
+      <c r="B184" s="8"/>
       <c r="C184" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="8"/>
+      <c r="B185" s="8" t="s">
+        <v>246</v>
+      </c>
       <c r="C185" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="8"/>
-      <c r="B186" s="5"/>
+      <c r="B186" s="8"/>
       <c r="C186" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="D186" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="8"/>
+      <c r="B187" s="5"/>
+      <c r="C187" t="s">
+        <v>266</v>
+      </c>
+      <c r="D187" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C187" t="s">
-        <v>253</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="8" t="s">
-        <v>255</v>
-      </c>
+      <c r="A188" s="8"/>
+      <c r="B188" s="6"/>
       <c r="C188" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="8"/>
+      <c r="B189" s="6"/>
       <c r="C189" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="8"/>
+      <c r="B190" s="6"/>
       <c r="C190" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>259</v>
+      <c r="A191" s="8" t="s">
+        <v>248</v>
       </c>
       <c r="C191" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>262</v>
-      </c>
+      <c r="A192" s="8"/>
       <c r="C192" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>267</v>
-      </c>
+      <c r="A193" s="8"/>
+      <c r="B193" s="5"/>
       <c r="C193" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="4" t="s">
+        <v>252</v>
+      </c>
       <c r="C194" t="s">
+        <v>253</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>259</v>
+      </c>
+      <c r="C195" t="s">
+        <v>260</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>262</v>
+      </c>
+      <c r="C196" t="s">
+        <v>263</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>267</v>
+      </c>
+      <c r="C197" t="s">
+        <v>268</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C198" t="s">
         <v>276</v>
       </c>
-      <c r="D194" s="1" t="s">
+      <c r="D198" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C195" t="s">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C199" t="s">
         <v>277</v>
       </c>
-      <c r="D195" s="1" t="s">
+      <c r="D199" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C196" t="s">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C200" t="s">
         <v>278</v>
       </c>
-      <c r="D196" s="1" t="s">
+      <c r="D200" s="1" t="s">
         <v>279</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="B132:B137"/>
-    <mergeCell ref="A105:A145"/>
-    <mergeCell ref="B129:B131"/>
-    <mergeCell ref="A188:A190"/>
-    <mergeCell ref="B176:B177"/>
-    <mergeCell ref="B178:B179"/>
-    <mergeCell ref="B167:B169"/>
-    <mergeCell ref="B170:B171"/>
-    <mergeCell ref="A167:A183"/>
-    <mergeCell ref="A184:A186"/>
+  <mergeCells count="41">
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="A69:A89"/>
+    <mergeCell ref="B170:B172"/>
+    <mergeCell ref="B108:B115"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="B153:B169"/>
+    <mergeCell ref="A153:A172"/>
+    <mergeCell ref="A90:A95"/>
+    <mergeCell ref="A96:A104"/>
+    <mergeCell ref="B96:B100"/>
+    <mergeCell ref="B101:B104"/>
+    <mergeCell ref="B78:B80"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="B69:B71"/>
     <mergeCell ref="B5:B8"/>
@@ -3664,22 +3747,18 @@
     <mergeCell ref="B54:B56"/>
     <mergeCell ref="A42:A56"/>
     <mergeCell ref="A57:A68"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="A69:A89"/>
-    <mergeCell ref="B163:B165"/>
-    <mergeCell ref="B108:B115"/>
-    <mergeCell ref="B139:B145"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="B146:B162"/>
-    <mergeCell ref="A146:A165"/>
-    <mergeCell ref="A90:A95"/>
-    <mergeCell ref="A96:A104"/>
-    <mergeCell ref="B96:B100"/>
-    <mergeCell ref="B101:B104"/>
-    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B132:B137"/>
+    <mergeCell ref="B129:B131"/>
+    <mergeCell ref="B183:B184"/>
+    <mergeCell ref="B185:B186"/>
+    <mergeCell ref="B174:B176"/>
+    <mergeCell ref="B177:B178"/>
+    <mergeCell ref="A174:A190"/>
+    <mergeCell ref="A191:A193"/>
+    <mergeCell ref="A105:A138"/>
+    <mergeCell ref="B139:B146"/>
+    <mergeCell ref="B150:B152"/>
+    <mergeCell ref="A139:A152"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/时间表.xlsx
+++ b/时间表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\360\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093BC9C9-A8F6-42A0-AB27-C8F72C0D516B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB179485-95EA-4ED6-9917-4F5E14B5E464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8076" yWindow="216" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11760" yWindow="432" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="316">
   <si>
     <t>第一次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1272,6 +1272,22 @@
   </si>
   <si>
     <t>分配问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>406根据身高重建队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>665非递减数列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>88合并两个有序数组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1337,10 +1353,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1622,10 +1638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F200"/>
+  <dimension ref="A1:F203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="F156" sqref="F156"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1657,10 +1673,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>153</v>
       </c>
       <c r="C2" t="s">
@@ -1671,8 +1687,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -1681,7 +1697,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
+      <c r="A4" s="9"/>
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -1690,8 +1706,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9" t="s">
         <v>141</v>
       </c>
       <c r="C5" t="s">
@@ -1702,8 +1718,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
       <c r="C6" t="s">
         <v>138</v>
       </c>
@@ -1712,8 +1728,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
       <c r="C7" t="s">
         <v>139</v>
       </c>
@@ -1722,18 +1738,21 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
       <c r="C8" t="s">
         <v>140</v>
       </c>
       <c r="D8" s="1">
         <v>1.2</v>
       </c>
+      <c r="E8">
+        <v>3.15</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9" t="s">
         <v>152</v>
       </c>
       <c r="C9" t="s">
@@ -1744,8 +1763,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
       <c r="C10" t="s">
         <v>9</v>
       </c>
@@ -1754,8 +1773,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
       <c r="C11" t="s">
         <v>10</v>
       </c>
@@ -1764,7 +1783,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
+      <c r="A12" s="9"/>
       <c r="C12" t="s">
         <v>97</v>
       </c>
@@ -1773,10 +1792,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C13" t="s">
@@ -1787,8 +1806,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -1797,8 +1816,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
       <c r="C15" t="s">
         <v>17</v>
       </c>
@@ -1807,8 +1826,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
       <c r="C16" t="s">
         <v>18</v>
       </c>
@@ -1817,8 +1836,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
       <c r="C17" t="s">
         <v>19</v>
       </c>
@@ -1827,8 +1846,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
       <c r="C18" t="s">
         <v>20</v>
       </c>
@@ -1837,8 +1856,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
       <c r="C19" t="s">
         <v>21</v>
       </c>
@@ -1847,8 +1866,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
       <c r="C20" t="s">
         <v>22</v>
       </c>
@@ -1857,8 +1876,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
       <c r="C21" t="s">
         <v>23</v>
       </c>
@@ -1867,8 +1886,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
       <c r="C22" t="s">
         <v>24</v>
       </c>
@@ -1877,8 +1896,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -1887,8 +1906,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>26</v>
       </c>
@@ -1897,8 +1916,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
       <c r="C25" t="s">
         <v>27</v>
       </c>
@@ -1907,8 +1926,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
       <c r="C26" t="s">
         <v>28</v>
       </c>
@@ -1917,8 +1936,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
       <c r="C27" t="s">
         <v>29</v>
       </c>
@@ -1927,8 +1946,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
       <c r="C28" t="s">
         <v>30</v>
       </c>
@@ -1937,8 +1956,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
       <c r="C29" t="s">
         <v>31</v>
       </c>
@@ -1947,8 +1966,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
       <c r="C30" t="s">
         <v>32</v>
       </c>
@@ -1957,8 +1976,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
       <c r="C31" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +1986,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8" t="s">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C32" t="s">
@@ -1979,8 +1998,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
       <c r="C33" t="s">
         <v>36</v>
       </c>
@@ -1989,8 +2008,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
       <c r="C34" t="s">
         <v>37</v>
       </c>
@@ -1999,8 +2018,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
       <c r="C35" t="s">
         <v>39</v>
       </c>
@@ -2009,8 +2028,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
       <c r="C36" t="s">
         <v>40</v>
       </c>
@@ -2019,8 +2038,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
       <c r="C37" t="s">
         <v>41</v>
       </c>
@@ -2029,8 +2048,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
       <c r="C38" t="s">
         <v>42</v>
       </c>
@@ -2039,8 +2058,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
       <c r="C39" t="s">
         <v>44</v>
       </c>
@@ -2049,8 +2068,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
       <c r="C40" t="s">
         <v>45</v>
       </c>
@@ -2059,7 +2078,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
+      <c r="A41" s="9"/>
       <c r="B41" s="2" t="s">
         <v>47</v>
       </c>
@@ -2071,7 +2090,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="9" t="s">
         <v>50</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -2085,7 +2104,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
+      <c r="A43" s="9"/>
       <c r="B43" s="2" t="s">
         <v>74</v>
       </c>
@@ -2097,7 +2116,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
+      <c r="A44" s="9"/>
       <c r="B44" s="2" t="s">
         <v>75</v>
       </c>
@@ -2109,8 +2128,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8" t="s">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9" t="s">
         <v>76</v>
       </c>
       <c r="C45" t="s">
@@ -2121,8 +2140,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
       <c r="C46" t="s">
         <v>57</v>
       </c>
@@ -2131,8 +2150,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8" t="s">
+      <c r="A47" s="9"/>
+      <c r="B47" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C47" t="s">
@@ -2143,8 +2162,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
       <c r="C48" t="s">
         <v>61</v>
       </c>
@@ -2153,8 +2172,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
       <c r="C49" t="s">
         <v>62</v>
       </c>
@@ -2163,8 +2182,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8" t="s">
+      <c r="A50" s="9"/>
+      <c r="B50" s="9" t="s">
         <v>78</v>
       </c>
       <c r="C50" t="s">
@@ -2175,8 +2194,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
       <c r="C51" t="s">
         <v>65</v>
       </c>
@@ -2185,8 +2204,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
       <c r="C52" t="s">
         <v>66</v>
       </c>
@@ -2195,7 +2214,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="8"/>
+      <c r="A53" s="9"/>
       <c r="B53" s="2" t="s">
         <v>79</v>
       </c>
@@ -2207,8 +2226,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8" t="s">
+      <c r="A54" s="9"/>
+      <c r="B54" s="9" t="s">
         <v>80</v>
       </c>
       <c r="C54" t="s">
@@ -2219,8 +2238,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
       <c r="C55" t="s">
         <v>70</v>
       </c>
@@ -2229,8 +2248,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
       <c r="C56" t="s">
         <v>71</v>
       </c>
@@ -2239,7 +2258,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="9" t="s">
         <v>81</v>
       </c>
       <c r="C57" t="s">
@@ -2250,7 +2269,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="8"/>
+      <c r="A58" s="9"/>
       <c r="C58" t="s">
         <v>83</v>
       </c>
@@ -2259,7 +2278,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="8"/>
+      <c r="A59" s="9"/>
       <c r="C59" t="s">
         <v>84</v>
       </c>
@@ -2268,7 +2287,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="8"/>
+      <c r="A60" s="9"/>
       <c r="C60" t="s">
         <v>86</v>
       </c>
@@ -2277,7 +2296,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="8"/>
+      <c r="A61" s="9"/>
       <c r="C61" t="s">
         <v>87</v>
       </c>
@@ -2286,7 +2305,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="8"/>
+      <c r="A62" s="9"/>
       <c r="C62" t="s">
         <v>89</v>
       </c>
@@ -2295,7 +2314,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="8"/>
+      <c r="A63" s="9"/>
       <c r="C63" t="s">
         <v>90</v>
       </c>
@@ -2304,7 +2323,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="8"/>
+      <c r="A64" s="9"/>
       <c r="C64" t="s">
         <v>91</v>
       </c>
@@ -2313,7 +2332,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="8"/>
+      <c r="A65" s="9"/>
       <c r="C65" t="s">
         <v>92</v>
       </c>
@@ -2322,7 +2341,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="8"/>
+      <c r="A66" s="9"/>
       <c r="C66" t="s">
         <v>94</v>
       </c>
@@ -2331,7 +2350,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="8"/>
+      <c r="A67" s="9"/>
       <c r="C67" t="s">
         <v>95</v>
       </c>
@@ -2340,7 +2359,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="8"/>
+      <c r="A68" s="9"/>
       <c r="B68" s="7"/>
       <c r="C68" t="s">
         <v>280</v>
@@ -2350,10 +2369,10 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="8" t="s">
+      <c r="A69" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="9" t="s">
         <v>105</v>
       </c>
       <c r="C69" t="s">
@@ -2364,8 +2383,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="8"/>
-      <c r="B70" s="8"/>
+      <c r="A70" s="9"/>
+      <c r="B70" s="9"/>
       <c r="C70" t="s">
         <v>101</v>
       </c>
@@ -2374,8 +2393,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="8"/>
-      <c r="B71" s="8"/>
+      <c r="A71" s="9"/>
+      <c r="B71" s="9"/>
       <c r="C71" t="s">
         <v>102</v>
       </c>
@@ -2384,8 +2403,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="8"/>
-      <c r="B72" s="8" t="s">
+      <c r="A72" s="9"/>
+      <c r="B72" s="9" t="s">
         <v>104</v>
       </c>
       <c r="C72" t="s">
@@ -2396,8 +2415,8 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="8"/>
-      <c r="B73" s="8"/>
+      <c r="A73" s="9"/>
+      <c r="B73" s="9"/>
       <c r="C73" t="s">
         <v>107</v>
       </c>
@@ -2406,8 +2425,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="8"/>
-      <c r="B74" s="8"/>
+      <c r="A74" s="9"/>
+      <c r="B74" s="9"/>
       <c r="C74" t="s">
         <v>108</v>
       </c>
@@ -2416,8 +2435,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="8"/>
-      <c r="B75" s="8" t="s">
+      <c r="A75" s="9"/>
+      <c r="B75" s="9" t="s">
         <v>113</v>
       </c>
       <c r="C75" t="s">
@@ -2428,8 +2447,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="8"/>
-      <c r="B76" s="8"/>
+      <c r="A76" s="9"/>
+      <c r="B76" s="9"/>
       <c r="C76" t="s">
         <v>111</v>
       </c>
@@ -2438,8 +2457,8 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="8"/>
-      <c r="B77" s="8"/>
+      <c r="A77" s="9"/>
+      <c r="B77" s="9"/>
       <c r="C77" t="s">
         <v>112</v>
       </c>
@@ -2448,8 +2467,8 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="8"/>
-      <c r="B78" s="8" t="s">
+      <c r="A78" s="9"/>
+      <c r="B78" s="9" t="s">
         <v>128</v>
       </c>
       <c r="C78" t="s">
@@ -2460,8 +2479,8 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="8"/>
-      <c r="B79" s="8"/>
+      <c r="A79" s="9"/>
+      <c r="B79" s="9"/>
       <c r="C79" t="s">
         <v>125</v>
       </c>
@@ -2470,8 +2489,8 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="8"/>
-      <c r="B80" s="8"/>
+      <c r="A80" s="9"/>
+      <c r="B80" s="9"/>
       <c r="C80" t="s">
         <v>127</v>
       </c>
@@ -2479,8 +2498,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="8"/>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="9"/>
       <c r="C81" t="s">
         <v>114</v>
       </c>
@@ -2488,9 +2507,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="8"/>
-      <c r="B82" s="8" t="s">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="9"/>
+      <c r="B82" s="9" t="s">
         <v>121</v>
       </c>
       <c r="C82" t="s">
@@ -2500,9 +2519,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="8"/>
-      <c r="B83" s="8"/>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="9"/>
+      <c r="B83" s="9"/>
       <c r="C83" t="s">
         <v>117</v>
       </c>
@@ -2510,9 +2529,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="8"/>
-      <c r="B84" s="8"/>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="9"/>
+      <c r="B84" s="9"/>
       <c r="C84" t="s">
         <v>118</v>
       </c>
@@ -2520,9 +2539,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="8"/>
-      <c r="B85" s="8"/>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="9"/>
+      <c r="B85" s="9"/>
       <c r="C85" t="s">
         <v>119</v>
       </c>
@@ -2530,9 +2549,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="8"/>
-      <c r="B86" s="8" t="s">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="9"/>
+      <c r="B86" s="9" t="s">
         <v>296</v>
       </c>
       <c r="C86" t="s">
@@ -2542,9 +2561,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="8"/>
-      <c r="B87" s="8"/>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="9"/>
+      <c r="B87" s="9"/>
       <c r="C87" t="s">
         <v>123</v>
       </c>
@@ -2552,9 +2571,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="8"/>
-      <c r="B88" s="8"/>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="9"/>
+      <c r="B88" s="9"/>
       <c r="C88" t="s">
         <v>293</v>
       </c>
@@ -2562,9 +2581,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="8"/>
-      <c r="B89" s="8"/>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="9"/>
+      <c r="B89" s="9"/>
       <c r="C89" t="s">
         <v>294</v>
       </c>
@@ -2572,8 +2591,8 @@
         <v>295</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="8" t="s">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="9" t="s">
         <v>129</v>
       </c>
       <c r="C90" t="s">
@@ -2583,8 +2602,8 @@
         <v>132</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="8"/>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="9"/>
       <c r="C91" t="s">
         <v>131</v>
       </c>
@@ -2592,8 +2611,8 @@
         <v>132</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="8"/>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="9"/>
       <c r="C92" t="s">
         <v>133</v>
       </c>
@@ -2601,8 +2620,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="8"/>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="9"/>
       <c r="C93" t="s">
         <v>134</v>
       </c>
@@ -2610,8 +2629,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="8"/>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="9"/>
       <c r="C94" t="s">
         <v>135</v>
       </c>
@@ -2619,8 +2638,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="8"/>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="9"/>
       <c r="B95" s="6"/>
       <c r="C95" t="s">
         <v>273</v>
@@ -2629,11 +2648,11 @@
         <v>272</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="8" t="s">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="B96" s="8" t="s">
+      <c r="B96" s="9" t="s">
         <v>142</v>
       </c>
       <c r="C96" t="s">
@@ -2642,10 +2661,13 @@
       <c r="D96" s="1" t="s">
         <v>109</v>
       </c>
+      <c r="E96">
+        <v>3.15</v>
+      </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="8"/>
-      <c r="B97" s="8"/>
+      <c r="A97" s="9"/>
+      <c r="B97" s="9"/>
       <c r="C97" t="s">
         <v>150</v>
       </c>
@@ -2654,8 +2676,8 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="8"/>
-      <c r="B98" s="8"/>
+      <c r="A98" s="9"/>
+      <c r="B98" s="9"/>
       <c r="C98" t="s">
         <v>151</v>
       </c>
@@ -2664,8 +2686,8 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="8"/>
-      <c r="B99" s="8"/>
+      <c r="A99" s="9"/>
+      <c r="B99" s="9"/>
       <c r="C99" t="s">
         <v>274</v>
       </c>
@@ -2674,8 +2696,8 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="8"/>
-      <c r="B100" s="8"/>
+      <c r="A100" s="9"/>
+      <c r="B100" s="9"/>
       <c r="C100" t="s">
         <v>275</v>
       </c>
@@ -2684,414 +2706,411 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="8"/>
-      <c r="B101" s="8" t="s">
+      <c r="A101" s="9"/>
+      <c r="B101" s="9"/>
+      <c r="C101" t="s">
+        <v>315</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="9"/>
+      <c r="B102" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C102" t="s">
         <v>144</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="8"/>
-      <c r="B102" s="8"/>
-      <c r="C102" t="s">
-        <v>145</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="8"/>
-      <c r="B103" s="8"/>
+      <c r="A103" s="9"/>
+      <c r="B103" s="9"/>
       <c r="C103" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="8"/>
-      <c r="B104" s="8"/>
+      <c r="A104" s="9"/>
+      <c r="B104" s="9"/>
       <c r="C104" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="8" t="s">
+      <c r="A105" s="9"/>
+      <c r="B105" s="9"/>
+      <c r="C105" t="s">
+        <v>147</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C106" t="s">
         <v>155</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D106" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="8"/>
-      <c r="C106" t="s">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="9"/>
+      <c r="C107" t="s">
         <v>156</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="D107" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="8"/>
-      <c r="C107" t="s">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="9"/>
+      <c r="C108" t="s">
         <v>158</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="8"/>
-      <c r="B108" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C108" t="s">
-        <v>163</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="8"/>
-      <c r="B109" s="8"/>
+      <c r="A109" s="9"/>
+      <c r="B109" s="9" t="s">
+        <v>162</v>
+      </c>
       <c r="C109" t="s">
+        <v>163</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="9"/>
+      <c r="B110" s="9"/>
+      <c r="C110" t="s">
         <v>164</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D110" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="8"/>
-      <c r="B110" s="8"/>
-      <c r="C110" t="s">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="9"/>
+      <c r="B111" s="9"/>
+      <c r="C111" t="s">
         <v>166</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="8"/>
-      <c r="B111" s="8"/>
-      <c r="C111" t="s">
-        <v>167</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="8"/>
-      <c r="B112" s="8"/>
+      <c r="A112" s="9"/>
+      <c r="B112" s="9"/>
       <c r="C112" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="8"/>
-      <c r="B113" s="8"/>
+      <c r="A113" s="9"/>
+      <c r="B113" s="9"/>
       <c r="C113" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="8"/>
-      <c r="B114" s="8"/>
+      <c r="A114" s="9"/>
+      <c r="B114" s="9"/>
       <c r="C114" t="s">
+        <v>169</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="9"/>
+      <c r="B115" s="9"/>
+      <c r="C115" t="s">
         <v>171</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="D115" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="8"/>
-      <c r="B115" s="8"/>
-      <c r="C115" t="s">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="9"/>
+      <c r="B116" s="9"/>
+      <c r="C116" t="s">
         <v>193</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="D116" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="8"/>
-      <c r="B116" s="2" t="s">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="9"/>
+      <c r="B117" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C117" t="s">
         <v>170</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="D117" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="8"/>
-      <c r="B117" s="8" t="s">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="9"/>
+      <c r="B118" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C118" t="s">
         <v>174</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="D118" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="8"/>
-      <c r="B118" s="8"/>
-      <c r="C118" t="s">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="9"/>
+      <c r="B119" s="9"/>
+      <c r="C119" t="s">
         <v>175</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="D119" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="8"/>
-      <c r="B119" s="8"/>
-      <c r="C119" t="s">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="9"/>
+      <c r="B120" s="9"/>
+      <c r="C120" t="s">
         <v>160</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="D120" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="8"/>
-      <c r="C120" t="s">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="9"/>
+      <c r="C121" t="s">
         <v>177</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="8"/>
-      <c r="C121" t="s">
-        <v>178</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="8"/>
+      <c r="A122" s="9"/>
       <c r="C122" t="s">
+        <v>178</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="9"/>
+      <c r="C123" t="s">
         <v>182</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="8"/>
-      <c r="C123" t="s">
-        <v>179</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="8"/>
+      <c r="A124" s="9"/>
       <c r="C124" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="8"/>
+      <c r="A125" s="9"/>
       <c r="C125" t="s">
+        <v>180</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="9"/>
+      <c r="C126" t="s">
         <v>181</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="8"/>
-      <c r="C126" t="s">
-        <v>184</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="8"/>
-      <c r="B127" s="2" t="s">
+      <c r="A127" s="9"/>
+      <c r="C127" t="s">
+        <v>184</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="9"/>
+      <c r="B128" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C128" t="s">
         <v>186</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="8"/>
-      <c r="C128" t="s">
-        <v>187</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="8"/>
-      <c r="B129" s="8" t="s">
-        <v>305</v>
-      </c>
+      <c r="A129" s="9"/>
       <c r="C129" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="8"/>
-      <c r="B130" s="8"/>
+      <c r="A130" s="9"/>
+      <c r="B130" s="9" t="s">
+        <v>305</v>
+      </c>
       <c r="C130" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="8"/>
-      <c r="B131" s="8"/>
+      <c r="A131" s="9"/>
+      <c r="B131" s="9"/>
       <c r="C131" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="8"/>
-      <c r="B132" s="8" t="s">
+      <c r="A132" s="9"/>
+      <c r="B132" s="9"/>
+      <c r="C132" t="s">
+        <v>190</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="9"/>
+      <c r="B133" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C133" t="s">
         <v>297</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="8"/>
-      <c r="B133" s="8"/>
-      <c r="C133" t="s">
-        <v>298</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="8"/>
-      <c r="B134" s="8"/>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="9"/>
+      <c r="B134" s="9"/>
       <c r="C134" t="s">
+        <v>298</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="9"/>
+      <c r="B135" s="9"/>
+      <c r="C135" t="s">
         <v>300</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="8"/>
-      <c r="B135" s="8"/>
-      <c r="C135" t="s">
-        <v>301</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="8"/>
-      <c r="B136" s="8"/>
+    <row r="136" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="9"/>
+      <c r="B136" s="9"/>
       <c r="C136" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="8"/>
-      <c r="B137" s="8"/>
+      <c r="A137" s="9"/>
+      <c r="B137" s="9"/>
       <c r="C137" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="8"/>
-      <c r="B138" s="2" t="s">
+      <c r="A138" s="9"/>
+      <c r="B138" s="9"/>
+      <c r="C138" t="s">
+        <v>303</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="9"/>
+      <c r="B139" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C139" t="s">
         <v>192</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="B139" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="C139" t="s">
-        <v>197</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E139">
-        <v>3.14</v>
-      </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="8"/>
-      <c r="B140" s="8"/>
+      <c r="A140" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>255</v>
+      </c>
       <c r="C140" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>194</v>
@@ -3101,638 +3120,669 @@
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="8"/>
-      <c r="B141" s="8"/>
+      <c r="A141" s="9"/>
+      <c r="B141" s="9"/>
       <c r="C141" t="s">
+        <v>198</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E141">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="9"/>
+      <c r="B142" s="9"/>
+      <c r="C142" t="s">
         <v>202</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="8"/>
-      <c r="B142" s="8"/>
-      <c r="C142" t="s">
-        <v>203</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="8"/>
-      <c r="B143" s="8"/>
+      <c r="A143" s="9"/>
+      <c r="B143" s="9"/>
       <c r="C143" t="s">
+        <v>203</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="9"/>
+      <c r="B144" s="9"/>
+      <c r="C144" t="s">
         <v>256</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="8"/>
-      <c r="B144" s="8"/>
-      <c r="C144" t="s">
-        <v>257</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="8"/>
-      <c r="B145" s="8"/>
+      <c r="A145" s="9"/>
+      <c r="B145" s="9"/>
       <c r="C145" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="8"/>
-      <c r="B146" s="8"/>
+      <c r="A146" s="9"/>
+      <c r="B146" s="9"/>
       <c r="C146" t="s">
-        <v>306</v>
+        <v>258</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>307</v>
+        <v>254</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="8"/>
+      <c r="A147" s="9"/>
       <c r="B147" s="9"/>
       <c r="C147" t="s">
+        <v>306</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="9"/>
+      <c r="B148" s="8"/>
+      <c r="C148" t="s">
         <v>200</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="8"/>
-      <c r="B148" s="9"/>
-      <c r="C148" t="s">
-        <v>201</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="8"/>
-      <c r="B149" s="9"/>
+      <c r="A149" s="9"/>
+      <c r="B149" s="8"/>
       <c r="C149" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="8"/>
-      <c r="B150" s="8" t="s">
-        <v>311</v>
-      </c>
+      <c r="A150" s="9"/>
+      <c r="B150" s="8"/>
       <c r="C150" t="s">
-        <v>308</v>
+        <v>204</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>307</v>
+        <v>205</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="8"/>
+      <c r="A151" s="9"/>
       <c r="B151" s="8"/>
       <c r="C151" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="8"/>
+      <c r="A152" s="9"/>
       <c r="B152" s="8"/>
       <c r="C152" t="s">
+        <v>313</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="9"/>
+      <c r="B153" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="C153" t="s">
+        <v>308</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="9"/>
+      <c r="B154" s="9"/>
+      <c r="C154" t="s">
+        <v>309</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="9"/>
+      <c r="B155" s="9"/>
+      <c r="C155" t="s">
         <v>310</v>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="D155" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="8" t="s">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="B153" s="8" t="s">
+      <c r="B156" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C156" t="s">
         <v>208</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="D156" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="8"/>
-      <c r="B154" s="8"/>
-      <c r="C154" t="s">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="9"/>
+      <c r="B157" s="9"/>
+      <c r="C157" t="s">
         <v>210</v>
       </c>
-      <c r="D154" s="1" t="s">
+      <c r="D157" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="8"/>
-      <c r="B155" s="8"/>
-      <c r="C155" t="s">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="9"/>
+      <c r="B158" s="9"/>
+      <c r="C158" t="s">
         <v>212</v>
       </c>
-      <c r="D155" s="1" t="s">
+      <c r="D158" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="8"/>
-      <c r="B156" s="8"/>
-      <c r="C156" t="s">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="9"/>
+      <c r="B159" s="9"/>
+      <c r="C159" t="s">
         <v>213</v>
       </c>
-      <c r="D156" s="1" t="s">
+      <c r="D159" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="8"/>
-      <c r="B157" s="8"/>
-      <c r="C157" t="s">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="9"/>
+      <c r="B160" s="9"/>
+      <c r="C160" t="s">
         <v>214</v>
       </c>
-      <c r="D157" s="1" t="s">
+      <c r="D160" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="8"/>
-      <c r="B158" s="8"/>
-      <c r="C158" t="s">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="9"/>
+      <c r="B161" s="9"/>
+      <c r="C161" t="s">
         <v>216</v>
       </c>
-      <c r="D158" s="1" t="s">
+      <c r="D161" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="8"/>
-      <c r="B159" s="8"/>
-      <c r="C159" t="s">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="9"/>
+      <c r="B162" s="9"/>
+      <c r="C162" t="s">
         <v>219</v>
       </c>
-      <c r="D159" s="1" t="s">
+      <c r="D162" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="8"/>
-      <c r="B160" s="8"/>
-      <c r="C160" t="s">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="9"/>
+      <c r="B163" s="9"/>
+      <c r="C163" t="s">
         <v>282</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="8"/>
-      <c r="B161" s="8"/>
-      <c r="C161" t="s">
-        <v>283</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="8"/>
-      <c r="B162" s="8"/>
-      <c r="C162" t="s">
-        <v>284</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="8"/>
-      <c r="B163" s="8"/>
-      <c r="C163" t="s">
-        <v>285</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="8"/>
-      <c r="B164" s="8"/>
+      <c r="A164" s="9"/>
+      <c r="B164" s="9"/>
       <c r="C164" t="s">
+        <v>283</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="9"/>
+      <c r="B165" s="9"/>
+      <c r="C165" t="s">
+        <v>284</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="9"/>
+      <c r="B166" s="9"/>
+      <c r="C166" t="s">
+        <v>285</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="9"/>
+      <c r="B167" s="9"/>
+      <c r="C167" t="s">
         <v>286</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="8"/>
-      <c r="B165" s="8"/>
-      <c r="C165" t="s">
-        <v>287</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="8"/>
-      <c r="B166" s="8"/>
-      <c r="C166" t="s">
-        <v>288</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="8"/>
-      <c r="B167" s="8"/>
-      <c r="C167" t="s">
-        <v>289</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="8"/>
-      <c r="B168" s="8"/>
+      <c r="A168" s="9"/>
+      <c r="B168" s="9"/>
       <c r="C168" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="8"/>
-      <c r="B169" s="8"/>
+      <c r="A169" s="9"/>
+      <c r="B169" s="9"/>
       <c r="C169" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="8"/>
-      <c r="B170" s="8" t="s">
+      <c r="A170" s="9"/>
+      <c r="B170" s="9"/>
+      <c r="C170" t="s">
+        <v>289</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="9"/>
+      <c r="B171" s="9"/>
+      <c r="C171" t="s">
+        <v>290</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="9"/>
+      <c r="B172" s="9"/>
+      <c r="C172" t="s">
+        <v>291</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="9"/>
+      <c r="B173" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C173" t="s">
         <v>221</v>
       </c>
-      <c r="D170" s="1" t="s">
+      <c r="D173" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="8"/>
-      <c r="B171" s="8"/>
-      <c r="C171" t="s">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="9"/>
+      <c r="B174" s="9"/>
+      <c r="C174" t="s">
         <v>222</v>
       </c>
-      <c r="D171" s="1" t="s">
+      <c r="D174" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="8"/>
-      <c r="B172" s="8"/>
-      <c r="C172" t="s">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="9"/>
+      <c r="B175" s="9"/>
+      <c r="C175" t="s">
         <v>224</v>
       </c>
-      <c r="D172" s="1" t="s">
+      <c r="D175" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="3" t="s">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C176" t="s">
         <v>218</v>
       </c>
-      <c r="D173" s="1" t="s">
+      <c r="D176" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="8" t="s">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="B174" s="8" t="s">
+      <c r="B177" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C177" t="s">
         <v>227</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="8"/>
-      <c r="B175" s="8"/>
-      <c r="C175" t="s">
-        <v>229</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="8"/>
-      <c r="B176" s="8"/>
-      <c r="C176" t="s">
-        <v>230</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="8"/>
-      <c r="B177" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="C177" t="s">
-        <v>232</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="8"/>
-      <c r="B178" s="8"/>
+      <c r="A178" s="9"/>
+      <c r="B178" s="9"/>
       <c r="C178" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="8"/>
-      <c r="B179" s="2" t="s">
-        <v>236</v>
-      </c>
+      <c r="A179" s="9"/>
+      <c r="B179" s="9"/>
       <c r="C179" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="8"/>
+      <c r="A180" s="9"/>
+      <c r="B180" s="9" t="s">
+        <v>234</v>
+      </c>
       <c r="C180" t="s">
+        <v>232</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="9"/>
+      <c r="B181" s="9"/>
+      <c r="C181" t="s">
+        <v>233</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="9"/>
+      <c r="B182" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C182" t="s">
+        <v>235</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="9"/>
+      <c r="C183" t="s">
         <v>240</v>
       </c>
-      <c r="D180" s="1" t="s">
+      <c r="D183" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="8"/>
-      <c r="C181" t="s">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="9"/>
+      <c r="C184" t="s">
         <v>238</v>
       </c>
-      <c r="D181" s="1" t="s">
+      <c r="D184" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="8"/>
-      <c r="C182" t="s">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="9"/>
+      <c r="C185" t="s">
         <v>239</v>
       </c>
-      <c r="D182" s="1" t="s">
+      <c r="D185" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="8"/>
-      <c r="B183" s="8" t="s">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="9"/>
+      <c r="B186" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C186" t="s">
         <v>241</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="8"/>
-      <c r="B184" s="8"/>
-      <c r="C184" t="s">
-        <v>243</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="8"/>
-      <c r="B185" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="C185" t="s">
-        <v>245</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="8"/>
-      <c r="B186" s="8"/>
-      <c r="C186" t="s">
-        <v>244</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="8"/>
-      <c r="B187" s="5"/>
+      <c r="A187" s="9"/>
+      <c r="B187" s="9"/>
       <c r="C187" t="s">
+        <v>243</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="9"/>
+      <c r="B188" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C188" t="s">
+        <v>245</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="9"/>
+      <c r="B189" s="9"/>
+      <c r="C189" t="s">
+        <v>244</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="9"/>
+      <c r="B190" s="5"/>
+      <c r="C190" t="s">
         <v>266</v>
       </c>
-      <c r="D187" s="1" t="s">
+      <c r="D190" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="8"/>
-      <c r="B188" s="6"/>
-      <c r="C188" t="s">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="9"/>
+      <c r="B191" s="6"/>
+      <c r="C191" t="s">
         <v>269</v>
       </c>
-      <c r="D188" s="1" t="s">
+      <c r="D191" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="8"/>
-      <c r="B189" s="6"/>
-      <c r="C189" t="s">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="9"/>
+      <c r="B192" s="6"/>
+      <c r="C192" t="s">
         <v>270</v>
       </c>
-      <c r="D189" s="1" t="s">
+      <c r="D192" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="8"/>
-      <c r="B190" s="6"/>
-      <c r="C190" t="s">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="9"/>
+      <c r="B193" s="6"/>
+      <c r="C193" t="s">
         <v>271</v>
       </c>
-      <c r="D190" s="1" t="s">
+      <c r="D193" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="8" t="s">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="C191" t="s">
+      <c r="C194" t="s">
         <v>249</v>
       </c>
-      <c r="D191" s="1" t="s">
+      <c r="D194" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="8"/>
-      <c r="C192" t="s">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="9"/>
+      <c r="C195" t="s">
         <v>251</v>
       </c>
-      <c r="D192" s="1" t="s">
+      <c r="D195" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="8"/>
-      <c r="B193" s="5"/>
-      <c r="C193" t="s">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="9"/>
+      <c r="B196" s="5"/>
+      <c r="C196" t="s">
         <v>265</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C194" t="s">
-        <v>253</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>259</v>
-      </c>
-      <c r="C195" t="s">
-        <v>260</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>262</v>
-      </c>
-      <c r="C196" t="s">
-        <v>263</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+      <c r="A197" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C197" t="s">
+        <v>253</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>259</v>
+      </c>
+      <c r="C198" t="s">
+        <v>260</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>262</v>
+      </c>
+      <c r="C199" t="s">
+        <v>263</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
         <v>267</v>
       </c>
-      <c r="C197" t="s">
+      <c r="C200" t="s">
         <v>268</v>
       </c>
-      <c r="D197" s="1" t="s">
+      <c r="D200" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C198" t="s">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C201" t="s">
         <v>276</v>
       </c>
-      <c r="D198" s="1" t="s">
+      <c r="D201" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C199" t="s">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C202" t="s">
         <v>277</v>
       </c>
-      <c r="D199" s="1" t="s">
+      <c r="D202" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C200" t="s">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C203" t="s">
         <v>278</v>
       </c>
-      <c r="D200" s="1" t="s">
+      <c r="D203" s="1" t="s">
         <v>279</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="A69:A89"/>
-    <mergeCell ref="B170:B172"/>
-    <mergeCell ref="B108:B115"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="B153:B169"/>
-    <mergeCell ref="A153:A172"/>
-    <mergeCell ref="A90:A95"/>
-    <mergeCell ref="A96:A104"/>
-    <mergeCell ref="B96:B100"/>
-    <mergeCell ref="B101:B104"/>
-    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B96:B101"/>
+    <mergeCell ref="A96:A105"/>
+    <mergeCell ref="A177:A193"/>
+    <mergeCell ref="A194:A196"/>
+    <mergeCell ref="A106:A139"/>
+    <mergeCell ref="B140:B147"/>
+    <mergeCell ref="B153:B155"/>
+    <mergeCell ref="A140:A155"/>
+    <mergeCell ref="B130:B132"/>
+    <mergeCell ref="B186:B187"/>
+    <mergeCell ref="B188:B189"/>
+    <mergeCell ref="B177:B179"/>
+    <mergeCell ref="B180:B181"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="B69:B71"/>
     <mergeCell ref="B5:B8"/>
@@ -3747,18 +3797,20 @@
     <mergeCell ref="B54:B56"/>
     <mergeCell ref="A42:A56"/>
     <mergeCell ref="A57:A68"/>
-    <mergeCell ref="B132:B137"/>
-    <mergeCell ref="B129:B131"/>
-    <mergeCell ref="B183:B184"/>
-    <mergeCell ref="B185:B186"/>
-    <mergeCell ref="B174:B176"/>
-    <mergeCell ref="B177:B178"/>
-    <mergeCell ref="A174:A190"/>
-    <mergeCell ref="A191:A193"/>
-    <mergeCell ref="A105:A138"/>
-    <mergeCell ref="B139:B146"/>
-    <mergeCell ref="B150:B152"/>
-    <mergeCell ref="A139:A152"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="A69:A89"/>
+    <mergeCell ref="B173:B175"/>
+    <mergeCell ref="B109:B116"/>
+    <mergeCell ref="B118:B120"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="B156:B172"/>
+    <mergeCell ref="A156:A175"/>
+    <mergeCell ref="A90:A95"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B133:B138"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/时间表.xlsx
+++ b/时间表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\360\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB179485-95EA-4ED6-9917-4F5E14B5E464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20AA2E7-55EC-4B66-8FA3-8A676E142A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11760" yWindow="432" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11208" yWindow="468" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="322">
   <si>
     <t>第一次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1288,6 +1288,30 @@
   </si>
   <si>
     <t>88合并两个有序数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>340至多包含k个不同字符的最长子串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>125验证回文串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>524通过删除字母匹配到字典里最长单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>633平方之和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>680验证回文串2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1638,10 +1662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F203"/>
+  <dimension ref="A1:F208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96:A110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2665,7 +2689,7 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="9"/>
       <c r="B97" s="9"/>
       <c r="C97" t="s">
@@ -2675,7 +2699,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="9"/>
       <c r="B98" s="9"/>
       <c r="C98" t="s">
@@ -2685,7 +2709,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="9"/>
       <c r="B99" s="9"/>
       <c r="C99" t="s">
@@ -2695,7 +2719,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="9"/>
       <c r="B100" s="9"/>
       <c r="C100" t="s">
@@ -2705,7 +2729,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="9"/>
       <c r="B101" s="9"/>
       <c r="C101" t="s">
@@ -2715,166 +2739,167 @@
         <v>314</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="9"/>
-      <c r="B102" s="9" t="s">
-        <v>143</v>
-      </c>
+      <c r="B102" s="9"/>
       <c r="C102" t="s">
-        <v>144</v>
+        <v>318</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="9"/>
       <c r="B103" s="9"/>
       <c r="C103" t="s">
-        <v>145</v>
+        <v>319</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="9"/>
       <c r="B104" s="9"/>
       <c r="C104" t="s">
-        <v>146</v>
+        <v>320</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
       <c r="C105" t="s">
+        <v>321</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="9"/>
+      <c r="B106" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C106" t="s">
+        <v>144</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E106">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="9"/>
+      <c r="B107" s="9"/>
+      <c r="C107" t="s">
+        <v>145</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="9"/>
+      <c r="B108" s="9"/>
+      <c r="C108" t="s">
+        <v>146</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="9"/>
+      <c r="B109" s="9"/>
+      <c r="C109" t="s">
         <v>147</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D109" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="C106" t="s">
-        <v>155</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="9"/>
-      <c r="C107" t="s">
-        <v>156</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="9"/>
-      <c r="C108" t="s">
-        <v>158</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="9"/>
-      <c r="B109" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="C109" t="s">
-        <v>163</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="9"/>
       <c r="B110" s="9"/>
       <c r="C110" t="s">
-        <v>164</v>
+        <v>316</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="9"/>
-      <c r="B111" s="9"/>
+        <v>317</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="9" t="s">
+        <v>154</v>
+      </c>
       <c r="C111" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="9"/>
-      <c r="B112" s="9"/>
       <c r="C112" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="9"/>
-      <c r="B113" s="9"/>
       <c r="C113" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="9"/>
-      <c r="B114" s="9"/>
+      <c r="B114" s="9" t="s">
+        <v>162</v>
+      </c>
       <c r="C114" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="9"/>
       <c r="B115" s="9"/>
       <c r="C115" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="9"/>
-      <c r="B117" s="2" t="s">
-        <v>195</v>
-      </c>
+      <c r="B117" s="9"/>
       <c r="C117" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>161</v>
@@ -2882,567 +2907,569 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="9"/>
-      <c r="B118" s="9" t="s">
-        <v>173</v>
-      </c>
+      <c r="B118" s="9"/>
       <c r="C118" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="9"/>
       <c r="B119" s="9"/>
       <c r="C119" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="9"/>
       <c r="B120" s="9"/>
       <c r="C120" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>237</v>
+        <v>172</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="9"/>
+      <c r="B121" s="9"/>
       <c r="C121" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="9"/>
+      <c r="B122" s="2" t="s">
+        <v>195</v>
+      </c>
       <c r="C122" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="9"/>
+      <c r="B123" s="9" t="s">
+        <v>173</v>
+      </c>
       <c r="C123" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="9"/>
+      <c r="B124" s="9"/>
       <c r="C124" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="9"/>
+      <c r="B125" s="9"/>
       <c r="C125" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>183</v>
+        <v>237</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="9"/>
       <c r="C126" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="9"/>
       <c r="C127" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="9"/>
-      <c r="B128" s="2" t="s">
-        <v>247</v>
-      </c>
       <c r="C128" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="9"/>
       <c r="C129" t="s">
+        <v>179</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="9"/>
+      <c r="C130" t="s">
+        <v>180</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="9"/>
+      <c r="C131" t="s">
+        <v>181</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="9"/>
+      <c r="C132" t="s">
+        <v>184</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="9"/>
+      <c r="B133" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C133" t="s">
+        <v>186</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="9"/>
+      <c r="C134" t="s">
         <v>187</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="D134" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="9"/>
-      <c r="B130" s="9" t="s">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="9"/>
+      <c r="B135" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C135" t="s">
         <v>188</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="D135" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="9"/>
-      <c r="B131" s="9"/>
-      <c r="C131" t="s">
-        <v>189</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="9"/>
-      <c r="B132" s="9"/>
-      <c r="C132" t="s">
-        <v>190</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="9"/>
-      <c r="B133" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="C133" t="s">
-        <v>297</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="9"/>
-      <c r="B134" s="9"/>
-      <c r="C134" t="s">
-        <v>298</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="9"/>
-      <c r="B135" s="9"/>
-      <c r="C135" t="s">
-        <v>300</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="9"/>
       <c r="B136" s="9"/>
       <c r="C136" t="s">
-        <v>301</v>
+        <v>189</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="9"/>
       <c r="B137" s="9"/>
       <c r="C137" t="s">
-        <v>302</v>
+        <v>190</v>
       </c>
       <c r="D137" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="9"/>
+      <c r="B138" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="C138" t="s">
+        <v>297</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="9"/>
+      <c r="B139" s="9"/>
+      <c r="C139" t="s">
+        <v>298</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="9"/>
+      <c r="B140" s="9"/>
+      <c r="C140" t="s">
+        <v>300</v>
+      </c>
+      <c r="D140" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="9"/>
-      <c r="B138" s="9"/>
-      <c r="C138" t="s">
-        <v>303</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="9"/>
-      <c r="B139" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C139" t="s">
-        <v>192</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="B140" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="C140" t="s">
-        <v>197</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E140">
-        <v>3.14</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="9"/>
       <c r="B141" s="9"/>
       <c r="C141" t="s">
-        <v>198</v>
+        <v>301</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E141">
-        <v>3.14</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="9"/>
       <c r="B142" s="9"/>
       <c r="C142" t="s">
-        <v>202</v>
+        <v>302</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="9"/>
       <c r="B143" s="9"/>
       <c r="C143" t="s">
-        <v>203</v>
+        <v>303</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="9"/>
-      <c r="B144" s="9"/>
+      <c r="B144" s="2" t="s">
+        <v>196</v>
+      </c>
       <c r="C144" t="s">
-        <v>256</v>
+        <v>192</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="9"/>
-      <c r="B145" s="9"/>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>255</v>
+      </c>
       <c r="C145" t="s">
-        <v>257</v>
+        <v>197</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="E145">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="9"/>
       <c r="B146" s="9"/>
       <c r="C146" t="s">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="E146">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="9"/>
       <c r="B147" s="9"/>
       <c r="C147" t="s">
-        <v>306</v>
+        <v>202</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="9"/>
-      <c r="B148" s="8"/>
+      <c r="B148" s="9"/>
       <c r="C148" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="9"/>
-      <c r="B149" s="8"/>
+      <c r="B149" s="9"/>
       <c r="C149" t="s">
+        <v>256</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="9"/>
+      <c r="B150" s="9"/>
+      <c r="C150" t="s">
+        <v>257</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="9"/>
+      <c r="B151" s="9"/>
+      <c r="C151" t="s">
+        <v>258</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="9"/>
+      <c r="B152" s="9"/>
+      <c r="C152" t="s">
+        <v>306</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="9"/>
+      <c r="B153" s="8"/>
+      <c r="C153" t="s">
+        <v>200</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="9"/>
+      <c r="B154" s="8"/>
+      <c r="C154" t="s">
         <v>201</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="D154" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="9"/>
-      <c r="B150" s="8"/>
-      <c r="C150" t="s">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="9"/>
+      <c r="B155" s="8"/>
+      <c r="C155" t="s">
         <v>204</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="D155" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="9"/>
-      <c r="B151" s="8"/>
-      <c r="C151" t="s">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="9"/>
+      <c r="B156" s="8"/>
+      <c r="C156" t="s">
         <v>312</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="D156" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="9"/>
-      <c r="B152" s="8"/>
-      <c r="C152" t="s">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="9"/>
+      <c r="B157" s="8"/>
+      <c r="C157" t="s">
         <v>313</v>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="D157" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="9"/>
-      <c r="B153" s="9" t="s">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="9"/>
+      <c r="B158" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C158" t="s">
         <v>308</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="D158" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="9"/>
-      <c r="B154" s="9"/>
-      <c r="C154" t="s">
-        <v>309</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="9"/>
-      <c r="B155" s="9"/>
-      <c r="C155" t="s">
-        <v>310</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="B156" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C156" t="s">
-        <v>208</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="9"/>
-      <c r="B157" s="9"/>
-      <c r="C157" t="s">
-        <v>210</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="9"/>
-      <c r="B158" s="9"/>
-      <c r="C158" t="s">
-        <v>212</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="9"/>
       <c r="B159" s="9"/>
       <c r="C159" t="s">
-        <v>213</v>
+        <v>309</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="9"/>
       <c r="B160" s="9"/>
       <c r="C160" t="s">
-        <v>214</v>
+        <v>310</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>215</v>
+        <v>307</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="9"/>
-      <c r="B161" s="9"/>
+      <c r="A161" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>207</v>
+      </c>
       <c r="C161" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="9"/>
       <c r="B162" s="9"/>
       <c r="C162" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="9"/>
       <c r="B163" s="9"/>
       <c r="C163" t="s">
-        <v>282</v>
+        <v>212</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>281</v>
+        <v>211</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="9"/>
       <c r="B164" s="9"/>
       <c r="C164" t="s">
-        <v>283</v>
+        <v>213</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>281</v>
+        <v>211</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="9"/>
       <c r="B165" s="9"/>
       <c r="C165" t="s">
-        <v>284</v>
+        <v>214</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>281</v>
+        <v>215</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="9"/>
       <c r="B166" s="9"/>
       <c r="C166" t="s">
-        <v>285</v>
+        <v>216</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>281</v>
+        <v>215</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="9"/>
       <c r="B167" s="9"/>
       <c r="C167" t="s">
-        <v>286</v>
+        <v>219</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>292</v>
+        <v>220</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="9"/>
       <c r="B168" s="9"/>
       <c r="C168" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="9"/>
       <c r="B169" s="9"/>
       <c r="C169" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="9"/>
       <c r="B170" s="9"/>
       <c r="C170" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="9"/>
       <c r="B171" s="9"/>
       <c r="C171" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="9"/>
       <c r="B172" s="9"/>
       <c r="C172" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>292</v>
@@ -3450,110 +3477,106 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="9"/>
-      <c r="B173" s="9" t="s">
-        <v>223</v>
-      </c>
+      <c r="B173" s="9"/>
       <c r="C173" t="s">
-        <v>221</v>
+        <v>287</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>220</v>
+        <v>292</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="9"/>
       <c r="B174" s="9"/>
       <c r="C174" t="s">
-        <v>222</v>
+        <v>288</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>220</v>
+        <v>292</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="9"/>
       <c r="B175" s="9"/>
       <c r="C175" t="s">
-        <v>224</v>
+        <v>289</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>225</v>
+        <v>292</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="3" t="s">
-        <v>217</v>
-      </c>
+      <c r="A176" s="9"/>
+      <c r="B176" s="9"/>
       <c r="C176" t="s">
-        <v>218</v>
+        <v>290</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>215</v>
+        <v>292</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="B177" s="9" t="s">
-        <v>231</v>
-      </c>
+      <c r="A177" s="9"/>
+      <c r="B177" s="9"/>
       <c r="C177" t="s">
-        <v>227</v>
+        <v>291</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>228</v>
+        <v>292</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="9"/>
-      <c r="B178" s="9"/>
+      <c r="B178" s="9" t="s">
+        <v>223</v>
+      </c>
       <c r="C178" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="9"/>
       <c r="B179" s="9"/>
       <c r="C179" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="9"/>
-      <c r="B180" s="9" t="s">
-        <v>234</v>
-      </c>
+      <c r="B180" s="9"/>
       <c r="C180" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="9"/>
-      <c r="B181" s="9"/>
+      <c r="A181" s="3" t="s">
+        <v>217</v>
+      </c>
       <c r="C181" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="9"/>
-      <c r="B182" s="2" t="s">
-        <v>236</v>
+      <c r="A182" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B182" s="9" t="s">
+        <v>231</v>
       </c>
       <c r="C182" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>228</v>
@@ -3561,228 +3584,284 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="9"/>
+      <c r="B183" s="9"/>
       <c r="C183" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="9"/>
+      <c r="B184" s="9"/>
       <c r="C184" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="9"/>
+      <c r="B185" s="9" t="s">
+        <v>234</v>
+      </c>
       <c r="C185" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="9"/>
-      <c r="B186" s="9" t="s">
-        <v>128</v>
-      </c>
+      <c r="B186" s="9"/>
       <c r="C186" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="9"/>
-      <c r="B187" s="9"/>
+      <c r="B187" s="2" t="s">
+        <v>236</v>
+      </c>
       <c r="C187" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="9"/>
-      <c r="B188" s="9" t="s">
-        <v>246</v>
-      </c>
       <c r="C188" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="9"/>
-      <c r="B189" s="9"/>
       <c r="C189" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="9"/>
-      <c r="B190" s="5"/>
       <c r="C190" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="9"/>
-      <c r="B191" s="6"/>
+      <c r="B191" s="9" t="s">
+        <v>128</v>
+      </c>
       <c r="C191" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="9"/>
-      <c r="B192" s="6"/>
+      <c r="B192" s="9"/>
       <c r="C192" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="9"/>
-      <c r="B193" s="6"/>
+      <c r="B193" s="9" t="s">
+        <v>246</v>
+      </c>
       <c r="C193" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="9" t="s">
-        <v>248</v>
-      </c>
+      <c r="A194" s="9"/>
+      <c r="B194" s="9"/>
       <c r="C194" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="9"/>
+      <c r="B195" s="5"/>
       <c r="C195" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="9"/>
-      <c r="B196" s="5"/>
+      <c r="B196" s="6"/>
       <c r="C196" t="s">
+        <v>269</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="9"/>
+      <c r="B197" s="6"/>
+      <c r="C197" t="s">
+        <v>270</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="9"/>
+      <c r="B198" s="6"/>
+      <c r="C198" t="s">
+        <v>271</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C199" t="s">
+        <v>249</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="9"/>
+      <c r="C200" t="s">
+        <v>251</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="9"/>
+      <c r="B201" s="5"/>
+      <c r="C201" t="s">
         <v>265</v>
       </c>
-      <c r="D196" s="1" t="s">
+      <c r="D201" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="4" t="s">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C197" t="s">
+      <c r="C202" t="s">
         <v>253</v>
       </c>
-      <c r="D197" s="1" t="s">
+      <c r="D202" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
         <v>259</v>
       </c>
-      <c r="C198" t="s">
+      <c r="C203" t="s">
         <v>260</v>
       </c>
-      <c r="D198" s="1" t="s">
+      <c r="D203" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
         <v>262</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C204" t="s">
         <v>263</v>
       </c>
-      <c r="D199" s="1" t="s">
+      <c r="D204" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
         <v>267</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C205" t="s">
         <v>268</v>
       </c>
-      <c r="D200" s="1" t="s">
+      <c r="D205" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C201" t="s">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C206" t="s">
         <v>276</v>
       </c>
-      <c r="D201" s="1" t="s">
+      <c r="D206" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C202" t="s">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C207" t="s">
         <v>277</v>
       </c>
-      <c r="D202" s="1" t="s">
+      <c r="D207" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C203" t="s">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C208" t="s">
         <v>278</v>
       </c>
-      <c r="D203" s="1" t="s">
+      <c r="D208" s="1" t="s">
         <v>279</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B96:B101"/>
-    <mergeCell ref="A96:A105"/>
-    <mergeCell ref="A177:A193"/>
-    <mergeCell ref="A194:A196"/>
-    <mergeCell ref="A106:A139"/>
-    <mergeCell ref="B140:B147"/>
-    <mergeCell ref="B153:B155"/>
-    <mergeCell ref="A140:A155"/>
-    <mergeCell ref="B130:B132"/>
-    <mergeCell ref="B186:B187"/>
-    <mergeCell ref="B188:B189"/>
-    <mergeCell ref="B177:B179"/>
-    <mergeCell ref="B180:B181"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="A69:A89"/>
+    <mergeCell ref="B178:B180"/>
+    <mergeCell ref="B114:B121"/>
+    <mergeCell ref="B123:B125"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="B161:B177"/>
+    <mergeCell ref="A161:A180"/>
+    <mergeCell ref="A90:A95"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B138:B143"/>
+    <mergeCell ref="B96:B105"/>
+    <mergeCell ref="B106:B110"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="B69:B71"/>
     <mergeCell ref="B5:B8"/>
@@ -3797,20 +3876,18 @@
     <mergeCell ref="B54:B56"/>
     <mergeCell ref="A42:A56"/>
     <mergeCell ref="A57:A68"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="A69:A89"/>
-    <mergeCell ref="B173:B175"/>
-    <mergeCell ref="B109:B116"/>
-    <mergeCell ref="B118:B120"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="B156:B172"/>
-    <mergeCell ref="A156:A175"/>
-    <mergeCell ref="A90:A95"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B133:B138"/>
+    <mergeCell ref="A182:A198"/>
+    <mergeCell ref="A199:A201"/>
+    <mergeCell ref="A111:A144"/>
+    <mergeCell ref="B145:B152"/>
+    <mergeCell ref="B158:B160"/>
+    <mergeCell ref="A145:A160"/>
+    <mergeCell ref="B135:B137"/>
+    <mergeCell ref="B191:B192"/>
+    <mergeCell ref="B193:B194"/>
+    <mergeCell ref="B182:B184"/>
+    <mergeCell ref="B185:B186"/>
+    <mergeCell ref="A96:A110"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/时间表.xlsx
+++ b/时间表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\360\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20AA2E7-55EC-4B66-8FA3-8A676E142A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DC33B6-2C49-45D5-9750-020E97731248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11208" yWindow="468" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7848" yWindow="144" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="326">
   <si>
     <t>第一次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1312,6 +1312,22 @@
   </si>
   <si>
     <t>680验证回文串2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>69x的平方根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81搜索旋转排序数组2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>154寻找旋转排序数组中的最小值2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1355,7 +1371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1378,6 +1394,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1662,10 +1681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F208"/>
+  <dimension ref="A1:F212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96:A110"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1697,10 +1716,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>153</v>
       </c>
       <c r="C2" t="s">
@@ -1711,8 +1730,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -1721,7 +1740,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
+      <c r="A4" s="10"/>
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -1730,8 +1749,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10" t="s">
         <v>141</v>
       </c>
       <c r="C5" t="s">
@@ -1742,8 +1761,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
       <c r="C6" t="s">
         <v>138</v>
       </c>
@@ -1752,8 +1771,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
       <c r="C7" t="s">
         <v>139</v>
       </c>
@@ -1762,8 +1781,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
       <c r="C8" t="s">
         <v>140</v>
       </c>
@@ -1775,8 +1794,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10" t="s">
         <v>152</v>
       </c>
       <c r="C9" t="s">
@@ -1787,8 +1806,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
       <c r="C10" t="s">
         <v>9</v>
       </c>
@@ -1797,8 +1816,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
       <c r="C11" t="s">
         <v>10</v>
       </c>
@@ -1807,7 +1826,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
+      <c r="A12" s="10"/>
       <c r="C12" t="s">
         <v>97</v>
       </c>
@@ -1816,10 +1835,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C13" t="s">
@@ -1830,8 +1849,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -1840,8 +1859,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
       <c r="C15" t="s">
         <v>17</v>
       </c>
@@ -1850,8 +1869,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
       <c r="C16" t="s">
         <v>18</v>
       </c>
@@ -1860,8 +1879,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
       <c r="C17" t="s">
         <v>19</v>
       </c>
@@ -1870,8 +1889,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
       <c r="C18" t="s">
         <v>20</v>
       </c>
@@ -1880,8 +1899,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
       <c r="C19" t="s">
         <v>21</v>
       </c>
@@ -1890,8 +1909,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
       <c r="C20" t="s">
         <v>22</v>
       </c>
@@ -1900,8 +1919,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
       <c r="C21" t="s">
         <v>23</v>
       </c>
@@ -1910,8 +1929,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
       <c r="C22" t="s">
         <v>24</v>
       </c>
@@ -1920,8 +1939,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -1930,8 +1949,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
       <c r="C24" t="s">
         <v>26</v>
       </c>
@@ -1940,8 +1959,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>27</v>
       </c>
@@ -1950,8 +1969,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
       <c r="C26" t="s">
         <v>28</v>
       </c>
@@ -1960,8 +1979,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
       <c r="C27" t="s">
         <v>29</v>
       </c>
@@ -1970,8 +1989,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
       <c r="C28" t="s">
         <v>30</v>
       </c>
@@ -1980,8 +1999,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
       <c r="C29" t="s">
         <v>31</v>
       </c>
@@ -1990,8 +2009,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
       <c r="C30" t="s">
         <v>32</v>
       </c>
@@ -2000,8 +2019,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
       <c r="C31" t="s">
         <v>33</v>
       </c>
@@ -2010,8 +2029,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9" t="s">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C32" t="s">
@@ -2022,8 +2041,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
       <c r="C33" t="s">
         <v>36</v>
       </c>
@@ -2032,8 +2051,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
       <c r="C34" t="s">
         <v>37</v>
       </c>
@@ -2042,8 +2061,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
       <c r="C35" t="s">
         <v>39</v>
       </c>
@@ -2052,8 +2071,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
       <c r="C36" t="s">
         <v>40</v>
       </c>
@@ -2062,8 +2081,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
       <c r="C37" t="s">
         <v>41</v>
       </c>
@@ -2072,8 +2091,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
       <c r="C38" t="s">
         <v>42</v>
       </c>
@@ -2082,8 +2101,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
       <c r="C39" t="s">
         <v>44</v>
       </c>
@@ -2092,8 +2111,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
       <c r="C40" t="s">
         <v>45</v>
       </c>
@@ -2102,7 +2121,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="9"/>
+      <c r="A41" s="10"/>
       <c r="B41" s="2" t="s">
         <v>47</v>
       </c>
@@ -2114,7 +2133,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="10" t="s">
         <v>50</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -2128,7 +2147,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="9"/>
+      <c r="A43" s="10"/>
       <c r="B43" s="2" t="s">
         <v>74</v>
       </c>
@@ -2140,7 +2159,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="9"/>
+      <c r="A44" s="10"/>
       <c r="B44" s="2" t="s">
         <v>75</v>
       </c>
@@ -2152,8 +2171,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9" t="s">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10" t="s">
         <v>76</v>
       </c>
       <c r="C45" t="s">
@@ -2164,8 +2183,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
       <c r="C46" t="s">
         <v>57</v>
       </c>
@@ -2174,8 +2193,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9" t="s">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10" t="s">
         <v>77</v>
       </c>
       <c r="C47" t="s">
@@ -2186,8 +2205,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
       <c r="C48" t="s">
         <v>61</v>
       </c>
@@ -2196,8 +2215,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
       <c r="C49" t="s">
         <v>62</v>
       </c>
@@ -2206,8 +2225,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9" t="s">
+      <c r="A50" s="10"/>
+      <c r="B50" s="10" t="s">
         <v>78</v>
       </c>
       <c r="C50" t="s">
@@ -2218,8 +2237,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9"/>
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
       <c r="C51" t="s">
         <v>65</v>
       </c>
@@ -2228,8 +2247,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="9"/>
-      <c r="B52" s="9"/>
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
       <c r="C52" t="s">
         <v>66</v>
       </c>
@@ -2238,7 +2257,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="9"/>
+      <c r="A53" s="10"/>
       <c r="B53" s="2" t="s">
         <v>79</v>
       </c>
@@ -2250,8 +2269,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9" t="s">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10" t="s">
         <v>80</v>
       </c>
       <c r="C54" t="s">
@@ -2262,8 +2281,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="9"/>
-      <c r="B55" s="9"/>
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
       <c r="C55" t="s">
         <v>70</v>
       </c>
@@ -2272,8 +2291,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="9"/>
-      <c r="B56" s="9"/>
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
       <c r="C56" t="s">
         <v>71</v>
       </c>
@@ -2282,7 +2301,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="10" t="s">
         <v>81</v>
       </c>
       <c r="C57" t="s">
@@ -2293,7 +2312,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="9"/>
+      <c r="A58" s="10"/>
       <c r="C58" t="s">
         <v>83</v>
       </c>
@@ -2302,7 +2321,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="9"/>
+      <c r="A59" s="10"/>
       <c r="C59" t="s">
         <v>84</v>
       </c>
@@ -2311,7 +2330,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="9"/>
+      <c r="A60" s="10"/>
       <c r="C60" t="s">
         <v>86</v>
       </c>
@@ -2320,7 +2339,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="9"/>
+      <c r="A61" s="10"/>
       <c r="C61" t="s">
         <v>87</v>
       </c>
@@ -2329,7 +2348,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="9"/>
+      <c r="A62" s="10"/>
       <c r="C62" t="s">
         <v>89</v>
       </c>
@@ -2338,7 +2357,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="9"/>
+      <c r="A63" s="10"/>
       <c r="C63" t="s">
         <v>90</v>
       </c>
@@ -2347,7 +2366,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="9"/>
+      <c r="A64" s="10"/>
       <c r="C64" t="s">
         <v>91</v>
       </c>
@@ -2356,7 +2375,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="9"/>
+      <c r="A65" s="10"/>
       <c r="C65" t="s">
         <v>92</v>
       </c>
@@ -2365,7 +2384,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="9"/>
+      <c r="A66" s="10"/>
       <c r="C66" t="s">
         <v>94</v>
       </c>
@@ -2374,7 +2393,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="9"/>
+      <c r="A67" s="10"/>
       <c r="C67" t="s">
         <v>95</v>
       </c>
@@ -2383,7 +2402,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="9"/>
+      <c r="A68" s="10"/>
       <c r="B68" s="7"/>
       <c r="C68" t="s">
         <v>280</v>
@@ -2393,10 +2412,10 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="9" t="s">
+      <c r="A69" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="10" t="s">
         <v>105</v>
       </c>
       <c r="C69" t="s">
@@ -2407,8 +2426,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="9"/>
-      <c r="B70" s="9"/>
+      <c r="A70" s="10"/>
+      <c r="B70" s="10"/>
       <c r="C70" t="s">
         <v>101</v>
       </c>
@@ -2417,8 +2436,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="9"/>
-      <c r="B71" s="9"/>
+      <c r="A71" s="10"/>
+      <c r="B71" s="10"/>
       <c r="C71" t="s">
         <v>102</v>
       </c>
@@ -2427,8 +2446,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="9"/>
-      <c r="B72" s="9" t="s">
+      <c r="A72" s="10"/>
+      <c r="B72" s="10" t="s">
         <v>104</v>
       </c>
       <c r="C72" t="s">
@@ -2439,8 +2458,8 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="9"/>
-      <c r="B73" s="9"/>
+      <c r="A73" s="10"/>
+      <c r="B73" s="10"/>
       <c r="C73" t="s">
         <v>107</v>
       </c>
@@ -2449,8 +2468,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="9"/>
-      <c r="B74" s="9"/>
+      <c r="A74" s="10"/>
+      <c r="B74" s="10"/>
       <c r="C74" t="s">
         <v>108</v>
       </c>
@@ -2459,8 +2478,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="9"/>
-      <c r="B75" s="9" t="s">
+      <c r="A75" s="10"/>
+      <c r="B75" s="10" t="s">
         <v>113</v>
       </c>
       <c r="C75" t="s">
@@ -2471,8 +2490,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="9"/>
-      <c r="B76" s="9"/>
+      <c r="A76" s="10"/>
+      <c r="B76" s="10"/>
       <c r="C76" t="s">
         <v>111</v>
       </c>
@@ -2481,8 +2500,8 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="9"/>
-      <c r="B77" s="9"/>
+      <c r="A77" s="10"/>
+      <c r="B77" s="10"/>
       <c r="C77" t="s">
         <v>112</v>
       </c>
@@ -2491,8 +2510,8 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="9"/>
-      <c r="B78" s="9" t="s">
+      <c r="A78" s="10"/>
+      <c r="B78" s="10" t="s">
         <v>128</v>
       </c>
       <c r="C78" t="s">
@@ -2503,8 +2522,8 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="9"/>
-      <c r="B79" s="9"/>
+      <c r="A79" s="10"/>
+      <c r="B79" s="10"/>
       <c r="C79" t="s">
         <v>125</v>
       </c>
@@ -2513,8 +2532,8 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="9"/>
-      <c r="B80" s="9"/>
+      <c r="A80" s="10"/>
+      <c r="B80" s="10"/>
       <c r="C80" t="s">
         <v>127</v>
       </c>
@@ -2523,7 +2542,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="9"/>
+      <c r="A81" s="10"/>
       <c r="C81" t="s">
         <v>114</v>
       </c>
@@ -2532,8 +2551,8 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="9"/>
-      <c r="B82" s="9" t="s">
+      <c r="A82" s="10"/>
+      <c r="B82" s="10" t="s">
         <v>121</v>
       </c>
       <c r="C82" t="s">
@@ -2544,8 +2563,8 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="9"/>
-      <c r="B83" s="9"/>
+      <c r="A83" s="10"/>
+      <c r="B83" s="10"/>
       <c r="C83" t="s">
         <v>117</v>
       </c>
@@ -2554,8 +2573,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="9"/>
-      <c r="B84" s="9"/>
+      <c r="A84" s="10"/>
+      <c r="B84" s="10"/>
       <c r="C84" t="s">
         <v>118</v>
       </c>
@@ -2564,8 +2583,8 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="9"/>
-      <c r="B85" s="9"/>
+      <c r="A85" s="10"/>
+      <c r="B85" s="10"/>
       <c r="C85" t="s">
         <v>119</v>
       </c>
@@ -2574,8 +2593,8 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="9"/>
-      <c r="B86" s="9" t="s">
+      <c r="A86" s="10"/>
+      <c r="B86" s="10" t="s">
         <v>296</v>
       </c>
       <c r="C86" t="s">
@@ -2586,8 +2605,8 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="9"/>
-      <c r="B87" s="9"/>
+      <c r="A87" s="10"/>
+      <c r="B87" s="10"/>
       <c r="C87" t="s">
         <v>123</v>
       </c>
@@ -2596,8 +2615,8 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="9"/>
-      <c r="B88" s="9"/>
+      <c r="A88" s="10"/>
+      <c r="B88" s="10"/>
       <c r="C88" t="s">
         <v>293</v>
       </c>
@@ -2606,8 +2625,8 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="9"/>
-      <c r="B89" s="9"/>
+      <c r="A89" s="10"/>
+      <c r="B89" s="10"/>
       <c r="C89" t="s">
         <v>294</v>
       </c>
@@ -2616,7 +2635,7 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="9" t="s">
+      <c r="A90" s="10" t="s">
         <v>129</v>
       </c>
       <c r="C90" t="s">
@@ -2627,16 +2646,19 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="9"/>
+      <c r="A91" s="10"/>
       <c r="C91" t="s">
         <v>131</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>132</v>
       </c>
+      <c r="E91">
+        <v>3.17</v>
+      </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="9"/>
+      <c r="A92" s="10"/>
       <c r="C92" t="s">
         <v>133</v>
       </c>
@@ -2645,7 +2667,7 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="9"/>
+      <c r="A93" s="10"/>
       <c r="C93" t="s">
         <v>134</v>
       </c>
@@ -2654,7 +2676,7 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="9"/>
+      <c r="A94" s="10"/>
       <c r="C94" t="s">
         <v>135</v>
       </c>
@@ -2663,7 +2685,7 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="9"/>
+      <c r="A95" s="10"/>
       <c r="B95" s="6"/>
       <c r="C95" t="s">
         <v>273</v>
@@ -2673,1195 +2695,1225 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B96" s="9" t="s">
-        <v>142</v>
-      </c>
+      <c r="A96" s="9"/>
+      <c r="B96" s="9"/>
       <c r="C96" t="s">
-        <v>149</v>
+        <v>322</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E96">
-        <v>3.15</v>
+        <v>325</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="9"/>
       <c r="B97" s="9"/>
       <c r="C97" t="s">
-        <v>150</v>
+        <v>323</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>109</v>
+        <v>325</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="9"/>
       <c r="B98" s="9"/>
       <c r="C98" t="s">
-        <v>151</v>
+        <v>324</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>126</v>
+        <v>325</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="9"/>
       <c r="B99" s="9"/>
-      <c r="C99" t="s">
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C100" t="s">
+        <v>149</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E100">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="10"/>
+      <c r="B101" s="10"/>
+      <c r="C101" t="s">
+        <v>150</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="10"/>
+      <c r="B102" s="10"/>
+      <c r="C102" t="s">
+        <v>151</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="10"/>
+      <c r="B103" s="10"/>
+      <c r="C103" t="s">
         <v>274</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D103" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="9"/>
-      <c r="B100" s="9"/>
-      <c r="C100" t="s">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="10"/>
+      <c r="B104" s="10"/>
+      <c r="C104" t="s">
         <v>275</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D104" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="9"/>
-      <c r="B101" s="9"/>
-      <c r="C101" t="s">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="10"/>
+      <c r="B105" s="10"/>
+      <c r="C105" t="s">
         <v>315</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D105" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="9"/>
-      <c r="B102" s="9"/>
-      <c r="C102" t="s">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="10"/>
+      <c r="B106" s="10"/>
+      <c r="C106" t="s">
         <v>318</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D106" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="9"/>
-      <c r="B103" s="9"/>
-      <c r="C103" t="s">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="10"/>
+      <c r="B107" s="10"/>
+      <c r="C107" t="s">
         <v>319</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D107" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="9"/>
-      <c r="B104" s="9"/>
-      <c r="C104" t="s">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="10"/>
+      <c r="B108" s="10"/>
+      <c r="C108" t="s">
         <v>320</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D108" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="9"/>
-      <c r="B105" s="9"/>
-      <c r="C105" t="s">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="10"/>
+      <c r="B109" s="10"/>
+      <c r="C109" t="s">
         <v>321</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D109" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="9"/>
-      <c r="B106" s="9" t="s">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="10"/>
+      <c r="B110" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C110" t="s">
         <v>144</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="D110" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E106">
+      <c r="E110">
         <v>3.16</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="9"/>
-      <c r="B107" s="9"/>
-      <c r="C107" t="s">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="10"/>
+      <c r="B111" s="10"/>
+      <c r="C111" t="s">
         <v>145</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D111" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="9"/>
-      <c r="B108" s="9"/>
-      <c r="C108" t="s">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="10"/>
+      <c r="B112" s="10"/>
+      <c r="C112" t="s">
         <v>146</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="D112" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="9"/>
-      <c r="B109" s="9"/>
-      <c r="C109" t="s">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="10"/>
+      <c r="B113" s="10"/>
+      <c r="C113" t="s">
         <v>147</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D113" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="9"/>
-      <c r="B110" s="9"/>
-      <c r="C110" t="s">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="10"/>
+      <c r="B114" s="10"/>
+      <c r="C114" t="s">
         <v>316</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="D114" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="9" t="s">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C115" t="s">
         <v>155</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="D115" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="9"/>
-      <c r="C112" t="s">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="10"/>
+      <c r="C116" t="s">
         <v>156</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="D116" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="9"/>
-      <c r="C113" t="s">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="10"/>
+      <c r="C117" t="s">
         <v>158</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="D117" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="9"/>
-      <c r="B114" s="9" t="s">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="10"/>
+      <c r="B118" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C118" t="s">
         <v>163</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="D118" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="9"/>
-      <c r="B115" s="9"/>
-      <c r="C115" t="s">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="10"/>
+      <c r="B119" s="10"/>
+      <c r="C119" t="s">
         <v>164</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="D119" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="9"/>
-      <c r="B116" s="9"/>
-      <c r="C116" t="s">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="10"/>
+      <c r="B120" s="10"/>
+      <c r="C120" t="s">
         <v>166</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="D120" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="9"/>
-      <c r="B117" s="9"/>
-      <c r="C117" t="s">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="10"/>
+      <c r="B121" s="10"/>
+      <c r="C121" t="s">
         <v>167</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="D121" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="9"/>
-      <c r="B118" s="9"/>
-      <c r="C118" t="s">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="10"/>
+      <c r="B122" s="10"/>
+      <c r="C122" t="s">
         <v>168</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="9"/>
-      <c r="B119" s="9"/>
-      <c r="C119" t="s">
-        <v>169</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="9"/>
-      <c r="B120" s="9"/>
-      <c r="C120" t="s">
-        <v>171</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="9"/>
-      <c r="B121" s="9"/>
-      <c r="C121" t="s">
-        <v>193</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="9"/>
-      <c r="B122" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C122" t="s">
-        <v>170</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="9"/>
-      <c r="B123" s="9" t="s">
+      <c r="A123" s="10"/>
+      <c r="B123" s="10"/>
+      <c r="C123" t="s">
+        <v>169</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="10"/>
+      <c r="B124" s="10"/>
+      <c r="C124" t="s">
+        <v>171</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="10"/>
+      <c r="B125" s="10"/>
+      <c r="C125" t="s">
+        <v>193</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="10"/>
+      <c r="B126" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C126" t="s">
+        <v>170</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="10"/>
+      <c r="B127" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C127" t="s">
         <v>174</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="D127" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="9"/>
-      <c r="B124" s="9"/>
-      <c r="C124" t="s">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="10"/>
+      <c r="B128" s="10"/>
+      <c r="C128" t="s">
         <v>175</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="D128" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="9"/>
-      <c r="B125" s="9"/>
-      <c r="C125" t="s">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="10"/>
+      <c r="B129" s="10"/>
+      <c r="C129" t="s">
         <v>160</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="D129" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="9"/>
-      <c r="C126" t="s">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="10"/>
+      <c r="C130" t="s">
         <v>177</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="D130" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="9"/>
-      <c r="C127" t="s">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="10"/>
+      <c r="C131" t="s">
         <v>178</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="D131" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="9"/>
-      <c r="C128" t="s">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="10"/>
+      <c r="C132" t="s">
         <v>182</v>
       </c>
-      <c r="D128" s="1" t="s">
+      <c r="D132" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="9"/>
-      <c r="C129" t="s">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="10"/>
+      <c r="C133" t="s">
         <v>179</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="D133" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="9"/>
-      <c r="C130" t="s">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="10"/>
+      <c r="C134" t="s">
         <v>180</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="D134" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="9"/>
-      <c r="C131" t="s">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="10"/>
+      <c r="C135" t="s">
         <v>181</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="D135" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="9"/>
-      <c r="C132" t="s">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="10"/>
+      <c r="C136" t="s">
         <v>184</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="D136" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="9"/>
-      <c r="B133" s="2" t="s">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="10"/>
+      <c r="B137" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C137" t="s">
         <v>186</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="9"/>
-      <c r="C134" t="s">
-        <v>187</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="9"/>
-      <c r="B135" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="C135" t="s">
-        <v>188</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="9"/>
-      <c r="B136" s="9"/>
-      <c r="C136" t="s">
-        <v>189</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="9"/>
-      <c r="B137" s="9"/>
-      <c r="C137" t="s">
-        <v>190</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="9"/>
-      <c r="B138" s="9" t="s">
+      <c r="A138" s="10"/>
+      <c r="C138" t="s">
+        <v>187</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="10"/>
+      <c r="B139" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="C139" t="s">
+        <v>188</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="10"/>
+      <c r="B140" s="10"/>
+      <c r="C140" t="s">
+        <v>189</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="10"/>
+      <c r="B141" s="10"/>
+      <c r="C141" t="s">
+        <v>190</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="10"/>
+      <c r="B142" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C142" t="s">
         <v>297</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="D142" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="9"/>
-      <c r="B139" s="9"/>
-      <c r="C139" t="s">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="10"/>
+      <c r="B143" s="10"/>
+      <c r="C143" t="s">
         <v>298</v>
       </c>
-      <c r="D139" s="1" t="s">
+      <c r="D143" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="9"/>
-      <c r="B140" s="9"/>
-      <c r="C140" t="s">
+    <row r="144" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="10"/>
+      <c r="B144" s="10"/>
+      <c r="C144" t="s">
         <v>300</v>
       </c>
-      <c r="D140" s="1" t="s">
+      <c r="D144" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="9"/>
-      <c r="B141" s="9"/>
-      <c r="C141" t="s">
+    <row r="145" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="10"/>
+      <c r="B145" s="10"/>
+      <c r="C145" t="s">
         <v>301</v>
       </c>
-      <c r="D141" s="1" t="s">
+      <c r="D145" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="9"/>
-      <c r="B142" s="9"/>
-      <c r="C142" t="s">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="10"/>
+      <c r="B146" s="10"/>
+      <c r="C146" t="s">
         <v>302</v>
       </c>
-      <c r="D142" s="1" t="s">
+      <c r="D146" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="9"/>
-      <c r="B143" s="9"/>
-      <c r="C143" t="s">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="10"/>
+      <c r="B147" s="10"/>
+      <c r="C147" t="s">
         <v>303</v>
       </c>
-      <c r="D143" s="1" t="s">
+      <c r="D147" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="9"/>
-      <c r="B144" s="2" t="s">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="10"/>
+      <c r="B148" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C148" t="s">
         <v>192</v>
       </c>
-      <c r="D144" s="1" t="s">
+      <c r="D148" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="9" t="s">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="B145" s="9" t="s">
+      <c r="B149" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C149" t="s">
         <v>197</v>
       </c>
-      <c r="D145" s="1" t="s">
+      <c r="D149" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E145">
+      <c r="E149">
         <v>3.14</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="9"/>
-      <c r="B146" s="9"/>
-      <c r="C146" t="s">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="10"/>
+      <c r="B150" s="10"/>
+      <c r="C150" t="s">
         <v>198</v>
       </c>
-      <c r="D146" s="1" t="s">
+      <c r="D150" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E146">
+      <c r="E150">
         <v>3.14</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="9"/>
-      <c r="B147" s="9"/>
-      <c r="C147" t="s">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="10"/>
+      <c r="B151" s="10"/>
+      <c r="C151" t="s">
         <v>202</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="D151" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="9"/>
-      <c r="B148" s="9"/>
-      <c r="C148" t="s">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="10"/>
+      <c r="B152" s="10"/>
+      <c r="C152" t="s">
         <v>203</v>
       </c>
-      <c r="D148" s="1" t="s">
+      <c r="D152" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="9"/>
-      <c r="B149" s="9"/>
-      <c r="C149" t="s">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="10"/>
+      <c r="B153" s="10"/>
+      <c r="C153" t="s">
         <v>256</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="D153" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="9"/>
-      <c r="B150" s="9"/>
-      <c r="C150" t="s">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="10"/>
+      <c r="B154" s="10"/>
+      <c r="C154" t="s">
         <v>257</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="D154" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="9"/>
-      <c r="B151" s="9"/>
-      <c r="C151" t="s">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="10"/>
+      <c r="B155" s="10"/>
+      <c r="C155" t="s">
         <v>258</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="D155" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="9"/>
-      <c r="B152" s="9"/>
-      <c r="C152" t="s">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="10"/>
+      <c r="B156" s="10"/>
+      <c r="C156" t="s">
         <v>306</v>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="D156" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="9"/>
-      <c r="B153" s="8"/>
-      <c r="C153" t="s">
-        <v>200</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="9"/>
-      <c r="B154" s="8"/>
-      <c r="C154" t="s">
-        <v>201</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="9"/>
-      <c r="B155" s="8"/>
-      <c r="C155" t="s">
-        <v>204</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="9"/>
-      <c r="B156" s="8"/>
-      <c r="C156" t="s">
-        <v>312</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="9"/>
+      <c r="A157" s="10"/>
       <c r="B157" s="8"/>
       <c r="C157" t="s">
+        <v>200</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="10"/>
+      <c r="B158" s="8"/>
+      <c r="C158" t="s">
+        <v>201</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="10"/>
+      <c r="B159" s="8"/>
+      <c r="C159" t="s">
+        <v>204</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="10"/>
+      <c r="B160" s="8"/>
+      <c r="C160" t="s">
+        <v>312</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="10"/>
+      <c r="B161" s="8"/>
+      <c r="C161" t="s">
         <v>313</v>
       </c>
-      <c r="D157" s="1" t="s">
+      <c r="D161" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="9"/>
-      <c r="B158" s="9" t="s">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="10"/>
+      <c r="B162" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C162" t="s">
         <v>308</v>
       </c>
-      <c r="D158" s="1" t="s">
+      <c r="D162" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="9"/>
-      <c r="B159" s="9"/>
-      <c r="C159" t="s">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="10"/>
+      <c r="B163" s="10"/>
+      <c r="C163" t="s">
         <v>309</v>
       </c>
-      <c r="D159" s="1" t="s">
+      <c r="D163" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="9"/>
-      <c r="B160" s="9"/>
-      <c r="C160" t="s">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="10"/>
+      <c r="B164" s="10"/>
+      <c r="C164" t="s">
         <v>310</v>
       </c>
-      <c r="D160" s="1" t="s">
+      <c r="D164" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="9" t="s">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="B161" s="9" t="s">
+      <c r="B165" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C165" t="s">
         <v>208</v>
       </c>
-      <c r="D161" s="1" t="s">
+      <c r="D165" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="9"/>
-      <c r="B162" s="9"/>
-      <c r="C162" t="s">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="10"/>
+      <c r="B166" s="10"/>
+      <c r="C166" t="s">
         <v>210</v>
       </c>
-      <c r="D162" s="1" t="s">
+      <c r="D166" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="9"/>
-      <c r="B163" s="9"/>
-      <c r="C163" t="s">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="10"/>
+      <c r="B167" s="10"/>
+      <c r="C167" t="s">
         <v>212</v>
       </c>
-      <c r="D163" s="1" t="s">
+      <c r="D167" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="9"/>
-      <c r="B164" s="9"/>
-      <c r="C164" t="s">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="10"/>
+      <c r="B168" s="10"/>
+      <c r="C168" t="s">
         <v>213</v>
       </c>
-      <c r="D164" s="1" t="s">
+      <c r="D168" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="9"/>
-      <c r="B165" s="9"/>
-      <c r="C165" t="s">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="10"/>
+      <c r="B169" s="10"/>
+      <c r="C169" t="s">
         <v>214</v>
       </c>
-      <c r="D165" s="1" t="s">
+      <c r="D169" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="9"/>
-      <c r="B166" s="9"/>
-      <c r="C166" t="s">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="10"/>
+      <c r="B170" s="10"/>
+      <c r="C170" t="s">
         <v>216</v>
       </c>
-      <c r="D166" s="1" t="s">
+      <c r="D170" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="9"/>
-      <c r="B167" s="9"/>
-      <c r="C167" t="s">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="10"/>
+      <c r="B171" s="10"/>
+      <c r="C171" t="s">
         <v>219</v>
       </c>
-      <c r="D167" s="1" t="s">
+      <c r="D171" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="9"/>
-      <c r="B168" s="9"/>
-      <c r="C168" t="s">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="10"/>
+      <c r="B172" s="10"/>
+      <c r="C172" t="s">
         <v>282</v>
       </c>
-      <c r="D168" s="1" t="s">
+      <c r="D172" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="9"/>
-      <c r="B169" s="9"/>
-      <c r="C169" t="s">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="10"/>
+      <c r="B173" s="10"/>
+      <c r="C173" t="s">
         <v>283</v>
       </c>
-      <c r="D169" s="1" t="s">
+      <c r="D173" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="9"/>
-      <c r="B170" s="9"/>
-      <c r="C170" t="s">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="10"/>
+      <c r="B174" s="10"/>
+      <c r="C174" t="s">
         <v>284</v>
       </c>
-      <c r="D170" s="1" t="s">
+      <c r="D174" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="9"/>
-      <c r="B171" s="9"/>
-      <c r="C171" t="s">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="10"/>
+      <c r="B175" s="10"/>
+      <c r="C175" t="s">
         <v>285</v>
       </c>
-      <c r="D171" s="1" t="s">
+      <c r="D175" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="9"/>
-      <c r="B172" s="9"/>
-      <c r="C172" t="s">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="10"/>
+      <c r="B176" s="10"/>
+      <c r="C176" t="s">
         <v>286</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="9"/>
-      <c r="B173" s="9"/>
-      <c r="C173" t="s">
-        <v>287</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="9"/>
-      <c r="B174" s="9"/>
-      <c r="C174" t="s">
-        <v>288</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="9"/>
-      <c r="B175" s="9"/>
-      <c r="C175" t="s">
-        <v>289</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="9"/>
-      <c r="B176" s="9"/>
-      <c r="C176" t="s">
-        <v>290</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="9"/>
-      <c r="B177" s="9"/>
+      <c r="A177" s="10"/>
+      <c r="B177" s="10"/>
       <c r="C177" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="9"/>
-      <c r="B178" s="9" t="s">
+      <c r="A178" s="10"/>
+      <c r="B178" s="10"/>
+      <c r="C178" t="s">
+        <v>288</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="10"/>
+      <c r="B179" s="10"/>
+      <c r="C179" t="s">
+        <v>289</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="10"/>
+      <c r="B180" s="10"/>
+      <c r="C180" t="s">
+        <v>290</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="10"/>
+      <c r="B181" s="10"/>
+      <c r="C181" t="s">
+        <v>291</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="10"/>
+      <c r="B182" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C182" t="s">
         <v>221</v>
       </c>
-      <c r="D178" s="1" t="s">
+      <c r="D182" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="9"/>
-      <c r="B179" s="9"/>
-      <c r="C179" t="s">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="10"/>
+      <c r="B183" s="10"/>
+      <c r="C183" t="s">
         <v>222</v>
       </c>
-      <c r="D179" s="1" t="s">
+      <c r="D183" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="9"/>
-      <c r="B180" s="9"/>
-      <c r="C180" t="s">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="10"/>
+      <c r="B184" s="10"/>
+      <c r="C184" t="s">
         <v>224</v>
       </c>
-      <c r="D180" s="1" t="s">
+      <c r="D184" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="3" t="s">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C185" t="s">
         <v>218</v>
       </c>
-      <c r="D181" s="1" t="s">
+      <c r="D185" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="9" t="s">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="B182" s="9" t="s">
+      <c r="B186" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C186" t="s">
         <v>227</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="9"/>
-      <c r="B183" s="9"/>
-      <c r="C183" t="s">
-        <v>229</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="9"/>
-      <c r="B184" s="9"/>
-      <c r="C184" t="s">
-        <v>230</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="9"/>
-      <c r="B185" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C185" t="s">
-        <v>232</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="9"/>
-      <c r="B186" s="9"/>
-      <c r="C186" t="s">
-        <v>233</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="9"/>
-      <c r="B187" s="2" t="s">
-        <v>236</v>
-      </c>
+      <c r="A187" s="10"/>
+      <c r="B187" s="10"/>
       <c r="C187" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="9"/>
+      <c r="A188" s="10"/>
+      <c r="B188" s="10"/>
       <c r="C188" t="s">
+        <v>230</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="10"/>
+      <c r="B189" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C189" t="s">
+        <v>232</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="10"/>
+      <c r="B190" s="10"/>
+      <c r="C190" t="s">
+        <v>233</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="10"/>
+      <c r="B191" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C191" t="s">
+        <v>235</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="10"/>
+      <c r="C192" t="s">
         <v>240</v>
       </c>
-      <c r="D188" s="1" t="s">
+      <c r="D192" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="9"/>
-      <c r="C189" t="s">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="10"/>
+      <c r="C193" t="s">
         <v>238</v>
       </c>
-      <c r="D189" s="1" t="s">
+      <c r="D193" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="9"/>
-      <c r="C190" t="s">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="10"/>
+      <c r="C194" t="s">
         <v>239</v>
       </c>
-      <c r="D190" s="1" t="s">
+      <c r="D194" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="9"/>
-      <c r="B191" s="9" t="s">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="10"/>
+      <c r="B195" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="C191" t="s">
+      <c r="C195" t="s">
         <v>241</v>
       </c>
-      <c r="D191" s="1" t="s">
+      <c r="D195" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="9"/>
-      <c r="B192" s="9"/>
-      <c r="C192" t="s">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="10"/>
+      <c r="B196" s="10"/>
+      <c r="C196" t="s">
         <v>243</v>
       </c>
-      <c r="D192" s="1" t="s">
+      <c r="D196" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="9"/>
-      <c r="B193" s="9" t="s">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="10"/>
+      <c r="B197" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C197" t="s">
         <v>245</v>
       </c>
-      <c r="D193" s="1" t="s">
+      <c r="D197" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="9"/>
-      <c r="B194" s="9"/>
-      <c r="C194" t="s">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="10"/>
+      <c r="B198" s="10"/>
+      <c r="C198" t="s">
         <v>244</v>
       </c>
-      <c r="D194" s="1" t="s">
+      <c r="D198" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="9"/>
-      <c r="B195" s="5"/>
-      <c r="C195" t="s">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="10"/>
+      <c r="B199" s="5"/>
+      <c r="C199" t="s">
         <v>266</v>
       </c>
-      <c r="D195" s="1" t="s">
+      <c r="D199" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" s="9"/>
-      <c r="B196" s="6"/>
-      <c r="C196" t="s">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="10"/>
+      <c r="B200" s="6"/>
+      <c r="C200" t="s">
         <v>269</v>
       </c>
-      <c r="D196" s="1" t="s">
+      <c r="D200" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="9"/>
-      <c r="B197" s="6"/>
-      <c r="C197" t="s">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="10"/>
+      <c r="B201" s="6"/>
+      <c r="C201" t="s">
         <v>270</v>
       </c>
-      <c r="D197" s="1" t="s">
+      <c r="D201" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" s="9"/>
-      <c r="B198" s="6"/>
-      <c r="C198" t="s">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="10"/>
+      <c r="B202" s="6"/>
+      <c r="C202" t="s">
         <v>271</v>
       </c>
-      <c r="D198" s="1" t="s">
+      <c r="D202" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="9" t="s">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C203" t="s">
         <v>249</v>
       </c>
-      <c r="D199" s="1" t="s">
+      <c r="D203" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="9"/>
-      <c r="C200" t="s">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="10"/>
+      <c r="C204" t="s">
         <v>251</v>
       </c>
-      <c r="D200" s="1" t="s">
+      <c r="D204" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="9"/>
-      <c r="B201" s="5"/>
-      <c r="C201" t="s">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="10"/>
+      <c r="B205" s="5"/>
+      <c r="C205" t="s">
         <v>265</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C202" t="s">
-        <v>253</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>259</v>
-      </c>
-      <c r="C203" t="s">
-        <v>260</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>262</v>
-      </c>
-      <c r="C204" t="s">
-        <v>263</v>
-      </c>
-      <c r="D204" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>267</v>
-      </c>
-      <c r="C205" t="s">
-        <v>268</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="4" t="s">
+        <v>252</v>
+      </c>
       <c r="C206" t="s">
+        <v>253</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>259</v>
+      </c>
+      <c r="C207" t="s">
+        <v>260</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>262</v>
+      </c>
+      <c r="C208" t="s">
+        <v>263</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>267</v>
+      </c>
+      <c r="C209" t="s">
+        <v>268</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C210" t="s">
         <v>276</v>
       </c>
-      <c r="D206" s="1" t="s">
+      <c r="D210" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C207" t="s">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C211" t="s">
         <v>277</v>
       </c>
-      <c r="D207" s="1" t="s">
+      <c r="D211" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C208" t="s">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C212" t="s">
         <v>278</v>
       </c>
-      <c r="D208" s="1" t="s">
+      <c r="D212" s="1" t="s">
         <v>279</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="A69:A89"/>
-    <mergeCell ref="B178:B180"/>
-    <mergeCell ref="B114:B121"/>
-    <mergeCell ref="B123:B125"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="B161:B177"/>
-    <mergeCell ref="A161:A180"/>
-    <mergeCell ref="A90:A95"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B138:B143"/>
-    <mergeCell ref="B96:B105"/>
-    <mergeCell ref="B106:B110"/>
+    <mergeCell ref="A186:A202"/>
+    <mergeCell ref="A203:A205"/>
+    <mergeCell ref="A115:A148"/>
+    <mergeCell ref="B149:B156"/>
+    <mergeCell ref="B162:B164"/>
+    <mergeCell ref="A149:A164"/>
+    <mergeCell ref="B139:B141"/>
+    <mergeCell ref="B195:B196"/>
+    <mergeCell ref="B197:B198"/>
+    <mergeCell ref="B186:B188"/>
+    <mergeCell ref="B189:B190"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="B69:B71"/>
     <mergeCell ref="B5:B8"/>
@@ -3876,18 +3928,22 @@
     <mergeCell ref="B54:B56"/>
     <mergeCell ref="A42:A56"/>
     <mergeCell ref="A57:A68"/>
-    <mergeCell ref="A182:A198"/>
-    <mergeCell ref="A199:A201"/>
-    <mergeCell ref="A111:A144"/>
-    <mergeCell ref="B145:B152"/>
-    <mergeCell ref="B158:B160"/>
-    <mergeCell ref="A145:A160"/>
-    <mergeCell ref="B135:B137"/>
-    <mergeCell ref="B191:B192"/>
-    <mergeCell ref="B193:B194"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="A69:A89"/>
     <mergeCell ref="B182:B184"/>
-    <mergeCell ref="B185:B186"/>
-    <mergeCell ref="A96:A110"/>
+    <mergeCell ref="B118:B125"/>
+    <mergeCell ref="B127:B129"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="B165:B181"/>
+    <mergeCell ref="A165:A184"/>
+    <mergeCell ref="A90:A95"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B142:B147"/>
+    <mergeCell ref="B100:B109"/>
+    <mergeCell ref="B110:B114"/>
+    <mergeCell ref="A100:A114"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/时间表.xlsx
+++ b/时间表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\360\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DC33B6-2C49-45D5-9750-020E97731248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1DE76D-60F2-4E31-9EB0-3E0D10CB4067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7848" yWindow="144" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="328">
   <si>
     <t>第一次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1328,6 +1328,14 @@
   </si>
   <si>
     <t>3.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>540有序数组的单一元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1683,8 +1691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="F98" sqref="F98"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="F105" sqref="F105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2727,6 +2735,12 @@
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="9"/>
       <c r="B99" s="9"/>
+      <c r="C99" t="s">
+        <v>326</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
@@ -3903,31 +3917,6 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A186:A202"/>
-    <mergeCell ref="A203:A205"/>
-    <mergeCell ref="A115:A148"/>
-    <mergeCell ref="B149:B156"/>
-    <mergeCell ref="B162:B164"/>
-    <mergeCell ref="A149:A164"/>
-    <mergeCell ref="B139:B141"/>
-    <mergeCell ref="B195:B196"/>
-    <mergeCell ref="B197:B198"/>
-    <mergeCell ref="B186:B188"/>
-    <mergeCell ref="B189:B190"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B13:B31"/>
-    <mergeCell ref="B32:B40"/>
-    <mergeCell ref="A13:A41"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="A42:A56"/>
-    <mergeCell ref="A57:A68"/>
     <mergeCell ref="B86:B89"/>
     <mergeCell ref="A69:A89"/>
     <mergeCell ref="B182:B184"/>
@@ -3944,6 +3933,31 @@
     <mergeCell ref="B100:B109"/>
     <mergeCell ref="B110:B114"/>
     <mergeCell ref="A100:A114"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B13:B31"/>
+    <mergeCell ref="B32:B40"/>
+    <mergeCell ref="A13:A41"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="A42:A56"/>
+    <mergeCell ref="A57:A68"/>
+    <mergeCell ref="A186:A202"/>
+    <mergeCell ref="A203:A205"/>
+    <mergeCell ref="A115:A148"/>
+    <mergeCell ref="B149:B156"/>
+    <mergeCell ref="B162:B164"/>
+    <mergeCell ref="A149:A164"/>
+    <mergeCell ref="B139:B141"/>
+    <mergeCell ref="B195:B196"/>
+    <mergeCell ref="B197:B198"/>
+    <mergeCell ref="B186:B188"/>
+    <mergeCell ref="B189:B190"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/时间表.xlsx
+++ b/时间表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\360\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1DE76D-60F2-4E31-9EB0-3E0D10CB4067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB82ABA-FDC8-479F-A887-FDEBBDB40ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7848" yWindow="144" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1691,8 +1691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="F105" sqref="F105"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F206" sqref="F206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3715,7 +3715,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="10"/>
       <c r="C193" t="s">
         <v>238</v>
@@ -3724,7 +3724,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="10"/>
       <c r="C194" t="s">
         <v>239</v>
@@ -3733,7 +3733,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="10"/>
       <c r="B195" s="10" t="s">
         <v>128</v>
@@ -3745,7 +3745,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="10"/>
       <c r="B196" s="10"/>
       <c r="C196" t="s">
@@ -3755,7 +3755,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="10"/>
       <c r="B197" s="10" t="s">
         <v>246</v>
@@ -3767,7 +3767,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="10"/>
       <c r="B198" s="10"/>
       <c r="C198" t="s">
@@ -3777,7 +3777,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="10"/>
       <c r="B199" s="5"/>
       <c r="C199" t="s">
@@ -3787,7 +3787,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="10"/>
       <c r="B200" s="6"/>
       <c r="C200" t="s">
@@ -3797,7 +3797,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="10"/>
       <c r="B201" s="6"/>
       <c r="C201" t="s">
@@ -3807,7 +3807,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="10"/>
       <c r="B202" s="6"/>
       <c r="C202" t="s">
@@ -3817,7 +3817,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="10" t="s">
         <v>248</v>
       </c>
@@ -3827,8 +3827,11 @@
       <c r="D203" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E203">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="10"/>
       <c r="C204" t="s">
         <v>251</v>
@@ -3836,8 +3839,11 @@
       <c r="D204" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E204">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="10"/>
       <c r="B205" s="5"/>
       <c r="C205" t="s">
@@ -3847,7 +3853,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
         <v>252</v>
       </c>
@@ -3858,7 +3864,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>259</v>
       </c>
@@ -3869,7 +3875,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>262</v>
       </c>
@@ -3917,6 +3923,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="A186:A202"/>
+    <mergeCell ref="A203:A205"/>
+    <mergeCell ref="A115:A148"/>
+    <mergeCell ref="B149:B156"/>
+    <mergeCell ref="B162:B164"/>
+    <mergeCell ref="A149:A164"/>
+    <mergeCell ref="B139:B141"/>
+    <mergeCell ref="B195:B196"/>
+    <mergeCell ref="B197:B198"/>
+    <mergeCell ref="B186:B188"/>
+    <mergeCell ref="B189:B190"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B13:B31"/>
+    <mergeCell ref="B32:B40"/>
+    <mergeCell ref="A13:A41"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="A42:A56"/>
+    <mergeCell ref="A57:A68"/>
     <mergeCell ref="B86:B89"/>
     <mergeCell ref="A69:A89"/>
     <mergeCell ref="B182:B184"/>
@@ -3933,31 +3964,6 @@
     <mergeCell ref="B100:B109"/>
     <mergeCell ref="B110:B114"/>
     <mergeCell ref="A100:A114"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B13:B31"/>
-    <mergeCell ref="B32:B40"/>
-    <mergeCell ref="A13:A41"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="A42:A56"/>
-    <mergeCell ref="A57:A68"/>
-    <mergeCell ref="A186:A202"/>
-    <mergeCell ref="A203:A205"/>
-    <mergeCell ref="A115:A148"/>
-    <mergeCell ref="B149:B156"/>
-    <mergeCell ref="B162:B164"/>
-    <mergeCell ref="A149:A164"/>
-    <mergeCell ref="B139:B141"/>
-    <mergeCell ref="B195:B196"/>
-    <mergeCell ref="B197:B198"/>
-    <mergeCell ref="B186:B188"/>
-    <mergeCell ref="B189:B190"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/时间表.xlsx
+++ b/时间表.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\360\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB82ABA-FDC8-479F-A887-FDEBBDB40ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5EA3070-9617-4434-9209-A99608B2B2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7848" yWindow="144" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10776" yWindow="612" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="334">
   <si>
     <t>第一次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1336,6 +1337,30 @@
   </si>
   <si>
     <t>3.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 寻找两个正序数组的中位数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75颜色分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>347前K个高频元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>451根据字符出现的频率排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1379,7 +1404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1402,6 +1427,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1689,10 +1720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F212"/>
+  <dimension ref="A1:F216"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F206" sqref="F206"/>
+    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="E210" sqref="E210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1724,10 +1755,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>153</v>
       </c>
       <c r="C2" t="s">
@@ -1738,8 +1769,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -1748,7 +1779,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="12"/>
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -1757,8 +1788,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12" t="s">
         <v>141</v>
       </c>
       <c r="C5" t="s">
@@ -1769,8 +1800,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
       <c r="C6" t="s">
         <v>138</v>
       </c>
@@ -1779,8 +1810,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
       <c r="C7" t="s">
         <v>139</v>
       </c>
@@ -1789,8 +1820,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
       <c r="C8" t="s">
         <v>140</v>
       </c>
@@ -1802,8 +1833,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12" t="s">
         <v>152</v>
       </c>
       <c r="C9" t="s">
@@ -1814,8 +1845,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
       <c r="C10" t="s">
         <v>9</v>
       </c>
@@ -1824,8 +1855,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
       <c r="C11" t="s">
         <v>10</v>
       </c>
@@ -1834,7 +1865,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
+      <c r="A12" s="12"/>
       <c r="C12" t="s">
         <v>97</v>
       </c>
@@ -1843,10 +1874,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C13" t="s">
@@ -1857,8 +1888,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -1867,8 +1898,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
       <c r="C15" t="s">
         <v>17</v>
       </c>
@@ -1877,8 +1908,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
       <c r="C16" t="s">
         <v>18</v>
       </c>
@@ -1887,8 +1918,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
       <c r="C17" t="s">
         <v>19</v>
       </c>
@@ -1897,8 +1928,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
       <c r="C18" t="s">
         <v>20</v>
       </c>
@@ -1907,8 +1938,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
       <c r="C19" t="s">
         <v>21</v>
       </c>
@@ -1917,8 +1948,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
       <c r="C20" t="s">
         <v>22</v>
       </c>
@@ -1927,8 +1958,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
       <c r="C21" t="s">
         <v>23</v>
       </c>
@@ -1937,8 +1968,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
       <c r="C22" t="s">
         <v>24</v>
       </c>
@@ -1947,8 +1978,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -1957,8 +1988,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
       <c r="C24" t="s">
         <v>26</v>
       </c>
@@ -1967,8 +1998,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
       <c r="C25" t="s">
         <v>27</v>
       </c>
@@ -1977,8 +2008,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
       <c r="C26" t="s">
         <v>28</v>
       </c>
@@ -1987,8 +2018,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
       <c r="C27" t="s">
         <v>29</v>
       </c>
@@ -1997,8 +2028,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
       <c r="C28" t="s">
         <v>30</v>
       </c>
@@ -2007,8 +2038,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
       <c r="C29" t="s">
         <v>31</v>
       </c>
@@ -2017,8 +2048,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
       <c r="C30" t="s">
         <v>32</v>
       </c>
@@ -2027,8 +2058,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
       <c r="C31" t="s">
         <v>33</v>
       </c>
@@ -2037,8 +2068,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10" t="s">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C32" t="s">
@@ -2049,8 +2080,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
       <c r="C33" t="s">
         <v>36</v>
       </c>
@@ -2059,8 +2090,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
       <c r="C34" t="s">
         <v>37</v>
       </c>
@@ -2069,8 +2100,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
       <c r="C35" t="s">
         <v>39</v>
       </c>
@@ -2079,8 +2110,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
       <c r="C36" t="s">
         <v>40</v>
       </c>
@@ -2089,8 +2120,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
       <c r="C37" t="s">
         <v>41</v>
       </c>
@@ -2099,8 +2130,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
       <c r="C38" t="s">
         <v>42</v>
       </c>
@@ -2109,8 +2140,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
       <c r="C39" t="s">
         <v>44</v>
       </c>
@@ -2119,8 +2150,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
       <c r="C40" t="s">
         <v>45</v>
       </c>
@@ -2129,7 +2160,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
+      <c r="A41" s="12"/>
       <c r="B41" s="2" t="s">
         <v>47</v>
       </c>
@@ -2141,7 +2172,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="12" t="s">
         <v>50</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -2155,7 +2186,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
+      <c r="A43" s="12"/>
       <c r="B43" s="2" t="s">
         <v>74</v>
       </c>
@@ -2167,7 +2198,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
+      <c r="A44" s="12"/>
       <c r="B44" s="2" t="s">
         <v>75</v>
       </c>
@@ -2179,8 +2210,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10" t="s">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C45" t="s">
@@ -2191,8 +2222,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
       <c r="C46" t="s">
         <v>57</v>
       </c>
@@ -2201,8 +2232,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10" t="s">
+      <c r="A47" s="12"/>
+      <c r="B47" s="12" t="s">
         <v>77</v>
       </c>
       <c r="C47" t="s">
@@ -2213,8 +2244,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
       <c r="C48" t="s">
         <v>61</v>
       </c>
@@ -2223,8 +2254,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
       <c r="C49" t="s">
         <v>62</v>
       </c>
@@ -2233,8 +2264,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10" t="s">
+      <c r="A50" s="12"/>
+      <c r="B50" s="12" t="s">
         <v>78</v>
       </c>
       <c r="C50" t="s">
@@ -2245,8 +2276,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="12"/>
       <c r="C51" t="s">
         <v>65</v>
       </c>
@@ -2255,8 +2286,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10"/>
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
       <c r="C52" t="s">
         <v>66</v>
       </c>
@@ -2265,7 +2296,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="10"/>
+      <c r="A53" s="12"/>
       <c r="B53" s="2" t="s">
         <v>79</v>
       </c>
@@ -2277,8 +2308,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10" t="s">
+      <c r="A54" s="12"/>
+      <c r="B54" s="12" t="s">
         <v>80</v>
       </c>
       <c r="C54" t="s">
@@ -2289,8 +2320,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="10"/>
-      <c r="B55" s="10"/>
+      <c r="A55" s="12"/>
+      <c r="B55" s="12"/>
       <c r="C55" t="s">
         <v>70</v>
       </c>
@@ -2299,8 +2330,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10"/>
+      <c r="A56" s="12"/>
+      <c r="B56" s="12"/>
       <c r="C56" t="s">
         <v>71</v>
       </c>
@@ -2309,7 +2340,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="12" t="s">
         <v>81</v>
       </c>
       <c r="C57" t="s">
@@ -2320,7 +2351,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="10"/>
+      <c r="A58" s="12"/>
       <c r="C58" t="s">
         <v>83</v>
       </c>
@@ -2329,7 +2360,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="10"/>
+      <c r="A59" s="12"/>
       <c r="C59" t="s">
         <v>84</v>
       </c>
@@ -2338,7 +2369,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="10"/>
+      <c r="A60" s="12"/>
       <c r="C60" t="s">
         <v>86</v>
       </c>
@@ -2347,7 +2378,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="10"/>
+      <c r="A61" s="12"/>
       <c r="C61" t="s">
         <v>87</v>
       </c>
@@ -2356,7 +2387,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="10"/>
+      <c r="A62" s="12"/>
       <c r="C62" t="s">
         <v>89</v>
       </c>
@@ -2365,7 +2396,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="10"/>
+      <c r="A63" s="12"/>
       <c r="C63" t="s">
         <v>90</v>
       </c>
@@ -2374,7 +2405,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="10"/>
+      <c r="A64" s="12"/>
       <c r="C64" t="s">
         <v>91</v>
       </c>
@@ -2383,7 +2414,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="10"/>
+      <c r="A65" s="12"/>
       <c r="C65" t="s">
         <v>92</v>
       </c>
@@ -2392,7 +2423,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="10"/>
+      <c r="A66" s="12"/>
       <c r="C66" t="s">
         <v>94</v>
       </c>
@@ -2401,7 +2432,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="10"/>
+      <c r="A67" s="12"/>
       <c r="C67" t="s">
         <v>95</v>
       </c>
@@ -2410,7 +2441,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="10"/>
+      <c r="A68" s="12"/>
       <c r="B68" s="7"/>
       <c r="C68" t="s">
         <v>280</v>
@@ -2420,10 +2451,10 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C69" t="s">
@@ -2434,8 +2465,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="10"/>
-      <c r="B70" s="10"/>
+      <c r="A70" s="12"/>
+      <c r="B70" s="12"/>
       <c r="C70" t="s">
         <v>101</v>
       </c>
@@ -2444,8 +2475,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="10"/>
-      <c r="B71" s="10"/>
+      <c r="A71" s="12"/>
+      <c r="B71" s="12"/>
       <c r="C71" t="s">
         <v>102</v>
       </c>
@@ -2454,8 +2485,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="10"/>
-      <c r="B72" s="10" t="s">
+      <c r="A72" s="12"/>
+      <c r="B72" s="12" t="s">
         <v>104</v>
       </c>
       <c r="C72" t="s">
@@ -2466,8 +2497,8 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="10"/>
-      <c r="B73" s="10"/>
+      <c r="A73" s="12"/>
+      <c r="B73" s="12"/>
       <c r="C73" t="s">
         <v>107</v>
       </c>
@@ -2476,8 +2507,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="10"/>
-      <c r="B74" s="10"/>
+      <c r="A74" s="12"/>
+      <c r="B74" s="12"/>
       <c r="C74" t="s">
         <v>108</v>
       </c>
@@ -2486,8 +2517,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="10"/>
-      <c r="B75" s="10" t="s">
+      <c r="A75" s="12"/>
+      <c r="B75" s="12" t="s">
         <v>113</v>
       </c>
       <c r="C75" t="s">
@@ -2498,8 +2529,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="10"/>
-      <c r="B76" s="10"/>
+      <c r="A76" s="12"/>
+      <c r="B76" s="12"/>
       <c r="C76" t="s">
         <v>111</v>
       </c>
@@ -2508,8 +2539,8 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="10"/>
-      <c r="B77" s="10"/>
+      <c r="A77" s="12"/>
+      <c r="B77" s="12"/>
       <c r="C77" t="s">
         <v>112</v>
       </c>
@@ -2518,8 +2549,8 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="10"/>
-      <c r="B78" s="10" t="s">
+      <c r="A78" s="12"/>
+      <c r="B78" s="12" t="s">
         <v>128</v>
       </c>
       <c r="C78" t="s">
@@ -2530,8 +2561,8 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="10"/>
-      <c r="B79" s="10"/>
+      <c r="A79" s="12"/>
+      <c r="B79" s="12"/>
       <c r="C79" t="s">
         <v>125</v>
       </c>
@@ -2540,8 +2571,8 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="10"/>
-      <c r="B80" s="10"/>
+      <c r="A80" s="12"/>
+      <c r="B80" s="12"/>
       <c r="C80" t="s">
         <v>127</v>
       </c>
@@ -2550,7 +2581,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="10"/>
+      <c r="A81" s="12"/>
       <c r="C81" t="s">
         <v>114</v>
       </c>
@@ -2559,8 +2590,8 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="10"/>
-      <c r="B82" s="10" t="s">
+      <c r="A82" s="12"/>
+      <c r="B82" s="12" t="s">
         <v>121</v>
       </c>
       <c r="C82" t="s">
@@ -2571,8 +2602,8 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="10"/>
-      <c r="B83" s="10"/>
+      <c r="A83" s="12"/>
+      <c r="B83" s="12"/>
       <c r="C83" t="s">
         <v>117</v>
       </c>
@@ -2581,8 +2612,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="10"/>
-      <c r="B84" s="10"/>
+      <c r="A84" s="12"/>
+      <c r="B84" s="12"/>
       <c r="C84" t="s">
         <v>118</v>
       </c>
@@ -2591,8 +2622,8 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="10"/>
-      <c r="B85" s="10"/>
+      <c r="A85" s="12"/>
+      <c r="B85" s="12"/>
       <c r="C85" t="s">
         <v>119</v>
       </c>
@@ -2601,8 +2632,8 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="10"/>
-      <c r="B86" s="10" t="s">
+      <c r="A86" s="12"/>
+      <c r="B86" s="12" t="s">
         <v>296</v>
       </c>
       <c r="C86" t="s">
@@ -2613,8 +2644,8 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="10"/>
-      <c r="B87" s="10"/>
+      <c r="A87" s="12"/>
+      <c r="B87" s="12"/>
       <c r="C87" t="s">
         <v>123</v>
       </c>
@@ -2623,8 +2654,8 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="10"/>
-      <c r="B88" s="10"/>
+      <c r="A88" s="12"/>
+      <c r="B88" s="12"/>
       <c r="C88" t="s">
         <v>293</v>
       </c>
@@ -2633,8 +2664,8 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="10"/>
-      <c r="B89" s="10"/>
+      <c r="A89" s="12"/>
+      <c r="B89" s="12"/>
       <c r="C89" t="s">
         <v>294</v>
       </c>
@@ -2643,7 +2674,7 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="10" t="s">
+      <c r="A90" s="12" t="s">
         <v>129</v>
       </c>
       <c r="C90" t="s">
@@ -2654,7 +2685,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="10"/>
+      <c r="A91" s="12"/>
       <c r="C91" t="s">
         <v>131</v>
       </c>
@@ -2666,7 +2697,7 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="10"/>
+      <c r="A92" s="12"/>
       <c r="C92" t="s">
         <v>133</v>
       </c>
@@ -2675,7 +2706,7 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="10"/>
+      <c r="A93" s="12"/>
       <c r="C93" t="s">
         <v>134</v>
       </c>
@@ -2684,7 +2715,7 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="10"/>
+      <c r="A94" s="12"/>
       <c r="C94" t="s">
         <v>135</v>
       </c>
@@ -2693,7 +2724,7 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="10"/>
+      <c r="A95" s="12"/>
       <c r="B95" s="6"/>
       <c r="C95" t="s">
         <v>273</v>
@@ -2743,534 +2774,531 @@
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="10" t="s">
+      <c r="A100" s="10"/>
+      <c r="B100" s="10"/>
+      <c r="C100" t="s">
+        <v>328</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="B100" s="10" t="s">
+      <c r="B101" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C101" t="s">
         <v>149</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E100">
-        <v>3.15</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="10"/>
-      <c r="B101" s="10"/>
-      <c r="C101" t="s">
-        <v>150</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>109</v>
       </c>
+      <c r="E101">
+        <v>3.15</v>
+      </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="10"/>
-      <c r="B102" s="10"/>
+      <c r="A102" s="12"/>
+      <c r="B102" s="12"/>
       <c r="C102" t="s">
+        <v>150</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="12"/>
+      <c r="B103" s="12"/>
+      <c r="C103" t="s">
         <v>151</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D103" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="10"/>
-      <c r="B103" s="10"/>
-      <c r="C103" t="s">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="12"/>
+      <c r="B104" s="12"/>
+      <c r="C104" t="s">
         <v>274</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="10"/>
-      <c r="B104" s="10"/>
-      <c r="C104" t="s">
-        <v>275</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="10"/>
-      <c r="B105" s="10"/>
+      <c r="A105" s="12"/>
+      <c r="B105" s="12"/>
       <c r="C105" t="s">
+        <v>275</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="12"/>
+      <c r="B106" s="12"/>
+      <c r="C106" t="s">
         <v>315</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D106" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="10"/>
-      <c r="B106" s="10"/>
-      <c r="C106" t="s">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="12"/>
+      <c r="B107" s="12"/>
+      <c r="C107" t="s">
         <v>318</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="10"/>
-      <c r="B107" s="10"/>
-      <c r="C107" t="s">
-        <v>319</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="10"/>
-      <c r="B108" s="10"/>
+      <c r="A108" s="12"/>
+      <c r="B108" s="12"/>
       <c r="C108" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="10"/>
-      <c r="B109" s="10"/>
+      <c r="A109" s="12"/>
+      <c r="B109" s="12"/>
       <c r="C109" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="10"/>
-      <c r="B110" s="10" t="s">
+      <c r="A110" s="12"/>
+      <c r="B110" s="12"/>
+      <c r="C110" t="s">
+        <v>321</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="12"/>
+      <c r="B111" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C111" t="s">
         <v>144</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E110">
-        <v>3.16</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="10"/>
-      <c r="B111" s="10"/>
-      <c r="C111" t="s">
-        <v>145</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>148</v>
       </c>
+      <c r="E111">
+        <v>3.16</v>
+      </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="10"/>
-      <c r="B112" s="10"/>
+      <c r="A112" s="12"/>
+      <c r="B112" s="12"/>
       <c r="C112" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="10"/>
-      <c r="B113" s="10"/>
+      <c r="A113" s="12"/>
+      <c r="B113" s="12"/>
       <c r="C113" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="10"/>
-      <c r="B114" s="10"/>
+      <c r="A114" s="12"/>
+      <c r="B114" s="12"/>
       <c r="C114" t="s">
+        <v>147</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="12"/>
+      <c r="B115" s="12"/>
+      <c r="C115" t="s">
         <v>316</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="D115" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="10" t="s">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C116" t="s">
         <v>155</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="D116" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="10"/>
-      <c r="C116" t="s">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="12"/>
+      <c r="C117" t="s">
         <v>156</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="D117" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="10"/>
-      <c r="C117" t="s">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="12"/>
+      <c r="C118" t="s">
         <v>158</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="10"/>
-      <c r="B118" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="C118" t="s">
-        <v>163</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="10"/>
-      <c r="B119" s="10"/>
+      <c r="A119" s="12"/>
+      <c r="B119" s="12" t="s">
+        <v>162</v>
+      </c>
       <c r="C119" t="s">
+        <v>163</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="12"/>
+      <c r="B120" s="12"/>
+      <c r="C120" t="s">
         <v>164</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="D120" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="10"/>
-      <c r="B120" s="10"/>
-      <c r="C120" t="s">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="12"/>
+      <c r="B121" s="12"/>
+      <c r="C121" t="s">
         <v>166</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="10"/>
-      <c r="B121" s="10"/>
-      <c r="C121" t="s">
-        <v>167</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="10"/>
-      <c r="B122" s="10"/>
+      <c r="A122" s="12"/>
+      <c r="B122" s="12"/>
       <c r="C122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="10"/>
-      <c r="B123" s="10"/>
+      <c r="A123" s="12"/>
+      <c r="B123" s="12"/>
       <c r="C123" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="10"/>
-      <c r="B124" s="10"/>
+      <c r="A124" s="12"/>
+      <c r="B124" s="12"/>
       <c r="C124" t="s">
+        <v>169</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="12"/>
+      <c r="B125" s="12"/>
+      <c r="C125" t="s">
         <v>171</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="D125" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="10"/>
-      <c r="B125" s="10"/>
-      <c r="C125" t="s">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="12"/>
+      <c r="B126" s="12"/>
+      <c r="C126" t="s">
         <v>193</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="D126" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="10"/>
-      <c r="B126" s="2" t="s">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="12"/>
+      <c r="B127" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C127" t="s">
         <v>170</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="D127" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="10"/>
-      <c r="B127" s="10" t="s">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="12"/>
+      <c r="B128" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C128" t="s">
         <v>174</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="D128" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="10"/>
-      <c r="B128" s="10"/>
-      <c r="C128" t="s">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="12"/>
+      <c r="B129" s="12"/>
+      <c r="C129" t="s">
         <v>175</v>
       </c>
-      <c r="D128" s="1" t="s">
+      <c r="D129" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="10"/>
-      <c r="B129" s="10"/>
-      <c r="C129" t="s">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="12"/>
+      <c r="B130" s="12"/>
+      <c r="C130" t="s">
         <v>160</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="D130" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="10"/>
-      <c r="C130" t="s">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="12"/>
+      <c r="C131" t="s">
         <v>177</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="10"/>
-      <c r="C131" t="s">
-        <v>178</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="10"/>
+      <c r="A132" s="12"/>
       <c r="C132" t="s">
+        <v>178</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="12"/>
+      <c r="C133" t="s">
         <v>182</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="10"/>
-      <c r="C133" t="s">
-        <v>179</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="10"/>
+      <c r="A134" s="12"/>
       <c r="C134" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="10"/>
+      <c r="A135" s="12"/>
       <c r="C135" t="s">
+        <v>180</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="12"/>
+      <c r="C136" t="s">
         <v>181</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="10"/>
-      <c r="C136" t="s">
-        <v>184</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="10"/>
-      <c r="B137" s="2" t="s">
+      <c r="A137" s="12"/>
+      <c r="C137" t="s">
+        <v>184</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="12"/>
+      <c r="B138" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C138" t="s">
         <v>186</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="10"/>
-      <c r="C138" t="s">
-        <v>187</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="10"/>
-      <c r="B139" s="10" t="s">
-        <v>305</v>
-      </c>
+      <c r="A139" s="12"/>
       <c r="C139" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="10"/>
-      <c r="B140" s="10"/>
+      <c r="A140" s="12"/>
+      <c r="B140" s="12" t="s">
+        <v>305</v>
+      </c>
       <c r="C140" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="10"/>
-      <c r="B141" s="10"/>
+      <c r="A141" s="12"/>
+      <c r="B141" s="12"/>
       <c r="C141" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="10"/>
-      <c r="B142" s="10" t="s">
+      <c r="A142" s="12"/>
+      <c r="B142" s="12"/>
+      <c r="C142" t="s">
+        <v>190</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="12"/>
+      <c r="B143" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C143" t="s">
         <v>297</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="10"/>
-      <c r="B143" s="10"/>
-      <c r="C143" t="s">
-        <v>298</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="10"/>
-      <c r="B144" s="10"/>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="12"/>
+      <c r="B144" s="12"/>
       <c r="C144" t="s">
+        <v>298</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="12"/>
+      <c r="B145" s="12"/>
+      <c r="C145" t="s">
         <v>300</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="10"/>
-      <c r="B145" s="10"/>
-      <c r="C145" t="s">
-        <v>301</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="10"/>
-      <c r="B146" s="10"/>
+    <row r="146" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="12"/>
+      <c r="B146" s="12"/>
       <c r="C146" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="10"/>
-      <c r="B147" s="10"/>
+      <c r="A147" s="12"/>
+      <c r="B147" s="12"/>
       <c r="C147" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="10"/>
-      <c r="B148" s="2" t="s">
+      <c r="A148" s="12"/>
+      <c r="B148" s="12"/>
+      <c r="C148" t="s">
+        <v>303</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="12"/>
+      <c r="B149" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C149" t="s">
         <v>192</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B149" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C149" t="s">
-        <v>197</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E149">
-        <v>3.14</v>
-      </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="10"/>
-      <c r="B150" s="10"/>
+      <c r="A150" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B150" s="12" t="s">
+        <v>255</v>
+      </c>
       <c r="C150" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>194</v>
@@ -3280,561 +3308,562 @@
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="10"/>
-      <c r="B151" s="10"/>
+      <c r="A151" s="12"/>
+      <c r="B151" s="12"/>
       <c r="C151" t="s">
+        <v>198</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E151">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="12"/>
+      <c r="B152" s="12"/>
+      <c r="C152" t="s">
         <v>202</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="10"/>
-      <c r="B152" s="10"/>
-      <c r="C152" t="s">
-        <v>203</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="10"/>
-      <c r="B153" s="10"/>
+      <c r="A153" s="12"/>
+      <c r="B153" s="12"/>
       <c r="C153" t="s">
+        <v>203</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="12"/>
+      <c r="B154" s="12"/>
+      <c r="C154" t="s">
         <v>256</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="10"/>
-      <c r="B154" s="10"/>
-      <c r="C154" t="s">
-        <v>257</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="10"/>
-      <c r="B155" s="10"/>
+      <c r="A155" s="12"/>
+      <c r="B155" s="12"/>
       <c r="C155" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="10"/>
-      <c r="B156" s="10"/>
+      <c r="A156" s="12"/>
+      <c r="B156" s="12"/>
       <c r="C156" t="s">
+        <v>258</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="12"/>
+      <c r="B157" s="12"/>
+      <c r="C157" t="s">
         <v>306</v>
       </c>
-      <c r="D156" s="1" t="s">
+      <c r="D157" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="10"/>
-      <c r="B157" s="8"/>
-      <c r="C157" t="s">
-        <v>200</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="10"/>
+      <c r="A158" s="12"/>
       <c r="B158" s="8"/>
       <c r="C158" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="10"/>
+      <c r="A159" s="12"/>
       <c r="B159" s="8"/>
       <c r="C159" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="10"/>
+      <c r="A160" s="12"/>
       <c r="B160" s="8"/>
       <c r="C160" t="s">
-        <v>312</v>
+        <v>204</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>314</v>
+        <v>205</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="10"/>
+      <c r="A161" s="12"/>
       <c r="B161" s="8"/>
       <c r="C161" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="10"/>
-      <c r="B162" s="10" t="s">
+      <c r="A162" s="12"/>
+      <c r="B162" s="8"/>
+      <c r="C162" t="s">
+        <v>313</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="12"/>
+      <c r="B163" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C163" t="s">
         <v>308</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="10"/>
-      <c r="B163" s="10"/>
-      <c r="C163" t="s">
-        <v>309</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="10"/>
-      <c r="B164" s="10"/>
+      <c r="A164" s="12"/>
+      <c r="B164" s="12"/>
       <c r="C164" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="10" t="s">
+      <c r="A165" s="12"/>
+      <c r="B165" s="12"/>
+      <c r="C165" t="s">
+        <v>310</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="B165" s="10" t="s">
+      <c r="B166" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C166" t="s">
         <v>208</v>
       </c>
-      <c r="D165" s="1" t="s">
+      <c r="D166" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="10"/>
-      <c r="B166" s="10"/>
-      <c r="C166" t="s">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="12"/>
+      <c r="B167" s="12"/>
+      <c r="C167" t="s">
         <v>210</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="10"/>
-      <c r="B167" s="10"/>
-      <c r="C167" t="s">
-        <v>212</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="10"/>
-      <c r="B168" s="10"/>
+      <c r="A168" s="12"/>
+      <c r="B168" s="12"/>
       <c r="C168" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="10"/>
-      <c r="B169" s="10"/>
+      <c r="A169" s="12"/>
+      <c r="B169" s="12"/>
       <c r="C169" t="s">
+        <v>213</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="12"/>
+      <c r="B170" s="12"/>
+      <c r="C170" t="s">
         <v>214</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="10"/>
-      <c r="B170" s="10"/>
-      <c r="C170" t="s">
-        <v>216</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="10"/>
-      <c r="B171" s="10"/>
+      <c r="A171" s="12"/>
+      <c r="B171" s="12"/>
       <c r="C171" t="s">
+        <v>216</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="12"/>
+      <c r="B172" s="12"/>
+      <c r="C172" t="s">
         <v>219</v>
       </c>
-      <c r="D171" s="1" t="s">
+      <c r="D172" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="10"/>
-      <c r="B172" s="10"/>
-      <c r="C172" t="s">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="12"/>
+      <c r="B173" s="12"/>
+      <c r="C173" t="s">
         <v>282</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="10"/>
-      <c r="B173" s="10"/>
-      <c r="C173" t="s">
-        <v>283</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="10"/>
-      <c r="B174" s="10"/>
+      <c r="A174" s="12"/>
+      <c r="B174" s="12"/>
       <c r="C174" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="10"/>
-      <c r="B175" s="10"/>
+      <c r="A175" s="12"/>
+      <c r="B175" s="12"/>
       <c r="C175" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="10"/>
-      <c r="B176" s="10"/>
+      <c r="A176" s="12"/>
+      <c r="B176" s="12"/>
       <c r="C176" t="s">
+        <v>285</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="12"/>
+      <c r="B177" s="12"/>
+      <c r="C177" t="s">
         <v>286</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="10"/>
-      <c r="B177" s="10"/>
-      <c r="C177" t="s">
-        <v>287</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="10"/>
-      <c r="B178" s="10"/>
+      <c r="A178" s="12"/>
+      <c r="B178" s="12"/>
       <c r="C178" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="10"/>
-      <c r="B179" s="10"/>
+      <c r="A179" s="12"/>
+      <c r="B179" s="12"/>
       <c r="C179" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="10"/>
-      <c r="B180" s="10"/>
+      <c r="A180" s="12"/>
+      <c r="B180" s="12"/>
       <c r="C180" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="10"/>
-      <c r="B181" s="10"/>
+      <c r="A181" s="12"/>
+      <c r="B181" s="12"/>
       <c r="C181" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="10"/>
-      <c r="B182" s="10" t="s">
+      <c r="A182" s="12"/>
+      <c r="B182" s="12"/>
+      <c r="C182" t="s">
+        <v>291</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="12"/>
+      <c r="B183" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C183" t="s">
         <v>221</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="10"/>
-      <c r="B183" s="10"/>
-      <c r="C183" t="s">
-        <v>222</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="10"/>
-      <c r="B184" s="10"/>
+      <c r="A184" s="12"/>
+      <c r="B184" s="12"/>
       <c r="C184" t="s">
+        <v>222</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="12"/>
+      <c r="B185" s="12"/>
+      <c r="C185" t="s">
         <v>224</v>
       </c>
-      <c r="D184" s="1" t="s">
+      <c r="D185" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="3" t="s">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C186" t="s">
         <v>218</v>
       </c>
-      <c r="D185" s="1" t="s">
+      <c r="D186" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="10" t="s">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="B186" s="10" t="s">
+      <c r="B187" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C187" t="s">
         <v>227</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="10"/>
-      <c r="B187" s="10"/>
-      <c r="C187" t="s">
-        <v>229</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="10"/>
-      <c r="B188" s="10"/>
+      <c r="A188" s="12"/>
+      <c r="B188" s="12"/>
       <c r="C188" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="10"/>
-      <c r="B189" s="10" t="s">
-        <v>234</v>
-      </c>
+      <c r="A189" s="12"/>
+      <c r="B189" s="12"/>
       <c r="C189" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="10"/>
-      <c r="B190" s="10"/>
+      <c r="A190" s="12"/>
+      <c r="B190" s="12" t="s">
+        <v>234</v>
+      </c>
       <c r="C190" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="10"/>
-      <c r="B191" s="2" t="s">
-        <v>236</v>
-      </c>
+      <c r="A191" s="12"/>
+      <c r="B191" s="12"/>
       <c r="C191" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="10"/>
+      <c r="A192" s="12"/>
+      <c r="B192" s="2" t="s">
+        <v>236</v>
+      </c>
       <c r="C192" t="s">
+        <v>235</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="12"/>
+      <c r="C193" t="s">
         <v>240</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" s="10"/>
-      <c r="C193" t="s">
-        <v>238</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" s="10"/>
+      <c r="A194" s="12"/>
       <c r="C194" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" s="10"/>
-      <c r="B195" s="10" t="s">
+      <c r="A195" s="12"/>
+      <c r="C195" t="s">
+        <v>239</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="12"/>
+      <c r="B196" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C196" t="s">
         <v>241</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" s="10"/>
-      <c r="B196" s="10"/>
-      <c r="C196" t="s">
-        <v>243</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" s="10"/>
-      <c r="B197" s="10" t="s">
-        <v>246</v>
-      </c>
+      <c r="A197" s="12"/>
+      <c r="B197" s="12"/>
       <c r="C197" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" s="10"/>
-      <c r="B198" s="10"/>
+      <c r="A198" s="12"/>
+      <c r="B198" s="12" t="s">
+        <v>246</v>
+      </c>
       <c r="C198" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" s="10"/>
-      <c r="B199" s="5"/>
+      <c r="A199" s="12"/>
+      <c r="B199" s="12"/>
       <c r="C199" t="s">
+        <v>244</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="12"/>
+      <c r="B200" s="5"/>
+      <c r="C200" t="s">
         <v>266</v>
       </c>
-      <c r="D199" s="1" t="s">
+      <c r="D200" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="10"/>
-      <c r="B200" s="6"/>
-      <c r="C200" t="s">
-        <v>269</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="10"/>
+      <c r="A201" s="12"/>
       <c r="B201" s="6"/>
       <c r="C201" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" s="10"/>
+      <c r="A202" s="12"/>
       <c r="B202" s="6"/>
       <c r="C202" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" s="10" t="s">
+      <c r="A203" s="12"/>
+      <c r="B203" s="6"/>
+      <c r="C203" t="s">
+        <v>271</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C204" t="s">
         <v>249</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E203">
-        <v>3.19</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" s="10"/>
-      <c r="C204" t="s">
-        <v>251</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>250</v>
@@ -3844,96 +3873,138 @@
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" s="10"/>
-      <c r="B205" s="5"/>
+      <c r="A205" s="12"/>
       <c r="C205" t="s">
+        <v>251</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E205">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="12"/>
+      <c r="B206" s="5"/>
+      <c r="C206" t="s">
         <v>265</v>
       </c>
-      <c r="D205" s="1" t="s">
+      <c r="D206" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" s="4" t="s">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="12"/>
+      <c r="B207" s="11"/>
+      <c r="C207" t="s">
+        <v>330</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="12"/>
+      <c r="B208" s="11"/>
+      <c r="C208" t="s">
+        <v>331</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="12"/>
+      <c r="B209" s="11"/>
+      <c r="C209" t="s">
+        <v>332</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C206" t="s">
+      <c r="C210" t="s">
         <v>253</v>
       </c>
-      <c r="D206" s="1" t="s">
+      <c r="D210" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
         <v>259</v>
       </c>
-      <c r="C207" t="s">
+      <c r="C211" t="s">
         <v>260</v>
       </c>
-      <c r="D207" s="1" t="s">
+      <c r="D211" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
         <v>262</v>
       </c>
-      <c r="C208" t="s">
+      <c r="C212" t="s">
         <v>263</v>
       </c>
-      <c r="D208" s="1" t="s">
+      <c r="D212" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
         <v>267</v>
       </c>
-      <c r="C209" t="s">
+      <c r="C213" t="s">
         <v>268</v>
       </c>
-      <c r="D209" s="1" t="s">
+      <c r="D213" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C210" t="s">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C214" t="s">
         <v>276</v>
       </c>
-      <c r="D210" s="1" t="s">
+      <c r="D214" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C211" t="s">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C215" t="s">
         <v>277</v>
       </c>
-      <c r="D211" s="1" t="s">
+      <c r="D215" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C212" t="s">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C216" t="s">
         <v>278</v>
       </c>
-      <c r="D212" s="1" t="s">
+      <c r="D216" s="1" t="s">
         <v>279</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A186:A202"/>
-    <mergeCell ref="A203:A205"/>
-    <mergeCell ref="A115:A148"/>
-    <mergeCell ref="B149:B156"/>
-    <mergeCell ref="B162:B164"/>
-    <mergeCell ref="A149:A164"/>
-    <mergeCell ref="B139:B141"/>
-    <mergeCell ref="B195:B196"/>
-    <mergeCell ref="B197:B198"/>
-    <mergeCell ref="B186:B188"/>
-    <mergeCell ref="B189:B190"/>
+    <mergeCell ref="A187:A203"/>
+    <mergeCell ref="A116:A149"/>
+    <mergeCell ref="B150:B157"/>
+    <mergeCell ref="B163:B165"/>
+    <mergeCell ref="A150:A165"/>
+    <mergeCell ref="B140:B142"/>
+    <mergeCell ref="B196:B197"/>
+    <mergeCell ref="B198:B199"/>
+    <mergeCell ref="B187:B189"/>
+    <mergeCell ref="B190:B191"/>
+    <mergeCell ref="A204:A209"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="B69:B71"/>
     <mergeCell ref="B5:B8"/>
@@ -3950,20 +4021,20 @@
     <mergeCell ref="A57:A68"/>
     <mergeCell ref="B86:B89"/>
     <mergeCell ref="A69:A89"/>
-    <mergeCell ref="B182:B184"/>
-    <mergeCell ref="B118:B125"/>
-    <mergeCell ref="B127:B129"/>
+    <mergeCell ref="B183:B185"/>
+    <mergeCell ref="B119:B126"/>
+    <mergeCell ref="B128:B130"/>
     <mergeCell ref="B72:B74"/>
     <mergeCell ref="B75:B77"/>
     <mergeCell ref="B82:B85"/>
-    <mergeCell ref="B165:B181"/>
-    <mergeCell ref="A165:A184"/>
+    <mergeCell ref="B166:B182"/>
+    <mergeCell ref="A166:A185"/>
     <mergeCell ref="A90:A95"/>
     <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B142:B147"/>
-    <mergeCell ref="B100:B109"/>
-    <mergeCell ref="B110:B114"/>
-    <mergeCell ref="A100:A114"/>
+    <mergeCell ref="B143:B148"/>
+    <mergeCell ref="B101:B110"/>
+    <mergeCell ref="B111:B115"/>
+    <mergeCell ref="A101:A115"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/时间表.xlsx
+++ b/时间表.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\360\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5EA3070-9617-4434-9209-A99608B2B2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85A56B2-5D3A-4861-9E4C-8FAFC4F5EB9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10776" yWindow="612" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7728" yWindow="432" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1722,8 +1721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="E210" sqref="E210"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3994,16 +3993,21 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A187:A203"/>
-    <mergeCell ref="A116:A149"/>
-    <mergeCell ref="B150:B157"/>
-    <mergeCell ref="B163:B165"/>
-    <mergeCell ref="A150:A165"/>
-    <mergeCell ref="B140:B142"/>
-    <mergeCell ref="B196:B197"/>
-    <mergeCell ref="B198:B199"/>
-    <mergeCell ref="B187:B189"/>
-    <mergeCell ref="B190:B191"/>
+    <mergeCell ref="A69:A89"/>
+    <mergeCell ref="B183:B185"/>
+    <mergeCell ref="B119:B126"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="B166:B182"/>
+    <mergeCell ref="A166:A185"/>
+    <mergeCell ref="A90:A95"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B143:B148"/>
+    <mergeCell ref="B101:B110"/>
+    <mergeCell ref="B111:B115"/>
+    <mergeCell ref="A101:A115"/>
     <mergeCell ref="A204:A209"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="B69:B71"/>
@@ -4020,21 +4024,16 @@
     <mergeCell ref="A42:A56"/>
     <mergeCell ref="A57:A68"/>
     <mergeCell ref="B86:B89"/>
-    <mergeCell ref="A69:A89"/>
-    <mergeCell ref="B183:B185"/>
-    <mergeCell ref="B119:B126"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="B166:B182"/>
-    <mergeCell ref="A166:A185"/>
-    <mergeCell ref="A90:A95"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B143:B148"/>
-    <mergeCell ref="B101:B110"/>
-    <mergeCell ref="B111:B115"/>
-    <mergeCell ref="A101:A115"/>
+    <mergeCell ref="A187:A203"/>
+    <mergeCell ref="A116:A149"/>
+    <mergeCell ref="B150:B157"/>
+    <mergeCell ref="B163:B165"/>
+    <mergeCell ref="A150:A165"/>
+    <mergeCell ref="B140:B142"/>
+    <mergeCell ref="B196:B197"/>
+    <mergeCell ref="B198:B199"/>
+    <mergeCell ref="B187:B189"/>
+    <mergeCell ref="B190:B191"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/时间表.xlsx
+++ b/时间表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\360\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85A56B2-5D3A-4861-9E4C-8FAFC4F5EB9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FFD6C0-519E-4360-84B1-25F6B15D5A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7728" yWindow="432" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11964" yWindow="240" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="338">
   <si>
     <t>第一次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1360,6 +1360,22 @@
   </si>
   <si>
     <t>3.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>79单词搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>417太平洋大西洋水流问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>547省份数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1719,10 +1735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F216"/>
+  <dimension ref="A1:F219"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="E184" sqref="E184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3409,7 +3425,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="12"/>
       <c r="B161" s="8"/>
       <c r="C161" t="s">
@@ -3419,7 +3435,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="12"/>
       <c r="B162" s="8"/>
       <c r="C162" t="s">
@@ -3429,7 +3445,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="12"/>
       <c r="B163" s="12" t="s">
         <v>311</v>
@@ -3441,7 +3457,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="12"/>
       <c r="B164" s="12"/>
       <c r="C164" t="s">
@@ -3451,7 +3467,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="12"/>
       <c r="B165" s="12"/>
       <c r="C165" t="s">
@@ -3461,11 +3477,11 @@
         <v>307</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="12" t="s">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="B166" s="12" t="s">
+      <c r="B166" s="8" t="s">
         <v>207</v>
       </c>
       <c r="C166" t="s">
@@ -3474,10 +3490,13 @@
       <c r="D166" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="12"/>
-      <c r="B167" s="12"/>
+      <c r="E166">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="8"/>
+      <c r="B167" s="8"/>
       <c r="C167" t="s">
         <v>210</v>
       </c>
@@ -3485,19 +3504,22 @@
         <v>211</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="12"/>
-      <c r="B168" s="12"/>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="8"/>
+      <c r="B168" s="8"/>
       <c r="C168" t="s">
         <v>212</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="12"/>
-      <c r="B169" s="12"/>
+      <c r="E168">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="8"/>
+      <c r="B169" s="8"/>
       <c r="C169" t="s">
         <v>213</v>
       </c>
@@ -3505,9 +3527,9 @@
         <v>211</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="12"/>
-      <c r="B170" s="12"/>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="8"/>
+      <c r="B170" s="8"/>
       <c r="C170" t="s">
         <v>214</v>
       </c>
@@ -3515,9 +3537,9 @@
         <v>215</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="12"/>
-      <c r="B171" s="12"/>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="8"/>
+      <c r="B171" s="8"/>
       <c r="C171" t="s">
         <v>216</v>
       </c>
@@ -3525,9 +3547,9 @@
         <v>215</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="12"/>
-      <c r="B172" s="12"/>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="8"/>
+      <c r="B172" s="8"/>
       <c r="C172" t="s">
         <v>219</v>
       </c>
@@ -3535,9 +3557,9 @@
         <v>220</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="12"/>
-      <c r="B173" s="12"/>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="8"/>
+      <c r="B173" s="8"/>
       <c r="C173" t="s">
         <v>282</v>
       </c>
@@ -3545,9 +3567,9 @@
         <v>281</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="12"/>
-      <c r="B174" s="12"/>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="8"/>
+      <c r="B174" s="8"/>
       <c r="C174" t="s">
         <v>283</v>
       </c>
@@ -3555,9 +3577,9 @@
         <v>281</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="12"/>
-      <c r="B175" s="12"/>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="8"/>
+      <c r="B175" s="8"/>
       <c r="C175" t="s">
         <v>284</v>
       </c>
@@ -3565,9 +3587,9 @@
         <v>281</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="12"/>
-      <c r="B176" s="12"/>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="8"/>
+      <c r="B176" s="8"/>
       <c r="C176" t="s">
         <v>285</v>
       </c>
@@ -3575,9 +3597,9 @@
         <v>281</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="12"/>
-      <c r="B177" s="12"/>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="8"/>
+      <c r="B177" s="8"/>
       <c r="C177" t="s">
         <v>286</v>
       </c>
@@ -3585,9 +3607,9 @@
         <v>292</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="12"/>
-      <c r="B178" s="12"/>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="8"/>
+      <c r="B178" s="8"/>
       <c r="C178" t="s">
         <v>287</v>
       </c>
@@ -3595,19 +3617,22 @@
         <v>292</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="12"/>
-      <c r="B179" s="12"/>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="8"/>
+      <c r="B179" s="8"/>
       <c r="C179" t="s">
         <v>288</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="12"/>
-      <c r="B180" s="12"/>
+      <c r="E179">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="8"/>
+      <c r="B180" s="8"/>
       <c r="C180" t="s">
         <v>289</v>
       </c>
@@ -3615,9 +3640,9 @@
         <v>292</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="12"/>
-      <c r="B181" s="12"/>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="8"/>
+      <c r="B181" s="8"/>
       <c r="C181" t="s">
         <v>290</v>
       </c>
@@ -3625,9 +3650,9 @@
         <v>292</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="12"/>
-      <c r="B182" s="12"/>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="8"/>
+      <c r="B182" s="8"/>
       <c r="C182" t="s">
         <v>291</v>
       </c>
@@ -3635,112 +3660,108 @@
         <v>292</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="12"/>
-      <c r="B183" s="12" t="s">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="8"/>
+      <c r="B183" s="8"/>
+      <c r="C183" t="s">
+        <v>334</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="8"/>
+      <c r="B184" s="8"/>
+      <c r="C184" t="s">
+        <v>335</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="8"/>
+      <c r="B185" s="8"/>
+      <c r="C185" t="s">
+        <v>336</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="8"/>
+      <c r="B186" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C186" t="s">
         <v>221</v>
       </c>
-      <c r="D183" s="1" t="s">
+      <c r="D186" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="12"/>
-      <c r="B184" s="12"/>
-      <c r="C184" t="s">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="8"/>
+      <c r="B187" s="8"/>
+      <c r="C187" t="s">
         <v>222</v>
       </c>
-      <c r="D184" s="1" t="s">
+      <c r="D187" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="12"/>
-      <c r="B185" s="12"/>
-      <c r="C185" t="s">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="8"/>
+      <c r="B188" s="8"/>
+      <c r="C188" t="s">
         <v>224</v>
       </c>
-      <c r="D185" s="1" t="s">
+      <c r="D188" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="3" t="s">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C189" t="s">
         <v>218</v>
       </c>
-      <c r="D186" s="1" t="s">
+      <c r="D189" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="12" t="s">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="B187" s="12" t="s">
+      <c r="B190" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C190" t="s">
         <v>227</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="12"/>
-      <c r="B188" s="12"/>
-      <c r="C188" t="s">
-        <v>229</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="12"/>
-      <c r="B189" s="12"/>
-      <c r="C189" t="s">
-        <v>230</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="12"/>
-      <c r="B190" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="C190" t="s">
-        <v>232</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="12"/>
       <c r="B191" s="12"/>
       <c r="C191" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="12"/>
-      <c r="B192" s="2" t="s">
-        <v>236</v>
-      </c>
+      <c r="B192" s="12"/>
       <c r="C192" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>228</v>
@@ -3748,70 +3769,72 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="12"/>
+      <c r="B193" s="12" t="s">
+        <v>234</v>
+      </c>
       <c r="C193" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="12"/>
+      <c r="B194" s="12"/>
       <c r="C194" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="12"/>
+      <c r="B195" s="2" t="s">
+        <v>236</v>
+      </c>
       <c r="C195" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="12"/>
-      <c r="B196" s="12" t="s">
-        <v>128</v>
-      </c>
       <c r="C196" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="12"/>
-      <c r="B197" s="12"/>
       <c r="C197" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="12"/>
-      <c r="B198" s="12" t="s">
-        <v>246</v>
-      </c>
       <c r="C198" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="12"/>
-      <c r="B199" s="12"/>
+      <c r="B199" s="12" t="s">
+        <v>128</v>
+      </c>
       <c r="C199" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>242</v>
@@ -3819,196 +3842,223 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="12"/>
-      <c r="B200" s="5"/>
+      <c r="B200" s="12"/>
       <c r="C200" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="12"/>
-      <c r="B201" s="6"/>
+      <c r="B201" s="12" t="s">
+        <v>246</v>
+      </c>
       <c r="C201" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="12"/>
-      <c r="B202" s="6"/>
+      <c r="B202" s="12"/>
       <c r="C202" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="12"/>
-      <c r="B203" s="6"/>
+      <c r="B203" s="5"/>
       <c r="C203" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D203" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="12"/>
+      <c r="B204" s="6"/>
+      <c r="C204" t="s">
+        <v>269</v>
+      </c>
+      <c r="D204" s="1" t="s">
         <v>272</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="C204" t="s">
-        <v>249</v>
-      </c>
-      <c r="D204" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E204">
-        <v>3.19</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="12"/>
+      <c r="B205" s="6"/>
       <c r="C205" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E205">
-        <v>3.19</v>
+        <v>272</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="12"/>
-      <c r="B206" s="5"/>
+      <c r="B206" s="6"/>
       <c r="C206" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" s="12"/>
-      <c r="B207" s="11"/>
+      <c r="A207" s="12" t="s">
+        <v>248</v>
+      </c>
       <c r="C207" t="s">
-        <v>330</v>
+        <v>249</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>333</v>
+        <v>250</v>
+      </c>
+      <c r="E207">
+        <v>3.19</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="12"/>
-      <c r="B208" s="11"/>
       <c r="C208" t="s">
-        <v>331</v>
+        <v>251</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>333</v>
+        <v>250</v>
+      </c>
+      <c r="E208">
+        <v>3.19</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="12"/>
-      <c r="B209" s="11"/>
+      <c r="B209" s="5"/>
       <c r="C209" t="s">
+        <v>265</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="12"/>
+      <c r="B210" s="11"/>
+      <c r="C210" t="s">
+        <v>330</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="12"/>
+      <c r="B211" s="11"/>
+      <c r="C211" t="s">
+        <v>331</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="12"/>
+      <c r="B212" s="11"/>
+      <c r="C212" t="s">
         <v>332</v>
       </c>
-      <c r="D209" s="1" t="s">
+      <c r="D212" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="4" t="s">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C210" t="s">
+      <c r="C213" t="s">
         <v>253</v>
       </c>
-      <c r="D210" s="1" t="s">
+      <c r="D213" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
         <v>259</v>
       </c>
-      <c r="C211" t="s">
+      <c r="C214" t="s">
         <v>260</v>
       </c>
-      <c r="D211" s="1" t="s">
+      <c r="D214" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
         <v>262</v>
       </c>
-      <c r="C212" t="s">
+      <c r="C215" t="s">
         <v>263</v>
       </c>
-      <c r="D212" s="1" t="s">
+      <c r="D215" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
         <v>267</v>
       </c>
-      <c r="C213" t="s">
+      <c r="C216" t="s">
         <v>268</v>
       </c>
-      <c r="D213" s="1" t="s">
+      <c r="D216" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C214" t="s">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C217" t="s">
         <v>276</v>
       </c>
-      <c r="D214" s="1" t="s">
+      <c r="D217" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C215" t="s">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C218" t="s">
         <v>277</v>
       </c>
-      <c r="D215" s="1" t="s">
+      <c r="D218" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C216" t="s">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C219" t="s">
         <v>278</v>
       </c>
-      <c r="D216" s="1" t="s">
+      <c r="D219" s="1" t="s">
         <v>279</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="A69:A89"/>
-    <mergeCell ref="B183:B185"/>
-    <mergeCell ref="B119:B126"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="B166:B182"/>
-    <mergeCell ref="A166:A185"/>
-    <mergeCell ref="A90:A95"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B143:B148"/>
-    <mergeCell ref="B101:B110"/>
-    <mergeCell ref="B111:B115"/>
-    <mergeCell ref="A101:A115"/>
-    <mergeCell ref="A204:A209"/>
+  <mergeCells count="38">
+    <mergeCell ref="A190:A206"/>
+    <mergeCell ref="A116:A149"/>
+    <mergeCell ref="B150:B157"/>
+    <mergeCell ref="B163:B165"/>
+    <mergeCell ref="A150:A165"/>
+    <mergeCell ref="B140:B142"/>
+    <mergeCell ref="B199:B200"/>
+    <mergeCell ref="B201:B202"/>
+    <mergeCell ref="B190:B192"/>
+    <mergeCell ref="B193:B194"/>
+    <mergeCell ref="A207:A212"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="B69:B71"/>
     <mergeCell ref="B5:B8"/>
@@ -4024,16 +4074,18 @@
     <mergeCell ref="A42:A56"/>
     <mergeCell ref="A57:A68"/>
     <mergeCell ref="B86:B89"/>
-    <mergeCell ref="A187:A203"/>
-    <mergeCell ref="A116:A149"/>
-    <mergeCell ref="B150:B157"/>
-    <mergeCell ref="B163:B165"/>
-    <mergeCell ref="A150:A165"/>
-    <mergeCell ref="B140:B142"/>
-    <mergeCell ref="B196:B197"/>
-    <mergeCell ref="B198:B199"/>
-    <mergeCell ref="B187:B189"/>
-    <mergeCell ref="B190:B191"/>
+    <mergeCell ref="A69:A89"/>
+    <mergeCell ref="B119:B126"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="A90:A95"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B143:B148"/>
+    <mergeCell ref="B101:B110"/>
+    <mergeCell ref="B111:B115"/>
+    <mergeCell ref="A101:A115"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/时间表.xlsx
+++ b/时间表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\360\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FFD6C0-519E-4360-84B1-25F6B15D5A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D001BA-9E64-4089-B137-728E969BED12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11964" yWindow="240" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8736" yWindow="432" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="341">
   <si>
     <t>第一次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1376,6 +1376,18 @@
   </si>
   <si>
     <t>3.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>126单词接龙2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>934最短的桥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.23</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1735,10 +1747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F219"/>
+  <dimension ref="A1:F221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
-      <selection activeCell="E184" sqref="E184"/>
+    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="F189" sqref="F189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3503,6 +3515,9 @@
       <c r="D167" s="1" t="s">
         <v>211</v>
       </c>
+      <c r="E167">
+        <v>3.23</v>
+      </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="8"/>
@@ -3723,342 +3738,363 @@
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="3" t="s">
+      <c r="A189" s="8"/>
+      <c r="B189" s="8"/>
+      <c r="C189" t="s">
+        <v>338</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="8"/>
+      <c r="B190" s="8"/>
+      <c r="C190" t="s">
+        <v>339</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C189" t="s">
+      <c r="C191" t="s">
         <v>218</v>
       </c>
-      <c r="D189" s="1" t="s">
+      <c r="D191" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="12" t="s">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="B190" s="12" t="s">
+      <c r="B192" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C192" t="s">
         <v>227</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="12"/>
-      <c r="B191" s="12"/>
-      <c r="C191" t="s">
-        <v>229</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="12"/>
-      <c r="B192" s="12"/>
-      <c r="C192" t="s">
-        <v>230</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="12"/>
-      <c r="B193" s="12" t="s">
-        <v>234</v>
-      </c>
+      <c r="B193" s="12"/>
       <c r="C193" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="12"/>
       <c r="B194" s="12"/>
       <c r="C194" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="12"/>
-      <c r="B195" s="2" t="s">
-        <v>236</v>
+      <c r="B195" s="12" t="s">
+        <v>234</v>
       </c>
       <c r="C195" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="12"/>
+      <c r="B196" s="12"/>
       <c r="C196" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="12"/>
+      <c r="B197" s="2" t="s">
+        <v>236</v>
+      </c>
       <c r="C197" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="12"/>
       <c r="C198" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="12"/>
-      <c r="B199" s="12" t="s">
-        <v>128</v>
-      </c>
       <c r="C199" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="12"/>
-      <c r="B200" s="12"/>
       <c r="C200" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="12"/>
       <c r="B201" s="12" t="s">
-        <v>246</v>
+        <v>128</v>
       </c>
       <c r="C201" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="12"/>
       <c r="B202" s="12"/>
       <c r="C202" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="12"/>
-      <c r="B203" s="5"/>
+      <c r="B203" s="12" t="s">
+        <v>246</v>
+      </c>
       <c r="C203" t="s">
+        <v>245</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="12"/>
+      <c r="B204" s="12"/>
+      <c r="C204" t="s">
+        <v>244</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="12"/>
+      <c r="B205" s="5"/>
+      <c r="C205" t="s">
         <v>266</v>
       </c>
-      <c r="D203" s="1" t="s">
+      <c r="D205" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" s="12"/>
-      <c r="B204" s="6"/>
-      <c r="C204" t="s">
-        <v>269</v>
-      </c>
-      <c r="D204" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" s="12"/>
-      <c r="B205" s="6"/>
-      <c r="C205" t="s">
-        <v>270</v>
-      </c>
-      <c r="D205" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="12"/>
       <c r="B206" s="6"/>
       <c r="C206" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" s="12" t="s">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="12"/>
+      <c r="B207" s="6"/>
+      <c r="C207" t="s">
+        <v>270</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="12"/>
+      <c r="B208" s="6"/>
+      <c r="C208" t="s">
+        <v>271</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="C207" t="s">
+      <c r="C209" t="s">
         <v>249</v>
       </c>
-      <c r="D207" s="1" t="s">
+      <c r="D209" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E207">
+      <c r="E209">
         <v>3.19</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" s="12"/>
-      <c r="C208" t="s">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" s="12"/>
+      <c r="C210" t="s">
         <v>251</v>
       </c>
-      <c r="D208" s="1" t="s">
+      <c r="D210" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E208">
+      <c r="E210">
         <v>3.19</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" s="12"/>
-      <c r="B209" s="5"/>
-      <c r="C209" t="s">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" s="12"/>
+      <c r="B211" s="5"/>
+      <c r="C211" t="s">
         <v>265</v>
       </c>
-      <c r="D209" s="1" t="s">
+      <c r="D211" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="12"/>
-      <c r="B210" s="11"/>
-      <c r="C210" t="s">
-        <v>330</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211" s="12"/>
-      <c r="B211" s="11"/>
-      <c r="C211" t="s">
-        <v>331</v>
-      </c>
-      <c r="D211" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="12"/>
       <c r="B212" s="11"/>
       <c r="C212" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" s="4" t="s">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="12"/>
+      <c r="B213" s="11"/>
+      <c r="C213" t="s">
+        <v>331</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" s="12"/>
+      <c r="B214" s="11"/>
+      <c r="C214" t="s">
+        <v>332</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C213" t="s">
+      <c r="C215" t="s">
         <v>253</v>
       </c>
-      <c r="D213" s="1" t="s">
+      <c r="D215" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
         <v>259</v>
       </c>
-      <c r="C214" t="s">
+      <c r="C216" t="s">
         <v>260</v>
       </c>
-      <c r="D214" s="1" t="s">
+      <c r="D216" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
         <v>262</v>
       </c>
-      <c r="C215" t="s">
+      <c r="C217" t="s">
         <v>263</v>
       </c>
-      <c r="D215" s="1" t="s">
+      <c r="D217" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
         <v>267</v>
       </c>
-      <c r="C216" t="s">
+      <c r="C218" t="s">
         <v>268</v>
       </c>
-      <c r="D216" s="1" t="s">
+      <c r="D218" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C217" t="s">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C219" t="s">
         <v>276</v>
-      </c>
-      <c r="D217" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C218" t="s">
-        <v>277</v>
-      </c>
-      <c r="D218" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C219" t="s">
-        <v>278</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>279</v>
       </c>
     </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C220" t="s">
+        <v>277</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C221" t="s">
+        <v>278</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A190:A206"/>
-    <mergeCell ref="A116:A149"/>
-    <mergeCell ref="B150:B157"/>
-    <mergeCell ref="B163:B165"/>
-    <mergeCell ref="A150:A165"/>
-    <mergeCell ref="B140:B142"/>
-    <mergeCell ref="B199:B200"/>
-    <mergeCell ref="B201:B202"/>
-    <mergeCell ref="B190:B192"/>
-    <mergeCell ref="B193:B194"/>
-    <mergeCell ref="A207:A212"/>
+    <mergeCell ref="A69:A89"/>
+    <mergeCell ref="B119:B126"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="A90:A95"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B101:B110"/>
+    <mergeCell ref="B111:B115"/>
+    <mergeCell ref="A101:A115"/>
+    <mergeCell ref="A209:A214"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="B69:B71"/>
     <mergeCell ref="B5:B8"/>
@@ -4074,18 +4110,17 @@
     <mergeCell ref="A42:A56"/>
     <mergeCell ref="A57:A68"/>
     <mergeCell ref="B86:B89"/>
-    <mergeCell ref="A69:A89"/>
-    <mergeCell ref="B119:B126"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="A90:A95"/>
-    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="A192:A208"/>
+    <mergeCell ref="A116:A149"/>
+    <mergeCell ref="B150:B157"/>
+    <mergeCell ref="B163:B165"/>
+    <mergeCell ref="A150:A165"/>
+    <mergeCell ref="B140:B142"/>
+    <mergeCell ref="B201:B202"/>
+    <mergeCell ref="B203:B204"/>
+    <mergeCell ref="B192:B194"/>
+    <mergeCell ref="B195:B196"/>
     <mergeCell ref="B143:B148"/>
-    <mergeCell ref="B101:B110"/>
-    <mergeCell ref="B111:B115"/>
-    <mergeCell ref="A101:A115"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/时间表.xlsx
+++ b/时间表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\360\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D001BA-9E64-4089-B137-728E969BED12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16777B9-D4AC-401D-A2E6-3A24ADF8D57D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8736" yWindow="432" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="344">
   <si>
     <t>第一次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1388,6 +1388,18 @@
   </si>
   <si>
     <t>3.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>257二叉树的所有路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>310最小高度树</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1747,10 +1759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F221"/>
+  <dimension ref="A1:F223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="F189" sqref="F189"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="E193" sqref="E193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2274,7 +2286,7 @@
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>64</v>
@@ -2282,9 +2294,11 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
+      <c r="B49" s="12" t="s">
+        <v>78</v>
+      </c>
       <c r="C49" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>64</v>
@@ -2292,21 +2306,19 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
-      <c r="B50" s="12" t="s">
-        <v>78</v>
-      </c>
+      <c r="B50" s="12"/>
       <c r="C50" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>68</v>
@@ -2314,9 +2326,11 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="12"/>
-      <c r="B52" s="12"/>
+      <c r="B52" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="C52" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>68</v>
@@ -2324,23 +2338,21 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="12"/>
-      <c r="B53" s="2" t="s">
-        <v>79</v>
+      <c r="B53" s="12" t="s">
+        <v>80</v>
       </c>
       <c r="C53" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="12"/>
-      <c r="B54" s="12" t="s">
-        <v>80</v>
-      </c>
+      <c r="B54" s="12"/>
       <c r="C54" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>72</v>
@@ -2350,28 +2362,27 @@
       <c r="A55" s="12"/>
       <c r="B55" s="12"/>
       <c r="C55" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="12"/>
-      <c r="B56" s="12"/>
+      <c r="A56" s="12" t="s">
+        <v>81</v>
+      </c>
       <c r="C56" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="12" t="s">
-        <v>81</v>
-      </c>
+      <c r="A57" s="12"/>
       <c r="C57" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>85</v>
@@ -2380,7 +2391,7 @@
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="12"/>
       <c r="C58" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>85</v>
@@ -2389,16 +2400,16 @@
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="12"/>
       <c r="C59" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="12"/>
       <c r="C60" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>88</v>
@@ -2407,16 +2418,16 @@
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="12"/>
       <c r="C61" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="12"/>
       <c r="C62" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>93</v>
@@ -2425,7 +2436,7 @@
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="12"/>
       <c r="C63" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>93</v>
@@ -2434,7 +2445,7 @@
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="12"/>
       <c r="C64" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>93</v>
@@ -2443,16 +2454,16 @@
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="12"/>
       <c r="C65" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="12"/>
       <c r="C66" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>96</v>
@@ -2460,32 +2471,33 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="12"/>
+      <c r="B67" s="7"/>
       <c r="C67" t="s">
-        <v>95</v>
+        <v>280</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>96</v>
+        <v>281</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="12"/>
-      <c r="B68" s="7"/>
+      <c r="A68" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>105</v>
+      </c>
       <c r="C68" t="s">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>281</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B69" s="12" t="s">
-        <v>105</v>
-      </c>
+      <c r="A69" s="12"/>
+      <c r="B69" s="12"/>
       <c r="C69" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>103</v>
@@ -2495,7 +2507,7 @@
       <c r="A70" s="12"/>
       <c r="B70" s="12"/>
       <c r="C70" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>103</v>
@@ -2503,9 +2515,11 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="12"/>
-      <c r="B71" s="12"/>
+      <c r="B71" s="12" t="s">
+        <v>104</v>
+      </c>
       <c r="C71" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>103</v>
@@ -2513,11 +2527,9 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="12"/>
-      <c r="B72" s="12" t="s">
-        <v>104</v>
-      </c>
+      <c r="B72" s="12"/>
       <c r="C72" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>103</v>
@@ -2527,17 +2539,19 @@
       <c r="A73" s="12"/>
       <c r="B73" s="12"/>
       <c r="C73" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="12"/>
-      <c r="B74" s="12"/>
+      <c r="B74" s="12" t="s">
+        <v>113</v>
+      </c>
       <c r="C74" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>109</v>
@@ -2545,11 +2559,9 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="12"/>
-      <c r="B75" s="12" t="s">
-        <v>113</v>
-      </c>
+      <c r="B75" s="12"/>
       <c r="C75" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>109</v>
@@ -2559,7 +2571,7 @@
       <c r="A76" s="12"/>
       <c r="B76" s="12"/>
       <c r="C76" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>109</v>
@@ -2567,21 +2579,21 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="12"/>
-      <c r="B77" s="12"/>
+      <c r="B77" s="12" t="s">
+        <v>128</v>
+      </c>
       <c r="C77" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="12"/>
-      <c r="B78" s="12" t="s">
-        <v>128</v>
-      </c>
+      <c r="B78" s="12"/>
       <c r="C78" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>126</v>
@@ -2591,17 +2603,16 @@
       <c r="A79" s="12"/>
       <c r="B79" s="12"/>
       <c r="C79" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="12"/>
-      <c r="B80" s="12"/>
       <c r="C80" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>115</v>
@@ -2609,20 +2620,21 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="12"/>
+      <c r="B81" s="12" t="s">
+        <v>121</v>
+      </c>
       <c r="C81" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="12"/>
-      <c r="B82" s="12" t="s">
-        <v>121</v>
-      </c>
+      <c r="B82" s="12"/>
       <c r="C82" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>120</v>
@@ -2632,7 +2644,7 @@
       <c r="A83" s="12"/>
       <c r="B83" s="12"/>
       <c r="C83" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>120</v>
@@ -2642,7 +2654,7 @@
       <c r="A84" s="12"/>
       <c r="B84" s="12"/>
       <c r="C84" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>120</v>
@@ -2650,9 +2662,11 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="12"/>
-      <c r="B85" s="12"/>
+      <c r="B85" s="12" t="s">
+        <v>296</v>
+      </c>
       <c r="C85" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>120</v>
@@ -2660,11 +2674,9 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="12"/>
-      <c r="B86" s="12" t="s">
-        <v>296</v>
-      </c>
+      <c r="B86" s="12"/>
       <c r="C86" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>120</v>
@@ -2674,59 +2686,58 @@
       <c r="A87" s="12"/>
       <c r="B87" s="12"/>
       <c r="C87" t="s">
-        <v>123</v>
+        <v>293</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>120</v>
+        <v>295</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="12"/>
       <c r="B88" s="12"/>
       <c r="C88" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="12"/>
-      <c r="B89" s="12"/>
+      <c r="A89" s="12" t="s">
+        <v>129</v>
+      </c>
       <c r="C89" t="s">
-        <v>294</v>
+        <v>130</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>295</v>
+        <v>132</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="12" t="s">
-        <v>129</v>
-      </c>
+      <c r="A90" s="12"/>
       <c r="C90" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>132</v>
+      </c>
+      <c r="E90">
+        <v>3.17</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="12"/>
       <c r="C91" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E91">
-        <v>3.17</v>
+        <v>136</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="12"/>
       <c r="C92" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>136</v>
@@ -2735,7 +2746,7 @@
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="12"/>
       <c r="C93" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>136</v>
@@ -2743,28 +2754,29 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="12"/>
+      <c r="B94" s="6"/>
       <c r="C94" t="s">
-        <v>135</v>
+        <v>273</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>136</v>
+        <v>272</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="12"/>
-      <c r="B95" s="6"/>
+      <c r="A95" s="9"/>
+      <c r="B95" s="9"/>
       <c r="C95" t="s">
-        <v>273</v>
+        <v>322</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>272</v>
+        <v>325</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="9"/>
       <c r="B96" s="9"/>
       <c r="C96" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>325</v>
@@ -2774,7 +2786,7 @@
       <c r="A97" s="9"/>
       <c r="B97" s="9"/>
       <c r="C97" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>325</v>
@@ -2784,74 +2796,74 @@
       <c r="A98" s="9"/>
       <c r="B98" s="9"/>
       <c r="C98" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="9"/>
-      <c r="B99" s="9"/>
+      <c r="A99" s="10"/>
+      <c r="B99" s="10"/>
       <c r="C99" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="10"/>
-      <c r="B100" s="10"/>
+      <c r="A100" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>142</v>
+      </c>
       <c r="C100" t="s">
-        <v>328</v>
+        <v>149</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>329</v>
+        <v>109</v>
+      </c>
+      <c r="E100">
+        <v>3.15</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="B101" s="12" t="s">
-        <v>142</v>
-      </c>
+      <c r="A101" s="12"/>
+      <c r="B101" s="12"/>
       <c r="C101" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="E101">
-        <v>3.15</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="12"/>
       <c r="B102" s="12"/>
       <c r="C102" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="12"/>
       <c r="B103" s="12"/>
       <c r="C103" t="s">
-        <v>151</v>
+        <v>274</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>126</v>
+        <v>272</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="12"/>
       <c r="B104" s="12"/>
       <c r="C104" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>272</v>
@@ -2861,27 +2873,27 @@
       <c r="A105" s="12"/>
       <c r="B105" s="12"/>
       <c r="C105" t="s">
-        <v>275</v>
+        <v>315</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>272</v>
+        <v>314</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="12"/>
       <c r="B106" s="12"/>
       <c r="C106" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="12"/>
       <c r="B107" s="12"/>
       <c r="C107" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>317</v>
@@ -2891,7 +2903,7 @@
       <c r="A108" s="12"/>
       <c r="B108" s="12"/>
       <c r="C108" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>317</v>
@@ -2901,7 +2913,7 @@
       <c r="A109" s="12"/>
       <c r="B109" s="12"/>
       <c r="C109" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>317</v>
@@ -2909,34 +2921,34 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="12"/>
-      <c r="B110" s="12"/>
+      <c r="B110" s="12" t="s">
+        <v>143</v>
+      </c>
       <c r="C110" t="s">
-        <v>321</v>
+        <v>144</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>317</v>
+        <v>148</v>
+      </c>
+      <c r="E110">
+        <v>3.16</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="12"/>
-      <c r="B111" s="12" t="s">
-        <v>143</v>
-      </c>
+      <c r="B111" s="12"/>
       <c r="C111" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="E111">
-        <v>3.16</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="12"/>
       <c r="B112" s="12"/>
       <c r="C112" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>148</v>
@@ -2946,7 +2958,7 @@
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="C113" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>148</v>
@@ -2956,46 +2968,48 @@
       <c r="A114" s="12"/>
       <c r="B114" s="12"/>
       <c r="C114" t="s">
-        <v>147</v>
+        <v>316</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>148</v>
+        <v>317</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="12"/>
-      <c r="B115" s="12"/>
+      <c r="A115" s="12" t="s">
+        <v>154</v>
+      </c>
       <c r="C115" t="s">
-        <v>316</v>
+        <v>155</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>317</v>
+        <v>120</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="12" t="s">
-        <v>154</v>
-      </c>
+      <c r="A116" s="12"/>
       <c r="C116" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="12"/>
       <c r="C117" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="12"/>
+      <c r="B118" s="12" t="s">
+        <v>162</v>
+      </c>
       <c r="C118" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>159</v>
@@ -3003,31 +3017,29 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="12"/>
-      <c r="B119" s="12" t="s">
-        <v>162</v>
-      </c>
+      <c r="B119" s="12"/>
       <c r="C119" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="12"/>
       <c r="B120" s="12"/>
       <c r="C120" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="12"/>
       <c r="B121" s="12"/>
       <c r="C121" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>161</v>
@@ -3037,7 +3049,7 @@
       <c r="A122" s="12"/>
       <c r="B122" s="12"/>
       <c r="C122" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>161</v>
@@ -3047,7 +3059,7 @@
       <c r="A123" s="12"/>
       <c r="B123" s="12"/>
       <c r="C123" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>161</v>
@@ -3057,80 +3069,79 @@
       <c r="A124" s="12"/>
       <c r="B124" s="12"/>
       <c r="C124" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="12"/>
       <c r="B125" s="12"/>
       <c r="C125" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="12"/>
-      <c r="B126" s="12"/>
+      <c r="B126" s="2" t="s">
+        <v>195</v>
+      </c>
       <c r="C126" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="12"/>
-      <c r="B127" s="2" t="s">
-        <v>195</v>
+      <c r="B127" s="12" t="s">
+        <v>173</v>
       </c>
       <c r="C127" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="12"/>
-      <c r="B128" s="12" t="s">
-        <v>173</v>
-      </c>
+      <c r="B128" s="12"/>
       <c r="C128" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="12"/>
       <c r="B129" s="12"/>
       <c r="C129" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>176</v>
+        <v>237</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="12"/>
-      <c r="B130" s="12"/>
       <c r="C130" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>237</v>
+        <v>176</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="12"/>
       <c r="C131" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>176</v>
@@ -3139,16 +3150,16 @@
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="12"/>
       <c r="C132" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="12"/>
       <c r="C133" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>183</v>
@@ -3157,7 +3168,7 @@
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="12"/>
       <c r="C134" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>183</v>
@@ -3166,16 +3177,16 @@
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="12"/>
       <c r="C135" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="12"/>
       <c r="C136" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>185</v>
@@ -3183,20 +3194,20 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="12"/>
+      <c r="B137" s="2" t="s">
+        <v>247</v>
+      </c>
       <c r="C137" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="12"/>
-      <c r="B138" s="2" t="s">
-        <v>247</v>
-      </c>
       <c r="C138" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>191</v>
@@ -3204,8 +3215,11 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="12"/>
+      <c r="B139" s="12" t="s">
+        <v>305</v>
+      </c>
       <c r="C139" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>191</v>
@@ -3213,11 +3227,9 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="12"/>
-      <c r="B140" s="12" t="s">
-        <v>305</v>
-      </c>
+      <c r="B140" s="12"/>
       <c r="C140" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>191</v>
@@ -3227,7 +3239,7 @@
       <c r="A141" s="12"/>
       <c r="B141" s="12"/>
       <c r="C141" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>191</v>
@@ -3235,51 +3247,51 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="12"/>
-      <c r="B142" s="12"/>
+      <c r="B142" s="12" t="s">
+        <v>299</v>
+      </c>
       <c r="C142" t="s">
-        <v>190</v>
+        <v>297</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>191</v>
+        <v>295</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="12"/>
-      <c r="B143" s="12" t="s">
-        <v>299</v>
-      </c>
+      <c r="B143" s="12"/>
       <c r="C143" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="12"/>
       <c r="B144" s="12"/>
       <c r="C144" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="12"/>
       <c r="B145" s="12"/>
       <c r="C145" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="12"/>
       <c r="B146" s="12"/>
       <c r="C146" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>304</v>
@@ -3289,7 +3301,7 @@
       <c r="A147" s="12"/>
       <c r="B147" s="12"/>
       <c r="C147" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>304</v>
@@ -3297,35 +3309,38 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="12"/>
-      <c r="B148" s="12"/>
+      <c r="B148" s="2" t="s">
+        <v>196</v>
+      </c>
       <c r="C148" t="s">
-        <v>303</v>
+        <v>192</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>304</v>
+        <v>194</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="12"/>
-      <c r="B149" s="2" t="s">
-        <v>196</v>
+      <c r="A149" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B149" s="12" t="s">
+        <v>255</v>
       </c>
       <c r="C149" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>194</v>
       </c>
+      <c r="E149">
+        <v>3.14</v>
+      </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="B150" s="12" t="s">
-        <v>255</v>
-      </c>
+      <c r="A150" s="12"/>
+      <c r="B150" s="12"/>
       <c r="C150" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>194</v>
@@ -3338,20 +3353,17 @@
       <c r="A151" s="12"/>
       <c r="B151" s="12"/>
       <c r="C151" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E151">
-        <v>3.14</v>
+        <v>205</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="12"/>
       <c r="B152" s="12"/>
       <c r="C152" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>205</v>
@@ -3361,17 +3373,17 @@
       <c r="A153" s="12"/>
       <c r="B153" s="12"/>
       <c r="C153" t="s">
-        <v>203</v>
+        <v>256</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>205</v>
+        <v>254</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="12"/>
       <c r="B154" s="12"/>
       <c r="C154" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>254</v>
@@ -3381,7 +3393,7 @@
       <c r="A155" s="12"/>
       <c r="B155" s="12"/>
       <c r="C155" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>254</v>
@@ -3391,27 +3403,27 @@
       <c r="A156" s="12"/>
       <c r="B156" s="12"/>
       <c r="C156" t="s">
-        <v>258</v>
+        <v>306</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>254</v>
+        <v>307</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="12"/>
-      <c r="B157" s="12"/>
+      <c r="B157" s="8"/>
       <c r="C157" t="s">
-        <v>306</v>
+        <v>200</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>307</v>
+        <v>205</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="12"/>
       <c r="B158" s="8"/>
       <c r="C158" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>205</v>
@@ -3421,7 +3433,7 @@
       <c r="A159" s="12"/>
       <c r="B159" s="8"/>
       <c r="C159" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>205</v>
@@ -3431,17 +3443,17 @@
       <c r="A160" s="12"/>
       <c r="B160" s="8"/>
       <c r="C160" t="s">
-        <v>204</v>
+        <v>312</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>205</v>
+        <v>314</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="12"/>
       <c r="B161" s="8"/>
       <c r="C161" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>314</v>
@@ -3449,21 +3461,21 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="12"/>
-      <c r="B162" s="8"/>
+      <c r="B162" s="12" t="s">
+        <v>311</v>
+      </c>
       <c r="C162" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="12"/>
-      <c r="B163" s="12" t="s">
-        <v>311</v>
-      </c>
+      <c r="B163" s="12"/>
       <c r="C163" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>307</v>
@@ -3473,80 +3485,80 @@
       <c r="A164" s="12"/>
       <c r="B164" s="12"/>
       <c r="C164" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="12"/>
-      <c r="B165" s="12"/>
+      <c r="A165" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>207</v>
+      </c>
       <c r="C165" t="s">
-        <v>310</v>
+        <v>208</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>307</v>
+        <v>209</v>
+      </c>
+      <c r="E165">
+        <v>3.22</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="B166" s="8" t="s">
-        <v>207</v>
-      </c>
+      <c r="A166" s="8"/>
+      <c r="B166" s="8"/>
       <c r="C166" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E166">
-        <v>3.22</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="8"/>
       <c r="B167" s="8"/>
       <c r="C167" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>211</v>
       </c>
       <c r="E167">
-        <v>3.23</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="8"/>
       <c r="B168" s="8"/>
       <c r="C168" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="E168">
-        <v>3.22</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="8"/>
       <c r="B169" s="8"/>
       <c r="C169" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="8"/>
       <c r="B170" s="8"/>
       <c r="C170" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>215</v>
@@ -3556,47 +3568,56 @@
       <c r="A171" s="8"/>
       <c r="B171" s="8"/>
       <c r="C171" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>215</v>
+        <v>220</v>
+      </c>
+      <c r="E171">
+        <v>3.24</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="8"/>
       <c r="B172" s="8"/>
       <c r="C172" t="s">
-        <v>219</v>
+        <v>282</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>220</v>
+        <v>281</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="8"/>
       <c r="B173" s="8"/>
       <c r="C173" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>281</v>
+      </c>
+      <c r="E173">
+        <v>3.24</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="8"/>
       <c r="B174" s="8"/>
       <c r="C174" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>281</v>
+      </c>
+      <c r="E174">
+        <v>3.24</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="8"/>
       <c r="B175" s="8"/>
       <c r="C175" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>281</v>
@@ -3606,17 +3627,17 @@
       <c r="A176" s="8"/>
       <c r="B176" s="8"/>
       <c r="C176" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="8"/>
       <c r="B177" s="8"/>
       <c r="C177" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>292</v>
@@ -3626,30 +3647,30 @@
       <c r="A178" s="8"/>
       <c r="B178" s="8"/>
       <c r="C178" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>292</v>
+      </c>
+      <c r="E178">
+        <v>3.22</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="8"/>
       <c r="B179" s="8"/>
       <c r="C179" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="E179">
-        <v>3.22</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="8"/>
       <c r="B180" s="8"/>
       <c r="C180" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>292</v>
@@ -3659,7 +3680,7 @@
       <c r="A181" s="8"/>
       <c r="B181" s="8"/>
       <c r="C181" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>292</v>
@@ -3669,17 +3690,17 @@
       <c r="A182" s="8"/>
       <c r="B182" s="8"/>
       <c r="C182" t="s">
-        <v>291</v>
+        <v>334</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>292</v>
+        <v>337</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="8"/>
       <c r="B183" s="8"/>
       <c r="C183" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>337</v>
@@ -3689,7 +3710,7 @@
       <c r="A184" s="8"/>
       <c r="B184" s="8"/>
       <c r="C184" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>337</v>
@@ -3699,29 +3720,32 @@
       <c r="A185" s="8"/>
       <c r="B185" s="8"/>
       <c r="C185" t="s">
-        <v>336</v>
+        <v>61</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>337</v>
+        <v>64</v>
+      </c>
+      <c r="E185">
+        <v>3.24</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="8"/>
-      <c r="B186" s="8" t="s">
-        <v>223</v>
-      </c>
+      <c r="B186" s="8"/>
       <c r="C186" t="s">
-        <v>221</v>
+        <v>341</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>220</v>
+        <v>342</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="8"/>
-      <c r="B187" s="8"/>
+      <c r="B187" s="8" t="s">
+        <v>223</v>
+      </c>
       <c r="C187" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>220</v>
@@ -3731,72 +3755,72 @@
       <c r="A188" s="8"/>
       <c r="B188" s="8"/>
       <c r="C188" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="8"/>
       <c r="B189" s="8"/>
       <c r="C189" t="s">
-        <v>338</v>
+        <v>224</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>340</v>
+        <v>225</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="8"/>
       <c r="B190" s="8"/>
       <c r="C190" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="3" t="s">
+      <c r="A191" s="8"/>
+      <c r="B191" s="8"/>
+      <c r="C191" t="s">
+        <v>339</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="8"/>
+      <c r="B192" s="8"/>
+      <c r="C192" t="s">
+        <v>343</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C191" t="s">
+      <c r="C193" t="s">
         <v>218</v>
       </c>
-      <c r="D191" s="1" t="s">
+      <c r="D193" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="12" t="s">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="B192" s="12" t="s">
+      <c r="B194" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="C192" t="s">
+      <c r="C194" t="s">
         <v>227</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="12"/>
-      <c r="B193" s="12"/>
-      <c r="C193" t="s">
-        <v>229</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="12"/>
-      <c r="B194" s="12"/>
-      <c r="C194" t="s">
-        <v>230</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>228</v>
@@ -3804,11 +3828,9 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="12"/>
-      <c r="B195" s="12" t="s">
-        <v>234</v>
-      </c>
+      <c r="B195" s="12"/>
       <c r="C195" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>228</v>
@@ -3818,7 +3840,7 @@
       <c r="A196" s="12"/>
       <c r="B196" s="12"/>
       <c r="C196" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>228</v>
@@ -3826,11 +3848,11 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="12"/>
-      <c r="B197" s="2" t="s">
-        <v>236</v>
+      <c r="B197" s="12" t="s">
+        <v>234</v>
       </c>
       <c r="C197" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>228</v>
@@ -3838,26 +3860,30 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="12"/>
+      <c r="B198" s="12"/>
       <c r="C198" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="12"/>
+      <c r="B199" s="2" t="s">
+        <v>236</v>
+      </c>
       <c r="C199" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="12"/>
       <c r="C200" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>237</v>
@@ -3865,33 +3891,29 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="12"/>
-      <c r="B201" s="12" t="s">
-        <v>128</v>
-      </c>
       <c r="C201" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="12"/>
-      <c r="B202" s="12"/>
       <c r="C202" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="12"/>
       <c r="B203" s="12" t="s">
-        <v>246</v>
+        <v>128</v>
       </c>
       <c r="C203" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>242</v>
@@ -3901,7 +3923,7 @@
       <c r="A204" s="12"/>
       <c r="B204" s="12"/>
       <c r="C204" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>242</v>
@@ -3909,218 +3931,240 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="12"/>
-      <c r="B205" s="5"/>
+      <c r="B205" s="12" t="s">
+        <v>246</v>
+      </c>
       <c r="C205" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="12"/>
-      <c r="B206" s="6"/>
+      <c r="B206" s="12"/>
       <c r="C206" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="12"/>
-      <c r="B207" s="6"/>
+      <c r="B207" s="5"/>
       <c r="C207" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="12"/>
       <c r="B208" s="6"/>
       <c r="C208" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" s="12" t="s">
-        <v>248</v>
-      </c>
+      <c r="A209" s="12"/>
+      <c r="B209" s="6"/>
       <c r="C209" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E209">
-        <v>3.19</v>
+        <v>272</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="12"/>
+      <c r="B210" s="6"/>
       <c r="C210" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="D210" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="C211" t="s">
+        <v>249</v>
+      </c>
+      <c r="D211" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E210">
+      <c r="E211">
         <v>3.19</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" s="12"/>
-      <c r="B211" s="5"/>
-      <c r="C211" t="s">
-        <v>265</v>
-      </c>
-      <c r="D211" s="1" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="12"/>
-      <c r="B212" s="11"/>
       <c r="C212" t="s">
-        <v>330</v>
+        <v>251</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>333</v>
+        <v>250</v>
+      </c>
+      <c r="E212">
+        <v>3.19</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="12"/>
-      <c r="B213" s="11"/>
+      <c r="B213" s="5"/>
       <c r="C213" t="s">
-        <v>331</v>
+        <v>265</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>333</v>
+        <v>264</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="12"/>
       <c r="B214" s="11"/>
       <c r="C214" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" s="4" t="s">
+      <c r="A215" s="12"/>
+      <c r="B215" s="11"/>
+      <c r="C215" t="s">
+        <v>331</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" s="12"/>
+      <c r="B216" s="11"/>
+      <c r="C216" t="s">
+        <v>332</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C215" t="s">
+      <c r="C217" t="s">
         <v>253</v>
       </c>
-      <c r="D215" s="1" t="s">
+      <c r="D217" s="1" t="s">
         <v>254</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>259</v>
-      </c>
-      <c r="C216" t="s">
-        <v>260</v>
-      </c>
-      <c r="D216" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>262</v>
-      </c>
-      <c r="C217" t="s">
-        <v>263</v>
-      </c>
-      <c r="D217" s="1" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
+        <v>259</v>
+      </c>
+      <c r="C218" t="s">
+        <v>260</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>262</v>
+      </c>
+      <c r="C219" t="s">
+        <v>263</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
         <v>267</v>
       </c>
-      <c r="C218" t="s">
+      <c r="C220" t="s">
         <v>268</v>
       </c>
-      <c r="D218" s="1" t="s">
+      <c r="D220" s="1" t="s">
         <v>264</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C219" t="s">
-        <v>276</v>
-      </c>
-      <c r="D219" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C220" t="s">
-        <v>277</v>
-      </c>
-      <c r="D220" s="1" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C221" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>279</v>
       </c>
     </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C222" t="s">
+        <v>277</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C223" t="s">
+        <v>278</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A69:A89"/>
-    <mergeCell ref="B119:B126"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="A90:A95"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B101:B110"/>
-    <mergeCell ref="B111:B115"/>
-    <mergeCell ref="A101:A115"/>
-    <mergeCell ref="A209:A214"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A42:A55"/>
+    <mergeCell ref="A194:A210"/>
+    <mergeCell ref="A115:A148"/>
+    <mergeCell ref="B149:B156"/>
+    <mergeCell ref="B162:B164"/>
+    <mergeCell ref="A149:A164"/>
+    <mergeCell ref="B139:B141"/>
+    <mergeCell ref="B203:B204"/>
+    <mergeCell ref="B205:B206"/>
+    <mergeCell ref="B194:B196"/>
+    <mergeCell ref="B197:B198"/>
+    <mergeCell ref="B142:B147"/>
+    <mergeCell ref="A211:A216"/>
     <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B68:B70"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="B13:B31"/>
     <mergeCell ref="B32:B40"/>
     <mergeCell ref="A13:A41"/>
     <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B47:B49"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="A42:A56"/>
-    <mergeCell ref="A57:A68"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="A192:A208"/>
-    <mergeCell ref="A116:A149"/>
-    <mergeCell ref="B150:B157"/>
-    <mergeCell ref="B163:B165"/>
-    <mergeCell ref="A150:A165"/>
-    <mergeCell ref="B140:B142"/>
-    <mergeCell ref="B201:B202"/>
-    <mergeCell ref="B203:B204"/>
-    <mergeCell ref="B192:B194"/>
-    <mergeCell ref="B195:B196"/>
-    <mergeCell ref="B143:B148"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="A56:A67"/>
+    <mergeCell ref="B85:B88"/>
+    <mergeCell ref="A68:A88"/>
+    <mergeCell ref="B118:B125"/>
+    <mergeCell ref="B127:B129"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="A89:A94"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B100:B109"/>
+    <mergeCell ref="B110:B114"/>
+    <mergeCell ref="A100:A114"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/时间表.xlsx
+++ b/时间表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\360\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16777B9-D4AC-401D-A2E6-3A24ADF8D57D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1442FBD8-BD54-42EB-B41F-7F70C928B97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8736" yWindow="432" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="347">
   <si>
     <t>第一次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1400,6 +1400,18 @@
   </si>
   <si>
     <t>310最小高度树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70爬楼梯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>413等差数列划分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1443,7 +1455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1466,6 +1478,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1759,10 +1774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F223"/>
+  <dimension ref="A1:F225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="E193" sqref="E193"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="E119" sqref="E119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1794,10 +1809,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>153</v>
       </c>
       <c r="C2" t="s">
@@ -1808,8 +1823,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -1818,7 +1833,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
+      <c r="A4" s="13"/>
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -1827,8 +1842,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13" t="s">
         <v>141</v>
       </c>
       <c r="C5" t="s">
@@ -1839,8 +1854,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
       <c r="C6" t="s">
         <v>138</v>
       </c>
@@ -1849,8 +1864,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
       <c r="C7" t="s">
         <v>139</v>
       </c>
@@ -1859,8 +1874,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
       <c r="C8" t="s">
         <v>140</v>
       </c>
@@ -1872,8 +1887,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13" t="s">
         <v>152</v>
       </c>
       <c r="C9" t="s">
@@ -1884,8 +1899,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
       <c r="C10" t="s">
         <v>9</v>
       </c>
@@ -1894,8 +1909,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
       <c r="C11" t="s">
         <v>10</v>
       </c>
@@ -1904,7 +1919,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
+      <c r="A12" s="13"/>
       <c r="C12" t="s">
         <v>97</v>
       </c>
@@ -1913,10 +1928,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C13" t="s">
@@ -1927,8 +1942,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -1937,8 +1952,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
       <c r="C15" t="s">
         <v>17</v>
       </c>
@@ -1947,8 +1962,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
       <c r="C16" t="s">
         <v>18</v>
       </c>
@@ -1957,8 +1972,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
       <c r="C17" t="s">
         <v>19</v>
       </c>
@@ -1967,8 +1982,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
       <c r="C18" t="s">
         <v>20</v>
       </c>
@@ -1977,8 +1992,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
       <c r="C19" t="s">
         <v>21</v>
       </c>
@@ -1987,8 +2002,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
       <c r="C20" t="s">
         <v>22</v>
       </c>
@@ -1997,8 +2012,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
       <c r="C21" t="s">
         <v>23</v>
       </c>
@@ -2007,8 +2022,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
       <c r="C22" t="s">
         <v>24</v>
       </c>
@@ -2017,8 +2032,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -2027,8 +2042,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
       <c r="C24" t="s">
         <v>26</v>
       </c>
@@ -2037,8 +2052,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
       <c r="C25" t="s">
         <v>27</v>
       </c>
@@ -2047,8 +2062,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
       <c r="C26" t="s">
         <v>28</v>
       </c>
@@ -2057,8 +2072,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
       <c r="C27" t="s">
         <v>29</v>
       </c>
@@ -2067,8 +2082,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
       <c r="C28" t="s">
         <v>30</v>
       </c>
@@ -2077,8 +2092,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
       <c r="C29" t="s">
         <v>31</v>
       </c>
@@ -2087,8 +2102,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
       <c r="C30" t="s">
         <v>32</v>
       </c>
@@ -2097,8 +2112,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
       <c r="C31" t="s">
         <v>33</v>
       </c>
@@ -2107,8 +2122,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12" t="s">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C32" t="s">
@@ -2119,8 +2134,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
       <c r="C33" t="s">
         <v>36</v>
       </c>
@@ -2129,8 +2144,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
       <c r="C34" t="s">
         <v>37</v>
       </c>
@@ -2139,8 +2154,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
       <c r="C35" t="s">
         <v>39</v>
       </c>
@@ -2149,8 +2164,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
       <c r="C36" t="s">
         <v>40</v>
       </c>
@@ -2159,8 +2174,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
       <c r="C37" t="s">
         <v>41</v>
       </c>
@@ -2169,8 +2184,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
       <c r="C38" t="s">
         <v>42</v>
       </c>
@@ -2179,8 +2194,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
       <c r="C39" t="s">
         <v>44</v>
       </c>
@@ -2189,8 +2204,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
       <c r="C40" t="s">
         <v>45</v>
       </c>
@@ -2199,7 +2214,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
+      <c r="A41" s="13"/>
       <c r="B41" s="2" t="s">
         <v>47</v>
       </c>
@@ -2211,7 +2226,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="13" t="s">
         <v>50</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -2225,7 +2240,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
+      <c r="A43" s="13"/>
       <c r="B43" s="2" t="s">
         <v>74</v>
       </c>
@@ -2237,7 +2252,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
+      <c r="A44" s="13"/>
       <c r="B44" s="2" t="s">
         <v>75</v>
       </c>
@@ -2249,8 +2264,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12" t="s">
+      <c r="A45" s="13"/>
+      <c r="B45" s="13" t="s">
         <v>76</v>
       </c>
       <c r="C45" t="s">
@@ -2261,8 +2276,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
       <c r="C46" t="s">
         <v>57</v>
       </c>
@@ -2271,8 +2286,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12" t="s">
+      <c r="A47" s="13"/>
+      <c r="B47" s="13" t="s">
         <v>77</v>
       </c>
       <c r="C47" t="s">
@@ -2283,8 +2298,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="13"/>
       <c r="C48" t="s">
         <v>62</v>
       </c>
@@ -2293,8 +2308,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12" t="s">
+      <c r="A49" s="13"/>
+      <c r="B49" s="13" t="s">
         <v>78</v>
       </c>
       <c r="C49" t="s">
@@ -2305,8 +2320,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
+      <c r="A50" s="13"/>
+      <c r="B50" s="13"/>
       <c r="C50" t="s">
         <v>65</v>
       </c>
@@ -2315,8 +2330,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="12"/>
-      <c r="B51" s="12"/>
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
       <c r="C51" t="s">
         <v>66</v>
       </c>
@@ -2325,7 +2340,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="12"/>
+      <c r="A52" s="13"/>
       <c r="B52" s="2" t="s">
         <v>79</v>
       </c>
@@ -2337,8 +2352,8 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="12"/>
-      <c r="B53" s="12" t="s">
+      <c r="A53" s="13"/>
+      <c r="B53" s="13" t="s">
         <v>80</v>
       </c>
       <c r="C53" t="s">
@@ -2349,8 +2364,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="12"/>
-      <c r="B54" s="12"/>
+      <c r="A54" s="13"/>
+      <c r="B54" s="13"/>
       <c r="C54" t="s">
         <v>70</v>
       </c>
@@ -2359,8 +2374,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="12"/>
-      <c r="B55" s="12"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="13"/>
       <c r="C55" t="s">
         <v>71</v>
       </c>
@@ -2369,7 +2384,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="12" t="s">
+      <c r="A56" s="13" t="s">
         <v>81</v>
       </c>
       <c r="C56" t="s">
@@ -2380,7 +2395,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="12"/>
+      <c r="A57" s="13"/>
       <c r="C57" t="s">
         <v>83</v>
       </c>
@@ -2389,7 +2404,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="12"/>
+      <c r="A58" s="13"/>
       <c r="C58" t="s">
         <v>84</v>
       </c>
@@ -2398,7 +2413,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="12"/>
+      <c r="A59" s="13"/>
       <c r="C59" t="s">
         <v>86</v>
       </c>
@@ -2407,7 +2422,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="12"/>
+      <c r="A60" s="13"/>
       <c r="C60" t="s">
         <v>87</v>
       </c>
@@ -2416,7 +2431,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="12"/>
+      <c r="A61" s="13"/>
       <c r="C61" t="s">
         <v>89</v>
       </c>
@@ -2425,7 +2440,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="12"/>
+      <c r="A62" s="13"/>
       <c r="C62" t="s">
         <v>90</v>
       </c>
@@ -2434,7 +2449,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="12"/>
+      <c r="A63" s="13"/>
       <c r="C63" t="s">
         <v>91</v>
       </c>
@@ -2443,7 +2458,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="12"/>
+      <c r="A64" s="13"/>
       <c r="C64" t="s">
         <v>92</v>
       </c>
@@ -2452,7 +2467,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="12"/>
+      <c r="A65" s="13"/>
       <c r="C65" t="s">
         <v>94</v>
       </c>
@@ -2461,7 +2476,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="12"/>
+      <c r="A66" s="13"/>
       <c r="C66" t="s">
         <v>95</v>
       </c>
@@ -2470,7 +2485,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="12"/>
+      <c r="A67" s="13"/>
       <c r="B67" s="7"/>
       <c r="C67" t="s">
         <v>280</v>
@@ -2480,10 +2495,10 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="12" t="s">
+      <c r="A68" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="13" t="s">
         <v>105</v>
       </c>
       <c r="C68" t="s">
@@ -2494,8 +2509,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="12"/>
-      <c r="B69" s="12"/>
+      <c r="A69" s="13"/>
+      <c r="B69" s="13"/>
       <c r="C69" t="s">
         <v>101</v>
       </c>
@@ -2504,8 +2519,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="12"/>
-      <c r="B70" s="12"/>
+      <c r="A70" s="13"/>
+      <c r="B70" s="13"/>
       <c r="C70" t="s">
         <v>102</v>
       </c>
@@ -2514,8 +2529,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="12"/>
-      <c r="B71" s="12" t="s">
+      <c r="A71" s="13"/>
+      <c r="B71" s="13" t="s">
         <v>104</v>
       </c>
       <c r="C71" t="s">
@@ -2526,8 +2541,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="12"/>
-      <c r="B72" s="12"/>
+      <c r="A72" s="13"/>
+      <c r="B72" s="13"/>
       <c r="C72" t="s">
         <v>107</v>
       </c>
@@ -2536,8 +2551,8 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="12"/>
-      <c r="B73" s="12"/>
+      <c r="A73" s="13"/>
+      <c r="B73" s="13"/>
       <c r="C73" t="s">
         <v>108</v>
       </c>
@@ -2546,8 +2561,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="12"/>
-      <c r="B74" s="12" t="s">
+      <c r="A74" s="13"/>
+      <c r="B74" s="13" t="s">
         <v>113</v>
       </c>
       <c r="C74" t="s">
@@ -2558,8 +2573,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="12"/>
-      <c r="B75" s="12"/>
+      <c r="A75" s="13"/>
+      <c r="B75" s="13"/>
       <c r="C75" t="s">
         <v>111</v>
       </c>
@@ -2568,8 +2583,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="12"/>
-      <c r="B76" s="12"/>
+      <c r="A76" s="13"/>
+      <c r="B76" s="13"/>
       <c r="C76" t="s">
         <v>112</v>
       </c>
@@ -2578,8 +2593,8 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="12"/>
-      <c r="B77" s="12" t="s">
+      <c r="A77" s="13"/>
+      <c r="B77" s="13" t="s">
         <v>128</v>
       </c>
       <c r="C77" t="s">
@@ -2590,8 +2605,8 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="12"/>
-      <c r="B78" s="12"/>
+      <c r="A78" s="13"/>
+      <c r="B78" s="13"/>
       <c r="C78" t="s">
         <v>125</v>
       </c>
@@ -2600,8 +2615,8 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="12"/>
-      <c r="B79" s="12"/>
+      <c r="A79" s="13"/>
+      <c r="B79" s="13"/>
       <c r="C79" t="s">
         <v>127</v>
       </c>
@@ -2610,7 +2625,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="12"/>
+      <c r="A80" s="13"/>
       <c r="C80" t="s">
         <v>114</v>
       </c>
@@ -2619,8 +2634,8 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="12"/>
-      <c r="B81" s="12" t="s">
+      <c r="A81" s="13"/>
+      <c r="B81" s="13" t="s">
         <v>121</v>
       </c>
       <c r="C81" t="s">
@@ -2631,8 +2646,8 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="12"/>
-      <c r="B82" s="12"/>
+      <c r="A82" s="13"/>
+      <c r="B82" s="13"/>
       <c r="C82" t="s">
         <v>117</v>
       </c>
@@ -2641,8 +2656,8 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="12"/>
-      <c r="B83" s="12"/>
+      <c r="A83" s="13"/>
+      <c r="B83" s="13"/>
       <c r="C83" t="s">
         <v>118</v>
       </c>
@@ -2651,8 +2666,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="12"/>
-      <c r="B84" s="12"/>
+      <c r="A84" s="13"/>
+      <c r="B84" s="13"/>
       <c r="C84" t="s">
         <v>119</v>
       </c>
@@ -2661,8 +2676,8 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="12"/>
-      <c r="B85" s="12" t="s">
+      <c r="A85" s="13"/>
+      <c r="B85" s="13" t="s">
         <v>296</v>
       </c>
       <c r="C85" t="s">
@@ -2673,8 +2688,8 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="12"/>
-      <c r="B86" s="12"/>
+      <c r="A86" s="13"/>
+      <c r="B86" s="13"/>
       <c r="C86" t="s">
         <v>123</v>
       </c>
@@ -2683,8 +2698,8 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="12"/>
-      <c r="B87" s="12"/>
+      <c r="A87" s="13"/>
+      <c r="B87" s="13"/>
       <c r="C87" t="s">
         <v>293</v>
       </c>
@@ -2693,8 +2708,8 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="12"/>
-      <c r="B88" s="12"/>
+      <c r="A88" s="13"/>
+      <c r="B88" s="13"/>
       <c r="C88" t="s">
         <v>294</v>
       </c>
@@ -2703,7 +2718,7 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="12" t="s">
+      <c r="A89" s="13" t="s">
         <v>129</v>
       </c>
       <c r="C89" t="s">
@@ -2714,7 +2729,7 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="12"/>
+      <c r="A90" s="13"/>
       <c r="C90" t="s">
         <v>131</v>
       </c>
@@ -2726,7 +2741,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="12"/>
+      <c r="A91" s="13"/>
       <c r="C91" t="s">
         <v>133</v>
       </c>
@@ -2735,7 +2750,7 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="12"/>
+      <c r="A92" s="13"/>
       <c r="C92" t="s">
         <v>134</v>
       </c>
@@ -2744,7 +2759,7 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="12"/>
+      <c r="A93" s="13"/>
       <c r="C93" t="s">
         <v>135</v>
       </c>
@@ -2753,7 +2768,7 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="12"/>
+      <c r="A94" s="13"/>
       <c r="B94" s="6"/>
       <c r="C94" t="s">
         <v>273</v>
@@ -2813,10 +2828,10 @@
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="12" t="s">
+      <c r="A100" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="B100" s="12" t="s">
+      <c r="B100" s="13" t="s">
         <v>142</v>
       </c>
       <c r="C100" t="s">
@@ -2830,8 +2845,8 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="12"/>
-      <c r="B101" s="12"/>
+      <c r="A101" s="13"/>
+      <c r="B101" s="13"/>
       <c r="C101" t="s">
         <v>150</v>
       </c>
@@ -2840,8 +2855,8 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="12"/>
-      <c r="B102" s="12"/>
+      <c r="A102" s="13"/>
+      <c r="B102" s="13"/>
       <c r="C102" t="s">
         <v>151</v>
       </c>
@@ -2850,8 +2865,8 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="12"/>
-      <c r="B103" s="12"/>
+      <c r="A103" s="13"/>
+      <c r="B103" s="13"/>
       <c r="C103" t="s">
         <v>274</v>
       </c>
@@ -2860,8 +2875,8 @@
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="12"/>
-      <c r="B104" s="12"/>
+      <c r="A104" s="13"/>
+      <c r="B104" s="13"/>
       <c r="C104" t="s">
         <v>275</v>
       </c>
@@ -2870,8 +2885,8 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="12"/>
-      <c r="B105" s="12"/>
+      <c r="A105" s="13"/>
+      <c r="B105" s="13"/>
       <c r="C105" t="s">
         <v>315</v>
       </c>
@@ -2880,8 +2895,8 @@
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="12"/>
-      <c r="B106" s="12"/>
+      <c r="A106" s="13"/>
+      <c r="B106" s="13"/>
       <c r="C106" t="s">
         <v>318</v>
       </c>
@@ -2890,8 +2905,8 @@
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="12"/>
-      <c r="B107" s="12"/>
+      <c r="A107" s="13"/>
+      <c r="B107" s="13"/>
       <c r="C107" t="s">
         <v>319</v>
       </c>
@@ -2900,8 +2915,8 @@
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="12"/>
-      <c r="B108" s="12"/>
+      <c r="A108" s="13"/>
+      <c r="B108" s="13"/>
       <c r="C108" t="s">
         <v>320</v>
       </c>
@@ -2910,8 +2925,8 @@
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="12"/>
-      <c r="B109" s="12"/>
+      <c r="A109" s="13"/>
+      <c r="B109" s="13"/>
       <c r="C109" t="s">
         <v>321</v>
       </c>
@@ -2920,8 +2935,8 @@
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="12"/>
-      <c r="B110" s="12" t="s">
+      <c r="A110" s="13"/>
+      <c r="B110" s="13" t="s">
         <v>143</v>
       </c>
       <c r="C110" t="s">
@@ -2935,8 +2950,8 @@
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="12"/>
-      <c r="B111" s="12"/>
+      <c r="A111" s="13"/>
+      <c r="B111" s="13"/>
       <c r="C111" t="s">
         <v>145</v>
       </c>
@@ -2945,8 +2960,8 @@
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="12"/>
-      <c r="B112" s="12"/>
+      <c r="A112" s="13"/>
+      <c r="B112" s="13"/>
       <c r="C112" t="s">
         <v>146</v>
       </c>
@@ -2955,8 +2970,8 @@
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="12"/>
-      <c r="B113" s="12"/>
+      <c r="A113" s="13"/>
+      <c r="B113" s="13"/>
       <c r="C113" t="s">
         <v>147</v>
       </c>
@@ -2965,8 +2980,8 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="12"/>
-      <c r="B114" s="12"/>
+      <c r="A114" s="13"/>
+      <c r="B114" s="13"/>
       <c r="C114" t="s">
         <v>316</v>
       </c>
@@ -2978,1169 +2993,1188 @@
       <c r="A115" s="12" t="s">
         <v>154</v>
       </c>
+      <c r="B115" s="12"/>
       <c r="C115" t="s">
-        <v>155</v>
+        <v>344</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>120</v>
+        <v>346</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="12"/>
+      <c r="B116" s="12"/>
       <c r="C116" t="s">
+        <v>345</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="8"/>
+      <c r="C117" t="s">
+        <v>155</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="8"/>
+      <c r="C118" t="s">
         <v>156</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="D118" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="12"/>
-      <c r="C117" t="s">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="8"/>
+      <c r="C119" t="s">
         <v>158</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="D119" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="12"/>
-      <c r="B118" s="12" t="s">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="8"/>
+      <c r="B120" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C120" t="s">
         <v>163</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="D120" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="12"/>
-      <c r="B119" s="12"/>
-      <c r="C119" t="s">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="8"/>
+      <c r="B121" s="13"/>
+      <c r="C121" t="s">
         <v>164</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="D121" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="12"/>
-      <c r="B120" s="12"/>
-      <c r="C120" t="s">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="8"/>
+      <c r="B122" s="13"/>
+      <c r="C122" t="s">
         <v>166</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="12"/>
-      <c r="B121" s="12"/>
-      <c r="C121" t="s">
-        <v>167</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="12"/>
-      <c r="B122" s="12"/>
-      <c r="C122" t="s">
-        <v>168</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="12"/>
-      <c r="B123" s="12"/>
+      <c r="A123" s="8"/>
+      <c r="B123" s="13"/>
       <c r="C123" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="12"/>
-      <c r="B124" s="12"/>
+      <c r="A124" s="8"/>
+      <c r="B124" s="13"/>
       <c r="C124" t="s">
+        <v>168</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="8"/>
+      <c r="B125" s="13"/>
+      <c r="C125" t="s">
+        <v>169</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="8"/>
+      <c r="B126" s="13"/>
+      <c r="C126" t="s">
         <v>171</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="D126" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="12"/>
-      <c r="B125" s="12"/>
-      <c r="C125" t="s">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="8"/>
+      <c r="B127" s="13"/>
+      <c r="C127" t="s">
         <v>193</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="D127" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="12"/>
-      <c r="B126" s="2" t="s">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="8"/>
+      <c r="B128" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C128" t="s">
         <v>170</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="D128" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="12"/>
-      <c r="B127" s="12" t="s">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="8"/>
+      <c r="B129" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C129" t="s">
         <v>174</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="D129" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="12"/>
-      <c r="B128" s="12"/>
-      <c r="C128" t="s">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="8"/>
+      <c r="B130" s="13"/>
+      <c r="C130" t="s">
         <v>175</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="12"/>
-      <c r="B129" s="12"/>
-      <c r="C129" t="s">
-        <v>160</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="12"/>
-      <c r="C130" t="s">
-        <v>177</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="12"/>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="8"/>
+      <c r="B131" s="13"/>
       <c r="C131" t="s">
+        <v>160</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="8"/>
+      <c r="C132" t="s">
+        <v>177</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="8"/>
+      <c r="C133" t="s">
         <v>178</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="D133" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="12"/>
-      <c r="C132" t="s">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="8"/>
+      <c r="C134" t="s">
         <v>182</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="12"/>
-      <c r="C133" t="s">
-        <v>179</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="12"/>
-      <c r="C134" t="s">
-        <v>180</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="12"/>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="8"/>
       <c r="C135" t="s">
+        <v>179</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="8"/>
+      <c r="C136" t="s">
+        <v>180</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="8"/>
+      <c r="C137" t="s">
         <v>181</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="D137" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="12"/>
-      <c r="C136" t="s">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="8"/>
+      <c r="C138" t="s">
         <v>184</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="D138" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="12"/>
-      <c r="B137" s="2" t="s">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="8"/>
+      <c r="B139" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C139" t="s">
         <v>186</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="12"/>
-      <c r="C138" t="s">
-        <v>187</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="12"/>
-      <c r="B139" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="C139" t="s">
-        <v>188</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="12"/>
-      <c r="B140" s="12"/>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="8"/>
       <c r="C140" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="12"/>
-      <c r="B141" s="12"/>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="8"/>
+      <c r="B141" s="13" t="s">
+        <v>305</v>
+      </c>
       <c r="C141" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="12"/>
-      <c r="B142" s="12" t="s">
+      <c r="E141">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="8"/>
+      <c r="B142" s="13"/>
+      <c r="C142" t="s">
+        <v>189</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="8"/>
+      <c r="B143" s="13"/>
+      <c r="C143" t="s">
+        <v>190</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="8"/>
+      <c r="B144" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C144" t="s">
         <v>297</v>
       </c>
-      <c r="D142" s="1" t="s">
+      <c r="D144" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="12"/>
-      <c r="B143" s="12"/>
-      <c r="C143" t="s">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="8"/>
+      <c r="B145" s="13"/>
+      <c r="C145" t="s">
         <v>298</v>
       </c>
-      <c r="D143" s="1" t="s">
+      <c r="D145" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="12"/>
-      <c r="B144" s="12"/>
-      <c r="C144" t="s">
+    <row r="146" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="8"/>
+      <c r="B146" s="13"/>
+      <c r="C146" t="s">
         <v>300</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="12"/>
-      <c r="B145" s="12"/>
-      <c r="C145" t="s">
-        <v>301</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="12"/>
-      <c r="B146" s="12"/>
-      <c r="C146" t="s">
-        <v>302</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="12"/>
-      <c r="B147" s="12"/>
+    <row r="147" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="8"/>
+      <c r="B147" s="13"/>
       <c r="C147" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="12"/>
-      <c r="B148" s="2" t="s">
+      <c r="A148" s="8"/>
+      <c r="B148" s="13"/>
+      <c r="C148" t="s">
+        <v>302</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="8"/>
+      <c r="B149" s="13"/>
+      <c r="C149" t="s">
+        <v>303</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="8"/>
+      <c r="B150" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C150" t="s">
         <v>192</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="B149" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="C149" t="s">
-        <v>197</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E149">
-        <v>3.14</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="12"/>
-      <c r="B150" s="12"/>
-      <c r="C150" t="s">
-        <v>198</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E150">
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B151" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="C151" t="s">
+        <v>197</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E151">
         <v>3.14</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="12"/>
-      <c r="B151" s="12"/>
-      <c r="C151" t="s">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="13"/>
+      <c r="B152" s="13"/>
+      <c r="C152" t="s">
+        <v>198</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E152">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="13"/>
+      <c r="B153" s="13"/>
+      <c r="C153" t="s">
         <v>202</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="D153" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="12"/>
-      <c r="B152" s="12"/>
-      <c r="C152" t="s">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="13"/>
+      <c r="B154" s="13"/>
+      <c r="C154" t="s">
         <v>203</v>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="D154" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="12"/>
-      <c r="B153" s="12"/>
-      <c r="C153" t="s">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="13"/>
+      <c r="B155" s="13"/>
+      <c r="C155" t="s">
         <v>256</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="12"/>
-      <c r="B154" s="12"/>
-      <c r="C154" t="s">
-        <v>257</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="12"/>
-      <c r="B155" s="12"/>
-      <c r="C155" t="s">
-        <v>258</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="12"/>
-      <c r="B156" s="12"/>
+      <c r="A156" s="13"/>
+      <c r="B156" s="13"/>
       <c r="C156" t="s">
+        <v>257</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="13"/>
+      <c r="B157" s="13"/>
+      <c r="C157" t="s">
+        <v>258</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="13"/>
+      <c r="B158" s="13"/>
+      <c r="C158" t="s">
         <v>306</v>
       </c>
-      <c r="D156" s="1" t="s">
+      <c r="D158" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="12"/>
-      <c r="B157" s="8"/>
-      <c r="C157" t="s">
-        <v>200</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="12"/>
-      <c r="B158" s="8"/>
-      <c r="C158" t="s">
-        <v>201</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="12"/>
+      <c r="A159" s="13"/>
       <c r="B159" s="8"/>
       <c r="C159" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="12"/>
+      <c r="A160" s="13"/>
       <c r="B160" s="8"/>
       <c r="C160" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>314</v>
+        <v>205</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="12"/>
+      <c r="A161" s="13"/>
       <c r="B161" s="8"/>
       <c r="C161" t="s">
+        <v>204</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="13"/>
+      <c r="B162" s="8"/>
+      <c r="C162" t="s">
+        <v>312</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="13"/>
+      <c r="B163" s="8"/>
+      <c r="C163" t="s">
         <v>313</v>
       </c>
-      <c r="D161" s="1" t="s">
+      <c r="D163" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="12"/>
-      <c r="B162" s="12" t="s">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="13"/>
+      <c r="B164" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C164" t="s">
         <v>308</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="12"/>
-      <c r="B163" s="12"/>
-      <c r="C163" t="s">
-        <v>309</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="12"/>
-      <c r="B164" s="12"/>
-      <c r="C164" t="s">
-        <v>310</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="8" t="s">
+      <c r="A165" s="13"/>
+      <c r="B165" s="13"/>
+      <c r="C165" t="s">
+        <v>309</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="13"/>
+      <c r="B166" s="13"/>
+      <c r="C166" t="s">
+        <v>310</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="B165" s="8" t="s">
+      <c r="B167" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C167" t="s">
         <v>208</v>
       </c>
-      <c r="D165" s="1" t="s">
+      <c r="D167" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="E165">
-        <v>3.22</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="8"/>
-      <c r="B166" s="8"/>
-      <c r="C166" t="s">
-        <v>210</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E166">
-        <v>3.23</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="8"/>
-      <c r="B167" s="8"/>
-      <c r="C167" t="s">
-        <v>212</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="E167">
         <v>3.22</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="8"/>
-      <c r="B168" s="8"/>
+      <c r="A168" s="13"/>
+      <c r="B168" s="13"/>
       <c r="C168" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>211</v>
       </c>
+      <c r="E168">
+        <v>3.23</v>
+      </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="8"/>
-      <c r="B169" s="8"/>
+      <c r="A169" s="13"/>
+      <c r="B169" s="13"/>
       <c r="C169" t="s">
+        <v>212</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E169">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="13"/>
+      <c r="B170" s="13"/>
+      <c r="C170" t="s">
+        <v>213</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="13"/>
+      <c r="B171" s="13"/>
+      <c r="C171" t="s">
         <v>214</v>
       </c>
-      <c r="D169" s="1" t="s">
+      <c r="D171" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="8"/>
-      <c r="B170" s="8"/>
-      <c r="C170" t="s">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="13"/>
+      <c r="B172" s="13"/>
+      <c r="C172" t="s">
         <v>216</v>
       </c>
-      <c r="D170" s="1" t="s">
+      <c r="D172" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="8"/>
-      <c r="B171" s="8"/>
-      <c r="C171" t="s">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="13"/>
+      <c r="B173" s="13"/>
+      <c r="C173" t="s">
         <v>219</v>
       </c>
-      <c r="D171" s="1" t="s">
+      <c r="D173" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="E171">
-        <v>3.24</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="8"/>
-      <c r="B172" s="8"/>
-      <c r="C172" t="s">
-        <v>282</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="8"/>
-      <c r="B173" s="8"/>
-      <c r="C173" t="s">
-        <v>283</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="E173">
         <v>3.24</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="8"/>
-      <c r="B174" s="8"/>
+      <c r="A174" s="13"/>
+      <c r="B174" s="13"/>
       <c r="C174" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E174">
-        <v>3.24</v>
-      </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="8"/>
-      <c r="B175" s="8"/>
+      <c r="A175" s="13"/>
+      <c r="B175" s="13"/>
       <c r="C175" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>281</v>
       </c>
+      <c r="E175">
+        <v>3.24</v>
+      </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="8"/>
-      <c r="B176" s="8"/>
+      <c r="A176" s="13"/>
+      <c r="B176" s="13"/>
       <c r="C176" t="s">
+        <v>284</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E176">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="13"/>
+      <c r="B177" s="13"/>
+      <c r="C177" t="s">
+        <v>285</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="13"/>
+      <c r="B178" s="13"/>
+      <c r="C178" t="s">
         <v>286</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="8"/>
-      <c r="B177" s="8"/>
-      <c r="C177" t="s">
-        <v>287</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="8"/>
-      <c r="B178" s="8"/>
-      <c r="C178" t="s">
-        <v>288</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E178">
-        <v>3.22</v>
-      </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="8"/>
-      <c r="B179" s="8"/>
+      <c r="A179" s="13"/>
+      <c r="B179" s="13"/>
       <c r="C179" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="8"/>
-      <c r="B180" s="8"/>
+      <c r="A180" s="13"/>
+      <c r="B180" s="13"/>
       <c r="C180" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>292</v>
       </c>
+      <c r="E180">
+        <v>3.22</v>
+      </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="8"/>
-      <c r="B181" s="8"/>
+      <c r="A181" s="13"/>
+      <c r="B181" s="13"/>
       <c r="C181" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="8"/>
-      <c r="B182" s="8"/>
+      <c r="A182" s="13"/>
+      <c r="B182" s="13"/>
       <c r="C182" t="s">
+        <v>290</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="13"/>
+      <c r="B183" s="13"/>
+      <c r="C183" t="s">
+        <v>291</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="13"/>
+      <c r="B184" s="13"/>
+      <c r="C184" t="s">
         <v>334</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="8"/>
-      <c r="B183" s="8"/>
-      <c r="C183" t="s">
-        <v>335</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="8"/>
-      <c r="B184" s="8"/>
-      <c r="C184" t="s">
-        <v>336</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="8"/>
-      <c r="B185" s="8"/>
+      <c r="A185" s="13"/>
+      <c r="B185" s="13"/>
       <c r="C185" t="s">
+        <v>335</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="13"/>
+      <c r="B186" s="13"/>
+      <c r="C186" t="s">
+        <v>336</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="13"/>
+      <c r="B187" s="13"/>
+      <c r="C187" t="s">
         <v>61</v>
       </c>
-      <c r="D185" s="1" t="s">
+      <c r="D187" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E185">
+      <c r="E187">
         <v>3.24</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="8"/>
-      <c r="B186" s="8"/>
-      <c r="C186" t="s">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="13"/>
+      <c r="B188" s="13"/>
+      <c r="C188" t="s">
         <v>341</v>
       </c>
-      <c r="D186" s="1" t="s">
+      <c r="D188" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="8"/>
-      <c r="B187" s="8" t="s">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="13"/>
+      <c r="B189" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C189" t="s">
         <v>221</v>
       </c>
-      <c r="D187" s="1" t="s">
+      <c r="D189" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="8"/>
-      <c r="B188" s="8"/>
-      <c r="C188" t="s">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="13"/>
+      <c r="B190" s="13"/>
+      <c r="C190" t="s">
         <v>222</v>
       </c>
-      <c r="D188" s="1" t="s">
+      <c r="D190" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="8"/>
-      <c r="B189" s="8"/>
-      <c r="C189" t="s">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="13"/>
+      <c r="B191" s="13"/>
+      <c r="C191" t="s">
         <v>224</v>
       </c>
-      <c r="D189" s="1" t="s">
+      <c r="D191" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="8"/>
-      <c r="B190" s="8"/>
-      <c r="C190" t="s">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="13"/>
+      <c r="B192" s="13"/>
+      <c r="C192" t="s">
         <v>338</v>
       </c>
-      <c r="D190" s="1" t="s">
+      <c r="D192" s="1" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="8"/>
-      <c r="B191" s="8"/>
-      <c r="C191" t="s">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="13"/>
+      <c r="B193" s="13"/>
+      <c r="C193" t="s">
         <v>339</v>
       </c>
-      <c r="D191" s="1" t="s">
+      <c r="D193" s="1" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="8"/>
-      <c r="B192" s="8"/>
-      <c r="C192" t="s">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="13"/>
+      <c r="B194" s="13"/>
+      <c r="C194" t="s">
         <v>343</v>
       </c>
-      <c r="D192" s="1" t="s">
+      <c r="D194" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="3" t="s">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C195" t="s">
         <v>218</v>
       </c>
-      <c r="D193" s="1" t="s">
+      <c r="D195" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="12" t="s">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="B194" s="12" t="s">
+      <c r="B196" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C196" t="s">
         <v>227</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="12"/>
-      <c r="B195" s="12"/>
-      <c r="C195" t="s">
-        <v>229</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" s="12"/>
-      <c r="B196" s="12"/>
-      <c r="C196" t="s">
-        <v>230</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="12"/>
-      <c r="B197" s="12" t="s">
-        <v>234</v>
-      </c>
+      <c r="A197" s="13"/>
+      <c r="B197" s="13"/>
       <c r="C197" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" s="12"/>
-      <c r="B198" s="12"/>
+      <c r="A198" s="13"/>
+      <c r="B198" s="13"/>
       <c r="C198" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="12"/>
-      <c r="B199" s="2" t="s">
-        <v>236</v>
+      <c r="A199" s="13"/>
+      <c r="B199" s="13" t="s">
+        <v>234</v>
       </c>
       <c r="C199" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="12"/>
+      <c r="A200" s="13"/>
+      <c r="B200" s="13"/>
       <c r="C200" t="s">
+        <v>233</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="13"/>
+      <c r="B201" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C201" t="s">
+        <v>235</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="13"/>
+      <c r="C202" t="s">
         <v>240</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="12"/>
-      <c r="C201" t="s">
-        <v>238</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="12"/>
-      <c r="C202" t="s">
-        <v>239</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" s="12"/>
-      <c r="B203" s="12" t="s">
+      <c r="A203" s="13"/>
+      <c r="C203" t="s">
+        <v>238</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="13"/>
+      <c r="C204" t="s">
+        <v>239</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="13"/>
+      <c r="B205" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C205" t="s">
         <v>241</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" s="12"/>
-      <c r="B204" s="12"/>
-      <c r="C204" t="s">
-        <v>243</v>
-      </c>
-      <c r="D204" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" s="12"/>
-      <c r="B205" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="C205" t="s">
-        <v>245</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" s="12"/>
-      <c r="B206" s="12"/>
+      <c r="A206" s="13"/>
+      <c r="B206" s="13"/>
       <c r="C206" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="12"/>
-      <c r="B207" s="5"/>
+      <c r="A207" s="13"/>
+      <c r="B207" s="13" t="s">
+        <v>246</v>
+      </c>
       <c r="C207" t="s">
+        <v>245</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="13"/>
+      <c r="B208" s="13"/>
+      <c r="C208" t="s">
+        <v>244</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="13"/>
+      <c r="B209" s="5"/>
+      <c r="C209" t="s">
         <v>266</v>
       </c>
-      <c r="D207" s="1" t="s">
+      <c r="D209" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" s="12"/>
-      <c r="B208" s="6"/>
-      <c r="C208" t="s">
-        <v>269</v>
-      </c>
-      <c r="D208" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" s="12"/>
-      <c r="B209" s="6"/>
-      <c r="C209" t="s">
-        <v>270</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" s="12"/>
+      <c r="A210" s="13"/>
       <c r="B210" s="6"/>
       <c r="C210" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" s="12" t="s">
+      <c r="A211" s="13"/>
+      <c r="B211" s="6"/>
+      <c r="C211" t="s">
+        <v>270</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="13"/>
+      <c r="B212" s="6"/>
+      <c r="C212" t="s">
+        <v>271</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="C211" t="s">
+      <c r="C213" t="s">
         <v>249</v>
       </c>
-      <c r="D211" s="1" t="s">
+      <c r="D213" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E211">
+      <c r="E213">
         <v>3.19</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" s="12"/>
-      <c r="C212" t="s">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" s="13"/>
+      <c r="C214" t="s">
         <v>251</v>
       </c>
-      <c r="D212" s="1" t="s">
+      <c r="D214" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E212">
+      <c r="E214">
         <v>3.19</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" s="12"/>
-      <c r="B213" s="5"/>
-      <c r="C213" t="s">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" s="13"/>
+      <c r="B215" s="5"/>
+      <c r="C215" t="s">
         <v>265</v>
       </c>
-      <c r="D213" s="1" t="s">
+      <c r="D215" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" s="12"/>
-      <c r="B214" s="11"/>
-      <c r="C214" t="s">
-        <v>330</v>
-      </c>
-      <c r="D214" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" s="12"/>
-      <c r="B215" s="11"/>
-      <c r="C215" t="s">
-        <v>331</v>
-      </c>
-      <c r="D215" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216" s="12"/>
+      <c r="A216" s="13"/>
       <c r="B216" s="11"/>
       <c r="C216" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217" s="4" t="s">
+      <c r="A217" s="13"/>
+      <c r="B217" s="11"/>
+      <c r="C217" t="s">
+        <v>331</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" s="13"/>
+      <c r="B218" s="11"/>
+      <c r="C218" t="s">
+        <v>332</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C217" t="s">
+      <c r="C219" t="s">
         <v>253</v>
       </c>
-      <c r="D217" s="1" t="s">
+      <c r="D219" s="1" t="s">
         <v>254</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>259</v>
-      </c>
-      <c r="C218" t="s">
-        <v>260</v>
-      </c>
-      <c r="D218" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>262</v>
-      </c>
-      <c r="C219" t="s">
-        <v>263</v>
-      </c>
-      <c r="D219" s="1" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
+        <v>259</v>
+      </c>
+      <c r="C220" t="s">
+        <v>260</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>262</v>
+      </c>
+      <c r="C221" t="s">
+        <v>263</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
         <v>267</v>
       </c>
-      <c r="C220" t="s">
+      <c r="C222" t="s">
         <v>268</v>
       </c>
-      <c r="D220" s="1" t="s">
+      <c r="D222" s="1" t="s">
         <v>264</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C221" t="s">
-        <v>276</v>
-      </c>
-      <c r="D221" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C222" t="s">
-        <v>277</v>
-      </c>
-      <c r="D222" s="1" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C223" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>279</v>
       </c>
     </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C224" t="s">
+        <v>277</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="225" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C225" t="s">
+        <v>278</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A42:A55"/>
-    <mergeCell ref="A194:A210"/>
-    <mergeCell ref="A115:A148"/>
-    <mergeCell ref="B149:B156"/>
-    <mergeCell ref="B162:B164"/>
-    <mergeCell ref="A149:A164"/>
-    <mergeCell ref="B139:B141"/>
-    <mergeCell ref="B203:B204"/>
-    <mergeCell ref="B205:B206"/>
-    <mergeCell ref="B194:B196"/>
-    <mergeCell ref="B197:B198"/>
-    <mergeCell ref="B142:B147"/>
-    <mergeCell ref="A211:A216"/>
+  <mergeCells count="40">
+    <mergeCell ref="A167:A194"/>
+    <mergeCell ref="B189:B194"/>
+    <mergeCell ref="B167:B188"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="A89:A94"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B100:B109"/>
+    <mergeCell ref="B110:B114"/>
+    <mergeCell ref="A100:A114"/>
+    <mergeCell ref="A213:A218"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="B68:B70"/>
     <mergeCell ref="B5:B8"/>
@@ -4155,16 +4189,22 @@
     <mergeCell ref="A56:A67"/>
     <mergeCell ref="B85:B88"/>
     <mergeCell ref="A68:A88"/>
-    <mergeCell ref="B118:B125"/>
-    <mergeCell ref="B127:B129"/>
+    <mergeCell ref="B120:B127"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A42:A55"/>
+    <mergeCell ref="A196:A212"/>
+    <mergeCell ref="B151:B158"/>
+    <mergeCell ref="B164:B166"/>
+    <mergeCell ref="A151:A166"/>
+    <mergeCell ref="B141:B143"/>
+    <mergeCell ref="B205:B206"/>
+    <mergeCell ref="B207:B208"/>
+    <mergeCell ref="B196:B198"/>
+    <mergeCell ref="B199:B200"/>
+    <mergeCell ref="B144:B149"/>
+    <mergeCell ref="B129:B131"/>
     <mergeCell ref="B71:B73"/>
     <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="A89:A94"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="B100:B109"/>
-    <mergeCell ref="B110:B114"/>
-    <mergeCell ref="A100:A114"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/时间表.xlsx
+++ b/时间表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\360\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1442FBD8-BD54-42EB-B41F-7F70C928B97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFB45B2-729F-4368-A92D-AED9250C19C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8736" yWindow="432" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10212" yWindow="384" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="352">
   <si>
     <t>第一次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1412,6 +1412,26 @@
   </si>
   <si>
     <t>3.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>221最大正方形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>542_01矩阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一维</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二维</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1774,10 +1794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F225"/>
+  <dimension ref="A1:F227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="E119" sqref="E119"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="F138" sqref="F138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2969,7 +2989,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="13"/>
       <c r="B113" s="13"/>
       <c r="C113" t="s">
@@ -2979,7 +2999,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="13"/>
       <c r="B114" s="13"/>
       <c r="C114" t="s">
@@ -2989,11 +3009,13 @@
         <v>317</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="B115" s="12"/>
+      <c r="B115" s="13" t="s">
+        <v>350</v>
+      </c>
       <c r="C115" t="s">
         <v>344</v>
       </c>
@@ -3001,9 +3023,9 @@
         <v>346</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="12"/>
-      <c r="B116" s="12"/>
+      <c r="B116" s="13"/>
       <c r="C116" t="s">
         <v>345</v>
       </c>
@@ -3011,8 +3033,9 @@
         <v>346</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="8"/>
+      <c r="B117" s="13"/>
       <c r="C117" t="s">
         <v>155</v>
       </c>
@@ -3020,113 +3043,116 @@
         <v>120</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="8"/>
+      <c r="B118" s="13" t="s">
+        <v>351</v>
+      </c>
       <c r="C118" t="s">
+        <v>347</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="8"/>
+      <c r="B119" s="13"/>
+      <c r="C119" t="s">
+        <v>177</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E119">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="8"/>
+      <c r="B120" s="13"/>
+      <c r="C120" t="s">
+        <v>349</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="8"/>
+      <c r="C121" t="s">
         <v>156</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="D121" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="8"/>
-      <c r="C119" t="s">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="8"/>
+      <c r="C122" t="s">
         <v>158</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="D122" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="8"/>
-      <c r="B120" s="13" t="s">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="8"/>
+      <c r="B123" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C123" t="s">
         <v>163</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="D123" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="8"/>
-      <c r="B121" s="13"/>
-      <c r="C121" t="s">
-        <v>164</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="8"/>
-      <c r="B122" s="13"/>
-      <c r="C122" t="s">
-        <v>166</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="8"/>
-      <c r="B123" s="13"/>
-      <c r="C123" t="s">
-        <v>167</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="8"/>
       <c r="B124" s="13"/>
       <c r="C124" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="8"/>
       <c r="B125" s="13"/>
       <c r="C125" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="8"/>
       <c r="B126" s="13"/>
       <c r="C126" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="8"/>
       <c r="B127" s="13"/>
       <c r="C127" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="8"/>
-      <c r="B128" s="2" t="s">
-        <v>195</v>
-      </c>
+      <c r="B128" s="13"/>
       <c r="C128" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>161</v>
@@ -3134,11 +3160,9 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="8"/>
-      <c r="B129" s="13" t="s">
-        <v>173</v>
-      </c>
+      <c r="B129" s="13"/>
       <c r="C129" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>172</v>
@@ -3148,35 +3172,41 @@
       <c r="A130" s="8"/>
       <c r="B130" s="13"/>
       <c r="C130" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="8"/>
-      <c r="B131" s="13"/>
+      <c r="B131" s="2" t="s">
+        <v>195</v>
+      </c>
       <c r="C131" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>237</v>
+        <v>161</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="8"/>
+      <c r="B132" s="13" t="s">
+        <v>173</v>
+      </c>
       <c r="C132" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="8"/>
+      <c r="B133" s="13"/>
       <c r="C133" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>176</v>
@@ -3184,26 +3214,27 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="8"/>
+      <c r="B134" s="13"/>
       <c r="C134" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>183</v>
+        <v>237</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="8"/>
       <c r="C135" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="8"/>
       <c r="C136" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>183</v>
@@ -3212,62 +3243,55 @@
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="8"/>
       <c r="C137" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="8"/>
       <c r="C138" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="8"/>
-      <c r="B139" s="2" t="s">
-        <v>247</v>
-      </c>
       <c r="C139" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="8"/>
       <c r="C140" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="8"/>
-      <c r="B141" s="13" t="s">
-        <v>305</v>
+      <c r="B141" s="2" t="s">
+        <v>247</v>
       </c>
       <c r="C141" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E141">
-        <v>3.25</v>
-      </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="8"/>
-      <c r="B142" s="13"/>
       <c r="C142" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>191</v>
@@ -3275,71 +3299,76 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="8"/>
-      <c r="B143" s="13"/>
+      <c r="B143" s="13" t="s">
+        <v>305</v>
+      </c>
       <c r="C143" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>191</v>
       </c>
+      <c r="E143">
+        <v>3.25</v>
+      </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="8"/>
-      <c r="B144" s="13" t="s">
-        <v>299</v>
-      </c>
+      <c r="B144" s="13"/>
       <c r="C144" t="s">
-        <v>297</v>
+        <v>189</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>295</v>
+        <v>191</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="8"/>
       <c r="B145" s="13"/>
       <c r="C145" t="s">
-        <v>298</v>
+        <v>190</v>
       </c>
       <c r="D145" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="8"/>
+      <c r="B146" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="C146" t="s">
+        <v>297</v>
+      </c>
+      <c r="D146" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="8"/>
-      <c r="B146" s="13"/>
-      <c r="C146" t="s">
-        <v>300</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="8"/>
       <c r="B147" s="13"/>
       <c r="C147" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="8"/>
       <c r="B148" s="13"/>
       <c r="C148" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="8"/>
       <c r="B149" s="13"/>
       <c r="C149" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>304</v>
@@ -3347,91 +3376,91 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="8"/>
-      <c r="B150" s="2" t="s">
+      <c r="B150" s="13"/>
+      <c r="C150" t="s">
+        <v>302</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="8"/>
+      <c r="B151" s="13"/>
+      <c r="C151" t="s">
+        <v>303</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="8"/>
+      <c r="B152" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C152" t="s">
         <v>192</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="B151" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="C151" t="s">
-        <v>197</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E151">
-        <v>3.14</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="13"/>
-      <c r="B152" s="13"/>
-      <c r="C152" t="s">
-        <v>198</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E152">
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B153" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="C153" t="s">
+        <v>197</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E153">
         <v>3.14</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="13"/>
-      <c r="B153" s="13"/>
-      <c r="C153" t="s">
-        <v>202</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="13"/>
       <c r="B154" s="13"/>
       <c r="C154" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>205</v>
+        <v>194</v>
+      </c>
+      <c r="E154">
+        <v>3.14</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="13"/>
       <c r="B155" s="13"/>
       <c r="C155" t="s">
-        <v>256</v>
+        <v>202</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>254</v>
+        <v>205</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="13"/>
       <c r="B156" s="13"/>
       <c r="C156" t="s">
-        <v>257</v>
+        <v>203</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>254</v>
+        <v>205</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="13"/>
       <c r="B157" s="13"/>
       <c r="C157" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>254</v>
@@ -3441,37 +3470,37 @@
       <c r="A158" s="13"/>
       <c r="B158" s="13"/>
       <c r="C158" t="s">
-        <v>306</v>
+        <v>257</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>307</v>
+        <v>254</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="13"/>
-      <c r="B159" s="8"/>
+      <c r="B159" s="13"/>
       <c r="C159" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>205</v>
+        <v>254</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="13"/>
-      <c r="B160" s="8"/>
+      <c r="B160" s="13"/>
       <c r="C160" t="s">
-        <v>201</v>
+        <v>306</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>205</v>
+        <v>307</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="13"/>
       <c r="B161" s="8"/>
       <c r="C161" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>205</v>
@@ -3481,92 +3510,86 @@
       <c r="A162" s="13"/>
       <c r="B162" s="8"/>
       <c r="C162" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>314</v>
+        <v>205</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="13"/>
       <c r="B163" s="8"/>
       <c r="C163" t="s">
-        <v>313</v>
+        <v>204</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>314</v>
+        <v>205</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="13"/>
-      <c r="B164" s="13" t="s">
-        <v>311</v>
-      </c>
+      <c r="B164" s="8"/>
       <c r="C164" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="13"/>
-      <c r="B165" s="13"/>
+      <c r="B165" s="8"/>
       <c r="C165" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="13"/>
-      <c r="B166" s="13"/>
+      <c r="B166" s="13" t="s">
+        <v>311</v>
+      </c>
       <c r="C166" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="B167" s="13" t="s">
-        <v>207</v>
-      </c>
+      <c r="A167" s="13"/>
+      <c r="B167" s="13"/>
       <c r="C167" t="s">
-        <v>208</v>
+        <v>309</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E167">
-        <v>3.22</v>
+        <v>307</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="13"/>
       <c r="B168" s="13"/>
       <c r="C168" t="s">
-        <v>210</v>
+        <v>310</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E168">
-        <v>3.23</v>
+        <v>307</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="13"/>
-      <c r="B169" s="13"/>
+      <c r="A169" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="B169" s="13" t="s">
+        <v>207</v>
+      </c>
       <c r="C169" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E169">
         <v>3.22</v>
@@ -3576,63 +3599,66 @@
       <c r="A170" s="13"/>
       <c r="B170" s="13"/>
       <c r="C170" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>211</v>
+      </c>
+      <c r="E170">
+        <v>3.23</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="13"/>
       <c r="B171" s="13"/>
       <c r="C171" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
+      </c>
+      <c r="E171">
+        <v>3.22</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="13"/>
       <c r="B172" s="13"/>
       <c r="C172" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="13"/>
       <c r="B173" s="13"/>
       <c r="C173" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E173">
-        <v>3.24</v>
+        <v>215</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="13"/>
       <c r="B174" s="13"/>
       <c r="C174" t="s">
-        <v>282</v>
+        <v>216</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>281</v>
+        <v>215</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="13"/>
       <c r="B175" s="13"/>
       <c r="C175" t="s">
-        <v>283</v>
+        <v>219</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>281</v>
+        <v>220</v>
       </c>
       <c r="E175">
         <v>3.24</v>
@@ -3642,63 +3668,63 @@
       <c r="A176" s="13"/>
       <c r="B176" s="13"/>
       <c r="C176" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="E176">
-        <v>3.24</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="13"/>
       <c r="B177" s="13"/>
       <c r="C177" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>281</v>
+      </c>
+      <c r="E177">
+        <v>3.24</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="13"/>
       <c r="B178" s="13"/>
       <c r="C178" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>292</v>
+        <v>281</v>
+      </c>
+      <c r="E178">
+        <v>3.24</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="13"/>
       <c r="B179" s="13"/>
       <c r="C179" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="13"/>
       <c r="B180" s="13"/>
       <c r="C180" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="E180">
-        <v>3.22</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="13"/>
       <c r="B181" s="13"/>
       <c r="C181" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>292</v>
@@ -3708,17 +3734,20 @@
       <c r="A182" s="13"/>
       <c r="B182" s="13"/>
       <c r="C182" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>292</v>
+      </c>
+      <c r="E182">
+        <v>3.22</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="13"/>
       <c r="B183" s="13"/>
       <c r="C183" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>292</v>
@@ -3728,27 +3757,27 @@
       <c r="A184" s="13"/>
       <c r="B184" s="13"/>
       <c r="C184" t="s">
-        <v>334</v>
+        <v>290</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>337</v>
+        <v>292</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="13"/>
       <c r="B185" s="13"/>
       <c r="C185" t="s">
-        <v>335</v>
+        <v>291</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>337</v>
+        <v>292</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="13"/>
       <c r="B186" s="13"/>
       <c r="C186" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>337</v>
@@ -3758,127 +3787,127 @@
       <c r="A187" s="13"/>
       <c r="B187" s="13"/>
       <c r="C187" t="s">
-        <v>61</v>
+        <v>335</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E187">
-        <v>3.24</v>
+        <v>337</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="13"/>
       <c r="B188" s="13"/>
       <c r="C188" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="13"/>
-      <c r="B189" s="13" t="s">
-        <v>223</v>
-      </c>
+      <c r="B189" s="13"/>
       <c r="C189" t="s">
-        <v>221</v>
+        <v>61</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>220</v>
+        <v>64</v>
+      </c>
+      <c r="E189">
+        <v>3.24</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="13"/>
       <c r="B190" s="13"/>
       <c r="C190" t="s">
-        <v>222</v>
+        <v>341</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>220</v>
+        <v>342</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="13"/>
-      <c r="B191" s="13"/>
+      <c r="B191" s="13" t="s">
+        <v>223</v>
+      </c>
       <c r="C191" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="13"/>
       <c r="B192" s="13"/>
       <c r="C192" t="s">
-        <v>338</v>
+        <v>222</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>340</v>
+        <v>220</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="13"/>
       <c r="B193" s="13"/>
       <c r="C193" t="s">
-        <v>339</v>
+        <v>224</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>340</v>
+        <v>225</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="13"/>
       <c r="B194" s="13"/>
       <c r="C194" t="s">
+        <v>338</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="13"/>
+      <c r="B195" s="13"/>
+      <c r="C195" t="s">
+        <v>339</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="13"/>
+      <c r="B196" s="13"/>
+      <c r="C196" t="s">
         <v>343</v>
       </c>
-      <c r="D194" s="1" t="s">
+      <c r="D196" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="3" t="s">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C197" t="s">
         <v>218</v>
       </c>
-      <c r="D195" s="1" t="s">
+      <c r="D197" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" s="13" t="s">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="B196" s="13" t="s">
+      <c r="B198" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="C196" t="s">
+      <c r="C198" t="s">
         <v>227</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="13"/>
-      <c r="B197" s="13"/>
-      <c r="C197" t="s">
-        <v>229</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" s="13"/>
-      <c r="B198" s="13"/>
-      <c r="C198" t="s">
-        <v>230</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>228</v>
@@ -3886,11 +3915,9 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="13"/>
-      <c r="B199" s="13" t="s">
-        <v>234</v>
-      </c>
+      <c r="B199" s="13"/>
       <c r="C199" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>228</v>
@@ -3900,7 +3927,7 @@
       <c r="A200" s="13"/>
       <c r="B200" s="13"/>
       <c r="C200" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>228</v>
@@ -3908,11 +3935,11 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="13"/>
-      <c r="B201" s="2" t="s">
-        <v>236</v>
+      <c r="B201" s="13" t="s">
+        <v>234</v>
       </c>
       <c r="C201" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>228</v>
@@ -3920,26 +3947,30 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="13"/>
+      <c r="B202" s="13"/>
       <c r="C202" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="13"/>
+      <c r="B203" s="2" t="s">
+        <v>236</v>
+      </c>
       <c r="C203" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="13"/>
       <c r="C204" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>237</v>
@@ -3947,33 +3978,29 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="13"/>
-      <c r="B205" s="13" t="s">
-        <v>128</v>
-      </c>
       <c r="C205" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="13"/>
-      <c r="B206" s="13"/>
       <c r="C206" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="13"/>
       <c r="B207" s="13" t="s">
-        <v>246</v>
+        <v>128</v>
       </c>
       <c r="C207" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>242</v>
@@ -3983,7 +4010,7 @@
       <c r="A208" s="13"/>
       <c r="B208" s="13"/>
       <c r="C208" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>242</v>
@@ -3991,190 +4018,205 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="13"/>
-      <c r="B209" s="5"/>
+      <c r="B209" s="13" t="s">
+        <v>246</v>
+      </c>
       <c r="C209" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="13"/>
-      <c r="B210" s="6"/>
+      <c r="B210" s="13"/>
       <c r="C210" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="13"/>
-      <c r="B211" s="6"/>
+      <c r="B211" s="5"/>
       <c r="C211" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="13"/>
       <c r="B212" s="6"/>
       <c r="C212" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" s="13" t="s">
-        <v>248</v>
-      </c>
+      <c r="A213" s="13"/>
+      <c r="B213" s="6"/>
       <c r="C213" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E213">
-        <v>3.19</v>
+        <v>272</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="13"/>
+      <c r="B214" s="6"/>
       <c r="C214" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="D214" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="C215" t="s">
+        <v>249</v>
+      </c>
+      <c r="D215" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E214">
+      <c r="E215">
         <v>3.19</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" s="13"/>
-      <c r="B215" s="5"/>
-      <c r="C215" t="s">
-        <v>265</v>
-      </c>
-      <c r="D215" s="1" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="13"/>
-      <c r="B216" s="11"/>
       <c r="C216" t="s">
-        <v>330</v>
+        <v>251</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>333</v>
+        <v>250</v>
+      </c>
+      <c r="E216">
+        <v>3.19</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="13"/>
-      <c r="B217" s="11"/>
+      <c r="B217" s="5"/>
       <c r="C217" t="s">
-        <v>331</v>
+        <v>265</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>333</v>
+        <v>264</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="13"/>
       <c r="B218" s="11"/>
       <c r="C218" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" s="4" t="s">
+      <c r="A219" s="13"/>
+      <c r="B219" s="11"/>
+      <c r="C219" t="s">
+        <v>331</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="13"/>
+      <c r="B220" s="11"/>
+      <c r="C220" t="s">
+        <v>332</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C219" t="s">
+      <c r="C221" t="s">
         <v>253</v>
       </c>
-      <c r="D219" s="1" t="s">
+      <c r="D221" s="1" t="s">
         <v>254</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>259</v>
-      </c>
-      <c r="C220" t="s">
-        <v>260</v>
-      </c>
-      <c r="D220" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>262</v>
-      </c>
-      <c r="C221" t="s">
-        <v>263</v>
-      </c>
-      <c r="D221" s="1" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
+        <v>259</v>
+      </c>
+      <c r="C222" t="s">
+        <v>260</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>262</v>
+      </c>
+      <c r="C223" t="s">
+        <v>263</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
         <v>267</v>
       </c>
-      <c r="C222" t="s">
+      <c r="C224" t="s">
         <v>268</v>
       </c>
-      <c r="D222" s="1" t="s">
+      <c r="D224" s="1" t="s">
         <v>264</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C223" t="s">
-        <v>276</v>
-      </c>
-      <c r="D223" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C224" t="s">
-        <v>277</v>
-      </c>
-      <c r="D224" s="1" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="225" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C225" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>279</v>
       </c>
     </row>
+    <row r="226" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C226" t="s">
+        <v>277</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="227" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C227" t="s">
+        <v>278</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="A167:A194"/>
-    <mergeCell ref="B189:B194"/>
-    <mergeCell ref="B167:B188"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="A89:A94"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="B100:B109"/>
-    <mergeCell ref="B110:B114"/>
-    <mergeCell ref="A100:A114"/>
-    <mergeCell ref="A213:A218"/>
+  <mergeCells count="42">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B115:B117"/>
+    <mergeCell ref="B118:B120"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="B68:B70"/>
     <mergeCell ref="B5:B8"/>
@@ -4187,24 +4229,33 @@
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B53:B55"/>
     <mergeCell ref="A56:A67"/>
-    <mergeCell ref="B85:B88"/>
     <mergeCell ref="A68:A88"/>
-    <mergeCell ref="B120:B127"/>
     <mergeCell ref="B47:B48"/>
     <mergeCell ref="A42:A55"/>
-    <mergeCell ref="A196:A212"/>
-    <mergeCell ref="B151:B158"/>
-    <mergeCell ref="B164:B166"/>
-    <mergeCell ref="A151:A166"/>
-    <mergeCell ref="B141:B143"/>
-    <mergeCell ref="B205:B206"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B100:B109"/>
+    <mergeCell ref="B110:B114"/>
+    <mergeCell ref="A100:A114"/>
+    <mergeCell ref="A215:A220"/>
+    <mergeCell ref="B85:B88"/>
+    <mergeCell ref="B123:B130"/>
+    <mergeCell ref="A198:A214"/>
+    <mergeCell ref="B153:B160"/>
+    <mergeCell ref="B166:B168"/>
+    <mergeCell ref="A153:A168"/>
+    <mergeCell ref="B143:B145"/>
     <mergeCell ref="B207:B208"/>
-    <mergeCell ref="B196:B198"/>
-    <mergeCell ref="B199:B200"/>
-    <mergeCell ref="B144:B149"/>
-    <mergeCell ref="B129:B131"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B209:B210"/>
+    <mergeCell ref="B198:B200"/>
+    <mergeCell ref="B201:B202"/>
+    <mergeCell ref="A169:A196"/>
+    <mergeCell ref="B191:B196"/>
+    <mergeCell ref="B169:B190"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="A89:A94"/>
+    <mergeCell ref="B146:B151"/>
+    <mergeCell ref="B132:B134"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/时间表.xlsx
+++ b/时间表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\360\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFB45B2-729F-4368-A92D-AED9250C19C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6B5DAD-788D-4122-B523-C620644811E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10212" yWindow="384" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="357">
   <si>
     <t>第一次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1432,6 +1432,26 @@
   </si>
   <si>
     <t>二维</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>91解码方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139单词拆分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>279完全平方数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分割类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.27</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1794,10 +1814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F227"/>
+  <dimension ref="A1:F230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="F138" sqref="F138"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="E130" sqref="E130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3080,69 +3100,73 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="8"/>
+      <c r="B121" s="13"/>
       <c r="C121" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="8"/>
+      <c r="B122" s="13" t="s">
+        <v>355</v>
+      </c>
       <c r="C122" t="s">
-        <v>158</v>
+        <v>352</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>159</v>
+        <v>356</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="8"/>
-      <c r="B123" s="13" t="s">
-        <v>162</v>
-      </c>
+      <c r="B123" s="13"/>
       <c r="C123" t="s">
-        <v>163</v>
+        <v>353</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>159</v>
+        <v>356</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="8"/>
       <c r="B124" s="13"/>
       <c r="C124" t="s">
-        <v>164</v>
+        <v>354</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>165</v>
+        <v>356</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="8"/>
-      <c r="B125" s="13"/>
+      <c r="B125" s="13" t="s">
+        <v>162</v>
+      </c>
       <c r="C125" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="8"/>
       <c r="B126" s="13"/>
       <c r="C126" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="8"/>
       <c r="B127" s="13"/>
       <c r="C127" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>161</v>
@@ -3152,171 +3176,167 @@
       <c r="A128" s="8"/>
       <c r="B128" s="13"/>
       <c r="C128" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="8"/>
       <c r="B129" s="13"/>
       <c r="C129" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="8"/>
       <c r="B130" s="13"/>
       <c r="C130" t="s">
+        <v>169</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="8"/>
+      <c r="B131" s="13"/>
+      <c r="C131" t="s">
+        <v>171</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="8"/>
+      <c r="B132" s="13"/>
+      <c r="C132" t="s">
         <v>193</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="D132" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="8"/>
-      <c r="B131" s="2" t="s">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="8"/>
+      <c r="B133" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C133" t="s">
         <v>170</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="D133" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="8"/>
-      <c r="B132" s="13" t="s">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="8"/>
+      <c r="B134" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C134" t="s">
         <v>174</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="D134" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="8"/>
-      <c r="B133" s="13"/>
-      <c r="C133" t="s">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="8"/>
+      <c r="B135" s="13"/>
+      <c r="C135" t="s">
         <v>175</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="8"/>
-      <c r="B134" s="13"/>
-      <c r="C134" t="s">
-        <v>160</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="8"/>
-      <c r="C135" t="s">
-        <v>178</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="8"/>
+      <c r="B136" s="13"/>
       <c r="C136" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="8"/>
+      <c r="B137" s="13"/>
       <c r="C137" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="8"/>
       <c r="C138" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="8"/>
       <c r="C139" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="8"/>
       <c r="C140" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="8"/>
-      <c r="B141" s="2" t="s">
-        <v>247</v>
-      </c>
       <c r="C141" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="8"/>
       <c r="C142" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="8"/>
-      <c r="B143" s="13" t="s">
-        <v>305</v>
-      </c>
       <c r="C143" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E143">
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="8"/>
-      <c r="B144" s="13"/>
+      <c r="B144" s="2" t="s">
+        <v>247</v>
+      </c>
       <c r="C144" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>191</v>
@@ -3324,9 +3344,8 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="8"/>
-      <c r="B145" s="13"/>
       <c r="C145" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>191</v>
@@ -3335,366 +3354,365 @@
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="8"/>
       <c r="B146" s="13" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C146" t="s">
-        <v>297</v>
+        <v>188</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>295</v>
+        <v>191</v>
+      </c>
+      <c r="E146">
+        <v>3.25</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="8"/>
       <c r="B147" s="13"/>
       <c r="C147" t="s">
-        <v>298</v>
+        <v>189</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="8"/>
       <c r="B148" s="13"/>
       <c r="C148" t="s">
-        <v>300</v>
+        <v>190</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="8"/>
-      <c r="B149" s="13"/>
+      <c r="B149" s="13" t="s">
+        <v>299</v>
+      </c>
       <c r="C149" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="8"/>
       <c r="B150" s="13"/>
       <c r="C150" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="8"/>
       <c r="B151" s="13"/>
       <c r="C151" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="8"/>
-      <c r="B152" s="2" t="s">
-        <v>196</v>
-      </c>
+      <c r="B152" s="13"/>
       <c r="C152" t="s">
-        <v>192</v>
+        <v>301</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>194</v>
+        <v>304</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="B153" s="13" t="s">
-        <v>255</v>
-      </c>
+      <c r="A153" s="8"/>
+      <c r="B153" s="13"/>
       <c r="C153" t="s">
-        <v>197</v>
+        <v>302</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E153">
-        <v>3.14</v>
+        <v>304</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="13"/>
+      <c r="A154" s="8"/>
       <c r="B154" s="13"/>
       <c r="C154" t="s">
-        <v>198</v>
+        <v>303</v>
       </c>
       <c r="D154" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="8"/>
+      <c r="B155" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C155" t="s">
+        <v>192</v>
+      </c>
+      <c r="D155" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E154">
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B156" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="C156" t="s">
+        <v>197</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E156">
         <v>3.14</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="13"/>
-      <c r="B155" s="13"/>
-      <c r="C155" t="s">
-        <v>202</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="13"/>
-      <c r="B156" s="13"/>
-      <c r="C156" t="s">
-        <v>203</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="13"/>
       <c r="B157" s="13"/>
       <c r="C157" t="s">
-        <v>256</v>
+        <v>198</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>254</v>
+        <v>194</v>
+      </c>
+      <c r="E157">
+        <v>3.14</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="13"/>
       <c r="B158" s="13"/>
       <c r="C158" t="s">
-        <v>257</v>
+        <v>202</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>254</v>
+        <v>205</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="13"/>
       <c r="B159" s="13"/>
       <c r="C159" t="s">
-        <v>258</v>
+        <v>203</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>254</v>
+        <v>205</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="13"/>
       <c r="B160" s="13"/>
       <c r="C160" t="s">
-        <v>306</v>
+        <v>256</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>307</v>
+        <v>254</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="13"/>
-      <c r="B161" s="8"/>
+      <c r="B161" s="13"/>
       <c r="C161" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>205</v>
+        <v>254</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="13"/>
-      <c r="B162" s="8"/>
+      <c r="B162" s="13"/>
       <c r="C162" t="s">
-        <v>201</v>
+        <v>258</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>205</v>
+        <v>254</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="13"/>
-      <c r="B163" s="8"/>
+      <c r="B163" s="13"/>
       <c r="C163" t="s">
-        <v>204</v>
+        <v>306</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>205</v>
+        <v>307</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="13"/>
       <c r="B164" s="8"/>
       <c r="C164" t="s">
-        <v>312</v>
+        <v>200</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>314</v>
+        <v>205</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="13"/>
       <c r="B165" s="8"/>
       <c r="C165" t="s">
-        <v>313</v>
+        <v>201</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>314</v>
+        <v>205</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="13"/>
-      <c r="B166" s="13" t="s">
-        <v>311</v>
-      </c>
+      <c r="B166" s="8"/>
       <c r="C166" t="s">
-        <v>308</v>
+        <v>204</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>307</v>
+        <v>205</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="13"/>
-      <c r="B167" s="13"/>
+      <c r="B167" s="8"/>
       <c r="C167" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="13"/>
-      <c r="B168" s="13"/>
+      <c r="B168" s="8"/>
       <c r="C168" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D168" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="13"/>
+      <c r="B169" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="C169" t="s">
+        <v>308</v>
+      </c>
+      <c r="D169" s="1" t="s">
         <v>307</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="B169" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="C169" t="s">
-        <v>208</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E169">
-        <v>3.22</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="13"/>
       <c r="B170" s="13"/>
       <c r="C170" t="s">
-        <v>210</v>
+        <v>309</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E170">
-        <v>3.23</v>
+        <v>307</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="13"/>
       <c r="B171" s="13"/>
       <c r="C171" t="s">
-        <v>212</v>
+        <v>310</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E171">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="B172" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="C172" t="s">
+        <v>208</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E172">
         <v>3.22</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="13"/>
-      <c r="B172" s="13"/>
-      <c r="C172" t="s">
-        <v>213</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="13"/>
       <c r="B173" s="13"/>
       <c r="C173" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
+      </c>
+      <c r="E173">
+        <v>3.23</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="13"/>
       <c r="B174" s="13"/>
       <c r="C174" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
+      </c>
+      <c r="E174">
+        <v>3.22</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="13"/>
       <c r="B175" s="13"/>
       <c r="C175" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E175">
-        <v>3.24</v>
+        <v>211</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="13"/>
       <c r="B176" s="13"/>
       <c r="C176" t="s">
-        <v>282</v>
+        <v>214</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>281</v>
+        <v>215</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="13"/>
       <c r="B177" s="13"/>
       <c r="C177" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E177">
-        <v>3.24</v>
+        <v>215</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="13"/>
       <c r="B178" s="13"/>
       <c r="C178" t="s">
-        <v>284</v>
+        <v>219</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>281</v>
+        <v>220</v>
       </c>
       <c r="E178">
         <v>3.24</v>
@@ -3704,7 +3722,7 @@
       <c r="A179" s="13"/>
       <c r="B179" s="13"/>
       <c r="C179" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>281</v>
@@ -3714,40 +3732,43 @@
       <c r="A180" s="13"/>
       <c r="B180" s="13"/>
       <c r="C180" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>292</v>
+        <v>281</v>
+      </c>
+      <c r="E180">
+        <v>3.24</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="13"/>
       <c r="B181" s="13"/>
       <c r="C181" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>292</v>
+        <v>281</v>
+      </c>
+      <c r="E181">
+        <v>3.24</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="13"/>
       <c r="B182" s="13"/>
       <c r="C182" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E182">
-        <v>3.22</v>
+        <v>281</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="13"/>
       <c r="B183" s="13"/>
       <c r="C183" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>292</v>
@@ -3757,7 +3778,7 @@
       <c r="A184" s="13"/>
       <c r="B184" s="13"/>
       <c r="C184" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>292</v>
@@ -3767,179 +3788,180 @@
       <c r="A185" s="13"/>
       <c r="B185" s="13"/>
       <c r="C185" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>292</v>
+      </c>
+      <c r="E185">
+        <v>3.22</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="13"/>
       <c r="B186" s="13"/>
       <c r="C186" t="s">
-        <v>334</v>
+        <v>289</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>337</v>
+        <v>292</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="13"/>
       <c r="B187" s="13"/>
       <c r="C187" t="s">
-        <v>335</v>
+        <v>290</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>337</v>
+        <v>292</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="13"/>
       <c r="B188" s="13"/>
       <c r="C188" t="s">
-        <v>336</v>
+        <v>291</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>337</v>
+        <v>292</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="13"/>
       <c r="B189" s="13"/>
       <c r="C189" t="s">
-        <v>61</v>
+        <v>334</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E189">
-        <v>3.24</v>
+        <v>337</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="13"/>
       <c r="B190" s="13"/>
       <c r="C190" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="13"/>
-      <c r="B191" s="13" t="s">
-        <v>223</v>
-      </c>
+      <c r="B191" s="13"/>
       <c r="C191" t="s">
-        <v>221</v>
+        <v>336</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>220</v>
+        <v>337</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="13"/>
       <c r="B192" s="13"/>
       <c r="C192" t="s">
-        <v>222</v>
+        <v>61</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>220</v>
+        <v>64</v>
+      </c>
+      <c r="E192">
+        <v>3.24</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="13"/>
       <c r="B193" s="13"/>
       <c r="C193" t="s">
-        <v>224</v>
+        <v>341</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>225</v>
+        <v>342</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="13"/>
-      <c r="B194" s="13"/>
+      <c r="B194" s="13" t="s">
+        <v>223</v>
+      </c>
       <c r="C194" t="s">
-        <v>338</v>
+        <v>221</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>340</v>
+        <v>220</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="13"/>
       <c r="B195" s="13"/>
       <c r="C195" t="s">
-        <v>339</v>
+        <v>222</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>340</v>
+        <v>220</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="13"/>
       <c r="B196" s="13"/>
       <c r="C196" t="s">
-        <v>343</v>
+        <v>224</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>342</v>
+        <v>225</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="3" t="s">
-        <v>217</v>
-      </c>
+      <c r="A197" s="13"/>
+      <c r="B197" s="13"/>
       <c r="C197" t="s">
-        <v>218</v>
+        <v>338</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>215</v>
+        <v>340</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="B198" s="13" t="s">
-        <v>231</v>
-      </c>
+      <c r="A198" s="13"/>
+      <c r="B198" s="13"/>
       <c r="C198" t="s">
-        <v>227</v>
+        <v>339</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>228</v>
+        <v>340</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="13"/>
       <c r="B199" s="13"/>
       <c r="C199" t="s">
-        <v>229</v>
+        <v>343</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>228</v>
+        <v>342</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="13"/>
-      <c r="B200" s="13"/>
+      <c r="A200" s="3" t="s">
+        <v>217</v>
+      </c>
       <c r="C200" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="13"/>
+      <c r="A201" s="13" t="s">
+        <v>226</v>
+      </c>
       <c r="B201" s="13" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C201" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>228</v>
@@ -3949,7 +3971,7 @@
       <c r="A202" s="13"/>
       <c r="B202" s="13"/>
       <c r="C202" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>228</v>
@@ -3957,11 +3979,9 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="13"/>
-      <c r="B203" s="2" t="s">
-        <v>236</v>
-      </c>
+      <c r="B203" s="13"/>
       <c r="C203" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>228</v>
@@ -3969,70 +3989,72 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="13"/>
+      <c r="B204" s="13" t="s">
+        <v>234</v>
+      </c>
       <c r="C204" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="13"/>
+      <c r="B205" s="13"/>
       <c r="C205" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="13"/>
+      <c r="B206" s="2" t="s">
+        <v>236</v>
+      </c>
       <c r="C206" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="13"/>
-      <c r="B207" s="13" t="s">
-        <v>128</v>
-      </c>
       <c r="C207" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="13"/>
-      <c r="B208" s="13"/>
       <c r="C208" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="13"/>
-      <c r="B209" s="13" t="s">
-        <v>246</v>
-      </c>
       <c r="C209" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="13"/>
-      <c r="B210" s="13"/>
+      <c r="B210" s="13" t="s">
+        <v>128</v>
+      </c>
       <c r="C210" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>242</v>
@@ -4040,183 +4062,242 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="13"/>
-      <c r="B211" s="5"/>
+      <c r="B211" s="13"/>
       <c r="C211" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="13"/>
-      <c r="B212" s="6"/>
+      <c r="B212" s="13" t="s">
+        <v>246</v>
+      </c>
       <c r="C212" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="13"/>
-      <c r="B213" s="6"/>
+      <c r="B213" s="13"/>
       <c r="C213" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="13"/>
-      <c r="B214" s="6"/>
+      <c r="B214" s="5"/>
       <c r="C214" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D214" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" s="13"/>
+      <c r="B215" s="6"/>
+      <c r="C215" t="s">
+        <v>269</v>
+      </c>
+      <c r="D215" s="1" t="s">
         <v>272</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="C215" t="s">
-        <v>249</v>
-      </c>
-      <c r="D215" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E215">
-        <v>3.19</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="13"/>
+      <c r="B216" s="6"/>
       <c r="C216" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E216">
-        <v>3.19</v>
+        <v>272</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="13"/>
-      <c r="B217" s="5"/>
+      <c r="B217" s="6"/>
       <c r="C217" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" s="13"/>
-      <c r="B218" s="11"/>
+      <c r="A218" s="13" t="s">
+        <v>248</v>
+      </c>
       <c r="C218" t="s">
-        <v>330</v>
+        <v>249</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>333</v>
+        <v>250</v>
+      </c>
+      <c r="E218">
+        <v>3.19</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="13"/>
-      <c r="B219" s="11"/>
       <c r="C219" t="s">
-        <v>331</v>
+        <v>251</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>333</v>
+        <v>250</v>
+      </c>
+      <c r="E219">
+        <v>3.19</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="13"/>
-      <c r="B220" s="11"/>
+      <c r="B220" s="5"/>
       <c r="C220" t="s">
+        <v>265</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="13"/>
+      <c r="B221" s="11"/>
+      <c r="C221" t="s">
+        <v>330</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="13"/>
+      <c r="B222" s="11"/>
+      <c r="C222" t="s">
+        <v>331</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" s="13"/>
+      <c r="B223" s="11"/>
+      <c r="C223" t="s">
         <v>332</v>
       </c>
-      <c r="D220" s="1" t="s">
+      <c r="D223" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" s="4" t="s">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C221" t="s">
+      <c r="C224" t="s">
         <v>253</v>
       </c>
-      <c r="D221" s="1" t="s">
+      <c r="D224" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
         <v>259</v>
       </c>
-      <c r="C222" t="s">
+      <c r="C225" t="s">
         <v>260</v>
       </c>
-      <c r="D222" s="1" t="s">
+      <c r="D225" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
         <v>262</v>
       </c>
-      <c r="C223" t="s">
+      <c r="C226" t="s">
         <v>263</v>
       </c>
-      <c r="D223" s="1" t="s">
+      <c r="D226" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
         <v>267</v>
       </c>
-      <c r="C224" t="s">
+      <c r="C227" t="s">
         <v>268</v>
       </c>
-      <c r="D224" s="1" t="s">
+      <c r="D227" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="225" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C225" t="s">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C228" t="s">
         <v>276</v>
       </c>
-      <c r="D225" s="1" t="s">
+      <c r="D228" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="226" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C226" t="s">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C229" t="s">
         <v>277</v>
       </c>
-      <c r="D226" s="1" t="s">
+      <c r="D229" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="227" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C227" t="s">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C230" t="s">
         <v>278</v>
       </c>
-      <c r="D227" s="1" t="s">
+      <c r="D230" s="1" t="s">
         <v>279</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="43">
+    <mergeCell ref="B172:B193"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="A89:A94"/>
+    <mergeCell ref="B149:B154"/>
+    <mergeCell ref="B134:B137"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="B122:B124"/>
+    <mergeCell ref="B110:B114"/>
+    <mergeCell ref="A100:A114"/>
+    <mergeCell ref="A218:A223"/>
+    <mergeCell ref="B85:B88"/>
+    <mergeCell ref="B125:B132"/>
+    <mergeCell ref="A201:A217"/>
+    <mergeCell ref="B156:B163"/>
+    <mergeCell ref="B169:B171"/>
+    <mergeCell ref="A156:A171"/>
+    <mergeCell ref="B146:B148"/>
+    <mergeCell ref="B210:B211"/>
+    <mergeCell ref="B212:B213"/>
+    <mergeCell ref="B201:B203"/>
+    <mergeCell ref="B204:B205"/>
+    <mergeCell ref="A172:A199"/>
+    <mergeCell ref="B194:B199"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A42:A55"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B100:B109"/>
     <mergeCell ref="B74:B76"/>
     <mergeCell ref="B115:B117"/>
-    <mergeCell ref="B118:B120"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="B68:B70"/>
     <mergeCell ref="B5:B8"/>
@@ -4230,32 +4311,6 @@
     <mergeCell ref="B53:B55"/>
     <mergeCell ref="A56:A67"/>
     <mergeCell ref="A68:A88"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A42:A55"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="B100:B109"/>
-    <mergeCell ref="B110:B114"/>
-    <mergeCell ref="A100:A114"/>
-    <mergeCell ref="A215:A220"/>
-    <mergeCell ref="B85:B88"/>
-    <mergeCell ref="B123:B130"/>
-    <mergeCell ref="A198:A214"/>
-    <mergeCell ref="B153:B160"/>
-    <mergeCell ref="B166:B168"/>
-    <mergeCell ref="A153:A168"/>
-    <mergeCell ref="B143:B145"/>
-    <mergeCell ref="B207:B208"/>
-    <mergeCell ref="B209:B210"/>
-    <mergeCell ref="B198:B200"/>
-    <mergeCell ref="B201:B202"/>
-    <mergeCell ref="A169:A196"/>
-    <mergeCell ref="B191:B196"/>
-    <mergeCell ref="B169:B190"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="A89:A94"/>
-    <mergeCell ref="B146:B151"/>
-    <mergeCell ref="B132:B134"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/时间表.xlsx
+++ b/时间表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\360\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6B5DAD-788D-4122-B523-C620644811E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B250C2E-14DB-4461-B2D0-E11A65F03324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10212" yWindow="384" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1816,8 +1816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="E130" sqref="E130"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="F128" sqref="F128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3151,6 +3151,9 @@
       <c r="D125" s="1" t="s">
         <v>159</v>
       </c>
+      <c r="E125">
+        <v>3.28</v>
+      </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="8"/>
@@ -3161,6 +3164,9 @@
       <c r="D126" s="1" t="s">
         <v>165</v>
       </c>
+      <c r="E126">
+        <v>3.28</v>
+      </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="8"/>
@@ -3182,7 +3188,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="8"/>
       <c r="B129" s="13"/>
       <c r="C129" t="s">
@@ -3192,7 +3198,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="8"/>
       <c r="B130" s="13"/>
       <c r="C130" t="s">
@@ -3202,7 +3208,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="8"/>
       <c r="B131" s="13"/>
       <c r="C131" t="s">
@@ -3212,7 +3218,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="8"/>
       <c r="B132" s="13"/>
       <c r="C132" t="s">
@@ -3222,7 +3228,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="8"/>
       <c r="B133" s="2" t="s">
         <v>195</v>
@@ -3233,8 +3239,11 @@
       <c r="D133" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E133">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="8"/>
       <c r="B134" s="13" t="s">
         <v>173</v>
@@ -3246,7 +3255,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="8"/>
       <c r="B135" s="13"/>
       <c r="C135" t="s">
@@ -3256,7 +3265,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="8"/>
       <c r="B136" s="13"/>
       <c r="C136" t="s">
@@ -3266,7 +3275,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="8"/>
       <c r="B137" s="13"/>
       <c r="C137" t="s">
@@ -3276,7 +3285,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="8"/>
       <c r="C138" t="s">
         <v>178</v>
@@ -3285,7 +3294,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="8"/>
       <c r="C139" t="s">
         <v>182</v>
@@ -3294,7 +3303,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="8"/>
       <c r="C140" t="s">
         <v>179</v>
@@ -3303,7 +3312,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="8"/>
       <c r="C141" t="s">
         <v>180</v>
@@ -3312,7 +3321,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="8"/>
       <c r="C142" t="s">
         <v>181</v>
@@ -3321,7 +3330,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="8"/>
       <c r="C143" t="s">
         <v>184</v>
@@ -3330,7 +3339,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="8"/>
       <c r="B144" s="2" t="s">
         <v>247</v>
@@ -4268,15 +4277,25 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B172:B193"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="A89:A94"/>
-    <mergeCell ref="B149:B154"/>
-    <mergeCell ref="B134:B137"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="B122:B124"/>
-    <mergeCell ref="B110:B114"/>
-    <mergeCell ref="A100:A114"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B13:B31"/>
+    <mergeCell ref="B32:B40"/>
+    <mergeCell ref="A13:A41"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="A56:A67"/>
+    <mergeCell ref="A68:A88"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A42:A55"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B100:B109"/>
+    <mergeCell ref="B74:B76"/>
     <mergeCell ref="A218:A223"/>
     <mergeCell ref="B85:B88"/>
     <mergeCell ref="B125:B132"/>
@@ -4291,26 +4310,16 @@
     <mergeCell ref="B204:B205"/>
     <mergeCell ref="A172:A199"/>
     <mergeCell ref="B194:B199"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A42:A55"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="B100:B109"/>
-    <mergeCell ref="B74:B76"/>
     <mergeCell ref="B115:B117"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B13:B31"/>
-    <mergeCell ref="B32:B40"/>
-    <mergeCell ref="A13:A41"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="A56:A67"/>
-    <mergeCell ref="A68:A88"/>
+    <mergeCell ref="B172:B193"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="A89:A94"/>
+    <mergeCell ref="B149:B154"/>
+    <mergeCell ref="B134:B137"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="B122:B124"/>
+    <mergeCell ref="B110:B114"/>
+    <mergeCell ref="A100:A114"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/时间表.xlsx
+++ b/时间表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\360\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B250C2E-14DB-4461-B2D0-E11A65F03324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7CD2A3-BEF6-41A6-B3AE-37BB7FBC8F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10212" yWindow="384" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="359">
   <si>
     <t>第一次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1452,6 +1452,14 @@
   </si>
   <si>
     <t>3.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>474一和零</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1814,10 +1822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F230"/>
+  <dimension ref="A1:F231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="F128" sqref="F128"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="D200" sqref="D200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1825,7 +1833,7 @@
     <col min="1" max="1" width="13.44140625" customWidth="1"/>
     <col min="2" max="2" width="15.88671875" style="2" customWidth="1"/>
     <col min="3" max="3" width="45.21875" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="4" max="6" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1841,10 +1849,10 @@
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1922,7 +1930,7 @@
       <c r="D8" s="1">
         <v>1.2</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>3.15</v>
       </c>
     </row>
@@ -2776,7 +2784,7 @@
       <c r="D90" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="1">
         <v>3.17</v>
       </c>
     </row>
@@ -2880,7 +2888,7 @@
       <c r="D100" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="1">
         <v>3.15</v>
       </c>
     </row>
@@ -2985,7 +2993,7 @@
       <c r="D110" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E110">
+      <c r="E110" s="1">
         <v>3.16</v>
       </c>
     </row>
@@ -3084,7 +3092,7 @@
       <c r="D119" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E119">
+      <c r="E119" s="1">
         <v>3.26</v>
       </c>
     </row>
@@ -3151,7 +3159,7 @@
       <c r="D125" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E125">
+      <c r="E125" s="1">
         <v>3.28</v>
       </c>
     </row>
@@ -3164,7 +3172,7 @@
       <c r="D126" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E126">
+      <c r="E126" s="1">
         <v>3.28</v>
       </c>
     </row>
@@ -3239,7 +3247,7 @@
       <c r="D133" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E133">
+      <c r="E133" s="1">
         <v>3.28</v>
       </c>
     </row>
@@ -3253,6 +3261,9 @@
       </c>
       <c r="D134" s="1" t="s">
         <v>172</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -3284,29 +3295,33 @@
       <c r="D137" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="E137" s="1" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="8"/>
+      <c r="B138" s="13"/>
       <c r="C138" t="s">
-        <v>178</v>
+        <v>357</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>176</v>
+        <v>358</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="8"/>
       <c r="C139" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="8"/>
       <c r="C140" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>183</v>
@@ -3315,7 +3330,7 @@
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="8"/>
       <c r="C141" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>183</v>
@@ -3324,16 +3339,16 @@
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="8"/>
       <c r="C142" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="8"/>
       <c r="C143" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>185</v>
@@ -3341,20 +3356,20 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="8"/>
-      <c r="B144" s="2" t="s">
-        <v>247</v>
-      </c>
       <c r="C144" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="8"/>
+      <c r="B145" s="2" t="s">
+        <v>247</v>
+      </c>
       <c r="C145" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>191</v>
@@ -3362,34 +3377,33 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="8"/>
-      <c r="B146" s="13" t="s">
-        <v>305</v>
-      </c>
       <c r="C146" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E146">
-        <v>3.25</v>
-      </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="8"/>
-      <c r="B147" s="13"/>
+      <c r="B147" s="13" t="s">
+        <v>305</v>
+      </c>
       <c r="C147" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>191</v>
+      </c>
+      <c r="E147" s="1">
+        <v>3.25</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="8"/>
       <c r="B148" s="13"/>
       <c r="C148" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>191</v>
@@ -3397,51 +3411,51 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="8"/>
-      <c r="B149" s="13" t="s">
-        <v>299</v>
-      </c>
+      <c r="B149" s="13"/>
       <c r="C149" t="s">
-        <v>297</v>
+        <v>190</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>295</v>
+        <v>191</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="8"/>
-      <c r="B150" s="13"/>
+      <c r="B150" s="13" t="s">
+        <v>299</v>
+      </c>
       <c r="C150" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="8"/>
       <c r="B151" s="13"/>
       <c r="C151" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="8"/>
       <c r="B152" s="13"/>
       <c r="C152" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="8"/>
       <c r="B153" s="13"/>
       <c r="C153" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>304</v>
@@ -3451,7 +3465,7 @@
       <c r="A154" s="8"/>
       <c r="B154" s="13"/>
       <c r="C154" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>304</v>
@@ -3459,43 +3473,40 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="8"/>
-      <c r="B155" s="2" t="s">
+      <c r="B155" s="13"/>
+      <c r="C155" t="s">
+        <v>303</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="8"/>
+      <c r="B156" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C156" t="s">
         <v>192</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="B156" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="C156" t="s">
-        <v>197</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E156">
-        <v>3.14</v>
-      </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="13"/>
-      <c r="B157" s="13"/>
+      <c r="A157" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B157" s="13" t="s">
+        <v>255</v>
+      </c>
       <c r="C157" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E157">
+      <c r="E157" s="1">
         <v>3.14</v>
       </c>
     </row>
@@ -3503,17 +3514,20 @@
       <c r="A158" s="13"/>
       <c r="B158" s="13"/>
       <c r="C158" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>205</v>
+        <v>194</v>
+      </c>
+      <c r="E158" s="1">
+        <v>3.14</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="13"/>
       <c r="B159" s="13"/>
       <c r="C159" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>205</v>
@@ -3523,17 +3537,17 @@
       <c r="A160" s="13"/>
       <c r="B160" s="13"/>
       <c r="C160" t="s">
-        <v>256</v>
+        <v>203</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>254</v>
+        <v>205</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="13"/>
       <c r="B161" s="13"/>
       <c r="C161" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>254</v>
@@ -3543,7 +3557,7 @@
       <c r="A162" s="13"/>
       <c r="B162" s="13"/>
       <c r="C162" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>254</v>
@@ -3553,27 +3567,27 @@
       <c r="A163" s="13"/>
       <c r="B163" s="13"/>
       <c r="C163" t="s">
-        <v>306</v>
+        <v>258</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>307</v>
+        <v>254</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="13"/>
-      <c r="B164" s="8"/>
+      <c r="B164" s="13"/>
       <c r="C164" t="s">
-        <v>200</v>
+        <v>306</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>205</v>
+        <v>307</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="13"/>
       <c r="B165" s="8"/>
       <c r="C165" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>205</v>
@@ -3583,7 +3597,7 @@
       <c r="A166" s="13"/>
       <c r="B166" s="8"/>
       <c r="C166" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>205</v>
@@ -3593,17 +3607,17 @@
       <c r="A167" s="13"/>
       <c r="B167" s="8"/>
       <c r="C167" t="s">
-        <v>312</v>
+        <v>204</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>314</v>
+        <v>205</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="13"/>
       <c r="B168" s="8"/>
       <c r="C168" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>314</v>
@@ -3611,21 +3625,21 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="13"/>
-      <c r="B169" s="13" t="s">
-        <v>311</v>
-      </c>
+      <c r="B169" s="8"/>
       <c r="C169" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="13"/>
-      <c r="B170" s="13"/>
+      <c r="B170" s="13" t="s">
+        <v>311</v>
+      </c>
       <c r="C170" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>307</v>
@@ -3635,80 +3649,80 @@
       <c r="A171" s="13"/>
       <c r="B171" s="13"/>
       <c r="C171" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="13" t="s">
+      <c r="A172" s="13"/>
+      <c r="B172" s="13"/>
+      <c r="C172" t="s">
+        <v>310</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="B172" s="13" t="s">
+      <c r="B173" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C173" t="s">
         <v>208</v>
       </c>
-      <c r="D172" s="1" t="s">
+      <c r="D173" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E172">
+      <c r="E173" s="1">
         <v>3.22</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="13"/>
-      <c r="B173" s="13"/>
-      <c r="C173" t="s">
-        <v>210</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E173">
-        <v>3.23</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="13"/>
       <c r="B174" s="13"/>
       <c r="C174" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E174">
-        <v>3.22</v>
+      <c r="E174" s="1">
+        <v>3.23</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="13"/>
       <c r="B175" s="13"/>
       <c r="C175" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>211</v>
+      </c>
+      <c r="E175" s="1">
+        <v>3.22</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="13"/>
       <c r="B176" s="13"/>
       <c r="C176" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="13"/>
       <c r="B177" s="13"/>
       <c r="C177" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>215</v>
@@ -3718,48 +3732,45 @@
       <c r="A178" s="13"/>
       <c r="B178" s="13"/>
       <c r="C178" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E178">
-        <v>3.24</v>
+        <v>215</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="13"/>
       <c r="B179" s="13"/>
       <c r="C179" t="s">
-        <v>282</v>
+        <v>219</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>281</v>
+        <v>220</v>
+      </c>
+      <c r="E179" s="1">
+        <v>3.24</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="13"/>
       <c r="B180" s="13"/>
       <c r="C180" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="E180">
-        <v>3.24</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="13"/>
       <c r="B181" s="13"/>
       <c r="C181" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E181">
+      <c r="E181" s="1">
         <v>3.24</v>
       </c>
     </row>
@@ -3767,27 +3778,30 @@
       <c r="A182" s="13"/>
       <c r="B182" s="13"/>
       <c r="C182" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>281</v>
+      </c>
+      <c r="E182" s="1">
+        <v>3.24</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="13"/>
       <c r="B183" s="13"/>
       <c r="C183" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="13"/>
       <c r="B184" s="13"/>
       <c r="C184" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>292</v>
@@ -3797,30 +3811,30 @@
       <c r="A185" s="13"/>
       <c r="B185" s="13"/>
       <c r="C185" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="E185">
-        <v>3.22</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="13"/>
       <c r="B186" s="13"/>
       <c r="C186" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>292</v>
+      </c>
+      <c r="E186" s="1">
+        <v>3.22</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="13"/>
       <c r="B187" s="13"/>
       <c r="C187" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>292</v>
@@ -3830,7 +3844,7 @@
       <c r="A188" s="13"/>
       <c r="B188" s="13"/>
       <c r="C188" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>292</v>
@@ -3840,17 +3854,17 @@
       <c r="A189" s="13"/>
       <c r="B189" s="13"/>
       <c r="C189" t="s">
-        <v>334</v>
+        <v>291</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>337</v>
+        <v>292</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="13"/>
       <c r="B190" s="13"/>
       <c r="C190" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>337</v>
@@ -3860,7 +3874,7 @@
       <c r="A191" s="13"/>
       <c r="B191" s="13"/>
       <c r="C191" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>337</v>
@@ -3870,179 +3884,180 @@
       <c r="A192" s="13"/>
       <c r="B192" s="13"/>
       <c r="C192" t="s">
-        <v>61</v>
+        <v>336</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E192">
-        <v>3.24</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="13"/>
       <c r="B193" s="13"/>
       <c r="C193" t="s">
+        <v>61</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E193" s="1">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="13"/>
+      <c r="B194" s="13"/>
+      <c r="C194" t="s">
         <v>341</v>
       </c>
-      <c r="D193" s="1" t="s">
+      <c r="D194" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="13"/>
-      <c r="B194" s="13" t="s">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="13"/>
+      <c r="B195" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C195" t="s">
         <v>221</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="13"/>
-      <c r="B195" s="13"/>
-      <c r="C195" t="s">
-        <v>222</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="13"/>
       <c r="B196" s="13"/>
       <c r="C196" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="13"/>
       <c r="B197" s="13"/>
       <c r="C197" t="s">
-        <v>338</v>
+        <v>224</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="13"/>
       <c r="B198" s="13"/>
       <c r="C198" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="13"/>
       <c r="B199" s="13"/>
       <c r="C199" t="s">
+        <v>339</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="13"/>
+      <c r="B200" s="13"/>
+      <c r="C200" t="s">
         <v>343</v>
       </c>
-      <c r="D199" s="1" t="s">
+      <c r="D200" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="3" t="s">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C201" t="s">
         <v>218</v>
       </c>
-      <c r="D200" s="1" t="s">
+      <c r="D201" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="13" t="s">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="B201" s="13" t="s">
+      <c r="B202" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="C201" t="s">
+      <c r="C202" t="s">
         <v>227</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="13"/>
-      <c r="B202" s="13"/>
-      <c r="C202" t="s">
-        <v>229</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="13"/>
       <c r="B203" s="13"/>
       <c r="C203" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="13"/>
-      <c r="B204" s="13" t="s">
-        <v>234</v>
-      </c>
+      <c r="B204" s="13"/>
       <c r="C204" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="13"/>
-      <c r="B205" s="13"/>
+      <c r="B205" s="13" t="s">
+        <v>234</v>
+      </c>
       <c r="C205" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="13"/>
-      <c r="B206" s="2" t="s">
-        <v>236</v>
-      </c>
+      <c r="B206" s="13"/>
       <c r="C206" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="13"/>
+      <c r="B207" s="2" t="s">
+        <v>236</v>
+      </c>
       <c r="C207" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="13"/>
       <c r="C208" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>237</v>
@@ -4051,7 +4066,7 @@
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="13"/>
       <c r="C209" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>237</v>
@@ -4059,21 +4074,20 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="13"/>
-      <c r="B210" s="13" t="s">
-        <v>128</v>
-      </c>
       <c r="C210" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="13"/>
-      <c r="B211" s="13"/>
+      <c r="B211" s="13" t="s">
+        <v>128</v>
+      </c>
       <c r="C211" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>242</v>
@@ -4081,11 +4095,9 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="13"/>
-      <c r="B212" s="13" t="s">
-        <v>246</v>
-      </c>
+      <c r="B212" s="13"/>
       <c r="C212" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>242</v>
@@ -4093,9 +4105,11 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="13"/>
-      <c r="B213" s="13"/>
+      <c r="B213" s="13" t="s">
+        <v>246</v>
+      </c>
       <c r="C213" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>242</v>
@@ -4103,29 +4117,29 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="13"/>
-      <c r="B214" s="5"/>
+      <c r="B214" s="13"/>
       <c r="C214" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="13"/>
-      <c r="B215" s="6"/>
+      <c r="B215" s="5"/>
       <c r="C215" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="13"/>
       <c r="B216" s="6"/>
       <c r="C216" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>272</v>
@@ -4135,63 +4149,63 @@
       <c r="A217" s="13"/>
       <c r="B217" s="6"/>
       <c r="C217" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" s="13" t="s">
+      <c r="A218" s="13"/>
+      <c r="B218" s="6"/>
+      <c r="C218" t="s">
+        <v>271</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="C218" t="s">
+      <c r="C219" t="s">
         <v>249</v>
-      </c>
-      <c r="D218" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E218">
-        <v>3.19</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" s="13"/>
-      <c r="C219" t="s">
-        <v>251</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E219">
+      <c r="E219" s="1">
         <v>3.19</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="13"/>
-      <c r="B220" s="5"/>
       <c r="C220" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>264</v>
+        <v>250</v>
+      </c>
+      <c r="E220" s="1">
+        <v>3.19</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="13"/>
-      <c r="B221" s="11"/>
+      <c r="B221" s="5"/>
       <c r="C221" t="s">
-        <v>330</v>
+        <v>265</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>333</v>
+        <v>264</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="13"/>
       <c r="B222" s="11"/>
       <c r="C222" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>333</v>
@@ -4201,67 +4215,69 @@
       <c r="A223" s="13"/>
       <c r="B223" s="11"/>
       <c r="C223" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224" s="4" t="s">
+      <c r="A224" s="13"/>
+      <c r="B224" s="11"/>
+      <c r="C224" t="s">
+        <v>332</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C224" t="s">
+      <c r="C225" t="s">
         <v>253</v>
       </c>
-      <c r="D224" s="1" t="s">
+      <c r="D225" s="1" t="s">
         <v>254</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>259</v>
-      </c>
-      <c r="C225" t="s">
-        <v>260</v>
-      </c>
-      <c r="D225" s="1" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C226" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C227" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>267</v>
+      </c>
       <c r="C228" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C229" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>279</v>
@@ -4269,14 +4285,49 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C230" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>279</v>
       </c>
     </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C231" t="s">
+        <v>278</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="B195:B200"/>
+    <mergeCell ref="B115:B117"/>
+    <mergeCell ref="B173:B194"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="A89:A94"/>
+    <mergeCell ref="B150:B155"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="B122:B124"/>
+    <mergeCell ref="B110:B114"/>
+    <mergeCell ref="A100:A114"/>
+    <mergeCell ref="B134:B138"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B100:B109"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="A219:A224"/>
+    <mergeCell ref="B85:B88"/>
+    <mergeCell ref="B125:B132"/>
+    <mergeCell ref="A202:A218"/>
+    <mergeCell ref="B157:B164"/>
+    <mergeCell ref="B170:B172"/>
+    <mergeCell ref="A157:A172"/>
+    <mergeCell ref="B147:B149"/>
+    <mergeCell ref="B211:B212"/>
+    <mergeCell ref="B213:B214"/>
+    <mergeCell ref="B202:B204"/>
+    <mergeCell ref="B205:B206"/>
+    <mergeCell ref="A173:A200"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="B68:B70"/>
     <mergeCell ref="B5:B8"/>
@@ -4293,33 +4344,6 @@
     <mergeCell ref="B47:B48"/>
     <mergeCell ref="A42:A55"/>
     <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="B100:B109"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="A218:A223"/>
-    <mergeCell ref="B85:B88"/>
-    <mergeCell ref="B125:B132"/>
-    <mergeCell ref="A201:A217"/>
-    <mergeCell ref="B156:B163"/>
-    <mergeCell ref="B169:B171"/>
-    <mergeCell ref="A156:A171"/>
-    <mergeCell ref="B146:B148"/>
-    <mergeCell ref="B210:B211"/>
-    <mergeCell ref="B212:B213"/>
-    <mergeCell ref="B201:B203"/>
-    <mergeCell ref="B204:B205"/>
-    <mergeCell ref="A172:A199"/>
-    <mergeCell ref="B194:B199"/>
-    <mergeCell ref="B115:B117"/>
-    <mergeCell ref="B172:B193"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="A89:A94"/>
-    <mergeCell ref="B149:B154"/>
-    <mergeCell ref="B134:B137"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="B122:B124"/>
-    <mergeCell ref="B110:B114"/>
-    <mergeCell ref="A100:A114"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/时间表.xlsx
+++ b/时间表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\360\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7CD2A3-BEF6-41A6-B3AE-37BB7FBC8F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2922FFE-1075-439D-99B3-C009453B786F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10212" yWindow="384" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="361">
   <si>
     <t>第一次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1460,6 +1460,14 @@
   </si>
   <si>
     <t>3.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>650只有两个键的键盘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1503,7 +1511,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1526,6 +1534,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1822,10 +1833,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F231"/>
+  <dimension ref="A1:F232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="D200" sqref="D200"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="E151" sqref="E151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1857,10 +1868,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>153</v>
       </c>
       <c r="C2" t="s">
@@ -1871,8 +1882,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -1881,7 +1892,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
+      <c r="A4" s="14"/>
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -1890,8 +1901,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14" t="s">
         <v>141</v>
       </c>
       <c r="C5" t="s">
@@ -1902,8 +1913,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
       <c r="C6" t="s">
         <v>138</v>
       </c>
@@ -1912,8 +1923,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
       <c r="C7" t="s">
         <v>139</v>
       </c>
@@ -1922,8 +1933,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
       <c r="C8" t="s">
         <v>140</v>
       </c>
@@ -1935,8 +1946,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14" t="s">
         <v>152</v>
       </c>
       <c r="C9" t="s">
@@ -1947,8 +1958,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
       <c r="C10" t="s">
         <v>9</v>
       </c>
@@ -1957,8 +1968,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
       <c r="C11" t="s">
         <v>10</v>
       </c>
@@ -1967,7 +1978,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
+      <c r="A12" s="14"/>
       <c r="C12" t="s">
         <v>97</v>
       </c>
@@ -1976,10 +1987,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C13" t="s">
@@ -1990,8 +2001,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -2000,8 +2011,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
       <c r="C15" t="s">
         <v>17</v>
       </c>
@@ -2010,8 +2021,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
       <c r="C16" t="s">
         <v>18</v>
       </c>
@@ -2020,8 +2031,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
       <c r="C17" t="s">
         <v>19</v>
       </c>
@@ -2030,8 +2041,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
       <c r="C18" t="s">
         <v>20</v>
       </c>
@@ -2040,8 +2051,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
       <c r="C19" t="s">
         <v>21</v>
       </c>
@@ -2050,8 +2061,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
       <c r="C20" t="s">
         <v>22</v>
       </c>
@@ -2060,8 +2071,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
       <c r="C21" t="s">
         <v>23</v>
       </c>
@@ -2070,8 +2081,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
       <c r="C22" t="s">
         <v>24</v>
       </c>
@@ -2080,8 +2091,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -2090,8 +2101,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
       <c r="C24" t="s">
         <v>26</v>
       </c>
@@ -2100,8 +2111,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
       <c r="C25" t="s">
         <v>27</v>
       </c>
@@ -2110,8 +2121,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
       <c r="C26" t="s">
         <v>28</v>
       </c>
@@ -2120,8 +2131,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
       <c r="C27" t="s">
         <v>29</v>
       </c>
@@ -2130,8 +2141,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
       <c r="C28" t="s">
         <v>30</v>
       </c>
@@ -2140,8 +2151,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
       <c r="C29" t="s">
         <v>31</v>
       </c>
@@ -2150,8 +2161,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
       <c r="C30" t="s">
         <v>32</v>
       </c>
@@ -2160,8 +2171,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
       <c r="C31" t="s">
         <v>33</v>
       </c>
@@ -2170,8 +2181,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13" t="s">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C32" t="s">
@@ -2182,8 +2193,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
       <c r="C33" t="s">
         <v>36</v>
       </c>
@@ -2192,8 +2203,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
       <c r="C34" t="s">
         <v>37</v>
       </c>
@@ -2202,8 +2213,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
       <c r="C35" t="s">
         <v>39</v>
       </c>
@@ -2212,8 +2223,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
       <c r="C36" t="s">
         <v>40</v>
       </c>
@@ -2222,8 +2233,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
       <c r="C37" t="s">
         <v>41</v>
       </c>
@@ -2232,8 +2243,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
       <c r="C38" t="s">
         <v>42</v>
       </c>
@@ -2242,8 +2253,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
       <c r="C39" t="s">
         <v>44</v>
       </c>
@@ -2252,8 +2263,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
       <c r="C40" t="s">
         <v>45</v>
       </c>
@@ -2262,7 +2273,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
+      <c r="A41" s="14"/>
       <c r="B41" s="2" t="s">
         <v>47</v>
       </c>
@@ -2274,7 +2285,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="14" t="s">
         <v>50</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -2288,7 +2299,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
+      <c r="A43" s="14"/>
       <c r="B43" s="2" t="s">
         <v>74</v>
       </c>
@@ -2300,7 +2311,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
+      <c r="A44" s="14"/>
       <c r="B44" s="2" t="s">
         <v>75</v>
       </c>
@@ -2312,8 +2323,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13" t="s">
+      <c r="A45" s="14"/>
+      <c r="B45" s="14" t="s">
         <v>76</v>
       </c>
       <c r="C45" t="s">
@@ -2324,8 +2335,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="13"/>
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
       <c r="C46" t="s">
         <v>57</v>
       </c>
@@ -2334,8 +2345,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13" t="s">
+      <c r="A47" s="14"/>
+      <c r="B47" s="14" t="s">
         <v>77</v>
       </c>
       <c r="C47" t="s">
@@ -2346,8 +2357,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
-      <c r="B48" s="13"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
       <c r="C48" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2367,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
-      <c r="B49" s="13" t="s">
+      <c r="A49" s="14"/>
+      <c r="B49" s="14" t="s">
         <v>78</v>
       </c>
       <c r="C49" t="s">
@@ -2368,8 +2379,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="13"/>
-      <c r="B50" s="13"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
       <c r="C50" t="s">
         <v>65</v>
       </c>
@@ -2378,8 +2389,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
-      <c r="B51" s="13"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="14"/>
       <c r="C51" t="s">
         <v>66</v>
       </c>
@@ -2388,7 +2399,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="13"/>
+      <c r="A52" s="14"/>
       <c r="B52" s="2" t="s">
         <v>79</v>
       </c>
@@ -2400,8 +2411,8 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="13"/>
-      <c r="B53" s="13" t="s">
+      <c r="A53" s="14"/>
+      <c r="B53" s="14" t="s">
         <v>80</v>
       </c>
       <c r="C53" t="s">
@@ -2412,8 +2423,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="13"/>
-      <c r="B54" s="13"/>
+      <c r="A54" s="14"/>
+      <c r="B54" s="14"/>
       <c r="C54" t="s">
         <v>70</v>
       </c>
@@ -2422,8 +2433,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="13"/>
-      <c r="B55" s="13"/>
+      <c r="A55" s="14"/>
+      <c r="B55" s="14"/>
       <c r="C55" t="s">
         <v>71</v>
       </c>
@@ -2432,7 +2443,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="13" t="s">
+      <c r="A56" s="14" t="s">
         <v>81</v>
       </c>
       <c r="C56" t="s">
@@ -2443,7 +2454,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="13"/>
+      <c r="A57" s="14"/>
       <c r="C57" t="s">
         <v>83</v>
       </c>
@@ -2452,7 +2463,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="13"/>
+      <c r="A58" s="14"/>
       <c r="C58" t="s">
         <v>84</v>
       </c>
@@ -2461,7 +2472,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="13"/>
+      <c r="A59" s="14"/>
       <c r="C59" t="s">
         <v>86</v>
       </c>
@@ -2470,7 +2481,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="13"/>
+      <c r="A60" s="14"/>
       <c r="C60" t="s">
         <v>87</v>
       </c>
@@ -2479,7 +2490,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="13"/>
+      <c r="A61" s="14"/>
       <c r="C61" t="s">
         <v>89</v>
       </c>
@@ -2488,7 +2499,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="13"/>
+      <c r="A62" s="14"/>
       <c r="C62" t="s">
         <v>90</v>
       </c>
@@ -2497,7 +2508,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="13"/>
+      <c r="A63" s="14"/>
       <c r="C63" t="s">
         <v>91</v>
       </c>
@@ -2506,7 +2517,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="13"/>
+      <c r="A64" s="14"/>
       <c r="C64" t="s">
         <v>92</v>
       </c>
@@ -2515,7 +2526,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="13"/>
+      <c r="A65" s="14"/>
       <c r="C65" t="s">
         <v>94</v>
       </c>
@@ -2524,7 +2535,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="13"/>
+      <c r="A66" s="14"/>
       <c r="C66" t="s">
         <v>95</v>
       </c>
@@ -2533,7 +2544,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="13"/>
+      <c r="A67" s="14"/>
       <c r="B67" s="7"/>
       <c r="C67" t="s">
         <v>280</v>
@@ -2543,10 +2554,10 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="13" t="s">
+      <c r="A68" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B68" s="13" t="s">
+      <c r="B68" s="14" t="s">
         <v>105</v>
       </c>
       <c r="C68" t="s">
@@ -2557,8 +2568,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="13"/>
-      <c r="B69" s="13"/>
+      <c r="A69" s="14"/>
+      <c r="B69" s="14"/>
       <c r="C69" t="s">
         <v>101</v>
       </c>
@@ -2567,8 +2578,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="13"/>
-      <c r="B70" s="13"/>
+      <c r="A70" s="14"/>
+      <c r="B70" s="14"/>
       <c r="C70" t="s">
         <v>102</v>
       </c>
@@ -2577,8 +2588,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="13"/>
-      <c r="B71" s="13" t="s">
+      <c r="A71" s="14"/>
+      <c r="B71" s="14" t="s">
         <v>104</v>
       </c>
       <c r="C71" t="s">
@@ -2589,8 +2600,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="13"/>
-      <c r="B72" s="13"/>
+      <c r="A72" s="14"/>
+      <c r="B72" s="14"/>
       <c r="C72" t="s">
         <v>107</v>
       </c>
@@ -2599,8 +2610,8 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="13"/>
-      <c r="B73" s="13"/>
+      <c r="A73" s="14"/>
+      <c r="B73" s="14"/>
       <c r="C73" t="s">
         <v>108</v>
       </c>
@@ -2609,8 +2620,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="13"/>
-      <c r="B74" s="13" t="s">
+      <c r="A74" s="14"/>
+      <c r="B74" s="14" t="s">
         <v>113</v>
       </c>
       <c r="C74" t="s">
@@ -2621,8 +2632,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="13"/>
-      <c r="B75" s="13"/>
+      <c r="A75" s="14"/>
+      <c r="B75" s="14"/>
       <c r="C75" t="s">
         <v>111</v>
       </c>
@@ -2631,8 +2642,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="13"/>
-      <c r="B76" s="13"/>
+      <c r="A76" s="14"/>
+      <c r="B76" s="14"/>
       <c r="C76" t="s">
         <v>112</v>
       </c>
@@ -2641,8 +2652,8 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="13"/>
-      <c r="B77" s="13" t="s">
+      <c r="A77" s="14"/>
+      <c r="B77" s="14" t="s">
         <v>128</v>
       </c>
       <c r="C77" t="s">
@@ -2653,8 +2664,8 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="13"/>
-      <c r="B78" s="13"/>
+      <c r="A78" s="14"/>
+      <c r="B78" s="14"/>
       <c r="C78" t="s">
         <v>125</v>
       </c>
@@ -2663,8 +2674,8 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="13"/>
-      <c r="B79" s="13"/>
+      <c r="A79" s="14"/>
+      <c r="B79" s="14"/>
       <c r="C79" t="s">
         <v>127</v>
       </c>
@@ -2673,7 +2684,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="13"/>
+      <c r="A80" s="14"/>
       <c r="C80" t="s">
         <v>114</v>
       </c>
@@ -2682,8 +2693,8 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="13"/>
-      <c r="B81" s="13" t="s">
+      <c r="A81" s="14"/>
+      <c r="B81" s="14" t="s">
         <v>121</v>
       </c>
       <c r="C81" t="s">
@@ -2694,8 +2705,8 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="13"/>
-      <c r="B82" s="13"/>
+      <c r="A82" s="14"/>
+      <c r="B82" s="14"/>
       <c r="C82" t="s">
         <v>117</v>
       </c>
@@ -2704,8 +2715,8 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="13"/>
-      <c r="B83" s="13"/>
+      <c r="A83" s="14"/>
+      <c r="B83" s="14"/>
       <c r="C83" t="s">
         <v>118</v>
       </c>
@@ -2714,8 +2725,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="13"/>
-      <c r="B84" s="13"/>
+      <c r="A84" s="14"/>
+      <c r="B84" s="14"/>
       <c r="C84" t="s">
         <v>119</v>
       </c>
@@ -2724,8 +2735,8 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="13"/>
-      <c r="B85" s="13" t="s">
+      <c r="A85" s="14"/>
+      <c r="B85" s="14" t="s">
         <v>296</v>
       </c>
       <c r="C85" t="s">
@@ -2736,8 +2747,8 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="13"/>
-      <c r="B86" s="13"/>
+      <c r="A86" s="14"/>
+      <c r="B86" s="14"/>
       <c r="C86" t="s">
         <v>123</v>
       </c>
@@ -2746,8 +2757,8 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="13"/>
-      <c r="B87" s="13"/>
+      <c r="A87" s="14"/>
+      <c r="B87" s="14"/>
       <c r="C87" t="s">
         <v>293</v>
       </c>
@@ -2756,8 +2767,8 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="13"/>
-      <c r="B88" s="13"/>
+      <c r="A88" s="14"/>
+      <c r="B88" s="14"/>
       <c r="C88" t="s">
         <v>294</v>
       </c>
@@ -2766,7 +2777,7 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="13" t="s">
+      <c r="A89" s="14" t="s">
         <v>129</v>
       </c>
       <c r="C89" t="s">
@@ -2777,7 +2788,7 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="13"/>
+      <c r="A90" s="14"/>
       <c r="C90" t="s">
         <v>131</v>
       </c>
@@ -2789,7 +2800,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="13"/>
+      <c r="A91" s="14"/>
       <c r="C91" t="s">
         <v>133</v>
       </c>
@@ -2798,7 +2809,7 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="13"/>
+      <c r="A92" s="14"/>
       <c r="C92" t="s">
         <v>134</v>
       </c>
@@ -2807,7 +2818,7 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="13"/>
+      <c r="A93" s="14"/>
       <c r="C93" t="s">
         <v>135</v>
       </c>
@@ -2816,7 +2827,7 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="13"/>
+      <c r="A94" s="14"/>
       <c r="B94" s="6"/>
       <c r="C94" t="s">
         <v>273</v>
@@ -2876,10 +2887,10 @@
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="13" t="s">
+      <c r="A100" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="B100" s="13" t="s">
+      <c r="B100" s="14" t="s">
         <v>142</v>
       </c>
       <c r="C100" t="s">
@@ -2893,8 +2904,8 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="13"/>
-      <c r="B101" s="13"/>
+      <c r="A101" s="14"/>
+      <c r="B101" s="14"/>
       <c r="C101" t="s">
         <v>150</v>
       </c>
@@ -2903,8 +2914,8 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="13"/>
-      <c r="B102" s="13"/>
+      <c r="A102" s="14"/>
+      <c r="B102" s="14"/>
       <c r="C102" t="s">
         <v>151</v>
       </c>
@@ -2913,8 +2924,8 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="13"/>
-      <c r="B103" s="13"/>
+      <c r="A103" s="14"/>
+      <c r="B103" s="14"/>
       <c r="C103" t="s">
         <v>274</v>
       </c>
@@ -2923,8 +2934,8 @@
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="13"/>
-      <c r="B104" s="13"/>
+      <c r="A104" s="14"/>
+      <c r="B104" s="14"/>
       <c r="C104" t="s">
         <v>275</v>
       </c>
@@ -2933,8 +2944,8 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="13"/>
-      <c r="B105" s="13"/>
+      <c r="A105" s="14"/>
+      <c r="B105" s="14"/>
       <c r="C105" t="s">
         <v>315</v>
       </c>
@@ -2943,8 +2954,8 @@
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="13"/>
-      <c r="B106" s="13"/>
+      <c r="A106" s="14"/>
+      <c r="B106" s="14"/>
       <c r="C106" t="s">
         <v>318</v>
       </c>
@@ -2953,8 +2964,8 @@
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="13"/>
-      <c r="B107" s="13"/>
+      <c r="A107" s="14"/>
+      <c r="B107" s="14"/>
       <c r="C107" t="s">
         <v>319</v>
       </c>
@@ -2963,8 +2974,8 @@
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="13"/>
-      <c r="B108" s="13"/>
+      <c r="A108" s="14"/>
+      <c r="B108" s="14"/>
       <c r="C108" t="s">
         <v>320</v>
       </c>
@@ -2973,8 +2984,8 @@
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="13"/>
-      <c r="B109" s="13"/>
+      <c r="A109" s="14"/>
+      <c r="B109" s="14"/>
       <c r="C109" t="s">
         <v>321</v>
       </c>
@@ -2983,8 +2994,8 @@
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="13"/>
-      <c r="B110" s="13" t="s">
+      <c r="A110" s="14"/>
+      <c r="B110" s="14" t="s">
         <v>143</v>
       </c>
       <c r="C110" t="s">
@@ -2998,8 +3009,8 @@
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="13"/>
-      <c r="B111" s="13"/>
+      <c r="A111" s="14"/>
+      <c r="B111" s="14"/>
       <c r="C111" t="s">
         <v>145</v>
       </c>
@@ -3008,8 +3019,8 @@
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="13"/>
-      <c r="B112" s="13"/>
+      <c r="A112" s="14"/>
+      <c r="B112" s="14"/>
       <c r="C112" t="s">
         <v>146</v>
       </c>
@@ -3018,8 +3029,8 @@
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="13"/>
-      <c r="B113" s="13"/>
+      <c r="A113" s="14"/>
+      <c r="B113" s="14"/>
       <c r="C113" t="s">
         <v>147</v>
       </c>
@@ -3028,8 +3039,8 @@
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="13"/>
-      <c r="B114" s="13"/>
+      <c r="A114" s="14"/>
+      <c r="B114" s="14"/>
       <c r="C114" t="s">
         <v>316</v>
       </c>
@@ -3041,7 +3052,7 @@
       <c r="A115" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="B115" s="13" t="s">
+      <c r="B115" s="14" t="s">
         <v>350</v>
       </c>
       <c r="C115" t="s">
@@ -3053,7 +3064,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="12"/>
-      <c r="B116" s="13"/>
+      <c r="B116" s="14"/>
       <c r="C116" t="s">
         <v>345</v>
       </c>
@@ -3063,7 +3074,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="8"/>
-      <c r="B117" s="13"/>
+      <c r="B117" s="14"/>
       <c r="C117" t="s">
         <v>155</v>
       </c>
@@ -3073,7 +3084,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="8"/>
-      <c r="B118" s="13" t="s">
+      <c r="B118" s="14" t="s">
         <v>351</v>
       </c>
       <c r="C118" t="s">
@@ -3085,7 +3096,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="8"/>
-      <c r="B119" s="13"/>
+      <c r="B119" s="14"/>
       <c r="C119" t="s">
         <v>177</v>
       </c>
@@ -3098,7 +3109,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="8"/>
-      <c r="B120" s="13"/>
+      <c r="B120" s="14"/>
       <c r="C120" t="s">
         <v>349</v>
       </c>
@@ -3108,7 +3119,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="8"/>
-      <c r="B121" s="13"/>
+      <c r="B121" s="14"/>
       <c r="C121" t="s">
         <v>158</v>
       </c>
@@ -3118,7 +3129,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="8"/>
-      <c r="B122" s="13" t="s">
+      <c r="B122" s="14" t="s">
         <v>355</v>
       </c>
       <c r="C122" t="s">
@@ -3130,7 +3141,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="8"/>
-      <c r="B123" s="13"/>
+      <c r="B123" s="14"/>
       <c r="C123" t="s">
         <v>353</v>
       </c>
@@ -3140,7 +3151,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="8"/>
-      <c r="B124" s="13"/>
+      <c r="B124" s="14"/>
       <c r="C124" t="s">
         <v>354</v>
       </c>
@@ -3150,7 +3161,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="8"/>
-      <c r="B125" s="13" t="s">
+      <c r="B125" s="14" t="s">
         <v>162</v>
       </c>
       <c r="C125" t="s">
@@ -3165,7 +3176,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="8"/>
-      <c r="B126" s="13"/>
+      <c r="B126" s="14"/>
       <c r="C126" t="s">
         <v>164</v>
       </c>
@@ -3178,7 +3189,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="8"/>
-      <c r="B127" s="13"/>
+      <c r="B127" s="14"/>
       <c r="C127" t="s">
         <v>166</v>
       </c>
@@ -3188,7 +3199,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="8"/>
-      <c r="B128" s="13"/>
+      <c r="B128" s="14"/>
       <c r="C128" t="s">
         <v>167</v>
       </c>
@@ -3198,17 +3209,20 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="8"/>
-      <c r="B129" s="13"/>
+      <c r="B129" s="14"/>
       <c r="C129" t="s">
         <v>168</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>161</v>
       </c>
+      <c r="E129" s="1" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="8"/>
-      <c r="B130" s="13"/>
+      <c r="B130" s="14"/>
       <c r="C130" t="s">
         <v>169</v>
       </c>
@@ -3218,7 +3232,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="8"/>
-      <c r="B131" s="13"/>
+      <c r="B131" s="14"/>
       <c r="C131" t="s">
         <v>171</v>
       </c>
@@ -3228,7 +3242,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="8"/>
-      <c r="B132" s="13"/>
+      <c r="B132" s="14"/>
       <c r="C132" t="s">
         <v>193</v>
       </c>
@@ -3253,7 +3267,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="8"/>
-      <c r="B134" s="13" t="s">
+      <c r="B134" s="14" t="s">
         <v>173</v>
       </c>
       <c r="C134" t="s">
@@ -3268,7 +3282,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="8"/>
-      <c r="B135" s="13"/>
+      <c r="B135" s="14"/>
       <c r="C135" t="s">
         <v>175</v>
       </c>
@@ -3278,7 +3292,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="8"/>
-      <c r="B136" s="13"/>
+      <c r="B136" s="14"/>
       <c r="C136" t="s">
         <v>160</v>
       </c>
@@ -3288,7 +3302,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="8"/>
-      <c r="B137" s="13"/>
+      <c r="B137" s="14"/>
       <c r="C137" t="s">
         <v>156</v>
       </c>
@@ -3301,7 +3315,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="8"/>
-      <c r="B138" s="13"/>
+      <c r="B138" s="14"/>
       <c r="C138" t="s">
         <v>357</v>
       </c>
@@ -3377,43 +3391,43 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="8"/>
+      <c r="B146" s="13"/>
       <c r="C146" t="s">
-        <v>187</v>
+        <v>360</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>191</v>
+        <v>359</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="8"/>
-      <c r="B147" s="13" t="s">
-        <v>305</v>
-      </c>
       <c r="C147" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E147" s="1">
-        <v>3.25</v>
-      </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="8"/>
-      <c r="B148" s="13"/>
+      <c r="B148" s="14" t="s">
+        <v>305</v>
+      </c>
       <c r="C148" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>191</v>
       </c>
+      <c r="E148" s="1">
+        <v>3.25</v>
+      </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="8"/>
-      <c r="B149" s="13"/>
+      <c r="B149" s="14"/>
       <c r="C149" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>191</v>
@@ -3421,51 +3435,54 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="8"/>
-      <c r="B150" s="13" t="s">
-        <v>299</v>
-      </c>
+      <c r="B150" s="14"/>
       <c r="C150" t="s">
-        <v>297</v>
+        <v>190</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>295</v>
+        <v>191</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="8"/>
-      <c r="B151" s="13"/>
+      <c r="B151" s="14" t="s">
+        <v>299</v>
+      </c>
       <c r="C151" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E151" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="8"/>
-      <c r="B152" s="13"/>
+      <c r="B152" s="14"/>
       <c r="C152" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="8"/>
-      <c r="B153" s="13"/>
+      <c r="B153" s="14"/>
       <c r="C153" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="8"/>
-      <c r="B154" s="13"/>
+      <c r="B154" s="14"/>
       <c r="C154" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>304</v>
@@ -3473,9 +3490,9 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="8"/>
-      <c r="B155" s="13"/>
+      <c r="B155" s="14"/>
       <c r="C155" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>304</v>
@@ -3483,38 +3500,35 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="8"/>
-      <c r="B156" s="2" t="s">
+      <c r="B156" s="14"/>
+      <c r="C156" t="s">
+        <v>303</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="8"/>
+      <c r="B157" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C157" t="s">
         <v>192</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="B157" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="C157" t="s">
-        <v>197</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E157" s="1">
-        <v>3.14</v>
-      </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="13"/>
-      <c r="B158" s="13"/>
+      <c r="A158" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="B158" s="14" t="s">
+        <v>255</v>
+      </c>
       <c r="C158" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>194</v>
@@ -3524,261 +3538,261 @@
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="13"/>
-      <c r="B159" s="13"/>
+      <c r="A159" s="14"/>
+      <c r="B159" s="14"/>
       <c r="C159" t="s">
+        <v>198</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E159" s="1">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="14"/>
+      <c r="B160" s="14"/>
+      <c r="C160" t="s">
         <v>202</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="13"/>
-      <c r="B160" s="13"/>
-      <c r="C160" t="s">
-        <v>203</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="13"/>
-      <c r="B161" s="13"/>
+      <c r="A161" s="14"/>
+      <c r="B161" s="14"/>
       <c r="C161" t="s">
+        <v>203</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="14"/>
+      <c r="B162" s="14"/>
+      <c r="C162" t="s">
         <v>256</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="13"/>
-      <c r="B162" s="13"/>
-      <c r="C162" t="s">
-        <v>257</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="13"/>
-      <c r="B163" s="13"/>
+      <c r="A163" s="14"/>
+      <c r="B163" s="14"/>
       <c r="C163" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="13"/>
-      <c r="B164" s="13"/>
+      <c r="A164" s="14"/>
+      <c r="B164" s="14"/>
       <c r="C164" t="s">
+        <v>258</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="14"/>
+      <c r="B165" s="14"/>
+      <c r="C165" t="s">
         <v>306</v>
       </c>
-      <c r="D164" s="1" t="s">
+      <c r="D165" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="13"/>
-      <c r="B165" s="8"/>
-      <c r="C165" t="s">
-        <v>200</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="13"/>
+      <c r="A166" s="14"/>
       <c r="B166" s="8"/>
       <c r="C166" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="13"/>
+      <c r="A167" s="14"/>
       <c r="B167" s="8"/>
       <c r="C167" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="13"/>
+      <c r="A168" s="14"/>
       <c r="B168" s="8"/>
       <c r="C168" t="s">
-        <v>312</v>
+        <v>204</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>314</v>
+        <v>205</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="13"/>
+      <c r="A169" s="14"/>
       <c r="B169" s="8"/>
       <c r="C169" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="13"/>
-      <c r="B170" s="13" t="s">
+      <c r="A170" s="14"/>
+      <c r="B170" s="8"/>
+      <c r="C170" t="s">
+        <v>313</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="14"/>
+      <c r="B171" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C171" t="s">
         <v>308</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="13"/>
-      <c r="B171" s="13"/>
-      <c r="C171" t="s">
-        <v>309</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="13"/>
-      <c r="B172" s="13"/>
+      <c r="A172" s="14"/>
+      <c r="B172" s="14"/>
       <c r="C172" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="13" t="s">
+      <c r="A173" s="14"/>
+      <c r="B173" s="14"/>
+      <c r="C173" t="s">
+        <v>310</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="B173" s="13" t="s">
+      <c r="B174" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C174" t="s">
         <v>208</v>
       </c>
-      <c r="D173" s="1" t="s">
+      <c r="D174" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E173" s="1">
+      <c r="E174" s="1">
         <v>3.22</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="13"/>
-      <c r="B174" s="13"/>
-      <c r="C174" t="s">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="14"/>
+      <c r="B175" s="14"/>
+      <c r="C175" t="s">
         <v>210</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E174" s="1">
-        <v>3.23</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="13"/>
-      <c r="B175" s="13"/>
-      <c r="C175" t="s">
-        <v>212</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>211</v>
       </c>
       <c r="E175" s="1">
-        <v>3.22</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="13"/>
-      <c r="B176" s="13"/>
+      <c r="A176" s="14"/>
+      <c r="B176" s="14"/>
       <c r="C176" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>211</v>
       </c>
+      <c r="E176" s="1">
+        <v>3.22</v>
+      </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="13"/>
-      <c r="B177" s="13"/>
+      <c r="A177" s="14"/>
+      <c r="B177" s="14"/>
       <c r="C177" t="s">
+        <v>213</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="14"/>
+      <c r="B178" s="14"/>
+      <c r="C178" t="s">
         <v>214</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="13"/>
-      <c r="B178" s="13"/>
-      <c r="C178" t="s">
-        <v>216</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="13"/>
-      <c r="B179" s="13"/>
+      <c r="A179" s="14"/>
+      <c r="B179" s="14"/>
       <c r="C179" t="s">
+        <v>216</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="14"/>
+      <c r="B180" s="14"/>
+      <c r="C180" t="s">
         <v>219</v>
       </c>
-      <c r="D179" s="1" t="s">
+      <c r="D180" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="E179" s="1">
+      <c r="E180" s="1">
         <v>3.24</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="13"/>
-      <c r="B180" s="13"/>
-      <c r="C180" t="s">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="14"/>
+      <c r="B181" s="14"/>
+      <c r="C181" t="s">
         <v>282</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="13"/>
-      <c r="B181" s="13"/>
-      <c r="C181" t="s">
-        <v>283</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E181" s="1">
-        <v>3.24</v>
-      </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="13"/>
-      <c r="B182" s="13"/>
+      <c r="A182" s="14"/>
+      <c r="B182" s="14"/>
       <c r="C182" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>281</v>
@@ -3788,401 +3802,402 @@
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="13"/>
-      <c r="B183" s="13"/>
+      <c r="A183" s="14"/>
+      <c r="B183" s="14"/>
       <c r="C183" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>281</v>
       </c>
+      <c r="E183" s="1">
+        <v>3.24</v>
+      </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="13"/>
-      <c r="B184" s="13"/>
+      <c r="A184" s="14"/>
+      <c r="B184" s="14"/>
       <c r="C184" t="s">
+        <v>285</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="14"/>
+      <c r="B185" s="14"/>
+      <c r="C185" t="s">
         <v>286</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="13"/>
-      <c r="B185" s="13"/>
-      <c r="C185" t="s">
-        <v>287</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="13"/>
-      <c r="B186" s="13"/>
+      <c r="A186" s="14"/>
+      <c r="B186" s="14"/>
       <c r="C186" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E186" s="1">
-        <v>3.22</v>
-      </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="13"/>
-      <c r="B187" s="13"/>
+      <c r="A187" s="14"/>
+      <c r="B187" s="14"/>
       <c r="C187" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>292</v>
       </c>
+      <c r="E187" s="1">
+        <v>3.22</v>
+      </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="13"/>
-      <c r="B188" s="13"/>
+      <c r="A188" s="14"/>
+      <c r="B188" s="14"/>
       <c r="C188" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="13"/>
-      <c r="B189" s="13"/>
+      <c r="A189" s="14"/>
+      <c r="B189" s="14"/>
       <c r="C189" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="13"/>
-      <c r="B190" s="13"/>
+      <c r="A190" s="14"/>
+      <c r="B190" s="14"/>
       <c r="C190" t="s">
+        <v>291</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="14"/>
+      <c r="B191" s="14"/>
+      <c r="C191" t="s">
         <v>334</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="13"/>
-      <c r="B191" s="13"/>
-      <c r="C191" t="s">
-        <v>335</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="13"/>
-      <c r="B192" s="13"/>
+      <c r="A192" s="14"/>
+      <c r="B192" s="14"/>
       <c r="C192" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" s="13"/>
-      <c r="B193" s="13"/>
+      <c r="A193" s="14"/>
+      <c r="B193" s="14"/>
       <c r="C193" t="s">
+        <v>336</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="14"/>
+      <c r="B194" s="14"/>
+      <c r="C194" t="s">
         <v>61</v>
       </c>
-      <c r="D193" s="1" t="s">
+      <c r="D194" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E193" s="1">
+      <c r="E194" s="1">
         <v>3.24</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" s="13"/>
-      <c r="B194" s="13"/>
-      <c r="C194" t="s">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="14"/>
+      <c r="B195" s="14"/>
+      <c r="C195" t="s">
         <v>341</v>
       </c>
-      <c r="D194" s="1" t="s">
+      <c r="D195" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" s="13"/>
-      <c r="B195" s="13" t="s">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="14"/>
+      <c r="B196" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C196" t="s">
         <v>221</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" s="13"/>
-      <c r="B196" s="13"/>
-      <c r="C196" t="s">
-        <v>222</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" s="13"/>
-      <c r="B197" s="13"/>
+      <c r="A197" s="14"/>
+      <c r="B197" s="14"/>
       <c r="C197" t="s">
+        <v>222</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="14"/>
+      <c r="B198" s="14"/>
+      <c r="C198" t="s">
         <v>224</v>
       </c>
-      <c r="D197" s="1" t="s">
+      <c r="D198" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" s="13"/>
-      <c r="B198" s="13"/>
-      <c r="C198" t="s">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="14"/>
+      <c r="B199" s="14"/>
+      <c r="C199" t="s">
         <v>338</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" s="13"/>
-      <c r="B199" s="13"/>
-      <c r="C199" t="s">
-        <v>339</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="13"/>
-      <c r="B200" s="13"/>
+      <c r="A200" s="14"/>
+      <c r="B200" s="14"/>
       <c r="C200" t="s">
+        <v>339</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="14"/>
+      <c r="B201" s="14"/>
+      <c r="C201" t="s">
         <v>343</v>
       </c>
-      <c r="D200" s="1" t="s">
+      <c r="D201" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="3" t="s">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C201" t="s">
+      <c r="C202" t="s">
         <v>218</v>
       </c>
-      <c r="D201" s="1" t="s">
+      <c r="D202" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" s="13" t="s">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="B202" s="13" t="s">
+      <c r="B203" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C203" t="s">
         <v>227</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" s="13"/>
-      <c r="B203" s="13"/>
-      <c r="C203" t="s">
-        <v>229</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" s="13"/>
-      <c r="B204" s="13"/>
+      <c r="A204" s="14"/>
+      <c r="B204" s="14"/>
       <c r="C204" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" s="13"/>
-      <c r="B205" s="13" t="s">
-        <v>234</v>
-      </c>
+      <c r="A205" s="14"/>
+      <c r="B205" s="14"/>
       <c r="C205" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" s="13"/>
-      <c r="B206" s="13"/>
+      <c r="A206" s="14"/>
+      <c r="B206" s="14" t="s">
+        <v>234</v>
+      </c>
       <c r="C206" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" s="13"/>
-      <c r="B207" s="2" t="s">
-        <v>236</v>
-      </c>
+      <c r="A207" s="14"/>
+      <c r="B207" s="14"/>
       <c r="C207" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" s="13"/>
+      <c r="A208" s="14"/>
+      <c r="B208" s="2" t="s">
+        <v>236</v>
+      </c>
       <c r="C208" t="s">
+        <v>235</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="14"/>
+      <c r="C209" t="s">
         <v>240</v>
-      </c>
-      <c r="D208" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" s="13"/>
-      <c r="C209" t="s">
-        <v>238</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" s="13"/>
+      <c r="A210" s="14"/>
       <c r="C210" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" s="13"/>
-      <c r="B211" s="13" t="s">
+      <c r="A211" s="14"/>
+      <c r="C211" t="s">
+        <v>239</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="14"/>
+      <c r="B212" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="C211" t="s">
+      <c r="C212" t="s">
         <v>241</v>
-      </c>
-      <c r="D211" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" s="13"/>
-      <c r="B212" s="13"/>
-      <c r="C212" t="s">
-        <v>243</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" s="13"/>
-      <c r="B213" s="13" t="s">
-        <v>246</v>
-      </c>
+      <c r="A213" s="14"/>
+      <c r="B213" s="14"/>
       <c r="C213" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" s="13"/>
-      <c r="B214" s="13"/>
+      <c r="A214" s="14"/>
+      <c r="B214" s="14" t="s">
+        <v>246</v>
+      </c>
       <c r="C214" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" s="13"/>
-      <c r="B215" s="5"/>
+      <c r="A215" s="14"/>
+      <c r="B215" s="14"/>
       <c r="C215" t="s">
+        <v>244</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" s="14"/>
+      <c r="B216" s="5"/>
+      <c r="C216" t="s">
         <v>266</v>
       </c>
-      <c r="D215" s="1" t="s">
+      <c r="D216" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216" s="13"/>
-      <c r="B216" s="6"/>
-      <c r="C216" t="s">
-        <v>269</v>
-      </c>
-      <c r="D216" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217" s="13"/>
+      <c r="A217" s="14"/>
       <c r="B217" s="6"/>
       <c r="C217" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" s="13"/>
+      <c r="A218" s="14"/>
       <c r="B218" s="6"/>
       <c r="C218" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" s="13" t="s">
+      <c r="A219" s="14"/>
+      <c r="B219" s="6"/>
+      <c r="C219" t="s">
+        <v>271</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="C219" t="s">
+      <c r="C220" t="s">
         <v>249</v>
-      </c>
-      <c r="D219" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E219" s="1">
-        <v>3.19</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" s="13"/>
-      <c r="C220" t="s">
-        <v>251</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>250</v>
@@ -4192,100 +4207,104 @@
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" s="13"/>
-      <c r="B221" s="5"/>
+      <c r="A221" s="14"/>
       <c r="C221" t="s">
+        <v>251</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E221" s="1">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="14"/>
+      <c r="B222" s="5"/>
+      <c r="C222" t="s">
         <v>265</v>
       </c>
-      <c r="D221" s="1" t="s">
+      <c r="D222" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222" s="13"/>
-      <c r="B222" s="11"/>
-      <c r="C222" t="s">
-        <v>330</v>
-      </c>
-      <c r="D222" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223" s="13"/>
+      <c r="A223" s="14"/>
       <c r="B223" s="11"/>
       <c r="C223" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224" s="13"/>
+      <c r="A224" s="14"/>
       <c r="B224" s="11"/>
       <c r="C224" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A225" s="4" t="s">
+      <c r="A225" s="14"/>
+      <c r="B225" s="11"/>
+      <c r="C225" t="s">
+        <v>332</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C225" t="s">
+      <c r="C226" t="s">
         <v>253</v>
       </c>
-      <c r="D225" s="1" t="s">
+      <c r="D226" s="1" t="s">
         <v>254</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>259</v>
-      </c>
-      <c r="C226" t="s">
-        <v>260</v>
-      </c>
-      <c r="D226" s="1" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C227" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C228" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>267</v>
+      </c>
       <c r="C229" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C230" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>279</v>
@@ -4293,41 +4312,22 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C231" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>279</v>
       </c>
     </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C232" t="s">
+        <v>278</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B195:B200"/>
-    <mergeCell ref="B115:B117"/>
-    <mergeCell ref="B173:B194"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="A89:A94"/>
-    <mergeCell ref="B150:B155"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="B122:B124"/>
-    <mergeCell ref="B110:B114"/>
-    <mergeCell ref="A100:A114"/>
-    <mergeCell ref="B134:B138"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="B100:B109"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="A219:A224"/>
-    <mergeCell ref="B85:B88"/>
-    <mergeCell ref="B125:B132"/>
-    <mergeCell ref="A202:A218"/>
-    <mergeCell ref="B157:B164"/>
-    <mergeCell ref="B170:B172"/>
-    <mergeCell ref="A157:A172"/>
-    <mergeCell ref="B147:B149"/>
-    <mergeCell ref="B211:B212"/>
-    <mergeCell ref="B213:B214"/>
-    <mergeCell ref="B202:B204"/>
-    <mergeCell ref="B205:B206"/>
-    <mergeCell ref="A173:A200"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="B68:B70"/>
     <mergeCell ref="B5:B8"/>
@@ -4344,6 +4344,33 @@
     <mergeCell ref="B47:B48"/>
     <mergeCell ref="A42:A55"/>
     <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B100:B109"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="A220:A225"/>
+    <mergeCell ref="B85:B88"/>
+    <mergeCell ref="B125:B132"/>
+    <mergeCell ref="A203:A219"/>
+    <mergeCell ref="B158:B165"/>
+    <mergeCell ref="B171:B173"/>
+    <mergeCell ref="A158:A173"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="B212:B213"/>
+    <mergeCell ref="B214:B215"/>
+    <mergeCell ref="B203:B205"/>
+    <mergeCell ref="B206:B207"/>
+    <mergeCell ref="A174:A201"/>
+    <mergeCell ref="B196:B201"/>
+    <mergeCell ref="B115:B117"/>
+    <mergeCell ref="B174:B195"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="A89:A94"/>
+    <mergeCell ref="B151:B156"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="B122:B124"/>
+    <mergeCell ref="B110:B114"/>
+    <mergeCell ref="A100:A114"/>
+    <mergeCell ref="B134:B138"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/时间表.xlsx
+++ b/时间表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\360\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2922FFE-1075-439D-99B3-C009453B786F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A634040-6205-4605-B3BD-B76AEF921346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10212" yWindow="384" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="366">
   <si>
     <t>第一次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1468,6 +1468,26 @@
   </si>
   <si>
     <t>650只有两个键的键盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>343整数拆分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>646最长数对链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>376摆动子序列</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1833,10 +1853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F232"/>
+  <dimension ref="A1:F235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="E151" sqref="E151"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="F136" sqref="F136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3161,27 +3181,24 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="8"/>
-      <c r="B125" s="14" t="s">
-        <v>162</v>
-      </c>
+      <c r="B125" s="14"/>
       <c r="C125" t="s">
-        <v>163</v>
+        <v>363</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E125" s="1">
-        <v>3.28</v>
+        <v>362</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="8"/>
-      <c r="B126" s="14"/>
+      <c r="B126" s="8" t="s">
+        <v>162</v>
+      </c>
       <c r="C126" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E126" s="1">
         <v>3.28</v>
@@ -3189,125 +3206,128 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="8"/>
-      <c r="B127" s="14"/>
+      <c r="B127" s="8"/>
       <c r="C127" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
+      </c>
+      <c r="E127" s="1">
+        <v>3.28</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="8"/>
-      <c r="B128" s="14"/>
+      <c r="B128" s="8"/>
       <c r="C128" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>161</v>
       </c>
+      <c r="E128" s="1" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="8"/>
-      <c r="B129" s="14"/>
+      <c r="B129" s="8"/>
       <c r="C129" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E129" s="1" t="s">
-        <v>359</v>
-      </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="8"/>
-      <c r="B130" s="14"/>
+      <c r="B130" s="8"/>
       <c r="C130" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>161</v>
       </c>
+      <c r="E130" s="1" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="8"/>
-      <c r="B131" s="14"/>
+      <c r="B131" s="8"/>
       <c r="C131" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="8"/>
-      <c r="B132" s="14"/>
+      <c r="B132" s="8"/>
       <c r="C132" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="8"/>
-      <c r="B133" s="2" t="s">
-        <v>195</v>
-      </c>
+      <c r="B133" s="8"/>
       <c r="C133" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E133" s="1">
-        <v>3.28</v>
+        <v>194</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="8"/>
-      <c r="B134" s="14" t="s">
-        <v>173</v>
-      </c>
+      <c r="B134" s="8"/>
       <c r="C134" t="s">
-        <v>174</v>
+        <v>364</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="8"/>
-      <c r="B135" s="14"/>
+      <c r="B135" s="8"/>
       <c r="C135" t="s">
-        <v>175</v>
+        <v>365</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>176</v>
+        <v>362</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="8"/>
-      <c r="B136" s="14"/>
+      <c r="B136" s="2" t="s">
+        <v>195</v>
+      </c>
       <c r="C136" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>237</v>
+        <v>161</v>
+      </c>
+      <c r="E136" s="1">
+        <v>3.28</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="8"/>
-      <c r="B137" s="14"/>
+      <c r="B137" s="14" t="s">
+        <v>173</v>
+      </c>
       <c r="C137" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>358</v>
@@ -3317,127 +3337,128 @@
       <c r="A138" s="8"/>
       <c r="B138" s="14"/>
       <c r="C138" t="s">
-        <v>357</v>
+        <v>175</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>358</v>
+        <v>176</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="8"/>
+      <c r="B139" s="14"/>
       <c r="C139" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>176</v>
+        <v>237</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="8"/>
+      <c r="B140" s="14"/>
       <c r="C140" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>183</v>
+        <v>157</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="8"/>
+      <c r="B141" s="14"/>
       <c r="C141" t="s">
-        <v>179</v>
+        <v>357</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>183</v>
+        <v>358</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="8"/>
       <c r="C142" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="8"/>
       <c r="C143" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="8"/>
       <c r="C144" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="8"/>
-      <c r="B145" s="2" t="s">
-        <v>247</v>
-      </c>
       <c r="C145" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="8"/>
-      <c r="B146" s="13"/>
       <c r="C146" t="s">
-        <v>360</v>
+        <v>181</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>359</v>
+        <v>185</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="8"/>
       <c r="C147" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="8"/>
-      <c r="B148" s="14" t="s">
-        <v>305</v>
+      <c r="B148" s="2" t="s">
+        <v>247</v>
       </c>
       <c r="C148" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E148" s="1">
-        <v>3.25</v>
-      </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="8"/>
-      <c r="B149" s="14"/>
+      <c r="B149" s="13"/>
       <c r="C149" t="s">
-        <v>189</v>
+        <v>360</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>191</v>
+        <v>359</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="8"/>
-      <c r="B150" s="14"/>
       <c r="C150" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>191</v>
@@ -3446,369 +3467,371 @@
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="8"/>
       <c r="B151" s="14" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C151" t="s">
-        <v>297</v>
+        <v>188</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>359</v>
+        <v>191</v>
+      </c>
+      <c r="E151" s="1">
+        <v>3.25</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="8"/>
       <c r="B152" s="14"/>
       <c r="C152" t="s">
-        <v>298</v>
+        <v>189</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="8"/>
       <c r="B153" s="14"/>
       <c r="C153" t="s">
-        <v>300</v>
+        <v>190</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="8"/>
-      <c r="B154" s="14"/>
+      <c r="B154" s="14" t="s">
+        <v>299</v>
+      </c>
       <c r="C154" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>304</v>
+        <v>295</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="8"/>
       <c r="B155" s="14"/>
       <c r="C155" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="8"/>
       <c r="B156" s="14"/>
       <c r="C156" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="8"/>
-      <c r="B157" s="2" t="s">
-        <v>196</v>
-      </c>
+      <c r="B157" s="14"/>
       <c r="C157" t="s">
-        <v>192</v>
+        <v>301</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>194</v>
+        <v>304</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="B158" s="14" t="s">
-        <v>255</v>
-      </c>
+      <c r="A158" s="8"/>
+      <c r="B158" s="14"/>
       <c r="C158" t="s">
-        <v>197</v>
+        <v>302</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E158" s="1">
-        <v>3.14</v>
+        <v>304</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="14"/>
+      <c r="A159" s="8"/>
       <c r="B159" s="14"/>
       <c r="C159" t="s">
-        <v>198</v>
+        <v>303</v>
       </c>
       <c r="D159" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="8"/>
+      <c r="B160" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C160" t="s">
+        <v>192</v>
+      </c>
+      <c r="D160" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E159" s="1">
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="B161" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="C161" t="s">
+        <v>197</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E161" s="1">
         <v>3.14</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="14"/>
-      <c r="B160" s="14"/>
-      <c r="C160" t="s">
-        <v>202</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="14"/>
-      <c r="B161" s="14"/>
-      <c r="C161" t="s">
-        <v>203</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="14"/>
       <c r="B162" s="14"/>
       <c r="C162" t="s">
-        <v>256</v>
+        <v>198</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>254</v>
+        <v>194</v>
+      </c>
+      <c r="E162" s="1">
+        <v>3.14</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="14"/>
       <c r="B163" s="14"/>
       <c r="C163" t="s">
-        <v>257</v>
+        <v>202</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>254</v>
+        <v>205</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="14"/>
       <c r="B164" s="14"/>
       <c r="C164" t="s">
-        <v>258</v>
+        <v>203</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>254</v>
+        <v>205</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="14"/>
       <c r="B165" s="14"/>
       <c r="C165" t="s">
-        <v>306</v>
+        <v>256</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>307</v>
+        <v>254</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="14"/>
-      <c r="B166" s="8"/>
+      <c r="B166" s="14"/>
       <c r="C166" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>205</v>
+        <v>254</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="14"/>
-      <c r="B167" s="8"/>
+      <c r="B167" s="14"/>
       <c r="C167" t="s">
-        <v>201</v>
+        <v>258</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>205</v>
+        <v>254</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="14"/>
-      <c r="B168" s="8"/>
+      <c r="B168" s="14"/>
       <c r="C168" t="s">
-        <v>204</v>
+        <v>306</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>205</v>
+        <v>307</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="14"/>
       <c r="B169" s="8"/>
       <c r="C169" t="s">
-        <v>312</v>
+        <v>200</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>314</v>
+        <v>205</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="14"/>
       <c r="B170" s="8"/>
       <c r="C170" t="s">
-        <v>313</v>
+        <v>201</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>314</v>
+        <v>205</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="14"/>
-      <c r="B171" s="14" t="s">
-        <v>311</v>
-      </c>
+      <c r="B171" s="8"/>
       <c r="C171" t="s">
-        <v>308</v>
+        <v>204</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>307</v>
+        <v>205</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="14"/>
-      <c r="B172" s="14"/>
+      <c r="B172" s="8"/>
       <c r="C172" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="14"/>
-      <c r="B173" s="14"/>
+      <c r="B173" s="8"/>
       <c r="C173" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D173" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="14"/>
+      <c r="B174" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="C174" t="s">
+        <v>308</v>
+      </c>
+      <c r="D174" s="1" t="s">
         <v>307</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="B174" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="C174" t="s">
-        <v>208</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E174" s="1">
-        <v>3.22</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="14"/>
       <c r="B175" s="14"/>
       <c r="C175" t="s">
-        <v>210</v>
+        <v>309</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E175" s="1">
-        <v>3.23</v>
+        <v>307</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="14"/>
       <c r="B176" s="14"/>
       <c r="C176" t="s">
-        <v>212</v>
+        <v>310</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E176" s="1">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="B177" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="C177" t="s">
+        <v>208</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E177" s="1">
         <v>3.22</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="14"/>
-      <c r="B177" s="14"/>
-      <c r="C177" t="s">
-        <v>213</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="14"/>
       <c r="B178" s="14"/>
       <c r="C178" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
+      </c>
+      <c r="E178" s="1">
+        <v>3.23</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="14"/>
       <c r="B179" s="14"/>
       <c r="C179" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
+      </c>
+      <c r="E179" s="1">
+        <v>3.22</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="14"/>
       <c r="B180" s="14"/>
       <c r="C180" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E180" s="1">
-        <v>3.24</v>
+        <v>211</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="14"/>
       <c r="B181" s="14"/>
       <c r="C181" t="s">
-        <v>282</v>
+        <v>214</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>281</v>
+        <v>215</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="14"/>
       <c r="B182" s="14"/>
       <c r="C182" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E182" s="1">
-        <v>3.24</v>
+        <v>215</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="14"/>
       <c r="B183" s="14"/>
       <c r="C183" t="s">
-        <v>284</v>
+        <v>219</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>281</v>
+        <v>220</v>
       </c>
       <c r="E183" s="1">
         <v>3.24</v>
@@ -3818,7 +3841,7 @@
       <c r="A184" s="14"/>
       <c r="B184" s="14"/>
       <c r="C184" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>281</v>
@@ -3828,40 +3851,43 @@
       <c r="A185" s="14"/>
       <c r="B185" s="14"/>
       <c r="C185" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>292</v>
+        <v>281</v>
+      </c>
+      <c r="E185" s="1">
+        <v>3.24</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="14"/>
       <c r="B186" s="14"/>
       <c r="C186" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>292</v>
+        <v>281</v>
+      </c>
+      <c r="E186" s="1">
+        <v>3.24</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="14"/>
       <c r="B187" s="14"/>
       <c r="C187" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E187" s="1">
-        <v>3.22</v>
+        <v>281</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="14"/>
       <c r="B188" s="14"/>
       <c r="C188" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>292</v>
@@ -3871,7 +3897,7 @@
       <c r="A189" s="14"/>
       <c r="B189" s="14"/>
       <c r="C189" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>292</v>
@@ -3881,179 +3907,180 @@
       <c r="A190" s="14"/>
       <c r="B190" s="14"/>
       <c r="C190" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>292</v>
+      </c>
+      <c r="E190" s="1">
+        <v>3.22</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="14"/>
       <c r="B191" s="14"/>
       <c r="C191" t="s">
-        <v>334</v>
+        <v>289</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>337</v>
+        <v>292</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="14"/>
       <c r="B192" s="14"/>
       <c r="C192" t="s">
-        <v>335</v>
+        <v>290</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>337</v>
+        <v>292</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="14"/>
       <c r="B193" s="14"/>
       <c r="C193" t="s">
-        <v>336</v>
+        <v>291</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>337</v>
+        <v>292</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="14"/>
       <c r="B194" s="14"/>
       <c r="C194" t="s">
-        <v>61</v>
+        <v>334</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E194" s="1">
-        <v>3.24</v>
+        <v>337</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="14"/>
       <c r="B195" s="14"/>
       <c r="C195" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="14"/>
-      <c r="B196" s="14" t="s">
-        <v>223</v>
-      </c>
+      <c r="B196" s="14"/>
       <c r="C196" t="s">
-        <v>221</v>
+        <v>336</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>220</v>
+        <v>337</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="14"/>
       <c r="B197" s="14"/>
       <c r="C197" t="s">
-        <v>222</v>
+        <v>61</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>220</v>
+        <v>64</v>
+      </c>
+      <c r="E197" s="1">
+        <v>3.24</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="14"/>
       <c r="B198" s="14"/>
       <c r="C198" t="s">
-        <v>224</v>
+        <v>341</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>225</v>
+        <v>342</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="14"/>
-      <c r="B199" s="14"/>
+      <c r="B199" s="14" t="s">
+        <v>223</v>
+      </c>
       <c r="C199" t="s">
-        <v>338</v>
+        <v>221</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>340</v>
+        <v>220</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="14"/>
       <c r="B200" s="14"/>
       <c r="C200" t="s">
-        <v>339</v>
+        <v>222</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>340</v>
+        <v>220</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="14"/>
       <c r="B201" s="14"/>
       <c r="C201" t="s">
-        <v>343</v>
+        <v>224</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>342</v>
+        <v>225</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" s="3" t="s">
-        <v>217</v>
-      </c>
+      <c r="A202" s="14"/>
+      <c r="B202" s="14"/>
       <c r="C202" t="s">
-        <v>218</v>
+        <v>338</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>215</v>
+        <v>340</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="B203" s="14" t="s">
-        <v>231</v>
-      </c>
+      <c r="A203" s="14"/>
+      <c r="B203" s="14"/>
       <c r="C203" t="s">
-        <v>227</v>
+        <v>339</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>228</v>
+        <v>340</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="14"/>
       <c r="B204" s="14"/>
       <c r="C204" t="s">
-        <v>229</v>
+        <v>343</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>228</v>
+        <v>342</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" s="14"/>
-      <c r="B205" s="14"/>
+      <c r="A205" s="3" t="s">
+        <v>217</v>
+      </c>
       <c r="C205" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" s="14"/>
+      <c r="A206" s="14" t="s">
+        <v>226</v>
+      </c>
       <c r="B206" s="14" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C206" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>228</v>
@@ -4063,7 +4090,7 @@
       <c r="A207" s="14"/>
       <c r="B207" s="14"/>
       <c r="C207" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>228</v>
@@ -4071,11 +4098,9 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="14"/>
-      <c r="B208" s="2" t="s">
-        <v>236</v>
-      </c>
+      <c r="B208" s="14"/>
       <c r="C208" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>228</v>
@@ -4083,70 +4108,72 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="14"/>
+      <c r="B209" s="14" t="s">
+        <v>234</v>
+      </c>
       <c r="C209" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="14"/>
+      <c r="B210" s="14"/>
       <c r="C210" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="14"/>
+      <c r="B211" s="2" t="s">
+        <v>236</v>
+      </c>
       <c r="C211" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="14"/>
-      <c r="B212" s="14" t="s">
-        <v>128</v>
-      </c>
       <c r="C212" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="14"/>
-      <c r="B213" s="14"/>
       <c r="C213" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="14"/>
-      <c r="B214" s="14" t="s">
-        <v>246</v>
-      </c>
       <c r="C214" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="14"/>
-      <c r="B215" s="14"/>
+      <c r="B215" s="14" t="s">
+        <v>128</v>
+      </c>
       <c r="C215" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>242</v>
@@ -4154,180 +4181,212 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="14"/>
-      <c r="B216" s="5"/>
+      <c r="B216" s="14"/>
       <c r="C216" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="14"/>
-      <c r="B217" s="6"/>
+      <c r="B217" s="14" t="s">
+        <v>246</v>
+      </c>
       <c r="C217" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="14"/>
-      <c r="B218" s="6"/>
+      <c r="B218" s="14"/>
       <c r="C218" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="14"/>
-      <c r="B219" s="6"/>
+      <c r="B219" s="5"/>
       <c r="C219" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D219" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="14"/>
+      <c r="B220" s="6"/>
+      <c r="C220" t="s">
+        <v>269</v>
+      </c>
+      <c r="D220" s="1" t="s">
         <v>272</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="C220" t="s">
-        <v>249</v>
-      </c>
-      <c r="D220" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E220" s="1">
-        <v>3.19</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="14"/>
+      <c r="B221" s="6"/>
       <c r="C221" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E221" s="1">
-        <v>3.19</v>
+        <v>272</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="14"/>
-      <c r="B222" s="5"/>
+      <c r="B222" s="6"/>
       <c r="C222" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223" s="14"/>
-      <c r="B223" s="11"/>
+      <c r="A223" s="14" t="s">
+        <v>248</v>
+      </c>
       <c r="C223" t="s">
-        <v>330</v>
+        <v>249</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>333</v>
+        <v>250</v>
+      </c>
+      <c r="E223" s="1">
+        <v>3.19</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="14"/>
-      <c r="B224" s="11"/>
       <c r="C224" t="s">
-        <v>331</v>
+        <v>251</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>333</v>
+        <v>250</v>
+      </c>
+      <c r="E224" s="1">
+        <v>3.19</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="14"/>
-      <c r="B225" s="11"/>
+      <c r="B225" s="5"/>
       <c r="C225" t="s">
+        <v>265</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="14"/>
+      <c r="B226" s="11"/>
+      <c r="C226" t="s">
+        <v>330</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" s="14"/>
+      <c r="B227" s="11"/>
+      <c r="C227" t="s">
+        <v>331</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" s="14"/>
+      <c r="B228" s="11"/>
+      <c r="C228" t="s">
         <v>332</v>
       </c>
-      <c r="D225" s="1" t="s">
+      <c r="D228" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A226" s="4" t="s">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C226" t="s">
+      <c r="C229" t="s">
         <v>253</v>
       </c>
-      <c r="D226" s="1" t="s">
+      <c r="D229" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
         <v>259</v>
       </c>
-      <c r="C227" t="s">
+      <c r="C230" t="s">
         <v>260</v>
       </c>
-      <c r="D227" s="1" t="s">
+      <c r="D230" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
         <v>262</v>
       </c>
-      <c r="C228" t="s">
+      <c r="C231" t="s">
         <v>263</v>
       </c>
-      <c r="D228" s="1" t="s">
+      <c r="D231" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
         <v>267</v>
       </c>
-      <c r="C229" t="s">
+      <c r="C232" t="s">
         <v>268</v>
       </c>
-      <c r="D229" s="1" t="s">
+      <c r="D232" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C230" t="s">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C233" t="s">
         <v>276</v>
       </c>
-      <c r="D230" s="1" t="s">
+      <c r="D233" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C231" t="s">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C234" t="s">
         <v>277</v>
       </c>
-      <c r="D231" s="1" t="s">
+      <c r="D234" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C232" t="s">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C235" t="s">
         <v>278</v>
       </c>
-      <c r="D232" s="1" t="s">
+      <c r="D235" s="1" t="s">
         <v>279</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="42">
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="B68:B70"/>
     <mergeCell ref="B5:B8"/>
@@ -4347,30 +4406,29 @@
     <mergeCell ref="B77:B79"/>
     <mergeCell ref="B100:B109"/>
     <mergeCell ref="B74:B76"/>
-    <mergeCell ref="A220:A225"/>
+    <mergeCell ref="A223:A228"/>
     <mergeCell ref="B85:B88"/>
-    <mergeCell ref="B125:B132"/>
-    <mergeCell ref="A203:A219"/>
-    <mergeCell ref="B158:B165"/>
-    <mergeCell ref="B171:B173"/>
-    <mergeCell ref="A158:A173"/>
-    <mergeCell ref="B148:B150"/>
-    <mergeCell ref="B212:B213"/>
-    <mergeCell ref="B214:B215"/>
-    <mergeCell ref="B203:B205"/>
-    <mergeCell ref="B206:B207"/>
-    <mergeCell ref="A174:A201"/>
-    <mergeCell ref="B196:B201"/>
+    <mergeCell ref="A206:A222"/>
+    <mergeCell ref="B161:B168"/>
+    <mergeCell ref="B174:B176"/>
+    <mergeCell ref="A161:A176"/>
+    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="B215:B216"/>
+    <mergeCell ref="B217:B218"/>
+    <mergeCell ref="B206:B208"/>
+    <mergeCell ref="B209:B210"/>
+    <mergeCell ref="A177:A204"/>
+    <mergeCell ref="B199:B204"/>
     <mergeCell ref="B115:B117"/>
-    <mergeCell ref="B174:B195"/>
+    <mergeCell ref="B177:B198"/>
     <mergeCell ref="B81:B84"/>
     <mergeCell ref="A89:A94"/>
-    <mergeCell ref="B151:B156"/>
+    <mergeCell ref="B154:B159"/>
     <mergeCell ref="B118:B121"/>
-    <mergeCell ref="B122:B124"/>
     <mergeCell ref="B110:B114"/>
     <mergeCell ref="A100:A114"/>
-    <mergeCell ref="B134:B138"/>
+    <mergeCell ref="B137:B141"/>
+    <mergeCell ref="B122:B125"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/时间表.xlsx
+++ b/时间表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\360\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A634040-6205-4605-B3BD-B76AEF921346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D01BAB1-C30A-4B7C-ADF0-14E1AD26C995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10212" yWindow="384" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="373">
   <si>
     <t>第一次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1488,6 +1488,34 @@
   </si>
   <si>
     <t>376摆动子序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>932漂亮数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>504七进制数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>415字符串相加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>326_3的幂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1853,10 +1881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F235"/>
+  <dimension ref="A1:F239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="F136" sqref="F136"/>
+    <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
+      <selection activeCell="F216" sqref="F216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3083,77 +3111,77 @@
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="12"/>
+      <c r="A116" s="8"/>
       <c r="B116" s="14"/>
       <c r="C116" t="s">
-        <v>345</v>
+        <v>155</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>346</v>
+        <v>120</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="8"/>
-      <c r="B117" s="14"/>
+      <c r="B117" s="14" t="s">
+        <v>351</v>
+      </c>
       <c r="C117" t="s">
-        <v>155</v>
+        <v>347</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>120</v>
+        <v>348</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="8"/>
-      <c r="B118" s="14" t="s">
-        <v>351</v>
-      </c>
+      <c r="B118" s="14"/>
       <c r="C118" t="s">
-        <v>347</v>
+        <v>177</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>348</v>
+        <v>176</v>
+      </c>
+      <c r="E118" s="1">
+        <v>3.26</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="8"/>
       <c r="B119" s="14"/>
       <c r="C119" t="s">
-        <v>177</v>
+        <v>349</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E119" s="1">
-        <v>3.26</v>
+        <v>348</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="8"/>
       <c r="B120" s="14"/>
       <c r="C120" t="s">
-        <v>349</v>
+        <v>158</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>348</v>
+        <v>159</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="8"/>
-      <c r="B121" s="14"/>
+      <c r="B121" s="14" t="s">
+        <v>355</v>
+      </c>
       <c r="C121" t="s">
-        <v>158</v>
+        <v>352</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>159</v>
+        <v>356</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="8"/>
-      <c r="B122" s="14" t="s">
-        <v>355</v>
-      </c>
+      <c r="B122" s="14"/>
       <c r="C122" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>356</v>
@@ -3163,7 +3191,7 @@
       <c r="A123" s="8"/>
       <c r="B123" s="14"/>
       <c r="C123" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>356</v>
@@ -3173,32 +3201,35 @@
       <c r="A124" s="8"/>
       <c r="B124" s="14"/>
       <c r="C124" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="8"/>
-      <c r="B125" s="14"/>
+      <c r="B125" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="C125" t="s">
-        <v>363</v>
+        <v>163</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>362</v>
+        <v>159</v>
+      </c>
+      <c r="E125" s="1">
+        <v>3.28</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="8"/>
-      <c r="B126" s="8" t="s">
-        <v>162</v>
-      </c>
+      <c r="B126" s="14"/>
       <c r="C126" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="E126" s="1">
         <v>3.28</v>
@@ -3206,35 +3237,32 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="8"/>
-      <c r="B127" s="8"/>
+      <c r="B127" s="14"/>
       <c r="C127" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E127" s="1">
-        <v>3.28</v>
+        <v>161</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="8"/>
-      <c r="B128" s="8"/>
+      <c r="B128" s="14"/>
       <c r="C128" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E128" s="1" t="s">
-        <v>362</v>
-      </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="8"/>
-      <c r="B129" s="8"/>
+      <c r="B129" s="14"/>
       <c r="C129" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>161</v>
@@ -3242,153 +3270,152 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="8"/>
-      <c r="B130" s="8"/>
+      <c r="B130" s="14"/>
       <c r="C130" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>359</v>
+        <v>172</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="8"/>
-      <c r="B131" s="8"/>
+      <c r="B131" s="14"/>
       <c r="C131" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="8"/>
-      <c r="B132" s="8"/>
+      <c r="B132" s="14"/>
       <c r="C132" t="s">
-        <v>171</v>
+        <v>364</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>172</v>
+        <v>362</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="8"/>
-      <c r="B133" s="8"/>
+      <c r="B133" s="14"/>
       <c r="C133" t="s">
-        <v>193</v>
+        <v>365</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>194</v>
+        <v>362</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="8"/>
-      <c r="B134" s="8"/>
+      <c r="A134" s="12"/>
+      <c r="B134" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="C134" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="8"/>
-      <c r="B135" s="8"/>
+      <c r="B135" s="14"/>
       <c r="C135" t="s">
-        <v>365</v>
+        <v>170</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>362</v>
+        <v>161</v>
+      </c>
+      <c r="E135" s="1">
+        <v>3.28</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="8"/>
-      <c r="B136" s="2" t="s">
-        <v>195</v>
+      <c r="B136" s="14" t="s">
+        <v>173</v>
       </c>
       <c r="C136" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E136" s="1">
-        <v>3.28</v>
+        <v>172</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="8"/>
-      <c r="B137" s="14" t="s">
-        <v>173</v>
-      </c>
+      <c r="B137" s="14"/>
       <c r="C137" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>358</v>
+        <v>176</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="8"/>
       <c r="B138" s="14"/>
       <c r="C138" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>176</v>
+        <v>237</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="8"/>
       <c r="B139" s="14"/>
       <c r="C139" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>237</v>
+        <v>157</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="8"/>
       <c r="B140" s="14"/>
       <c r="C140" t="s">
-        <v>156</v>
+        <v>357</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E140" s="1" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="8"/>
-      <c r="B141" s="14"/>
       <c r="C141" t="s">
-        <v>357</v>
+        <v>178</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>358</v>
+        <v>176</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="8"/>
       <c r="C142" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="8"/>
       <c r="C143" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>183</v>
@@ -3397,57 +3424,67 @@
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="8"/>
       <c r="C144" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="8"/>
       <c r="C145" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="8"/>
+      <c r="B146" s="2" t="s">
+        <v>247</v>
+      </c>
       <c r="C146" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="8"/>
+      <c r="B147" s="14" t="s">
+        <v>367</v>
+      </c>
       <c r="C147" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>185</v>
+        <v>161</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="8"/>
-      <c r="B148" s="2" t="s">
-        <v>247</v>
-      </c>
+      <c r="B148" s="14"/>
       <c r="C148" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="8"/>
-      <c r="B149" s="13"/>
+      <c r="B149" s="14"/>
       <c r="C149" t="s">
         <v>360</v>
       </c>
@@ -3457,6 +3494,7 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="8"/>
+      <c r="B150" s="14"/>
       <c r="C150" t="s">
         <v>187</v>
       </c>
@@ -3546,6 +3584,9 @@
       <c r="D157" s="1" t="s">
         <v>304</v>
       </c>
+      <c r="E157" s="1" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="8"/>
@@ -3556,6 +3597,9 @@
       <c r="D158" s="1" t="s">
         <v>304</v>
       </c>
+      <c r="E158" s="1" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="8"/>
@@ -3566,6 +3610,9 @@
       <c r="D159" s="1" t="s">
         <v>304</v>
       </c>
+      <c r="E159" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="8"/>
@@ -4117,6 +4164,9 @@
       <c r="D209" s="1" t="s">
         <v>228</v>
       </c>
+      <c r="E209" s="1" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="14"/>
@@ -4139,6 +4189,9 @@
       <c r="D211" s="1" t="s">
         <v>228</v>
       </c>
+      <c r="E211" s="1" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="14"/>
@@ -4252,141 +4305,213 @@
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223" s="14" t="s">
+      <c r="A223" s="13"/>
+      <c r="B223" s="13"/>
+      <c r="C223" t="s">
+        <v>370</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" s="13"/>
+      <c r="B224" s="13"/>
+      <c r="C224" t="s">
+        <v>371</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" s="13"/>
+      <c r="B225" s="13"/>
+      <c r="C225" t="s">
+        <v>372</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="C223" t="s">
+      <c r="C226" t="s">
         <v>249</v>
       </c>
-      <c r="D223" s="1" t="s">
+      <c r="D226" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E223" s="1">
+      <c r="E226" s="1">
         <v>3.19</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224" s="14"/>
-      <c r="C224" t="s">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" s="14"/>
+      <c r="C227" t="s">
         <v>251</v>
       </c>
-      <c r="D224" s="1" t="s">
+      <c r="D227" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E224" s="1">
+      <c r="E227" s="1">
         <v>3.19</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A225" s="14"/>
-      <c r="B225" s="5"/>
-      <c r="C225" t="s">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" s="14"/>
+      <c r="B228" s="5"/>
+      <c r="C228" t="s">
         <v>265</v>
       </c>
-      <c r="D225" s="1" t="s">
+      <c r="D228" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A226" s="14"/>
-      <c r="B226" s="11"/>
-      <c r="C226" t="s">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" s="14"/>
+      <c r="B229" s="11"/>
+      <c r="C229" t="s">
         <v>330</v>
       </c>
-      <c r="D226" s="1" t="s">
+      <c r="D229" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A227" s="14"/>
-      <c r="B227" s="11"/>
-      <c r="C227" t="s">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" s="14"/>
+      <c r="B230" s="11"/>
+      <c r="C230" t="s">
         <v>331</v>
       </c>
-      <c r="D227" s="1" t="s">
+      <c r="D230" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A228" s="14"/>
-      <c r="B228" s="11"/>
-      <c r="C228" t="s">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" s="14"/>
+      <c r="B231" s="11"/>
+      <c r="C231" t="s">
         <v>332</v>
       </c>
-      <c r="D228" s="1" t="s">
+      <c r="D231" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A229" s="4" t="s">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C229" t="s">
+      <c r="C232" t="s">
         <v>253</v>
       </c>
-      <c r="D229" s="1" t="s">
+      <c r="D232" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
+      <c r="E232" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" s="4"/>
+      <c r="B233" s="13"/>
+      <c r="C233" t="s">
+        <v>368</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
         <v>259</v>
       </c>
-      <c r="C230" t="s">
+      <c r="C234" t="s">
         <v>260</v>
       </c>
-      <c r="D230" s="1" t="s">
+      <c r="D234" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
         <v>262</v>
       </c>
-      <c r="C231" t="s">
+      <c r="C235" t="s">
         <v>263</v>
       </c>
-      <c r="D231" s="1" t="s">
+      <c r="D235" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
         <v>267</v>
       </c>
-      <c r="C232" t="s">
+      <c r="C236" t="s">
         <v>268</v>
       </c>
-      <c r="D232" s="1" t="s">
+      <c r="D236" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C233" t="s">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C237" t="s">
         <v>276</v>
       </c>
-      <c r="D233" s="1" t="s">
+      <c r="D237" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C234" t="s">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C238" t="s">
         <v>277</v>
       </c>
-      <c r="D234" s="1" t="s">
+      <c r="D238" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C235" t="s">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C239" t="s">
         <v>278</v>
       </c>
-      <c r="D235" s="1" t="s">
+      <c r="D239" s="1" t="s">
         <v>279</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="45">
+    <mergeCell ref="B177:B198"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="A89:A94"/>
+    <mergeCell ref="B154:B159"/>
+    <mergeCell ref="B117:B120"/>
+    <mergeCell ref="B110:B114"/>
+    <mergeCell ref="A100:A114"/>
+    <mergeCell ref="B136:B140"/>
+    <mergeCell ref="B121:B124"/>
+    <mergeCell ref="B147:B150"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="B125:B133"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B100:B109"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="A226:A231"/>
+    <mergeCell ref="B85:B88"/>
+    <mergeCell ref="A206:A222"/>
+    <mergeCell ref="B161:B168"/>
+    <mergeCell ref="B174:B176"/>
+    <mergeCell ref="A161:A176"/>
+    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="B215:B216"/>
+    <mergeCell ref="B217:B218"/>
+    <mergeCell ref="B206:B208"/>
+    <mergeCell ref="B209:B210"/>
+    <mergeCell ref="A177:A204"/>
+    <mergeCell ref="B199:B204"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="B68:B70"/>
     <mergeCell ref="B5:B8"/>
@@ -4403,32 +4528,6 @@
     <mergeCell ref="B47:B48"/>
     <mergeCell ref="A42:A55"/>
     <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="B100:B109"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="A223:A228"/>
-    <mergeCell ref="B85:B88"/>
-    <mergeCell ref="A206:A222"/>
-    <mergeCell ref="B161:B168"/>
-    <mergeCell ref="B174:B176"/>
-    <mergeCell ref="A161:A176"/>
-    <mergeCell ref="B151:B153"/>
-    <mergeCell ref="B215:B216"/>
-    <mergeCell ref="B217:B218"/>
-    <mergeCell ref="B206:B208"/>
-    <mergeCell ref="B209:B210"/>
-    <mergeCell ref="A177:A204"/>
-    <mergeCell ref="B199:B204"/>
-    <mergeCell ref="B115:B117"/>
-    <mergeCell ref="B177:B198"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="A89:A94"/>
-    <mergeCell ref="B154:B159"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="B110:B114"/>
-    <mergeCell ref="A100:A114"/>
-    <mergeCell ref="B137:B141"/>
-    <mergeCell ref="B122:B125"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/时间表.xlsx
+++ b/时间表.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\360\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D01BAB1-C30A-4B7C-ADF0-14E1AD26C995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C94B4B-A4F6-4F4A-A86A-3CB0B5DD7051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10212" yWindow="384" windowWidth="12552" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9132" yWindow="1476" windowWidth="11748" windowHeight="9936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="378">
   <si>
     <t>第一次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1516,6 +1517,26 @@
   </si>
   <si>
     <t>326_3的幂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>168excel表列名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>67二进制求和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>384打乱数组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1559,7 +1580,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1582,6 +1603,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1881,10 +1905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F239"/>
+  <dimension ref="A1:F242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
-      <selection activeCell="F216" sqref="F216"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="E147" sqref="E147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1916,10 +1940,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>153</v>
       </c>
       <c r="C2" t="s">
@@ -1930,8 +1954,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -1940,7 +1964,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
+      <c r="A4" s="15"/>
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -1949,8 +1973,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15" t="s">
         <v>141</v>
       </c>
       <c r="C5" t="s">
@@ -1961,8 +1985,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
       <c r="C6" t="s">
         <v>138</v>
       </c>
@@ -1971,8 +1995,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
       <c r="C7" t="s">
         <v>139</v>
       </c>
@@ -1981,8 +2005,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
       <c r="C8" t="s">
         <v>140</v>
       </c>
@@ -1994,8 +2018,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15" t="s">
         <v>152</v>
       </c>
       <c r="C9" t="s">
@@ -2006,8 +2030,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
       <c r="C10" t="s">
         <v>9</v>
       </c>
@@ -2016,8 +2040,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
       <c r="C11" t="s">
         <v>10</v>
       </c>
@@ -2026,7 +2050,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
+      <c r="A12" s="15"/>
       <c r="C12" t="s">
         <v>97</v>
       </c>
@@ -2035,10 +2059,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="15" t="s">
         <v>13</v>
       </c>
       <c r="C13" t="s">
@@ -2049,8 +2073,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -2059,8 +2083,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
       <c r="C15" t="s">
         <v>17</v>
       </c>
@@ -2069,8 +2093,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
       <c r="C16" t="s">
         <v>18</v>
       </c>
@@ -2079,8 +2103,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
       <c r="C17" t="s">
         <v>19</v>
       </c>
@@ -2089,8 +2113,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
       <c r="C18" t="s">
         <v>20</v>
       </c>
@@ -2099,8 +2123,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
       <c r="C19" t="s">
         <v>21</v>
       </c>
@@ -2109,8 +2133,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
       <c r="C20" t="s">
         <v>22</v>
       </c>
@@ -2119,8 +2143,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
       <c r="C21" t="s">
         <v>23</v>
       </c>
@@ -2129,8 +2153,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
       <c r="C22" t="s">
         <v>24</v>
       </c>
@@ -2139,8 +2163,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -2149,8 +2173,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
       <c r="C24" t="s">
         <v>26</v>
       </c>
@@ -2159,8 +2183,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
       <c r="C25" t="s">
         <v>27</v>
       </c>
@@ -2169,8 +2193,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
       <c r="C26" t="s">
         <v>28</v>
       </c>
@@ -2179,8 +2203,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
       <c r="C27" t="s">
         <v>29</v>
       </c>
@@ -2189,8 +2213,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
       <c r="C28" t="s">
         <v>30</v>
       </c>
@@ -2199,8 +2223,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
       <c r="C29" t="s">
         <v>31</v>
       </c>
@@ -2209,8 +2233,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
       <c r="C30" t="s">
         <v>32</v>
       </c>
@@ -2219,8 +2243,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
       <c r="C31" t="s">
         <v>33</v>
       </c>
@@ -2229,8 +2253,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14" t="s">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15" t="s">
         <v>34</v>
       </c>
       <c r="C32" t="s">
@@ -2241,8 +2265,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
       <c r="C33" t="s">
         <v>36</v>
       </c>
@@ -2251,8 +2275,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
       <c r="C34" t="s">
         <v>37</v>
       </c>
@@ -2261,8 +2285,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
       <c r="C35" t="s">
         <v>39</v>
       </c>
@@ -2271,8 +2295,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
       <c r="C36" t="s">
         <v>40</v>
       </c>
@@ -2281,8 +2305,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
       <c r="C37" t="s">
         <v>41</v>
       </c>
@@ -2291,8 +2315,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
       <c r="C38" t="s">
         <v>42</v>
       </c>
@@ -2301,8 +2325,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
       <c r="C39" t="s">
         <v>44</v>
       </c>
@@ -2311,8 +2335,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
       <c r="C40" t="s">
         <v>45</v>
       </c>
@@ -2321,7 +2345,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
+      <c r="A41" s="15"/>
       <c r="B41" s="2" t="s">
         <v>47</v>
       </c>
@@ -2333,7 +2357,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="15" t="s">
         <v>50</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -2347,7 +2371,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
+      <c r="A43" s="15"/>
       <c r="B43" s="2" t="s">
         <v>74</v>
       </c>
@@ -2359,7 +2383,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
+      <c r="A44" s="15"/>
       <c r="B44" s="2" t="s">
         <v>75</v>
       </c>
@@ -2371,8 +2395,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14" t="s">
+      <c r="A45" s="15"/>
+      <c r="B45" s="15" t="s">
         <v>76</v>
       </c>
       <c r="C45" t="s">
@@ -2383,8 +2407,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
+      <c r="A46" s="15"/>
+      <c r="B46" s="15"/>
       <c r="C46" t="s">
         <v>57</v>
       </c>
@@ -2393,8 +2417,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14" t="s">
+      <c r="A47" s="15"/>
+      <c r="B47" s="15" t="s">
         <v>77</v>
       </c>
       <c r="C47" t="s">
@@ -2405,8 +2429,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
+      <c r="A48" s="15"/>
+      <c r="B48" s="15"/>
       <c r="C48" t="s">
         <v>62</v>
       </c>
@@ -2415,8 +2439,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14" t="s">
+      <c r="A49" s="15"/>
+      <c r="B49" s="15" t="s">
         <v>78</v>
       </c>
       <c r="C49" t="s">
@@ -2427,8 +2451,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="15"/>
       <c r="C50" t="s">
         <v>65</v>
       </c>
@@ -2437,8 +2461,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
-      <c r="B51" s="14"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="15"/>
       <c r="C51" t="s">
         <v>66</v>
       </c>
@@ -2447,7 +2471,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
+      <c r="A52" s="15"/>
       <c r="B52" s="2" t="s">
         <v>79</v>
       </c>
@@ -2459,8 +2483,8 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
-      <c r="B53" s="14" t="s">
+      <c r="A53" s="15"/>
+      <c r="B53" s="15" t="s">
         <v>80</v>
       </c>
       <c r="C53" t="s">
@@ -2471,8 +2495,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
-      <c r="B54" s="14"/>
+      <c r="A54" s="15"/>
+      <c r="B54" s="15"/>
       <c r="C54" t="s">
         <v>70</v>
       </c>
@@ -2481,8 +2505,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="14"/>
-      <c r="B55" s="14"/>
+      <c r="A55" s="15"/>
+      <c r="B55" s="15"/>
       <c r="C55" t="s">
         <v>71</v>
       </c>
@@ -2491,7 +2515,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="15" t="s">
         <v>81</v>
       </c>
       <c r="C56" t="s">
@@ -2502,7 +2526,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
+      <c r="A57" s="15"/>
       <c r="C57" t="s">
         <v>83</v>
       </c>
@@ -2511,7 +2535,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
+      <c r="A58" s="15"/>
       <c r="C58" t="s">
         <v>84</v>
       </c>
@@ -2520,7 +2544,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
+      <c r="A59" s="15"/>
       <c r="C59" t="s">
         <v>86</v>
       </c>
@@ -2529,7 +2553,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
+      <c r="A60" s="15"/>
       <c r="C60" t="s">
         <v>87</v>
       </c>
@@ -2538,7 +2562,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="14"/>
+      <c r="A61" s="15"/>
       <c r="C61" t="s">
         <v>89</v>
       </c>
@@ -2547,7 +2571,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
+      <c r="A62" s="15"/>
       <c r="C62" t="s">
         <v>90</v>
       </c>
@@ -2556,7 +2580,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
+      <c r="A63" s="15"/>
       <c r="C63" t="s">
         <v>91</v>
       </c>
@@ -2565,7 +2589,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="14"/>
+      <c r="A64" s="15"/>
       <c r="C64" t="s">
         <v>92</v>
       </c>
@@ -2573,8 +2597,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="14"/>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="15"/>
       <c r="C65" t="s">
         <v>94</v>
       </c>
@@ -2582,8 +2606,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="14"/>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="15"/>
       <c r="C66" t="s">
         <v>95</v>
       </c>
@@ -2591,8 +2615,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="14"/>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="15"/>
       <c r="B67" s="7"/>
       <c r="C67" t="s">
         <v>280</v>
@@ -2601,11 +2625,11 @@
         <v>281</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="14" t="s">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="15" t="s">
         <v>105</v>
       </c>
       <c r="C68" t="s">
@@ -2615,9 +2639,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="14"/>
-      <c r="B69" s="14"/>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="15"/>
+      <c r="B69" s="15"/>
       <c r="C69" t="s">
         <v>101</v>
       </c>
@@ -2625,9 +2649,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="14"/>
-      <c r="B70" s="14"/>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="15"/>
+      <c r="B70" s="15"/>
       <c r="C70" t="s">
         <v>102</v>
       </c>
@@ -2635,9 +2659,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="14"/>
-      <c r="B71" s="14" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="15"/>
+      <c r="B71" s="15" t="s">
         <v>104</v>
       </c>
       <c r="C71" t="s">
@@ -2647,9 +2671,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="14"/>
-      <c r="B72" s="14"/>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="15"/>
+      <c r="B72" s="15"/>
       <c r="C72" t="s">
         <v>107</v>
       </c>
@@ -2657,9 +2681,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="14"/>
-      <c r="B73" s="14"/>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="15"/>
+      <c r="B73" s="15"/>
       <c r="C73" t="s">
         <v>108</v>
       </c>
@@ -2667,9 +2691,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="14"/>
-      <c r="B74" s="14" t="s">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="15"/>
+      <c r="B74" s="15" t="s">
         <v>113</v>
       </c>
       <c r="C74" t="s">
@@ -2679,9 +2703,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="14"/>
-      <c r="B75" s="14"/>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="15"/>
+      <c r="B75" s="15"/>
       <c r="C75" t="s">
         <v>111</v>
       </c>
@@ -2689,9 +2713,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="14"/>
-      <c r="B76" s="14"/>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="15"/>
+      <c r="B76" s="15"/>
       <c r="C76" t="s">
         <v>112</v>
       </c>
@@ -2699,9 +2723,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="14"/>
-      <c r="B77" s="14" t="s">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="15"/>
+      <c r="B77" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C77" t="s">
@@ -2711,9 +2735,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="14"/>
-      <c r="B78" s="14"/>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="15"/>
+      <c r="B78" s="15"/>
       <c r="C78" t="s">
         <v>125</v>
       </c>
@@ -2721,18 +2745,21 @@
         <v>126</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="14"/>
-      <c r="B79" s="14"/>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="15"/>
+      <c r="B79" s="15"/>
       <c r="C79" t="s">
         <v>127</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="14"/>
+      <c r="E79" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="15"/>
       <c r="C80" t="s">
         <v>114</v>
       </c>
@@ -2741,8 +2768,8 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="14"/>
-      <c r="B81" s="14" t="s">
+      <c r="A81" s="15"/>
+      <c r="B81" s="15" t="s">
         <v>121</v>
       </c>
       <c r="C81" t="s">
@@ -2753,8 +2780,8 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="14"/>
-      <c r="B82" s="14"/>
+      <c r="A82" s="15"/>
+      <c r="B82" s="15"/>
       <c r="C82" t="s">
         <v>117</v>
       </c>
@@ -2763,8 +2790,8 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="14"/>
-      <c r="B83" s="14"/>
+      <c r="A83" s="15"/>
+      <c r="B83" s="15"/>
       <c r="C83" t="s">
         <v>118</v>
       </c>
@@ -2773,8 +2800,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="14"/>
-      <c r="B84" s="14"/>
+      <c r="A84" s="15"/>
+      <c r="B84" s="15"/>
       <c r="C84" t="s">
         <v>119</v>
       </c>
@@ -2783,8 +2810,8 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="14"/>
-      <c r="B85" s="14" t="s">
+      <c r="A85" s="15"/>
+      <c r="B85" s="15" t="s">
         <v>296</v>
       </c>
       <c r="C85" t="s">
@@ -2795,8 +2822,8 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="14"/>
-      <c r="B86" s="14"/>
+      <c r="A86" s="15"/>
+      <c r="B86" s="15"/>
       <c r="C86" t="s">
         <v>123</v>
       </c>
@@ -2805,8 +2832,8 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="14"/>
-      <c r="B87" s="14"/>
+      <c r="A87" s="15"/>
+      <c r="B87" s="15"/>
       <c r="C87" t="s">
         <v>293</v>
       </c>
@@ -2815,8 +2842,8 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="14"/>
-      <c r="B88" s="14"/>
+      <c r="A88" s="15"/>
+      <c r="B88" s="15"/>
       <c r="C88" t="s">
         <v>294</v>
       </c>
@@ -2825,7 +2852,7 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="14" t="s">
+      <c r="A89" s="15" t="s">
         <v>129</v>
       </c>
       <c r="C89" t="s">
@@ -2836,7 +2863,7 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="14"/>
+      <c r="A90" s="15"/>
       <c r="C90" t="s">
         <v>131</v>
       </c>
@@ -2848,7 +2875,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="14"/>
+      <c r="A91" s="15"/>
       <c r="C91" t="s">
         <v>133</v>
       </c>
@@ -2857,7 +2884,7 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="14"/>
+      <c r="A92" s="15"/>
       <c r="C92" t="s">
         <v>134</v>
       </c>
@@ -2866,7 +2893,7 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="14"/>
+      <c r="A93" s="15"/>
       <c r="C93" t="s">
         <v>135</v>
       </c>
@@ -2875,7 +2902,7 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="14"/>
+      <c r="A94" s="15"/>
       <c r="B94" s="6"/>
       <c r="C94" t="s">
         <v>273</v>
@@ -2935,10 +2962,10 @@
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="14" t="s">
+      <c r="A100" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="B100" s="14" t="s">
+      <c r="B100" s="15" t="s">
         <v>142</v>
       </c>
       <c r="C100" t="s">
@@ -2952,8 +2979,8 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="14"/>
-      <c r="B101" s="14"/>
+      <c r="A101" s="15"/>
+      <c r="B101" s="15"/>
       <c r="C101" t="s">
         <v>150</v>
       </c>
@@ -2962,8 +2989,8 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="14"/>
-      <c r="B102" s="14"/>
+      <c r="A102" s="15"/>
+      <c r="B102" s="15"/>
       <c r="C102" t="s">
         <v>151</v>
       </c>
@@ -2972,8 +2999,8 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="14"/>
-      <c r="B103" s="14"/>
+      <c r="A103" s="15"/>
+      <c r="B103" s="15"/>
       <c r="C103" t="s">
         <v>274</v>
       </c>
@@ -2982,8 +3009,8 @@
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="14"/>
-      <c r="B104" s="14"/>
+      <c r="A104" s="15"/>
+      <c r="B104" s="15"/>
       <c r="C104" t="s">
         <v>275</v>
       </c>
@@ -2992,8 +3019,8 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="14"/>
-      <c r="B105" s="14"/>
+      <c r="A105" s="15"/>
+      <c r="B105" s="15"/>
       <c r="C105" t="s">
         <v>315</v>
       </c>
@@ -3002,8 +3029,8 @@
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="14"/>
-      <c r="B106" s="14"/>
+      <c r="A106" s="15"/>
+      <c r="B106" s="15"/>
       <c r="C106" t="s">
         <v>318</v>
       </c>
@@ -3012,8 +3039,8 @@
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="14"/>
-      <c r="B107" s="14"/>
+      <c r="A107" s="15"/>
+      <c r="B107" s="15"/>
       <c r="C107" t="s">
         <v>319</v>
       </c>
@@ -3022,8 +3049,8 @@
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="14"/>
-      <c r="B108" s="14"/>
+      <c r="A108" s="15"/>
+      <c r="B108" s="15"/>
       <c r="C108" t="s">
         <v>320</v>
       </c>
@@ -3032,8 +3059,8 @@
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="14"/>
-      <c r="B109" s="14"/>
+      <c r="A109" s="15"/>
+      <c r="B109" s="15"/>
       <c r="C109" t="s">
         <v>321</v>
       </c>
@@ -3042,8 +3069,8 @@
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="14"/>
-      <c r="B110" s="14" t="s">
+      <c r="A110" s="15"/>
+      <c r="B110" s="15" t="s">
         <v>143</v>
       </c>
       <c r="C110" t="s">
@@ -3057,8 +3084,8 @@
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="14"/>
-      <c r="B111" s="14"/>
+      <c r="A111" s="15"/>
+      <c r="B111" s="15"/>
       <c r="C111" t="s">
         <v>145</v>
       </c>
@@ -3067,8 +3094,8 @@
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="14"/>
-      <c r="B112" s="14"/>
+      <c r="A112" s="15"/>
+      <c r="B112" s="15"/>
       <c r="C112" t="s">
         <v>146</v>
       </c>
@@ -3077,8 +3104,8 @@
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="14"/>
-      <c r="B113" s="14"/>
+      <c r="A113" s="15"/>
+      <c r="B113" s="15"/>
       <c r="C113" t="s">
         <v>147</v>
       </c>
@@ -3087,8 +3114,8 @@
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="14"/>
-      <c r="B114" s="14"/>
+      <c r="A114" s="15"/>
+      <c r="B114" s="15"/>
       <c r="C114" t="s">
         <v>316</v>
       </c>
@@ -3100,7 +3127,7 @@
       <c r="A115" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="B115" s="14" t="s">
+      <c r="B115" s="15" t="s">
         <v>350</v>
       </c>
       <c r="C115" t="s">
@@ -3112,7 +3139,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="8"/>
-      <c r="B116" s="14"/>
+      <c r="B116" s="15"/>
       <c r="C116" t="s">
         <v>155</v>
       </c>
@@ -3122,7 +3149,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="8"/>
-      <c r="B117" s="14" t="s">
+      <c r="B117" s="15" t="s">
         <v>351</v>
       </c>
       <c r="C117" t="s">
@@ -3134,7 +3161,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="8"/>
-      <c r="B118" s="14"/>
+      <c r="B118" s="15"/>
       <c r="C118" t="s">
         <v>177</v>
       </c>
@@ -3147,7 +3174,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="8"/>
-      <c r="B119" s="14"/>
+      <c r="B119" s="15"/>
       <c r="C119" t="s">
         <v>349</v>
       </c>
@@ -3157,7 +3184,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="8"/>
-      <c r="B120" s="14"/>
+      <c r="B120" s="15"/>
       <c r="C120" t="s">
         <v>158</v>
       </c>
@@ -3167,7 +3194,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="8"/>
-      <c r="B121" s="14" t="s">
+      <c r="B121" s="15" t="s">
         <v>355</v>
       </c>
       <c r="C121" t="s">
@@ -3179,7 +3206,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="8"/>
-      <c r="B122" s="14"/>
+      <c r="B122" s="15"/>
       <c r="C122" t="s">
         <v>353</v>
       </c>
@@ -3189,7 +3216,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="8"/>
-      <c r="B123" s="14"/>
+      <c r="B123" s="15"/>
       <c r="C123" t="s">
         <v>354</v>
       </c>
@@ -3199,7 +3226,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="8"/>
-      <c r="B124" s="14"/>
+      <c r="B124" s="15"/>
       <c r="C124" t="s">
         <v>363</v>
       </c>
@@ -3209,7 +3236,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="8"/>
-      <c r="B125" s="14" t="s">
+      <c r="B125" s="15" t="s">
         <v>162</v>
       </c>
       <c r="C125" t="s">
@@ -3224,7 +3251,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="8"/>
-      <c r="B126" s="14"/>
+      <c r="B126" s="15"/>
       <c r="C126" t="s">
         <v>164</v>
       </c>
@@ -3237,7 +3264,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="8"/>
-      <c r="B127" s="14"/>
+      <c r="B127" s="15"/>
       <c r="C127" t="s">
         <v>166</v>
       </c>
@@ -3250,7 +3277,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="8"/>
-      <c r="B128" s="14"/>
+      <c r="B128" s="15"/>
       <c r="C128" t="s">
         <v>167</v>
       </c>
@@ -3260,7 +3287,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="8"/>
-      <c r="B129" s="14"/>
+      <c r="B129" s="15"/>
       <c r="C129" t="s">
         <v>169</v>
       </c>
@@ -3270,7 +3297,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="8"/>
-      <c r="B130" s="14"/>
+      <c r="B130" s="15"/>
       <c r="C130" t="s">
         <v>171</v>
       </c>
@@ -3280,7 +3307,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="8"/>
-      <c r="B131" s="14"/>
+      <c r="B131" s="15"/>
       <c r="C131" t="s">
         <v>193</v>
       </c>
@@ -3290,7 +3317,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="8"/>
-      <c r="B132" s="14"/>
+      <c r="B132" s="15"/>
       <c r="C132" t="s">
         <v>364</v>
       </c>
@@ -3300,7 +3327,7 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="8"/>
-      <c r="B133" s="14"/>
+      <c r="B133" s="15"/>
       <c r="C133" t="s">
         <v>365</v>
       </c>
@@ -3310,7 +3337,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="12"/>
-      <c r="B134" s="14" t="s">
+      <c r="B134" s="15" t="s">
         <v>195</v>
       </c>
       <c r="C134" t="s">
@@ -3322,7 +3349,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="8"/>
-      <c r="B135" s="14"/>
+      <c r="B135" s="15"/>
       <c r="C135" t="s">
         <v>170</v>
       </c>
@@ -3335,7 +3362,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="8"/>
-      <c r="B136" s="14" t="s">
+      <c r="B136" s="15" t="s">
         <v>173</v>
       </c>
       <c r="C136" t="s">
@@ -3350,7 +3377,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="8"/>
-      <c r="B137" s="14"/>
+      <c r="B137" s="15"/>
       <c r="C137" t="s">
         <v>175</v>
       </c>
@@ -3360,7 +3387,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="8"/>
-      <c r="B138" s="14"/>
+      <c r="B138" s="15"/>
       <c r="C138" t="s">
         <v>160</v>
       </c>
@@ -3373,7 +3400,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="8"/>
-      <c r="B139" s="14"/>
+      <c r="B139" s="15"/>
       <c r="C139" t="s">
         <v>156</v>
       </c>
@@ -3386,7 +3413,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="8"/>
-      <c r="B140" s="14"/>
+      <c r="B140" s="15"/>
       <c r="C140" t="s">
         <v>357</v>
       </c>
@@ -3456,7 +3483,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="8"/>
-      <c r="B147" s="14" t="s">
+      <c r="B147" s="15" t="s">
         <v>367</v>
       </c>
       <c r="C147" t="s">
@@ -3471,7 +3498,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="8"/>
-      <c r="B148" s="14"/>
+      <c r="B148" s="15"/>
       <c r="C148" t="s">
         <v>180</v>
       </c>
@@ -3484,7 +3511,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="8"/>
-      <c r="B149" s="14"/>
+      <c r="B149" s="15"/>
       <c r="C149" t="s">
         <v>360</v>
       </c>
@@ -3494,7 +3521,7 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="8"/>
-      <c r="B150" s="14"/>
+      <c r="B150" s="15"/>
       <c r="C150" t="s">
         <v>187</v>
       </c>
@@ -3504,7 +3531,7 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="8"/>
-      <c r="B151" s="14" t="s">
+      <c r="B151" s="15" t="s">
         <v>305</v>
       </c>
       <c r="C151" t="s">
@@ -3519,7 +3546,7 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="8"/>
-      <c r="B152" s="14"/>
+      <c r="B152" s="15"/>
       <c r="C152" t="s">
         <v>189</v>
       </c>
@@ -3532,7 +3559,7 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="8"/>
-      <c r="B153" s="14"/>
+      <c r="B153" s="15"/>
       <c r="C153" t="s">
         <v>190</v>
       </c>
@@ -3542,7 +3569,7 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="8"/>
-      <c r="B154" s="14" t="s">
+      <c r="B154" s="15" t="s">
         <v>299</v>
       </c>
       <c r="C154" t="s">
@@ -3557,7 +3584,7 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="8"/>
-      <c r="B155" s="14"/>
+      <c r="B155" s="15"/>
       <c r="C155" t="s">
         <v>298</v>
       </c>
@@ -3567,7 +3594,7 @@
     </row>
     <row r="156" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="8"/>
-      <c r="B156" s="14"/>
+      <c r="B156" s="15"/>
       <c r="C156" t="s">
         <v>300</v>
       </c>
@@ -3577,7 +3604,7 @@
     </row>
     <row r="157" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="8"/>
-      <c r="B157" s="14"/>
+      <c r="B157" s="15"/>
       <c r="C157" t="s">
         <v>301</v>
       </c>
@@ -3590,7 +3617,7 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="8"/>
-      <c r="B158" s="14"/>
+      <c r="B158" s="15"/>
       <c r="C158" t="s">
         <v>302</v>
       </c>
@@ -3603,7 +3630,7 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="8"/>
-      <c r="B159" s="14"/>
+      <c r="B159" s="15"/>
       <c r="C159" t="s">
         <v>303</v>
       </c>
@@ -3627,10 +3654,10 @@
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="14" t="s">
+      <c r="A161" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="B161" s="14" t="s">
+      <c r="B161" s="15" t="s">
         <v>255</v>
       </c>
       <c r="C161" t="s">
@@ -3644,8 +3671,8 @@
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="14"/>
-      <c r="B162" s="14"/>
+      <c r="A162" s="15"/>
+      <c r="B162" s="15"/>
       <c r="C162" t="s">
         <v>198</v>
       </c>
@@ -3657,8 +3684,8 @@
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="14"/>
-      <c r="B163" s="14"/>
+      <c r="A163" s="15"/>
+      <c r="B163" s="15"/>
       <c r="C163" t="s">
         <v>202</v>
       </c>
@@ -3667,8 +3694,8 @@
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="14"/>
-      <c r="B164" s="14"/>
+      <c r="A164" s="15"/>
+      <c r="B164" s="15"/>
       <c r="C164" t="s">
         <v>203</v>
       </c>
@@ -3677,8 +3704,8 @@
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="14"/>
-      <c r="B165" s="14"/>
+      <c r="A165" s="15"/>
+      <c r="B165" s="15"/>
       <c r="C165" t="s">
         <v>256</v>
       </c>
@@ -3687,8 +3714,8 @@
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="14"/>
-      <c r="B166" s="14"/>
+      <c r="A166" s="15"/>
+      <c r="B166" s="15"/>
       <c r="C166" t="s">
         <v>257</v>
       </c>
@@ -3697,8 +3724,8 @@
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="14"/>
-      <c r="B167" s="14"/>
+      <c r="A167" s="15"/>
+      <c r="B167" s="15"/>
       <c r="C167" t="s">
         <v>258</v>
       </c>
@@ -3707,8 +3734,8 @@
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="14"/>
-      <c r="B168" s="14"/>
+      <c r="A168" s="15"/>
+      <c r="B168" s="15"/>
       <c r="C168" t="s">
         <v>306</v>
       </c>
@@ -3717,7 +3744,7 @@
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="14"/>
+      <c r="A169" s="15"/>
       <c r="B169" s="8"/>
       <c r="C169" t="s">
         <v>200</v>
@@ -3727,7 +3754,7 @@
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="14"/>
+      <c r="A170" s="15"/>
       <c r="B170" s="8"/>
       <c r="C170" t="s">
         <v>201</v>
@@ -3737,7 +3764,7 @@
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="14"/>
+      <c r="A171" s="15"/>
       <c r="B171" s="8"/>
       <c r="C171" t="s">
         <v>204</v>
@@ -3747,7 +3774,7 @@
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="14"/>
+      <c r="A172" s="15"/>
       <c r="B172" s="8"/>
       <c r="C172" t="s">
         <v>312</v>
@@ -3757,7 +3784,7 @@
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="14"/>
+      <c r="A173" s="15"/>
       <c r="B173" s="8"/>
       <c r="C173" t="s">
         <v>313</v>
@@ -3767,8 +3794,8 @@
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="14"/>
-      <c r="B174" s="14" t="s">
+      <c r="A174" s="15"/>
+      <c r="B174" s="15" t="s">
         <v>311</v>
       </c>
       <c r="C174" t="s">
@@ -3779,8 +3806,8 @@
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="14"/>
-      <c r="B175" s="14"/>
+      <c r="A175" s="15"/>
+      <c r="B175" s="15"/>
       <c r="C175" t="s">
         <v>309</v>
       </c>
@@ -3789,8 +3816,8 @@
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="14"/>
-      <c r="B176" s="14"/>
+      <c r="A176" s="15"/>
+      <c r="B176" s="15"/>
       <c r="C176" t="s">
         <v>310</v>
       </c>
@@ -3799,10 +3826,10 @@
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="14" t="s">
+      <c r="A177" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="B177" s="14" t="s">
+      <c r="B177" s="15" t="s">
         <v>207</v>
       </c>
       <c r="C177" t="s">
@@ -3816,8 +3843,8 @@
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="14"/>
-      <c r="B178" s="14"/>
+      <c r="A178" s="15"/>
+      <c r="B178" s="15"/>
       <c r="C178" t="s">
         <v>210</v>
       </c>
@@ -3829,8 +3856,8 @@
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="14"/>
-      <c r="B179" s="14"/>
+      <c r="A179" s="15"/>
+      <c r="B179" s="15"/>
       <c r="C179" t="s">
         <v>212</v>
       </c>
@@ -3842,8 +3869,8 @@
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="14"/>
-      <c r="B180" s="14"/>
+      <c r="A180" s="15"/>
+      <c r="B180" s="15"/>
       <c r="C180" t="s">
         <v>213</v>
       </c>
@@ -3852,8 +3879,8 @@
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="14"/>
-      <c r="B181" s="14"/>
+      <c r="A181" s="15"/>
+      <c r="B181" s="15"/>
       <c r="C181" t="s">
         <v>214</v>
       </c>
@@ -3862,8 +3889,8 @@
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="14"/>
-      <c r="B182" s="14"/>
+      <c r="A182" s="15"/>
+      <c r="B182" s="15"/>
       <c r="C182" t="s">
         <v>216</v>
       </c>
@@ -3872,8 +3899,8 @@
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="14"/>
-      <c r="B183" s="14"/>
+      <c r="A183" s="15"/>
+      <c r="B183" s="15"/>
       <c r="C183" t="s">
         <v>219</v>
       </c>
@@ -3885,8 +3912,8 @@
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="14"/>
-      <c r="B184" s="14"/>
+      <c r="A184" s="15"/>
+      <c r="B184" s="15"/>
       <c r="C184" t="s">
         <v>282</v>
       </c>
@@ -3895,8 +3922,8 @@
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="14"/>
-      <c r="B185" s="14"/>
+      <c r="A185" s="15"/>
+      <c r="B185" s="15"/>
       <c r="C185" t="s">
         <v>283</v>
       </c>
@@ -3908,8 +3935,8 @@
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="14"/>
-      <c r="B186" s="14"/>
+      <c r="A186" s="15"/>
+      <c r="B186" s="15"/>
       <c r="C186" t="s">
         <v>284</v>
       </c>
@@ -3921,8 +3948,8 @@
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="14"/>
-      <c r="B187" s="14"/>
+      <c r="A187" s="15"/>
+      <c r="B187" s="15"/>
       <c r="C187" t="s">
         <v>285</v>
       </c>
@@ -3931,8 +3958,8 @@
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="14"/>
-      <c r="B188" s="14"/>
+      <c r="A188" s="15"/>
+      <c r="B188" s="15"/>
       <c r="C188" t="s">
         <v>286</v>
       </c>
@@ -3941,8 +3968,8 @@
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="14"/>
-      <c r="B189" s="14"/>
+      <c r="A189" s="15"/>
+      <c r="B189" s="15"/>
       <c r="C189" t="s">
         <v>287</v>
       </c>
@@ -3951,8 +3978,8 @@
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="14"/>
-      <c r="B190" s="14"/>
+      <c r="A190" s="15"/>
+      <c r="B190" s="15"/>
       <c r="C190" t="s">
         <v>288</v>
       </c>
@@ -3964,8 +3991,8 @@
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="14"/>
-      <c r="B191" s="14"/>
+      <c r="A191" s="15"/>
+      <c r="B191" s="15"/>
       <c r="C191" t="s">
         <v>289</v>
       </c>
@@ -3974,8 +4001,8 @@
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="14"/>
-      <c r="B192" s="14"/>
+      <c r="A192" s="15"/>
+      <c r="B192" s="15"/>
       <c r="C192" t="s">
         <v>290</v>
       </c>
@@ -3984,8 +4011,8 @@
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" s="14"/>
-      <c r="B193" s="14"/>
+      <c r="A193" s="15"/>
+      <c r="B193" s="15"/>
       <c r="C193" t="s">
         <v>291</v>
       </c>
@@ -3994,8 +4021,8 @@
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" s="14"/>
-      <c r="B194" s="14"/>
+      <c r="A194" s="15"/>
+      <c r="B194" s="15"/>
       <c r="C194" t="s">
         <v>334</v>
       </c>
@@ -4004,8 +4031,8 @@
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" s="14"/>
-      <c r="B195" s="14"/>
+      <c r="A195" s="15"/>
+      <c r="B195" s="15"/>
       <c r="C195" t="s">
         <v>335</v>
       </c>
@@ -4014,8 +4041,8 @@
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" s="14"/>
-      <c r="B196" s="14"/>
+      <c r="A196" s="15"/>
+      <c r="B196" s="15"/>
       <c r="C196" t="s">
         <v>336</v>
       </c>
@@ -4024,8 +4051,8 @@
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" s="14"/>
-      <c r="B197" s="14"/>
+      <c r="A197" s="15"/>
+      <c r="B197" s="15"/>
       <c r="C197" t="s">
         <v>61</v>
       </c>
@@ -4037,8 +4064,8 @@
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" s="14"/>
-      <c r="B198" s="14"/>
+      <c r="A198" s="15"/>
+      <c r="B198" s="15"/>
       <c r="C198" t="s">
         <v>341</v>
       </c>
@@ -4047,8 +4074,8 @@
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" s="14"/>
-      <c r="B199" s="14" t="s">
+      <c r="A199" s="15"/>
+      <c r="B199" s="15" t="s">
         <v>223</v>
       </c>
       <c r="C199" t="s">
@@ -4059,8 +4086,8 @@
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="14"/>
-      <c r="B200" s="14"/>
+      <c r="A200" s="15"/>
+      <c r="B200" s="15"/>
       <c r="C200" t="s">
         <v>222</v>
       </c>
@@ -4069,8 +4096,8 @@
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="14"/>
-      <c r="B201" s="14"/>
+      <c r="A201" s="15"/>
+      <c r="B201" s="15"/>
       <c r="C201" t="s">
         <v>224</v>
       </c>
@@ -4079,8 +4106,8 @@
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" s="14"/>
-      <c r="B202" s="14"/>
+      <c r="A202" s="15"/>
+      <c r="B202" s="15"/>
       <c r="C202" t="s">
         <v>338</v>
       </c>
@@ -4089,8 +4116,8 @@
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" s="14"/>
-      <c r="B203" s="14"/>
+      <c r="A203" s="15"/>
+      <c r="B203" s="15"/>
       <c r="C203" t="s">
         <v>339</v>
       </c>
@@ -4099,8 +4126,8 @@
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" s="14"/>
-      <c r="B204" s="14"/>
+      <c r="A204" s="15"/>
+      <c r="B204" s="15"/>
       <c r="C204" t="s">
         <v>343</v>
       </c>
@@ -4120,10 +4147,10 @@
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" s="14" t="s">
+      <c r="A206" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="B206" s="14" t="s">
+      <c r="B206" s="15" t="s">
         <v>231</v>
       </c>
       <c r="C206" t="s">
@@ -4134,8 +4161,8 @@
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" s="14"/>
-      <c r="B207" s="14"/>
+      <c r="A207" s="8"/>
+      <c r="B207" s="15"/>
       <c r="C207" t="s">
         <v>229</v>
       </c>
@@ -4144,8 +4171,8 @@
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" s="14"/>
-      <c r="B208" s="14"/>
+      <c r="A208" s="8"/>
+      <c r="B208" s="15"/>
       <c r="C208" t="s">
         <v>230</v>
       </c>
@@ -4154,8 +4181,8 @@
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" s="14"/>
-      <c r="B209" s="14" t="s">
+      <c r="A209" s="8"/>
+      <c r="B209" s="15" t="s">
         <v>234</v>
       </c>
       <c r="C209" t="s">
@@ -4169,8 +4196,8 @@
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" s="14"/>
-      <c r="B210" s="14"/>
+      <c r="A210" s="8"/>
+      <c r="B210" s="15"/>
       <c r="C210" t="s">
         <v>233</v>
       </c>
@@ -4179,7 +4206,7 @@
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" s="14"/>
+      <c r="A211" s="8"/>
       <c r="B211" s="2" t="s">
         <v>236</v>
       </c>
@@ -4194,7 +4221,7 @@
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" s="14"/>
+      <c r="A212" s="8"/>
       <c r="C212" t="s">
         <v>240</v>
       </c>
@@ -4203,7 +4230,7 @@
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" s="14"/>
+      <c r="A213" s="8"/>
       <c r="C213" t="s">
         <v>238</v>
       </c>
@@ -4212,7 +4239,7 @@
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" s="14"/>
+      <c r="A214" s="8"/>
       <c r="C214" t="s">
         <v>239</v>
       </c>
@@ -4221,8 +4248,8 @@
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" s="14"/>
-      <c r="B215" s="14" t="s">
+      <c r="A215" s="8"/>
+      <c r="B215" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C215" t="s">
@@ -4231,10 +4258,13 @@
       <c r="D215" s="1" t="s">
         <v>242</v>
       </c>
+      <c r="E215" s="1" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216" s="14"/>
-      <c r="B216" s="14"/>
+      <c r="A216" s="8"/>
+      <c r="B216" s="15"/>
       <c r="C216" t="s">
         <v>243</v>
       </c>
@@ -4243,275 +4273,280 @@
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217" s="14"/>
-      <c r="B217" s="14" t="s">
+      <c r="A217" s="8"/>
+      <c r="B217" s="15"/>
+      <c r="C217" t="s">
+        <v>377</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" s="8"/>
+      <c r="B218" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C217" t="s">
+      <c r="C218" t="s">
         <v>245</v>
-      </c>
-      <c r="D217" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" s="14"/>
-      <c r="B218" s="14"/>
-      <c r="C218" t="s">
-        <v>244</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" s="14"/>
-      <c r="B219" s="5"/>
+      <c r="A219" s="8"/>
+      <c r="B219" s="15"/>
       <c r="C219" t="s">
+        <v>244</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="8"/>
+      <c r="B220" s="5"/>
+      <c r="C220" t="s">
         <v>266</v>
       </c>
-      <c r="D219" s="1" t="s">
+      <c r="D220" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" s="14"/>
-      <c r="B220" s="6"/>
-      <c r="C220" t="s">
-        <v>269</v>
-      </c>
-      <c r="D220" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" s="14"/>
+      <c r="A221" s="8"/>
       <c r="B221" s="6"/>
       <c r="C221" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222" s="14"/>
+      <c r="A222" s="8"/>
       <c r="B222" s="6"/>
       <c r="C222" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223" s="13"/>
-      <c r="B223" s="13"/>
+      <c r="A223" s="8"/>
+      <c r="B223" s="6"/>
       <c r="C223" t="s">
-        <v>370</v>
+        <v>271</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>369</v>
+        <v>272</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="13"/>
-      <c r="B224" s="13"/>
+      <c r="B224" s="15" t="s">
+        <v>376</v>
+      </c>
       <c r="C224" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A225" s="13"/>
-      <c r="B225" s="13"/>
+      <c r="A225" s="14"/>
+      <c r="B225" s="15"/>
       <c r="C225" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D225" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" s="13"/>
+      <c r="B226" s="15"/>
+      <c r="C226" t="s">
+        <v>371</v>
+      </c>
+      <c r="D226" s="1" t="s">
         <v>369</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A226" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="C226" t="s">
-        <v>249</v>
-      </c>
-      <c r="D226" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E226" s="1">
-        <v>3.19</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="14"/>
+      <c r="B227" s="15"/>
       <c r="C227" t="s">
+        <v>374</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" s="13"/>
+      <c r="B228" s="13"/>
+      <c r="C228" t="s">
+        <v>372</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C229" t="s">
+        <v>249</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E229" s="1">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" s="15"/>
+      <c r="C230" t="s">
         <v>251</v>
       </c>
-      <c r="D227" s="1" t="s">
+      <c r="D230" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E227" s="1">
+      <c r="E230" s="1">
         <v>3.19</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A228" s="14"/>
-      <c r="B228" s="5"/>
-      <c r="C228" t="s">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" s="15"/>
+      <c r="B231" s="5"/>
+      <c r="C231" t="s">
         <v>265</v>
       </c>
-      <c r="D228" s="1" t="s">
+      <c r="D231" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229" s="14"/>
-      <c r="B229" s="11"/>
-      <c r="C229" t="s">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" s="15"/>
+      <c r="B232" s="11"/>
+      <c r="C232" t="s">
         <v>330</v>
       </c>
-      <c r="D229" s="1" t="s">
+      <c r="D232" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230" s="14"/>
-      <c r="B230" s="11"/>
-      <c r="C230" t="s">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" s="15"/>
+      <c r="B233" s="11"/>
+      <c r="C233" t="s">
         <v>331</v>
       </c>
-      <c r="D230" s="1" t="s">
+      <c r="D233" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231" s="14"/>
-      <c r="B231" s="11"/>
-      <c r="C231" t="s">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" s="15"/>
+      <c r="B234" s="11"/>
+      <c r="C234" t="s">
         <v>332</v>
       </c>
-      <c r="D231" s="1" t="s">
+      <c r="D234" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232" s="4" t="s">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C232" t="s">
+      <c r="C235" t="s">
         <v>253</v>
       </c>
-      <c r="D232" s="1" t="s">
+      <c r="D235" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E232" s="1" t="s">
+      <c r="E235" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A233" s="4"/>
-      <c r="B233" s="13"/>
-      <c r="C233" t="s">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" s="4"/>
+      <c r="B236" s="13"/>
+      <c r="C236" t="s">
         <v>368</v>
       </c>
-      <c r="D233" s="1" t="s">
+      <c r="D236" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
         <v>259</v>
       </c>
-      <c r="C234" t="s">
+      <c r="C237" t="s">
         <v>260</v>
       </c>
-      <c r="D234" s="1" t="s">
+      <c r="D237" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
         <v>262</v>
       </c>
-      <c r="C235" t="s">
+      <c r="C238" t="s">
         <v>263</v>
       </c>
-      <c r="D235" s="1" t="s">
+      <c r="D238" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
         <v>267</v>
       </c>
-      <c r="C236" t="s">
+      <c r="C239" t="s">
         <v>268</v>
       </c>
-      <c r="D236" s="1" t="s">
+      <c r="D239" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C237" t="s">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C240" t="s">
         <v>276</v>
       </c>
-      <c r="D237" s="1" t="s">
+      <c r="D240" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C238" t="s">
+    <row r="241" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C241" t="s">
         <v>277</v>
       </c>
-      <c r="D238" s="1" t="s">
+      <c r="D241" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C239" t="s">
+    <row r="242" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C242" t="s">
         <v>278</v>
       </c>
-      <c r="D239" s="1" t="s">
+      <c r="D242" s="1" t="s">
         <v>279</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B177:B198"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="A89:A94"/>
-    <mergeCell ref="B154:B159"/>
-    <mergeCell ref="B117:B120"/>
-    <mergeCell ref="B110:B114"/>
-    <mergeCell ref="A100:A114"/>
-    <mergeCell ref="B136:B140"/>
-    <mergeCell ref="B121:B124"/>
-    <mergeCell ref="B147:B150"/>
-    <mergeCell ref="B134:B135"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="B125:B133"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="B100:B109"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="A226:A231"/>
-    <mergeCell ref="B85:B88"/>
-    <mergeCell ref="A206:A222"/>
-    <mergeCell ref="B161:B168"/>
-    <mergeCell ref="B174:B176"/>
-    <mergeCell ref="A161:A176"/>
-    <mergeCell ref="B151:B153"/>
-    <mergeCell ref="B215:B216"/>
-    <mergeCell ref="B217:B218"/>
-    <mergeCell ref="B206:B208"/>
-    <mergeCell ref="B209:B210"/>
-    <mergeCell ref="A177:A204"/>
-    <mergeCell ref="B199:B204"/>
+    <mergeCell ref="B224:B227"/>
+    <mergeCell ref="B215:B217"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="B68:B70"/>
     <mergeCell ref="B5:B8"/>
@@ -4528,6 +4563,33 @@
     <mergeCell ref="B47:B48"/>
     <mergeCell ref="A42:A55"/>
     <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B100:B109"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="A229:A234"/>
+    <mergeCell ref="B85:B88"/>
+    <mergeCell ref="B161:B168"/>
+    <mergeCell ref="B174:B176"/>
+    <mergeCell ref="A161:A176"/>
+    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="B218:B219"/>
+    <mergeCell ref="B206:B208"/>
+    <mergeCell ref="B209:B210"/>
+    <mergeCell ref="A177:A204"/>
+    <mergeCell ref="B199:B204"/>
+    <mergeCell ref="B177:B198"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="A89:A94"/>
+    <mergeCell ref="B154:B159"/>
+    <mergeCell ref="B117:B120"/>
+    <mergeCell ref="B110:B114"/>
+    <mergeCell ref="A100:A114"/>
+    <mergeCell ref="B136:B140"/>
+    <mergeCell ref="B121:B124"/>
+    <mergeCell ref="B147:B150"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="B125:B133"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/时间表.xlsx
+++ b/时间表.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\360\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C94B4B-A4F6-4F4A-A86A-3CB0B5DD7051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B7E1A4-7ECB-44DC-BB0A-69F12CD0F007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9132" yWindow="1476" windowWidth="11748" windowHeight="9936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="386">
   <si>
     <t>第一次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1532,11 +1531,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>进制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>384打乱数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>238除自身以外数组的乘积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>462最少移动次数使数组元素相等2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>169多数元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>470用rand7()实现rand10()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202快乐数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中位数/众数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>461汉明距离</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1580,7 +1611,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1588,9 +1619,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1905,10 +1933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F242"/>
+  <dimension ref="A1:F248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="E147" sqref="E147"/>
+    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="D209" sqref="D209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1940,10 +1968,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>153</v>
       </c>
       <c r="C2" t="s">
@@ -1954,8 +1982,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -1964,7 +1992,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
+      <c r="A4" s="14"/>
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -1973,8 +2001,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14" t="s">
         <v>141</v>
       </c>
       <c r="C5" t="s">
@@ -1985,8 +2013,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
       <c r="C6" t="s">
         <v>138</v>
       </c>
@@ -1995,8 +2023,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
       <c r="C7" t="s">
         <v>139</v>
       </c>
@@ -2005,8 +2033,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
       <c r="C8" t="s">
         <v>140</v>
       </c>
@@ -2018,8 +2046,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14" t="s">
         <v>152</v>
       </c>
       <c r="C9" t="s">
@@ -2030,8 +2058,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
       <c r="C10" t="s">
         <v>9</v>
       </c>
@@ -2040,8 +2068,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
       <c r="C11" t="s">
         <v>10</v>
       </c>
@@ -2050,7 +2078,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
+      <c r="A12" s="14"/>
       <c r="C12" t="s">
         <v>97</v>
       </c>
@@ -2059,10 +2087,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C13" t="s">
@@ -2073,8 +2101,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -2083,8 +2111,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
       <c r="C15" t="s">
         <v>17</v>
       </c>
@@ -2093,8 +2121,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
       <c r="C16" t="s">
         <v>18</v>
       </c>
@@ -2103,8 +2131,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
       <c r="C17" t="s">
         <v>19</v>
       </c>
@@ -2113,8 +2141,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
       <c r="C18" t="s">
         <v>20</v>
       </c>
@@ -2123,8 +2151,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
       <c r="C19" t="s">
         <v>21</v>
       </c>
@@ -2133,8 +2161,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
       <c r="C20" t="s">
         <v>22</v>
       </c>
@@ -2143,8 +2171,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
       <c r="C21" t="s">
         <v>23</v>
       </c>
@@ -2153,8 +2181,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
       <c r="C22" t="s">
         <v>24</v>
       </c>
@@ -2163,8 +2191,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -2173,8 +2201,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
       <c r="C24" t="s">
         <v>26</v>
       </c>
@@ -2183,8 +2211,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
       <c r="C25" t="s">
         <v>27</v>
       </c>
@@ -2193,8 +2221,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
       <c r="C26" t="s">
         <v>28</v>
       </c>
@@ -2203,8 +2231,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
       <c r="C27" t="s">
         <v>29</v>
       </c>
@@ -2213,8 +2241,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
       <c r="C28" t="s">
         <v>30</v>
       </c>
@@ -2223,8 +2251,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
       <c r="C29" t="s">
         <v>31</v>
       </c>
@@ -2233,8 +2261,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
       <c r="C30" t="s">
         <v>32</v>
       </c>
@@ -2243,8 +2271,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
       <c r="C31" t="s">
         <v>33</v>
       </c>
@@ -2253,8 +2281,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15" t="s">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C32" t="s">
@@ -2265,8 +2293,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
       <c r="C33" t="s">
         <v>36</v>
       </c>
@@ -2275,8 +2303,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
       <c r="C34" t="s">
         <v>37</v>
       </c>
@@ -2285,8 +2313,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
       <c r="C35" t="s">
         <v>39</v>
       </c>
@@ -2295,8 +2323,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
       <c r="C36" t="s">
         <v>40</v>
       </c>
@@ -2305,8 +2333,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
       <c r="C37" t="s">
         <v>41</v>
       </c>
@@ -2315,8 +2343,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
       <c r="C38" t="s">
         <v>42</v>
       </c>
@@ -2325,8 +2353,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
       <c r="C39" t="s">
         <v>44</v>
       </c>
@@ -2335,8 +2363,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
       <c r="C40" t="s">
         <v>45</v>
       </c>
@@ -2345,7 +2373,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
+      <c r="A41" s="14"/>
       <c r="B41" s="2" t="s">
         <v>47</v>
       </c>
@@ -2357,7 +2385,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="14" t="s">
         <v>50</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -2371,7 +2399,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
+      <c r="A43" s="14"/>
       <c r="B43" s="2" t="s">
         <v>74</v>
       </c>
@@ -2383,7 +2411,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
+      <c r="A44" s="14"/>
       <c r="B44" s="2" t="s">
         <v>75</v>
       </c>
@@ -2395,8 +2423,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
-      <c r="B45" s="15" t="s">
+      <c r="A45" s="14"/>
+      <c r="B45" s="14" t="s">
         <v>76</v>
       </c>
       <c r="C45" t="s">
@@ -2407,8 +2435,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
-      <c r="B46" s="15"/>
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
       <c r="C46" t="s">
         <v>57</v>
       </c>
@@ -2417,8 +2445,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="15"/>
-      <c r="B47" s="15" t="s">
+      <c r="A47" s="14"/>
+      <c r="B47" s="14" t="s">
         <v>77</v>
       </c>
       <c r="C47" t="s">
@@ -2429,8 +2457,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="15"/>
-      <c r="B48" s="15"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
       <c r="C48" t="s">
         <v>62</v>
       </c>
@@ -2439,8 +2467,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="15"/>
-      <c r="B49" s="15" t="s">
+      <c r="A49" s="14"/>
+      <c r="B49" s="14" t="s">
         <v>78</v>
       </c>
       <c r="C49" t="s">
@@ -2451,8 +2479,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="15"/>
-      <c r="B50" s="15"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
       <c r="C50" t="s">
         <v>65</v>
       </c>
@@ -2461,8 +2489,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="15"/>
-      <c r="B51" s="15"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="14"/>
       <c r="C51" t="s">
         <v>66</v>
       </c>
@@ -2471,7 +2499,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="15"/>
+      <c r="A52" s="14"/>
       <c r="B52" s="2" t="s">
         <v>79</v>
       </c>
@@ -2483,8 +2511,8 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="15"/>
-      <c r="B53" s="15" t="s">
+      <c r="A53" s="14"/>
+      <c r="B53" s="14" t="s">
         <v>80</v>
       </c>
       <c r="C53" t="s">
@@ -2495,8 +2523,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="15"/>
-      <c r="B54" s="15"/>
+      <c r="A54" s="14"/>
+      <c r="B54" s="14"/>
       <c r="C54" t="s">
         <v>70</v>
       </c>
@@ -2505,8 +2533,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="15"/>
-      <c r="B55" s="15"/>
+      <c r="A55" s="14"/>
+      <c r="B55" s="14"/>
       <c r="C55" t="s">
         <v>71</v>
       </c>
@@ -2515,7 +2543,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="14" t="s">
         <v>81</v>
       </c>
       <c r="C56" t="s">
@@ -2526,7 +2554,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="15"/>
+      <c r="A57" s="14"/>
       <c r="C57" t="s">
         <v>83</v>
       </c>
@@ -2535,7 +2563,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="15"/>
+      <c r="A58" s="14"/>
       <c r="C58" t="s">
         <v>84</v>
       </c>
@@ -2544,7 +2572,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="15"/>
+      <c r="A59" s="14"/>
       <c r="C59" t="s">
         <v>86</v>
       </c>
@@ -2553,7 +2581,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="15"/>
+      <c r="A60" s="14"/>
       <c r="C60" t="s">
         <v>87</v>
       </c>
@@ -2562,7 +2590,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="15"/>
+      <c r="A61" s="14"/>
       <c r="C61" t="s">
         <v>89</v>
       </c>
@@ -2571,7 +2599,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="15"/>
+      <c r="A62" s="14"/>
       <c r="C62" t="s">
         <v>90</v>
       </c>
@@ -2580,7 +2608,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="15"/>
+      <c r="A63" s="14"/>
       <c r="C63" t="s">
         <v>91</v>
       </c>
@@ -2589,7 +2617,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="15"/>
+      <c r="A64" s="14"/>
       <c r="C64" t="s">
         <v>92</v>
       </c>
@@ -2598,7 +2626,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="15"/>
+      <c r="A65" s="14"/>
       <c r="C65" t="s">
         <v>94</v>
       </c>
@@ -2607,7 +2635,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="15"/>
+      <c r="A66" s="14"/>
       <c r="C66" t="s">
         <v>95</v>
       </c>
@@ -2616,8 +2644,8 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="15"/>
-      <c r="B67" s="7"/>
+      <c r="A67" s="14"/>
+      <c r="B67" s="6"/>
       <c r="C67" t="s">
         <v>280</v>
       </c>
@@ -2626,10 +2654,10 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="15" t="s">
+      <c r="A68" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B68" s="15" t="s">
+      <c r="B68" s="14" t="s">
         <v>105</v>
       </c>
       <c r="C68" t="s">
@@ -2640,8 +2668,8 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="15"/>
-      <c r="B69" s="15"/>
+      <c r="A69" s="14"/>
+      <c r="B69" s="14"/>
       <c r="C69" t="s">
         <v>101</v>
       </c>
@@ -2650,8 +2678,8 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="15"/>
-      <c r="B70" s="15"/>
+      <c r="A70" s="14"/>
+      <c r="B70" s="14"/>
       <c r="C70" t="s">
         <v>102</v>
       </c>
@@ -2660,8 +2688,8 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="15"/>
-      <c r="B71" s="15" t="s">
+      <c r="A71" s="14"/>
+      <c r="B71" s="14" t="s">
         <v>104</v>
       </c>
       <c r="C71" t="s">
@@ -2672,8 +2700,8 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="15"/>
-      <c r="B72" s="15"/>
+      <c r="A72" s="14"/>
+      <c r="B72" s="14"/>
       <c r="C72" t="s">
         <v>107</v>
       </c>
@@ -2682,8 +2710,8 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="15"/>
-      <c r="B73" s="15"/>
+      <c r="A73" s="14"/>
+      <c r="B73" s="14"/>
       <c r="C73" t="s">
         <v>108</v>
       </c>
@@ -2692,8 +2720,8 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="15"/>
-      <c r="B74" s="15" t="s">
+      <c r="A74" s="14"/>
+      <c r="B74" s="14" t="s">
         <v>113</v>
       </c>
       <c r="C74" t="s">
@@ -2704,8 +2732,8 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="15"/>
-      <c r="B75" s="15"/>
+      <c r="A75" s="14"/>
+      <c r="B75" s="14"/>
       <c r="C75" t="s">
         <v>111</v>
       </c>
@@ -2714,8 +2742,8 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="15"/>
-      <c r="B76" s="15"/>
+      <c r="A76" s="14"/>
+      <c r="B76" s="14"/>
       <c r="C76" t="s">
         <v>112</v>
       </c>
@@ -2724,8 +2752,8 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="15"/>
-      <c r="B77" s="15" t="s">
+      <c r="A77" s="14"/>
+      <c r="B77" s="14" t="s">
         <v>128</v>
       </c>
       <c r="C77" t="s">
@@ -2736,8 +2764,8 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="15"/>
-      <c r="B78" s="15"/>
+      <c r="A78" s="14"/>
+      <c r="B78" s="14"/>
       <c r="C78" t="s">
         <v>125</v>
       </c>
@@ -2746,8 +2774,8 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="15"/>
-      <c r="B79" s="15"/>
+      <c r="A79" s="14"/>
+      <c r="B79" s="14"/>
       <c r="C79" t="s">
         <v>127</v>
       </c>
@@ -2759,7 +2787,7 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="15"/>
+      <c r="A80" s="14"/>
       <c r="C80" t="s">
         <v>114</v>
       </c>
@@ -2768,8 +2796,8 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="15"/>
-      <c r="B81" s="15" t="s">
+      <c r="A81" s="14"/>
+      <c r="B81" s="14" t="s">
         <v>121</v>
       </c>
       <c r="C81" t="s">
@@ -2780,8 +2808,8 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="15"/>
-      <c r="B82" s="15"/>
+      <c r="A82" s="14"/>
+      <c r="B82" s="14"/>
       <c r="C82" t="s">
         <v>117</v>
       </c>
@@ -2790,8 +2818,8 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="15"/>
-      <c r="B83" s="15"/>
+      <c r="A83" s="14"/>
+      <c r="B83" s="14"/>
       <c r="C83" t="s">
         <v>118</v>
       </c>
@@ -2800,8 +2828,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="15"/>
-      <c r="B84" s="15"/>
+      <c r="A84" s="14"/>
+      <c r="B84" s="14"/>
       <c r="C84" t="s">
         <v>119</v>
       </c>
@@ -2810,8 +2838,8 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="15"/>
-      <c r="B85" s="15" t="s">
+      <c r="A85" s="14"/>
+      <c r="B85" s="14" t="s">
         <v>296</v>
       </c>
       <c r="C85" t="s">
@@ -2822,8 +2850,8 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="15"/>
-      <c r="B86" s="15"/>
+      <c r="A86" s="14"/>
+      <c r="B86" s="14"/>
       <c r="C86" t="s">
         <v>123</v>
       </c>
@@ -2832,8 +2860,8 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="15"/>
-      <c r="B87" s="15"/>
+      <c r="A87" s="14"/>
+      <c r="B87" s="14"/>
       <c r="C87" t="s">
         <v>293</v>
       </c>
@@ -2842,8 +2870,8 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="15"/>
-      <c r="B88" s="15"/>
+      <c r="A88" s="14"/>
+      <c r="B88" s="14"/>
       <c r="C88" t="s">
         <v>294</v>
       </c>
@@ -2852,7 +2880,7 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="15" t="s">
+      <c r="A89" s="14" t="s">
         <v>129</v>
       </c>
       <c r="C89" t="s">
@@ -2863,7 +2891,7 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="15"/>
+      <c r="A90" s="14"/>
       <c r="C90" t="s">
         <v>131</v>
       </c>
@@ -2875,7 +2903,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="15"/>
+      <c r="A91" s="14"/>
       <c r="C91" t="s">
         <v>133</v>
       </c>
@@ -2884,7 +2912,7 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="15"/>
+      <c r="A92" s="14"/>
       <c r="C92" t="s">
         <v>134</v>
       </c>
@@ -2893,7 +2921,7 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="15"/>
+      <c r="A93" s="14"/>
       <c r="C93" t="s">
         <v>135</v>
       </c>
@@ -2902,8 +2930,8 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="15"/>
-      <c r="B94" s="6"/>
+      <c r="A94" s="14"/>
+      <c r="B94" s="5"/>
       <c r="C94" t="s">
         <v>273</v>
       </c>
@@ -2912,8 +2940,8 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="9"/>
-      <c r="B95" s="9"/>
+      <c r="A95" s="8"/>
+      <c r="B95" s="8"/>
       <c r="C95" t="s">
         <v>322</v>
       </c>
@@ -2922,8 +2950,8 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="9"/>
-      <c r="B96" s="9"/>
+      <c r="A96" s="8"/>
+      <c r="B96" s="8"/>
       <c r="C96" t="s">
         <v>323</v>
       </c>
@@ -2932,8 +2960,8 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="9"/>
-      <c r="B97" s="9"/>
+      <c r="A97" s="8"/>
+      <c r="B97" s="8"/>
       <c r="C97" t="s">
         <v>324</v>
       </c>
@@ -2942,8 +2970,8 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="9"/>
-      <c r="B98" s="9"/>
+      <c r="A98" s="8"/>
+      <c r="B98" s="8"/>
       <c r="C98" t="s">
         <v>326</v>
       </c>
@@ -2952,8 +2980,8 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="10"/>
-      <c r="B99" s="10"/>
+      <c r="A99" s="9"/>
+      <c r="B99" s="9"/>
       <c r="C99" t="s">
         <v>328</v>
       </c>
@@ -2962,10 +2990,10 @@
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="15" t="s">
+      <c r="A100" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="B100" s="15" t="s">
+      <c r="B100" s="14" t="s">
         <v>142</v>
       </c>
       <c r="C100" t="s">
@@ -2979,8 +3007,8 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="15"/>
-      <c r="B101" s="15"/>
+      <c r="A101" s="14"/>
+      <c r="B101" s="14"/>
       <c r="C101" t="s">
         <v>150</v>
       </c>
@@ -2989,8 +3017,8 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="15"/>
-      <c r="B102" s="15"/>
+      <c r="A102" s="14"/>
+      <c r="B102" s="14"/>
       <c r="C102" t="s">
         <v>151</v>
       </c>
@@ -2999,8 +3027,8 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="15"/>
-      <c r="B103" s="15"/>
+      <c r="A103" s="14"/>
+      <c r="B103" s="14"/>
       <c r="C103" t="s">
         <v>274</v>
       </c>
@@ -3009,8 +3037,8 @@
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="15"/>
-      <c r="B104" s="15"/>
+      <c r="A104" s="14"/>
+      <c r="B104" s="14"/>
       <c r="C104" t="s">
         <v>275</v>
       </c>
@@ -3019,8 +3047,8 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="15"/>
-      <c r="B105" s="15"/>
+      <c r="A105" s="14"/>
+      <c r="B105" s="14"/>
       <c r="C105" t="s">
         <v>315</v>
       </c>
@@ -3029,8 +3057,8 @@
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="15"/>
-      <c r="B106" s="15"/>
+      <c r="A106" s="14"/>
+      <c r="B106" s="14"/>
       <c r="C106" t="s">
         <v>318</v>
       </c>
@@ -3039,8 +3067,8 @@
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="15"/>
-      <c r="B107" s="15"/>
+      <c r="A107" s="14"/>
+      <c r="B107" s="14"/>
       <c r="C107" t="s">
         <v>319</v>
       </c>
@@ -3049,8 +3077,8 @@
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="15"/>
-      <c r="B108" s="15"/>
+      <c r="A108" s="14"/>
+      <c r="B108" s="14"/>
       <c r="C108" t="s">
         <v>320</v>
       </c>
@@ -3059,8 +3087,8 @@
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="15"/>
-      <c r="B109" s="15"/>
+      <c r="A109" s="14"/>
+      <c r="B109" s="14"/>
       <c r="C109" t="s">
         <v>321</v>
       </c>
@@ -3069,8 +3097,8 @@
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="15"/>
-      <c r="B110" s="15" t="s">
+      <c r="A110" s="14"/>
+      <c r="B110" s="14" t="s">
         <v>143</v>
       </c>
       <c r="C110" t="s">
@@ -3084,8 +3112,8 @@
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="15"/>
-      <c r="B111" s="15"/>
+      <c r="A111" s="14"/>
+      <c r="B111" s="14"/>
       <c r="C111" t="s">
         <v>145</v>
       </c>
@@ -3094,8 +3122,8 @@
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="15"/>
-      <c r="B112" s="15"/>
+      <c r="A112" s="14"/>
+      <c r="B112" s="14"/>
       <c r="C112" t="s">
         <v>146</v>
       </c>
@@ -3104,8 +3132,8 @@
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="15"/>
-      <c r="B113" s="15"/>
+      <c r="A113" s="14"/>
+      <c r="B113" s="14"/>
       <c r="C113" t="s">
         <v>147</v>
       </c>
@@ -3114,8 +3142,8 @@
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="15"/>
-      <c r="B114" s="15"/>
+      <c r="A114" s="14"/>
+      <c r="B114" s="14"/>
       <c r="C114" t="s">
         <v>316</v>
       </c>
@@ -3124,10 +3152,10 @@
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="12" t="s">
+      <c r="A115" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="B115" s="15" t="s">
+      <c r="B115" s="14" t="s">
         <v>350</v>
       </c>
       <c r="C115" t="s">
@@ -3138,8 +3166,8 @@
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="8"/>
-      <c r="B116" s="15"/>
+      <c r="A116" s="7"/>
+      <c r="B116" s="14"/>
       <c r="C116" t="s">
         <v>155</v>
       </c>
@@ -3148,8 +3176,8 @@
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="8"/>
-      <c r="B117" s="15" t="s">
+      <c r="A117" s="7"/>
+      <c r="B117" s="14" t="s">
         <v>351</v>
       </c>
       <c r="C117" t="s">
@@ -3160,8 +3188,8 @@
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="8"/>
-      <c r="B118" s="15"/>
+      <c r="A118" s="7"/>
+      <c r="B118" s="14"/>
       <c r="C118" t="s">
         <v>177</v>
       </c>
@@ -3173,8 +3201,8 @@
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="8"/>
-      <c r="B119" s="15"/>
+      <c r="A119" s="7"/>
+      <c r="B119" s="14"/>
       <c r="C119" t="s">
         <v>349</v>
       </c>
@@ -3183,8 +3211,8 @@
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="8"/>
-      <c r="B120" s="15"/>
+      <c r="A120" s="7"/>
+      <c r="B120" s="14"/>
       <c r="C120" t="s">
         <v>158</v>
       </c>
@@ -3193,8 +3221,8 @@
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="8"/>
-      <c r="B121" s="15" t="s">
+      <c r="A121" s="7"/>
+      <c r="B121" s="14" t="s">
         <v>355</v>
       </c>
       <c r="C121" t="s">
@@ -3205,8 +3233,8 @@
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="8"/>
-      <c r="B122" s="15"/>
+      <c r="A122" s="7"/>
+      <c r="B122" s="14"/>
       <c r="C122" t="s">
         <v>353</v>
       </c>
@@ -3215,8 +3243,8 @@
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="8"/>
-      <c r="B123" s="15"/>
+      <c r="A123" s="7"/>
+      <c r="B123" s="14"/>
       <c r="C123" t="s">
         <v>354</v>
       </c>
@@ -3225,8 +3253,8 @@
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="8"/>
-      <c r="B124" s="15"/>
+      <c r="A124" s="7"/>
+      <c r="B124" s="14"/>
       <c r="C124" t="s">
         <v>363</v>
       </c>
@@ -3235,8 +3263,8 @@
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="8"/>
-      <c r="B125" s="15" t="s">
+      <c r="A125" s="7"/>
+      <c r="B125" s="14" t="s">
         <v>162</v>
       </c>
       <c r="C125" t="s">
@@ -3250,8 +3278,8 @@
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="8"/>
-      <c r="B126" s="15"/>
+      <c r="A126" s="7"/>
+      <c r="B126" s="14"/>
       <c r="C126" t="s">
         <v>164</v>
       </c>
@@ -3263,8 +3291,8 @@
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="8"/>
-      <c r="B127" s="15"/>
+      <c r="A127" s="7"/>
+      <c r="B127" s="14"/>
       <c r="C127" t="s">
         <v>166</v>
       </c>
@@ -3276,8 +3304,8 @@
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="8"/>
-      <c r="B128" s="15"/>
+      <c r="A128" s="7"/>
+      <c r="B128" s="14"/>
       <c r="C128" t="s">
         <v>167</v>
       </c>
@@ -3286,8 +3314,8 @@
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="8"/>
-      <c r="B129" s="15"/>
+      <c r="A129" s="7"/>
+      <c r="B129" s="14"/>
       <c r="C129" t="s">
         <v>169</v>
       </c>
@@ -3296,8 +3324,8 @@
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="8"/>
-      <c r="B130" s="15"/>
+      <c r="A130" s="7"/>
+      <c r="B130" s="14"/>
       <c r="C130" t="s">
         <v>171</v>
       </c>
@@ -3306,8 +3334,8 @@
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="8"/>
-      <c r="B131" s="15"/>
+      <c r="A131" s="7"/>
+      <c r="B131" s="14"/>
       <c r="C131" t="s">
         <v>193</v>
       </c>
@@ -3316,8 +3344,8 @@
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="8"/>
-      <c r="B132" s="15"/>
+      <c r="A132" s="7"/>
+      <c r="B132" s="14"/>
       <c r="C132" t="s">
         <v>364</v>
       </c>
@@ -3326,8 +3354,8 @@
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="8"/>
-      <c r="B133" s="15"/>
+      <c r="A133" s="7"/>
+      <c r="B133" s="14"/>
       <c r="C133" t="s">
         <v>365</v>
       </c>
@@ -3336,8 +3364,8 @@
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="12"/>
-      <c r="B134" s="15" t="s">
+      <c r="A134" s="11"/>
+      <c r="B134" s="14" t="s">
         <v>195</v>
       </c>
       <c r="C134" t="s">
@@ -3348,8 +3376,8 @@
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="8"/>
-      <c r="B135" s="15"/>
+      <c r="A135" s="7"/>
+      <c r="B135" s="14"/>
       <c r="C135" t="s">
         <v>170</v>
       </c>
@@ -3361,8 +3389,8 @@
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="8"/>
-      <c r="B136" s="15" t="s">
+      <c r="A136" s="7"/>
+      <c r="B136" s="14" t="s">
         <v>173</v>
       </c>
       <c r="C136" t="s">
@@ -3376,8 +3404,8 @@
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="8"/>
-      <c r="B137" s="15"/>
+      <c r="A137" s="7"/>
+      <c r="B137" s="14"/>
       <c r="C137" t="s">
         <v>175</v>
       </c>
@@ -3386,8 +3414,8 @@
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="8"/>
-      <c r="B138" s="15"/>
+      <c r="A138" s="7"/>
+      <c r="B138" s="14"/>
       <c r="C138" t="s">
         <v>160</v>
       </c>
@@ -3399,8 +3427,8 @@
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="8"/>
-      <c r="B139" s="15"/>
+      <c r="A139" s="7"/>
+      <c r="B139" s="14"/>
       <c r="C139" t="s">
         <v>156</v>
       </c>
@@ -3412,8 +3440,8 @@
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="8"/>
-      <c r="B140" s="15"/>
+      <c r="A140" s="7"/>
+      <c r="B140" s="14"/>
       <c r="C140" t="s">
         <v>357</v>
       </c>
@@ -3422,7 +3450,7 @@
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="8"/>
+      <c r="A141" s="7"/>
       <c r="C141" t="s">
         <v>178</v>
       </c>
@@ -3431,7 +3459,7 @@
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="8"/>
+      <c r="A142" s="7"/>
       <c r="C142" t="s">
         <v>182</v>
       </c>
@@ -3440,7 +3468,7 @@
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="8"/>
+      <c r="A143" s="7"/>
       <c r="C143" t="s">
         <v>179</v>
       </c>
@@ -3449,7 +3477,7 @@
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="8"/>
+      <c r="A144" s="7"/>
       <c r="C144" t="s">
         <v>181</v>
       </c>
@@ -3458,7 +3486,7 @@
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="8"/>
+      <c r="A145" s="7"/>
       <c r="C145" t="s">
         <v>184</v>
       </c>
@@ -3470,7 +3498,7 @@
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="8"/>
+      <c r="A146" s="7"/>
       <c r="B146" s="2" t="s">
         <v>247</v>
       </c>
@@ -3482,8 +3510,8 @@
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="8"/>
-      <c r="B147" s="15" t="s">
+      <c r="A147" s="7"/>
+      <c r="B147" s="14" t="s">
         <v>367</v>
       </c>
       <c r="C147" t="s">
@@ -3497,8 +3525,8 @@
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="8"/>
-      <c r="B148" s="15"/>
+      <c r="A148" s="7"/>
+      <c r="B148" s="14"/>
       <c r="C148" t="s">
         <v>180</v>
       </c>
@@ -3510,8 +3538,8 @@
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="8"/>
-      <c r="B149" s="15"/>
+      <c r="A149" s="7"/>
+      <c r="B149" s="14"/>
       <c r="C149" t="s">
         <v>360</v>
       </c>
@@ -3520,8 +3548,8 @@
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="8"/>
-      <c r="B150" s="15"/>
+      <c r="A150" s="7"/>
+      <c r="B150" s="14"/>
       <c r="C150" t="s">
         <v>187</v>
       </c>
@@ -3530,8 +3558,8 @@
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="8"/>
-      <c r="B151" s="15" t="s">
+      <c r="A151" s="7"/>
+      <c r="B151" s="14" t="s">
         <v>305</v>
       </c>
       <c r="C151" t="s">
@@ -3545,8 +3573,8 @@
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="8"/>
-      <c r="B152" s="15"/>
+      <c r="A152" s="7"/>
+      <c r="B152" s="14"/>
       <c r="C152" t="s">
         <v>189</v>
       </c>
@@ -3558,8 +3586,8 @@
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="8"/>
-      <c r="B153" s="15"/>
+      <c r="A153" s="7"/>
+      <c r="B153" s="14"/>
       <c r="C153" t="s">
         <v>190</v>
       </c>
@@ -3568,8 +3596,8 @@
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="8"/>
-      <c r="B154" s="15" t="s">
+      <c r="A154" s="7"/>
+      <c r="B154" s="14" t="s">
         <v>299</v>
       </c>
       <c r="C154" t="s">
@@ -3583,8 +3611,8 @@
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="8"/>
-      <c r="B155" s="15"/>
+      <c r="A155" s="7"/>
+      <c r="B155" s="14"/>
       <c r="C155" t="s">
         <v>298</v>
       </c>
@@ -3593,8 +3621,8 @@
       </c>
     </row>
     <row r="156" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="8"/>
-      <c r="B156" s="15"/>
+      <c r="A156" s="7"/>
+      <c r="B156" s="14"/>
       <c r="C156" t="s">
         <v>300</v>
       </c>
@@ -3603,8 +3631,8 @@
       </c>
     </row>
     <row r="157" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="8"/>
-      <c r="B157" s="15"/>
+      <c r="A157" s="7"/>
+      <c r="B157" s="14"/>
       <c r="C157" t="s">
         <v>301</v>
       </c>
@@ -3616,8 +3644,8 @@
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="8"/>
-      <c r="B158" s="15"/>
+      <c r="A158" s="7"/>
+      <c r="B158" s="14"/>
       <c r="C158" t="s">
         <v>302</v>
       </c>
@@ -3629,8 +3657,8 @@
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="8"/>
-      <c r="B159" s="15"/>
+      <c r="A159" s="7"/>
+      <c r="B159" s="14"/>
       <c r="C159" t="s">
         <v>303</v>
       </c>
@@ -3642,7 +3670,7 @@
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="8"/>
+      <c r="A160" s="7"/>
       <c r="B160" s="2" t="s">
         <v>196</v>
       </c>
@@ -3654,10 +3682,10 @@
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="15" t="s">
+      <c r="A161" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="B161" s="15" t="s">
+      <c r="B161" s="14" t="s">
         <v>255</v>
       </c>
       <c r="C161" t="s">
@@ -3671,8 +3699,8 @@
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="15"/>
-      <c r="B162" s="15"/>
+      <c r="A162" s="14"/>
+      <c r="B162" s="14"/>
       <c r="C162" t="s">
         <v>198</v>
       </c>
@@ -3684,8 +3712,8 @@
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="15"/>
-      <c r="B163" s="15"/>
+      <c r="A163" s="14"/>
+      <c r="B163" s="14"/>
       <c r="C163" t="s">
         <v>202</v>
       </c>
@@ -3694,8 +3722,8 @@
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="15"/>
-      <c r="B164" s="15"/>
+      <c r="A164" s="14"/>
+      <c r="B164" s="14"/>
       <c r="C164" t="s">
         <v>203</v>
       </c>
@@ -3704,8 +3732,8 @@
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="15"/>
-      <c r="B165" s="15"/>
+      <c r="A165" s="14"/>
+      <c r="B165" s="14"/>
       <c r="C165" t="s">
         <v>256</v>
       </c>
@@ -3714,8 +3742,8 @@
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="15"/>
-      <c r="B166" s="15"/>
+      <c r="A166" s="14"/>
+      <c r="B166" s="14"/>
       <c r="C166" t="s">
         <v>257</v>
       </c>
@@ -3724,8 +3752,8 @@
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="15"/>
-      <c r="B167" s="15"/>
+      <c r="A167" s="14"/>
+      <c r="B167" s="14"/>
       <c r="C167" t="s">
         <v>258</v>
       </c>
@@ -3734,8 +3762,8 @@
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="15"/>
-      <c r="B168" s="15"/>
+      <c r="A168" s="14"/>
+      <c r="B168" s="14"/>
       <c r="C168" t="s">
         <v>306</v>
       </c>
@@ -3744,8 +3772,8 @@
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="15"/>
-      <c r="B169" s="8"/>
+      <c r="A169" s="14"/>
+      <c r="B169" s="7"/>
       <c r="C169" t="s">
         <v>200</v>
       </c>
@@ -3754,8 +3782,8 @@
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="15"/>
-      <c r="B170" s="8"/>
+      <c r="A170" s="14"/>
+      <c r="B170" s="7"/>
       <c r="C170" t="s">
         <v>201</v>
       </c>
@@ -3764,8 +3792,8 @@
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="15"/>
-      <c r="B171" s="8"/>
+      <c r="A171" s="14"/>
+      <c r="B171" s="7"/>
       <c r="C171" t="s">
         <v>204</v>
       </c>
@@ -3774,8 +3802,8 @@
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="15"/>
-      <c r="B172" s="8"/>
+      <c r="A172" s="14"/>
+      <c r="B172" s="7"/>
       <c r="C172" t="s">
         <v>312</v>
       </c>
@@ -3784,8 +3812,8 @@
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="15"/>
-      <c r="B173" s="8"/>
+      <c r="A173" s="14"/>
+      <c r="B173" s="7"/>
       <c r="C173" t="s">
         <v>313</v>
       </c>
@@ -3794,8 +3822,8 @@
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="15"/>
-      <c r="B174" s="15" t="s">
+      <c r="A174" s="14"/>
+      <c r="B174" s="14" t="s">
         <v>311</v>
       </c>
       <c r="C174" t="s">
@@ -3806,8 +3834,8 @@
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="15"/>
-      <c r="B175" s="15"/>
+      <c r="A175" s="14"/>
+      <c r="B175" s="14"/>
       <c r="C175" t="s">
         <v>309</v>
       </c>
@@ -3816,8 +3844,8 @@
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="15"/>
-      <c r="B176" s="15"/>
+      <c r="A176" s="14"/>
+      <c r="B176" s="14"/>
       <c r="C176" t="s">
         <v>310</v>
       </c>
@@ -3826,10 +3854,10 @@
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="15" t="s">
+      <c r="A177" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="B177" s="15" t="s">
+      <c r="B177" s="14" t="s">
         <v>207</v>
       </c>
       <c r="C177" t="s">
@@ -3843,8 +3871,8 @@
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="15"/>
-      <c r="B178" s="15"/>
+      <c r="A178" s="14"/>
+      <c r="B178" s="14"/>
       <c r="C178" t="s">
         <v>210</v>
       </c>
@@ -3856,8 +3884,8 @@
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="15"/>
-      <c r="B179" s="15"/>
+      <c r="A179" s="14"/>
+      <c r="B179" s="14"/>
       <c r="C179" t="s">
         <v>212</v>
       </c>
@@ -3869,8 +3897,8 @@
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="15"/>
-      <c r="B180" s="15"/>
+      <c r="A180" s="14"/>
+      <c r="B180" s="14"/>
       <c r="C180" t="s">
         <v>213</v>
       </c>
@@ -3879,8 +3907,8 @@
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="15"/>
-      <c r="B181" s="15"/>
+      <c r="A181" s="14"/>
+      <c r="B181" s="14"/>
       <c r="C181" t="s">
         <v>214</v>
       </c>
@@ -3889,8 +3917,8 @@
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="15"/>
-      <c r="B182" s="15"/>
+      <c r="A182" s="14"/>
+      <c r="B182" s="14"/>
       <c r="C182" t="s">
         <v>216</v>
       </c>
@@ -3899,8 +3927,8 @@
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="15"/>
-      <c r="B183" s="15"/>
+      <c r="A183" s="14"/>
+      <c r="B183" s="14"/>
       <c r="C183" t="s">
         <v>219</v>
       </c>
@@ -3912,8 +3940,8 @@
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="15"/>
-      <c r="B184" s="15"/>
+      <c r="A184" s="14"/>
+      <c r="B184" s="14"/>
       <c r="C184" t="s">
         <v>282</v>
       </c>
@@ -3922,8 +3950,8 @@
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="15"/>
-      <c r="B185" s="15"/>
+      <c r="A185" s="14"/>
+      <c r="B185" s="14"/>
       <c r="C185" t="s">
         <v>283</v>
       </c>
@@ -3935,8 +3963,8 @@
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="15"/>
-      <c r="B186" s="15"/>
+      <c r="A186" s="14"/>
+      <c r="B186" s="14"/>
       <c r="C186" t="s">
         <v>284</v>
       </c>
@@ -3948,8 +3976,8 @@
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="15"/>
-      <c r="B187" s="15"/>
+      <c r="A187" s="14"/>
+      <c r="B187" s="14"/>
       <c r="C187" t="s">
         <v>285</v>
       </c>
@@ -3958,8 +3986,8 @@
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="15"/>
-      <c r="B188" s="15"/>
+      <c r="A188" s="14"/>
+      <c r="B188" s="14"/>
       <c r="C188" t="s">
         <v>286</v>
       </c>
@@ -3968,8 +3996,8 @@
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="15"/>
-      <c r="B189" s="15"/>
+      <c r="A189" s="14"/>
+      <c r="B189" s="14"/>
       <c r="C189" t="s">
         <v>287</v>
       </c>
@@ -3978,8 +4006,8 @@
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="15"/>
-      <c r="B190" s="15"/>
+      <c r="A190" s="14"/>
+      <c r="B190" s="14"/>
       <c r="C190" t="s">
         <v>288</v>
       </c>
@@ -3991,8 +4019,8 @@
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="15"/>
-      <c r="B191" s="15"/>
+      <c r="A191" s="14"/>
+      <c r="B191" s="14"/>
       <c r="C191" t="s">
         <v>289</v>
       </c>
@@ -4001,8 +4029,8 @@
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="15"/>
-      <c r="B192" s="15"/>
+      <c r="A192" s="14"/>
+      <c r="B192" s="14"/>
       <c r="C192" t="s">
         <v>290</v>
       </c>
@@ -4011,8 +4039,8 @@
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" s="15"/>
-      <c r="B193" s="15"/>
+      <c r="A193" s="14"/>
+      <c r="B193" s="14"/>
       <c r="C193" t="s">
         <v>291</v>
       </c>
@@ -4021,8 +4049,8 @@
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" s="15"/>
-      <c r="B194" s="15"/>
+      <c r="A194" s="14"/>
+      <c r="B194" s="14"/>
       <c r="C194" t="s">
         <v>334</v>
       </c>
@@ -4031,8 +4059,8 @@
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" s="15"/>
-      <c r="B195" s="15"/>
+      <c r="A195" s="14"/>
+      <c r="B195" s="14"/>
       <c r="C195" t="s">
         <v>335</v>
       </c>
@@ -4041,8 +4069,8 @@
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" s="15"/>
-      <c r="B196" s="15"/>
+      <c r="A196" s="14"/>
+      <c r="B196" s="14"/>
       <c r="C196" t="s">
         <v>336</v>
       </c>
@@ -4051,8 +4079,8 @@
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" s="15"/>
-      <c r="B197" s="15"/>
+      <c r="A197" s="14"/>
+      <c r="B197" s="14"/>
       <c r="C197" t="s">
         <v>61</v>
       </c>
@@ -4064,8 +4092,8 @@
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" s="15"/>
-      <c r="B198" s="15"/>
+      <c r="A198" s="14"/>
+      <c r="B198" s="14"/>
       <c r="C198" t="s">
         <v>341</v>
       </c>
@@ -4074,8 +4102,8 @@
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" s="15"/>
-      <c r="B199" s="15" t="s">
+      <c r="A199" s="14"/>
+      <c r="B199" s="14" t="s">
         <v>223</v>
       </c>
       <c r="C199" t="s">
@@ -4086,8 +4114,8 @@
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="15"/>
-      <c r="B200" s="15"/>
+      <c r="A200" s="14"/>
+      <c r="B200" s="14"/>
       <c r="C200" t="s">
         <v>222</v>
       </c>
@@ -4096,8 +4124,8 @@
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="15"/>
-      <c r="B201" s="15"/>
+      <c r="A201" s="14"/>
+      <c r="B201" s="14"/>
       <c r="C201" t="s">
         <v>224</v>
       </c>
@@ -4106,8 +4134,8 @@
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" s="15"/>
-      <c r="B202" s="15"/>
+      <c r="A202" s="14"/>
+      <c r="B202" s="14"/>
       <c r="C202" t="s">
         <v>338</v>
       </c>
@@ -4116,8 +4144,8 @@
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" s="15"/>
-      <c r="B203" s="15"/>
+      <c r="A203" s="14"/>
+      <c r="B203" s="14"/>
       <c r="C203" t="s">
         <v>339</v>
       </c>
@@ -4126,8 +4154,8 @@
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" s="15"/>
-      <c r="B204" s="15"/>
+      <c r="A204" s="14"/>
+      <c r="B204" s="14"/>
       <c r="C204" t="s">
         <v>343</v>
       </c>
@@ -4147,10 +4175,10 @@
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" s="8" t="s">
+      <c r="A206" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="B206" s="15" t="s">
+      <c r="B206" s="7" t="s">
         <v>231</v>
       </c>
       <c r="C206" t="s">
@@ -4161,8 +4189,8 @@
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" s="8"/>
-      <c r="B207" s="15"/>
+      <c r="A207" s="7"/>
+      <c r="B207" s="7"/>
       <c r="C207" t="s">
         <v>229</v>
       </c>
@@ -4171,8 +4199,8 @@
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" s="8"/>
-      <c r="B208" s="15"/>
+      <c r="A208" s="7"/>
+      <c r="B208" s="7"/>
       <c r="C208" t="s">
         <v>230</v>
       </c>
@@ -4181,372 +4209,464 @@
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" s="8"/>
-      <c r="B209" s="15" t="s">
+      <c r="A209" s="7"/>
+      <c r="B209" s="7"/>
+      <c r="C209" t="s">
+        <v>385</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" s="7"/>
+      <c r="B210" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="C209" t="s">
+      <c r="C210" t="s">
         <v>232</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E209" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" s="8"/>
-      <c r="B210" s="15"/>
-      <c r="C210" t="s">
-        <v>233</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>228</v>
       </c>
+      <c r="E210" s="1" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" s="8"/>
-      <c r="B211" s="2" t="s">
-        <v>236</v>
-      </c>
+      <c r="A211" s="7"/>
+      <c r="B211" s="14"/>
       <c r="C211" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E211" s="1" t="s">
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="7"/>
+      <c r="B212" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C212" t="s">
+        <v>235</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E212" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" s="8"/>
-      <c r="C212" t="s">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="7"/>
+      <c r="C213" t="s">
         <v>240</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" s="8"/>
-      <c r="C213" t="s">
-        <v>238</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" s="8"/>
+      <c r="A214" s="7"/>
       <c r="C214" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" s="8"/>
-      <c r="B215" s="15" t="s">
+      <c r="A215" s="7"/>
+      <c r="C215" t="s">
+        <v>239</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" s="7"/>
+      <c r="B216" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="C215" t="s">
+      <c r="C216" t="s">
         <v>241</v>
-      </c>
-      <c r="D215" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E215" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216" s="8"/>
-      <c r="B216" s="15"/>
-      <c r="C216" t="s">
-        <v>243</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>242</v>
       </c>
+      <c r="E216" s="1" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217" s="8"/>
-      <c r="B217" s="15"/>
+      <c r="A217" s="7"/>
+      <c r="B217" s="14"/>
       <c r="C217" t="s">
-        <v>377</v>
+        <v>243</v>
       </c>
       <c r="D217" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" s="7"/>
+      <c r="B218" s="14"/>
+      <c r="C218" t="s">
+        <v>376</v>
+      </c>
+      <c r="D218" s="1" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" s="8"/>
-      <c r="B218" s="15" t="s">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" s="7"/>
+      <c r="B219" s="14"/>
+      <c r="C219" t="s">
+        <v>381</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="7"/>
+      <c r="B220" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="C218" t="s">
+      <c r="C220" t="s">
         <v>245</v>
       </c>
-      <c r="D218" s="1" t="s">
+      <c r="D220" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" s="8"/>
-      <c r="B219" s="15"/>
-      <c r="C219" t="s">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="7"/>
+      <c r="B221" s="14"/>
+      <c r="C221" t="s">
         <v>244</v>
       </c>
-      <c r="D219" s="1" t="s">
+      <c r="D221" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" s="8"/>
-      <c r="B220" s="5"/>
-      <c r="C220" t="s">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="7"/>
+      <c r="B222" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="C222" t="s">
         <v>266</v>
       </c>
-      <c r="D220" s="1" t="s">
+      <c r="D222" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" s="8"/>
-      <c r="B221" s="6"/>
-      <c r="C221" t="s">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" s="7"/>
+      <c r="B223" s="14"/>
+      <c r="C223" t="s">
         <v>269</v>
-      </c>
-      <c r="D221" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222" s="8"/>
-      <c r="B222" s="6"/>
-      <c r="C222" t="s">
-        <v>270</v>
-      </c>
-      <c r="D222" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223" s="8"/>
-      <c r="B223" s="6"/>
-      <c r="C223" t="s">
-        <v>271</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224" s="13"/>
-      <c r="B224" s="15" t="s">
-        <v>376</v>
-      </c>
+      <c r="A224" s="7"/>
+      <c r="B224" s="14"/>
       <c r="C224" t="s">
+        <v>270</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" s="7"/>
+      <c r="B225" s="14"/>
+      <c r="C225" t="s">
+        <v>271</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" s="7"/>
+      <c r="B226" s="14"/>
+      <c r="C226" t="s">
         <v>370</v>
-      </c>
-      <c r="D224" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A225" s="14"/>
-      <c r="B225" s="15"/>
-      <c r="C225" t="s">
-        <v>373</v>
-      </c>
-      <c r="D225" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A226" s="13"/>
-      <c r="B226" s="15"/>
-      <c r="C226" t="s">
-        <v>371</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227" s="14"/>
-      <c r="B227" s="15"/>
+      <c r="A227" s="7"/>
+      <c r="B227" s="14"/>
       <c r="C227" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A228" s="13"/>
-      <c r="B228" s="13"/>
+      <c r="A228" s="7"/>
+      <c r="B228" s="14"/>
       <c r="C228" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229" s="15" t="s">
+      <c r="A229" s="7"/>
+      <c r="B229" s="14"/>
+      <c r="C229" t="s">
+        <v>374</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" s="7"/>
+      <c r="B230" s="14"/>
+      <c r="C230" t="s">
+        <v>372</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" s="7"/>
+      <c r="B231" s="13"/>
+      <c r="C231" t="s">
+        <v>377</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" s="7"/>
+      <c r="B232" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="C232" t="s">
+        <v>379</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" s="7"/>
+      <c r="B233" s="14"/>
+      <c r="C233" t="s">
+        <v>380</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" s="7"/>
+      <c r="B234" s="13"/>
+      <c r="C234" t="s">
+        <v>382</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="C229" t="s">
+      <c r="C235" t="s">
         <v>249</v>
       </c>
-      <c r="D229" s="1" t="s">
+      <c r="D235" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E229" s="1">
+      <c r="E235" s="1">
         <v>3.19</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230" s="15"/>
-      <c r="C230" t="s">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" s="14"/>
+      <c r="C236" t="s">
         <v>251</v>
       </c>
-      <c r="D230" s="1" t="s">
+      <c r="D236" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E230" s="1">
+      <c r="E236" s="1">
         <v>3.19</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231" s="15"/>
-      <c r="B231" s="5"/>
-      <c r="C231" t="s">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" s="14"/>
+      <c r="B237" s="4"/>
+      <c r="C237" t="s">
         <v>265</v>
       </c>
-      <c r="D231" s="1" t="s">
+      <c r="D237" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232" s="15"/>
-      <c r="B232" s="11"/>
-      <c r="C232" t="s">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" s="14"/>
+      <c r="B238" s="10"/>
+      <c r="C238" t="s">
         <v>330</v>
       </c>
-      <c r="D232" s="1" t="s">
+      <c r="D238" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A233" s="15"/>
-      <c r="B233" s="11"/>
-      <c r="C233" t="s">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" s="14"/>
+      <c r="B239" s="10"/>
+      <c r="C239" t="s">
         <v>331</v>
       </c>
-      <c r="D233" s="1" t="s">
+      <c r="D239" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234" s="15"/>
-      <c r="B234" s="11"/>
-      <c r="C234" t="s">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" s="14"/>
+      <c r="B240" s="10"/>
+      <c r="C240" t="s">
         <v>332</v>
       </c>
-      <c r="D234" s="1" t="s">
+      <c r="D240" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235" s="4" t="s">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="C235" t="s">
+      <c r="C241" t="s">
         <v>253</v>
       </c>
-      <c r="D235" s="1" t="s">
+      <c r="D241" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E235" s="1" t="s">
+      <c r="E241" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" s="4"/>
-      <c r="B236" s="13"/>
-      <c r="C236" t="s">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" s="14"/>
+      <c r="B242" s="12"/>
+      <c r="C242" t="s">
         <v>368</v>
       </c>
-      <c r="D236" s="1" t="s">
+      <c r="D242" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
         <v>259</v>
       </c>
-      <c r="C237" t="s">
+      <c r="C243" t="s">
         <v>260</v>
       </c>
-      <c r="D237" s="1" t="s">
+      <c r="D243" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
         <v>262</v>
       </c>
-      <c r="C238" t="s">
+      <c r="C244" t="s">
         <v>263</v>
       </c>
-      <c r="D238" s="1" t="s">
+      <c r="D244" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
         <v>267</v>
       </c>
-      <c r="C239" t="s">
+      <c r="C245" t="s">
         <v>268</v>
       </c>
-      <c r="D239" s="1" t="s">
+      <c r="D245" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C240" t="s">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C246" t="s">
         <v>276</v>
       </c>
-      <c r="D240" s="1" t="s">
+      <c r="D246" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="241" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C241" t="s">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C247" t="s">
         <v>277</v>
       </c>
-      <c r="D241" s="1" t="s">
+      <c r="D247" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="242" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C242" t="s">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C248" t="s">
         <v>278</v>
       </c>
-      <c r="D242" s="1" t="s">
+      <c r="D248" s="1" t="s">
         <v>279</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="B224:B227"/>
-    <mergeCell ref="B215:B217"/>
+  <mergeCells count="46">
+    <mergeCell ref="A241:A242"/>
+    <mergeCell ref="B216:B219"/>
+    <mergeCell ref="B232:B233"/>
+    <mergeCell ref="B222:B230"/>
+    <mergeCell ref="B136:B140"/>
+    <mergeCell ref="B121:B124"/>
+    <mergeCell ref="B147:B150"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="B125:B133"/>
+    <mergeCell ref="A235:A240"/>
+    <mergeCell ref="B85:B88"/>
+    <mergeCell ref="B161:B168"/>
+    <mergeCell ref="B174:B176"/>
+    <mergeCell ref="A161:A176"/>
+    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="B220:B221"/>
+    <mergeCell ref="B210:B211"/>
+    <mergeCell ref="A177:A204"/>
+    <mergeCell ref="B199:B204"/>
+    <mergeCell ref="B177:B198"/>
+    <mergeCell ref="A89:A94"/>
+    <mergeCell ref="B154:B159"/>
+    <mergeCell ref="B117:B120"/>
+    <mergeCell ref="B110:B114"/>
+    <mergeCell ref="A42:A55"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B100:B109"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="A100:A114"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="B68:B70"/>
     <mergeCell ref="B5:B8"/>
@@ -4561,35 +4681,6 @@
     <mergeCell ref="A56:A67"/>
     <mergeCell ref="A68:A88"/>
     <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A42:A55"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="B100:B109"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="A229:A234"/>
-    <mergeCell ref="B85:B88"/>
-    <mergeCell ref="B161:B168"/>
-    <mergeCell ref="B174:B176"/>
-    <mergeCell ref="A161:A176"/>
-    <mergeCell ref="B151:B153"/>
-    <mergeCell ref="B218:B219"/>
-    <mergeCell ref="B206:B208"/>
-    <mergeCell ref="B209:B210"/>
-    <mergeCell ref="A177:A204"/>
-    <mergeCell ref="B199:B204"/>
-    <mergeCell ref="B177:B198"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="A89:A94"/>
-    <mergeCell ref="B154:B159"/>
-    <mergeCell ref="B117:B120"/>
-    <mergeCell ref="B110:B114"/>
-    <mergeCell ref="A100:A114"/>
-    <mergeCell ref="B136:B140"/>
-    <mergeCell ref="B121:B124"/>
-    <mergeCell ref="B147:B150"/>
-    <mergeCell ref="B134:B135"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="B125:B133"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/时间表.xlsx
+++ b/时间表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\360\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B7E1A4-7ECB-44DC-BB0A-69F12CD0F007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B8E1B1-D8F7-465D-A845-FA527931C983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="391">
   <si>
     <t>第一次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1568,6 +1568,26 @@
   </si>
   <si>
     <t>461汉明距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>190颠倒二进制位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>342_4的幂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>318最大单词长度乘积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>338比特位计数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1933,10 +1953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F248"/>
+  <dimension ref="A1:F252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="D209" sqref="D209"/>
+    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="M213" sqref="M213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4187,6 +4207,9 @@
       <c r="D206" s="1" t="s">
         <v>228</v>
       </c>
+      <c r="E206" s="1" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="7"/>
@@ -4220,133 +4243,131 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="7"/>
-      <c r="B210" s="14" t="s">
-        <v>234</v>
-      </c>
+      <c r="B210" s="7"/>
       <c r="C210" t="s">
-        <v>232</v>
+        <v>386</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="7"/>
-      <c r="B211" s="14"/>
+      <c r="B211" s="7"/>
       <c r="C211" t="s">
-        <v>233</v>
+        <v>388</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>228</v>
+        <v>387</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="7"/>
-      <c r="B212" s="2" t="s">
-        <v>236</v>
-      </c>
+      <c r="B212" s="7"/>
       <c r="C212" t="s">
-        <v>235</v>
+        <v>389</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="7"/>
+      <c r="B213" s="7"/>
       <c r="C213" t="s">
-        <v>240</v>
+        <v>390</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>237</v>
+        <v>387</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="7"/>
+      <c r="B214" s="14" t="s">
+        <v>234</v>
+      </c>
       <c r="C214" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>237</v>
+        <v>228</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="7"/>
+      <c r="B215" s="14"/>
       <c r="C215" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="7"/>
-      <c r="B216" s="14" t="s">
-        <v>128</v>
+      <c r="B216" s="2" t="s">
+        <v>236</v>
       </c>
       <c r="C216" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="7"/>
-      <c r="B217" s="14"/>
       <c r="C217" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="7"/>
-      <c r="B218" s="14"/>
       <c r="C218" t="s">
-        <v>376</v>
+        <v>238</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>375</v>
+        <v>237</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="7"/>
-      <c r="B219" s="14"/>
       <c r="C219" t="s">
-        <v>381</v>
+        <v>239</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>378</v>
+        <v>237</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="7"/>
       <c r="B220" s="14" t="s">
-        <v>246</v>
+        <v>128</v>
       </c>
       <c r="C220" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>242</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="7"/>
       <c r="B221" s="14"/>
       <c r="C221" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>242</v>
@@ -4354,91 +4375,93 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="7"/>
-      <c r="B222" s="14" t="s">
-        <v>384</v>
-      </c>
+      <c r="B222" s="14"/>
       <c r="C222" t="s">
-        <v>266</v>
+        <v>376</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>264</v>
+        <v>375</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="7"/>
       <c r="B223" s="14"/>
       <c r="C223" t="s">
-        <v>269</v>
+        <v>381</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>272</v>
+        <v>378</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="7"/>
-      <c r="B224" s="14"/>
+      <c r="B224" s="14" t="s">
+        <v>246</v>
+      </c>
       <c r="C224" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="7"/>
       <c r="B225" s="14"/>
       <c r="C225" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="7"/>
-      <c r="B226" s="14"/>
+      <c r="B226" s="14" t="s">
+        <v>384</v>
+      </c>
       <c r="C226" t="s">
-        <v>370</v>
+        <v>266</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>369</v>
+        <v>264</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="7"/>
       <c r="B227" s="14"/>
       <c r="C227" t="s">
-        <v>373</v>
+        <v>269</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>375</v>
+        <v>272</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="7"/>
       <c r="B228" s="14"/>
       <c r="C228" t="s">
-        <v>371</v>
+        <v>270</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>369</v>
+        <v>272</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="7"/>
       <c r="B229" s="14"/>
       <c r="C229" t="s">
-        <v>374</v>
+        <v>271</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>375</v>
+        <v>272</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="7"/>
       <c r="B230" s="14"/>
       <c r="C230" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>369</v>
@@ -4446,227 +4469,235 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="7"/>
-      <c r="B231" s="13"/>
+      <c r="B231" s="14"/>
       <c r="C231" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="7"/>
-      <c r="B232" s="14" t="s">
-        <v>383</v>
-      </c>
+      <c r="B232" s="14"/>
       <c r="C232" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="7"/>
       <c r="B233" s="14"/>
       <c r="C233" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="7"/>
-      <c r="B234" s="13"/>
+      <c r="B234" s="14"/>
       <c r="C234" t="s">
+        <v>372</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" s="7"/>
+      <c r="B235" s="13"/>
+      <c r="C235" t="s">
+        <v>377</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" s="7"/>
+      <c r="B236" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="C236" t="s">
+        <v>379</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" s="7"/>
+      <c r="B237" s="14"/>
+      <c r="C237" t="s">
+        <v>380</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" s="7"/>
+      <c r="B238" s="13"/>
+      <c r="C238" t="s">
         <v>382</v>
       </c>
-      <c r="D234" s="1" t="s">
+      <c r="D238" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235" s="14" t="s">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="C235" t="s">
+      <c r="C239" t="s">
         <v>249</v>
       </c>
-      <c r="D235" s="1" t="s">
+      <c r="D239" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E235" s="1">
+      <c r="E239" s="1">
         <v>3.19</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" s="14"/>
-      <c r="C236" t="s">
-        <v>251</v>
-      </c>
-      <c r="D236" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E236" s="1">
-        <v>3.19</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237" s="14"/>
-      <c r="B237" s="4"/>
-      <c r="C237" t="s">
-        <v>265</v>
-      </c>
-      <c r="D237" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A238" s="14"/>
-      <c r="B238" s="10"/>
-      <c r="C238" t="s">
-        <v>330</v>
-      </c>
-      <c r="D238" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A239" s="14"/>
-      <c r="B239" s="10"/>
-      <c r="C239" t="s">
-        <v>331</v>
-      </c>
-      <c r="D239" s="1" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="14"/>
-      <c r="B240" s="10"/>
       <c r="C240" t="s">
-        <v>332</v>
+        <v>251</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>333</v>
+        <v>250</v>
+      </c>
+      <c r="E240" s="1">
+        <v>3.19</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241" s="14" t="s">
-        <v>252</v>
-      </c>
+      <c r="A241" s="14"/>
+      <c r="B241" s="4"/>
       <c r="C241" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E241" s="1" t="s">
-        <v>366</v>
+        <v>264</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="14"/>
-      <c r="B242" s="12"/>
+      <c r="B242" s="10"/>
       <c r="C242" t="s">
+        <v>330</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" s="14"/>
+      <c r="B243" s="10"/>
+      <c r="C243" t="s">
+        <v>331</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" s="14"/>
+      <c r="B244" s="10"/>
+      <c r="C244" t="s">
+        <v>332</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="C245" t="s">
+        <v>253</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" s="14"/>
+      <c r="B246" s="12"/>
+      <c r="C246" t="s">
         <v>368</v>
       </c>
-      <c r="D242" s="1" t="s">
+      <c r="D246" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
         <v>259</v>
       </c>
-      <c r="C243" t="s">
+      <c r="C247" t="s">
         <v>260</v>
       </c>
-      <c r="D243" s="1" t="s">
+      <c r="D247" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
         <v>262</v>
       </c>
-      <c r="C244" t="s">
+      <c r="C248" t="s">
         <v>263</v>
       </c>
-      <c r="D244" s="1" t="s">
+      <c r="D248" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
         <v>267</v>
       </c>
-      <c r="C245" t="s">
+      <c r="C249" t="s">
         <v>268</v>
       </c>
-      <c r="D245" s="1" t="s">
+      <c r="D249" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C246" t="s">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C250" t="s">
         <v>276</v>
       </c>
-      <c r="D246" s="1" t="s">
+      <c r="D250" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C247" t="s">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C251" t="s">
         <v>277</v>
       </c>
-      <c r="D247" s="1" t="s">
+      <c r="D251" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C248" t="s">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C252" t="s">
         <v>278</v>
       </c>
-      <c r="D248" s="1" t="s">
+      <c r="D252" s="1" t="s">
         <v>279</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A241:A242"/>
-    <mergeCell ref="B216:B219"/>
-    <mergeCell ref="B232:B233"/>
-    <mergeCell ref="B222:B230"/>
-    <mergeCell ref="B136:B140"/>
-    <mergeCell ref="B121:B124"/>
-    <mergeCell ref="B147:B150"/>
-    <mergeCell ref="B134:B135"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="B125:B133"/>
-    <mergeCell ref="A235:A240"/>
-    <mergeCell ref="B85:B88"/>
-    <mergeCell ref="B161:B168"/>
-    <mergeCell ref="B174:B176"/>
-    <mergeCell ref="A161:A176"/>
-    <mergeCell ref="B151:B153"/>
-    <mergeCell ref="B220:B221"/>
-    <mergeCell ref="B210:B211"/>
-    <mergeCell ref="A177:A204"/>
-    <mergeCell ref="B199:B204"/>
-    <mergeCell ref="B177:B198"/>
-    <mergeCell ref="A89:A94"/>
-    <mergeCell ref="B154:B159"/>
-    <mergeCell ref="B117:B120"/>
-    <mergeCell ref="B110:B114"/>
-    <mergeCell ref="A42:A55"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="B100:B109"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="A100:A114"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="B68:B70"/>
     <mergeCell ref="B5:B8"/>
@@ -4681,6 +4712,38 @@
     <mergeCell ref="A56:A67"/>
     <mergeCell ref="A68:A88"/>
     <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A42:A55"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B100:B109"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="A100:A114"/>
+    <mergeCell ref="B85:B88"/>
+    <mergeCell ref="B161:B168"/>
+    <mergeCell ref="B174:B176"/>
+    <mergeCell ref="A161:A176"/>
+    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="A89:A94"/>
+    <mergeCell ref="B154:B159"/>
+    <mergeCell ref="B117:B120"/>
+    <mergeCell ref="B110:B114"/>
+    <mergeCell ref="B121:B124"/>
+    <mergeCell ref="B147:B150"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="B125:B133"/>
+    <mergeCell ref="A245:A246"/>
+    <mergeCell ref="B220:B223"/>
+    <mergeCell ref="B236:B237"/>
+    <mergeCell ref="B226:B234"/>
+    <mergeCell ref="B136:B140"/>
+    <mergeCell ref="A239:A244"/>
+    <mergeCell ref="B224:B225"/>
+    <mergeCell ref="B214:B215"/>
+    <mergeCell ref="A177:A204"/>
+    <mergeCell ref="B199:B204"/>
+    <mergeCell ref="B177:B198"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/时间表.xlsx
+++ b/时间表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\360\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B8E1B1-D8F7-465D-A845-FA527931C983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F36EB7-1C7F-4047-B8E2-9179F3A52B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10836" yWindow="60" windowWidth="11748" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="395">
   <si>
     <t>第一次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1588,6 +1588,22 @@
   </si>
   <si>
     <t>338比特位计数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>693交替位二进制数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>476数字的补数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>260只出现1次的数字3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1953,10 +1969,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F252"/>
+  <dimension ref="A1:F255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="M213" sqref="M213"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F216" sqref="F216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4196,11 +4212,9 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="B206" s="7" t="s">
         <v>231</v>
       </c>
+      <c r="B206" s="7"/>
       <c r="C206" t="s">
         <v>227</v>
       </c>
@@ -4283,421 +4297,486 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="7"/>
-      <c r="B214" s="14" t="s">
-        <v>234</v>
-      </c>
       <c r="C214" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="7"/>
-      <c r="B215" s="14"/>
+      <c r="B215" s="7"/>
       <c r="C215" t="s">
-        <v>233</v>
+        <v>392</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>228</v>
+        <v>391</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="7"/>
-      <c r="B216" s="2" t="s">
-        <v>236</v>
-      </c>
+      <c r="B216" s="7"/>
       <c r="C216" t="s">
-        <v>235</v>
+        <v>393</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E216" s="1" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="7"/>
+      <c r="B217" s="7"/>
       <c r="C217" t="s">
-        <v>240</v>
+        <v>394</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>237</v>
+        <v>391</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" s="7"/>
+      <c r="A218" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B218" s="14" t="s">
+        <v>234</v>
+      </c>
       <c r="C218" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>237</v>
+        <v>228</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="7"/>
+      <c r="B219" s="14"/>
       <c r="C219" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="7"/>
-      <c r="B220" s="14" t="s">
-        <v>128</v>
+      <c r="B220" s="2" t="s">
+        <v>236</v>
       </c>
       <c r="C220" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="7"/>
-      <c r="B221" s="14"/>
       <c r="C221" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="7"/>
-      <c r="B222" s="14"/>
       <c r="C222" t="s">
-        <v>376</v>
+        <v>239</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>375</v>
+        <v>237</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="7"/>
-      <c r="B223" s="14"/>
+      <c r="B223" s="14" t="s">
+        <v>128</v>
+      </c>
       <c r="C223" t="s">
-        <v>381</v>
+        <v>241</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>378</v>
+        <v>242</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="7"/>
-      <c r="B224" s="14" t="s">
-        <v>246</v>
-      </c>
+      <c r="B224" s="14"/>
       <c r="C224" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="7"/>
       <c r="B225" s="14"/>
       <c r="C225" t="s">
-        <v>244</v>
+        <v>376</v>
       </c>
       <c r="D225" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="7"/>
+      <c r="B226" s="14"/>
+      <c r="C226" t="s">
+        <v>381</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" s="7"/>
+      <c r="B227" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="C227" t="s">
+        <v>245</v>
+      </c>
+      <c r="D227" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A226" s="7"/>
-      <c r="B226" s="14" t="s">
-        <v>384</v>
-      </c>
-      <c r="C226" t="s">
-        <v>266</v>
-      </c>
-      <c r="D226" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227" s="7"/>
-      <c r="B227" s="14"/>
-      <c r="C227" t="s">
-        <v>269</v>
-      </c>
-      <c r="D227" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="7"/>
       <c r="B228" s="14"/>
       <c r="C228" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="7"/>
-      <c r="B229" s="14"/>
+      <c r="B229" s="14" t="s">
+        <v>384</v>
+      </c>
       <c r="C229" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="7"/>
       <c r="B230" s="14"/>
       <c r="C230" t="s">
-        <v>370</v>
+        <v>269</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="7"/>
       <c r="B231" s="14"/>
       <c r="C231" t="s">
-        <v>373</v>
+        <v>270</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="7"/>
       <c r="B232" s="14"/>
       <c r="C232" t="s">
-        <v>371</v>
+        <v>271</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="7"/>
       <c r="B233" s="14"/>
       <c r="C233" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="7"/>
       <c r="B234" s="14"/>
       <c r="C234" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D234" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" s="7"/>
+      <c r="B235" s="14"/>
+      <c r="C235" t="s">
+        <v>371</v>
+      </c>
+      <c r="D235" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235" s="7"/>
-      <c r="B235" s="13"/>
-      <c r="C235" t="s">
-        <v>377</v>
-      </c>
-      <c r="D235" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="7"/>
-      <c r="B236" s="14" t="s">
-        <v>383</v>
-      </c>
+      <c r="B236" s="14"/>
       <c r="C236" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="7"/>
       <c r="B237" s="14"/>
       <c r="C237" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="7"/>
       <c r="B238" s="13"/>
       <c r="C238" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A239" s="14" t="s">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" s="7"/>
+      <c r="B239" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="C239" t="s">
+        <v>379</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" s="7"/>
+      <c r="B240" s="14"/>
+      <c r="C240" t="s">
+        <v>380</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" s="7"/>
+      <c r="B241" s="13"/>
+      <c r="C241" t="s">
+        <v>382</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="C239" t="s">
+      <c r="C242" t="s">
         <v>249</v>
       </c>
-      <c r="D239" s="1" t="s">
+      <c r="D242" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E239" s="1">
+      <c r="E242" s="1">
         <v>3.19</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A240" s="14"/>
-      <c r="C240" t="s">
-        <v>251</v>
-      </c>
-      <c r="D240" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E240" s="1">
-        <v>3.19</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241" s="14"/>
-      <c r="B241" s="4"/>
-      <c r="C241" t="s">
-        <v>265</v>
-      </c>
-      <c r="D241" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A242" s="14"/>
-      <c r="B242" s="10"/>
-      <c r="C242" t="s">
-        <v>330</v>
-      </c>
-      <c r="D242" s="1" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="14"/>
-      <c r="B243" s="10"/>
       <c r="C243" t="s">
-        <v>331</v>
+        <v>251</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>333</v>
+        <v>250</v>
+      </c>
+      <c r="E243" s="1">
+        <v>3.19</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="14"/>
-      <c r="B244" s="10"/>
+      <c r="B244" s="4"/>
       <c r="C244" t="s">
-        <v>332</v>
+        <v>265</v>
       </c>
       <c r="D244" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" s="14"/>
+      <c r="B245" s="10"/>
+      <c r="C245" t="s">
+        <v>330</v>
+      </c>
+      <c r="D245" s="1" t="s">
         <v>333</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A245" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="C245" t="s">
-        <v>253</v>
-      </c>
-      <c r="D245" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E245" s="1" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="14"/>
-      <c r="B246" s="12"/>
+      <c r="B246" s="10"/>
       <c r="C246" t="s">
+        <v>331</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" s="14"/>
+      <c r="B247" s="10"/>
+      <c r="C247" t="s">
+        <v>332</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="C248" t="s">
+        <v>253</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" s="14"/>
+      <c r="B249" s="12"/>
+      <c r="C249" t="s">
         <v>368</v>
       </c>
-      <c r="D246" s="1" t="s">
+      <c r="D249" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
         <v>259</v>
       </c>
-      <c r="C247" t="s">
+      <c r="C250" t="s">
         <v>260</v>
       </c>
-      <c r="D247" s="1" t="s">
+      <c r="D250" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
         <v>262</v>
       </c>
-      <c r="C248" t="s">
+      <c r="C251" t="s">
         <v>263</v>
       </c>
-      <c r="D248" s="1" t="s">
+      <c r="D251" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
         <v>267</v>
       </c>
-      <c r="C249" t="s">
+      <c r="C252" t="s">
         <v>268</v>
       </c>
-      <c r="D249" s="1" t="s">
+      <c r="D252" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C250" t="s">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C253" t="s">
         <v>276</v>
       </c>
-      <c r="D250" s="1" t="s">
+      <c r="D253" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C251" t="s">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C254" t="s">
         <v>277</v>
       </c>
-      <c r="D251" s="1" t="s">
+      <c r="D254" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C252" t="s">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C255" t="s">
         <v>278</v>
       </c>
-      <c r="D252" s="1" t="s">
+      <c r="D255" s="1" t="s">
         <v>279</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="A248:A249"/>
+    <mergeCell ref="B223:B226"/>
+    <mergeCell ref="B239:B240"/>
+    <mergeCell ref="B229:B237"/>
+    <mergeCell ref="B136:B140"/>
+    <mergeCell ref="A242:A247"/>
+    <mergeCell ref="B227:B228"/>
+    <mergeCell ref="B218:B219"/>
+    <mergeCell ref="A177:A204"/>
+    <mergeCell ref="B199:B204"/>
+    <mergeCell ref="B177:B198"/>
+    <mergeCell ref="B161:B168"/>
+    <mergeCell ref="B174:B176"/>
+    <mergeCell ref="A161:A176"/>
+    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="A89:A94"/>
+    <mergeCell ref="B154:B159"/>
+    <mergeCell ref="B117:B120"/>
+    <mergeCell ref="B110:B114"/>
+    <mergeCell ref="B121:B124"/>
+    <mergeCell ref="B147:B150"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="B125:B133"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B100:B109"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="A100:A114"/>
+    <mergeCell ref="B85:B88"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="B68:B70"/>
     <mergeCell ref="B5:B8"/>
@@ -4714,36 +4793,6 @@
     <mergeCell ref="B47:B48"/>
     <mergeCell ref="A42:A55"/>
     <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="B100:B109"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="A100:A114"/>
-    <mergeCell ref="B85:B88"/>
-    <mergeCell ref="B161:B168"/>
-    <mergeCell ref="B174:B176"/>
-    <mergeCell ref="A161:A176"/>
-    <mergeCell ref="B151:B153"/>
-    <mergeCell ref="A89:A94"/>
-    <mergeCell ref="B154:B159"/>
-    <mergeCell ref="B117:B120"/>
-    <mergeCell ref="B110:B114"/>
-    <mergeCell ref="B121:B124"/>
-    <mergeCell ref="B147:B150"/>
-    <mergeCell ref="B134:B135"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="B125:B133"/>
-    <mergeCell ref="A245:A246"/>
-    <mergeCell ref="B220:B223"/>
-    <mergeCell ref="B236:B237"/>
-    <mergeCell ref="B226:B234"/>
-    <mergeCell ref="B136:B140"/>
-    <mergeCell ref="A239:A244"/>
-    <mergeCell ref="B224:B225"/>
-    <mergeCell ref="B214:B215"/>
-    <mergeCell ref="A177:A204"/>
-    <mergeCell ref="B199:B204"/>
-    <mergeCell ref="B177:B198"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/时间表.xlsx
+++ b/时间表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\360\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F36EB7-1C7F-4047-B8E2-9179F3A52B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3205B1CC-9217-42C1-BFAB-95FDF6D33876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10836" yWindow="60" windowWidth="11748" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="400">
   <si>
     <t>第一次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1604,6 +1604,26 @@
   </si>
   <si>
     <t>260只出现1次的数字3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>155最小栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>769最多能完成的排序块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>240搜索矩阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>448找到所有数组中的消失数字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1647,7 +1667,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1667,6 +1687,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1969,10 +1992,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F255"/>
+  <dimension ref="A1:F259"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F216" sqref="F216"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2004,10 +2027,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>153</v>
       </c>
       <c r="C2" t="s">
@@ -2018,8 +2041,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -2028,7 +2051,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
+      <c r="A4" s="15"/>
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -2037,8 +2060,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15" t="s">
         <v>141</v>
       </c>
       <c r="C5" t="s">
@@ -2049,8 +2072,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
       <c r="C6" t="s">
         <v>138</v>
       </c>
@@ -2059,8 +2082,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
       <c r="C7" t="s">
         <v>139</v>
       </c>
@@ -2069,8 +2092,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
       <c r="C8" t="s">
         <v>140</v>
       </c>
@@ -2082,8 +2105,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15" t="s">
         <v>152</v>
       </c>
       <c r="C9" t="s">
@@ -2094,8 +2117,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
       <c r="C10" t="s">
         <v>9</v>
       </c>
@@ -2104,8 +2127,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
       <c r="C11" t="s">
         <v>10</v>
       </c>
@@ -2114,7 +2137,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
+      <c r="A12" s="15"/>
       <c r="C12" t="s">
         <v>97</v>
       </c>
@@ -2123,10 +2146,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="15" t="s">
         <v>13</v>
       </c>
       <c r="C13" t="s">
@@ -2137,8 +2160,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -2147,8 +2170,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
       <c r="C15" t="s">
         <v>17</v>
       </c>
@@ -2157,8 +2180,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
       <c r="C16" t="s">
         <v>18</v>
       </c>
@@ -2167,8 +2190,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
       <c r="C17" t="s">
         <v>19</v>
       </c>
@@ -2177,8 +2200,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
       <c r="C18" t="s">
         <v>20</v>
       </c>
@@ -2187,8 +2210,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
       <c r="C19" t="s">
         <v>21</v>
       </c>
@@ -2197,8 +2220,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
       <c r="C20" t="s">
         <v>22</v>
       </c>
@@ -2207,8 +2230,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
       <c r="C21" t="s">
         <v>23</v>
       </c>
@@ -2217,8 +2240,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
       <c r="C22" t="s">
         <v>24</v>
       </c>
@@ -2227,8 +2250,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -2237,8 +2260,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
       <c r="C24" t="s">
         <v>26</v>
       </c>
@@ -2247,8 +2270,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
       <c r="C25" t="s">
         <v>27</v>
       </c>
@@ -2257,8 +2280,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
       <c r="C26" t="s">
         <v>28</v>
       </c>
@@ -2267,8 +2290,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
       <c r="C27" t="s">
         <v>29</v>
       </c>
@@ -2277,8 +2300,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
       <c r="C28" t="s">
         <v>30</v>
       </c>
@@ -2287,8 +2310,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
       <c r="C29" t="s">
         <v>31</v>
       </c>
@@ -2297,8 +2320,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
       <c r="C30" t="s">
         <v>32</v>
       </c>
@@ -2307,8 +2330,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
       <c r="C31" t="s">
         <v>33</v>
       </c>
@@ -2317,8 +2340,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14" t="s">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15" t="s">
         <v>34</v>
       </c>
       <c r="C32" t="s">
@@ -2329,8 +2352,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
       <c r="C33" t="s">
         <v>36</v>
       </c>
@@ -2339,8 +2362,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
       <c r="C34" t="s">
         <v>37</v>
       </c>
@@ -2349,8 +2372,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
       <c r="C35" t="s">
         <v>39</v>
       </c>
@@ -2359,8 +2382,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
       <c r="C36" t="s">
         <v>40</v>
       </c>
@@ -2369,8 +2392,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
       <c r="C37" t="s">
         <v>41</v>
       </c>
@@ -2379,8 +2402,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
       <c r="C38" t="s">
         <v>42</v>
       </c>
@@ -2389,8 +2412,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
       <c r="C39" t="s">
         <v>44</v>
       </c>
@@ -2399,8 +2422,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
       <c r="C40" t="s">
         <v>45</v>
       </c>
@@ -2409,7 +2432,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
+      <c r="A41" s="15"/>
       <c r="B41" s="2" t="s">
         <v>47</v>
       </c>
@@ -2421,7 +2444,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="15" t="s">
         <v>50</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -2435,7 +2458,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
+      <c r="A43" s="15"/>
       <c r="B43" s="2" t="s">
         <v>74</v>
       </c>
@@ -2447,7 +2470,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
+      <c r="A44" s="15"/>
       <c r="B44" s="2" t="s">
         <v>75</v>
       </c>
@@ -2459,8 +2482,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14" t="s">
+      <c r="A45" s="15"/>
+      <c r="B45" s="15" t="s">
         <v>76</v>
       </c>
       <c r="C45" t="s">
@@ -2471,8 +2494,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
+      <c r="A46" s="15"/>
+      <c r="B46" s="15"/>
       <c r="C46" t="s">
         <v>57</v>
       </c>
@@ -2481,8 +2504,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14" t="s">
+      <c r="A47" s="15"/>
+      <c r="B47" s="15" t="s">
         <v>77</v>
       </c>
       <c r="C47" t="s">
@@ -2493,8 +2516,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
+      <c r="A48" s="15"/>
+      <c r="B48" s="15"/>
       <c r="C48" t="s">
         <v>62</v>
       </c>
@@ -2502,9 +2525,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="15"/>
+      <c r="B49" s="15" t="s">
         <v>78</v>
       </c>
       <c r="C49" t="s">
@@ -2514,9 +2537,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="15"/>
+      <c r="B50" s="15"/>
       <c r="C50" t="s">
         <v>65</v>
       </c>
@@ -2524,9 +2547,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
-      <c r="B51" s="14"/>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="15"/>
+      <c r="B51" s="15"/>
       <c r="C51" t="s">
         <v>66</v>
       </c>
@@ -2534,8 +2557,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="15"/>
       <c r="B52" s="2" t="s">
         <v>79</v>
       </c>
@@ -2546,9 +2569,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
-      <c r="B53" s="14" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="15"/>
+      <c r="B53" s="15" t="s">
         <v>80</v>
       </c>
       <c r="C53" t="s">
@@ -2558,9 +2581,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
-      <c r="B54" s="14"/>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="15"/>
+      <c r="B54" s="15"/>
       <c r="C54" t="s">
         <v>70</v>
       </c>
@@ -2568,9 +2591,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="14"/>
-      <c r="B55" s="14"/>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="15"/>
+      <c r="B55" s="15"/>
       <c r="C55" t="s">
         <v>71</v>
       </c>
@@ -2578,8 +2601,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="14" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="15" t="s">
         <v>81</v>
       </c>
       <c r="C56" t="s">
@@ -2589,8 +2612,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="15"/>
       <c r="C57" t="s">
         <v>83</v>
       </c>
@@ -2598,8 +2621,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="15"/>
       <c r="C58" t="s">
         <v>84</v>
       </c>
@@ -2607,8 +2630,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="15"/>
       <c r="C59" t="s">
         <v>86</v>
       </c>
@@ -2616,8 +2639,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="15"/>
       <c r="C60" t="s">
         <v>87</v>
       </c>
@@ -2625,8 +2648,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="14"/>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="15"/>
       <c r="C61" t="s">
         <v>89</v>
       </c>
@@ -2634,17 +2657,20 @@
         <v>93</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="15"/>
       <c r="C62" t="s">
         <v>90</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
+      <c r="E62" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="15"/>
       <c r="C63" t="s">
         <v>91</v>
       </c>
@@ -2652,8 +2678,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="14"/>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="15"/>
       <c r="C64" t="s">
         <v>92</v>
       </c>
@@ -2662,16 +2688,19 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="14"/>
+      <c r="A65" s="15"/>
       <c r="C65" t="s">
         <v>94</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="E65" s="1" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="14"/>
+      <c r="A66" s="15"/>
       <c r="C66" t="s">
         <v>95</v>
       </c>
@@ -2680,7 +2709,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="14"/>
+      <c r="A67" s="15"/>
       <c r="B67" s="6"/>
       <c r="C67" t="s">
         <v>280</v>
@@ -2690,805 +2719,803 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="14" t="s">
+      <c r="A68" s="14"/>
+      <c r="B68" s="14"/>
+      <c r="C68" t="s">
+        <v>396</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B69" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C69" t="s">
         <v>100</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="14"/>
-      <c r="B69" s="14"/>
-      <c r="C69" t="s">
-        <v>101</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="14"/>
-      <c r="B70" s="14"/>
+      <c r="A70" s="15"/>
+      <c r="B70" s="15"/>
       <c r="C70" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="14"/>
-      <c r="B71" s="14" t="s">
-        <v>104</v>
-      </c>
+      <c r="A71" s="15"/>
+      <c r="B71" s="15"/>
       <c r="C71" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="14"/>
-      <c r="B72" s="14"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="15" t="s">
+        <v>104</v>
+      </c>
       <c r="C72" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="14"/>
-      <c r="B73" s="14"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="15"/>
       <c r="C73" t="s">
+        <v>107</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="15"/>
+      <c r="B74" s="15"/>
+      <c r="C74" t="s">
         <v>108</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="14"/>
-      <c r="B74" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="C74" t="s">
-        <v>110</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="14"/>
-      <c r="B75" s="14"/>
+      <c r="A75" s="15"/>
+      <c r="B75" s="15" t="s">
+        <v>113</v>
+      </c>
       <c r="C75" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>109</v>
       </c>
+      <c r="E75" s="1" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="14"/>
-      <c r="B76" s="14"/>
+      <c r="A76" s="15"/>
+      <c r="B76" s="15"/>
       <c r="C76" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="14"/>
-      <c r="B77" s="14" t="s">
+      <c r="A77" s="15"/>
+      <c r="B77" s="15"/>
+      <c r="C77" t="s">
+        <v>112</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="15"/>
+      <c r="B78" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C78" t="s">
         <v>124</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="14"/>
-      <c r="B78" s="14"/>
-      <c r="C78" t="s">
-        <v>125</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="14"/>
-      <c r="B79" s="14"/>
+      <c r="A79" s="15"/>
+      <c r="B79" s="15"/>
       <c r="C79" t="s">
+        <v>125</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="15"/>
+      <c r="B80" s="15"/>
+      <c r="C80" t="s">
         <v>127</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="14"/>
-      <c r="C80" t="s">
-        <v>114</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>115</v>
       </c>
+      <c r="E80" s="1" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="14"/>
-      <c r="B81" s="14" t="s">
+      <c r="A81" s="15"/>
+      <c r="C81" t="s">
+        <v>114</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="15"/>
+      <c r="B82" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C82" t="s">
         <v>116</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="14"/>
-      <c r="B82" s="14"/>
-      <c r="C82" t="s">
-        <v>117</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="14"/>
-      <c r="B83" s="14"/>
+      <c r="A83" s="15"/>
+      <c r="B83" s="15"/>
       <c r="C83" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="14"/>
-      <c r="B84" s="14"/>
+      <c r="A84" s="15"/>
+      <c r="B84" s="15"/>
       <c r="C84" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="14"/>
-      <c r="B85" s="14" t="s">
-        <v>296</v>
-      </c>
+      <c r="A85" s="15"/>
+      <c r="B85" s="15"/>
       <c r="C85" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="14"/>
-      <c r="B86" s="14"/>
+      <c r="A86" s="15"/>
+      <c r="B86" s="15" t="s">
+        <v>296</v>
+      </c>
       <c r="C86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="14"/>
-      <c r="B87" s="14"/>
+      <c r="A87" s="15"/>
+      <c r="B87" s="15"/>
       <c r="C87" t="s">
+        <v>123</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="15"/>
+      <c r="B88" s="15"/>
+      <c r="C88" t="s">
         <v>293</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="14"/>
-      <c r="B88" s="14"/>
-      <c r="C88" t="s">
-        <v>294</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="14" t="s">
-        <v>129</v>
-      </c>
+      <c r="A89" s="15"/>
+      <c r="B89" s="15"/>
       <c r="C89" t="s">
-        <v>130</v>
+        <v>294</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>132</v>
+        <v>295</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="14"/>
+      <c r="B90" s="14"/>
       <c r="C90" t="s">
-        <v>131</v>
+        <v>397</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E90" s="1">
-        <v>3.17</v>
+        <v>395</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="14"/>
+      <c r="B91" s="14"/>
       <c r="C91" t="s">
-        <v>133</v>
+        <v>398</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>136</v>
+        <v>395</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="14"/>
+      <c r="B92" s="14"/>
       <c r="C92" t="s">
+        <v>399</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C93" t="s">
+        <v>130</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="15"/>
+      <c r="C94" t="s">
+        <v>131</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E94" s="1">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="15"/>
+      <c r="C95" t="s">
+        <v>133</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="15"/>
+      <c r="C96" t="s">
         <v>134</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D96" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="14"/>
-      <c r="C93" t="s">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="15"/>
+      <c r="C97" t="s">
         <v>135</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D97" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="14"/>
-      <c r="B94" s="5"/>
-      <c r="C94" t="s">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="15"/>
+      <c r="B98" s="5"/>
+      <c r="C98" t="s">
         <v>273</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D98" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="8"/>
-      <c r="B95" s="8"/>
-      <c r="C95" t="s">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="8"/>
+      <c r="B99" s="8"/>
+      <c r="C99" t="s">
         <v>322</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D99" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="8"/>
-      <c r="B96" s="8"/>
-      <c r="C96" t="s">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="8"/>
+      <c r="B100" s="8"/>
+      <c r="C100" t="s">
         <v>323</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D100" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="8"/>
-      <c r="B97" s="8"/>
-      <c r="C97" t="s">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="8"/>
+      <c r="B101" s="8"/>
+      <c r="C101" t="s">
         <v>324</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D101" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="8"/>
-      <c r="B98" s="8"/>
-      <c r="C98" t="s">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="8"/>
+      <c r="B102" s="8"/>
+      <c r="C102" t="s">
         <v>326</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D102" s="1" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="9"/>
-      <c r="B99" s="9"/>
-      <c r="C99" t="s">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="9"/>
+      <c r="B103" s="9"/>
+      <c r="C103" t="s">
         <v>328</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D103" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="14" t="s">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="B100" s="14" t="s">
+      <c r="B104" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C104" t="s">
         <v>149</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D104" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E100" s="1">
+      <c r="E104" s="1">
         <v>3.15</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="14"/>
-      <c r="B101" s="14"/>
-      <c r="C101" t="s">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="15"/>
+      <c r="B105" s="15"/>
+      <c r="C105" t="s">
         <v>150</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D105" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="14"/>
-      <c r="B102" s="14"/>
-      <c r="C102" t="s">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="15"/>
+      <c r="B106" s="15"/>
+      <c r="C106" t="s">
         <v>151</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D106" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="14"/>
-      <c r="B103" s="14"/>
-      <c r="C103" t="s">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="15"/>
+      <c r="B107" s="15"/>
+      <c r="C107" t="s">
         <v>274</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D107" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="14"/>
-      <c r="B104" s="14"/>
-      <c r="C104" t="s">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="15"/>
+      <c r="B108" s="15"/>
+      <c r="C108" t="s">
         <v>275</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D108" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="14"/>
-      <c r="B105" s="14"/>
-      <c r="C105" t="s">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="15"/>
+      <c r="B109" s="15"/>
+      <c r="C109" t="s">
         <v>315</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D109" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="14"/>
-      <c r="B106" s="14"/>
-      <c r="C106" t="s">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="15"/>
+      <c r="B110" s="15"/>
+      <c r="C110" t="s">
         <v>318</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="D110" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="14"/>
-      <c r="B107" s="14"/>
-      <c r="C107" t="s">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="15"/>
+      <c r="B111" s="15"/>
+      <c r="C111" t="s">
         <v>319</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D111" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="14"/>
-      <c r="B108" s="14"/>
-      <c r="C108" t="s">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="15"/>
+      <c r="B112" s="15"/>
+      <c r="C112" t="s">
         <v>320</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="D112" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="14"/>
-      <c r="B109" s="14"/>
-      <c r="C109" t="s">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="15"/>
+      <c r="B113" s="15"/>
+      <c r="C113" t="s">
         <v>321</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D113" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="14"/>
-      <c r="B110" s="14" t="s">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="15"/>
+      <c r="B114" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C114" t="s">
         <v>144</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="D114" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E110" s="1">
+      <c r="E114" s="1">
         <v>3.16</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="14"/>
-      <c r="B111" s="14"/>
-      <c r="C111" t="s">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="15"/>
+      <c r="B115" s="15"/>
+      <c r="C115" t="s">
         <v>145</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="D115" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="14"/>
-      <c r="B112" s="14"/>
-      <c r="C112" t="s">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="15"/>
+      <c r="B116" s="15"/>
+      <c r="C116" t="s">
         <v>146</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="D116" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="14"/>
-      <c r="B113" s="14"/>
-      <c r="C113" t="s">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="15"/>
+      <c r="B117" s="15"/>
+      <c r="C117" t="s">
         <v>147</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="D117" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="14"/>
-      <c r="B114" s="14"/>
-      <c r="C114" t="s">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="15"/>
+      <c r="B118" s="15"/>
+      <c r="C118" t="s">
         <v>316</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="D118" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="11" t="s">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="B115" s="14" t="s">
+      <c r="B119" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C119" t="s">
         <v>344</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="D119" s="1" t="s">
         <v>346</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="7"/>
-      <c r="B116" s="14"/>
-      <c r="C116" t="s">
-        <v>155</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="7"/>
-      <c r="B117" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="C117" t="s">
-        <v>347</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="7"/>
-      <c r="B118" s="14"/>
-      <c r="C118" t="s">
-        <v>177</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E118" s="1">
-        <v>3.26</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="7"/>
-      <c r="B119" s="14"/>
-      <c r="C119" t="s">
-        <v>349</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="7"/>
-      <c r="B120" s="14"/>
+      <c r="B120" s="15"/>
       <c r="C120" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="7"/>
-      <c r="B121" s="14" t="s">
-        <v>355</v>
+      <c r="B121" s="15" t="s">
+        <v>351</v>
       </c>
       <c r="C121" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="7"/>
-      <c r="B122" s="14"/>
+      <c r="B122" s="15"/>
       <c r="C122" t="s">
-        <v>353</v>
+        <v>177</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>356</v>
+        <v>176</v>
+      </c>
+      <c r="E122" s="1">
+        <v>3.26</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="7"/>
-      <c r="B123" s="14"/>
+      <c r="B123" s="15"/>
       <c r="C123" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="7"/>
-      <c r="B124" s="14"/>
+      <c r="B124" s="15"/>
       <c r="C124" t="s">
-        <v>363</v>
+        <v>158</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>362</v>
+        <v>159</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="7"/>
-      <c r="B125" s="14" t="s">
-        <v>162</v>
+      <c r="B125" s="15" t="s">
+        <v>355</v>
       </c>
       <c r="C125" t="s">
-        <v>163</v>
+        <v>352</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E125" s="1">
-        <v>3.28</v>
+        <v>356</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="7"/>
-      <c r="B126" s="14"/>
+      <c r="B126" s="15"/>
       <c r="C126" t="s">
-        <v>164</v>
+        <v>353</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E126" s="1">
-        <v>3.28</v>
+        <v>356</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="7"/>
-      <c r="B127" s="14"/>
+      <c r="B127" s="15"/>
       <c r="C127" t="s">
-        <v>166</v>
+        <v>354</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="7"/>
-      <c r="B128" s="14"/>
+      <c r="B128" s="15"/>
       <c r="C128" t="s">
-        <v>167</v>
+        <v>363</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>161</v>
+        <v>362</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="7"/>
-      <c r="B129" s="14"/>
+      <c r="B129" s="15" t="s">
+        <v>162</v>
+      </c>
       <c r="C129" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
+      </c>
+      <c r="E129" s="1">
+        <v>3.28</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="7"/>
-      <c r="B130" s="14"/>
+      <c r="B130" s="15"/>
       <c r="C130" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
+      </c>
+      <c r="E130" s="1">
+        <v>3.28</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="7"/>
-      <c r="B131" s="14"/>
+      <c r="B131" s="15"/>
       <c r="C131" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>194</v>
+        <v>161</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="7"/>
-      <c r="B132" s="14"/>
+      <c r="B132" s="15"/>
       <c r="C132" t="s">
-        <v>364</v>
+        <v>167</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>362</v>
+        <v>161</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="7"/>
-      <c r="B133" s="14"/>
+      <c r="B133" s="15"/>
       <c r="C133" t="s">
-        <v>365</v>
+        <v>169</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>362</v>
+        <v>161</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="11"/>
-      <c r="B134" s="14" t="s">
-        <v>195</v>
-      </c>
+      <c r="A134" s="7"/>
+      <c r="B134" s="15"/>
       <c r="C134" t="s">
-        <v>345</v>
+        <v>171</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>346</v>
+        <v>172</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="7"/>
-      <c r="B135" s="14"/>
+      <c r="B135" s="15"/>
       <c r="C135" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E135" s="1">
-        <v>3.28</v>
+        <v>194</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="7"/>
-      <c r="B136" s="14" t="s">
-        <v>173</v>
-      </c>
+      <c r="B136" s="15"/>
       <c r="C136" t="s">
-        <v>174</v>
+        <v>364</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="7"/>
-      <c r="B137" s="14"/>
+      <c r="B137" s="15"/>
       <c r="C137" t="s">
-        <v>175</v>
+        <v>365</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>176</v>
+        <v>362</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="7"/>
-      <c r="B138" s="14"/>
+      <c r="A138" s="11"/>
+      <c r="B138" s="15" t="s">
+        <v>195</v>
+      </c>
       <c r="C138" t="s">
-        <v>160</v>
+        <v>345</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="7"/>
-      <c r="B139" s="14"/>
+      <c r="B139" s="15"/>
       <c r="C139" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>358</v>
+        <v>161</v>
+      </c>
+      <c r="E139" s="1">
+        <v>3.28</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="7"/>
-      <c r="B140" s="14"/>
+      <c r="B140" s="15" t="s">
+        <v>173</v>
+      </c>
       <c r="C140" t="s">
-        <v>357</v>
+        <v>174</v>
       </c>
       <c r="D140" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E140" s="1" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="7"/>
+      <c r="B141" s="15"/>
       <c r="C141" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>176</v>
@@ -3496,98 +3523,95 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="7"/>
+      <c r="B142" s="15"/>
       <c r="C142" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>183</v>
+        <v>237</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="7"/>
+      <c r="B143" s="15"/>
       <c r="C143" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>183</v>
+        <v>157</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="7"/>
+      <c r="B144" s="15"/>
       <c r="C144" t="s">
-        <v>181</v>
+        <v>357</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>185</v>
+        <v>358</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="7"/>
       <c r="C145" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>369</v>
+        <v>176</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="7"/>
-      <c r="B146" s="2" t="s">
-        <v>247</v>
-      </c>
       <c r="C146" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="7"/>
-      <c r="B147" s="14" t="s">
-        <v>367</v>
-      </c>
       <c r="C147" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>359</v>
+        <v>183</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="7"/>
-      <c r="B148" s="14"/>
       <c r="C148" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>361</v>
+        <v>185</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="7"/>
-      <c r="B149" s="14"/>
       <c r="C149" t="s">
-        <v>360</v>
+        <v>184</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>359</v>
+        <v>185</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="7"/>
-      <c r="B150" s="14"/>
+      <c r="B150" s="2" t="s">
+        <v>247</v>
+      </c>
       <c r="C150" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>191</v>
@@ -3595,98 +3619,100 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="7"/>
-      <c r="B151" s="14" t="s">
-        <v>305</v>
+      <c r="B151" s="15" t="s">
+        <v>367</v>
       </c>
       <c r="C151" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E151" s="1">
-        <v>3.25</v>
+        <v>161</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="7"/>
-      <c r="B152" s="14"/>
+      <c r="B152" s="15"/>
       <c r="C152" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="7"/>
-      <c r="B153" s="14"/>
+      <c r="B153" s="15"/>
       <c r="C153" t="s">
-        <v>190</v>
+        <v>360</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>191</v>
+        <v>359</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="7"/>
-      <c r="B154" s="14" t="s">
-        <v>299</v>
-      </c>
+      <c r="B154" s="15"/>
       <c r="C154" t="s">
-        <v>297</v>
+        <v>187</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>359</v>
+        <v>191</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="7"/>
-      <c r="B155" s="14"/>
+      <c r="B155" s="15" t="s">
+        <v>305</v>
+      </c>
       <c r="C155" t="s">
-        <v>298</v>
+        <v>188</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="E155" s="1">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="7"/>
-      <c r="B156" s="14"/>
+      <c r="B156" s="15"/>
       <c r="C156" t="s">
-        <v>300</v>
+        <v>189</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="7"/>
-      <c r="B157" s="14"/>
+      <c r="B157" s="15"/>
       <c r="C157" t="s">
-        <v>301</v>
+        <v>190</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>359</v>
+        <v>191</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="7"/>
-      <c r="B158" s="14"/>
+      <c r="B158" s="15" t="s">
+        <v>299</v>
+      </c>
       <c r="C158" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>359</v>
@@ -3694,574 +3720,583 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="7"/>
-      <c r="B159" s="14"/>
+      <c r="B159" s="15"/>
       <c r="C159" t="s">
+        <v>298</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="7"/>
+      <c r="B160" s="15"/>
+      <c r="C160" t="s">
+        <v>300</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="7"/>
+      <c r="B161" s="15"/>
+      <c r="C161" t="s">
+        <v>301</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="7"/>
+      <c r="B162" s="15"/>
+      <c r="C162" t="s">
+        <v>302</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="7"/>
+      <c r="B163" s="15"/>
+      <c r="C163" t="s">
         <v>303</v>
       </c>
-      <c r="D159" s="1" t="s">
+      <c r="D163" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="E159" s="1" t="s">
+      <c r="E163" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="7"/>
-      <c r="B160" s="2" t="s">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="7"/>
+      <c r="B164" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C164" t="s">
         <v>192</v>
       </c>
-      <c r="D160" s="1" t="s">
+      <c r="D164" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="14" t="s">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="B161" s="14" t="s">
+      <c r="B165" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C165" t="s">
         <v>197</v>
       </c>
-      <c r="D161" s="1" t="s">
+      <c r="D165" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E161" s="1">
+      <c r="E165" s="1">
         <v>3.14</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="14"/>
-      <c r="B162" s="14"/>
-      <c r="C162" t="s">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="15"/>
+      <c r="B166" s="15"/>
+      <c r="C166" t="s">
         <v>198</v>
       </c>
-      <c r="D162" s="1" t="s">
+      <c r="D166" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E162" s="1">
+      <c r="E166" s="1">
         <v>3.14</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="14"/>
-      <c r="B163" s="14"/>
-      <c r="C163" t="s">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="15"/>
+      <c r="B167" s="15"/>
+      <c r="C167" t="s">
         <v>202</v>
       </c>
-      <c r="D163" s="1" t="s">
+      <c r="D167" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="14"/>
-      <c r="B164" s="14"/>
-      <c r="C164" t="s">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="15"/>
+      <c r="B168" s="15"/>
+      <c r="C168" t="s">
         <v>203</v>
       </c>
-      <c r="D164" s="1" t="s">
+      <c r="D168" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="14"/>
-      <c r="B165" s="14"/>
-      <c r="C165" t="s">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="15"/>
+      <c r="B169" s="15"/>
+      <c r="C169" t="s">
         <v>256</v>
       </c>
-      <c r="D165" s="1" t="s">
+      <c r="D169" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="14"/>
-      <c r="B166" s="14"/>
-      <c r="C166" t="s">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="15"/>
+      <c r="B170" s="15"/>
+      <c r="C170" t="s">
         <v>257</v>
       </c>
-      <c r="D166" s="1" t="s">
+      <c r="D170" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="14"/>
-      <c r="B167" s="14"/>
-      <c r="C167" t="s">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="15"/>
+      <c r="B171" s="15"/>
+      <c r="C171" t="s">
         <v>258</v>
       </c>
-      <c r="D167" s="1" t="s">
+      <c r="D171" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="14"/>
-      <c r="B168" s="14"/>
-      <c r="C168" t="s">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="15"/>
+      <c r="B172" s="15"/>
+      <c r="C172" t="s">
         <v>306</v>
       </c>
-      <c r="D168" s="1" t="s">
+      <c r="D172" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="14"/>
-      <c r="B169" s="7"/>
-      <c r="C169" t="s">
-        <v>200</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="14"/>
-      <c r="B170" s="7"/>
-      <c r="C170" t="s">
-        <v>201</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="14"/>
-      <c r="B171" s="7"/>
-      <c r="C171" t="s">
-        <v>204</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="14"/>
-      <c r="B172" s="7"/>
-      <c r="C172" t="s">
-        <v>312</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="14"/>
+      <c r="A173" s="15"/>
       <c r="B173" s="7"/>
       <c r="C173" t="s">
+        <v>200</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="15"/>
+      <c r="B174" s="7"/>
+      <c r="C174" t="s">
+        <v>201</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="15"/>
+      <c r="B175" s="7"/>
+      <c r="C175" t="s">
+        <v>204</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="15"/>
+      <c r="B176" s="7"/>
+      <c r="C176" t="s">
+        <v>312</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="15"/>
+      <c r="B177" s="7"/>
+      <c r="C177" t="s">
         <v>313</v>
       </c>
-      <c r="D173" s="1" t="s">
+      <c r="D177" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="14"/>
-      <c r="B174" s="14" t="s">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="15"/>
+      <c r="B178" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C178" t="s">
         <v>308</v>
       </c>
-      <c r="D174" s="1" t="s">
+      <c r="D178" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="14"/>
-      <c r="B175" s="14"/>
-      <c r="C175" t="s">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="15"/>
+      <c r="B179" s="15"/>
+      <c r="C179" t="s">
         <v>309</v>
       </c>
-      <c r="D175" s="1" t="s">
+      <c r="D179" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="14"/>
-      <c r="B176" s="14"/>
-      <c r="C176" t="s">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="15"/>
+      <c r="B180" s="15"/>
+      <c r="C180" t="s">
         <v>310</v>
       </c>
-      <c r="D176" s="1" t="s">
+      <c r="D180" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="14" t="s">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="B177" s="14" t="s">
+      <c r="B181" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C181" t="s">
         <v>208</v>
       </c>
-      <c r="D177" s="1" t="s">
+      <c r="D181" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E177" s="1">
+      <c r="E181" s="1">
         <v>3.22</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="14"/>
-      <c r="B178" s="14"/>
-      <c r="C178" t="s">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="15"/>
+      <c r="B182" s="15"/>
+      <c r="C182" t="s">
         <v>210</v>
       </c>
-      <c r="D178" s="1" t="s">
+      <c r="D182" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E178" s="1">
+      <c r="E182" s="1">
         <v>3.23</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="14"/>
-      <c r="B179" s="14"/>
-      <c r="C179" t="s">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="15"/>
+      <c r="B183" s="15"/>
+      <c r="C183" t="s">
         <v>212</v>
       </c>
-      <c r="D179" s="1" t="s">
+      <c r="D183" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E179" s="1">
+      <c r="E183" s="1">
         <v>3.22</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="14"/>
-      <c r="B180" s="14"/>
-      <c r="C180" t="s">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="15"/>
+      <c r="B184" s="15"/>
+      <c r="C184" t="s">
         <v>213</v>
       </c>
-      <c r="D180" s="1" t="s">
+      <c r="D184" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="14"/>
-      <c r="B181" s="14"/>
-      <c r="C181" t="s">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="15"/>
+      <c r="B185" s="15"/>
+      <c r="C185" t="s">
         <v>214</v>
       </c>
-      <c r="D181" s="1" t="s">
+      <c r="D185" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="14"/>
-      <c r="B182" s="14"/>
-      <c r="C182" t="s">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="15"/>
+      <c r="B186" s="15"/>
+      <c r="C186" t="s">
         <v>216</v>
       </c>
-      <c r="D182" s="1" t="s">
+      <c r="D186" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="14"/>
-      <c r="B183" s="14"/>
-      <c r="C183" t="s">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="15"/>
+      <c r="B187" s="15"/>
+      <c r="C187" t="s">
         <v>219</v>
       </c>
-      <c r="D183" s="1" t="s">
+      <c r="D187" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="E183" s="1">
+      <c r="E187" s="1">
         <v>3.24</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="14"/>
-      <c r="B184" s="14"/>
-      <c r="C184" t="s">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="15"/>
+      <c r="B188" s="15"/>
+      <c r="C188" t="s">
         <v>282</v>
       </c>
-      <c r="D184" s="1" t="s">
+      <c r="D188" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="14"/>
-      <c r="B185" s="14"/>
-      <c r="C185" t="s">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="15"/>
+      <c r="B189" s="15"/>
+      <c r="C189" t="s">
         <v>283</v>
       </c>
-      <c r="D185" s="1" t="s">
+      <c r="D189" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E185" s="1">
+      <c r="E189" s="1">
         <v>3.24</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="14"/>
-      <c r="B186" s="14"/>
-      <c r="C186" t="s">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="15"/>
+      <c r="B190" s="15"/>
+      <c r="C190" t="s">
         <v>284</v>
       </c>
-      <c r="D186" s="1" t="s">
+      <c r="D190" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E186" s="1">
+      <c r="E190" s="1">
         <v>3.24</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="14"/>
-      <c r="B187" s="14"/>
-      <c r="C187" t="s">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="15"/>
+      <c r="B191" s="15"/>
+      <c r="C191" t="s">
         <v>285</v>
       </c>
-      <c r="D187" s="1" t="s">
+      <c r="D191" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="14"/>
-      <c r="B188" s="14"/>
-      <c r="C188" t="s">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="15"/>
+      <c r="B192" s="15"/>
+      <c r="C192" t="s">
         <v>286</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="14"/>
-      <c r="B189" s="14"/>
-      <c r="C189" t="s">
-        <v>287</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="14"/>
-      <c r="B190" s="14"/>
-      <c r="C190" t="s">
-        <v>288</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E190" s="1">
-        <v>3.22</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="14"/>
-      <c r="B191" s="14"/>
-      <c r="C191" t="s">
-        <v>289</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="14"/>
-      <c r="B192" s="14"/>
-      <c r="C192" t="s">
-        <v>290</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" s="14"/>
-      <c r="B193" s="14"/>
+      <c r="A193" s="15"/>
+      <c r="B193" s="15"/>
       <c r="C193" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" s="14"/>
-      <c r="B194" s="14"/>
+      <c r="A194" s="15"/>
+      <c r="B194" s="15"/>
       <c r="C194" t="s">
+        <v>288</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E194" s="1">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="15"/>
+      <c r="B195" s="15"/>
+      <c r="C195" t="s">
+        <v>289</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="15"/>
+      <c r="B196" s="15"/>
+      <c r="C196" t="s">
+        <v>290</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="15"/>
+      <c r="B197" s="15"/>
+      <c r="C197" t="s">
+        <v>291</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="15"/>
+      <c r="B198" s="15"/>
+      <c r="C198" t="s">
         <v>334</v>
       </c>
-      <c r="D194" s="1" t="s">
+      <c r="D198" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" s="14"/>
-      <c r="B195" s="14"/>
-      <c r="C195" t="s">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="15"/>
+      <c r="B199" s="15"/>
+      <c r="C199" t="s">
         <v>335</v>
       </c>
-      <c r="D195" s="1" t="s">
+      <c r="D199" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" s="14"/>
-      <c r="B196" s="14"/>
-      <c r="C196" t="s">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="15"/>
+      <c r="B200" s="15"/>
+      <c r="C200" t="s">
         <v>336</v>
       </c>
-      <c r="D196" s="1" t="s">
+      <c r="D200" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" s="14"/>
-      <c r="B197" s="14"/>
-      <c r="C197" t="s">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="15"/>
+      <c r="B201" s="15"/>
+      <c r="C201" t="s">
         <v>61</v>
       </c>
-      <c r="D197" s="1" t="s">
+      <c r="D201" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E197" s="1">
+      <c r="E201" s="1">
         <v>3.24</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" s="14"/>
-      <c r="B198" s="14"/>
-      <c r="C198" t="s">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="15"/>
+      <c r="B202" s="15"/>
+      <c r="C202" t="s">
         <v>341</v>
       </c>
-      <c r="D198" s="1" t="s">
+      <c r="D202" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" s="14"/>
-      <c r="B199" s="14" t="s">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="15"/>
+      <c r="B203" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C203" t="s">
         <v>221</v>
       </c>
-      <c r="D199" s="1" t="s">
+      <c r="D203" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="14"/>
-      <c r="B200" s="14"/>
-      <c r="C200" t="s">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="15"/>
+      <c r="B204" s="15"/>
+      <c r="C204" t="s">
         <v>222</v>
       </c>
-      <c r="D200" s="1" t="s">
+      <c r="D204" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="14"/>
-      <c r="B201" s="14"/>
-      <c r="C201" t="s">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="15"/>
+      <c r="B205" s="15"/>
+      <c r="C205" t="s">
         <v>224</v>
       </c>
-      <c r="D201" s="1" t="s">
+      <c r="D205" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" s="14"/>
-      <c r="B202" s="14"/>
-      <c r="C202" t="s">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="15"/>
+      <c r="B206" s="15"/>
+      <c r="C206" t="s">
         <v>338</v>
       </c>
-      <c r="D202" s="1" t="s">
+      <c r="D206" s="1" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" s="14"/>
-      <c r="B203" s="14"/>
-      <c r="C203" t="s">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="15"/>
+      <c r="B207" s="15"/>
+      <c r="C207" t="s">
         <v>339</v>
       </c>
-      <c r="D203" s="1" t="s">
+      <c r="D207" s="1" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" s="14"/>
-      <c r="B204" s="14"/>
-      <c r="C204" t="s">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="15"/>
+      <c r="B208" s="15"/>
+      <c r="C208" t="s">
         <v>343</v>
       </c>
-      <c r="D204" s="1" t="s">
+      <c r="D208" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" s="3" t="s">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C205" t="s">
+      <c r="C209" t="s">
         <v>218</v>
       </c>
-      <c r="D205" s="1" t="s">
+      <c r="D209" s="1" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" s="7" t="s">
+      <c r="E209" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="B206" s="7"/>
-      <c r="C206" t="s">
-        <v>227</v>
-      </c>
-      <c r="D206" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E206" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" s="7"/>
-      <c r="B207" s="7"/>
-      <c r="C207" t="s">
-        <v>229</v>
-      </c>
-      <c r="D207" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" s="7"/>
-      <c r="B208" s="7"/>
-      <c r="C208" t="s">
-        <v>230</v>
-      </c>
-      <c r="D208" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" s="7"/>
-      <c r="B209" s="7"/>
-      <c r="C209" t="s">
-        <v>385</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" s="7"/>
       <c r="B210" s="7"/>
       <c r="C210" t="s">
-        <v>386</v>
+        <v>227</v>
       </c>
       <c r="D210" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E210" s="1" t="s">
         <v>387</v>
       </c>
     </row>
@@ -4269,516 +4304,526 @@
       <c r="A211" s="7"/>
       <c r="B211" s="7"/>
       <c r="C211" t="s">
-        <v>388</v>
+        <v>229</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>387</v>
+        <v>228</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="7"/>
       <c r="B212" s="7"/>
       <c r="C212" t="s">
-        <v>389</v>
+        <v>230</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>387</v>
+        <v>228</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="7"/>
       <c r="B213" s="7"/>
       <c r="C213" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="7"/>
+      <c r="B214" s="7"/>
       <c r="C214" t="s">
-        <v>238</v>
+        <v>386</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E214" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="7"/>
       <c r="B215" s="7"/>
       <c r="C215" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="7"/>
       <c r="B216" s="7"/>
       <c r="C216" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="7"/>
       <c r="B217" s="7"/>
       <c r="C217" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D217" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" s="7"/>
+      <c r="C218" t="s">
+        <v>238</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E218" s="1" t="s">
         <v>391</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="B218" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="C218" t="s">
-        <v>232</v>
-      </c>
-      <c r="D218" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E218" s="1" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="7"/>
-      <c r="B219" s="14"/>
+      <c r="B219" s="7"/>
       <c r="C219" t="s">
-        <v>233</v>
+        <v>392</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>228</v>
+        <v>391</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="7"/>
-      <c r="B220" s="2" t="s">
-        <v>236</v>
-      </c>
+      <c r="B220" s="7"/>
       <c r="C220" t="s">
-        <v>235</v>
+        <v>393</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E220" s="1" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="7"/>
+      <c r="B221" s="7"/>
       <c r="C221" t="s">
-        <v>240</v>
+        <v>394</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>237</v>
+        <v>391</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222" s="7"/>
+      <c r="A222" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B222" s="15" t="s">
+        <v>234</v>
+      </c>
       <c r="C222" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>237</v>
+        <v>228</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="7"/>
-      <c r="B223" s="14" t="s">
-        <v>128</v>
-      </c>
+      <c r="B223" s="15"/>
       <c r="C223" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E223" s="1" t="s">
-        <v>375</v>
+        <v>228</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="7"/>
-      <c r="B224" s="14"/>
+      <c r="B224" s="2" t="s">
+        <v>236</v>
+      </c>
       <c r="C224" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="7"/>
-      <c r="B225" s="14"/>
       <c r="C225" t="s">
-        <v>376</v>
+        <v>240</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="7"/>
-      <c r="B226" s="14"/>
       <c r="C226" t="s">
-        <v>381</v>
+        <v>239</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="7"/>
-      <c r="B227" s="14" t="s">
-        <v>246</v>
+      <c r="B227" s="15" t="s">
+        <v>128</v>
       </c>
       <c r="C227" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E227" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="7"/>
-      <c r="B228" s="14"/>
+      <c r="B228" s="15"/>
       <c r="C228" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="7"/>
-      <c r="B229" s="14" t="s">
+      <c r="B229" s="15"/>
+      <c r="C229" t="s">
+        <v>376</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" s="7"/>
+      <c r="B230" s="15"/>
+      <c r="C230" t="s">
+        <v>381</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" s="7"/>
+      <c r="B231" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="C231" t="s">
+        <v>245</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" s="7"/>
+      <c r="B232" s="15"/>
+      <c r="C232" t="s">
+        <v>244</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" s="7"/>
+      <c r="B233" s="15" t="s">
         <v>384</v>
       </c>
-      <c r="C229" t="s">
+      <c r="C233" t="s">
         <v>266</v>
       </c>
-      <c r="D229" s="1" t="s">
+      <c r="D233" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A230" s="7"/>
-      <c r="B230" s="14"/>
-      <c r="C230" t="s">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" s="7"/>
+      <c r="B234" s="15"/>
+      <c r="C234" t="s">
         <v>269</v>
       </c>
-      <c r="D230" s="1" t="s">
+      <c r="D234" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A231" s="7"/>
-      <c r="B231" s="14"/>
-      <c r="C231" t="s">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" s="7"/>
+      <c r="B235" s="15"/>
+      <c r="C235" t="s">
         <v>270</v>
       </c>
-      <c r="D231" s="1" t="s">
+      <c r="D235" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A232" s="7"/>
-      <c r="B232" s="14"/>
-      <c r="C232" t="s">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" s="7"/>
+      <c r="B236" s="15"/>
+      <c r="C236" t="s">
         <v>271</v>
       </c>
-      <c r="D232" s="1" t="s">
+      <c r="D236" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233" s="7"/>
-      <c r="B233" s="14"/>
-      <c r="C233" t="s">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" s="7"/>
+      <c r="B237" s="15"/>
+      <c r="C237" t="s">
         <v>370</v>
-      </c>
-      <c r="D233" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A234" s="7"/>
-      <c r="B234" s="14"/>
-      <c r="C234" t="s">
-        <v>373</v>
-      </c>
-      <c r="D234" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235" s="7"/>
-      <c r="B235" s="14"/>
-      <c r="C235" t="s">
-        <v>371</v>
-      </c>
-      <c r="D235" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A236" s="7"/>
-      <c r="B236" s="14"/>
-      <c r="C236" t="s">
-        <v>374</v>
-      </c>
-      <c r="D236" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A237" s="7"/>
-      <c r="B237" s="14"/>
-      <c r="C237" t="s">
-        <v>372</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="7"/>
-      <c r="B238" s="13"/>
+      <c r="B238" s="15"/>
       <c r="C238" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="7"/>
-      <c r="B239" s="14" t="s">
-        <v>383</v>
-      </c>
+      <c r="B239" s="15"/>
       <c r="C239" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="7"/>
-      <c r="B240" s="14"/>
+      <c r="B240" s="15"/>
       <c r="C240" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="7"/>
-      <c r="B241" s="13"/>
+      <c r="B241" s="15"/>
       <c r="C241" t="s">
+        <v>372</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" s="7"/>
+      <c r="B242" s="13"/>
+      <c r="C242" t="s">
+        <v>377</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" s="7"/>
+      <c r="B243" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="C243" t="s">
+        <v>379</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" s="7"/>
+      <c r="B244" s="15"/>
+      <c r="C244" t="s">
+        <v>380</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" s="7"/>
+      <c r="B245" s="13"/>
+      <c r="C245" t="s">
         <v>382</v>
       </c>
-      <c r="D241" s="1" t="s">
+      <c r="D245" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A242" s="14" t="s">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="C242" t="s">
+      <c r="C246" t="s">
         <v>249</v>
       </c>
-      <c r="D242" s="1" t="s">
+      <c r="D246" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E242" s="1">
+      <c r="E246" s="1">
         <v>3.19</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A243" s="14"/>
-      <c r="C243" t="s">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" s="15"/>
+      <c r="C247" t="s">
         <v>251</v>
       </c>
-      <c r="D243" s="1" t="s">
+      <c r="D247" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E243" s="1">
+      <c r="E247" s="1">
         <v>3.19</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A244" s="14"/>
-      <c r="B244" s="4"/>
-      <c r="C244" t="s">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" s="15"/>
+      <c r="B248" s="4"/>
+      <c r="C248" t="s">
         <v>265</v>
       </c>
-      <c r="D244" s="1" t="s">
+      <c r="D248" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A245" s="14"/>
-      <c r="B245" s="10"/>
-      <c r="C245" t="s">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" s="15"/>
+      <c r="B249" s="10"/>
+      <c r="C249" t="s">
         <v>330</v>
       </c>
-      <c r="D245" s="1" t="s">
+      <c r="D249" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A246" s="14"/>
-      <c r="B246" s="10"/>
-      <c r="C246" t="s">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" s="15"/>
+      <c r="B250" s="10"/>
+      <c r="C250" t="s">
         <v>331</v>
       </c>
-      <c r="D246" s="1" t="s">
+      <c r="D250" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A247" s="14"/>
-      <c r="B247" s="10"/>
-      <c r="C247" t="s">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" s="15"/>
+      <c r="B251" s="10"/>
+      <c r="C251" t="s">
         <v>332</v>
       </c>
-      <c r="D247" s="1" t="s">
+      <c r="D251" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A248" s="14" t="s">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="C248" t="s">
+      <c r="C252" t="s">
         <v>253</v>
       </c>
-      <c r="D248" s="1" t="s">
+      <c r="D252" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E248" s="1" t="s">
+      <c r="E252" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A249" s="14"/>
-      <c r="B249" s="12"/>
-      <c r="C249" t="s">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" s="15"/>
+      <c r="B253" s="12"/>
+      <c r="C253" t="s">
         <v>368</v>
       </c>
-      <c r="D249" s="1" t="s">
+      <c r="D253" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
         <v>259</v>
       </c>
-      <c r="C250" t="s">
+      <c r="C254" t="s">
         <v>260</v>
       </c>
-      <c r="D250" s="1" t="s">
+      <c r="D254" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
         <v>262</v>
       </c>
-      <c r="C251" t="s">
+      <c r="C255" t="s">
         <v>263</v>
       </c>
-      <c r="D251" s="1" t="s">
+      <c r="D255" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
         <v>267</v>
       </c>
-      <c r="C252" t="s">
+      <c r="C256" t="s">
         <v>268</v>
       </c>
-      <c r="D252" s="1" t="s">
+      <c r="D256" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C253" t="s">
+    <row r="257" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C257" t="s">
         <v>276</v>
       </c>
-      <c r="D253" s="1" t="s">
+      <c r="D257" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C254" t="s">
+    <row r="258" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C258" t="s">
         <v>277</v>
       </c>
-      <c r="D254" s="1" t="s">
+      <c r="D258" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C255" t="s">
+    <row r="259" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C259" t="s">
         <v>278</v>
       </c>
-      <c r="D255" s="1" t="s">
+      <c r="D259" s="1" t="s">
         <v>279</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A248:A249"/>
-    <mergeCell ref="B223:B226"/>
-    <mergeCell ref="B239:B240"/>
-    <mergeCell ref="B229:B237"/>
-    <mergeCell ref="B136:B140"/>
-    <mergeCell ref="A242:A247"/>
-    <mergeCell ref="B227:B228"/>
-    <mergeCell ref="B218:B219"/>
-    <mergeCell ref="A177:A204"/>
-    <mergeCell ref="B199:B204"/>
-    <mergeCell ref="B177:B198"/>
-    <mergeCell ref="B161:B168"/>
-    <mergeCell ref="B174:B176"/>
-    <mergeCell ref="A161:A176"/>
-    <mergeCell ref="B151:B153"/>
-    <mergeCell ref="A89:A94"/>
-    <mergeCell ref="B154:B159"/>
-    <mergeCell ref="B117:B120"/>
-    <mergeCell ref="B110:B114"/>
-    <mergeCell ref="B121:B124"/>
-    <mergeCell ref="B147:B150"/>
-    <mergeCell ref="B134:B135"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="B125:B133"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="B100:B109"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="A100:A114"/>
-    <mergeCell ref="B85:B88"/>
     <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="B13:B31"/>
     <mergeCell ref="B32:B40"/>
@@ -4789,10 +4834,40 @@
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B53:B55"/>
     <mergeCell ref="A56:A67"/>
-    <mergeCell ref="A68:A88"/>
+    <mergeCell ref="A69:A89"/>
     <mergeCell ref="B47:B48"/>
     <mergeCell ref="A42:A55"/>
-    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B104:B113"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="A104:A118"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="A93:A98"/>
+    <mergeCell ref="B158:B163"/>
+    <mergeCell ref="B121:B124"/>
+    <mergeCell ref="B114:B118"/>
+    <mergeCell ref="B125:B128"/>
+    <mergeCell ref="B151:B154"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="B129:B137"/>
+    <mergeCell ref="A252:A253"/>
+    <mergeCell ref="B227:B230"/>
+    <mergeCell ref="B243:B244"/>
+    <mergeCell ref="B233:B241"/>
+    <mergeCell ref="B140:B144"/>
+    <mergeCell ref="A246:A251"/>
+    <mergeCell ref="B231:B232"/>
+    <mergeCell ref="B222:B223"/>
+    <mergeCell ref="A181:A208"/>
+    <mergeCell ref="B203:B208"/>
+    <mergeCell ref="B181:B202"/>
+    <mergeCell ref="B165:B172"/>
+    <mergeCell ref="B178:B180"/>
+    <mergeCell ref="A165:A180"/>
+    <mergeCell ref="B155:B157"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/时间表.xlsx
+++ b/时间表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\360\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3205B1CC-9217-42C1-BFAB-95FDF6D33876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E36DFBC-C8B9-46C1-B50D-AC6461E8CD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10836" yWindow="60" windowWidth="11748" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="404">
   <si>
     <t>第一次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -515,10 +515,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1两数相加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>170两数之和3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -895,10 +891,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>栈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20有效的括号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1624,6 +1616,30 @@
   </si>
   <si>
     <t>448找到所有数组中的消失数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1两数之和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>218天际线问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>128最长连续序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>149直线上最多的点数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>332重新安排行程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1667,7 +1683,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1687,6 +1703,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1992,10 +2011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F259"/>
+  <dimension ref="A1:F263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="E90" sqref="E90"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2027,11 +2046,11 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>153</v>
+      <c r="B2" s="16" t="s">
+        <v>152</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -2041,17 +2060,20 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="1">
         <v>1.1000000000000001</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
+      <c r="A4" s="16"/>
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -2060,42 +2082,42 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15" t="s">
-        <v>141</v>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D5" s="1">
         <v>1.2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
       <c r="C6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D6" s="1">
         <v>1.2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
       <c r="C7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D7" s="1">
         <v>1.2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
       <c r="C8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D8" s="1">
         <v>1.2</v>
@@ -2105,9 +2127,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15" t="s">
-        <v>152</v>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16" t="s">
+        <v>151</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -2117,8 +2139,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
       <c r="C10" t="s">
         <v>9</v>
       </c>
@@ -2127,8 +2149,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
       <c r="C11" t="s">
         <v>10</v>
       </c>
@@ -2137,7 +2159,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
+      <c r="A12" s="16"/>
       <c r="C12" t="s">
         <v>97</v>
       </c>
@@ -2146,10 +2168,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C13" t="s">
@@ -2160,8 +2182,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -2170,8 +2192,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
       <c r="C15" t="s">
         <v>17</v>
       </c>
@@ -2180,8 +2202,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
       <c r="C16" t="s">
         <v>18</v>
       </c>
@@ -2190,8 +2212,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
       <c r="C17" t="s">
         <v>19</v>
       </c>
@@ -2200,8 +2222,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
       <c r="C18" t="s">
         <v>20</v>
       </c>
@@ -2210,8 +2232,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
       <c r="C19" t="s">
         <v>21</v>
       </c>
@@ -2220,8 +2242,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
       <c r="C20" t="s">
         <v>22</v>
       </c>
@@ -2230,8 +2252,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
       <c r="C21" t="s">
         <v>23</v>
       </c>
@@ -2240,8 +2262,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
       <c r="C22" t="s">
         <v>24</v>
       </c>
@@ -2250,8 +2272,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -2260,8 +2282,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
       <c r="C24" t="s">
         <v>26</v>
       </c>
@@ -2270,8 +2292,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
       <c r="C25" t="s">
         <v>27</v>
       </c>
@@ -2280,8 +2302,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
       <c r="C26" t="s">
         <v>28</v>
       </c>
@@ -2290,8 +2312,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
       <c r="C27" t="s">
         <v>29</v>
       </c>
@@ -2300,8 +2322,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
       <c r="C28" t="s">
         <v>30</v>
       </c>
@@ -2310,8 +2332,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
       <c r="C29" t="s">
         <v>31</v>
       </c>
@@ -2320,8 +2342,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
       <c r="C30" t="s">
         <v>32</v>
       </c>
@@ -2330,8 +2352,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
       <c r="C31" t="s">
         <v>33</v>
       </c>
@@ -2340,8 +2362,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15" t="s">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16" t="s">
         <v>34</v>
       </c>
       <c r="C32" t="s">
@@ -2352,8 +2374,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
       <c r="C33" t="s">
         <v>36</v>
       </c>
@@ -2362,8 +2384,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
       <c r="C34" t="s">
         <v>37</v>
       </c>
@@ -2372,8 +2394,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
       <c r="C35" t="s">
         <v>39</v>
       </c>
@@ -2382,8 +2404,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
       <c r="C36" t="s">
         <v>40</v>
       </c>
@@ -2392,8 +2414,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
       <c r="C37" t="s">
         <v>41</v>
       </c>
@@ -2402,8 +2424,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
       <c r="C38" t="s">
         <v>42</v>
       </c>
@@ -2412,8 +2434,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
       <c r="C39" t="s">
         <v>44</v>
       </c>
@@ -2422,8 +2444,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
       <c r="C40" t="s">
         <v>45</v>
       </c>
@@ -2432,7 +2454,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
+      <c r="A41" s="16"/>
       <c r="B41" s="2" t="s">
         <v>47</v>
       </c>
@@ -2444,7 +2466,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -2458,7 +2480,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
+      <c r="A43" s="16"/>
       <c r="B43" s="2" t="s">
         <v>74</v>
       </c>
@@ -2470,7 +2492,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
+      <c r="A44" s="16"/>
       <c r="B44" s="2" t="s">
         <v>75</v>
       </c>
@@ -2482,8 +2504,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
-      <c r="B45" s="15" t="s">
+      <c r="A45" s="16"/>
+      <c r="B45" s="16" t="s">
         <v>76</v>
       </c>
       <c r="C45" t="s">
@@ -2494,8 +2516,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
-      <c r="B46" s="15"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
       <c r="C46" t="s">
         <v>57</v>
       </c>
@@ -2504,8 +2526,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="15"/>
-      <c r="B47" s="15" t="s">
+      <c r="A47" s="16"/>
+      <c r="B47" s="16" t="s">
         <v>77</v>
       </c>
       <c r="C47" t="s">
@@ -2516,8 +2538,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="15"/>
-      <c r="B48" s="15"/>
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
       <c r="C48" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2548,8 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="15"/>
-      <c r="B49" s="15" t="s">
+      <c r="A49" s="16"/>
+      <c r="B49" s="16" t="s">
         <v>78</v>
       </c>
       <c r="C49" t="s">
@@ -2538,8 +2560,8 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="15"/>
-      <c r="B50" s="15"/>
+      <c r="A50" s="16"/>
+      <c r="B50" s="16"/>
       <c r="C50" t="s">
         <v>65</v>
       </c>
@@ -2548,8 +2570,8 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="15"/>
-      <c r="B51" s="15"/>
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
       <c r="C51" t="s">
         <v>66</v>
       </c>
@@ -2558,7 +2580,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="15"/>
+      <c r="A52" s="16"/>
       <c r="B52" s="2" t="s">
         <v>79</v>
       </c>
@@ -2570,8 +2592,8 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="15"/>
-      <c r="B53" s="15" t="s">
+      <c r="A53" s="16"/>
+      <c r="B53" s="16" t="s">
         <v>80</v>
       </c>
       <c r="C53" t="s">
@@ -2582,8 +2604,8 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="15"/>
-      <c r="B54" s="15"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
       <c r="C54" t="s">
         <v>70</v>
       </c>
@@ -2592,8 +2614,8 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="15"/>
-      <c r="B55" s="15"/>
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
       <c r="C55" t="s">
         <v>71</v>
       </c>
@@ -2602,7 +2624,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="16" t="s">
         <v>81</v>
       </c>
       <c r="C56" t="s">
@@ -2613,7 +2635,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="15"/>
+      <c r="A57" s="16"/>
       <c r="C57" t="s">
         <v>83</v>
       </c>
@@ -2622,7 +2644,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="15"/>
+      <c r="A58" s="16"/>
       <c r="C58" t="s">
         <v>84</v>
       </c>
@@ -2631,7 +2653,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="15"/>
+      <c r="A59" s="16"/>
       <c r="C59" t="s">
         <v>86</v>
       </c>
@@ -2640,7 +2662,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="15"/>
+      <c r="A60" s="16"/>
       <c r="C60" t="s">
         <v>87</v>
       </c>
@@ -2649,7 +2671,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="15"/>
+      <c r="A61" s="16"/>
       <c r="C61" t="s">
         <v>89</v>
       </c>
@@ -2658,7 +2680,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="15"/>
+      <c r="A62" s="16"/>
       <c r="C62" t="s">
         <v>90</v>
       </c>
@@ -2666,11 +2688,11 @@
         <v>93</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="15"/>
+      <c r="A63" s="16"/>
       <c r="C63" t="s">
         <v>91</v>
       </c>
@@ -2679,16 +2701,19 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="15"/>
+      <c r="A64" s="16"/>
       <c r="C64" t="s">
         <v>92</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="E64" s="1" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="15"/>
+      <c r="A65" s="16"/>
       <c r="C65" t="s">
         <v>94</v>
       </c>
@@ -2696,11 +2721,11 @@
         <v>96</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="15"/>
+      <c r="A66" s="16"/>
       <c r="C66" t="s">
         <v>95</v>
       </c>
@@ -2709,2121 +2734,2192 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="15"/>
+      <c r="A67" s="16"/>
       <c r="B67" s="6"/>
       <c r="C67" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
       <c r="C68" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B69" s="15" t="s">
-        <v>105</v>
-      </c>
+      <c r="A69" s="15"/>
+      <c r="B69" s="15"/>
       <c r="C69" t="s">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>103</v>
+        <v>399</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="15"/>
       <c r="B70" s="15"/>
       <c r="C70" t="s">
-        <v>101</v>
+        <v>401</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>103</v>
+        <v>399</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="15"/>
       <c r="B71" s="15"/>
       <c r="C71" t="s">
-        <v>102</v>
+        <v>402</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>103</v>
+        <v>399</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="15"/>
-      <c r="B72" s="15" t="s">
-        <v>104</v>
-      </c>
+      <c r="A72" s="3"/>
       <c r="C72" t="s">
-        <v>106</v>
+        <v>216</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>103</v>
+        <v>214</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="15"/>
-      <c r="B73" s="15"/>
+      <c r="A73" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>105</v>
+      </c>
       <c r="C73" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="15"/>
-      <c r="B74" s="15"/>
+      <c r="A74" s="16"/>
+      <c r="B74" s="16"/>
       <c r="C74" t="s">
+        <v>101</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="16"/>
+      <c r="B75" s="16"/>
+      <c r="C75" t="s">
+        <v>102</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="16"/>
+      <c r="B76" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C76" t="s">
+        <v>106</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="16"/>
+      <c r="B77" s="16"/>
+      <c r="C77" t="s">
+        <v>107</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="16"/>
+      <c r="B78" s="16"/>
+      <c r="C78" t="s">
         <v>108</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="15"/>
-      <c r="B75" s="15" t="s">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="16"/>
+      <c r="B79" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C79" t="s">
         <v>110</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="15"/>
-      <c r="B76" s="15"/>
-      <c r="C76" t="s">
+      <c r="E79" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="16"/>
+      <c r="B80" s="16"/>
+      <c r="C80" t="s">
         <v>111</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="15"/>
-      <c r="B77" s="15"/>
-      <c r="C77" t="s">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="16"/>
+      <c r="B81" s="16"/>
+      <c r="C81" t="s">
         <v>112</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D81" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="15"/>
-      <c r="B78" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="C78" t="s">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="16"/>
+      <c r="B82" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C82" t="s">
+        <v>123</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="16"/>
+      <c r="B83" s="16"/>
+      <c r="C83" t="s">
         <v>124</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D83" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="16"/>
+      <c r="B84" s="16"/>
+      <c r="C84" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="15"/>
-      <c r="B79" s="15"/>
-      <c r="C79" t="s">
-        <v>125</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="15"/>
-      <c r="B80" s="15"/>
-      <c r="C80" t="s">
-        <v>127</v>
-      </c>
-      <c r="D80" s="1" t="s">
+      <c r="D84" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E80" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="15"/>
-      <c r="C81" t="s">
+      <c r="E84" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="16"/>
+      <c r="C85" t="s">
         <v>114</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D85" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="15"/>
-      <c r="B82" s="15" t="s">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="16"/>
+      <c r="B86" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C86" t="s">
         <v>116</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="15"/>
-      <c r="B83" s="15"/>
-      <c r="C83" t="s">
-        <v>117</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="15"/>
-      <c r="B84" s="15"/>
-      <c r="C84" t="s">
-        <v>118</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="15"/>
-      <c r="B85" s="15"/>
-      <c r="C85" t="s">
-        <v>119</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="15"/>
-      <c r="B86" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="C86" t="s">
-        <v>122</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="15"/>
-      <c r="B87" s="15"/>
+      <c r="A87" s="16"/>
+      <c r="B87" s="16"/>
       <c r="C87" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="15"/>
-      <c r="B88" s="15"/>
+      <c r="A88" s="16"/>
+      <c r="B88" s="16"/>
       <c r="C88" t="s">
+        <v>118</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="16"/>
+      <c r="B89" s="16"/>
+      <c r="C89" t="s">
+        <v>119</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="16"/>
+      <c r="B90" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="C90" t="s">
+        <v>398</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="16"/>
+      <c r="B91" s="16"/>
+      <c r="C91" t="s">
+        <v>122</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="16"/>
+      <c r="B92" s="16"/>
+      <c r="C92" t="s">
+        <v>291</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="15"/>
-      <c r="B89" s="15"/>
-      <c r="C89" t="s">
-        <v>294</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="14"/>
-      <c r="B90" s="14"/>
-      <c r="C90" t="s">
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="16"/>
+      <c r="B93" s="16"/>
+      <c r="C93" t="s">
+        <v>292</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="14"/>
+      <c r="B94" s="14"/>
+      <c r="C94" t="s">
+        <v>395</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="14"/>
+      <c r="B95" s="14"/>
+      <c r="C95" t="s">
+        <v>396</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="14"/>
+      <c r="B96" s="14"/>
+      <c r="C96" t="s">
         <v>397</v>
       </c>
-      <c r="D90" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="14"/>
-      <c r="B91" s="14"/>
-      <c r="C91" t="s">
-        <v>398</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="14"/>
-      <c r="B92" s="14"/>
-      <c r="C92" t="s">
-        <v>399</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="15" t="s">
+      <c r="D96" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C97" t="s">
         <v>129</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D97" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="16"/>
+      <c r="C98" t="s">
         <v>130</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D98" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E98" s="1">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="16"/>
+      <c r="C99" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="15"/>
-      <c r="C94" t="s">
-        <v>131</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E94" s="1">
-        <v>3.17</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="15"/>
-      <c r="C95" t="s">
+      <c r="D99" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="16"/>
+      <c r="C100" t="s">
         <v>133</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="15"/>
-      <c r="C96" t="s">
+      <c r="D100" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="16"/>
+      <c r="C101" t="s">
         <v>134</v>
       </c>
-      <c r="D96" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="15"/>
-      <c r="C97" t="s">
+      <c r="D101" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="15"/>
-      <c r="B98" s="5"/>
-      <c r="C98" t="s">
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="16"/>
+      <c r="B102" s="5"/>
+      <c r="C102" t="s">
+        <v>271</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="8"/>
+      <c r="B103" s="8"/>
+      <c r="C103" t="s">
+        <v>320</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="8"/>
+      <c r="B104" s="8"/>
+      <c r="C104" t="s">
+        <v>321</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="8"/>
+      <c r="B105" s="8"/>
+      <c r="C105" t="s">
+        <v>322</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="8"/>
+      <c r="B106" s="8"/>
+      <c r="C106" t="s">
+        <v>324</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="9"/>
+      <c r="B107" s="9"/>
+      <c r="C107" t="s">
+        <v>326</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B108" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C108" t="s">
+        <v>148</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E108" s="1">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="16"/>
+      <c r="B109" s="16"/>
+      <c r="C109" t="s">
+        <v>149</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="16"/>
+      <c r="B110" s="16"/>
+      <c r="C110" t="s">
+        <v>150</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="16"/>
+      <c r="B111" s="16"/>
+      <c r="C111" t="s">
+        <v>272</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="16"/>
+      <c r="B112" s="16"/>
+      <c r="C112" t="s">
         <v>273</v>
       </c>
-      <c r="D98" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="8"/>
-      <c r="B99" s="8"/>
-      <c r="C99" t="s">
-        <v>322</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="8"/>
-      <c r="B100" s="8"/>
-      <c r="C100" t="s">
-        <v>323</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="8"/>
-      <c r="B101" s="8"/>
-      <c r="C101" t="s">
-        <v>324</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="8"/>
-      <c r="B102" s="8"/>
-      <c r="C102" t="s">
-        <v>326</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="9"/>
-      <c r="B103" s="9"/>
-      <c r="C103" t="s">
-        <v>328</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="15" t="s">
+      <c r="D112" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="16"/>
+      <c r="B113" s="16"/>
+      <c r="C113" t="s">
+        <v>313</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="16"/>
+      <c r="B114" s="16"/>
+      <c r="C114" t="s">
+        <v>316</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="16"/>
+      <c r="B115" s="16"/>
+      <c r="C115" t="s">
+        <v>317</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="16"/>
+      <c r="B116" s="16"/>
+      <c r="C116" t="s">
+        <v>318</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="16"/>
+      <c r="B117" s="16"/>
+      <c r="C117" t="s">
+        <v>319</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="16"/>
+      <c r="B118" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="B104" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="C104" t="s">
-        <v>149</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E104" s="1">
-        <v>3.15</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="15"/>
-      <c r="B105" s="15"/>
-      <c r="C105" t="s">
-        <v>150</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="15"/>
-      <c r="B106" s="15"/>
-      <c r="C106" t="s">
-        <v>151</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="15"/>
-      <c r="B107" s="15"/>
-      <c r="C107" t="s">
-        <v>274</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="15"/>
-      <c r="B108" s="15"/>
-      <c r="C108" t="s">
-        <v>275</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="15"/>
-      <c r="B109" s="15"/>
-      <c r="C109" t="s">
+      <c r="C118" t="s">
+        <v>143</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E118" s="1">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="16"/>
+      <c r="B119" s="16"/>
+      <c r="C119" t="s">
+        <v>144</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="16"/>
+      <c r="B120" s="16"/>
+      <c r="C120" t="s">
+        <v>145</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="16"/>
+      <c r="B121" s="16"/>
+      <c r="C121" t="s">
+        <v>146</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="16"/>
+      <c r="B122" s="16"/>
+      <c r="C122" t="s">
+        <v>314</v>
+      </c>
+      <c r="D122" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="D109" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="15"/>
-      <c r="B110" s="15"/>
-      <c r="C110" t="s">
-        <v>318</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="15"/>
-      <c r="B111" s="15"/>
-      <c r="C111" t="s">
-        <v>319</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="15"/>
-      <c r="B112" s="15"/>
-      <c r="C112" t="s">
-        <v>320</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="15"/>
-      <c r="B113" s="15"/>
-      <c r="C113" t="s">
-        <v>321</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="15"/>
-      <c r="B114" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="C114" t="s">
-        <v>144</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E114" s="1">
-        <v>3.16</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="15"/>
-      <c r="B115" s="15"/>
-      <c r="C115" t="s">
-        <v>145</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="15"/>
-      <c r="B116" s="15"/>
-      <c r="C116" t="s">
-        <v>146</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="15"/>
-      <c r="B117" s="15"/>
-      <c r="C117" t="s">
-        <v>147</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="15"/>
-      <c r="B118" s="15"/>
-      <c r="C118" t="s">
-        <v>316</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="B119" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="C119" t="s">
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B123" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="C123" t="s">
+        <v>342</v>
+      </c>
+      <c r="D123" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="7"/>
-      <c r="B120" s="15"/>
-      <c r="C120" t="s">
-        <v>155</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="7"/>
-      <c r="B121" s="15" t="s">
-        <v>351</v>
-      </c>
-      <c r="C121" t="s">
-        <v>347</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="7"/>
-      <c r="B122" s="15"/>
-      <c r="C122" t="s">
-        <v>177</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E122" s="1">
-        <v>3.26</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="7"/>
-      <c r="B123" s="15"/>
-      <c r="C123" t="s">
-        <v>349</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="7"/>
-      <c r="B124" s="15"/>
+      <c r="B124" s="16"/>
       <c r="C124" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="7"/>
-      <c r="B125" s="15" t="s">
-        <v>355</v>
+      <c r="B125" s="16" t="s">
+        <v>349</v>
       </c>
       <c r="C125" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="7"/>
-      <c r="B126" s="15"/>
+      <c r="B126" s="16"/>
       <c r="C126" t="s">
-        <v>353</v>
+        <v>176</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>356</v>
+        <v>175</v>
+      </c>
+      <c r="E126" s="1">
+        <v>3.26</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="7"/>
-      <c r="B127" s="15"/>
+      <c r="B127" s="16"/>
       <c r="C127" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="7"/>
-      <c r="B128" s="15"/>
+      <c r="B128" s="16"/>
       <c r="C128" t="s">
-        <v>363</v>
+        <v>157</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>362</v>
+        <v>158</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="7"/>
-      <c r="B129" s="15" t="s">
-        <v>162</v>
+      <c r="B129" s="16" t="s">
+        <v>353</v>
       </c>
       <c r="C129" t="s">
-        <v>163</v>
+        <v>350</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E129" s="1">
-        <v>3.28</v>
+        <v>354</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="7"/>
-      <c r="B130" s="15"/>
+      <c r="B130" s="16"/>
       <c r="C130" t="s">
-        <v>164</v>
+        <v>351</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E130" s="1">
-        <v>3.28</v>
+        <v>354</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="7"/>
-      <c r="B131" s="15"/>
+      <c r="B131" s="16"/>
       <c r="C131" t="s">
-        <v>166</v>
+        <v>352</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="7"/>
-      <c r="B132" s="15"/>
+      <c r="B132" s="16"/>
       <c r="C132" t="s">
-        <v>167</v>
+        <v>361</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>161</v>
+        <v>360</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="7"/>
-      <c r="B133" s="15"/>
+      <c r="B133" s="16" t="s">
+        <v>161</v>
+      </c>
       <c r="C133" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
+      </c>
+      <c r="E133" s="1">
+        <v>3.28</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="7"/>
-      <c r="B134" s="15"/>
+      <c r="B134" s="16"/>
       <c r="C134" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
+      </c>
+      <c r="E134" s="1">
+        <v>3.28</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="7"/>
-      <c r="B135" s="15"/>
+      <c r="B135" s="16"/>
       <c r="C135" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>194</v>
+        <v>160</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="7"/>
-      <c r="B136" s="15"/>
+      <c r="B136" s="16"/>
       <c r="C136" t="s">
-        <v>364</v>
+        <v>166</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>362</v>
+        <v>160</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="7"/>
-      <c r="B137" s="15"/>
+      <c r="B137" s="16"/>
       <c r="C137" t="s">
-        <v>365</v>
+        <v>168</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>362</v>
+        <v>160</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="11"/>
-      <c r="B138" s="15" t="s">
-        <v>195</v>
-      </c>
+      <c r="A138" s="7"/>
+      <c r="B138" s="16"/>
       <c r="C138" t="s">
-        <v>345</v>
+        <v>170</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>346</v>
+        <v>171</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="7"/>
-      <c r="B139" s="15"/>
+      <c r="B139" s="16"/>
       <c r="C139" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E139" s="1">
-        <v>3.28</v>
+        <v>193</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="7"/>
-      <c r="B140" s="15" t="s">
-        <v>173</v>
-      </c>
+      <c r="B140" s="16"/>
       <c r="C140" t="s">
-        <v>174</v>
+        <v>362</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="7"/>
-      <c r="B141" s="15"/>
+      <c r="B141" s="16"/>
       <c r="C141" t="s">
-        <v>175</v>
+        <v>363</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>176</v>
+        <v>360</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="7"/>
-      <c r="B142" s="15"/>
+      <c r="A142" s="11"/>
+      <c r="B142" s="16" t="s">
+        <v>194</v>
+      </c>
       <c r="C142" t="s">
-        <v>160</v>
+        <v>343</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>366</v>
+        <v>344</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="7"/>
-      <c r="B143" s="15"/>
+      <c r="B143" s="16"/>
       <c r="C143" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>358</v>
+        <v>160</v>
+      </c>
+      <c r="E143" s="1">
+        <v>3.28</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="7"/>
-      <c r="B144" s="15"/>
+      <c r="B144" s="16" t="s">
+        <v>172</v>
+      </c>
       <c r="C144" t="s">
-        <v>357</v>
+        <v>173</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>358</v>
+        <v>171</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="7"/>
+      <c r="B145" s="16"/>
       <c r="C145" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="7"/>
+      <c r="B146" s="16"/>
       <c r="C146" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>183</v>
+        <v>235</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="7"/>
+      <c r="B147" s="16"/>
       <c r="C147" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>183</v>
+        <v>156</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="7"/>
+      <c r="B148" s="16"/>
       <c r="C148" t="s">
-        <v>181</v>
+        <v>355</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>185</v>
+        <v>356</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="7"/>
       <c r="C149" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>369</v>
+        <v>175</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="7"/>
-      <c r="B150" s="2" t="s">
-        <v>247</v>
-      </c>
       <c r="C150" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="7"/>
-      <c r="B151" s="15" t="s">
-        <v>367</v>
-      </c>
       <c r="C151" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>359</v>
+        <v>182</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="7"/>
-      <c r="B152" s="15"/>
       <c r="C152" t="s">
         <v>180</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>361</v>
+        <v>184</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="7"/>
-      <c r="B153" s="15"/>
       <c r="C153" t="s">
-        <v>360</v>
+        <v>183</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>359</v>
+        <v>184</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="7"/>
-      <c r="B154" s="15"/>
+      <c r="B154" s="2" t="s">
+        <v>245</v>
+      </c>
       <c r="C154" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="7"/>
-      <c r="B155" s="15" t="s">
-        <v>305</v>
+      <c r="B155" s="16" t="s">
+        <v>365</v>
       </c>
       <c r="C155" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E155" s="1">
-        <v>3.25</v>
+        <v>160</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="7"/>
-      <c r="B156" s="15"/>
+      <c r="B156" s="16"/>
       <c r="C156" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="7"/>
-      <c r="B157" s="15"/>
+      <c r="B157" s="16"/>
       <c r="C157" t="s">
-        <v>190</v>
+        <v>358</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>191</v>
+        <v>357</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="7"/>
-      <c r="B158" s="15" t="s">
-        <v>299</v>
-      </c>
+      <c r="B158" s="16"/>
       <c r="C158" t="s">
-        <v>297</v>
+        <v>186</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>359</v>
+        <v>190</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="7"/>
-      <c r="B159" s="15"/>
+      <c r="B159" s="16" t="s">
+        <v>303</v>
+      </c>
       <c r="C159" t="s">
-        <v>298</v>
+        <v>187</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="E159" s="1">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="7"/>
-      <c r="B160" s="15"/>
+      <c r="B160" s="16"/>
       <c r="C160" t="s">
-        <v>300</v>
+        <v>188</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="7"/>
-      <c r="B161" s="15"/>
+      <c r="B161" s="16"/>
       <c r="C161" t="s">
-        <v>301</v>
+        <v>189</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>359</v>
+        <v>190</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="7"/>
-      <c r="B162" s="15"/>
+      <c r="B162" s="16" t="s">
+        <v>297</v>
+      </c>
       <c r="C162" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="7"/>
-      <c r="B163" s="15"/>
+      <c r="B163" s="16"/>
       <c r="C163" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D163" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="7"/>
+      <c r="B164" s="16"/>
+      <c r="C164" t="s">
+        <v>298</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="7"/>
+      <c r="B165" s="16"/>
+      <c r="C165" t="s">
+        <v>299</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="7"/>
+      <c r="B166" s="16"/>
+      <c r="C166" t="s">
+        <v>300</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="7"/>
+      <c r="B167" s="16"/>
+      <c r="C167" t="s">
+        <v>301</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="7"/>
+      <c r="B168" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C168" t="s">
+        <v>191</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B169" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="C169" t="s">
+        <v>196</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E169" s="1">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="16"/>
+      <c r="B170" s="16"/>
+      <c r="C170" t="s">
+        <v>197</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E170" s="1">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="16"/>
+      <c r="B171" s="16"/>
+      <c r="C171" t="s">
+        <v>201</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="16"/>
+      <c r="B172" s="16"/>
+      <c r="C172" t="s">
+        <v>202</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="16"/>
+      <c r="B173" s="16"/>
+      <c r="C173" t="s">
+        <v>254</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="16"/>
+      <c r="B174" s="16"/>
+      <c r="C174" t="s">
+        <v>255</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="16"/>
+      <c r="B175" s="16"/>
+      <c r="C175" t="s">
+        <v>256</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="16"/>
+      <c r="B176" s="16"/>
+      <c r="C176" t="s">
         <v>304</v>
       </c>
-      <c r="E163" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="7"/>
-      <c r="B164" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C164" t="s">
-        <v>192</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="B165" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="C165" t="s">
-        <v>197</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E165" s="1">
-        <v>3.14</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="15"/>
-      <c r="B166" s="15"/>
-      <c r="C166" t="s">
-        <v>198</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E166" s="1">
-        <v>3.14</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="15"/>
-      <c r="B167" s="15"/>
-      <c r="C167" t="s">
-        <v>202</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="15"/>
-      <c r="B168" s="15"/>
-      <c r="C168" t="s">
-        <v>203</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="15"/>
-      <c r="B169" s="15"/>
-      <c r="C169" t="s">
-        <v>256</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="15"/>
-      <c r="B170" s="15"/>
-      <c r="C170" t="s">
-        <v>257</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="15"/>
-      <c r="B171" s="15"/>
-      <c r="C171" t="s">
-        <v>258</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="15"/>
-      <c r="B172" s="15"/>
-      <c r="C172" t="s">
-        <v>306</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="15"/>
-      <c r="B173" s="7"/>
-      <c r="C173" t="s">
-        <v>200</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="15"/>
-      <c r="B174" s="7"/>
-      <c r="C174" t="s">
-        <v>201</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="15"/>
-      <c r="B175" s="7"/>
-      <c r="C175" t="s">
-        <v>204</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="15"/>
-      <c r="B176" s="7"/>
-      <c r="C176" t="s">
-        <v>312</v>
-      </c>
       <c r="D176" s="1" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="15"/>
+      <c r="A177" s="16"/>
       <c r="B177" s="7"/>
       <c r="C177" t="s">
-        <v>313</v>
+        <v>199</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>314</v>
+        <v>204</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="15"/>
-      <c r="B178" s="15" t="s">
-        <v>311</v>
-      </c>
+      <c r="A178" s="16"/>
+      <c r="B178" s="7"/>
       <c r="C178" t="s">
-        <v>308</v>
+        <v>200</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>307</v>
+        <v>204</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="15"/>
-      <c r="B179" s="15"/>
+      <c r="A179" s="16"/>
+      <c r="B179" s="7"/>
       <c r="C179" t="s">
-        <v>309</v>
+        <v>203</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>307</v>
+        <v>204</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="15"/>
-      <c r="B180" s="15"/>
+      <c r="A180" s="16"/>
+      <c r="B180" s="7"/>
       <c r="C180" t="s">
         <v>310</v>
       </c>
       <c r="D180" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="16"/>
+      <c r="B181" s="7"/>
+      <c r="C181" t="s">
+        <v>311</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="16"/>
+      <c r="B182" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C182" t="s">
+        <v>306</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="16"/>
+      <c r="B183" s="16"/>
+      <c r="C183" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="15" t="s">
+      <c r="D183" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="16"/>
+      <c r="B184" s="16"/>
+      <c r="C184" t="s">
+        <v>308</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="B185" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="B181" s="15" t="s">
+      <c r="C185" t="s">
         <v>207</v>
       </c>
-      <c r="C181" t="s">
+      <c r="D185" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D181" s="1" t="s">
+      <c r="E185" s="1">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="16"/>
+      <c r="B186" s="16"/>
+      <c r="C186" t="s">
         <v>209</v>
       </c>
-      <c r="E181" s="1">
+      <c r="D186" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E186" s="1">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="16"/>
+      <c r="B187" s="16"/>
+      <c r="C187" t="s">
+        <v>211</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E187" s="1">
         <v>3.22</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="15"/>
-      <c r="B182" s="15"/>
-      <c r="C182" t="s">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="16"/>
+      <c r="B188" s="16"/>
+      <c r="C188" t="s">
+        <v>212</v>
+      </c>
+      <c r="D188" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D182" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E182" s="1">
-        <v>3.23</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="15"/>
-      <c r="B183" s="15"/>
-      <c r="C183" t="s">
-        <v>212</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E183" s="1">
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="16"/>
+      <c r="B189" s="16"/>
+      <c r="C189" t="s">
+        <v>213</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="16"/>
+      <c r="B190" s="16"/>
+      <c r="C190" t="s">
+        <v>215</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="16"/>
+      <c r="B191" s="16"/>
+      <c r="C191" t="s">
+        <v>217</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E191" s="1">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="16"/>
+      <c r="B192" s="16"/>
+      <c r="C192" t="s">
+        <v>280</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="16"/>
+      <c r="B193" s="16"/>
+      <c r="C193" t="s">
+        <v>281</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E193" s="1">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="16"/>
+      <c r="B194" s="16"/>
+      <c r="C194" t="s">
+        <v>282</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E194" s="1">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="16"/>
+      <c r="B195" s="16"/>
+      <c r="C195" t="s">
+        <v>283</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="16"/>
+      <c r="B196" s="16"/>
+      <c r="C196" t="s">
+        <v>284</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="16"/>
+      <c r="B197" s="16"/>
+      <c r="C197" t="s">
+        <v>285</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="16"/>
+      <c r="B198" s="16"/>
+      <c r="C198" t="s">
+        <v>286</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E198" s="1">
         <v>3.22</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="15"/>
-      <c r="B184" s="15"/>
-      <c r="C184" t="s">
-        <v>213</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="15"/>
-      <c r="B185" s="15"/>
-      <c r="C185" t="s">
-        <v>214</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="15"/>
-      <c r="B186" s="15"/>
-      <c r="C186" t="s">
-        <v>216</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="15"/>
-      <c r="B187" s="15"/>
-      <c r="C187" t="s">
-        <v>219</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E187" s="1">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="16"/>
+      <c r="B199" s="16"/>
+      <c r="C199" t="s">
+        <v>287</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="16"/>
+      <c r="B200" s="16"/>
+      <c r="C200" t="s">
+        <v>288</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="16"/>
+      <c r="B201" s="16"/>
+      <c r="C201" t="s">
+        <v>289</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="16"/>
+      <c r="B202" s="16"/>
+      <c r="C202" t="s">
+        <v>332</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="16"/>
+      <c r="B203" s="16"/>
+      <c r="C203" t="s">
+        <v>333</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="16"/>
+      <c r="B204" s="16"/>
+      <c r="C204" t="s">
+        <v>334</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="16"/>
+      <c r="B205" s="16"/>
+      <c r="C205" t="s">
+        <v>61</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E205" s="1">
         <v>3.24</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="15"/>
-      <c r="B188" s="15"/>
-      <c r="C188" t="s">
-        <v>282</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="15"/>
-      <c r="B189" s="15"/>
-      <c r="C189" t="s">
-        <v>283</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E189" s="1">
-        <v>3.24</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="15"/>
-      <c r="B190" s="15"/>
-      <c r="C190" t="s">
-        <v>284</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E190" s="1">
-        <v>3.24</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="15"/>
-      <c r="B191" s="15"/>
-      <c r="C191" t="s">
-        <v>285</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="15"/>
-      <c r="B192" s="15"/>
-      <c r="C192" t="s">
-        <v>286</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" s="15"/>
-      <c r="B193" s="15"/>
-      <c r="C193" t="s">
-        <v>287</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" s="15"/>
-      <c r="B194" s="15"/>
-      <c r="C194" t="s">
-        <v>288</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E194" s="1">
-        <v>3.22</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" s="15"/>
-      <c r="B195" s="15"/>
-      <c r="C195" t="s">
-        <v>289</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" s="15"/>
-      <c r="B196" s="15"/>
-      <c r="C196" t="s">
-        <v>290</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" s="15"/>
-      <c r="B197" s="15"/>
-      <c r="C197" t="s">
-        <v>291</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" s="15"/>
-      <c r="B198" s="15"/>
-      <c r="C198" t="s">
-        <v>334</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" s="15"/>
-      <c r="B199" s="15"/>
-      <c r="C199" t="s">
-        <v>335</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="15"/>
-      <c r="B200" s="15"/>
-      <c r="C200" t="s">
-        <v>336</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="15"/>
-      <c r="B201" s="15"/>
-      <c r="C201" t="s">
-        <v>61</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E201" s="1">
-        <v>3.24</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" s="15"/>
-      <c r="B202" s="15"/>
-      <c r="C202" t="s">
-        <v>341</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" s="15"/>
-      <c r="B203" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="C203" t="s">
-        <v>221</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" s="15"/>
-      <c r="B204" s="15"/>
-      <c r="C204" t="s">
-        <v>222</v>
-      </c>
-      <c r="D204" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" s="15"/>
-      <c r="B205" s="15"/>
-      <c r="C205" t="s">
-        <v>224</v>
-      </c>
-      <c r="D205" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" s="15"/>
-      <c r="B206" s="15"/>
+      <c r="A206" s="16"/>
+      <c r="B206" s="16"/>
       <c r="C206" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" s="15"/>
-      <c r="B207" s="15"/>
+      <c r="A207" s="16"/>
+      <c r="B207" s="16"/>
       <c r="C207" t="s">
-        <v>339</v>
+        <v>403</v>
       </c>
       <c r="D207" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="16"/>
+      <c r="B208" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="C208" t="s">
+        <v>219</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="16"/>
+      <c r="B209" s="16"/>
+      <c r="C209" t="s">
+        <v>220</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" s="16"/>
+      <c r="B210" s="16"/>
+      <c r="C210" t="s">
+        <v>222</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" s="16"/>
+      <c r="B211" s="16"/>
+      <c r="C211" t="s">
+        <v>336</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="16"/>
+      <c r="B212" s="16"/>
+      <c r="C212" t="s">
+        <v>337</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="16"/>
+      <c r="B213" s="16"/>
+      <c r="C213" t="s">
+        <v>341</v>
+      </c>
+      <c r="D213" s="1" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" s="15"/>
-      <c r="B208" s="15"/>
-      <c r="C208" t="s">
-        <v>343</v>
-      </c>
-      <c r="D208" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C209" t="s">
-        <v>218</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E209" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="B210" s="7"/>
-      <c r="C210" t="s">
-        <v>227</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" s="7"/>
-      <c r="B211" s="7"/>
-      <c r="C211" t="s">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="D211" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" s="7"/>
-      <c r="B212" s="7"/>
-      <c r="C212" t="s">
-        <v>230</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" s="7"/>
-      <c r="B213" s="7"/>
-      <c r="C213" t="s">
-        <v>385</v>
-      </c>
-      <c r="D213" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" s="7"/>
       <c r="B214" s="7"/>
       <c r="C214" t="s">
-        <v>386</v>
+        <v>225</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>387</v>
+        <v>226</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="7"/>
       <c r="B215" s="7"/>
       <c r="C215" t="s">
-        <v>388</v>
+        <v>227</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>387</v>
+        <v>226</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="7"/>
       <c r="B216" s="7"/>
       <c r="C216" t="s">
-        <v>389</v>
+        <v>228</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>387</v>
+        <v>226</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="7"/>
       <c r="B217" s="7"/>
       <c r="C217" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="7"/>
+      <c r="B218" s="7"/>
       <c r="C218" t="s">
-        <v>238</v>
+        <v>384</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E218" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="7"/>
       <c r="B219" s="7"/>
       <c r="C219" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="7"/>
       <c r="B220" s="7"/>
       <c r="C220" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="7"/>
       <c r="B221" s="7"/>
       <c r="C221" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="B222" s="15" t="s">
-        <v>234</v>
-      </c>
+      <c r="A222" s="7"/>
       <c r="C222" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="7"/>
-      <c r="B223" s="15"/>
+      <c r="B223" s="7"/>
       <c r="C223" t="s">
-        <v>233</v>
+        <v>390</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>228</v>
+        <v>389</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="7"/>
-      <c r="B224" s="2" t="s">
-        <v>236</v>
-      </c>
+      <c r="B224" s="7"/>
       <c r="C224" t="s">
-        <v>235</v>
+        <v>391</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E224" s="1" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="7"/>
+      <c r="B225" s="7"/>
       <c r="C225" t="s">
-        <v>240</v>
+        <v>392</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>237</v>
+        <v>389</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A226" s="7"/>
+      <c r="A226" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B226" s="16" t="s">
+        <v>232</v>
+      </c>
       <c r="C226" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>237</v>
+        <v>226</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="7"/>
-      <c r="B227" s="15" t="s">
-        <v>128</v>
-      </c>
+      <c r="B227" s="16"/>
       <c r="C227" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E227" s="1" t="s">
-        <v>375</v>
+        <v>226</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="7"/>
-      <c r="B228" s="15"/>
+      <c r="B228" s="2" t="s">
+        <v>234</v>
+      </c>
       <c r="C228" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>242</v>
+        <v>226</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="7"/>
-      <c r="B229" s="15"/>
       <c r="C229" t="s">
-        <v>376</v>
+        <v>238</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>375</v>
+        <v>235</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="7"/>
-      <c r="B230" s="15"/>
       <c r="C230" t="s">
-        <v>381</v>
+        <v>237</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>378</v>
+        <v>235</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="7"/>
-      <c r="B231" s="15" t="s">
-        <v>246</v>
+      <c r="B231" s="16" t="s">
+        <v>127</v>
       </c>
       <c r="C231" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="7"/>
-      <c r="B232" s="15"/>
+      <c r="B232" s="16"/>
       <c r="C232" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="7"/>
-      <c r="B233" s="15" t="s">
-        <v>384</v>
-      </c>
+      <c r="B233" s="16"/>
       <c r="C233" t="s">
-        <v>266</v>
+        <v>374</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>264</v>
+        <v>373</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="7"/>
-      <c r="B234" s="15"/>
+      <c r="B234" s="16"/>
       <c r="C234" t="s">
-        <v>269</v>
+        <v>379</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>272</v>
+        <v>376</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="7"/>
-      <c r="B235" s="15"/>
+      <c r="B235" s="16" t="s">
+        <v>244</v>
+      </c>
       <c r="C235" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>272</v>
+        <v>240</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="7"/>
-      <c r="B236" s="15"/>
+      <c r="B236" s="16"/>
       <c r="C236" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>272</v>
+        <v>240</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="7"/>
-      <c r="B237" s="15"/>
+      <c r="B237" s="16" t="s">
+        <v>382</v>
+      </c>
       <c r="C237" t="s">
-        <v>370</v>
+        <v>264</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>369</v>
+        <v>262</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="7"/>
-      <c r="B238" s="15"/>
+      <c r="B238" s="16"/>
       <c r="C238" t="s">
-        <v>373</v>
+        <v>267</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>375</v>
+        <v>270</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="7"/>
-      <c r="B239" s="15"/>
+      <c r="B239" s="16"/>
       <c r="C239" t="s">
-        <v>371</v>
+        <v>268</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>369</v>
+        <v>270</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="7"/>
-      <c r="B240" s="15"/>
+      <c r="B240" s="16"/>
       <c r="C240" t="s">
-        <v>374</v>
+        <v>269</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>375</v>
+        <v>270</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="7"/>
-      <c r="B241" s="15"/>
+      <c r="B241" s="16"/>
       <c r="C241" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="7"/>
-      <c r="B242" s="13"/>
+      <c r="B242" s="16"/>
       <c r="C242" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="7"/>
-      <c r="B243" s="15" t="s">
-        <v>383</v>
-      </c>
+      <c r="B243" s="16"/>
       <c r="C243" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="7"/>
-      <c r="B244" s="15"/>
+      <c r="B244" s="16"/>
       <c r="C244" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="7"/>
-      <c r="B245" s="13"/>
+      <c r="B245" s="16"/>
       <c r="C245" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="D245" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" s="7"/>
+      <c r="B246" s="13"/>
+      <c r="C246" t="s">
+        <v>375</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" s="7"/>
+      <c r="B247" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="C247" t="s">
+        <v>377</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" s="7"/>
+      <c r="B248" s="16"/>
+      <c r="C248" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A246" s="15" t="s">
+      <c r="D248" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" s="7"/>
+      <c r="B249" s="13"/>
+      <c r="C249" t="s">
+        <v>380</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="C250" t="s">
+        <v>247</v>
+      </c>
+      <c r="D250" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C246" t="s">
+      <c r="E250" s="1">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" s="16"/>
+      <c r="C251" t="s">
         <v>249</v>
       </c>
-      <c r="D246" s="1" t="s">
+      <c r="D251" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E251" s="1">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" s="16"/>
+      <c r="B252" s="4"/>
+      <c r="C252" t="s">
+        <v>263</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" s="16"/>
+      <c r="B253" s="10"/>
+      <c r="C253" t="s">
+        <v>328</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" s="16"/>
+      <c r="B254" s="10"/>
+      <c r="C254" t="s">
+        <v>329</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" s="16"/>
+      <c r="B255" s="10"/>
+      <c r="C255" t="s">
+        <v>330</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="E246" s="1">
-        <v>3.19</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A247" s="15"/>
-      <c r="C247" t="s">
+      <c r="C256" t="s">
         <v>251</v>
       </c>
-      <c r="D247" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E247" s="1">
-        <v>3.19</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A248" s="15"/>
-      <c r="B248" s="4"/>
-      <c r="C248" t="s">
+      <c r="D256" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" s="16"/>
+      <c r="B257" s="12"/>
+      <c r="C257" t="s">
+        <v>366</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>257</v>
+      </c>
+      <c r="C258" t="s">
+        <v>258</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>260</v>
+      </c>
+      <c r="C259" t="s">
+        <v>261</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
         <v>265</v>
       </c>
-      <c r="D248" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A249" s="15"/>
-      <c r="B249" s="10"/>
-      <c r="C249" t="s">
-        <v>330</v>
-      </c>
-      <c r="D249" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A250" s="15"/>
-      <c r="B250" s="10"/>
-      <c r="C250" t="s">
-        <v>331</v>
-      </c>
-      <c r="D250" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A251" s="15"/>
-      <c r="B251" s="10"/>
-      <c r="C251" t="s">
-        <v>332</v>
-      </c>
-      <c r="D251" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A252" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="C252" t="s">
-        <v>253</v>
-      </c>
-      <c r="D252" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E252" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A253" s="15"/>
-      <c r="B253" s="12"/>
-      <c r="C253" t="s">
-        <v>368</v>
-      </c>
-      <c r="D253" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>259</v>
-      </c>
-      <c r="C254" t="s">
-        <v>260</v>
-      </c>
-      <c r="D254" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
+      <c r="C260" t="s">
+        <v>266</v>
+      </c>
+      <c r="D260" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C255" t="s">
-        <v>263</v>
-      </c>
-      <c r="D255" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>267</v>
-      </c>
-      <c r="C256" t="s">
-        <v>268</v>
-      </c>
-      <c r="D256" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="257" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C257" t="s">
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C261" t="s">
+        <v>274</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C262" t="s">
+        <v>275</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C263" t="s">
         <v>276</v>
       </c>
-      <c r="D257" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="258" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C258" t="s">
+      <c r="D263" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="D258" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="259" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C259" t="s">
-        <v>278</v>
-      </c>
-      <c r="D259" s="1" t="s">
-        <v>279</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="A185:A213"/>
+    <mergeCell ref="A256:A257"/>
+    <mergeCell ref="B231:B234"/>
+    <mergeCell ref="B247:B248"/>
+    <mergeCell ref="B237:B245"/>
+    <mergeCell ref="B144:B148"/>
+    <mergeCell ref="A250:A255"/>
+    <mergeCell ref="B235:B236"/>
+    <mergeCell ref="B226:B227"/>
+    <mergeCell ref="B208:B213"/>
+    <mergeCell ref="B169:B176"/>
+    <mergeCell ref="B182:B184"/>
+    <mergeCell ref="A169:A184"/>
+    <mergeCell ref="B159:B161"/>
+    <mergeCell ref="B185:B207"/>
+    <mergeCell ref="B162:B167"/>
+    <mergeCell ref="B125:B128"/>
+    <mergeCell ref="B118:B122"/>
+    <mergeCell ref="B129:B132"/>
+    <mergeCell ref="B155:B158"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="B133:B141"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="B108:B117"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="A108:A122"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="A97:A102"/>
     <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B73:B75"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="B13:B31"/>
     <mergeCell ref="B32:B40"/>
@@ -4834,40 +4930,10 @@
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B53:B55"/>
     <mergeCell ref="A56:A67"/>
-    <mergeCell ref="A69:A89"/>
+    <mergeCell ref="A73:A93"/>
     <mergeCell ref="B47:B48"/>
     <mergeCell ref="A42:A55"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B104:B113"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="A104:A118"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="A93:A98"/>
-    <mergeCell ref="B158:B163"/>
-    <mergeCell ref="B121:B124"/>
-    <mergeCell ref="B114:B118"/>
-    <mergeCell ref="B125:B128"/>
-    <mergeCell ref="B151:B154"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="B129:B137"/>
-    <mergeCell ref="A252:A253"/>
-    <mergeCell ref="B227:B230"/>
-    <mergeCell ref="B243:B244"/>
-    <mergeCell ref="B233:B241"/>
-    <mergeCell ref="B140:B144"/>
-    <mergeCell ref="A246:A251"/>
-    <mergeCell ref="B231:B232"/>
-    <mergeCell ref="B222:B223"/>
-    <mergeCell ref="A181:A208"/>
-    <mergeCell ref="B203:B208"/>
-    <mergeCell ref="B181:B202"/>
-    <mergeCell ref="B165:B172"/>
-    <mergeCell ref="B178:B180"/>
-    <mergeCell ref="A165:A180"/>
-    <mergeCell ref="B155:B157"/>
+    <mergeCell ref="B76:B78"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/时间表.xlsx
+++ b/时间表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\360\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E36DFBC-C8B9-46C1-B50D-AC6461E8CD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24143FF-A9ED-4E80-A206-0A037205779E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11028" yWindow="240" windowWidth="11748" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="407">
   <si>
     <t>第一次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -435,10 +435,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>506和为k的子数组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.27</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1640,6 +1636,22 @@
   </si>
   <si>
     <t>332重新安排行程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>560和为k的子数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>566重塑数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>217存在重复元素</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1683,7 +1695,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1703,6 +1715,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2011,10 +2026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F263"/>
+  <dimension ref="A1:F265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F76" sqref="F76"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2046,11 +2061,11 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>152</v>
+      <c r="B2" s="17" t="s">
+        <v>151</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -2060,8 +2075,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -2069,11 +2084,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="A4" s="17"/>
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -2082,42 +2097,42 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16" t="s">
-        <v>140</v>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="C5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D5" s="1">
         <v>1.2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
       <c r="C6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D6" s="1">
         <v>1.2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
       <c r="C7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D7" s="1">
         <v>1.2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
       <c r="C8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D8" s="1">
         <v>1.2</v>
@@ -2127,9 +2142,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16" t="s">
-        <v>151</v>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17" t="s">
+        <v>150</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -2139,8 +2154,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
       <c r="C10" t="s">
         <v>9</v>
       </c>
@@ -2149,8 +2164,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
       <c r="C11" t="s">
         <v>10</v>
       </c>
@@ -2159,7 +2174,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
+      <c r="A12" s="17"/>
       <c r="C12" t="s">
         <v>97</v>
       </c>
@@ -2168,10 +2183,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="17" t="s">
         <v>13</v>
       </c>
       <c r="C13" t="s">
@@ -2182,8 +2197,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -2192,8 +2207,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
       <c r="C15" t="s">
         <v>17</v>
       </c>
@@ -2202,8 +2217,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
       <c r="C16" t="s">
         <v>18</v>
       </c>
@@ -2212,8 +2227,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
       <c r="C17" t="s">
         <v>19</v>
       </c>
@@ -2222,8 +2237,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
       <c r="C18" t="s">
         <v>20</v>
       </c>
@@ -2232,8 +2247,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
       <c r="C19" t="s">
         <v>21</v>
       </c>
@@ -2242,8 +2257,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
       <c r="C20" t="s">
         <v>22</v>
       </c>
@@ -2252,8 +2267,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
       <c r="C21" t="s">
         <v>23</v>
       </c>
@@ -2262,8 +2277,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
       <c r="C22" t="s">
         <v>24</v>
       </c>
@@ -2272,8 +2287,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -2282,8 +2297,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
       <c r="C24" t="s">
         <v>26</v>
       </c>
@@ -2292,8 +2307,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
       <c r="C25" t="s">
         <v>27</v>
       </c>
@@ -2302,8 +2317,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
       <c r="C26" t="s">
         <v>28</v>
       </c>
@@ -2312,8 +2327,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
       <c r="C27" t="s">
         <v>29</v>
       </c>
@@ -2322,8 +2337,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
       <c r="C28" t="s">
         <v>30</v>
       </c>
@@ -2332,8 +2347,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
       <c r="C29" t="s">
         <v>31</v>
       </c>
@@ -2342,8 +2357,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
       <c r="C30" t="s">
         <v>32</v>
       </c>
@@ -2352,8 +2367,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
       <c r="C31" t="s">
         <v>33</v>
       </c>
@@ -2362,8 +2377,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16" t="s">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17" t="s">
         <v>34</v>
       </c>
       <c r="C32" t="s">
@@ -2374,8 +2389,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
       <c r="C33" t="s">
         <v>36</v>
       </c>
@@ -2384,8 +2399,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
       <c r="C34" t="s">
         <v>37</v>
       </c>
@@ -2394,8 +2409,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
       <c r="C35" t="s">
         <v>39</v>
       </c>
@@ -2404,8 +2419,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
       <c r="C36" t="s">
         <v>40</v>
       </c>
@@ -2414,8 +2429,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
       <c r="C37" t="s">
         <v>41</v>
       </c>
@@ -2424,8 +2439,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
       <c r="C38" t="s">
         <v>42</v>
       </c>
@@ -2434,8 +2449,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="16"/>
-      <c r="B39" s="16"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
       <c r="C39" t="s">
         <v>44</v>
       </c>
@@ -2444,8 +2459,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
       <c r="C40" t="s">
         <v>45</v>
       </c>
@@ -2454,7 +2469,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
+      <c r="A41" s="17"/>
       <c r="B41" s="2" t="s">
         <v>47</v>
       </c>
@@ -2466,7 +2481,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="17" t="s">
         <v>50</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -2480,7 +2495,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
+      <c r="A43" s="17"/>
       <c r="B43" s="2" t="s">
         <v>74</v>
       </c>
@@ -2492,7 +2507,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
+      <c r="A44" s="17"/>
       <c r="B44" s="2" t="s">
         <v>75</v>
       </c>
@@ -2504,8 +2519,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="16"/>
-      <c r="B45" s="16" t="s">
+      <c r="A45" s="17"/>
+      <c r="B45" s="17" t="s">
         <v>76</v>
       </c>
       <c r="C45" t="s">
@@ -2516,8 +2531,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="16"/>
-      <c r="B46" s="16"/>
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
       <c r="C46" t="s">
         <v>57</v>
       </c>
@@ -2526,8 +2541,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="16"/>
-      <c r="B47" s="16" t="s">
+      <c r="A47" s="17"/>
+      <c r="B47" s="17" t="s">
         <v>77</v>
       </c>
       <c r="C47" t="s">
@@ -2538,8 +2553,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="16"/>
-      <c r="B48" s="16"/>
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
       <c r="C48" t="s">
         <v>62</v>
       </c>
@@ -2548,8 +2563,8 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="16"/>
-      <c r="B49" s="16" t="s">
+      <c r="A49" s="17"/>
+      <c r="B49" s="17" t="s">
         <v>78</v>
       </c>
       <c r="C49" t="s">
@@ -2560,8 +2575,8 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="16"/>
-      <c r="B50" s="16"/>
+      <c r="A50" s="17"/>
+      <c r="B50" s="17"/>
       <c r="C50" t="s">
         <v>65</v>
       </c>
@@ -2570,8 +2585,8 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="16"/>
-      <c r="B51" s="16"/>
+      <c r="A51" s="17"/>
+      <c r="B51" s="17"/>
       <c r="C51" t="s">
         <v>66</v>
       </c>
@@ -2580,7 +2595,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="16"/>
+      <c r="A52" s="17"/>
       <c r="B52" s="2" t="s">
         <v>79</v>
       </c>
@@ -2592,8 +2607,8 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="16"/>
-      <c r="B53" s="16" t="s">
+      <c r="A53" s="17"/>
+      <c r="B53" s="17" t="s">
         <v>80</v>
       </c>
       <c r="C53" t="s">
@@ -2604,8 +2619,8 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="16"/>
-      <c r="B54" s="16"/>
+      <c r="A54" s="17"/>
+      <c r="B54" s="17"/>
       <c r="C54" t="s">
         <v>70</v>
       </c>
@@ -2614,8 +2629,8 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="16"/>
-      <c r="B55" s="16"/>
+      <c r="A55" s="17"/>
+      <c r="B55" s="17"/>
       <c r="C55" t="s">
         <v>71</v>
       </c>
@@ -2624,7 +2639,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="17" t="s">
         <v>81</v>
       </c>
       <c r="C56" t="s">
@@ -2635,7 +2650,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="16"/>
+      <c r="A57" s="17"/>
       <c r="C57" t="s">
         <v>83</v>
       </c>
@@ -2644,7 +2659,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="16"/>
+      <c r="A58" s="17"/>
       <c r="C58" t="s">
         <v>84</v>
       </c>
@@ -2653,7 +2668,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="16"/>
+      <c r="A59" s="17"/>
       <c r="C59" t="s">
         <v>86</v>
       </c>
@@ -2662,7 +2677,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="16"/>
+      <c r="A60" s="17"/>
       <c r="C60" t="s">
         <v>87</v>
       </c>
@@ -2671,16 +2686,19 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="16"/>
+      <c r="A61" s="17"/>
       <c r="C61" t="s">
         <v>89</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="E61" s="1" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="16"/>
+      <c r="A62" s="17"/>
       <c r="C62" t="s">
         <v>90</v>
       </c>
@@ -2688,20 +2706,23 @@
         <v>93</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="16"/>
+      <c r="A63" s="17"/>
       <c r="C63" t="s">
         <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="E63" s="1" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="16"/>
+      <c r="A64" s="17"/>
       <c r="C64" t="s">
         <v>92</v>
       </c>
@@ -2709,11 +2730,11 @@
         <v>93</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="16"/>
+      <c r="A65" s="17"/>
       <c r="C65" t="s">
         <v>94</v>
       </c>
@@ -2721,937 +2742,951 @@
         <v>96</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="16"/>
+      <c r="A66" s="17"/>
       <c r="C66" t="s">
         <v>95</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="E66" s="1" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="16"/>
+      <c r="A67" s="17"/>
       <c r="B67" s="6"/>
       <c r="C67" t="s">
+        <v>277</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
       <c r="C68" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="15"/>
       <c r="B69" s="15"/>
       <c r="C69" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="15"/>
       <c r="B70" s="15"/>
       <c r="C70" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="15"/>
       <c r="B71" s="15"/>
       <c r="C71" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="C72" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="16" t="s">
+      <c r="A73" s="16"/>
+      <c r="B73" s="16"/>
+      <c r="C73" t="s">
+        <v>406</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="B73" s="16" t="s">
+      <c r="B74" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C74" t="s">
+        <v>100</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="17"/>
+      <c r="B75" s="17"/>
+      <c r="C75" t="s">
+        <v>101</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="17"/>
+      <c r="B76" s="17"/>
+      <c r="C76" t="s">
+        <v>403</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="17"/>
+      <c r="B77" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C77" t="s">
         <v>105</v>
       </c>
-      <c r="C73" t="s">
-        <v>100</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="16"/>
-      <c r="B74" s="16"/>
-      <c r="C74" t="s">
-        <v>101</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="16"/>
-      <c r="B75" s="16"/>
-      <c r="C75" t="s">
+      <c r="D77" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="16"/>
-      <c r="B76" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C76" t="s">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="17"/>
+      <c r="B78" s="17"/>
+      <c r="C78" t="s">
         <v>106</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="16"/>
-      <c r="B77" s="16"/>
-      <c r="C77" t="s">
+      <c r="D78" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="17"/>
+      <c r="B79" s="17"/>
+      <c r="C79" t="s">
         <v>107</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="16"/>
-      <c r="B78" s="16"/>
-      <c r="C78" t="s">
+      <c r="D79" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D78" s="1" t="s">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="17"/>
+      <c r="B80" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C80" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="16"/>
-      <c r="B79" s="16" t="s">
+      <c r="D80" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="17"/>
+      <c r="B81" s="17"/>
+      <c r="C81" t="s">
+        <v>110</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="17"/>
+      <c r="B82" s="17"/>
+      <c r="C82" t="s">
+        <v>111</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="17"/>
+      <c r="B83" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C83" t="s">
+        <v>122</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="17"/>
+      <c r="B84" s="17"/>
+      <c r="C84" t="s">
+        <v>123</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="17"/>
+      <c r="B85" s="17"/>
+      <c r="C85" t="s">
+        <v>125</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="17"/>
+      <c r="C86" t="s">
         <v>113</v>
       </c>
-      <c r="C79" t="s">
-        <v>110</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="16"/>
-      <c r="B80" s="16"/>
-      <c r="C80" t="s">
-        <v>111</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="16"/>
-      <c r="B81" s="16"/>
-      <c r="C81" t="s">
-        <v>112</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="16"/>
-      <c r="B82" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="C82" t="s">
-        <v>123</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="16"/>
-      <c r="B83" s="16"/>
-      <c r="C83" t="s">
-        <v>124</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="16"/>
-      <c r="B84" s="16"/>
-      <c r="C84" t="s">
-        <v>126</v>
-      </c>
-      <c r="D84" s="1" t="s">
+      <c r="D86" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="17"/>
+      <c r="B87" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C87" t="s">
         <v>115</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="16"/>
-      <c r="C85" t="s">
-        <v>114</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="16"/>
-      <c r="B86" s="16" t="s">
+      <c r="D87" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="17"/>
+      <c r="B88" s="17"/>
+      <c r="C88" t="s">
+        <v>116</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="17"/>
+      <c r="B89" s="17"/>
+      <c r="C89" t="s">
+        <v>117</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="17"/>
+      <c r="B90" s="17"/>
+      <c r="C90" t="s">
+        <v>118</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="17"/>
+      <c r="B91" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="C91" t="s">
+        <v>397</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="17"/>
+      <c r="B92" s="17"/>
+      <c r="C92" t="s">
         <v>121</v>
       </c>
-      <c r="C86" t="s">
-        <v>116</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="16"/>
-      <c r="B87" s="16"/>
-      <c r="C87" t="s">
-        <v>117</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="16"/>
-      <c r="B88" s="16"/>
-      <c r="C88" t="s">
-        <v>118</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="16"/>
-      <c r="B89" s="16"/>
-      <c r="C89" t="s">
+      <c r="D92" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="16"/>
-      <c r="B90" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="C90" t="s">
-        <v>398</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="16"/>
-      <c r="B91" s="16"/>
-      <c r="C91" t="s">
-        <v>122</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="16"/>
-      <c r="B92" s="16"/>
-      <c r="C92" t="s">
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="17"/>
+      <c r="B93" s="17"/>
+      <c r="C93" t="s">
+        <v>290</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="17"/>
+      <c r="B94" s="17"/>
+      <c r="C94" t="s">
         <v>291</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="16"/>
-      <c r="B93" s="16"/>
-      <c r="C93" t="s">
+      <c r="D94" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="14"/>
-      <c r="B94" s="14"/>
-      <c r="C94" t="s">
-        <v>395</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="14"/>
       <c r="B95" s="14"/>
       <c r="C95" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="14"/>
       <c r="B96" s="14"/>
       <c r="C96" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="16" t="s">
-        <v>128</v>
-      </c>
+      <c r="A97" s="14"/>
+      <c r="B97" s="14"/>
       <c r="C97" t="s">
-        <v>129</v>
+        <v>396</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>131</v>
+        <v>392</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="16"/>
+      <c r="B98" s="16"/>
       <c r="C98" t="s">
+        <v>405</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C99" t="s">
+        <v>128</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D98" s="1" t="s">
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="17"/>
+      <c r="C100" t="s">
+        <v>129</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E100" s="1">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="17"/>
+      <c r="C101" t="s">
         <v>131</v>
       </c>
-      <c r="E98" s="1">
-        <v>3.17</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="16"/>
-      <c r="C99" t="s">
+      <c r="D101" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="17"/>
+      <c r="C102" t="s">
         <v>132</v>
       </c>
-      <c r="D99" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="16"/>
-      <c r="C100" t="s">
+      <c r="D102" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="17"/>
+      <c r="C103" t="s">
         <v>133</v>
       </c>
-      <c r="D100" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="16"/>
-      <c r="C101" t="s">
+      <c r="D103" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D101" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="16"/>
-      <c r="B102" s="5"/>
-      <c r="C102" t="s">
-        <v>271</v>
-      </c>
-      <c r="D102" s="1" t="s">
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="17"/>
+      <c r="B104" s="5"/>
+      <c r="C104" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="8"/>
-      <c r="B103" s="8"/>
-      <c r="C103" t="s">
-        <v>320</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="8"/>
-      <c r="B104" s="8"/>
-      <c r="C104" t="s">
-        <v>321</v>
-      </c>
       <c r="D104" s="1" t="s">
-        <v>323</v>
+        <v>269</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" t="s">
+        <v>319</v>
+      </c>
+      <c r="D105" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" t="s">
+        <v>320</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="8"/>
+      <c r="B107" s="8"/>
+      <c r="C107" t="s">
+        <v>321</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="8"/>
+      <c r="B108" s="8"/>
+      <c r="C108" t="s">
+        <v>323</v>
+      </c>
+      <c r="D108" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D106" s="1" t="s">
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="9"/>
+      <c r="B109" s="9"/>
+      <c r="C109" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="9"/>
-      <c r="B107" s="9"/>
-      <c r="C107" t="s">
+      <c r="D109" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="D107" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="16" t="s">
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B110" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C110" t="s">
+        <v>147</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E110" s="1">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="17"/>
+      <c r="B111" s="17"/>
+      <c r="C111" t="s">
+        <v>148</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="17"/>
+      <c r="B112" s="17"/>
+      <c r="C112" t="s">
+        <v>149</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="17"/>
+      <c r="B113" s="17"/>
+      <c r="C113" t="s">
+        <v>271</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="17"/>
+      <c r="B114" s="17"/>
+      <c r="C114" t="s">
+        <v>272</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="17"/>
+      <c r="B115" s="17"/>
+      <c r="C115" t="s">
+        <v>312</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="17"/>
+      <c r="B116" s="17"/>
+      <c r="C116" t="s">
+        <v>315</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="17"/>
+      <c r="B117" s="17"/>
+      <c r="C117" t="s">
+        <v>316</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="17"/>
+      <c r="B118" s="17"/>
+      <c r="C118" t="s">
+        <v>317</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="17"/>
+      <c r="B119" s="17"/>
+      <c r="C119" t="s">
+        <v>318</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="17"/>
+      <c r="B120" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="B108" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="C108" t="s">
-        <v>148</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E108" s="1">
-        <v>3.15</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="16"/>
-      <c r="B109" s="16"/>
-      <c r="C109" t="s">
-        <v>149</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="16"/>
-      <c r="B110" s="16"/>
-      <c r="C110" t="s">
-        <v>150</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="16"/>
-      <c r="B111" s="16"/>
-      <c r="C111" t="s">
-        <v>272</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="16"/>
-      <c r="B112" s="16"/>
-      <c r="C112" t="s">
-        <v>273</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="16"/>
-      <c r="B113" s="16"/>
-      <c r="C113" t="s">
+      <c r="C120" t="s">
+        <v>142</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E120" s="1">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="17"/>
+      <c r="B121" s="17"/>
+      <c r="C121" t="s">
+        <v>143</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="17"/>
+      <c r="B122" s="17"/>
+      <c r="C122" t="s">
+        <v>144</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="17"/>
+      <c r="B123" s="17"/>
+      <c r="C123" t="s">
+        <v>145</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="17"/>
+      <c r="B124" s="17"/>
+      <c r="C124" t="s">
         <v>313</v>
       </c>
-      <c r="D113" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="16"/>
-      <c r="B114" s="16"/>
-      <c r="C114" t="s">
-        <v>316</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="16"/>
-      <c r="B115" s="16"/>
-      <c r="C115" t="s">
-        <v>317</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="16"/>
-      <c r="B116" s="16"/>
-      <c r="C116" t="s">
-        <v>318</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="16"/>
-      <c r="B117" s="16"/>
-      <c r="C117" t="s">
-        <v>319</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="16"/>
-      <c r="B118" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="C118" t="s">
-        <v>143</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E118" s="1">
-        <v>3.16</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="16"/>
-      <c r="B119" s="16"/>
-      <c r="C119" t="s">
-        <v>144</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="16"/>
-      <c r="B120" s="16"/>
-      <c r="C120" t="s">
-        <v>145</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="16"/>
-      <c r="B121" s="16"/>
-      <c r="C121" t="s">
-        <v>146</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="16"/>
-      <c r="B122" s="16"/>
-      <c r="C122" t="s">
+      <c r="D124" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="D122" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="B123" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="C123" t="s">
-        <v>342</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="7"/>
-      <c r="B124" s="16"/>
-      <c r="C124" t="s">
-        <v>154</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="7"/>
-      <c r="B125" s="16" t="s">
-        <v>349</v>
+      <c r="A125" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B125" s="17" t="s">
+        <v>347</v>
       </c>
       <c r="C125" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="7"/>
-      <c r="B126" s="16"/>
+      <c r="B126" s="17"/>
       <c r="C126" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E126" s="1">
-        <v>3.26</v>
+        <v>119</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="7"/>
-      <c r="B127" s="16"/>
+      <c r="B127" s="17" t="s">
+        <v>348</v>
+      </c>
       <c r="C127" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="7"/>
-      <c r="B128" s="16"/>
+      <c r="B128" s="17"/>
       <c r="C128" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>158</v>
+        <v>174</v>
+      </c>
+      <c r="E128" s="1">
+        <v>3.26</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="7"/>
-      <c r="B129" s="16" t="s">
-        <v>353</v>
-      </c>
+      <c r="B129" s="17"/>
       <c r="C129" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="7"/>
-      <c r="B130" s="16"/>
+      <c r="B130" s="17"/>
       <c r="C130" t="s">
-        <v>351</v>
+        <v>156</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>354</v>
+        <v>157</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="7"/>
-      <c r="B131" s="16"/>
+      <c r="B131" s="17" t="s">
+        <v>352</v>
+      </c>
       <c r="C131" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="7"/>
-      <c r="B132" s="16"/>
+      <c r="B132" s="17"/>
       <c r="C132" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="7"/>
-      <c r="B133" s="16" t="s">
-        <v>161</v>
-      </c>
+      <c r="B133" s="17"/>
       <c r="C133" t="s">
-        <v>162</v>
+        <v>351</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E133" s="1">
-        <v>3.28</v>
+        <v>353</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="7"/>
-      <c r="B134" s="16"/>
+      <c r="B134" s="17"/>
       <c r="C134" t="s">
-        <v>163</v>
+        <v>360</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E134" s="1">
-        <v>3.28</v>
+        <v>359</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="7"/>
-      <c r="B135" s="16"/>
+      <c r="B135" s="17" t="s">
+        <v>160</v>
+      </c>
       <c r="C135" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>360</v>
+        <v>157</v>
+      </c>
+      <c r="E135" s="1">
+        <v>3.28</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="7"/>
-      <c r="B136" s="16"/>
+      <c r="B136" s="17"/>
       <c r="C136" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
+      </c>
+      <c r="E136" s="1">
+        <v>3.28</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="7"/>
-      <c r="B137" s="16"/>
+      <c r="B137" s="17"/>
       <c r="C137" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="7"/>
-      <c r="B138" s="16"/>
+      <c r="B138" s="17"/>
       <c r="C138" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="7"/>
-      <c r="B139" s="16"/>
+      <c r="B139" s="17"/>
       <c r="C139" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="7"/>
-      <c r="B140" s="16"/>
+      <c r="B140" s="17"/>
       <c r="C140" t="s">
-        <v>362</v>
+        <v>169</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>360</v>
+        <v>170</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="7"/>
-      <c r="B141" s="16"/>
+      <c r="B141" s="17"/>
       <c r="C141" t="s">
-        <v>363</v>
+        <v>191</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>360</v>
+        <v>192</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="11"/>
-      <c r="B142" s="16" t="s">
-        <v>194</v>
-      </c>
+      <c r="A142" s="7"/>
+      <c r="B142" s="17"/>
       <c r="C142" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="7"/>
-      <c r="B143" s="16"/>
+      <c r="B143" s="17"/>
       <c r="C143" t="s">
-        <v>169</v>
+        <v>362</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E143" s="1">
-        <v>3.28</v>
+        <v>359</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="7"/>
-      <c r="B144" s="16" t="s">
-        <v>172</v>
+      <c r="A144" s="11"/>
+      <c r="B144" s="17" t="s">
+        <v>193</v>
       </c>
       <c r="C144" t="s">
-        <v>173</v>
+        <v>342</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="7"/>
-      <c r="B145" s="16"/>
+      <c r="B145" s="17"/>
       <c r="C145" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>175</v>
+        <v>159</v>
+      </c>
+      <c r="E145" s="1">
+        <v>3.28</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="7"/>
-      <c r="B146" s="16"/>
+      <c r="B146" s="17" t="s">
+        <v>171</v>
+      </c>
       <c r="C146" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>235</v>
+        <v>170</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="7"/>
-      <c r="B147" s="16"/>
+      <c r="B147" s="17"/>
       <c r="C147" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>356</v>
+        <v>174</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="7"/>
-      <c r="B148" s="16"/>
+      <c r="B148" s="17"/>
       <c r="C148" t="s">
-        <v>355</v>
+        <v>158</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>356</v>
+        <v>234</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="7"/>
+      <c r="B149" s="17"/>
       <c r="C149" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="7"/>
+      <c r="B150" s="17"/>
       <c r="C150" t="s">
-        <v>181</v>
+        <v>354</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>182</v>
+        <v>355</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="7"/>
       <c r="C151" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -3660,1266 +3695,1254 @@
         <v>180</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="7"/>
       <c r="C153" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>367</v>
+        <v>181</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="7"/>
-      <c r="B154" s="2" t="s">
-        <v>245</v>
-      </c>
       <c r="C154" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="7"/>
-      <c r="B155" s="16" t="s">
-        <v>365</v>
-      </c>
       <c r="C155" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="7"/>
-      <c r="B156" s="16"/>
+      <c r="B156" s="2" t="s">
+        <v>244</v>
+      </c>
       <c r="C156" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>359</v>
+        <v>189</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="7"/>
-      <c r="B157" s="16"/>
+      <c r="B157" s="17" t="s">
+        <v>364</v>
+      </c>
       <c r="C157" t="s">
-        <v>358</v>
+        <v>166</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>357</v>
+        <v>159</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="7"/>
-      <c r="B158" s="16"/>
+      <c r="B158" s="17"/>
       <c r="C158" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>190</v>
+        <v>181</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="7"/>
-      <c r="B159" s="16" t="s">
-        <v>303</v>
-      </c>
+      <c r="B159" s="17"/>
       <c r="C159" t="s">
-        <v>187</v>
+        <v>357</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E159" s="1">
-        <v>3.25</v>
+        <v>356</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="7"/>
-      <c r="B160" s="16"/>
+      <c r="B160" s="17"/>
       <c r="C160" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>360</v>
+        <v>189</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="7"/>
-      <c r="B161" s="16"/>
+      <c r="B161" s="17" t="s">
+        <v>302</v>
+      </c>
       <c r="C161" t="s">
+        <v>186</v>
+      </c>
+      <c r="D161" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D161" s="1" t="s">
-        <v>190</v>
+      <c r="E161" s="1">
+        <v>3.25</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="7"/>
-      <c r="B162" s="16" t="s">
-        <v>297</v>
-      </c>
+      <c r="B162" s="17"/>
       <c r="C162" t="s">
-        <v>295</v>
+        <v>187</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>293</v>
+        <v>189</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="7"/>
-      <c r="B163" s="16"/>
+      <c r="B163" s="17"/>
       <c r="C163" t="s">
+        <v>188</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="7"/>
+      <c r="B164" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="D163" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="7"/>
-      <c r="B164" s="16"/>
       <c r="C164" t="s">
+        <v>294</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="7"/>
+      <c r="B165" s="17"/>
+      <c r="C165" t="s">
+        <v>295</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="7"/>
+      <c r="B166" s="17"/>
+      <c r="C166" t="s">
+        <v>297</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="7"/>
+      <c r="B167" s="17"/>
+      <c r="C167" t="s">
         <v>298</v>
       </c>
-      <c r="D164" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="7"/>
-      <c r="B165" s="16"/>
-      <c r="C165" t="s">
-        <v>299</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="7"/>
-      <c r="B166" s="16"/>
-      <c r="C166" t="s">
-        <v>300</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="7"/>
-      <c r="B167" s="16"/>
-      <c r="C167" t="s">
+      <c r="D167" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="D167" s="1" t="s">
-        <v>302</v>
-      </c>
       <c r="E167" s="1" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="7"/>
-      <c r="B168" s="2" t="s">
+      <c r="B168" s="17"/>
+      <c r="C168" t="s">
+        <v>299</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="7"/>
+      <c r="B169" s="17"/>
+      <c r="C169" t="s">
+        <v>300</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="7"/>
+      <c r="B170" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C170" t="s">
+        <v>190</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="B171" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="C171" t="s">
         <v>195</v>
       </c>
-      <c r="C168" t="s">
-        <v>191</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="B169" s="16" t="s">
+      <c r="D171" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E171" s="1">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="17"/>
+      <c r="B172" s="17"/>
+      <c r="C172" t="s">
+        <v>196</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E172" s="1">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="17"/>
+      <c r="B173" s="17"/>
+      <c r="C173" t="s">
+        <v>200</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="17"/>
+      <c r="B174" s="17"/>
+      <c r="C174" t="s">
+        <v>201</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="17"/>
+      <c r="B175" s="17"/>
+      <c r="C175" t="s">
         <v>253</v>
       </c>
-      <c r="C169" t="s">
-        <v>196</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E169" s="1">
-        <v>3.14</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="16"/>
-      <c r="B170" s="16"/>
-      <c r="C170" t="s">
-        <v>197</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E170" s="1">
-        <v>3.14</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="16"/>
-      <c r="B171" s="16"/>
-      <c r="C171" t="s">
-        <v>201</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="16"/>
-      <c r="B172" s="16"/>
-      <c r="C172" t="s">
-        <v>202</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="16"/>
-      <c r="B173" s="16"/>
-      <c r="C173" t="s">
+      <c r="D175" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="17"/>
+      <c r="B176" s="17"/>
+      <c r="C176" t="s">
         <v>254</v>
       </c>
-      <c r="D173" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="16"/>
-      <c r="B174" s="16"/>
-      <c r="C174" t="s">
+      <c r="D176" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="17"/>
+      <c r="B177" s="17"/>
+      <c r="C177" t="s">
         <v>255</v>
       </c>
-      <c r="D174" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="16"/>
-      <c r="B175" s="16"/>
-      <c r="C175" t="s">
-        <v>256</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="16"/>
-      <c r="B176" s="16"/>
-      <c r="C176" t="s">
+      <c r="D177" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="17"/>
+      <c r="B178" s="17"/>
+      <c r="C178" t="s">
+        <v>303</v>
+      </c>
+      <c r="D178" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D176" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="16"/>
-      <c r="B177" s="7"/>
-      <c r="C177" t="s">
-        <v>199</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="16"/>
-      <c r="B178" s="7"/>
-      <c r="C178" t="s">
-        <v>200</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>204</v>
-      </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="16"/>
+      <c r="A179" s="17"/>
       <c r="B179" s="7"/>
       <c r="C179" t="s">
+        <v>198</v>
+      </c>
+      <c r="D179" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D179" s="1" t="s">
-        <v>204</v>
-      </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="16"/>
+      <c r="A180" s="17"/>
       <c r="B180" s="7"/>
       <c r="C180" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>312</v>
+        <v>203</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="16"/>
+      <c r="A181" s="17"/>
       <c r="B181" s="7"/>
       <c r="C181" t="s">
+        <v>202</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="17"/>
+      <c r="B182" s="7"/>
+      <c r="C182" t="s">
+        <v>309</v>
+      </c>
+      <c r="D182" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="D181" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="16"/>
-      <c r="B182" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C182" t="s">
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="17"/>
+      <c r="B183" s="7"/>
+      <c r="C183" t="s">
+        <v>310</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="17"/>
+      <c r="B184" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="C184" t="s">
+        <v>305</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="17"/>
+      <c r="B185" s="17"/>
+      <c r="C185" t="s">
         <v>306</v>
       </c>
-      <c r="D182" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="16"/>
-      <c r="B183" s="16"/>
-      <c r="C183" t="s">
+      <c r="D185" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="17"/>
+      <c r="B186" s="17"/>
+      <c r="C186" t="s">
         <v>307</v>
       </c>
-      <c r="D183" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="16"/>
-      <c r="B184" s="16"/>
-      <c r="C184" t="s">
-        <v>308</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="16" t="s">
+      <c r="D186" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="B187" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="B185" s="16" t="s">
+      <c r="C187" t="s">
         <v>206</v>
       </c>
-      <c r="C185" t="s">
+      <c r="D187" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E185" s="1">
-        <v>3.22</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="16"/>
-      <c r="B186" s="16"/>
-      <c r="C186" t="s">
-        <v>209</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E186" s="1">
-        <v>3.23</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="16"/>
-      <c r="B187" s="16"/>
-      <c r="C187" t="s">
-        <v>211</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="E187" s="1">
         <v>3.22</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="16"/>
-      <c r="B188" s="16"/>
+      <c r="A188" s="17"/>
+      <c r="B188" s="17"/>
       <c r="C188" t="s">
+        <v>208</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E188" s="1">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="17"/>
+      <c r="B189" s="17"/>
+      <c r="C189" t="s">
+        <v>210</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E189" s="1">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="17"/>
+      <c r="B190" s="17"/>
+      <c r="C190" t="s">
+        <v>211</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="17"/>
+      <c r="B191" s="17"/>
+      <c r="C191" t="s">
         <v>212</v>
       </c>
-      <c r="D188" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="16"/>
-      <c r="B189" s="16"/>
-      <c r="C189" t="s">
+      <c r="D191" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D189" s="1" t="s">
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="17"/>
+      <c r="B192" s="17"/>
+      <c r="C192" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="16"/>
-      <c r="B190" s="16"/>
-      <c r="C190" t="s">
-        <v>215</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="16"/>
-      <c r="B191" s="16"/>
-      <c r="C191" t="s">
+      <c r="D192" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="17"/>
+      <c r="B193" s="17"/>
+      <c r="C193" t="s">
+        <v>216</v>
+      </c>
+      <c r="D193" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E191" s="1">
-        <v>3.24</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="16"/>
-      <c r="B192" s="16"/>
-      <c r="C192" t="s">
-        <v>280</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" s="16"/>
-      <c r="B193" s="16"/>
-      <c r="C193" t="s">
-        <v>281</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>279</v>
       </c>
       <c r="E193" s="1">
         <v>3.24</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" s="16"/>
-      <c r="B194" s="16"/>
+      <c r="A194" s="17"/>
+      <c r="B194" s="17"/>
       <c r="C194" t="s">
+        <v>279</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="17"/>
+      <c r="B195" s="17"/>
+      <c r="C195" t="s">
+        <v>280</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E195" s="1">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="17"/>
+      <c r="B196" s="17"/>
+      <c r="C196" t="s">
+        <v>281</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E196" s="1">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="17"/>
+      <c r="B197" s="17"/>
+      <c r="C197" t="s">
         <v>282</v>
       </c>
-      <c r="D194" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="E194" s="1">
+      <c r="D197" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="17"/>
+      <c r="B198" s="17"/>
+      <c r="C198" t="s">
+        <v>283</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="17"/>
+      <c r="B199" s="17"/>
+      <c r="C199" t="s">
+        <v>284</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="17"/>
+      <c r="B200" s="17"/>
+      <c r="C200" t="s">
+        <v>285</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E200" s="1">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="17"/>
+      <c r="B201" s="17"/>
+      <c r="C201" t="s">
+        <v>286</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="17"/>
+      <c r="B202" s="17"/>
+      <c r="C202" t="s">
+        <v>287</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="17"/>
+      <c r="B203" s="17"/>
+      <c r="C203" t="s">
+        <v>288</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="17"/>
+      <c r="B204" s="17"/>
+      <c r="C204" t="s">
+        <v>331</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="17"/>
+      <c r="B205" s="17"/>
+      <c r="C205" t="s">
+        <v>332</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="17"/>
+      <c r="B206" s="17"/>
+      <c r="C206" t="s">
+        <v>333</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="17"/>
+      <c r="B207" s="17"/>
+      <c r="C207" t="s">
+        <v>61</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E207" s="1">
         <v>3.24</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" s="16"/>
-      <c r="B195" s="16"/>
-      <c r="C195" t="s">
-        <v>283</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" s="16"/>
-      <c r="B196" s="16"/>
-      <c r="C196" t="s">
-        <v>284</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" s="16"/>
-      <c r="B197" s="16"/>
-      <c r="C197" t="s">
-        <v>285</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" s="16"/>
-      <c r="B198" s="16"/>
-      <c r="C198" t="s">
-        <v>286</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="E198" s="1">
-        <v>3.22</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" s="16"/>
-      <c r="B199" s="16"/>
-      <c r="C199" t="s">
-        <v>287</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="16"/>
-      <c r="B200" s="16"/>
-      <c r="C200" t="s">
-        <v>288</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="16"/>
-      <c r="B201" s="16"/>
-      <c r="C201" t="s">
-        <v>289</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" s="16"/>
-      <c r="B202" s="16"/>
-      <c r="C202" t="s">
-        <v>332</v>
-      </c>
-      <c r="D202" s="1" t="s">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="17"/>
+      <c r="B208" s="17"/>
+      <c r="C208" t="s">
+        <v>338</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="17"/>
+      <c r="B209" s="17"/>
+      <c r="C209" t="s">
+        <v>402</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" s="17"/>
+      <c r="B210" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="C210" t="s">
+        <v>218</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" s="17"/>
+      <c r="B211" s="17"/>
+      <c r="C211" t="s">
+        <v>219</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="17"/>
+      <c r="B212" s="17"/>
+      <c r="C212" t="s">
+        <v>221</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="17"/>
+      <c r="B213" s="17"/>
+      <c r="C213" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" s="16"/>
-      <c r="B203" s="16"/>
-      <c r="C203" t="s">
-        <v>333</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" s="16"/>
-      <c r="B204" s="16"/>
-      <c r="C204" t="s">
-        <v>334</v>
-      </c>
-      <c r="D204" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" s="16"/>
-      <c r="B205" s="16"/>
-      <c r="C205" t="s">
-        <v>61</v>
-      </c>
-      <c r="D205" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E205" s="1">
-        <v>3.24</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" s="16"/>
-      <c r="B206" s="16"/>
-      <c r="C206" t="s">
+      <c r="D213" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" s="17"/>
+      <c r="B214" s="17"/>
+      <c r="C214" t="s">
+        <v>336</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" s="17"/>
+      <c r="B215" s="17"/>
+      <c r="C215" t="s">
+        <v>340</v>
+      </c>
+      <c r="D215" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="D206" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" s="16"/>
-      <c r="B207" s="16"/>
-      <c r="C207" t="s">
-        <v>403</v>
-      </c>
-      <c r="D207" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" s="16"/>
-      <c r="B208" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="C208" t="s">
-        <v>219</v>
-      </c>
-      <c r="D208" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" s="16"/>
-      <c r="B209" s="16"/>
-      <c r="C209" t="s">
-        <v>220</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" s="16"/>
-      <c r="B210" s="16"/>
-      <c r="C210" t="s">
-        <v>222</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" s="16"/>
-      <c r="B211" s="16"/>
-      <c r="C211" t="s">
-        <v>336</v>
-      </c>
-      <c r="D211" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" s="16"/>
-      <c r="B212" s="16"/>
-      <c r="C212" t="s">
-        <v>337</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" s="16"/>
-      <c r="B213" s="16"/>
-      <c r="C213" t="s">
-        <v>341</v>
-      </c>
-      <c r="D213" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="B214" s="7"/>
-      <c r="C214" t="s">
-        <v>225</v>
-      </c>
-      <c r="D214" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E214" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" s="7"/>
-      <c r="B215" s="7"/>
-      <c r="C215" t="s">
-        <v>227</v>
-      </c>
-      <c r="D215" s="1" t="s">
-        <v>226</v>
-      </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216" s="7"/>
+      <c r="A216" s="7" t="s">
+        <v>228</v>
+      </c>
       <c r="B216" s="7"/>
       <c r="C216" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="7"/>
       <c r="B217" s="7"/>
       <c r="C217" t="s">
-        <v>383</v>
+        <v>226</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>376</v>
+        <v>225</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="7"/>
       <c r="B218" s="7"/>
       <c r="C218" t="s">
-        <v>384</v>
+        <v>227</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>385</v>
+        <v>225</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="7"/>
       <c r="B219" s="7"/>
       <c r="C219" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="7"/>
       <c r="B220" s="7"/>
       <c r="C220" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="7"/>
       <c r="B221" s="7"/>
       <c r="C221" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="7"/>
+      <c r="B222" s="7"/>
       <c r="C222" t="s">
-        <v>236</v>
+        <v>386</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E222" s="1" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="7"/>
       <c r="B223" s="7"/>
       <c r="C223" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="7"/>
-      <c r="B224" s="7"/>
       <c r="C224" t="s">
-        <v>391</v>
+        <v>235</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>389</v>
+        <v>234</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="7"/>
       <c r="B225" s="7"/>
       <c r="C225" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A226" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="B226" s="16" t="s">
-        <v>232</v>
-      </c>
+      <c r="A226" s="7"/>
+      <c r="B226" s="7"/>
       <c r="C226" t="s">
-        <v>230</v>
+        <v>390</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E226" s="1" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="7"/>
-      <c r="B227" s="16"/>
+      <c r="B227" s="7"/>
       <c r="C227" t="s">
+        <v>391</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B228" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="D227" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A228" s="7"/>
-      <c r="B228" s="2" t="s">
-        <v>234</v>
-      </c>
       <c r="C228" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="7"/>
+      <c r="B229" s="17"/>
       <c r="C229" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="7"/>
+      <c r="B230" s="2" t="s">
+        <v>233</v>
+      </c>
       <c r="C230" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>235</v>
+        <v>225</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="7"/>
-      <c r="B231" s="16" t="s">
-        <v>127</v>
-      </c>
       <c r="C231" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E231" s="1" t="s">
-        <v>373</v>
+        <v>234</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="7"/>
-      <c r="B232" s="16"/>
       <c r="C232" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="7"/>
-      <c r="B233" s="16"/>
+      <c r="B233" s="17" t="s">
+        <v>126</v>
+      </c>
       <c r="C233" t="s">
-        <v>374</v>
+        <v>238</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>373</v>
+        <v>239</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="7"/>
-      <c r="B234" s="16"/>
+      <c r="B234" s="17"/>
       <c r="C234" t="s">
-        <v>379</v>
+        <v>240</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>376</v>
+        <v>239</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="7"/>
-      <c r="B235" s="16" t="s">
-        <v>244</v>
-      </c>
+      <c r="B235" s="17"/>
       <c r="C235" t="s">
-        <v>243</v>
+        <v>373</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>240</v>
+        <v>372</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="7"/>
-      <c r="B236" s="16"/>
+      <c r="B236" s="17"/>
       <c r="C236" t="s">
-        <v>242</v>
+        <v>378</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>240</v>
+        <v>375</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="7"/>
-      <c r="B237" s="16" t="s">
-        <v>382</v>
+      <c r="B237" s="17" t="s">
+        <v>243</v>
       </c>
       <c r="C237" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="7"/>
-      <c r="B238" s="16"/>
+      <c r="B238" s="17"/>
       <c r="C238" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="7"/>
-      <c r="B239" s="16"/>
+      <c r="B239" s="17" t="s">
+        <v>381</v>
+      </c>
       <c r="C239" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="7"/>
-      <c r="B240" s="16"/>
+      <c r="B240" s="17"/>
       <c r="C240" t="s">
+        <v>266</v>
+      </c>
+      <c r="D240" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="D240" s="1" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="7"/>
-      <c r="B241" s="16"/>
+      <c r="B241" s="17"/>
       <c r="C241" t="s">
-        <v>368</v>
+        <v>267</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>367</v>
+        <v>269</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="7"/>
-      <c r="B242" s="16"/>
+      <c r="B242" s="17"/>
       <c r="C242" t="s">
-        <v>371</v>
+        <v>268</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>373</v>
+        <v>269</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="7"/>
-      <c r="B243" s="16"/>
+      <c r="B243" s="17"/>
       <c r="C243" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="7"/>
-      <c r="B244" s="16"/>
+      <c r="B244" s="17"/>
       <c r="C244" t="s">
+        <v>370</v>
+      </c>
+      <c r="D244" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="D244" s="1" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="7"/>
-      <c r="B245" s="16"/>
+      <c r="B245" s="17"/>
       <c r="C245" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="7"/>
-      <c r="B246" s="13"/>
+      <c r="B246" s="17"/>
       <c r="C246" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="7"/>
-      <c r="B247" s="16" t="s">
-        <v>381</v>
-      </c>
+      <c r="B247" s="17"/>
       <c r="C247" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="7"/>
-      <c r="B248" s="16"/>
+      <c r="B248" s="13"/>
       <c r="C248" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="7"/>
-      <c r="B249" s="13"/>
+      <c r="B249" s="17" t="s">
+        <v>380</v>
+      </c>
       <c r="C249" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A250" s="16" t="s">
+      <c r="A250" s="7"/>
+      <c r="B250" s="17"/>
+      <c r="C250" t="s">
+        <v>377</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" s="7"/>
+      <c r="B251" s="13"/>
+      <c r="C251" t="s">
+        <v>379</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="C252" t="s">
         <v>246</v>
       </c>
-      <c r="C250" t="s">
+      <c r="D252" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D250" s="1" t="s">
+      <c r="E252" s="1">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" s="17"/>
+      <c r="C253" t="s">
         <v>248</v>
       </c>
-      <c r="E250" s="1">
+      <c r="D253" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E253" s="1">
         <v>3.19</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A251" s="16"/>
-      <c r="C251" t="s">
-        <v>249</v>
-      </c>
-      <c r="D251" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E251" s="1">
-        <v>3.19</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A252" s="16"/>
-      <c r="B252" s="4"/>
-      <c r="C252" t="s">
-        <v>263</v>
-      </c>
-      <c r="D252" s="1" t="s">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" s="17"/>
+      <c r="B254" s="4"/>
+      <c r="C254" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A253" s="16"/>
-      <c r="B253" s="10"/>
-      <c r="C253" t="s">
-        <v>328</v>
-      </c>
-      <c r="D253" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A254" s="16"/>
-      <c r="B254" s="10"/>
-      <c r="C254" t="s">
-        <v>329</v>
-      </c>
       <c r="D254" s="1" t="s">
-        <v>331</v>
+        <v>261</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A255" s="16"/>
+      <c r="A255" s="17"/>
       <c r="B255" s="10"/>
       <c r="C255" t="s">
+        <v>327</v>
+      </c>
+      <c r="D255" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D255" s="1" t="s">
-        <v>331</v>
-      </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A256" s="16" t="s">
+      <c r="A256" s="17"/>
+      <c r="B256" s="10"/>
+      <c r="C256" t="s">
+        <v>328</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" s="17"/>
+      <c r="B257" s="10"/>
+      <c r="C257" t="s">
+        <v>329</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="C258" t="s">
         <v>250</v>
       </c>
-      <c r="C256" t="s">
+      <c r="D258" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D256" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E256" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A257" s="16"/>
-      <c r="B257" s="12"/>
-      <c r="C257" t="s">
+      <c r="E258" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" s="17"/>
+      <c r="B259" s="12"/>
+      <c r="C259" t="s">
+        <v>365</v>
+      </c>
+      <c r="D259" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="D257" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>256</v>
+      </c>
+      <c r="C260" t="s">
         <v>257</v>
       </c>
-      <c r="C258" t="s">
+      <c r="D260" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D258" s="1" t="s">
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
+      <c r="C261" t="s">
         <v>260</v>
       </c>
-      <c r="C259" t="s">
+      <c r="D261" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D259" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>264</v>
+      </c>
+      <c r="C262" t="s">
         <v>265</v>
       </c>
-      <c r="C260" t="s">
-        <v>266</v>
-      </c>
-      <c r="D260" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C261" t="s">
+      <c r="D262" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C263" t="s">
+        <v>273</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C264" t="s">
         <v>274</v>
       </c>
-      <c r="D261" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C262" t="s">
+      <c r="D264" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C265" t="s">
         <v>275</v>
       </c>
-      <c r="D262" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C263" t="s">
+      <c r="D265" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="D263" s="1" t="s">
-        <v>277</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A185:A213"/>
-    <mergeCell ref="A256:A257"/>
-    <mergeCell ref="B231:B234"/>
-    <mergeCell ref="B247:B248"/>
-    <mergeCell ref="B237:B245"/>
-    <mergeCell ref="B144:B148"/>
-    <mergeCell ref="A250:A255"/>
-    <mergeCell ref="B235:B236"/>
-    <mergeCell ref="B226:B227"/>
-    <mergeCell ref="B208:B213"/>
-    <mergeCell ref="B169:B176"/>
-    <mergeCell ref="B182:B184"/>
-    <mergeCell ref="A169:A184"/>
-    <mergeCell ref="B159:B161"/>
-    <mergeCell ref="B185:B207"/>
-    <mergeCell ref="B162:B167"/>
-    <mergeCell ref="B125:B128"/>
-    <mergeCell ref="B118:B122"/>
-    <mergeCell ref="B129:B132"/>
-    <mergeCell ref="B155:B158"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="B133:B141"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="B108:B117"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="A108:A122"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="A97:A102"/>
     <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="B74:B76"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="B13:B31"/>
     <mergeCell ref="B32:B40"/>
@@ -4930,10 +4953,40 @@
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B53:B55"/>
     <mergeCell ref="A56:A67"/>
-    <mergeCell ref="A73:A93"/>
+    <mergeCell ref="A74:A94"/>
     <mergeCell ref="B47:B48"/>
     <mergeCell ref="A42:A55"/>
-    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="B110:B119"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="B87:B90"/>
+    <mergeCell ref="A110:A124"/>
+    <mergeCell ref="B91:B94"/>
+    <mergeCell ref="A99:A104"/>
+    <mergeCell ref="B127:B130"/>
+    <mergeCell ref="B120:B124"/>
+    <mergeCell ref="B131:B134"/>
+    <mergeCell ref="B157:B160"/>
+    <mergeCell ref="B144:B145"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="B135:B143"/>
+    <mergeCell ref="B146:B150"/>
+    <mergeCell ref="A252:A257"/>
+    <mergeCell ref="B237:B238"/>
+    <mergeCell ref="B228:B229"/>
+    <mergeCell ref="B210:B215"/>
+    <mergeCell ref="B171:B178"/>
+    <mergeCell ref="B184:B186"/>
+    <mergeCell ref="A171:A186"/>
+    <mergeCell ref="B161:B163"/>
+    <mergeCell ref="B187:B209"/>
+    <mergeCell ref="B164:B169"/>
+    <mergeCell ref="A187:A215"/>
+    <mergeCell ref="A258:A259"/>
+    <mergeCell ref="B233:B236"/>
+    <mergeCell ref="B249:B250"/>
+    <mergeCell ref="B239:B247"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/时间表.xlsx
+++ b/时间表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\360\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24143FF-A9ED-4E80-A206-0A037205779E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5275233E-4C17-46F1-93AE-C8A0D97D7825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11028" yWindow="240" windowWidth="11748" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="413">
   <si>
     <t>第一次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1652,6 +1652,30 @@
   </si>
   <si>
     <t>217存在重复元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>697数组的度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>594最长和谐子序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>287寻找重复数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>313超级丑数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>307区域和检索-数组可修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1695,7 +1719,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1715,6 +1739,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2026,10 +2053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F265"/>
+  <dimension ref="A1:F270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="A248" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77:A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2061,10 +2088,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>151</v>
       </c>
       <c r="C2" t="s">
@@ -2075,8 +2102,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -2088,7 +2115,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
+      <c r="A4" s="18"/>
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -2097,8 +2124,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18" t="s">
         <v>139</v>
       </c>
       <c r="C5" t="s">
@@ -2109,8 +2136,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
       <c r="C6" t="s">
         <v>136</v>
       </c>
@@ -2119,8 +2146,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
       <c r="C7" t="s">
         <v>137</v>
       </c>
@@ -2129,8 +2156,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
       <c r="C8" t="s">
         <v>138</v>
       </c>
@@ -2142,8 +2169,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18" t="s">
         <v>150</v>
       </c>
       <c r="C9" t="s">
@@ -2154,8 +2181,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
       <c r="C10" t="s">
         <v>9</v>
       </c>
@@ -2164,8 +2191,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
       <c r="C11" t="s">
         <v>10</v>
       </c>
@@ -2174,7 +2201,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
+      <c r="A12" s="18"/>
       <c r="C12" t="s">
         <v>97</v>
       </c>
@@ -2183,10 +2210,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="18" t="s">
         <v>13</v>
       </c>
       <c r="C13" t="s">
@@ -2197,8 +2224,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -2207,8 +2234,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
       <c r="C15" t="s">
         <v>17</v>
       </c>
@@ -2217,8 +2244,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
       <c r="C16" t="s">
         <v>18</v>
       </c>
@@ -2227,8 +2254,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
       <c r="C17" t="s">
         <v>19</v>
       </c>
@@ -2237,8 +2264,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
       <c r="C18" t="s">
         <v>20</v>
       </c>
@@ -2247,8 +2274,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
       <c r="C19" t="s">
         <v>21</v>
       </c>
@@ -2257,8 +2284,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
       <c r="C20" t="s">
         <v>22</v>
       </c>
@@ -2267,8 +2294,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
       <c r="C21" t="s">
         <v>23</v>
       </c>
@@ -2277,8 +2304,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
       <c r="C22" t="s">
         <v>24</v>
       </c>
@@ -2287,8 +2314,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -2297,8 +2324,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
       <c r="C24" t="s">
         <v>26</v>
       </c>
@@ -2307,8 +2334,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
       <c r="C25" t="s">
         <v>27</v>
       </c>
@@ -2317,8 +2344,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
       <c r="C26" t="s">
         <v>28</v>
       </c>
@@ -2327,8 +2354,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
       <c r="C27" t="s">
         <v>29</v>
       </c>
@@ -2337,8 +2364,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
       <c r="C28" t="s">
         <v>30</v>
       </c>
@@ -2347,8 +2374,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
       <c r="C29" t="s">
         <v>31</v>
       </c>
@@ -2357,8 +2384,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
       <c r="C30" t="s">
         <v>32</v>
       </c>
@@ -2367,8 +2394,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
       <c r="C31" t="s">
         <v>33</v>
       </c>
@@ -2377,8 +2404,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17" t="s">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18" t="s">
         <v>34</v>
       </c>
       <c r="C32" t="s">
@@ -2389,8 +2416,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
       <c r="C33" t="s">
         <v>36</v>
       </c>
@@ -2399,8 +2426,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
       <c r="C34" t="s">
         <v>37</v>
       </c>
@@ -2409,8 +2436,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
       <c r="C35" t="s">
         <v>39</v>
       </c>
@@ -2419,8 +2446,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
       <c r="C36" t="s">
         <v>40</v>
       </c>
@@ -2429,8 +2456,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
       <c r="C37" t="s">
         <v>41</v>
       </c>
@@ -2439,8 +2466,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
       <c r="C38" t="s">
         <v>42</v>
       </c>
@@ -2449,8 +2476,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
       <c r="C39" t="s">
         <v>44</v>
       </c>
@@ -2459,8 +2486,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17"/>
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
       <c r="C40" t="s">
         <v>45</v>
       </c>
@@ -2469,7 +2496,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
+      <c r="A41" s="18"/>
       <c r="B41" s="2" t="s">
         <v>47</v>
       </c>
@@ -2481,7 +2508,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="18" t="s">
         <v>50</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -2495,7 +2522,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
+      <c r="A43" s="18"/>
       <c r="B43" s="2" t="s">
         <v>74</v>
       </c>
@@ -2507,7 +2534,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
+      <c r="A44" s="18"/>
       <c r="B44" s="2" t="s">
         <v>75</v>
       </c>
@@ -2519,8 +2546,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
-      <c r="B45" s="17" t="s">
+      <c r="A45" s="18"/>
+      <c r="B45" s="18" t="s">
         <v>76</v>
       </c>
       <c r="C45" t="s">
@@ -2531,8 +2558,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
-      <c r="B46" s="17"/>
+      <c r="A46" s="18"/>
+      <c r="B46" s="18"/>
       <c r="C46" t="s">
         <v>57</v>
       </c>
@@ -2541,8 +2568,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="17"/>
-      <c r="B47" s="17" t="s">
+      <c r="A47" s="18"/>
+      <c r="B47" s="18" t="s">
         <v>77</v>
       </c>
       <c r="C47" t="s">
@@ -2553,8 +2580,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="17"/>
-      <c r="B48" s="17"/>
+      <c r="A48" s="18"/>
+      <c r="B48" s="18"/>
       <c r="C48" t="s">
         <v>62</v>
       </c>
@@ -2563,8 +2590,8 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="17"/>
-      <c r="B49" s="17" t="s">
+      <c r="A49" s="18"/>
+      <c r="B49" s="18" t="s">
         <v>78</v>
       </c>
       <c r="C49" t="s">
@@ -2575,8 +2602,8 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="17"/>
-      <c r="B50" s="17"/>
+      <c r="A50" s="18"/>
+      <c r="B50" s="18"/>
       <c r="C50" t="s">
         <v>65</v>
       </c>
@@ -2585,8 +2612,8 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="17"/>
-      <c r="B51" s="17"/>
+      <c r="A51" s="18"/>
+      <c r="B51" s="18"/>
       <c r="C51" t="s">
         <v>66</v>
       </c>
@@ -2595,7 +2622,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="17"/>
+      <c r="A52" s="18"/>
       <c r="B52" s="2" t="s">
         <v>79</v>
       </c>
@@ -2607,8 +2634,8 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="17"/>
-      <c r="B53" s="17" t="s">
+      <c r="A53" s="18"/>
+      <c r="B53" s="18" t="s">
         <v>80</v>
       </c>
       <c r="C53" t="s">
@@ -2619,8 +2646,8 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="17"/>
-      <c r="B54" s="17"/>
+      <c r="A54" s="18"/>
+      <c r="B54" s="18"/>
       <c r="C54" t="s">
         <v>70</v>
       </c>
@@ -2629,8 +2656,8 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="17"/>
-      <c r="B55" s="17"/>
+      <c r="A55" s="18"/>
+      <c r="B55" s="18"/>
       <c r="C55" t="s">
         <v>71</v>
       </c>
@@ -2639,7 +2666,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="18" t="s">
         <v>81</v>
       </c>
       <c r="C56" t="s">
@@ -2650,7 +2677,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="17"/>
+      <c r="A57" s="18"/>
       <c r="C57" t="s">
         <v>83</v>
       </c>
@@ -2659,7 +2686,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="17"/>
+      <c r="A58" s="18"/>
       <c r="C58" t="s">
         <v>84</v>
       </c>
@@ -2668,7 +2695,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="17"/>
+      <c r="A59" s="18"/>
       <c r="C59" t="s">
         <v>86</v>
       </c>
@@ -2677,7 +2704,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="17"/>
+      <c r="A60" s="18"/>
       <c r="C60" t="s">
         <v>87</v>
       </c>
@@ -2686,7 +2713,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="17"/>
+      <c r="A61" s="18"/>
       <c r="C61" t="s">
         <v>89</v>
       </c>
@@ -2698,7 +2725,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="17"/>
+      <c r="A62" s="18"/>
       <c r="C62" t="s">
         <v>90</v>
       </c>
@@ -2710,7 +2737,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="17"/>
+      <c r="A63" s="18"/>
       <c r="C63" t="s">
         <v>91</v>
       </c>
@@ -2722,7 +2749,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="17"/>
+      <c r="A64" s="18"/>
       <c r="C64" t="s">
         <v>92</v>
       </c>
@@ -2734,7 +2761,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="17"/>
+      <c r="A65" s="18"/>
       <c r="C65" t="s">
         <v>94</v>
       </c>
@@ -2746,7 +2773,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="17"/>
+      <c r="A66" s="18"/>
       <c r="C66" t="s">
         <v>95</v>
       </c>
@@ -2758,7 +2785,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="17"/>
+      <c r="A67" s="18"/>
       <c r="B67" s="6"/>
       <c r="C67" t="s">
         <v>277</v>
@@ -2830,1642 +2857,1645 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="B74" s="17" t="s">
-        <v>104</v>
-      </c>
+      <c r="A74" s="17"/>
+      <c r="B74" s="17"/>
       <c r="C74" t="s">
-        <v>100</v>
+        <v>408</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="17"/>
       <c r="B75" s="17"/>
       <c r="C75" t="s">
-        <v>101</v>
+        <v>409</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="17"/>
       <c r="B76" s="17"/>
       <c r="C76" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="17"/>
-      <c r="B77" s="17" t="s">
-        <v>103</v>
+      <c r="A77" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B77" s="18" t="s">
+        <v>104</v>
       </c>
       <c r="C77" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="E77" s="1" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="17"/>
-      <c r="B78" s="17"/>
+      <c r="A78" s="18"/>
+      <c r="B78" s="18"/>
       <c r="C78" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="E78" s="1" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="17"/>
-      <c r="B79" s="17"/>
+      <c r="A79" s="18"/>
+      <c r="B79" s="18"/>
       <c r="C79" t="s">
+        <v>403</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="18"/>
+      <c r="B80" s="18"/>
+      <c r="C80" t="s">
+        <v>412</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="18"/>
+      <c r="B81" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C81" t="s">
+        <v>105</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="18"/>
+      <c r="B82" s="18"/>
+      <c r="C82" t="s">
+        <v>106</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="18"/>
+      <c r="B83" s="18"/>
+      <c r="C83" t="s">
         <v>107</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D83" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="17"/>
-      <c r="B80" s="17" t="s">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="18"/>
+      <c r="B84" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C84" t="s">
         <v>109</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D84" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="E84" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="17"/>
-      <c r="B81" s="17"/>
-      <c r="C81" t="s">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="18"/>
+      <c r="B85" s="18"/>
+      <c r="C85" t="s">
         <v>110</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D85" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="17"/>
-      <c r="B82" s="17"/>
-      <c r="C82" t="s">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="18"/>
+      <c r="B86" s="18"/>
+      <c r="C86" t="s">
         <v>111</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D86" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="17"/>
-      <c r="B83" s="17" t="s">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="18"/>
+      <c r="B87" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C87" t="s">
         <v>122</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D87" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="17"/>
-      <c r="B84" s="17"/>
-      <c r="C84" t="s">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="18"/>
+      <c r="B88" s="18"/>
+      <c r="C88" t="s">
         <v>123</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D88" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="17"/>
-      <c r="B85" s="17"/>
-      <c r="C85" t="s">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="18"/>
+      <c r="B89" s="18"/>
+      <c r="C89" t="s">
         <v>125</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D89" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="E89" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="17"/>
-      <c r="C86" t="s">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="18"/>
+      <c r="C90" t="s">
         <v>113</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D90" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="17"/>
-      <c r="B87" s="17" t="s">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="18"/>
+      <c r="B91" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C91" t="s">
         <v>115</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="17"/>
-      <c r="B88" s="17"/>
-      <c r="C88" t="s">
-        <v>116</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="17"/>
-      <c r="B89" s="17"/>
-      <c r="C89" t="s">
-        <v>117</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="17"/>
-      <c r="B90" s="17"/>
-      <c r="C90" t="s">
-        <v>118</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="17"/>
-      <c r="B91" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="C91" t="s">
-        <v>397</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E91" s="1" t="s">
-        <v>398</v>
-      </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="17"/>
-      <c r="B92" s="17"/>
+      <c r="A92" s="18"/>
+      <c r="B92" s="18"/>
       <c r="C92" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="17"/>
-      <c r="B93" s="17"/>
+      <c r="A93" s="18"/>
+      <c r="B93" s="18"/>
       <c r="C93" t="s">
+        <v>117</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="18"/>
+      <c r="B94" s="18"/>
+      <c r="C94" t="s">
+        <v>118</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="18"/>
+      <c r="B95" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="C95" t="s">
+        <v>397</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="18"/>
+      <c r="B96" s="18"/>
+      <c r="C96" t="s">
+        <v>121</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="18"/>
+      <c r="B97" s="18"/>
+      <c r="C97" t="s">
         <v>290</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D97" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="17"/>
-      <c r="B94" s="17"/>
-      <c r="C94" t="s">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="18"/>
+      <c r="B98" s="18"/>
+      <c r="C98" t="s">
         <v>291</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D98" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="14"/>
-      <c r="B95" s="14"/>
-      <c r="C95" t="s">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="18"/>
+      <c r="B99" s="14"/>
+      <c r="C99" t="s">
         <v>394</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D99" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="14"/>
-      <c r="B96" s="14"/>
-      <c r="C96" t="s">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="18"/>
+      <c r="B100" s="14"/>
+      <c r="C100" t="s">
         <v>395</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D100" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="14"/>
-      <c r="B97" s="14"/>
-      <c r="C97" t="s">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="18"/>
+      <c r="B101" s="14"/>
+      <c r="C101" t="s">
         <v>396</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D101" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="16"/>
-      <c r="B98" s="16"/>
-      <c r="C98" t="s">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="18"/>
+      <c r="B102" s="16"/>
+      <c r="C102" t="s">
         <v>405</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D102" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="17" t="s">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="18"/>
+      <c r="B103" s="17"/>
+      <c r="C103" t="s">
+        <v>410</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C104" t="s">
         <v>128</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D104" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="17"/>
-      <c r="C100" t="s">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="18"/>
+      <c r="C105" t="s">
         <v>129</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D105" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E100" s="1">
+      <c r="E105" s="1">
         <v>3.17</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="17"/>
-      <c r="C101" t="s">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="18"/>
+      <c r="C106" t="s">
         <v>131</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D106" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="17"/>
-      <c r="C102" t="s">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="18"/>
+      <c r="C107" t="s">
         <v>132</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D107" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="17"/>
-      <c r="C103" t="s">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="18"/>
+      <c r="C108" t="s">
         <v>133</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D108" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="17"/>
-      <c r="B104" s="5"/>
-      <c r="C104" t="s">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="18"/>
+      <c r="B109" s="5"/>
+      <c r="C109" t="s">
         <v>270</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D109" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="8"/>
-      <c r="B105" s="8"/>
-      <c r="C105" t="s">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="8"/>
+      <c r="B110" s="8"/>
+      <c r="C110" t="s">
         <v>319</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D110" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="8"/>
-      <c r="B106" s="8"/>
-      <c r="C106" t="s">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="8"/>
+      <c r="B111" s="8"/>
+      <c r="C111" t="s">
         <v>320</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="D111" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="8"/>
-      <c r="B107" s="8"/>
-      <c r="C107" t="s">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="8"/>
+      <c r="B112" s="8"/>
+      <c r="C112" t="s">
         <v>321</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D112" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="8"/>
-      <c r="B108" s="8